--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0D8DB-8DDD-44BA-AEB3-5190B567E7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E359C-42D7-4A7B-A994-3ED44D2A49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="743">
   <si>
     <t>Name</t>
   </si>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
   <dimension ref="A1:CB487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H39" zoomScale="104" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView tabSelected="1" topLeftCell="AD39" zoomScale="104" workbookViewId="0">
+      <selection activeCell="AU51" sqref="AU51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7287,7 +7287,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -7475,8 +7475,50 @@
       <c r="AF51" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG51" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>662</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>616</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>686</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>506</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>610</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>656</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>508</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -7496,7 +7538,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -7549,7 +7591,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -7587,7 +7629,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -7661,7 +7703,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -7729,7 +7771,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -7767,7 +7809,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -7811,7 +7853,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -7846,7 +7888,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -7914,7 +7956,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -7940,7 +7982,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -7996,7 +8038,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8049,7 +8091,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>78</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E359C-42D7-4A7B-A994-3ED44D2A49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382D793-4571-429B-951F-D6F2ACFC6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="746">
   <si>
     <t>Name</t>
   </si>
@@ -2263,6 +2263,15 @@
   </si>
   <si>
     <t>Synchronoise</t>
+  </si>
+  <si>
+    <t>Beat Up</t>
+  </si>
+  <si>
+    <t>Move37</t>
+  </si>
+  <si>
+    <t>Coverage37</t>
   </si>
 </sst>
 </file>
@@ -2614,15 +2623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
-  <dimension ref="A1:CB487"/>
+  <dimension ref="A1:CD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD39" zoomScale="104" workbookViewId="0">
-      <selection activeCell="AU51" sqref="AU51"/>
+    <sheetView tabSelected="1" topLeftCell="AE48" zoomScale="104" workbookViewId="0">
+      <selection activeCell="AU60" sqref="AU60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2863,8 +2872,14 @@
       <c r="CB1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="CC1" t="s">
+        <v>744</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2938,7 +2953,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3411,7 +3426,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3559,7 +3574,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3785,8 +3800,14 @@
       <c r="CB9" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="CC9" t="s">
+        <v>743</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3908,7 +3929,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3985,7 +4006,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +4056,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4195,8 +4216,14 @@
       <c r="BF13" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
+      <c r="BG13" t="s">
+        <v>743</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4347,7 +4374,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6035,6 +6062,12 @@
       <c r="AZ33" t="s">
         <v>506</v>
       </c>
+      <c r="BA33" t="s">
+        <v>743</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -7537,6 +7570,12 @@
       <c r="J52" t="s">
         <v>507</v>
       </c>
+      <c r="K52" t="s">
+        <v>743</v>
+      </c>
+      <c r="L52" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -7590,6 +7629,36 @@
       <c r="T53" t="s">
         <v>518</v>
       </c>
+      <c r="U53" t="s">
+        <v>647</v>
+      </c>
+      <c r="V53" t="s">
+        <v>520</v>
+      </c>
+      <c r="W53" t="s">
+        <v>654</v>
+      </c>
+      <c r="X53" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -7628,6 +7697,48 @@
       <c r="P54" t="s">
         <v>520</v>
       </c>
+      <c r="Q54" t="s">
+        <v>545</v>
+      </c>
+      <c r="R54" t="s">
+        <v>520</v>
+      </c>
+      <c r="S54" t="s">
+        <v>647</v>
+      </c>
+      <c r="T54" t="s">
+        <v>520</v>
+      </c>
+      <c r="U54" t="s">
+        <v>541</v>
+      </c>
+      <c r="V54" t="s">
+        <v>508</v>
+      </c>
+      <c r="W54" t="s">
+        <v>549</v>
+      </c>
+      <c r="X54" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -7702,6 +7813,30 @@
       <c r="AB55" t="s">
         <v>507</v>
       </c>
+      <c r="AC55" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>648</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -7770,6 +7905,30 @@
       <c r="Z56" t="s">
         <v>506</v>
       </c>
+      <c r="AA56" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>671</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>732</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -7808,6 +7967,36 @@
       <c r="P57" t="s">
         <v>518</v>
       </c>
+      <c r="Q57" t="s">
+        <v>538</v>
+      </c>
+      <c r="R57" t="s">
+        <v>521</v>
+      </c>
+      <c r="S57" t="s">
+        <v>607</v>
+      </c>
+      <c r="T57" t="s">
+        <v>507</v>
+      </c>
+      <c r="U57" t="s">
+        <v>569</v>
+      </c>
+      <c r="V57" t="s">
+        <v>520</v>
+      </c>
+      <c r="W57" t="s">
+        <v>648</v>
+      </c>
+      <c r="X57" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -7852,6 +8041,30 @@
       <c r="R58" t="s">
         <v>506</v>
       </c>
+      <c r="S58" t="s">
+        <v>691</v>
+      </c>
+      <c r="T58" t="s">
+        <v>506</v>
+      </c>
+      <c r="U58" t="s">
+        <v>582</v>
+      </c>
+      <c r="V58" t="s">
+        <v>505</v>
+      </c>
+      <c r="W58" t="s">
+        <v>599</v>
+      </c>
+      <c r="X58" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -7887,6 +8100,30 @@
       <c r="N59" t="s">
         <v>519</v>
       </c>
+      <c r="O59" t="s">
+        <v>732</v>
+      </c>
+      <c r="P59" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>576</v>
+      </c>
+      <c r="R59" t="s">
+        <v>504</v>
+      </c>
+      <c r="S59" t="s">
+        <v>738</v>
+      </c>
+      <c r="T59" t="s">
+        <v>518</v>
+      </c>
+      <c r="U59" t="s">
+        <v>648</v>
+      </c>
+      <c r="V59" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -7954,6 +8191,66 @@
       </c>
       <c r="Z60" t="s">
         <v>516</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>520</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>640</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>507</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>648</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>516</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>610</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>715</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382D793-4571-429B-951F-D6F2ACFC6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3A33B-3FB9-4799-AFBE-87C88A3ED394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="746">
   <si>
     <t>Name</t>
   </si>
@@ -2025,9 +2025,6 @@
     <t>Lash Out</t>
   </si>
   <si>
-    <t>Explosion</t>
-  </si>
-  <si>
     <t>Future Sight</t>
   </si>
   <si>
@@ -2272,6 +2269,9 @@
   </si>
   <si>
     <t>Coverage37</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
   </si>
 </sst>
 </file>
@@ -2625,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
   <dimension ref="A1:CD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE48" zoomScale="104" workbookViewId="0">
-      <selection activeCell="AU60" sqref="AU60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="104" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2642,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2654,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I1" t="s">
         <v>524</v>
@@ -2777,106 +2777,106 @@
         <v>637</v>
       </c>
       <c r="AW1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AX1" t="s">
         <v>693</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>694</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>695</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>696</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>697</v>
       </c>
-      <c r="BB1" t="s">
-        <v>698</v>
-      </c>
       <c r="BC1" t="s">
+        <v>699</v>
+      </c>
+      <c r="BD1" t="s">
         <v>700</v>
       </c>
-      <c r="BD1" t="s">
-        <v>701</v>
-      </c>
       <c r="BE1" t="s">
+        <v>705</v>
+      </c>
+      <c r="BF1" t="s">
         <v>706</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>707</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>708</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>709</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>710</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>711</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>712</v>
       </c>
-      <c r="BL1" t="s">
-        <v>713</v>
-      </c>
       <c r="BM1" t="s">
+        <v>717</v>
+      </c>
+      <c r="BN1" t="s">
         <v>718</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>719</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>720</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>721</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>722</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>723</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>724</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>725</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>726</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>727</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>728</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>729</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>730</v>
       </c>
-      <c r="BZ1" t="s">
-        <v>731</v>
-      </c>
       <c r="CA1" t="s">
+        <v>732</v>
+      </c>
+      <c r="CB1" t="s">
         <v>733</v>
       </c>
-      <c r="CB1" t="s">
-        <v>734</v>
-      </c>
       <c r="CC1" t="s">
+        <v>743</v>
+      </c>
+      <c r="CD1" t="s">
         <v>744</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.35">
@@ -2947,7 +2947,7 @@
         <v>512</v>
       </c>
       <c r="AA2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AB2" t="s">
         <v>506</v>
@@ -3030,7 +3030,7 @@
         <v>509</v>
       </c>
       <c r="AE3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF3" t="s">
         <v>517</v>
@@ -3048,16 +3048,16 @@
         <v>514</v>
       </c>
       <c r="AK3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AL3" t="s">
         <v>518</v>
       </c>
       <c r="AM3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AN3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.35">
@@ -3101,7 +3101,7 @@
         <v>506</v>
       </c>
       <c r="S4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T4" t="s">
         <v>506</v>
@@ -3205,13 +3205,13 @@
         <v>521</v>
       </c>
       <c r="AE5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF5" t="s">
         <v>517</v>
       </c>
       <c r="AG5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH5" t="s">
         <v>506</v>
@@ -3223,13 +3223,13 @@
         <v>521</v>
       </c>
       <c r="AK5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AL5" t="s">
         <v>506</v>
       </c>
       <c r="AM5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AN5" t="s">
         <v>506</v>
@@ -3330,7 +3330,7 @@
         <v>514</v>
       </c>
       <c r="AI6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AJ6" t="s">
         <v>506</v>
@@ -3390,19 +3390,19 @@
         <v>521</v>
       </c>
       <c r="BC6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BD6" t="s">
         <v>512</v>
       </c>
       <c r="BE6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BF6" t="s">
         <v>520</v>
       </c>
       <c r="BG6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BH6" t="s">
         <v>506</v>
@@ -3414,13 +3414,13 @@
         <v>520</v>
       </c>
       <c r="BK6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="BL6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="BM6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="BN6" t="s">
         <v>521</v>
@@ -3479,13 +3479,13 @@
         <v>520</v>
       </c>
       <c r="W7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X7" t="s">
         <v>506</v>
       </c>
       <c r="Y7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Z7" t="s">
         <v>504</v>
@@ -3550,7 +3550,7 @@
         <v>510</v>
       </c>
       <c r="W8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X8" t="s">
         <v>506</v>
@@ -3568,7 +3568,7 @@
         <v>511</v>
       </c>
       <c r="AC8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AD8" t="s">
         <v>504</v>
@@ -3687,7 +3687,7 @@
         <v>508</v>
       </c>
       <c r="AQ9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AR9" t="s">
         <v>506</v>
@@ -3699,16 +3699,16 @@
         <v>520</v>
       </c>
       <c r="AU9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AV9" t="s">
         <v>515</v>
       </c>
       <c r="AW9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AX9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AY9" t="s">
         <v>626</v>
@@ -3717,7 +3717,7 @@
         <v>504</v>
       </c>
       <c r="BA9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="BB9" t="s">
         <v>506</v>
@@ -3741,37 +3741,37 @@
         <v>514</v>
       </c>
       <c r="BI9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BJ9" t="s">
         <v>520</v>
       </c>
       <c r="BK9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BL9" t="s">
         <v>506</v>
       </c>
       <c r="BM9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BN9" t="s">
         <v>520</v>
       </c>
       <c r="BO9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BP9" t="s">
         <v>506</v>
       </c>
       <c r="BQ9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="BR9" t="s">
         <v>520</v>
       </c>
       <c r="BS9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BT9" t="s">
         <v>514</v>
@@ -3783,7 +3783,7 @@
         <v>508</v>
       </c>
       <c r="BW9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BX9" t="s">
         <v>514</v>
@@ -3795,13 +3795,13 @@
         <v>509</v>
       </c>
       <c r="CA9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CB9" t="s">
         <v>521</v>
       </c>
       <c r="CC9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="CD9" t="s">
         <v>506</v>
@@ -3863,10 +3863,10 @@
         <v>520</v>
       </c>
       <c r="W10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="X10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y10" t="s">
         <v>571</v>
@@ -3911,19 +3911,19 @@
         <v>512</v>
       </c>
       <c r="AM10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN10" t="s">
         <v>520</v>
       </c>
       <c r="AO10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AP10" t="s">
         <v>506</v>
       </c>
       <c r="AQ10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AR10" t="s">
         <v>521</v>
@@ -3988,7 +3988,7 @@
         <v>518</v>
       </c>
       <c r="W11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="X11" t="s">
         <v>506</v>
@@ -4044,13 +4044,13 @@
         <v>516</v>
       </c>
       <c r="Q12" t="s">
+        <v>734</v>
+      </c>
+      <c r="R12" t="s">
         <v>735</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>736</v>
-      </c>
-      <c r="S12" t="s">
-        <v>737</v>
       </c>
       <c r="T12" t="s">
         <v>505</v>
@@ -4145,7 +4145,7 @@
         <v>512</v>
       </c>
       <c r="AI13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AJ13" t="s">
         <v>506</v>
@@ -4169,7 +4169,7 @@
         <v>506</v>
       </c>
       <c r="AQ13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AR13" t="s">
         <v>521</v>
@@ -4211,13 +4211,13 @@
         <v>508</v>
       </c>
       <c r="BE13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="BF13" t="s">
         <v>506</v>
       </c>
       <c r="BG13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BH13" t="s">
         <v>506</v>
@@ -4255,13 +4255,13 @@
         <v>507</v>
       </c>
       <c r="O14" t="s">
+        <v>734</v>
+      </c>
+      <c r="P14" t="s">
         <v>735</v>
       </c>
-      <c r="P14" t="s">
-        <v>736</v>
-      </c>
       <c r="Q14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="R14" t="s">
         <v>506</v>
@@ -4350,7 +4350,7 @@
         <v>520</v>
       </c>
       <c r="AG15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AH15" t="s">
         <v>504</v>
@@ -4362,7 +4362,7 @@
         <v>512</v>
       </c>
       <c r="AK15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AL15" t="s">
         <v>521</v>
@@ -4436,7 +4436,7 @@
         <v>514</v>
       </c>
       <c r="Y16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Z16" t="s">
         <v>504</v>
@@ -4564,7 +4564,7 @@
         <v>512</v>
       </c>
       <c r="AM17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AN17" t="s">
         <v>521</v>
@@ -4576,7 +4576,7 @@
         <v>506</v>
       </c>
       <c r="AQ17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AR17" t="s">
         <v>506</v>
@@ -4650,7 +4650,7 @@
         <v>508</v>
       </c>
       <c r="Y18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Z18" t="s">
         <v>508</v>
@@ -4706,7 +4706,7 @@
         <v>508</v>
       </c>
       <c r="U19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V19" t="s">
         <v>506</v>
@@ -4718,7 +4718,7 @@
         <v>521</v>
       </c>
       <c r="Y19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z19" t="s">
         <v>515</v>
@@ -4742,7 +4742,7 @@
         <v>521</v>
       </c>
       <c r="AG19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AH19" t="s">
         <v>508</v>
@@ -4801,7 +4801,7 @@
         <v>510</v>
       </c>
       <c r="U20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="V20" t="s">
         <v>504</v>
@@ -4825,7 +4825,7 @@
         <v>506</v>
       </c>
       <c r="AC20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AD20" t="s">
         <v>521</v>
@@ -4849,13 +4849,13 @@
         <v>506</v>
       </c>
       <c r="AK20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AL20" t="s">
         <v>518</v>
       </c>
       <c r="AM20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AN20" t="s">
         <v>506</v>
@@ -4947,7 +4947,7 @@
         <v>521</v>
       </c>
       <c r="AG21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH21" t="s">
         <v>521</v>
@@ -5027,13 +5027,13 @@
         <v>519</v>
       </c>
       <c r="AA22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB22" t="s">
         <v>504</v>
       </c>
       <c r="AC22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AD22" t="s">
         <v>506</v>
@@ -5133,10 +5133,10 @@
         <v>507</v>
       </c>
       <c r="Q24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R24" t="s">
         <v>735</v>
-      </c>
-      <c r="R24" t="s">
-        <v>736</v>
       </c>
       <c r="S24" t="s">
         <v>584</v>
@@ -5317,19 +5317,19 @@
         <v>506</v>
       </c>
       <c r="AY26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AZ26" t="s">
         <v>521</v>
       </c>
       <c r="BA26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BB26" t="s">
         <v>506</v>
       </c>
       <c r="BC26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="BD26" t="s">
         <v>504</v>
@@ -5504,10 +5504,10 @@
         <v>508</v>
       </c>
       <c r="AG28" t="s">
+        <v>734</v>
+      </c>
+      <c r="AH28" t="s">
         <v>735</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
@@ -5563,10 +5563,10 @@
         <v>510</v>
       </c>
       <c r="U29" t="s">
+        <v>734</v>
+      </c>
+      <c r="V29" t="s">
         <v>735</v>
-      </c>
-      <c r="V29" t="s">
-        <v>736</v>
       </c>
       <c r="W29" t="s">
         <v>574</v>
@@ -5700,19 +5700,19 @@
         <v>507</v>
       </c>
       <c r="AO30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AP30" t="s">
         <v>506</v>
       </c>
       <c r="AQ30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AR30" t="s">
         <v>506</v>
       </c>
       <c r="AS30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AT30" t="s">
         <v>506</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B31" t="s">
         <v>515</v>
@@ -5744,7 +5744,7 @@
         <v>520</v>
       </c>
       <c r="M31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N31" t="s">
         <v>518</v>
@@ -5798,19 +5798,19 @@
         <v>521</v>
       </c>
       <c r="AE31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF31" t="s">
         <v>521</v>
       </c>
       <c r="AG31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AH31" t="s">
         <v>520</v>
       </c>
       <c r="AI31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ31" t="s">
         <v>506</v>
@@ -5863,7 +5863,7 @@
         <v>507</v>
       </c>
       <c r="S32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T32" t="s">
         <v>506</v>
@@ -5905,13 +5905,13 @@
         <v>514</v>
       </c>
       <c r="AG32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AH32" t="s">
         <v>517</v>
       </c>
       <c r="AI32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ32" t="s">
         <v>506</v>
@@ -5979,7 +5979,7 @@
         <v>507</v>
       </c>
       <c r="Y33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Z33" t="s">
         <v>506</v>
@@ -6015,7 +6015,7 @@
         <v>516</v>
       </c>
       <c r="AK33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AL33" t="s">
         <v>516</v>
@@ -6027,7 +6027,7 @@
         <v>520</v>
       </c>
       <c r="AO33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AP33" t="s">
         <v>506</v>
@@ -6039,7 +6039,7 @@
         <v>521</v>
       </c>
       <c r="AS33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AT33" t="s">
         <v>521</v>
@@ -6051,19 +6051,19 @@
         <v>512</v>
       </c>
       <c r="AW33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AX33" t="s">
         <v>506</v>
       </c>
       <c r="AY33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AZ33" t="s">
         <v>506</v>
       </c>
       <c r="BA33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BB33" t="s">
         <v>506</v>
@@ -6149,7 +6149,7 @@
         <v>506</v>
       </c>
       <c r="AF34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG34" t="s">
         <v>506</v>
@@ -6347,13 +6347,13 @@
         <v>509</v>
       </c>
       <c r="AA37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB37" t="s">
         <v>506</v>
       </c>
       <c r="AC37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AD37" t="s">
         <v>520</v>
@@ -6424,10 +6424,10 @@
         <v>514</v>
       </c>
       <c r="Y38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Z38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AA38" t="s">
         <v>647</v>
@@ -6448,7 +6448,7 @@
         <v>521</v>
       </c>
       <c r="AG38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH38" t="s">
         <v>521</v>
@@ -6540,7 +6540,7 @@
         <v>507</v>
       </c>
       <c r="AE39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF39" t="s">
         <v>510</v>
@@ -6552,7 +6552,7 @@
         <v>520</v>
       </c>
       <c r="AI39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AJ39" t="s">
         <v>506</v>
@@ -6588,13 +6588,13 @@
         <v>506</v>
       </c>
       <c r="AU39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AV39" t="s">
         <v>521</v>
       </c>
       <c r="AW39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AX39" t="s">
         <v>515</v>
@@ -6612,13 +6612,13 @@
         <v>506</v>
       </c>
       <c r="BC39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="BD39" t="s">
         <v>515</v>
       </c>
       <c r="BE39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BF39" t="s">
         <v>506</v>
@@ -6674,7 +6674,7 @@
         <v>516</v>
       </c>
       <c r="Q40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R40" t="s">
         <v>504</v>
@@ -6724,19 +6724,19 @@
         <v>506</v>
       </c>
       <c r="S41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T41" t="s">
         <v>506</v>
       </c>
       <c r="U41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V41" t="s">
         <v>506</v>
       </c>
       <c r="W41" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="X41" t="s">
         <v>504</v>
@@ -6883,7 +6883,7 @@
         <v>505</v>
       </c>
       <c r="U44" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V44" t="s">
         <v>506</v>
@@ -6966,7 +6966,7 @@
         <v>518</v>
       </c>
       <c r="AA45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AB45" t="s">
         <v>506</v>
@@ -6984,7 +6984,7 @@
         <v>512</v>
       </c>
       <c r="AG45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AH45" t="s">
         <v>506</v>
@@ -7043,7 +7043,7 @@
         <v>514</v>
       </c>
       <c r="S46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T46" t="s">
         <v>506</v>
@@ -7067,7 +7067,7 @@
         <v>519</v>
       </c>
       <c r="AA46" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AB46" t="s">
         <v>521</v>
@@ -7177,16 +7177,16 @@
         <v>518</v>
       </c>
       <c r="AK47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AL47" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AM47" t="s">
+        <v>734</v>
+      </c>
+      <c r="AN47" t="s">
         <v>735</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>736</v>
       </c>
       <c r="AO47" t="s">
         <v>600</v>
@@ -7195,19 +7195,19 @@
         <v>510</v>
       </c>
       <c r="AQ47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AR47" t="s">
         <v>506</v>
       </c>
       <c r="AS47" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AT47" t="s">
         <v>520</v>
       </c>
       <c r="AU47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AV47" t="s">
         <v>521</v>
@@ -7308,13 +7308,13 @@
         <v>515</v>
       </c>
       <c r="AA48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AB48" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AC48" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AD48" t="s">
         <v>504</v>
@@ -7355,7 +7355,7 @@
         <v>518</v>
       </c>
       <c r="Q49" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R49" t="s">
         <v>521</v>
@@ -7503,7 +7503,7 @@
         <v>518</v>
       </c>
       <c r="AE51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF51" t="s">
         <v>506</v>
@@ -7527,7 +7527,7 @@
         <v>510</v>
       </c>
       <c r="AM51" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AN51" t="s">
         <v>506</v>
@@ -7545,7 +7545,7 @@
         <v>508</v>
       </c>
       <c r="AS51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AT51" t="s">
         <v>506</v>
@@ -7571,7 +7571,7 @@
         <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L52" t="s">
         <v>506</v>
@@ -7648,7 +7648,7 @@
         <v>510</v>
       </c>
       <c r="AA53" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB53" t="s">
         <v>506</v>
@@ -7728,7 +7728,7 @@
         <v>507</v>
       </c>
       <c r="AA54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB54" t="s">
         <v>506</v>
@@ -7814,7 +7814,7 @@
         <v>507</v>
       </c>
       <c r="AC55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AD55" t="s">
         <v>506</v>
@@ -7826,7 +7826,7 @@
         <v>516</v>
       </c>
       <c r="AG55" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH55" t="s">
         <v>521</v>
@@ -7900,13 +7900,13 @@
         <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Z56" t="s">
         <v>506</v>
       </c>
       <c r="AA56" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AB56" t="s">
         <v>519</v>
@@ -7918,13 +7918,13 @@
         <v>508</v>
       </c>
       <c r="AE56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF56" t="s">
         <v>508</v>
       </c>
       <c r="AG56" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AH56" t="s">
         <v>504</v>
@@ -7992,7 +7992,7 @@
         <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z57" t="s">
         <v>516</v>
@@ -8036,13 +8036,13 @@
         <v>516</v>
       </c>
       <c r="Q58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R58" t="s">
         <v>506</v>
       </c>
       <c r="S58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T58" t="s">
         <v>506</v>
@@ -8101,7 +8101,7 @@
         <v>519</v>
       </c>
       <c r="O59" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P59" t="s">
         <v>504</v>
@@ -8113,7 +8113,7 @@
         <v>504</v>
       </c>
       <c r="S59" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T59" t="s">
         <v>518</v>
@@ -8181,31 +8181,31 @@
         <v>518</v>
       </c>
       <c r="W60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X60" t="s">
         <v>507</v>
       </c>
       <c r="Y60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z60" t="s">
         <v>516</v>
       </c>
       <c r="AA60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AB60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AC60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AD60" t="s">
         <v>506</v>
       </c>
       <c r="AE60" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF60" t="s">
         <v>521</v>
@@ -8217,7 +8217,7 @@
         <v>520</v>
       </c>
       <c r="AI60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AJ60" t="s">
         <v>520</v>
@@ -8247,7 +8247,7 @@
         <v>521</v>
       </c>
       <c r="AS60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AT60" t="s">
         <v>520</v>
@@ -8278,6 +8278,12 @@
       <c r="L61" t="s">
         <v>511</v>
       </c>
+      <c r="M61" t="s">
+        <v>607</v>
+      </c>
+      <c r="N61" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -8334,6 +8340,24 @@
       <c r="V62" t="s">
         <v>518</v>
       </c>
+      <c r="W62" t="s">
+        <v>639</v>
+      </c>
+      <c r="X62" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -8358,10 +8382,10 @@
         <v>520</v>
       </c>
       <c r="K63" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="L63" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M63" t="s">
         <v>600</v>
@@ -8386,6 +8410,12 @@
       </c>
       <c r="T63" t="s">
         <v>518</v>
+      </c>
+      <c r="U63" t="s">
+        <v>566</v>
+      </c>
+      <c r="V63" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.35">
@@ -8417,9 +8447,27 @@
         <v>516</v>
       </c>
       <c r="O64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P64" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>690</v>
+      </c>
+      <c r="R64" t="s">
+        <v>506</v>
+      </c>
+      <c r="S64" t="s">
+        <v>645</v>
+      </c>
+      <c r="T64" t="s">
+        <v>506</v>
+      </c>
+      <c r="U64" t="s">
+        <v>668</v>
+      </c>
+      <c r="V64" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8478,6 +8526,42 @@
       <c r="V65" t="s">
         <v>518</v>
       </c>
+      <c r="W65" t="s">
+        <v>582</v>
+      </c>
+      <c r="X65" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -8493,7 +8577,7 @@
         <v>397</v>
       </c>
       <c r="I66" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J66" t="s">
         <v>518</v>
@@ -8523,7 +8607,7 @@
         <v>514</v>
       </c>
       <c r="S66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T66" t="s">
         <v>515</v>
@@ -8532,6 +8616,30 @@
         <v>542</v>
       </c>
       <c r="V66" t="s">
+        <v>519</v>
+      </c>
+      <c r="W66" t="s">
+        <v>570</v>
+      </c>
+      <c r="X66" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD66" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8570,7 +8678,7 @@
         <v>521</v>
       </c>
       <c r="O67" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P67" t="s">
         <v>509</v>
@@ -8597,6 +8705,18 @@
         <v>591</v>
       </c>
       <c r="X67" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB67" t="s">
         <v>507</v>
       </c>
     </row>
@@ -8620,13 +8740,13 @@
         <v>506</v>
       </c>
       <c r="K68" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L68" t="s">
         <v>504</v>
       </c>
       <c r="M68" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N68" t="s">
         <v>515</v>
@@ -8648,6 +8768,18 @@
       </c>
       <c r="T68" t="s">
         <v>516</v>
+      </c>
+      <c r="U68" t="s">
+        <v>588</v>
+      </c>
+      <c r="V68" t="s">
+        <v>506</v>
+      </c>
+      <c r="W68" t="s">
+        <v>731</v>
+      </c>
+      <c r="X68" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
@@ -8696,6 +8828,30 @@
       <c r="T69" t="s">
         <v>506</v>
       </c>
+      <c r="U69" t="s">
+        <v>569</v>
+      </c>
+      <c r="V69" t="s">
+        <v>520</v>
+      </c>
+      <c r="W69" t="s">
+        <v>552</v>
+      </c>
+      <c r="X69" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -8732,10 +8888,28 @@
         <v>518</v>
       </c>
       <c r="O70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P70" t="s">
         <v>506</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>731</v>
+      </c>
+      <c r="R70" t="s">
+        <v>504</v>
+      </c>
+      <c r="S70" t="s">
+        <v>662</v>
+      </c>
+      <c r="T70" t="s">
+        <v>506</v>
+      </c>
+      <c r="U70" t="s">
+        <v>640</v>
+      </c>
+      <c r="V70" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
@@ -8820,7 +8994,7 @@
         <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J72" t="s">
         <v>513</v>
@@ -8844,7 +9018,7 @@
         <v>507</v>
       </c>
       <c r="Q72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R72" t="s">
         <v>518</v>
@@ -8959,13 +9133,13 @@
         <v>518</v>
       </c>
       <c r="AE74" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG74" t="s">
         <v>669</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>506</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>670</v>
       </c>
       <c r="AH74" t="s">
         <v>507</v>
@@ -9053,7 +9227,7 @@
         <v>511</v>
       </c>
       <c r="Q76" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R76" t="s">
         <v>508</v>
@@ -9083,7 +9257,7 @@
         <v>507</v>
       </c>
       <c r="AA76" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AB76" t="s">
         <v>504</v>
@@ -9095,7 +9269,7 @@
         <v>520</v>
       </c>
       <c r="AE76" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF76" t="s">
         <v>520</v>
@@ -9198,7 +9372,7 @@
         <v>504</v>
       </c>
       <c r="O78" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P78" t="s">
         <v>519</v>
@@ -9260,19 +9434,19 @@
         <v>516</v>
       </c>
       <c r="M79" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N79" t="s">
         <v>508</v>
       </c>
       <c r="O79" t="s">
+        <v>668</v>
+      </c>
+      <c r="P79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q79" t="s">
         <v>669</v>
-      </c>
-      <c r="P79" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>670</v>
       </c>
       <c r="R79" t="s">
         <v>507</v>
@@ -9348,7 +9522,7 @@
         <v>503</v>
       </c>
       <c r="I81" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J81" t="s">
         <v>509</v>
@@ -9366,7 +9540,7 @@
         <v>516</v>
       </c>
       <c r="O81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P81" t="s">
         <v>514</v>
@@ -9437,7 +9611,7 @@
         <v>518</v>
       </c>
       <c r="U82" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V82" t="s">
         <v>506</v>
@@ -9513,7 +9687,7 @@
         <v>521</v>
       </c>
       <c r="O84" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P84" t="s">
         <v>517</v>
@@ -9537,7 +9711,7 @@
         <v>511</v>
       </c>
       <c r="W84" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X84" t="s">
         <v>504</v>
@@ -9555,7 +9729,7 @@
         <v>508</v>
       </c>
       <c r="AC84" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AD84" t="s">
         <v>514</v>
@@ -9573,7 +9747,7 @@
         <v>518</v>
       </c>
       <c r="AI84" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AJ84" t="s">
         <v>506</v>
@@ -9649,7 +9823,7 @@
         <v>503</v>
       </c>
       <c r="I86" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J86" t="s">
         <v>515</v>
@@ -9685,7 +9859,7 @@
         <v>515</v>
       </c>
       <c r="U86" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V86" t="s">
         <v>506</v>
@@ -9715,7 +9889,7 @@
         <v>518</v>
       </c>
       <c r="AE86" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF86" t="s">
         <v>506</v>
@@ -9753,7 +9927,7 @@
         <v>516</v>
       </c>
       <c r="O87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P87" t="s">
         <v>515</v>
@@ -9797,7 +9971,7 @@
         <v>506</v>
       </c>
       <c r="Q88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R88" t="s">
         <v>516</v>
@@ -9859,13 +10033,13 @@
         <v>507</v>
       </c>
       <c r="U89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V89" t="s">
         <v>521</v>
       </c>
       <c r="W89" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X89" t="s">
         <v>510</v>
@@ -9974,7 +10148,7 @@
         <v>517</v>
       </c>
       <c r="Q91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R91" t="s">
         <v>519</v>
@@ -9986,7 +10160,7 @@
         <v>507</v>
       </c>
       <c r="U91" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V91" t="s">
         <v>506</v>
@@ -10022,7 +10196,7 @@
         <v>518</v>
       </c>
       <c r="AG91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH91" t="s">
         <v>506</v>
@@ -10142,7 +10316,7 @@
         <v>504</v>
       </c>
       <c r="M94" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N94" t="s">
         <v>515</v>
@@ -10178,13 +10352,13 @@
         <v>518</v>
       </c>
       <c r="Y94" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z94" t="s">
         <v>515</v>
       </c>
       <c r="AA94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AB94" t="s">
         <v>517</v>
@@ -10240,25 +10414,25 @@
         <v>506</v>
       </c>
       <c r="U95" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V95" t="s">
         <v>517</v>
       </c>
       <c r="W95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X95" t="s">
         <v>504</v>
       </c>
       <c r="Y95" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z95" t="s">
         <v>514</v>
       </c>
       <c r="AA95" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AB95" t="s">
         <v>517</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3A33B-3FB9-4799-AFBE-87C88A3ED394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DEC21-4F1C-425F-B40D-6F0EFFEE4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="744">
   <si>
     <t>Name</t>
   </si>
@@ -1803,9 +1803,6 @@
     <t>Knock Off</t>
   </si>
   <si>
-    <t>Seed bomb</t>
-  </si>
-  <si>
     <t>Triple Axel</t>
   </si>
   <si>
@@ -1873,9 +1870,6 @@
   </si>
   <si>
     <t>Freeze Dry</t>
-  </si>
-  <si>
-    <t>Knock off</t>
   </si>
   <si>
     <t>Shadow Sneak</t>
@@ -2625,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
   <dimension ref="A1:CD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="104" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2642,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2654,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I1" t="s">
         <v>524</v>
@@ -2747,136 +2741,136 @@
         <v>556</v>
       </c>
       <c r="AM1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>629</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>633</v>
       </c>
-      <c r="AO1" t="s">
-        <v>630</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>632</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>631</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AV1" t="s">
         <v>635</v>
       </c>
-      <c r="AS1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>637</v>
-      </c>
       <c r="AW1" t="s">
+        <v>690</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>691</v>
+      </c>
+      <c r="AY1" t="s">
         <v>692</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>693</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>694</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>695</v>
       </c>
-      <c r="BA1" t="s">
-        <v>696</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>697</v>
       </c>
-      <c r="BC1" t="s">
-        <v>699</v>
-      </c>
       <c r="BD1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="BE1" t="s">
+        <v>703</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>704</v>
+      </c>
+      <c r="BG1" t="s">
         <v>705</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>706</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>707</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>708</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>709</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>710</v>
       </c>
-      <c r="BK1" t="s">
-        <v>711</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>712</v>
-      </c>
       <c r="BM1" t="s">
+        <v>715</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>716</v>
+      </c>
+      <c r="BO1" t="s">
         <v>717</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>718</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>719</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>720</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>721</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>722</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>723</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>724</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>725</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>726</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>727</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>728</v>
       </c>
-      <c r="BY1" t="s">
-        <v>729</v>
-      </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>730</v>
       </c>
-      <c r="CA1" t="s">
-        <v>732</v>
-      </c>
       <c r="CB1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="CC1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="CD1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.35">
@@ -2947,7 +2941,7 @@
         <v>512</v>
       </c>
       <c r="AA2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AB2" t="s">
         <v>506</v>
@@ -3012,7 +3006,7 @@
         <v>508</v>
       </c>
       <c r="Y3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Z3" t="s">
         <v>507</v>
@@ -3030,7 +3024,7 @@
         <v>509</v>
       </c>
       <c r="AE3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AF3" t="s">
         <v>517</v>
@@ -3042,22 +3036,22 @@
         <v>519</v>
       </c>
       <c r="AI3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AJ3" t="s">
         <v>514</v>
       </c>
       <c r="AK3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AL3" t="s">
         <v>518</v>
       </c>
       <c r="AM3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AN3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.35">
@@ -3101,25 +3095,25 @@
         <v>506</v>
       </c>
       <c r="S4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T4" t="s">
         <v>506</v>
       </c>
       <c r="U4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V4" t="s">
         <v>520</v>
       </c>
       <c r="W4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="X4" t="s">
         <v>520</v>
       </c>
       <c r="Y4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Z4" t="s">
         <v>516</v>
@@ -3193,7 +3187,7 @@
         <v>514</v>
       </c>
       <c r="AA5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AB5" t="s">
         <v>512</v>
@@ -3205,31 +3199,31 @@
         <v>521</v>
       </c>
       <c r="AE5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AF5" t="s">
         <v>517</v>
       </c>
       <c r="AG5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AH5" t="s">
         <v>506</v>
       </c>
       <c r="AI5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ5" t="s">
         <v>521</v>
       </c>
       <c r="AK5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AL5" t="s">
         <v>506</v>
       </c>
       <c r="AM5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AN5" t="s">
         <v>506</v>
@@ -3330,19 +3324,19 @@
         <v>514</v>
       </c>
       <c r="AI6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AJ6" t="s">
         <v>506</v>
       </c>
       <c r="AK6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL6" t="s">
         <v>512</v>
       </c>
       <c r="AM6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AN6" t="s">
         <v>506</v>
@@ -3372,55 +3366,55 @@
         <v>505</v>
       </c>
       <c r="AW6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AX6" t="s">
         <v>514</v>
       </c>
       <c r="AY6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AZ6" t="s">
         <v>515</v>
       </c>
       <c r="BA6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BB6" t="s">
         <v>521</v>
       </c>
       <c r="BC6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="BD6" t="s">
         <v>512</v>
       </c>
       <c r="BE6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="BF6" t="s">
         <v>520</v>
       </c>
       <c r="BG6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="BH6" t="s">
         <v>506</v>
       </c>
       <c r="BI6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="BJ6" t="s">
         <v>520</v>
       </c>
       <c r="BK6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="BL6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="BM6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BN6" t="s">
         <v>521</v>
@@ -3473,19 +3467,19 @@
         <v>518</v>
       </c>
       <c r="U7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V7" t="s">
         <v>520</v>
       </c>
       <c r="W7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="X7" t="s">
         <v>506</v>
       </c>
       <c r="Y7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Z7" t="s">
         <v>504</v>
@@ -3550,25 +3544,25 @@
         <v>510</v>
       </c>
       <c r="W8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="X8" t="s">
         <v>506</v>
       </c>
       <c r="Y8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Z8" t="s">
         <v>521</v>
       </c>
       <c r="AA8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB8" t="s">
         <v>511</v>
       </c>
       <c r="AC8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AD8" t="s">
         <v>504</v>
@@ -3627,7 +3621,7 @@
         <v>506</v>
       </c>
       <c r="W9" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="X9" t="s">
         <v>504</v>
@@ -3645,19 +3639,19 @@
         <v>514</v>
       </c>
       <c r="AC9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AD9" t="s">
         <v>505</v>
       </c>
       <c r="AE9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF9" t="s">
         <v>507</v>
       </c>
       <c r="AG9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AH9" t="s">
         <v>512</v>
@@ -3669,25 +3663,25 @@
         <v>510</v>
       </c>
       <c r="AK9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AL9" t="s">
         <v>507</v>
       </c>
       <c r="AM9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AN9" t="s">
         <v>504</v>
       </c>
       <c r="AO9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP9" t="s">
         <v>508</v>
       </c>
       <c r="AQ9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AR9" t="s">
         <v>506</v>
@@ -3699,25 +3693,25 @@
         <v>520</v>
       </c>
       <c r="AU9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AV9" t="s">
         <v>515</v>
       </c>
       <c r="AW9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AX9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AY9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AZ9" t="s">
         <v>504</v>
       </c>
       <c r="BA9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BB9" t="s">
         <v>506</v>
@@ -3729,61 +3723,61 @@
         <v>519</v>
       </c>
       <c r="BE9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="BF9" t="s">
         <v>506</v>
       </c>
       <c r="BG9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="BH9" t="s">
         <v>514</v>
       </c>
       <c r="BI9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="BJ9" t="s">
         <v>520</v>
       </c>
       <c r="BK9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="BL9" t="s">
         <v>506</v>
       </c>
       <c r="BM9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="BN9" t="s">
         <v>520</v>
       </c>
       <c r="BO9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="BP9" t="s">
         <v>506</v>
       </c>
       <c r="BQ9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="BR9" t="s">
         <v>520</v>
       </c>
       <c r="BS9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="BT9" t="s">
         <v>514</v>
       </c>
       <c r="BU9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BV9" t="s">
         <v>508</v>
       </c>
       <c r="BW9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="BX9" t="s">
         <v>514</v>
@@ -3795,13 +3789,13 @@
         <v>509</v>
       </c>
       <c r="CA9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="CB9" t="s">
         <v>521</v>
       </c>
       <c r="CC9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="CD9" t="s">
         <v>506</v>
@@ -3821,13 +3815,13 @@
         <v>503</v>
       </c>
       <c r="I10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J10" t="s">
         <v>511</v>
       </c>
       <c r="K10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L10" t="s">
         <v>512</v>
@@ -3839,19 +3833,19 @@
         <v>520</v>
       </c>
       <c r="O10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P10" t="s">
         <v>508</v>
       </c>
       <c r="Q10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R10" t="s">
         <v>507</v>
       </c>
       <c r="S10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T10" t="s">
         <v>521</v>
@@ -3863,10 +3857,10 @@
         <v>520</v>
       </c>
       <c r="W10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="X10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Y10" t="s">
         <v>571</v>
@@ -3893,37 +3887,37 @@
         <v>520</v>
       </c>
       <c r="AG10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AH10" t="s">
         <v>508</v>
       </c>
       <c r="AI10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AJ10" t="s">
         <v>521</v>
       </c>
       <c r="AK10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AL10" t="s">
         <v>512</v>
       </c>
       <c r="AM10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AN10" t="s">
         <v>520</v>
       </c>
       <c r="AO10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AP10" t="s">
         <v>506</v>
       </c>
       <c r="AQ10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AR10" t="s">
         <v>521</v>
@@ -3958,7 +3952,7 @@
         <v>521</v>
       </c>
       <c r="M11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N11" t="s">
         <v>510</v>
@@ -3970,7 +3964,7 @@
         <v>510</v>
       </c>
       <c r="Q11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R11" t="s">
         <v>506</v>
@@ -3988,19 +3982,19 @@
         <v>518</v>
       </c>
       <c r="W11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="X11" t="s">
         <v>506</v>
       </c>
       <c r="Y11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Z11" t="s">
         <v>510</v>
       </c>
       <c r="AA11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AB11" t="s">
         <v>521</v>
@@ -4038,19 +4032,19 @@
         <v>505</v>
       </c>
       <c r="O12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P12" t="s">
         <v>516</v>
       </c>
       <c r="Q12" t="s">
+        <v>732</v>
+      </c>
+      <c r="R12" t="s">
+        <v>733</v>
+      </c>
+      <c r="S12" t="s">
         <v>734</v>
-      </c>
-      <c r="R12" t="s">
-        <v>735</v>
-      </c>
-      <c r="S12" t="s">
-        <v>736</v>
       </c>
       <c r="T12" t="s">
         <v>505</v>
@@ -4103,7 +4097,7 @@
         <v>506</v>
       </c>
       <c r="U13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="V13" t="s">
         <v>507</v>
@@ -4121,31 +4115,31 @@
         <v>508</v>
       </c>
       <c r="AA13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB13" t="s">
         <v>504</v>
       </c>
       <c r="AC13" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE13" t="s">
         <v>604</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>506</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>605</v>
       </c>
       <c r="AF13" t="s">
         <v>512</v>
       </c>
       <c r="AG13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AH13" t="s">
         <v>512</v>
       </c>
       <c r="AI13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AJ13" t="s">
         <v>506</v>
@@ -4157,19 +4151,19 @@
         <v>510</v>
       </c>
       <c r="AM13" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AN13" t="s">
         <v>506</v>
       </c>
       <c r="AO13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP13" t="s">
         <v>506</v>
       </c>
       <c r="AQ13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AR13" t="s">
         <v>521</v>
@@ -4187,37 +4181,37 @@
         <v>514</v>
       </c>
       <c r="AW13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AX13" t="s">
         <v>507</v>
       </c>
       <c r="AY13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AZ13" t="s">
         <v>512</v>
       </c>
       <c r="BA13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BB13" t="s">
         <v>521</v>
       </c>
       <c r="BC13" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="BD13" t="s">
         <v>508</v>
       </c>
       <c r="BE13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BF13" t="s">
         <v>506</v>
       </c>
       <c r="BG13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="BH13" t="s">
         <v>506</v>
@@ -4249,19 +4243,19 @@
         <v>521</v>
       </c>
       <c r="M14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N14" t="s">
         <v>507</v>
       </c>
       <c r="O14" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="P14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Q14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="R14" t="s">
         <v>506</v>
@@ -4314,19 +4308,19 @@
         <v>518</v>
       </c>
       <c r="U15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="V15" t="s">
         <v>514</v>
       </c>
       <c r="W15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X15" t="s">
         <v>521</v>
       </c>
       <c r="Y15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z15" t="s">
         <v>512</v>
@@ -4338,37 +4332,37 @@
         <v>514</v>
       </c>
       <c r="AC15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD15" t="s">
         <v>521</v>
       </c>
       <c r="AE15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AF15" t="s">
         <v>520</v>
       </c>
       <c r="AG15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AH15" t="s">
         <v>504</v>
       </c>
       <c r="AI15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ15" t="s">
         <v>512</v>
       </c>
       <c r="AK15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AL15" t="s">
         <v>521</v>
       </c>
       <c r="AM15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AN15" t="s">
         <v>521</v>
@@ -4418,13 +4412,13 @@
         <v>518</v>
       </c>
       <c r="S16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T16" t="s">
         <v>514</v>
       </c>
       <c r="U16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V16" t="s">
         <v>521</v>
@@ -4436,25 +4430,25 @@
         <v>514</v>
       </c>
       <c r="Y16" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Z16" t="s">
         <v>504</v>
       </c>
       <c r="AA16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AB16" t="s">
         <v>512</v>
       </c>
       <c r="AC16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AD16" t="s">
         <v>521</v>
       </c>
       <c r="AE16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AF16" t="s">
         <v>510</v>
@@ -4528,7 +4522,7 @@
         <v>510</v>
       </c>
       <c r="AA17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB17" t="s">
         <v>507</v>
@@ -4546,7 +4540,7 @@
         <v>520</v>
       </c>
       <c r="AG17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH17" t="s">
         <v>517</v>
@@ -4558,31 +4552,31 @@
         <v>521</v>
       </c>
       <c r="AK17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL17" t="s">
         <v>512</v>
       </c>
       <c r="AM17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AN17" t="s">
         <v>521</v>
       </c>
       <c r="AO17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AP17" t="s">
         <v>506</v>
       </c>
       <c r="AQ17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AR17" t="s">
         <v>506</v>
       </c>
       <c r="AS17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AT17" t="s">
         <v>521</v>
@@ -4614,7 +4608,7 @@
         <v>510</v>
       </c>
       <c r="M18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N18" t="s">
         <v>508</v>
@@ -4638,19 +4632,19 @@
         <v>518</v>
       </c>
       <c r="U18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V18" t="s">
         <v>514</v>
       </c>
       <c r="W18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="X18" t="s">
         <v>508</v>
       </c>
       <c r="Y18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Z18" t="s">
         <v>508</v>
@@ -4670,7 +4664,7 @@
         <v>503</v>
       </c>
       <c r="I19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J19" t="s">
         <v>514</v>
@@ -4700,49 +4694,49 @@
         <v>508</v>
       </c>
       <c r="S19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T19" t="s">
         <v>508</v>
       </c>
       <c r="U19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V19" t="s">
         <v>506</v>
       </c>
       <c r="W19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="X19" t="s">
         <v>521</v>
       </c>
       <c r="Y19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Z19" t="s">
         <v>515</v>
       </c>
       <c r="AA19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AB19" t="s">
         <v>515</v>
       </c>
       <c r="AC19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AD19" t="s">
         <v>521</v>
       </c>
       <c r="AE19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF19" t="s">
         <v>521</v>
       </c>
       <c r="AG19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AH19" t="s">
         <v>508</v>
@@ -4771,37 +4765,37 @@
         <v>506</v>
       </c>
       <c r="K20" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="L20" t="s">
         <v>506</v>
       </c>
       <c r="M20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N20" t="s">
         <v>519</v>
       </c>
       <c r="O20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P20" t="s">
         <v>521</v>
       </c>
       <c r="Q20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R20" t="s">
         <v>506</v>
       </c>
       <c r="S20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T20" t="s">
         <v>510</v>
       </c>
       <c r="U20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="V20" t="s">
         <v>504</v>
@@ -4819,13 +4813,13 @@
         <v>509</v>
       </c>
       <c r="AA20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AB20" t="s">
         <v>506</v>
       </c>
       <c r="AC20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AD20" t="s">
         <v>521</v>
@@ -4837,25 +4831,25 @@
         <v>504</v>
       </c>
       <c r="AG20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AH20" t="s">
         <v>521</v>
       </c>
       <c r="AI20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AJ20" t="s">
         <v>506</v>
       </c>
       <c r="AK20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AL20" t="s">
         <v>518</v>
       </c>
       <c r="AM20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AN20" t="s">
         <v>506</v>
@@ -4875,7 +4869,7 @@
         <v>503</v>
       </c>
       <c r="I21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J21" t="s">
         <v>515</v>
@@ -4911,7 +4905,7 @@
         <v>506</v>
       </c>
       <c r="U21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="V21" t="s">
         <v>515</v>
@@ -4923,7 +4917,7 @@
         <v>519</v>
       </c>
       <c r="Y21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z21" t="s">
         <v>516</v>
@@ -4947,13 +4941,13 @@
         <v>521</v>
       </c>
       <c r="AG21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AH21" t="s">
         <v>521</v>
       </c>
       <c r="AI21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ21" t="s">
         <v>521</v>
@@ -4973,19 +4967,19 @@
         <v>503</v>
       </c>
       <c r="I22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J22" t="s">
         <v>520</v>
       </c>
       <c r="K22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L22" t="s">
         <v>506</v>
       </c>
       <c r="M22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N22" t="s">
         <v>512</v>
@@ -4997,7 +4991,7 @@
         <v>504</v>
       </c>
       <c r="Q22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R22" t="s">
         <v>510</v>
@@ -5009,13 +5003,13 @@
         <v>520</v>
       </c>
       <c r="U22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="V22" t="s">
         <v>508</v>
       </c>
       <c r="W22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X22" t="s">
         <v>521</v>
@@ -5027,13 +5021,13 @@
         <v>519</v>
       </c>
       <c r="AA22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AB22" t="s">
         <v>504</v>
       </c>
       <c r="AC22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AD22" t="s">
         <v>506</v>
@@ -5059,7 +5053,7 @@
         <v>504</v>
       </c>
       <c r="K23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L23" t="s">
         <v>510</v>
@@ -5077,19 +5071,19 @@
         <v>518</v>
       </c>
       <c r="Q23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="R23" t="s">
         <v>514</v>
       </c>
       <c r="S23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T23" t="s">
         <v>510</v>
       </c>
       <c r="U23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="V23" t="s">
         <v>520</v>
@@ -5109,34 +5103,34 @@
         <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J24" t="s">
         <v>518</v>
       </c>
       <c r="K24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L24" t="s">
         <v>514</v>
       </c>
       <c r="M24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N24" t="s">
         <v>507</v>
       </c>
       <c r="O24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P24" t="s">
         <v>507</v>
       </c>
       <c r="Q24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="R24" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="S24" t="s">
         <v>584</v>
@@ -5145,7 +5139,7 @@
         <v>510</v>
       </c>
       <c r="U24" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="V24" t="s">
         <v>515</v>
@@ -5171,7 +5165,7 @@
         <v>519</v>
       </c>
       <c r="K25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L25" t="s">
         <v>507</v>
@@ -5191,13 +5185,13 @@
         <v>503</v>
       </c>
       <c r="I26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J26" t="s">
         <v>511</v>
       </c>
       <c r="K26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L26" t="s">
         <v>520</v>
@@ -5215,7 +5209,7 @@
         <v>517</v>
       </c>
       <c r="Q26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="R26" t="s">
         <v>504</v>
@@ -5263,25 +5257,25 @@
         <v>519</v>
       </c>
       <c r="AG26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH26" t="s">
         <v>507</v>
       </c>
       <c r="AI26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AJ26" t="s">
         <v>521</v>
       </c>
       <c r="AK26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AL26" t="s">
         <v>515</v>
       </c>
       <c r="AM26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AN26" t="s">
         <v>514</v>
@@ -5293,7 +5287,7 @@
         <v>514</v>
       </c>
       <c r="AQ26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AR26" t="s">
         <v>514</v>
@@ -5311,25 +5305,25 @@
         <v>505</v>
       </c>
       <c r="AW26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AX26" t="s">
         <v>506</v>
       </c>
       <c r="AY26" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AZ26" t="s">
         <v>521</v>
       </c>
       <c r="BA26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="BB26" t="s">
         <v>506</v>
       </c>
       <c r="BC26" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="BD26" t="s">
         <v>504</v>
@@ -5349,19 +5343,19 @@
         <v>503</v>
       </c>
       <c r="I27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J27" t="s">
         <v>514</v>
       </c>
       <c r="K27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L27" t="s">
         <v>506</v>
       </c>
       <c r="M27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N27" t="s">
         <v>514</v>
@@ -5373,7 +5367,7 @@
         <v>521</v>
       </c>
       <c r="Q27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R27" t="s">
         <v>510</v>
@@ -5397,7 +5391,7 @@
         <v>510</v>
       </c>
       <c r="Y27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Z27" t="s">
         <v>514</v>
@@ -5409,7 +5403,7 @@
         <v>518</v>
       </c>
       <c r="AC27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD27" t="s">
         <v>521</v>
@@ -5450,13 +5444,13 @@
         <v>521</v>
       </c>
       <c r="O28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P28" t="s">
         <v>510</v>
       </c>
       <c r="Q28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R28" t="s">
         <v>510</v>
@@ -5480,7 +5474,7 @@
         <v>508</v>
       </c>
       <c r="Y28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Z28" t="s">
         <v>510</v>
@@ -5492,22 +5486,22 @@
         <v>520</v>
       </c>
       <c r="AC28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD28" t="s">
         <v>521</v>
       </c>
       <c r="AE28" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AF28" t="s">
         <v>508</v>
       </c>
       <c r="AG28" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AH28" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
@@ -5545,13 +5539,13 @@
         <v>521</v>
       </c>
       <c r="O29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P29" t="s">
         <v>510</v>
       </c>
       <c r="Q29" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R29" t="s">
         <v>510</v>
@@ -5563,10 +5557,10 @@
         <v>510</v>
       </c>
       <c r="U29" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="V29" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="W29" t="s">
         <v>574</v>
@@ -5575,19 +5569,19 @@
         <v>520</v>
       </c>
       <c r="Y29" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Z29" t="s">
         <v>515</v>
       </c>
       <c r="AA29" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB29" t="s">
         <v>510</v>
       </c>
       <c r="AC29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD29" t="s">
         <v>521</v>
@@ -5610,13 +5604,13 @@
         <v>509</v>
       </c>
       <c r="K30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L30" t="s">
         <v>511</v>
       </c>
       <c r="M30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N30" t="s">
         <v>520</v>
@@ -5640,7 +5634,7 @@
         <v>517</v>
       </c>
       <c r="U30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="V30" t="s">
         <v>504</v>
@@ -5676,13 +5670,13 @@
         <v>519</v>
       </c>
       <c r="AG30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH30" t="s">
         <v>507</v>
       </c>
       <c r="AI30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AJ30" t="s">
         <v>514</v>
@@ -5694,25 +5688,25 @@
         <v>514</v>
       </c>
       <c r="AM30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN30" t="s">
         <v>507</v>
       </c>
       <c r="AO30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AP30" t="s">
         <v>506</v>
       </c>
       <c r="AQ30" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AR30" t="s">
         <v>506</v>
       </c>
       <c r="AS30" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AT30" t="s">
         <v>506</v>
@@ -5720,7 +5714,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B31" t="s">
         <v>515</v>
@@ -5744,13 +5738,13 @@
         <v>520</v>
       </c>
       <c r="M31" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N31" t="s">
         <v>518</v>
       </c>
       <c r="O31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P31" t="s">
         <v>518</v>
@@ -5762,7 +5756,7 @@
         <v>505</v>
       </c>
       <c r="S31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T31" t="s">
         <v>505</v>
@@ -5792,25 +5786,25 @@
         <v>509</v>
       </c>
       <c r="AC31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD31" t="s">
         <v>521</v>
       </c>
       <c r="AE31" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF31" t="s">
         <v>521</v>
       </c>
       <c r="AG31" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AH31" t="s">
         <v>520</v>
       </c>
       <c r="AI31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AJ31" t="s">
         <v>506</v>
@@ -5851,37 +5845,37 @@
         <v>506</v>
       </c>
       <c r="O32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P32" t="s">
         <v>506</v>
       </c>
       <c r="Q32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="R32" t="s">
         <v>507</v>
       </c>
       <c r="S32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T32" t="s">
         <v>506</v>
       </c>
       <c r="U32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="V32" t="s">
         <v>506</v>
       </c>
       <c r="W32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="X32" t="s">
         <v>511</v>
       </c>
       <c r="Y32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Z32" t="s">
         <v>506</v>
@@ -5893,25 +5887,25 @@
         <v>518</v>
       </c>
       <c r="AC32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AD32" t="s">
         <v>506</v>
       </c>
       <c r="AE32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF32" t="s">
         <v>514</v>
       </c>
       <c r="AG32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AH32" t="s">
         <v>517</v>
       </c>
       <c r="AI32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AJ32" t="s">
         <v>506</v>
@@ -5931,7 +5925,7 @@
         <v>503</v>
       </c>
       <c r="I33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J33" t="s">
         <v>520</v>
@@ -5955,13 +5949,13 @@
         <v>520</v>
       </c>
       <c r="Q33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="R33" t="s">
         <v>506</v>
       </c>
       <c r="S33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T33" t="s">
         <v>516</v>
@@ -5973,13 +5967,13 @@
         <v>519</v>
       </c>
       <c r="W33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="X33" t="s">
         <v>507</v>
       </c>
       <c r="Y33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Z33" t="s">
         <v>506</v>
@@ -5997,7 +5991,7 @@
         <v>520</v>
       </c>
       <c r="AE33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AF33" t="s">
         <v>504</v>
@@ -6015,7 +6009,7 @@
         <v>516</v>
       </c>
       <c r="AK33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AL33" t="s">
         <v>516</v>
@@ -6027,43 +6021,43 @@
         <v>520</v>
       </c>
       <c r="AO33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AP33" t="s">
         <v>506</v>
       </c>
       <c r="AQ33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AR33" t="s">
         <v>521</v>
       </c>
       <c r="AS33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AT33" t="s">
         <v>521</v>
       </c>
       <c r="AU33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AV33" t="s">
         <v>512</v>
       </c>
       <c r="AW33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AX33" t="s">
         <v>506</v>
       </c>
       <c r="AY33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AZ33" t="s">
         <v>506</v>
       </c>
       <c r="BA33" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="BB33" t="s">
         <v>506</v>
@@ -6092,7 +6086,7 @@
         <v>506</v>
       </c>
       <c r="M34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N34" t="s">
         <v>521</v>
@@ -6104,7 +6098,7 @@
         <v>505</v>
       </c>
       <c r="Q34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R34" t="s">
         <v>516</v>
@@ -6116,13 +6110,13 @@
         <v>518</v>
       </c>
       <c r="U34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="V34" t="s">
         <v>506</v>
       </c>
       <c r="W34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X34" t="s">
         <v>512</v>
@@ -6131,27 +6125,30 @@
         <v>582</v>
       </c>
       <c r="Z34" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA34" t="s">
         <v>552</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>509</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>536</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>520</v>
       </c>
-      <c r="AD34" t="s">
-        <v>642</v>
-      </c>
       <c r="AE34" t="s">
-        <v>506</v>
+        <v>640</v>
       </c>
       <c r="AF34" t="s">
-        <v>685</v>
+        <v>506</v>
       </c>
       <c r="AG34" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH34" t="s">
         <v>506</v>
       </c>
     </row>
@@ -6175,7 +6172,7 @@
         <v>506</v>
       </c>
       <c r="K35" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L35" t="s">
         <v>508</v>
@@ -6199,7 +6196,7 @@
         <v>518</v>
       </c>
       <c r="S35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T35" t="s">
         <v>512</v>
@@ -6237,7 +6234,7 @@
         <v>506</v>
       </c>
       <c r="K36" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L36" t="s">
         <v>508</v>
@@ -6273,7 +6270,7 @@
         <v>518</v>
       </c>
       <c r="W36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X36" t="s">
         <v>512</v>
@@ -6299,7 +6296,7 @@
         <v>506</v>
       </c>
       <c r="K37" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L37" t="s">
         <v>508</v>
@@ -6329,13 +6326,13 @@
         <v>520</v>
       </c>
       <c r="U37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V37" t="s">
         <v>512</v>
       </c>
       <c r="W37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="X37" t="s">
         <v>520</v>
@@ -6347,13 +6344,13 @@
         <v>509</v>
       </c>
       <c r="AA37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AB37" t="s">
         <v>506</v>
       </c>
       <c r="AC37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AD37" t="s">
         <v>520</v>
@@ -6412,25 +6409,25 @@
         <v>505</v>
       </c>
       <c r="U38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V38" t="s">
         <v>521</v>
       </c>
       <c r="W38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="X38" t="s">
         <v>514</v>
       </c>
       <c r="Y38" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z38" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AA38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AB38" t="s">
         <v>520</v>
@@ -6448,13 +6445,13 @@
         <v>521</v>
       </c>
       <c r="AG38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AH38" t="s">
         <v>521</v>
       </c>
       <c r="AI38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ38" t="s">
         <v>521</v>
@@ -6474,7 +6471,7 @@
         <v>397</v>
       </c>
       <c r="I39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J39" t="s">
         <v>515</v>
@@ -6498,13 +6495,13 @@
         <v>521</v>
       </c>
       <c r="Q39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R39" t="s">
         <v>510</v>
       </c>
       <c r="S39" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="T39" t="s">
         <v>515</v>
@@ -6534,31 +6531,31 @@
         <v>508</v>
       </c>
       <c r="AC39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AD39" t="s">
         <v>507</v>
       </c>
       <c r="AE39" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AF39" t="s">
         <v>510</v>
       </c>
       <c r="AG39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AH39" t="s">
         <v>520</v>
       </c>
       <c r="AI39" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AJ39" t="s">
         <v>506</v>
       </c>
       <c r="AK39" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL39" t="s">
         <v>504</v>
@@ -6570,7 +6567,7 @@
         <v>520</v>
       </c>
       <c r="AO39" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AP39" t="s">
         <v>515</v>
@@ -6582,19 +6579,19 @@
         <v>520</v>
       </c>
       <c r="AS39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AT39" t="s">
         <v>506</v>
       </c>
       <c r="AU39" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV39" t="s">
         <v>521</v>
       </c>
       <c r="AW39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AX39" t="s">
         <v>515</v>
@@ -6606,31 +6603,31 @@
         <v>520</v>
       </c>
       <c r="BA39" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="BB39" t="s">
         <v>506</v>
       </c>
       <c r="BC39" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BD39" t="s">
         <v>515</v>
       </c>
       <c r="BE39" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="BF39" t="s">
         <v>506</v>
       </c>
       <c r="BG39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BH39" t="s">
         <v>521</v>
       </c>
       <c r="BI39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="BJ39" t="s">
         <v>508</v>
@@ -6668,13 +6665,13 @@
         <v>519</v>
       </c>
       <c r="O40" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="P40" t="s">
         <v>516</v>
       </c>
       <c r="Q40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="R40" t="s">
         <v>504</v>
@@ -6700,7 +6697,7 @@
         <v>520</v>
       </c>
       <c r="K41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L41" t="s">
         <v>521</v>
@@ -6718,25 +6715,25 @@
         <v>512</v>
       </c>
       <c r="Q41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R41" t="s">
         <v>506</v>
       </c>
       <c r="S41" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T41" t="s">
         <v>506</v>
       </c>
       <c r="U41" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V41" t="s">
         <v>506</v>
       </c>
       <c r="W41" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="X41" t="s">
         <v>504</v>
@@ -6756,7 +6753,7 @@
         <v>397</v>
       </c>
       <c r="I42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J42" t="s">
         <v>506</v>
@@ -6768,13 +6765,13 @@
         <v>504</v>
       </c>
       <c r="M42" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N42" t="s">
         <v>510</v>
       </c>
       <c r="O42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P42" t="s">
         <v>508</v>
@@ -6786,13 +6783,13 @@
         <v>519</v>
       </c>
       <c r="S42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T42" t="s">
         <v>507</v>
       </c>
       <c r="U42" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="V42" t="s">
         <v>514</v>
@@ -6821,13 +6818,13 @@
         <v>503</v>
       </c>
       <c r="I43" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J43" t="s">
         <v>515</v>
       </c>
       <c r="K43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L43" t="s">
         <v>506</v>
@@ -6859,13 +6856,13 @@
         <v>516</v>
       </c>
       <c r="M44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N44" t="s">
         <v>507</v>
       </c>
       <c r="O44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P44" t="s">
         <v>520</v>
@@ -6877,19 +6874,19 @@
         <v>511</v>
       </c>
       <c r="S44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T44" t="s">
         <v>505</v>
       </c>
       <c r="U44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V44" t="s">
         <v>506</v>
       </c>
       <c r="W44" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="X44" t="s">
         <v>516</v>
@@ -6912,7 +6909,7 @@
         <v>397</v>
       </c>
       <c r="I45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J45" t="s">
         <v>506</v>
@@ -6966,31 +6963,31 @@
         <v>518</v>
       </c>
       <c r="AA45" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AB45" t="s">
         <v>506</v>
       </c>
       <c r="AC45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD45" t="s">
         <v>521</v>
       </c>
       <c r="AE45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF45" t="s">
         <v>512</v>
       </c>
       <c r="AG45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AH45" t="s">
         <v>506</v>
       </c>
       <c r="AI45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AJ45" t="s">
         <v>508</v>
@@ -7025,7 +7022,7 @@
         <v>510</v>
       </c>
       <c r="M46" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N46" t="s">
         <v>521</v>
@@ -7037,19 +7034,19 @@
         <v>520</v>
       </c>
       <c r="Q46" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="R46" t="s">
         <v>514</v>
       </c>
       <c r="S46" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T46" t="s">
         <v>506</v>
       </c>
       <c r="U46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="V46" t="s">
         <v>504</v>
@@ -7067,13 +7064,13 @@
         <v>519</v>
       </c>
       <c r="AA46" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AB46" t="s">
         <v>521</v>
       </c>
       <c r="AC46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD46" t="s">
         <v>521</v>
@@ -7093,7 +7090,7 @@
         <v>397</v>
       </c>
       <c r="I47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J47" t="s">
         <v>520</v>
@@ -7111,13 +7108,13 @@
         <v>506</v>
       </c>
       <c r="O47" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P47" t="s">
         <v>506</v>
       </c>
       <c r="Q47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R47" t="s">
         <v>512</v>
@@ -7129,7 +7126,7 @@
         <v>521</v>
       </c>
       <c r="U47" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="V47" t="s">
         <v>510</v>
@@ -7141,13 +7138,13 @@
         <v>505</v>
       </c>
       <c r="Y47" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Z47" t="s">
         <v>505</v>
       </c>
       <c r="AA47" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AB47" t="s">
         <v>510</v>
@@ -7165,7 +7162,7 @@
         <v>508</v>
       </c>
       <c r="AG47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH47" t="s">
         <v>507</v>
@@ -7177,37 +7174,37 @@
         <v>518</v>
       </c>
       <c r="AK47" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AL47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AM47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AN47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AO47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP47" t="s">
         <v>510</v>
       </c>
       <c r="AQ47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AR47" t="s">
         <v>506</v>
       </c>
       <c r="AS47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AT47" t="s">
         <v>520</v>
       </c>
       <c r="AU47" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV47" t="s">
         <v>521</v>
@@ -7231,13 +7228,13 @@
         <v>505</v>
       </c>
       <c r="BC47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BD47" t="s">
         <v>521</v>
       </c>
       <c r="BE47" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="BF47" t="s">
         <v>508</v>
@@ -7272,7 +7269,7 @@
         <v>520</v>
       </c>
       <c r="O48" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P48" t="s">
         <v>504</v>
@@ -7296,25 +7293,25 @@
         <v>519</v>
       </c>
       <c r="W48" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="X48" t="s">
         <v>514</v>
       </c>
       <c r="Y48" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Z48" t="s">
         <v>515</v>
       </c>
       <c r="AA48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AB48" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AC48" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AD48" t="s">
         <v>504</v>
@@ -7355,7 +7352,7 @@
         <v>518</v>
       </c>
       <c r="Q49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="R49" t="s">
         <v>521</v>
@@ -7378,7 +7375,7 @@
         <v>397</v>
       </c>
       <c r="I50" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J50" t="s">
         <v>521</v>
@@ -7402,25 +7399,25 @@
         <v>508</v>
       </c>
       <c r="Q50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R50" t="s">
         <v>507</v>
       </c>
       <c r="S50" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T50" t="s">
         <v>517</v>
       </c>
       <c r="U50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V50" t="s">
         <v>508</v>
       </c>
       <c r="W50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="X50" t="s">
         <v>508</v>
@@ -7455,7 +7452,7 @@
         <v>510</v>
       </c>
       <c r="O51" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P51" t="s">
         <v>506</v>
@@ -7473,7 +7470,7 @@
         <v>512</v>
       </c>
       <c r="U51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="V51" t="s">
         <v>516</v>
@@ -7491,7 +7488,7 @@
         <v>508</v>
       </c>
       <c r="AA51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB51" t="s">
         <v>514</v>
@@ -7503,49 +7500,49 @@
         <v>518</v>
       </c>
       <c r="AE51" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF51" t="s">
         <v>506</v>
       </c>
       <c r="AG51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AH51" t="s">
         <v>520</v>
       </c>
       <c r="AI51" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AJ51" t="s">
         <v>506</v>
       </c>
       <c r="AK51" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AL51" t="s">
         <v>510</v>
       </c>
       <c r="AM51" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AN51" t="s">
         <v>506</v>
       </c>
       <c r="AO51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AP51" t="s">
         <v>521</v>
       </c>
       <c r="AQ51" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AR51" t="s">
         <v>508</v>
       </c>
       <c r="AS51" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AT51" t="s">
         <v>506</v>
@@ -7565,13 +7562,13 @@
         <v>503</v>
       </c>
       <c r="I52" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J52" t="s">
         <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L52" t="s">
         <v>506</v>
@@ -7618,7 +7615,7 @@
         <v>519</v>
       </c>
       <c r="Q53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R53" t="s">
         <v>507</v>
@@ -7630,13 +7627,13 @@
         <v>518</v>
       </c>
       <c r="U53" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="V53" t="s">
         <v>520</v>
       </c>
       <c r="W53" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X53" t="s">
         <v>517</v>
@@ -7648,13 +7645,13 @@
         <v>510</v>
       </c>
       <c r="AA53" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AB53" t="s">
         <v>506</v>
       </c>
       <c r="AC53" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AD53" t="s">
         <v>508</v>
@@ -7674,13 +7671,13 @@
         <v>503</v>
       </c>
       <c r="I54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J54" t="s">
         <v>511</v>
       </c>
       <c r="K54" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L54" t="s">
         <v>517</v>
@@ -7692,7 +7689,7 @@
         <v>519</v>
       </c>
       <c r="O54" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P54" t="s">
         <v>520</v>
@@ -7704,7 +7701,7 @@
         <v>520</v>
       </c>
       <c r="S54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="T54" t="s">
         <v>520</v>
@@ -7722,19 +7719,19 @@
         <v>519</v>
       </c>
       <c r="Y54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z54" t="s">
         <v>507</v>
       </c>
       <c r="AA54" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AB54" t="s">
         <v>506</v>
       </c>
       <c r="AC54" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AD54" t="s">
         <v>508</v>
@@ -7760,7 +7757,7 @@
         <v>516</v>
       </c>
       <c r="K55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L55" t="s">
         <v>516</v>
@@ -7778,7 +7775,7 @@
         <v>508</v>
       </c>
       <c r="Q55" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="R55" t="s">
         <v>508</v>
@@ -7796,25 +7793,25 @@
         <v>518</v>
       </c>
       <c r="W55" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="X55" t="s">
         <v>509</v>
       </c>
       <c r="Y55" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Z55" t="s">
         <v>521</v>
       </c>
       <c r="AA55" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AB55" t="s">
         <v>507</v>
       </c>
       <c r="AC55" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AD55" t="s">
         <v>506</v>
@@ -7826,13 +7823,13 @@
         <v>516</v>
       </c>
       <c r="AG55" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AH55" t="s">
         <v>521</v>
       </c>
       <c r="AI55" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AJ55" t="s">
         <v>516</v>
@@ -7864,19 +7861,19 @@
         <v>521</v>
       </c>
       <c r="M56" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N56" t="s">
         <v>504</v>
       </c>
       <c r="O56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P56" t="s">
         <v>505</v>
       </c>
       <c r="Q56" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R56" t="s">
         <v>508</v>
@@ -7894,37 +7891,37 @@
         <v>519</v>
       </c>
       <c r="W56" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="X56" t="s">
         <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Z56" t="s">
         <v>506</v>
       </c>
       <c r="AA56" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AB56" t="s">
         <v>519</v>
       </c>
       <c r="AC56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AD56" t="s">
         <v>508</v>
       </c>
       <c r="AE56" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AF56" t="s">
         <v>508</v>
       </c>
       <c r="AG56" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AH56" t="s">
         <v>504</v>
@@ -7956,7 +7953,7 @@
         <v>512</v>
       </c>
       <c r="M57" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="N57" t="s">
         <v>521</v>
@@ -7974,7 +7971,7 @@
         <v>521</v>
       </c>
       <c r="S57" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T57" t="s">
         <v>507</v>
@@ -7986,13 +7983,13 @@
         <v>520</v>
       </c>
       <c r="W57" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="X57" t="s">
         <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Z57" t="s">
         <v>516</v>
@@ -8030,19 +8027,19 @@
         <v>510</v>
       </c>
       <c r="O58" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P58" t="s">
         <v>516</v>
       </c>
       <c r="Q58" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="R58" t="s">
         <v>506</v>
       </c>
       <c r="S58" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="T58" t="s">
         <v>506</v>
@@ -8054,13 +8051,13 @@
         <v>505</v>
       </c>
       <c r="W58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="X58" t="s">
         <v>507</v>
       </c>
       <c r="Y58" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Z58" t="s">
         <v>516</v>
@@ -8101,7 +8098,7 @@
         <v>519</v>
       </c>
       <c r="O59" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P59" t="s">
         <v>504</v>
@@ -8113,13 +8110,13 @@
         <v>504</v>
       </c>
       <c r="S59" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="T59" t="s">
         <v>518</v>
       </c>
       <c r="U59" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="V59" t="s">
         <v>516</v>
@@ -8145,13 +8142,13 @@
         <v>520</v>
       </c>
       <c r="K60" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L60" t="s">
         <v>507</v>
       </c>
       <c r="M60" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N60" t="s">
         <v>516</v>
@@ -8163,7 +8160,7 @@
         <v>519</v>
       </c>
       <c r="Q60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R60" t="s">
         <v>521</v>
@@ -8181,31 +8178,31 @@
         <v>518</v>
       </c>
       <c r="W60" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="X60" t="s">
         <v>507</v>
       </c>
       <c r="Y60" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Z60" t="s">
         <v>516</v>
       </c>
       <c r="AA60" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AB60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AC60" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AD60" t="s">
         <v>506</v>
       </c>
       <c r="AE60" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF60" t="s">
         <v>521</v>
@@ -8217,37 +8214,37 @@
         <v>520</v>
       </c>
       <c r="AI60" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AJ60" t="s">
         <v>520</v>
       </c>
       <c r="AK60" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AL60" t="s">
         <v>520</v>
       </c>
       <c r="AM60" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AN60" t="s">
         <v>507</v>
       </c>
       <c r="AO60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AP60" t="s">
         <v>516</v>
       </c>
       <c r="AQ60" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AR60" t="s">
         <v>521</v>
       </c>
       <c r="AS60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AT60" t="s">
         <v>520</v>
@@ -8273,13 +8270,13 @@
         <v>520</v>
       </c>
       <c r="K61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L61" t="s">
         <v>511</v>
       </c>
       <c r="M61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N61" t="s">
         <v>507</v>
@@ -8305,7 +8302,7 @@
         <v>520</v>
       </c>
       <c r="K62" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L62" t="s">
         <v>510</v>
@@ -8317,7 +8314,7 @@
         <v>510</v>
       </c>
       <c r="O62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P62" t="s">
         <v>506</v>
@@ -8341,19 +8338,19 @@
         <v>518</v>
       </c>
       <c r="W62" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="X62" t="s">
         <v>510</v>
       </c>
       <c r="Y62" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Z62" t="s">
         <v>508</v>
       </c>
       <c r="AA62" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AB62" t="s">
         <v>504</v>
@@ -8382,13 +8379,13 @@
         <v>520</v>
       </c>
       <c r="K63" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L63" t="s">
         <v>510</v>
       </c>
       <c r="M63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N63" t="s">
         <v>510</v>
@@ -8400,7 +8397,7 @@
         <v>521</v>
       </c>
       <c r="Q63" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R63" t="s">
         <v>510</v>
@@ -8447,25 +8444,25 @@
         <v>516</v>
       </c>
       <c r="O64" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P64" t="s">
         <v>506</v>
       </c>
       <c r="Q64" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="R64" t="s">
         <v>506</v>
       </c>
       <c r="S64" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="T64" t="s">
         <v>506</v>
       </c>
       <c r="U64" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V64" t="s">
         <v>506</v>
@@ -8545,13 +8542,13 @@
         <v>520</v>
       </c>
       <c r="AC65" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD65" t="s">
         <v>521</v>
       </c>
       <c r="AE65" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF65" t="s">
         <v>521</v>
@@ -8577,7 +8574,7 @@
         <v>397</v>
       </c>
       <c r="I66" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J66" t="s">
         <v>518</v>
@@ -8601,13 +8598,13 @@
         <v>505</v>
       </c>
       <c r="Q66" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="R66" t="s">
         <v>514</v>
       </c>
       <c r="S66" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T66" t="s">
         <v>515</v>
@@ -8625,19 +8622,19 @@
         <v>505</v>
       </c>
       <c r="Y66" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Z66" t="s">
         <v>504</v>
       </c>
       <c r="AA66" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AB66" t="s">
         <v>509</v>
       </c>
       <c r="AC66" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AD66" t="s">
         <v>519</v>
@@ -8660,13 +8657,13 @@
         <v>397</v>
       </c>
       <c r="I67" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J67" t="s">
         <v>520</v>
       </c>
       <c r="K67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L67" t="s">
         <v>511</v>
@@ -8678,7 +8675,7 @@
         <v>521</v>
       </c>
       <c r="O67" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P67" t="s">
         <v>509</v>
@@ -8690,31 +8687,31 @@
         <v>519</v>
       </c>
       <c r="S67" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T67" t="s">
         <v>507</v>
       </c>
       <c r="U67" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V67" t="s">
         <v>506</v>
       </c>
       <c r="W67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="X67" t="s">
         <v>507</v>
       </c>
       <c r="Y67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z67" t="s">
         <v>506</v>
       </c>
       <c r="AA67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AB67" t="s">
         <v>507</v>
@@ -8740,19 +8737,19 @@
         <v>506</v>
       </c>
       <c r="K68" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L68" t="s">
         <v>504</v>
       </c>
       <c r="M68" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N68" t="s">
         <v>515</v>
       </c>
       <c r="O68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P68" t="s">
         <v>521</v>
@@ -8764,7 +8761,7 @@
         <v>514</v>
       </c>
       <c r="S68" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T68" t="s">
         <v>516</v>
@@ -8776,7 +8773,7 @@
         <v>506</v>
       </c>
       <c r="W68" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="X68" t="s">
         <v>504</v>
@@ -8793,7 +8790,7 @@
         <v>503</v>
       </c>
       <c r="I69" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J69" t="s">
         <v>510</v>
@@ -8817,7 +8814,7 @@
         <v>511</v>
       </c>
       <c r="Q69" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="R69" t="s">
         <v>515</v>
@@ -8841,13 +8838,13 @@
         <v>509</v>
       </c>
       <c r="Y69" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Z69" t="s">
         <v>521</v>
       </c>
       <c r="AA69" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AB69" t="s">
         <v>510</v>
@@ -8870,7 +8867,7 @@
         <v>397</v>
       </c>
       <c r="I70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J70" t="s">
         <v>506</v>
@@ -8888,25 +8885,25 @@
         <v>518</v>
       </c>
       <c r="O70" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P70" t="s">
         <v>506</v>
       </c>
       <c r="Q70" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="R70" t="s">
         <v>504</v>
       </c>
       <c r="S70" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T70" t="s">
         <v>506</v>
       </c>
       <c r="U70" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="V70" t="s">
         <v>507</v>
@@ -8994,13 +8991,13 @@
         <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J72" t="s">
         <v>513</v>
       </c>
       <c r="K72" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L72" t="s">
         <v>517</v>
@@ -9012,13 +9009,13 @@
         <v>510</v>
       </c>
       <c r="O72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P72" t="s">
         <v>507</v>
       </c>
       <c r="Q72" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="R72" t="s">
         <v>518</v>
@@ -9035,7 +9032,7 @@
         <v>503</v>
       </c>
       <c r="I73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J73" t="s">
         <v>511</v>
@@ -9047,7 +9044,7 @@
         <v>511</v>
       </c>
       <c r="M73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N73" t="s">
         <v>507</v>
@@ -9097,7 +9094,7 @@
         <v>506</v>
       </c>
       <c r="S74" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T74" t="s">
         <v>516</v>
@@ -9133,13 +9130,13 @@
         <v>518</v>
       </c>
       <c r="AE74" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF74" t="s">
         <v>506</v>
       </c>
       <c r="AG74" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AH74" t="s">
         <v>507</v>
@@ -9156,7 +9153,7 @@
         <v>503</v>
       </c>
       <c r="I75" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J75" t="s">
         <v>511</v>
@@ -9168,7 +9165,7 @@
         <v>504</v>
       </c>
       <c r="M75" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N75" t="s">
         <v>504</v>
@@ -9186,7 +9183,7 @@
         <v>519</v>
       </c>
       <c r="S75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T75" t="s">
         <v>507</v>
@@ -9209,7 +9206,7 @@
         <v>516</v>
       </c>
       <c r="K76" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L76" t="s">
         <v>505</v>
@@ -9227,37 +9224,37 @@
         <v>511</v>
       </c>
       <c r="Q76" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="R76" t="s">
         <v>508</v>
       </c>
       <c r="S76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T76" t="s">
         <v>504</v>
       </c>
       <c r="U76" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="V76" t="s">
         <v>504</v>
       </c>
       <c r="W76" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="X76" t="s">
         <v>505</v>
       </c>
       <c r="Y76" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z76" t="s">
         <v>507</v>
       </c>
       <c r="AA76" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AB76" t="s">
         <v>504</v>
@@ -9269,7 +9266,7 @@
         <v>520</v>
       </c>
       <c r="AE76" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AF76" t="s">
         <v>520</v>
@@ -9286,25 +9283,25 @@
         <v>503</v>
       </c>
       <c r="I77" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J77" t="s">
         <v>520</v>
       </c>
       <c r="K77" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L77" t="s">
         <v>506</v>
       </c>
       <c r="M77" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N77" t="s">
         <v>512</v>
       </c>
       <c r="O77" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P77" t="s">
         <v>510</v>
@@ -9334,7 +9331,7 @@
         <v>516</v>
       </c>
       <c r="Y77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z77" t="s">
         <v>507</v>
@@ -9360,19 +9357,19 @@
         <v>520</v>
       </c>
       <c r="K78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L78" t="s">
         <v>511</v>
       </c>
       <c r="M78" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N78" t="s">
         <v>504</v>
       </c>
       <c r="O78" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P78" t="s">
         <v>519</v>
@@ -9390,7 +9387,7 @@
         <v>519</v>
       </c>
       <c r="U78" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V78" t="s">
         <v>507</v>
@@ -9422,31 +9419,31 @@
         <v>503</v>
       </c>
       <c r="I79" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J79" t="s">
         <v>521</v>
       </c>
       <c r="K79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L79" t="s">
         <v>516</v>
       </c>
       <c r="M79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N79" t="s">
         <v>508</v>
       </c>
       <c r="O79" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P79" t="s">
         <v>506</v>
       </c>
       <c r="Q79" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="R79" t="s">
         <v>507</v>
@@ -9478,13 +9475,13 @@
         <v>521</v>
       </c>
       <c r="M80" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N80" t="s">
         <v>510</v>
       </c>
       <c r="O80" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P80" t="s">
         <v>510</v>
@@ -9502,7 +9499,7 @@
         <v>521</v>
       </c>
       <c r="U80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V80" t="s">
         <v>521</v>
@@ -9522,7 +9519,7 @@
         <v>503</v>
       </c>
       <c r="I81" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J81" t="s">
         <v>509</v>
@@ -9534,19 +9531,19 @@
         <v>507</v>
       </c>
       <c r="M81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N81" t="s">
         <v>516</v>
       </c>
       <c r="O81" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P81" t="s">
         <v>514</v>
       </c>
       <c r="Q81" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R81" t="s">
         <v>507</v>
@@ -9581,7 +9578,7 @@
         <v>520</v>
       </c>
       <c r="K82" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L82" t="s">
         <v>506</v>
@@ -9593,7 +9590,7 @@
         <v>504</v>
       </c>
       <c r="O82" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P82" t="s">
         <v>504</v>
@@ -9611,7 +9608,7 @@
         <v>518</v>
       </c>
       <c r="U82" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V82" t="s">
         <v>506</v>
@@ -9652,7 +9649,7 @@
         <v>518</v>
       </c>
       <c r="Q83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R83" t="s">
         <v>507</v>
@@ -9687,7 +9684,7 @@
         <v>521</v>
       </c>
       <c r="O84" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P84" t="s">
         <v>517</v>
@@ -9711,7 +9708,7 @@
         <v>511</v>
       </c>
       <c r="W84" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="X84" t="s">
         <v>504</v>
@@ -9729,7 +9726,7 @@
         <v>508</v>
       </c>
       <c r="AC84" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AD84" t="s">
         <v>514</v>
@@ -9747,7 +9744,7 @@
         <v>518</v>
       </c>
       <c r="AI84" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AJ84" t="s">
         <v>506</v>
@@ -9797,13 +9794,13 @@
         <v>505</v>
       </c>
       <c r="S85" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T85" t="s">
         <v>506</v>
       </c>
       <c r="U85" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="V85" t="s">
         <v>506</v>
@@ -9823,7 +9820,7 @@
         <v>503</v>
       </c>
       <c r="I86" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J86" t="s">
         <v>515</v>
@@ -9853,13 +9850,13 @@
         <v>506</v>
       </c>
       <c r="S86" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="T86" t="s">
         <v>515</v>
       </c>
       <c r="U86" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V86" t="s">
         <v>506</v>
@@ -9889,7 +9886,7 @@
         <v>518</v>
       </c>
       <c r="AE86" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF86" t="s">
         <v>506</v>
@@ -9927,7 +9924,7 @@
         <v>516</v>
       </c>
       <c r="O87" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P87" t="s">
         <v>515</v>
@@ -9965,19 +9962,19 @@
         <v>520</v>
       </c>
       <c r="O88" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P88" t="s">
         <v>506</v>
       </c>
       <c r="Q88" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R88" t="s">
         <v>516</v>
       </c>
       <c r="S88" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="T88" t="s">
         <v>507</v>
@@ -10027,19 +10024,19 @@
         <v>516</v>
       </c>
       <c r="S89" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="T89" t="s">
         <v>507</v>
       </c>
       <c r="U89" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V89" t="s">
         <v>521</v>
       </c>
       <c r="W89" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="X89" t="s">
         <v>510</v>
@@ -10056,7 +10053,7 @@
         <v>503</v>
       </c>
       <c r="I90" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J90" t="s">
         <v>511</v>
@@ -10068,7 +10065,7 @@
         <v>504</v>
       </c>
       <c r="M90" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N90" t="s">
         <v>504</v>
@@ -10086,7 +10083,7 @@
         <v>511</v>
       </c>
       <c r="S90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T90" t="s">
         <v>508</v>
@@ -10098,13 +10095,13 @@
         <v>519</v>
       </c>
       <c r="W90" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="X90" t="s">
         <v>507</v>
       </c>
       <c r="Y90" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Z90" t="s">
         <v>514</v>
@@ -10130,7 +10127,7 @@
         <v>506</v>
       </c>
       <c r="K91" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L91" t="s">
         <v>506</v>
@@ -10142,25 +10139,25 @@
         <v>504</v>
       </c>
       <c r="O91" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P91" t="s">
         <v>517</v>
       </c>
       <c r="Q91" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="R91" t="s">
         <v>519</v>
       </c>
       <c r="S91" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T91" t="s">
         <v>507</v>
       </c>
       <c r="U91" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="V91" t="s">
         <v>506</v>
@@ -10178,13 +10175,13 @@
         <v>510</v>
       </c>
       <c r="AA91" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB91" t="s">
         <v>507</v>
       </c>
       <c r="AC91" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AD91" t="s">
         <v>507</v>
@@ -10196,7 +10193,7 @@
         <v>518</v>
       </c>
       <c r="AG91" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AH91" t="s">
         <v>506</v>
@@ -10228,7 +10225,7 @@
         <v>521</v>
       </c>
       <c r="M92" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N92" t="s">
         <v>510</v>
@@ -10240,7 +10237,7 @@
         <v>506</v>
       </c>
       <c r="Q92" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R92" t="s">
         <v>516</v>
@@ -10252,7 +10249,7 @@
         <v>519</v>
       </c>
       <c r="U92" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="V92" t="s">
         <v>506</v>
@@ -10269,13 +10266,13 @@
         <v>503</v>
       </c>
       <c r="I93" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J93" t="s">
         <v>514</v>
       </c>
       <c r="K93" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L93" t="s">
         <v>510</v>
@@ -10287,7 +10284,7 @@
         <v>506</v>
       </c>
       <c r="O93" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P93" t="s">
         <v>507</v>
@@ -10316,7 +10313,7 @@
         <v>504</v>
       </c>
       <c r="M94" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N94" t="s">
         <v>515</v>
@@ -10328,19 +10325,19 @@
         <v>505</v>
       </c>
       <c r="Q94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R94" t="s">
         <v>507</v>
       </c>
       <c r="S94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T94" t="s">
         <v>508</v>
       </c>
       <c r="U94" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V94" t="s">
         <v>508</v>
@@ -10352,13 +10349,13 @@
         <v>518</v>
       </c>
       <c r="Y94" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Z94" t="s">
         <v>515</v>
       </c>
       <c r="AA94" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AB94" t="s">
         <v>517</v>
@@ -10396,7 +10393,7 @@
         <v>517</v>
       </c>
       <c r="O95" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P95" t="s">
         <v>505</v>
@@ -10414,43 +10411,43 @@
         <v>506</v>
       </c>
       <c r="U95" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="V95" t="s">
         <v>517</v>
       </c>
       <c r="W95" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="X95" t="s">
         <v>504</v>
       </c>
       <c r="Y95" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Z95" t="s">
         <v>514</v>
       </c>
       <c r="AA95" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AB95" t="s">
         <v>517</v>
       </c>
       <c r="AC95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AD95" t="s">
         <v>514</v>
       </c>
       <c r="AE95" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF95" t="s">
         <v>504</v>
       </c>
       <c r="AG95" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AH95" t="s">
         <v>507</v>
@@ -10462,7 +10459,7 @@
         <v>514</v>
       </c>
       <c r="AK95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AL95" t="s">
         <v>514</v>
@@ -10509,7 +10506,7 @@
         <v>518</v>
       </c>
       <c r="S96" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="T96" t="s">
         <v>521</v>
@@ -10605,7 +10602,7 @@
         <v>397</v>
       </c>
       <c r="I102" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J102" t="s">
         <v>514</v>
@@ -10951,7 +10948,7 @@
         <v>503</v>
       </c>
       <c r="I128" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J128" t="s">
         <v>514</v>
@@ -11447,7 +11444,7 @@
         <v>503</v>
       </c>
       <c r="I166" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J166" t="s">
         <v>514</v>
@@ -11464,7 +11461,7 @@
         <v>503</v>
       </c>
       <c r="I167" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J167" t="s">
         <v>514</v>
@@ -12218,7 +12215,7 @@
         <v>503</v>
       </c>
       <c r="I226" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J226" t="s">
         <v>514</v>
@@ -12883,7 +12880,7 @@
         <v>503</v>
       </c>
       <c r="I278" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J278" t="s">
         <v>514</v>
@@ -13031,7 +13028,7 @@
         <v>397</v>
       </c>
       <c r="I289" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J289" t="s">
         <v>514</v>
@@ -15116,7 +15113,7 @@
         <v>503</v>
       </c>
       <c r="I451" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J451" t="s">
         <v>514</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DEC21-4F1C-425F-B40D-6F0EFFEE4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DF355-82C3-4486-B699-7EC1BBAD3E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -2136,9 +2136,6 @@
     <t>Dynamic Punch</t>
   </si>
   <si>
-    <t>Type 3</t>
-  </si>
-  <si>
     <t>Chilling Water</t>
   </si>
   <si>
@@ -2266,6 +2263,9 @@
   </si>
   <si>
     <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Type3</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2620,7 @@
   <dimension ref="A1:CD487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>700</v>
+        <v>743</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2795,82 +2795,82 @@
         <v>698</v>
       </c>
       <c r="BE1" t="s">
+        <v>702</v>
+      </c>
+      <c r="BF1" t="s">
         <v>703</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>704</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>705</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>706</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>707</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>708</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>709</v>
       </c>
-      <c r="BL1" t="s">
-        <v>710</v>
-      </c>
       <c r="BM1" t="s">
+        <v>714</v>
+      </c>
+      <c r="BN1" t="s">
         <v>715</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>716</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>717</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>718</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>719</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>720</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>721</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>722</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>723</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>724</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>725</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>726</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>727</v>
       </c>
-      <c r="BZ1" t="s">
-        <v>728</v>
-      </c>
       <c r="CA1" t="s">
+        <v>729</v>
+      </c>
+      <c r="CB1" t="s">
         <v>730</v>
       </c>
-      <c r="CB1" t="s">
-        <v>731</v>
-      </c>
       <c r="CC1" t="s">
+        <v>740</v>
+      </c>
+      <c r="CD1" t="s">
         <v>741</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.35">
@@ -3048,10 +3048,10 @@
         <v>518</v>
       </c>
       <c r="AM3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.35">
@@ -3408,10 +3408,10 @@
         <v>520</v>
       </c>
       <c r="BK6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BL6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="BM6" t="s">
         <v>681</v>
@@ -3479,7 +3479,7 @@
         <v>506</v>
       </c>
       <c r="Y7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z7" t="s">
         <v>504</v>
@@ -3562,7 +3562,7 @@
         <v>511</v>
       </c>
       <c r="AC8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AD8" t="s">
         <v>504</v>
@@ -3693,16 +3693,16 @@
         <v>520</v>
       </c>
       <c r="AU9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AV9" t="s">
         <v>515</v>
       </c>
       <c r="AW9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AX9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AY9" t="s">
         <v>624</v>
@@ -3747,7 +3747,7 @@
         <v>506</v>
       </c>
       <c r="BM9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BN9" t="s">
         <v>520</v>
@@ -3759,13 +3759,13 @@
         <v>506</v>
       </c>
       <c r="BQ9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BR9" t="s">
         <v>520</v>
       </c>
       <c r="BS9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="BT9" t="s">
         <v>514</v>
@@ -3777,7 +3777,7 @@
         <v>508</v>
       </c>
       <c r="BW9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BX9" t="s">
         <v>514</v>
@@ -3795,7 +3795,7 @@
         <v>521</v>
       </c>
       <c r="CC9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CD9" t="s">
         <v>506</v>
@@ -3857,10 +3857,10 @@
         <v>520</v>
       </c>
       <c r="W10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Y10" t="s">
         <v>571</v>
@@ -4038,13 +4038,13 @@
         <v>516</v>
       </c>
       <c r="Q12" t="s">
+        <v>731</v>
+      </c>
+      <c r="R12" t="s">
         <v>732</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>733</v>
-      </c>
-      <c r="S12" t="s">
-        <v>734</v>
       </c>
       <c r="T12" t="s">
         <v>505</v>
@@ -4211,7 +4211,7 @@
         <v>506</v>
       </c>
       <c r="BG13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BH13" t="s">
         <v>506</v>
@@ -4249,10 +4249,10 @@
         <v>507</v>
       </c>
       <c r="O14" t="s">
+        <v>731</v>
+      </c>
+      <c r="P14" t="s">
         <v>732</v>
-      </c>
-      <c r="P14" t="s">
-        <v>733</v>
       </c>
       <c r="Q14" t="s">
         <v>688</v>
@@ -4344,7 +4344,7 @@
         <v>520</v>
       </c>
       <c r="AG15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AH15" t="s">
         <v>504</v>
@@ -4430,7 +4430,7 @@
         <v>514</v>
       </c>
       <c r="Y16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z16" t="s">
         <v>504</v>
@@ -4795,7 +4795,7 @@
         <v>510</v>
       </c>
       <c r="U20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V20" t="s">
         <v>504</v>
@@ -4843,7 +4843,7 @@
         <v>506</v>
       </c>
       <c r="AK20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AL20" t="s">
         <v>518</v>
@@ -5021,7 +5021,7 @@
         <v>519</v>
       </c>
       <c r="AA22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB22" t="s">
         <v>504</v>
@@ -5127,10 +5127,10 @@
         <v>507</v>
       </c>
       <c r="Q24" t="s">
+        <v>731</v>
+      </c>
+      <c r="R24" t="s">
         <v>732</v>
-      </c>
-      <c r="R24" t="s">
-        <v>733</v>
       </c>
       <c r="S24" t="s">
         <v>584</v>
@@ -5323,7 +5323,7 @@
         <v>506</v>
       </c>
       <c r="BC26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="BD26" t="s">
         <v>504</v>
@@ -5498,10 +5498,10 @@
         <v>508</v>
       </c>
       <c r="AG28" t="s">
+        <v>731</v>
+      </c>
+      <c r="AH28" t="s">
         <v>732</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
@@ -5557,10 +5557,10 @@
         <v>510</v>
       </c>
       <c r="U29" t="s">
+        <v>731</v>
+      </c>
+      <c r="V29" t="s">
         <v>732</v>
-      </c>
-      <c r="V29" t="s">
-        <v>733</v>
       </c>
       <c r="W29" t="s">
         <v>574</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B31" t="s">
         <v>515</v>
@@ -6009,7 +6009,7 @@
         <v>516</v>
       </c>
       <c r="AK33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AL33" t="s">
         <v>516</v>
@@ -6057,7 +6057,7 @@
         <v>506</v>
       </c>
       <c r="BA33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BB33" t="s">
         <v>506</v>
@@ -6350,7 +6350,7 @@
         <v>506</v>
       </c>
       <c r="AC37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AD37" t="s">
         <v>520</v>
@@ -6421,10 +6421,10 @@
         <v>514</v>
       </c>
       <c r="Y38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Z38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AA38" t="s">
         <v>645</v>
@@ -6591,7 +6591,7 @@
         <v>521</v>
       </c>
       <c r="AW39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AX39" t="s">
         <v>515</v>
@@ -6671,7 +6671,7 @@
         <v>516</v>
       </c>
       <c r="Q40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R40" t="s">
         <v>504</v>
@@ -6733,7 +6733,7 @@
         <v>506</v>
       </c>
       <c r="W41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="X41" t="s">
         <v>504</v>
@@ -7174,16 +7174,16 @@
         <v>518</v>
       </c>
       <c r="AK47" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AL47" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AM47" t="s">
+        <v>731</v>
+      </c>
+      <c r="AN47" t="s">
         <v>732</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>733</v>
       </c>
       <c r="AO47" t="s">
         <v>599</v>
@@ -7305,13 +7305,13 @@
         <v>515</v>
       </c>
       <c r="AA48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AB48" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AC48" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AD48" t="s">
         <v>504</v>
@@ -7568,7 +7568,7 @@
         <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L52" t="s">
         <v>506</v>
@@ -7921,7 +7921,7 @@
         <v>508</v>
       </c>
       <c r="AG56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AH56" t="s">
         <v>504</v>
@@ -8098,7 +8098,7 @@
         <v>519</v>
       </c>
       <c r="O59" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P59" t="s">
         <v>504</v>
@@ -8110,7 +8110,7 @@
         <v>504</v>
       </c>
       <c r="S59" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T59" t="s">
         <v>518</v>
@@ -8190,10 +8190,10 @@
         <v>516</v>
       </c>
       <c r="AA60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AB60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AC60" t="s">
         <v>688</v>
@@ -8244,7 +8244,7 @@
         <v>521</v>
       </c>
       <c r="AS60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AT60" t="s">
         <v>520</v>
@@ -8350,7 +8350,7 @@
         <v>508</v>
       </c>
       <c r="AA62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB62" t="s">
         <v>504</v>
@@ -8622,13 +8622,13 @@
         <v>505</v>
       </c>
       <c r="Y66" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z66" t="s">
         <v>504</v>
       </c>
       <c r="AA66" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AB66" t="s">
         <v>509</v>
@@ -8773,7 +8773,7 @@
         <v>506</v>
       </c>
       <c r="W68" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="X68" t="s">
         <v>504</v>
@@ -8891,7 +8891,7 @@
         <v>506</v>
       </c>
       <c r="Q70" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R70" t="s">
         <v>504</v>
@@ -9015,7 +9015,7 @@
         <v>507</v>
       </c>
       <c r="Q72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R72" t="s">
         <v>518</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DF355-82C3-4486-B699-7EC1BBAD3E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CE0A32-64A8-4142-9805-157CB9386F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="745">
   <si>
     <t>Name</t>
   </si>
@@ -1986,9 +1986,6 @@
     <t>Ice Spinner</t>
   </si>
   <si>
-    <t>Iron tail</t>
-  </si>
-  <si>
     <t>Bubble Beam</t>
   </si>
   <si>
@@ -2266,6 +2263,12 @@
   </si>
   <si>
     <t>Type3</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Thief</t>
   </si>
 </sst>
 </file>
@@ -2619,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
   <dimension ref="A1:CD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="J68" zoomScale="104" workbookViewId="0">
+      <selection activeCell="Z82" sqref="Z82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2648,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I1" t="s">
         <v>524</v>
@@ -2771,106 +2774,106 @@
         <v>635</v>
       </c>
       <c r="AW1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AX1" t="s">
         <v>690</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>691</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>692</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>693</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>694</v>
       </c>
-      <c r="BB1" t="s">
-        <v>695</v>
-      </c>
       <c r="BC1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BD1" t="s">
         <v>697</v>
       </c>
-      <c r="BD1" t="s">
-        <v>698</v>
-      </c>
       <c r="BE1" t="s">
+        <v>701</v>
+      </c>
+      <c r="BF1" t="s">
         <v>702</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>703</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>704</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>705</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>706</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>707</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>708</v>
       </c>
-      <c r="BL1" t="s">
-        <v>709</v>
-      </c>
       <c r="BM1" t="s">
+        <v>713</v>
+      </c>
+      <c r="BN1" t="s">
         <v>714</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>715</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>716</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>717</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>718</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>719</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>720</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>721</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>722</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>723</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>724</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>725</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>726</v>
       </c>
-      <c r="BZ1" t="s">
-        <v>727</v>
-      </c>
       <c r="CA1" t="s">
+        <v>728</v>
+      </c>
+      <c r="CB1" t="s">
         <v>729</v>
       </c>
-      <c r="CB1" t="s">
-        <v>730</v>
-      </c>
       <c r="CC1" t="s">
+        <v>739</v>
+      </c>
+      <c r="CD1" t="s">
         <v>740</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.35">
@@ -2941,7 +2944,7 @@
         <v>512</v>
       </c>
       <c r="AA2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AB2" t="s">
         <v>506</v>
@@ -3024,7 +3027,7 @@
         <v>509</v>
       </c>
       <c r="AE3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF3" t="s">
         <v>517</v>
@@ -3042,16 +3045,16 @@
         <v>514</v>
       </c>
       <c r="AK3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AL3" t="s">
         <v>518</v>
       </c>
       <c r="AM3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.35">
@@ -3095,7 +3098,7 @@
         <v>506</v>
       </c>
       <c r="S4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T4" t="s">
         <v>506</v>
@@ -3199,13 +3202,13 @@
         <v>521</v>
       </c>
       <c r="AE5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF5" t="s">
         <v>517</v>
       </c>
       <c r="AG5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AH5" t="s">
         <v>506</v>
@@ -3217,13 +3220,13 @@
         <v>521</v>
       </c>
       <c r="AK5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AL5" t="s">
         <v>506</v>
       </c>
       <c r="AM5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AN5" t="s">
         <v>506</v>
@@ -3324,7 +3327,7 @@
         <v>514</v>
       </c>
       <c r="AI6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AJ6" t="s">
         <v>506</v>
@@ -3384,19 +3387,19 @@
         <v>521</v>
       </c>
       <c r="BC6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="BD6" t="s">
         <v>512</v>
       </c>
       <c r="BE6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BF6" t="s">
         <v>520</v>
       </c>
       <c r="BG6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BH6" t="s">
         <v>506</v>
@@ -3408,13 +3411,13 @@
         <v>520</v>
       </c>
       <c r="BK6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BL6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="BM6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="BN6" t="s">
         <v>521</v>
@@ -3473,13 +3476,13 @@
         <v>520</v>
       </c>
       <c r="W7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="X7" t="s">
         <v>506</v>
       </c>
       <c r="Y7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z7" t="s">
         <v>504</v>
@@ -3544,7 +3547,7 @@
         <v>510</v>
       </c>
       <c r="W8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="X8" t="s">
         <v>506</v>
@@ -3562,7 +3565,7 @@
         <v>511</v>
       </c>
       <c r="AC8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AD8" t="s">
         <v>504</v>
@@ -3681,7 +3684,7 @@
         <v>508</v>
       </c>
       <c r="AQ9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AR9" t="s">
         <v>506</v>
@@ -3693,16 +3696,16 @@
         <v>520</v>
       </c>
       <c r="AU9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AV9" t="s">
         <v>515</v>
       </c>
       <c r="AW9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AX9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AY9" t="s">
         <v>624</v>
@@ -3711,7 +3714,7 @@
         <v>504</v>
       </c>
       <c r="BA9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BB9" t="s">
         <v>506</v>
@@ -3735,37 +3738,37 @@
         <v>514</v>
       </c>
       <c r="BI9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BJ9" t="s">
         <v>520</v>
       </c>
       <c r="BK9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BL9" t="s">
         <v>506</v>
       </c>
       <c r="BM9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="BN9" t="s">
         <v>520</v>
       </c>
       <c r="BO9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BP9" t="s">
         <v>506</v>
       </c>
       <c r="BQ9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BR9" t="s">
         <v>520</v>
       </c>
       <c r="BS9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="BT9" t="s">
         <v>514</v>
@@ -3777,7 +3780,7 @@
         <v>508</v>
       </c>
       <c r="BW9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="BX9" t="s">
         <v>514</v>
@@ -3789,13 +3792,13 @@
         <v>509</v>
       </c>
       <c r="CA9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="CB9" t="s">
         <v>521</v>
       </c>
       <c r="CC9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="CD9" t="s">
         <v>506</v>
@@ -3857,10 +3860,10 @@
         <v>520</v>
       </c>
       <c r="W10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Y10" t="s">
         <v>571</v>
@@ -3905,19 +3908,19 @@
         <v>512</v>
       </c>
       <c r="AM10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AN10" t="s">
         <v>520</v>
       </c>
       <c r="AO10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AP10" t="s">
         <v>506</v>
       </c>
       <c r="AQ10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AR10" t="s">
         <v>521</v>
@@ -3982,7 +3985,7 @@
         <v>518</v>
       </c>
       <c r="W11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X11" t="s">
         <v>506</v>
@@ -4038,13 +4041,13 @@
         <v>516</v>
       </c>
       <c r="Q12" t="s">
+        <v>730</v>
+      </c>
+      <c r="R12" t="s">
         <v>731</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>732</v>
-      </c>
-      <c r="S12" t="s">
-        <v>733</v>
       </c>
       <c r="T12" t="s">
         <v>505</v>
@@ -4139,7 +4142,7 @@
         <v>512</v>
       </c>
       <c r="AI13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AJ13" t="s">
         <v>506</v>
@@ -4163,7 +4166,7 @@
         <v>506</v>
       </c>
       <c r="AQ13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AR13" t="s">
         <v>521</v>
@@ -4199,19 +4202,19 @@
         <v>521</v>
       </c>
       <c r="BC13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BD13" t="s">
         <v>508</v>
       </c>
       <c r="BE13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BF13" t="s">
         <v>506</v>
       </c>
       <c r="BG13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="BH13" t="s">
         <v>506</v>
@@ -4249,13 +4252,13 @@
         <v>507</v>
       </c>
       <c r="O14" t="s">
+        <v>730</v>
+      </c>
+      <c r="P14" t="s">
         <v>731</v>
       </c>
-      <c r="P14" t="s">
-        <v>732</v>
-      </c>
       <c r="Q14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R14" t="s">
         <v>506</v>
@@ -4344,7 +4347,7 @@
         <v>520</v>
       </c>
       <c r="AG15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH15" t="s">
         <v>504</v>
@@ -4356,7 +4359,7 @@
         <v>512</v>
       </c>
       <c r="AK15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AL15" t="s">
         <v>521</v>
@@ -4430,7 +4433,7 @@
         <v>514</v>
       </c>
       <c r="Y16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z16" t="s">
         <v>504</v>
@@ -4540,7 +4543,7 @@
         <v>520</v>
       </c>
       <c r="AG17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AH17" t="s">
         <v>517</v>
@@ -4558,19 +4561,19 @@
         <v>512</v>
       </c>
       <c r="AM17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AN17" t="s">
         <v>521</v>
       </c>
       <c r="AO17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AP17" t="s">
         <v>506</v>
       </c>
       <c r="AQ17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AR17" t="s">
         <v>506</v>
@@ -4638,13 +4641,13 @@
         <v>514</v>
       </c>
       <c r="W18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="X18" t="s">
         <v>508</v>
       </c>
       <c r="Y18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z18" t="s">
         <v>508</v>
@@ -4700,7 +4703,7 @@
         <v>508</v>
       </c>
       <c r="U19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V19" t="s">
         <v>506</v>
@@ -4712,7 +4715,7 @@
         <v>521</v>
       </c>
       <c r="Y19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z19" t="s">
         <v>515</v>
@@ -4736,7 +4739,7 @@
         <v>521</v>
       </c>
       <c r="AG19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AH19" t="s">
         <v>508</v>
@@ -4795,7 +4798,7 @@
         <v>510</v>
       </c>
       <c r="U20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="V20" t="s">
         <v>504</v>
@@ -4819,7 +4822,7 @@
         <v>506</v>
       </c>
       <c r="AC20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AD20" t="s">
         <v>521</v>
@@ -4843,13 +4846,13 @@
         <v>506</v>
       </c>
       <c r="AK20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AL20" t="s">
         <v>518</v>
       </c>
       <c r="AM20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AN20" t="s">
         <v>506</v>
@@ -4941,7 +4944,7 @@
         <v>521</v>
       </c>
       <c r="AG21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH21" t="s">
         <v>521</v>
@@ -5021,13 +5024,13 @@
         <v>519</v>
       </c>
       <c r="AA22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AB22" t="s">
         <v>504</v>
       </c>
       <c r="AC22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AD22" t="s">
         <v>506</v>
@@ -5127,10 +5130,10 @@
         <v>507</v>
       </c>
       <c r="Q24" t="s">
+        <v>730</v>
+      </c>
+      <c r="R24" t="s">
         <v>731</v>
-      </c>
-      <c r="R24" t="s">
-        <v>732</v>
       </c>
       <c r="S24" t="s">
         <v>584</v>
@@ -5139,7 +5142,7 @@
         <v>510</v>
       </c>
       <c r="U24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V24" t="s">
         <v>515</v>
@@ -5311,19 +5314,19 @@
         <v>506</v>
       </c>
       <c r="AY26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AZ26" t="s">
         <v>521</v>
       </c>
       <c r="BA26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BB26" t="s">
         <v>506</v>
       </c>
       <c r="BC26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="BD26" t="s">
         <v>504</v>
@@ -5492,16 +5495,16 @@
         <v>521</v>
       </c>
       <c r="AE28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF28" t="s">
         <v>508</v>
       </c>
       <c r="AG28" t="s">
+        <v>730</v>
+      </c>
+      <c r="AH28" t="s">
         <v>731</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
@@ -5557,10 +5560,10 @@
         <v>510</v>
       </c>
       <c r="U29" t="s">
+        <v>730</v>
+      </c>
+      <c r="V29" t="s">
         <v>731</v>
-      </c>
-      <c r="V29" t="s">
-        <v>732</v>
       </c>
       <c r="W29" t="s">
         <v>574</v>
@@ -5694,19 +5697,19 @@
         <v>507</v>
       </c>
       <c r="AO30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AP30" t="s">
         <v>506</v>
       </c>
       <c r="AQ30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AR30" t="s">
         <v>506</v>
       </c>
       <c r="AS30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AT30" t="s">
         <v>506</v>
@@ -5714,7 +5717,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B31" t="s">
         <v>515</v>
@@ -5738,7 +5741,7 @@
         <v>520</v>
       </c>
       <c r="M31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N31" t="s">
         <v>518</v>
@@ -5792,19 +5795,19 @@
         <v>521</v>
       </c>
       <c r="AE31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF31" t="s">
         <v>521</v>
       </c>
       <c r="AG31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AH31" t="s">
         <v>520</v>
       </c>
       <c r="AI31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AJ31" t="s">
         <v>506</v>
@@ -5857,7 +5860,7 @@
         <v>507</v>
       </c>
       <c r="S32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T32" t="s">
         <v>506</v>
@@ -5875,7 +5878,7 @@
         <v>511</v>
       </c>
       <c r="Y32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z32" t="s">
         <v>506</v>
@@ -5899,13 +5902,13 @@
         <v>514</v>
       </c>
       <c r="AG32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH32" t="s">
         <v>517</v>
       </c>
       <c r="AI32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AJ32" t="s">
         <v>506</v>
@@ -5973,7 +5976,7 @@
         <v>507</v>
       </c>
       <c r="Y33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z33" t="s">
         <v>506</v>
@@ -6009,7 +6012,7 @@
         <v>516</v>
       </c>
       <c r="AK33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AL33" t="s">
         <v>516</v>
@@ -6021,7 +6024,7 @@
         <v>520</v>
       </c>
       <c r="AO33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AP33" t="s">
         <v>506</v>
@@ -6033,7 +6036,7 @@
         <v>521</v>
       </c>
       <c r="AS33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AT33" t="s">
         <v>521</v>
@@ -6045,19 +6048,19 @@
         <v>512</v>
       </c>
       <c r="AW33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AX33" t="s">
         <v>506</v>
       </c>
       <c r="AY33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AZ33" t="s">
         <v>506</v>
       </c>
       <c r="BA33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="BB33" t="s">
         <v>506</v>
@@ -6146,7 +6149,7 @@
         <v>506</v>
       </c>
       <c r="AG34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AH34" t="s">
         <v>506</v>
@@ -6344,13 +6347,13 @@
         <v>509</v>
       </c>
       <c r="AA37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB37" t="s">
         <v>506</v>
       </c>
       <c r="AC37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AD37" t="s">
         <v>520</v>
@@ -6421,10 +6424,10 @@
         <v>514</v>
       </c>
       <c r="Y38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Z38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AA38" t="s">
         <v>645</v>
@@ -6445,7 +6448,7 @@
         <v>521</v>
       </c>
       <c r="AG38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH38" t="s">
         <v>521</v>
@@ -6537,7 +6540,7 @@
         <v>507</v>
       </c>
       <c r="AE39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF39" t="s">
         <v>510</v>
@@ -6549,7 +6552,7 @@
         <v>520</v>
       </c>
       <c r="AI39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AJ39" t="s">
         <v>506</v>
@@ -6585,13 +6588,13 @@
         <v>506</v>
       </c>
       <c r="AU39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AV39" t="s">
         <v>521</v>
       </c>
       <c r="AW39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AX39" t="s">
         <v>515</v>
@@ -6609,13 +6612,13 @@
         <v>506</v>
       </c>
       <c r="BC39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BD39" t="s">
         <v>515</v>
       </c>
       <c r="BE39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BF39" t="s">
         <v>506</v>
@@ -6627,7 +6630,7 @@
         <v>521</v>
       </c>
       <c r="BI39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BJ39" t="s">
         <v>508</v>
@@ -6671,7 +6674,7 @@
         <v>516</v>
       </c>
       <c r="Q40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R40" t="s">
         <v>504</v>
@@ -6721,19 +6724,19 @@
         <v>506</v>
       </c>
       <c r="S41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T41" t="s">
         <v>506</v>
       </c>
       <c r="U41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V41" t="s">
         <v>506</v>
       </c>
       <c r="W41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="X41" t="s">
         <v>504</v>
@@ -6880,7 +6883,7 @@
         <v>505</v>
       </c>
       <c r="U44" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="V44" t="s">
         <v>506</v>
@@ -6963,7 +6966,7 @@
         <v>518</v>
       </c>
       <c r="AA45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB45" t="s">
         <v>506</v>
@@ -6981,13 +6984,13 @@
         <v>512</v>
       </c>
       <c r="AG45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AH45" t="s">
         <v>506</v>
       </c>
       <c r="AI45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AJ45" t="s">
         <v>508</v>
@@ -7040,7 +7043,7 @@
         <v>514</v>
       </c>
       <c r="S46" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T46" t="s">
         <v>506</v>
@@ -7064,7 +7067,7 @@
         <v>519</v>
       </c>
       <c r="AA46" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AB46" t="s">
         <v>521</v>
@@ -7144,7 +7147,7 @@
         <v>505</v>
       </c>
       <c r="AA47" t="s">
-        <v>650</v>
+        <v>539</v>
       </c>
       <c r="AB47" t="s">
         <v>510</v>
@@ -7174,16 +7177,16 @@
         <v>518</v>
       </c>
       <c r="AK47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AL47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AM47" t="s">
+        <v>730</v>
+      </c>
+      <c r="AN47" t="s">
         <v>731</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>732</v>
       </c>
       <c r="AO47" t="s">
         <v>599</v>
@@ -7192,19 +7195,19 @@
         <v>510</v>
       </c>
       <c r="AQ47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AR47" t="s">
         <v>506</v>
       </c>
       <c r="AS47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AT47" t="s">
         <v>520</v>
       </c>
       <c r="AU47" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AV47" t="s">
         <v>521</v>
@@ -7234,10 +7237,16 @@
         <v>521</v>
       </c>
       <c r="BE47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BF47" t="s">
         <v>508</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>743</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.35">
@@ -7299,19 +7308,19 @@
         <v>514</v>
       </c>
       <c r="Y48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Z48" t="s">
         <v>515</v>
       </c>
       <c r="AA48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AB48" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AC48" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AD48" t="s">
         <v>504</v>
@@ -7352,7 +7361,7 @@
         <v>518</v>
       </c>
       <c r="Q49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R49" t="s">
         <v>521</v>
@@ -7405,7 +7414,7 @@
         <v>507</v>
       </c>
       <c r="S50" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T50" t="s">
         <v>517</v>
@@ -7417,7 +7426,7 @@
         <v>508</v>
       </c>
       <c r="W50" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="X50" t="s">
         <v>508</v>
@@ -7500,7 +7509,7 @@
         <v>518</v>
       </c>
       <c r="AE51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF51" t="s">
         <v>506</v>
@@ -7512,7 +7521,7 @@
         <v>520</v>
       </c>
       <c r="AI51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AJ51" t="s">
         <v>506</v>
@@ -7524,7 +7533,7 @@
         <v>510</v>
       </c>
       <c r="AM51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AN51" t="s">
         <v>506</v>
@@ -7536,13 +7545,13 @@
         <v>521</v>
       </c>
       <c r="AQ51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AR51" t="s">
         <v>508</v>
       </c>
       <c r="AS51" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AT51" t="s">
         <v>506</v>
@@ -7568,7 +7577,7 @@
         <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L52" t="s">
         <v>506</v>
@@ -7633,7 +7642,7 @@
         <v>520</v>
       </c>
       <c r="W53" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X53" t="s">
         <v>517</v>
@@ -7645,13 +7654,13 @@
         <v>510</v>
       </c>
       <c r="AA53" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB53" t="s">
         <v>506</v>
       </c>
       <c r="AC53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AD53" t="s">
         <v>508</v>
@@ -7677,7 +7686,7 @@
         <v>511</v>
       </c>
       <c r="K54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L54" t="s">
         <v>517</v>
@@ -7689,7 +7698,7 @@
         <v>519</v>
       </c>
       <c r="O54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P54" t="s">
         <v>520</v>
@@ -7725,13 +7734,13 @@
         <v>507</v>
       </c>
       <c r="AA54" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AB54" t="s">
         <v>506</v>
       </c>
       <c r="AC54" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AD54" t="s">
         <v>508</v>
@@ -7775,7 +7784,7 @@
         <v>508</v>
       </c>
       <c r="Q55" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R55" t="s">
         <v>508</v>
@@ -7793,7 +7802,7 @@
         <v>518</v>
       </c>
       <c r="W55" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X55" t="s">
         <v>509</v>
@@ -7805,13 +7814,13 @@
         <v>521</v>
       </c>
       <c r="AA55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AB55" t="s">
         <v>507</v>
       </c>
       <c r="AC55" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AD55" t="s">
         <v>506</v>
@@ -7823,7 +7832,7 @@
         <v>516</v>
       </c>
       <c r="AG55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AH55" t="s">
         <v>521</v>
@@ -7897,13 +7906,13 @@
         <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z56" t="s">
         <v>506</v>
       </c>
       <c r="AA56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AB56" t="s">
         <v>519</v>
@@ -7915,13 +7924,13 @@
         <v>508</v>
       </c>
       <c r="AE56" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AF56" t="s">
         <v>508</v>
       </c>
       <c r="AG56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH56" t="s">
         <v>504</v>
@@ -7989,7 +7998,7 @@
         <v>516</v>
       </c>
       <c r="Y57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Z57" t="s">
         <v>516</v>
@@ -8027,19 +8036,19 @@
         <v>510</v>
       </c>
       <c r="O58" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P58" t="s">
         <v>516</v>
       </c>
       <c r="Q58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R58" t="s">
         <v>506</v>
       </c>
       <c r="S58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T58" t="s">
         <v>506</v>
@@ -8098,7 +8107,7 @@
         <v>519</v>
       </c>
       <c r="O59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P59" t="s">
         <v>504</v>
@@ -8110,7 +8119,7 @@
         <v>504</v>
       </c>
       <c r="S59" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T59" t="s">
         <v>518</v>
@@ -8142,7 +8151,7 @@
         <v>520</v>
       </c>
       <c r="K60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L60" t="s">
         <v>507</v>
@@ -8178,31 +8187,31 @@
         <v>518</v>
       </c>
       <c r="W60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X60" t="s">
         <v>507</v>
       </c>
       <c r="Y60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z60" t="s">
         <v>516</v>
       </c>
       <c r="AA60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AB60" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AC60" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AD60" t="s">
         <v>506</v>
       </c>
       <c r="AE60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF60" t="s">
         <v>521</v>
@@ -8214,7 +8223,7 @@
         <v>520</v>
       </c>
       <c r="AI60" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AJ60" t="s">
         <v>520</v>
@@ -8244,7 +8253,7 @@
         <v>521</v>
       </c>
       <c r="AS60" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AT60" t="s">
         <v>520</v>
@@ -8270,7 +8279,7 @@
         <v>520</v>
       </c>
       <c r="K61" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L61" t="s">
         <v>511</v>
@@ -8314,7 +8323,7 @@
         <v>510</v>
       </c>
       <c r="O62" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P62" t="s">
         <v>506</v>
@@ -8344,13 +8353,13 @@
         <v>510</v>
       </c>
       <c r="Y62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z62" t="s">
         <v>508</v>
       </c>
       <c r="AA62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AB62" t="s">
         <v>504</v>
@@ -8444,13 +8453,13 @@
         <v>516</v>
       </c>
       <c r="O64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P64" t="s">
         <v>506</v>
       </c>
       <c r="Q64" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R64" t="s">
         <v>506</v>
@@ -8462,13 +8471,13 @@
         <v>506</v>
       </c>
       <c r="U64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V64" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -8548,7 +8557,7 @@
         <v>521</v>
       </c>
       <c r="AE65" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF65" t="s">
         <v>521</v>
@@ -8560,7 +8569,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -8574,7 +8583,7 @@
         <v>397</v>
       </c>
       <c r="I66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J66" t="s">
         <v>518</v>
@@ -8604,7 +8613,7 @@
         <v>514</v>
       </c>
       <c r="S66" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T66" t="s">
         <v>515</v>
@@ -8622,25 +8631,25 @@
         <v>505</v>
       </c>
       <c r="Y66" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z66" t="s">
         <v>504</v>
       </c>
       <c r="AA66" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB66" t="s">
         <v>509</v>
       </c>
       <c r="AC66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AD66" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -8675,7 +8684,7 @@
         <v>521</v>
       </c>
       <c r="O67" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P67" t="s">
         <v>509</v>
@@ -8705,7 +8714,7 @@
         <v>507</v>
       </c>
       <c r="Y67" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z67" t="s">
         <v>506</v>
@@ -8717,7 +8726,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -8737,13 +8746,13 @@
         <v>506</v>
       </c>
       <c r="K68" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L68" t="s">
         <v>504</v>
       </c>
       <c r="M68" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N68" t="s">
         <v>515</v>
@@ -8773,13 +8782,13 @@
         <v>506</v>
       </c>
       <c r="W68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="X68" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -8844,13 +8853,13 @@
         <v>521</v>
       </c>
       <c r="AA69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AB69" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -8885,19 +8894,19 @@
         <v>518</v>
       </c>
       <c r="O70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P70" t="s">
         <v>506</v>
       </c>
       <c r="Q70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R70" t="s">
         <v>504</v>
       </c>
       <c r="S70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T70" t="s">
         <v>506</v>
@@ -8909,7 +8918,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -8973,8 +8982,110 @@
       <c r="X71" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="Y71" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>520</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>521</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>738</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>609</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>680</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>695</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>512</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>698</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>520</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>687</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>506</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>653</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>508</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>604</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>512</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>727</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>504</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>743</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -8991,13 +9102,13 @@
         <v>397</v>
       </c>
       <c r="I72" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J72" t="s">
         <v>513</v>
       </c>
       <c r="K72" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L72" t="s">
         <v>517</v>
@@ -9015,13 +9126,13 @@
         <v>507</v>
       </c>
       <c r="Q72" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R72" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -9050,7 +9161,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -9130,19 +9241,61 @@
         <v>518</v>
       </c>
       <c r="AE74" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG74" t="s">
         <v>666</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>506</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>667</v>
       </c>
       <c r="AH74" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AI74" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>521</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>680</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>591</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>687</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>539</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>510</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -9189,7 +9342,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -9224,7 +9377,7 @@
         <v>511</v>
       </c>
       <c r="Q76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R76" t="s">
         <v>508</v>
@@ -9254,7 +9407,7 @@
         <v>507</v>
       </c>
       <c r="AA76" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AB76" t="s">
         <v>504</v>
@@ -9266,13 +9419,67 @@
         <v>520</v>
       </c>
       <c r="AE76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF76" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AG76" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>514</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>680</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>506</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>539</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>510</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>744</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>711</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -9336,8 +9543,38 @@
       <c r="Z77" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA77" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>646</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -9369,7 +9606,7 @@
         <v>504</v>
       </c>
       <c r="O78" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P78" t="s">
         <v>519</v>
@@ -9404,8 +9641,26 @@
       <c r="Z78" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AA78" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -9431,25 +9686,31 @@
         <v>516</v>
       </c>
       <c r="M79" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N79" t="s">
         <v>508</v>
       </c>
       <c r="O79" t="s">
+        <v>665</v>
+      </c>
+      <c r="P79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q79" t="s">
         <v>666</v>
-      </c>
-      <c r="P79" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>667</v>
       </c>
       <c r="R79" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S79" t="s">
+        <v>598</v>
+      </c>
+      <c r="T79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -9503,6 +9764,24 @@
       </c>
       <c r="V80" t="s">
         <v>521</v>
+      </c>
+      <c r="W80" t="s">
+        <v>727</v>
+      </c>
+      <c r="X80" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.35">
@@ -9519,7 +9798,7 @@
         <v>503</v>
       </c>
       <c r="I81" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J81" t="s">
         <v>509</v>
@@ -9537,7 +9816,7 @@
         <v>516</v>
       </c>
       <c r="O81" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P81" t="s">
         <v>514</v>
@@ -9608,7 +9887,7 @@
         <v>518</v>
       </c>
       <c r="U82" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V82" t="s">
         <v>506</v>
@@ -9684,7 +9963,7 @@
         <v>521</v>
       </c>
       <c r="O84" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P84" t="s">
         <v>517</v>
@@ -9708,7 +9987,7 @@
         <v>511</v>
       </c>
       <c r="W84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="X84" t="s">
         <v>504</v>
@@ -9726,7 +10005,7 @@
         <v>508</v>
       </c>
       <c r="AC84" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AD84" t="s">
         <v>514</v>
@@ -9744,7 +10023,7 @@
         <v>518</v>
       </c>
       <c r="AI84" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AJ84" t="s">
         <v>506</v>
@@ -9820,7 +10099,7 @@
         <v>503</v>
       </c>
       <c r="I86" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J86" t="s">
         <v>515</v>
@@ -9856,7 +10135,7 @@
         <v>515</v>
       </c>
       <c r="U86" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V86" t="s">
         <v>506</v>
@@ -9886,7 +10165,7 @@
         <v>518</v>
       </c>
       <c r="AE86" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF86" t="s">
         <v>506</v>
@@ -9924,7 +10203,7 @@
         <v>516</v>
       </c>
       <c r="O87" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P87" t="s">
         <v>515</v>
@@ -9968,13 +10247,13 @@
         <v>506</v>
       </c>
       <c r="Q88" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R88" t="s">
         <v>516</v>
       </c>
       <c r="S88" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T88" t="s">
         <v>507</v>
@@ -10030,13 +10309,13 @@
         <v>507</v>
       </c>
       <c r="U89" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V89" t="s">
         <v>521</v>
       </c>
       <c r="W89" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="X89" t="s">
         <v>510</v>
@@ -10139,13 +10418,13 @@
         <v>504</v>
       </c>
       <c r="O91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P91" t="s">
         <v>517</v>
       </c>
       <c r="Q91" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R91" t="s">
         <v>519</v>
@@ -10157,7 +10436,7 @@
         <v>507</v>
       </c>
       <c r="U91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="V91" t="s">
         <v>506</v>
@@ -10193,7 +10472,7 @@
         <v>518</v>
       </c>
       <c r="AG91" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AH91" t="s">
         <v>506</v>
@@ -10313,7 +10592,7 @@
         <v>504</v>
       </c>
       <c r="M94" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N94" t="s">
         <v>515</v>
@@ -10349,13 +10628,13 @@
         <v>518</v>
       </c>
       <c r="Y94" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z94" t="s">
         <v>515</v>
       </c>
       <c r="AA94" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AB94" t="s">
         <v>517</v>
@@ -10411,25 +10690,25 @@
         <v>506</v>
       </c>
       <c r="U95" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="V95" t="s">
         <v>517</v>
       </c>
       <c r="W95" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="X95" t="s">
         <v>504</v>
       </c>
       <c r="Y95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z95" t="s">
         <v>514</v>
       </c>
       <c r="AA95" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB95" t="s">
         <v>517</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CE0A32-64A8-4142-9805-157CB9386F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49597D-2B5B-4644-B6BB-1AC8D4FB57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74BBADFE-AE4E-4025-9A7B-D43746AD48F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="745">
   <si>
     <t>Name</t>
   </si>
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71E0284-62E7-4C3B-A2EC-C6DA4EDE804A}">
   <dimension ref="A1:CD487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J68" zoomScale="104" workbookViewId="0">
-      <selection activeCell="Z82" sqref="Z82"/>
+    <sheetView tabSelected="1" topLeftCell="AQ67" zoomScale="104" workbookViewId="0">
+      <selection activeCell="BA84" sqref="BA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9784,7 +9784,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -9839,8 +9839,14 @@
       <c r="V81" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="W81" t="s">
+        <v>550</v>
+      </c>
+      <c r="X81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -9892,8 +9898,14 @@
       <c r="V82" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="W82" t="s">
+        <v>710</v>
+      </c>
+      <c r="X82" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -9933,8 +9945,38 @@
       <c r="R83" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="S83" t="s">
+        <v>687</v>
+      </c>
+      <c r="T83" t="s">
+        <v>506</v>
+      </c>
+      <c r="U83" t="s">
+        <v>547</v>
+      </c>
+      <c r="V83" t="s">
+        <v>511</v>
+      </c>
+      <c r="W83" t="s">
+        <v>606</v>
+      </c>
+      <c r="X83" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -10028,8 +10070,56 @@
       <c r="AJ84" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AK84" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>667</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>609</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>521</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>680</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>679</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>516</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>687</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>710</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>520</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>653</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -10085,7 +10175,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -10171,7 +10261,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -10209,7 +10299,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -10259,7 +10349,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -10321,7 +10411,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -10386,7 +10476,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -10478,7 +10568,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -10534,7 +10624,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -10569,7 +10659,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -10640,7 +10730,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -10744,7 +10834,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>110</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E853DDE-3C5A-4B5E-BD2A-5EE4B1AF4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E39E1C-F511-4386-8035-2DB8B8565AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="749">
   <si>
     <t>Name</t>
   </si>
@@ -2110,9 +2110,6 @@
     <t>Tropius</t>
   </si>
   <si>
-    <t>flying</t>
-  </si>
-  <si>
     <t>Tsareena</t>
   </si>
   <si>
@@ -2258,6 +2255,18 @@
   </si>
   <si>
     <t>Icicle Spear</t>
+  </si>
+  <si>
+    <t>Solar Blade</t>
+  </si>
+  <si>
+    <t>Hammer Arm</t>
+  </si>
+  <si>
+    <t>Sky Attack</t>
+  </si>
+  <si>
+    <t>Brave Bird</t>
   </si>
 </sst>
 </file>
@@ -2622,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N45" workbookViewId="0">
-      <selection activeCell="AA58" sqref="AA58"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9784,7 +9793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -9846,7 +9855,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -9905,7 +9914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -9976,7 +9985,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>334</v>
       </c>
@@ -10119,7 +10128,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>337</v>
       </c>
@@ -10193,15 +10202,15 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10312,7 +10321,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -10324,7 +10333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>338</v>
       </c>
@@ -10446,7 +10455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -10508,7 +10517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>341</v>
       </c>
@@ -10564,7 +10573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>342</v>
       </c>
@@ -10650,7 +10659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>343</v>
       </c>
@@ -10714,8 +10723,20 @@
       <c r="Z91" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AA91" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>344</v>
       </c>
@@ -10806,8 +10827,14 @@
       <c r="AH92" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AI92" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>345</v>
       </c>
@@ -10862,8 +10889,32 @@
       <c r="V93" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="W93" t="s">
+        <v>145</v>
+      </c>
+      <c r="X93" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>346</v>
       </c>
@@ -10897,8 +10948,20 @@
       <c r="P94" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="Q94" t="s">
+        <v>167</v>
+      </c>
+      <c r="R94" t="s">
+        <v>83</v>
+      </c>
+      <c r="S94" t="s">
+        <v>204</v>
+      </c>
+      <c r="T94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>347</v>
       </c>
@@ -10968,8 +11031,110 @@
       <c r="AB95" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AC95" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX95" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY95" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ95" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA95" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB95" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC95" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD95" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>744</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG95" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH95" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI95" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>348</v>
       </c>
@@ -11049,10 +11214,10 @@
         <v>119</v>
       </c>
       <c r="AE96" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="AF96" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG96" t="s">
         <v>180</v>
@@ -11072,8 +11237,14 @@
       <c r="AL96" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="AM96" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>351</v>
       </c>
@@ -11125,8 +11296,14 @@
       <c r="V97" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W97" t="s">
+        <v>161</v>
+      </c>
+      <c r="X97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>352</v>
       </c>
@@ -11139,8 +11316,110 @@
       <c r="G98" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>87</v>
+      </c>
+      <c r="K98" t="s">
+        <v>101</v>
+      </c>
+      <c r="L98" t="s">
+        <v>102</v>
+      </c>
+      <c r="M98" t="s">
+        <v>98</v>
+      </c>
+      <c r="N98" t="s">
+        <v>87</v>
+      </c>
+      <c r="O98" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R98" t="s">
+        <v>89</v>
+      </c>
+      <c r="S98" t="s">
+        <v>746</v>
+      </c>
+      <c r="T98" t="s">
+        <v>87</v>
+      </c>
+      <c r="U98" t="s">
+        <v>141</v>
+      </c>
+      <c r="V98" t="s">
+        <v>92</v>
+      </c>
+      <c r="W98" t="s">
+        <v>221</v>
+      </c>
+      <c r="X98" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -11153,8 +11432,92 @@
       <c r="E99" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
+        <v>747</v>
+      </c>
+      <c r="J99" t="s">
+        <v>116</v>
+      </c>
+      <c r="K99" t="s">
+        <v>748</v>
+      </c>
+      <c r="L99" t="s">
+        <v>116</v>
+      </c>
+      <c r="M99" t="s">
+        <v>93</v>
+      </c>
+      <c r="N99" t="s">
+        <v>87</v>
+      </c>
+      <c r="O99" t="s">
+        <v>307</v>
+      </c>
+      <c r="P99" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>330</v>
+      </c>
+      <c r="R99" t="s">
+        <v>116</v>
+      </c>
+      <c r="S99" t="s">
+        <v>109</v>
+      </c>
+      <c r="T99" t="s">
+        <v>110</v>
+      </c>
+      <c r="U99" t="s">
+        <v>171</v>
+      </c>
+      <c r="V99" t="s">
+        <v>92</v>
+      </c>
+      <c r="W99" t="s">
+        <v>201</v>
+      </c>
+      <c r="X99" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>354</v>
       </c>
@@ -11167,8 +11530,74 @@
       <c r="E100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>747</v>
+      </c>
+      <c r="J100" t="s">
+        <v>116</v>
+      </c>
+      <c r="K100" t="s">
+        <v>748</v>
+      </c>
+      <c r="L100" t="s">
+        <v>116</v>
+      </c>
+      <c r="M100" t="s">
+        <v>330</v>
+      </c>
+      <c r="N100" t="s">
+        <v>116</v>
+      </c>
+      <c r="O100" t="s">
+        <v>111</v>
+      </c>
+      <c r="P100" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>171</v>
+      </c>
+      <c r="R100" t="s">
+        <v>92</v>
+      </c>
+      <c r="S100" t="s">
+        <v>201</v>
+      </c>
+      <c r="T100" t="s">
+        <v>102</v>
+      </c>
+      <c r="U100" t="s">
+        <v>180</v>
+      </c>
+      <c r="V100" t="s">
+        <v>106</v>
+      </c>
+      <c r="W100" t="s">
+        <v>130</v>
+      </c>
+      <c r="X100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>355</v>
       </c>
@@ -11182,7 +11611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>356</v>
       </c>
@@ -11193,7 +11622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>357</v>
       </c>
@@ -11216,7 +11645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>358</v>
       </c>
@@ -11230,7 +11659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>359</v>
       </c>
@@ -11244,7 +11673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>360</v>
       </c>
@@ -11258,7 +11687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>361</v>
       </c>
@@ -11272,7 +11701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -11286,7 +11715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -11300,7 +11729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -11311,7 +11740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>365</v>
       </c>
@@ -11325,7 +11754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>366</v>
       </c>
@@ -15579,7 +16008,7 @@
         <v>83</v>
       </c>
       <c r="C441" t="s">
-        <v>696</v>
+        <v>116</v>
       </c>
       <c r="E441" t="s">
         <v>85</v>
@@ -15587,7 +16016,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B442" t="s">
         <v>83</v>
@@ -15598,7 +16027,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B443" t="s">
         <v>117</v>
@@ -15612,7 +16041,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B444" t="s">
         <v>117</v>
@@ -15623,7 +16052,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
@@ -15637,7 +16066,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B446" t="s">
         <v>95</v>
@@ -15651,7 +16080,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B447" t="s">
         <v>95</v>
@@ -15665,7 +16094,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B448" t="s">
         <v>102</v>
@@ -15676,7 +16105,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B449" t="s">
         <v>174</v>
@@ -15690,7 +16119,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B450" t="s">
         <v>110</v>
@@ -15701,7 +16130,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -15712,7 +16141,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B452" t="s">
         <v>84</v>
@@ -15729,7 +16158,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B453" t="s">
         <v>129</v>
@@ -15740,7 +16169,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
@@ -15757,7 +16186,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B455" t="s">
         <v>106</v>
@@ -15771,7 +16200,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B456" t="s">
         <v>83</v>
@@ -15785,7 +16214,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B457" t="s">
         <v>106</v>
@@ -15799,7 +16228,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B458" t="s">
         <v>83</v>
@@ -15813,7 +16242,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B459" t="s">
         <v>106</v>
@@ -15827,7 +16256,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B460" t="s">
         <v>83</v>
@@ -15841,7 +16270,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B461" t="s">
         <v>83</v>
@@ -15855,7 +16284,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B462" t="s">
         <v>106</v>
@@ -15869,7 +16298,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
@@ -15880,7 +16309,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B464" t="s">
         <v>117</v>
@@ -15894,7 +16323,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B465" t="s">
         <v>129</v>
@@ -15905,7 +16334,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B466" t="s">
         <v>84</v>
@@ -15919,7 +16348,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B467" t="s">
         <v>174</v>
@@ -15930,7 +16359,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B468" t="s">
         <v>127</v>
@@ -15941,7 +16370,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B469" t="s">
         <v>127</v>
@@ -15955,7 +16384,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B470" t="s">
         <v>83</v>
@@ -15969,7 +16398,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B471" t="s">
         <v>129</v>
@@ -15983,7 +16412,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B472" t="s">
         <v>174</v>
@@ -15997,7 +16426,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B473" t="s">
         <v>129</v>
@@ -16008,7 +16437,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B474" t="s">
         <v>110</v>
@@ -16019,7 +16448,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B475" t="s">
         <v>102</v>
@@ -16033,7 +16462,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B476" t="s">
         <v>106</v>
@@ -16047,7 +16476,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B477" t="s">
         <v>106</v>
@@ -16061,7 +16490,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
@@ -16075,7 +16504,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B479" t="s">
         <v>129</v>
@@ -16086,7 +16515,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B480" t="s">
         <v>174</v>
@@ -16103,7 +16532,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B481" t="s">
         <v>110</v>
@@ -16117,7 +16546,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B482" t="s">
         <v>106</v>
@@ -16131,7 +16560,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B483" t="s">
         <v>174</v>
@@ -16142,7 +16571,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B484" t="s">
         <v>102</v>
@@ -16156,7 +16585,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B485" t="s">
         <v>119</v>
@@ -16167,7 +16596,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B486" t="s">
         <v>119</v>
@@ -16178,7 +16607,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B487" t="s">
         <v>102</v>
@@ -16189,7 +16618,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B488" t="s">
         <v>100</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F836CAE-238D-4F52-813B-B7B2FC8B8A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17D433-30C8-4EF0-9DBD-495932CBFE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="749">
   <si>
     <t>Name</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>Dipplin</t>
   </si>
   <si>
-    <t>Ditto</t>
-  </si>
-  <si>
     <t>Dodrio</t>
   </si>
   <si>
@@ -2264,6 +2261,12 @@
   </si>
   <si>
     <t>Brave Bird</t>
+  </si>
+  <si>
+    <t>Deoxys-Defense</t>
+  </si>
+  <si>
+    <t>Meteor Mash</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R78" workbookViewId="0">
-      <selection activeCell="AC89" sqref="AC89"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7341,6 +7344,9 @@
       <c r="C50" t="s">
         <v>102</v>
       </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
       <c r="E50" t="s">
         <v>85</v>
       </c>
@@ -10139,7 +10145,7 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -10147,7 +10153,7 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10258,7 +10264,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -10833,7 +10839,7 @@
         <v>83</v>
       </c>
       <c r="AC93" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AD93" t="s">
         <v>83</v>
@@ -11041,7 +11047,7 @@
         <v>95</v>
       </c>
       <c r="BE95" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BF95" t="s">
         <v>84</v>
@@ -11169,7 +11175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>351</v>
       </c>
@@ -11272,7 +11278,7 @@
         <v>89</v>
       </c>
       <c r="S98" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T98" t="s">
         <v>87</v>
@@ -11344,7 +11350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>352</v>
       </c>
@@ -11358,13 +11364,13 @@
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J99" t="s">
         <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L99" t="s">
         <v>116</v>
@@ -11442,7 +11448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>353</v>
       </c>
@@ -11456,13 +11462,13 @@
         <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11522,7 +11528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>354</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>355</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>356</v>
       </c>
@@ -11756,7 +11762,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>357</v>
       </c>
@@ -11769,91 +11775,700 @@
       <c r="E104" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>124</v>
+      </c>
+      <c r="J104" t="s">
+        <v>87</v>
+      </c>
+      <c r="K104" t="s">
+        <v>185</v>
+      </c>
+      <c r="L104" t="s">
+        <v>83</v>
+      </c>
+      <c r="M104" t="s">
+        <v>93</v>
+      </c>
+      <c r="N104" t="s">
+        <v>87</v>
+      </c>
+      <c r="O104" t="s">
+        <v>166</v>
+      </c>
+      <c r="P104" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>91</v>
+      </c>
+      <c r="R104" t="s">
+        <v>92</v>
+      </c>
+      <c r="S104" t="s">
+        <v>175</v>
+      </c>
+      <c r="T104" t="s">
+        <v>102</v>
+      </c>
+      <c r="U104" t="s">
+        <v>171</v>
+      </c>
+      <c r="V104" t="s">
+        <v>108</v>
+      </c>
+      <c r="W104" t="s">
+        <v>96</v>
+      </c>
+      <c r="X104" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>747</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105" t="s">
+        <v>121</v>
+      </c>
+      <c r="J105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105" t="s">
+        <v>204</v>
+      </c>
+      <c r="L105" t="s">
+        <v>122</v>
+      </c>
+      <c r="M105" t="s">
+        <v>101</v>
+      </c>
+      <c r="N105" t="s">
+        <v>102</v>
+      </c>
+      <c r="O105" t="s">
+        <v>124</v>
+      </c>
+      <c r="P105" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>185</v>
+      </c>
+      <c r="R105" t="s">
+        <v>83</v>
+      </c>
+      <c r="S105" t="s">
+        <v>93</v>
+      </c>
+      <c r="T105" t="s">
+        <v>87</v>
+      </c>
+      <c r="U105" t="s">
+        <v>195</v>
+      </c>
+      <c r="V105" t="s">
+        <v>95</v>
+      </c>
+      <c r="W105" t="s">
+        <v>166</v>
+      </c>
+      <c r="X105" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>748</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV105" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW105" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY105" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ105" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA105" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB105" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC105" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD105" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF105" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG105" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH105" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI105" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ105" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK105" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL105" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM105" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN105" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO105" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP105" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ105" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR105" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS105" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>358</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>129</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>84</v>
       </c>
-      <c r="E105" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" t="s">
+        <v>101</v>
+      </c>
+      <c r="J106" t="s">
+        <v>102</v>
+      </c>
+      <c r="K106" t="s">
+        <v>105</v>
+      </c>
+      <c r="L106" t="s">
+        <v>106</v>
+      </c>
+      <c r="M106" t="s">
+        <v>297</v>
+      </c>
+      <c r="N106" t="s">
+        <v>127</v>
+      </c>
+      <c r="O106" t="s">
+        <v>91</v>
+      </c>
+      <c r="P106" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>107</v>
+      </c>
+      <c r="R106" t="s">
+        <v>108</v>
+      </c>
+      <c r="S106" t="s">
+        <v>256</v>
+      </c>
+      <c r="T106" t="s">
+        <v>89</v>
+      </c>
+      <c r="U106" t="s">
+        <v>194</v>
+      </c>
+      <c r="V106" t="s">
+        <v>106</v>
+      </c>
+      <c r="W106" t="s">
+        <v>217</v>
+      </c>
+      <c r="X106" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>359</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>97</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>83</v>
       </c>
-      <c r="E106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="D107" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" t="s">
+        <v>199</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s">
+        <v>201</v>
+      </c>
+      <c r="L107" t="s">
+        <v>92</v>
+      </c>
+      <c r="M107" t="s">
+        <v>225</v>
+      </c>
+      <c r="N107" t="s">
+        <v>129</v>
+      </c>
+      <c r="O107" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>130</v>
+      </c>
+      <c r="R107" t="s">
+        <v>102</v>
+      </c>
+      <c r="S107" t="s">
+        <v>232</v>
+      </c>
+      <c r="T107" t="s">
+        <v>129</v>
+      </c>
+      <c r="U107" t="s">
+        <v>94</v>
+      </c>
+      <c r="V107" t="s">
+        <v>95</v>
+      </c>
+      <c r="W107" t="s">
+        <v>254</v>
+      </c>
+      <c r="X107" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>360</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>95</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>108</v>
       </c>
-      <c r="E107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J108" t="s">
+        <v>92</v>
+      </c>
+      <c r="K108" t="s">
+        <v>90</v>
+      </c>
+      <c r="L108" t="s">
+        <v>89</v>
+      </c>
+      <c r="M108" t="s">
+        <v>110</v>
+      </c>
+      <c r="N108" t="s">
+        <v>110</v>
+      </c>
+      <c r="O108" t="s">
+        <v>98</v>
+      </c>
+      <c r="P108" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>236</v>
+      </c>
+      <c r="R108" t="s">
+        <v>92</v>
+      </c>
+      <c r="S108" t="s">
+        <v>164</v>
+      </c>
+      <c r="T108" t="s">
+        <v>110</v>
+      </c>
+      <c r="U108" t="s">
+        <v>163</v>
+      </c>
+      <c r="V108" t="s">
+        <v>117</v>
+      </c>
+      <c r="W108" t="s">
+        <v>215</v>
+      </c>
+      <c r="X108" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>361</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>173</v>
       </c>
-      <c r="C108" t="s">
-        <v>89</v>
-      </c>
-      <c r="E108" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+      <c r="E109" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109" t="s">
+        <v>101</v>
+      </c>
+      <c r="J109" t="s">
+        <v>102</v>
+      </c>
+      <c r="K109" t="s">
+        <v>185</v>
+      </c>
+      <c r="L109" t="s">
+        <v>83</v>
+      </c>
+      <c r="M109" t="s">
+        <v>176</v>
+      </c>
+      <c r="N109" t="s">
+        <v>127</v>
+      </c>
+      <c r="O109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P109" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>152</v>
+      </c>
+      <c r="R109" t="s">
+        <v>87</v>
+      </c>
+      <c r="S109" t="s">
+        <v>744</v>
+      </c>
+      <c r="T109" t="s">
+        <v>87</v>
+      </c>
+      <c r="U109" t="s">
+        <v>112</v>
+      </c>
+      <c r="V109" t="s">
+        <v>95</v>
+      </c>
+      <c r="W109" t="s">
+        <v>91</v>
+      </c>
+      <c r="X109" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV109" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW109" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX109" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY109" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ109" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA109" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>362</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>83</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>100</v>
       </c>
-      <c r="E109" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="E110" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110" t="s">
+        <v>199</v>
+      </c>
+      <c r="J110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K110" t="s">
+        <v>212</v>
+      </c>
+      <c r="L110" t="s">
+        <v>106</v>
+      </c>
+      <c r="M110" t="s">
+        <v>200</v>
+      </c>
+      <c r="N110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>364</v>
       </c>
       <c r="B111" t="s">
         <v>173</v>
@@ -11865,9 +12480,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B112" t="s">
         <v>89</v>
@@ -11881,7 +12496,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s">
         <v>119</v>
@@ -11895,7 +12510,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B114" t="s">
         <v>127</v>
@@ -11909,7 +12524,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B115" t="s">
         <v>173</v>
@@ -11923,7 +12538,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B116" t="s">
         <v>127</v>
@@ -11937,7 +12552,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
         <v>129</v>
@@ -11951,7 +12566,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s">
         <v>97</v>
@@ -11965,7 +12580,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B119" t="s">
         <v>100</v>
@@ -11976,7 +12591,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
         <v>173</v>
@@ -11987,7 +12602,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B121" t="s">
         <v>173</v>
@@ -11998,7 +12613,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s">
         <v>89</v>
@@ -12009,7 +12624,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B123" t="s">
         <v>89</v>
@@ -12023,7 +12638,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s">
         <v>92</v>
@@ -12037,7 +12652,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s">
         <v>106</v>
@@ -12051,7 +12666,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s">
         <v>97</v>
@@ -12062,7 +12677,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
@@ -12076,7 +12691,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B128" t="s">
         <v>119</v>
@@ -12087,7 +12702,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B129" t="s">
         <v>84</v>
@@ -12104,7 +12719,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B130" t="s">
         <v>83</v>
@@ -12115,7 +12730,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s">
         <v>119</v>
@@ -12126,7 +12741,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
         <v>119</v>
@@ -12137,7 +12752,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B133" t="s">
         <v>119</v>
@@ -12151,7 +12766,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B134" t="s">
         <v>117</v>
@@ -12165,7 +12780,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B135" t="s">
         <v>119</v>
@@ -12179,7 +12794,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B136" t="s">
         <v>129</v>
@@ -12196,7 +12811,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B137" t="s">
         <v>108</v>
@@ -12210,7 +12825,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B138" t="s">
         <v>117</v>
@@ -12221,7 +12836,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B139" t="s">
         <v>106</v>
@@ -12235,7 +12850,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B140" t="s">
         <v>110</v>
@@ -12246,7 +12861,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
         <v>83</v>
@@ -12260,7 +12875,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B142" t="s">
         <v>83</v>
@@ -12274,7 +12889,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s">
         <v>173</v>
@@ -12285,7 +12900,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B144" t="s">
         <v>87</v>
@@ -12296,7 +12911,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B145" t="s">
         <v>173</v>
@@ -12310,7 +12925,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B146" t="s">
         <v>173</v>
@@ -12324,7 +12939,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B147" t="s">
         <v>173</v>
@@ -12338,7 +12953,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B148" t="s">
         <v>129</v>
@@ -12349,7 +12964,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B149" t="s">
         <v>127</v>
@@ -12363,7 +12978,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B150" t="s">
         <v>116</v>
@@ -12377,7 +12992,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B151" t="s">
         <v>83</v>
@@ -12391,7 +13006,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -12402,7 +13017,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B153" t="s">
         <v>129</v>
@@ -12413,7 +13028,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B154" t="s">
         <v>108</v>
@@ -12424,7 +13039,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s">
         <v>89</v>
@@ -12441,7 +13056,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B156" t="s">
         <v>106</v>
@@ -12455,7 +13070,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B157" t="s">
         <v>84</v>
@@ -12469,7 +13084,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B158" t="s">
         <v>84</v>
@@ -12483,7 +13098,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -12494,7 +13109,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B160" t="s">
         <v>173</v>
@@ -12505,7 +13120,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B161" t="s">
         <v>110</v>
@@ -12519,7 +13134,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
         <v>106</v>
@@ -12533,7 +13148,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B163" t="s">
         <v>127</v>
@@ -12544,7 +13159,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" t="s">
         <v>110</v>
@@ -12558,7 +13173,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" t="s">
         <v>129</v>
@@ -12572,7 +13187,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B166" t="s">
         <v>95</v>
@@ -12583,7 +13198,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B167" t="s">
         <v>84</v>
@@ -12600,7 +13215,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -12617,7 +13232,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -12628,7 +13243,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B170" t="s">
         <v>83</v>
@@ -12639,7 +13254,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B171" t="s">
         <v>129</v>
@@ -12650,7 +13265,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B172" t="s">
         <v>95</v>
@@ -12664,7 +13279,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B173" t="s">
         <v>95</v>
@@ -12678,7 +13293,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B174" t="s">
         <v>106</v>
@@ -12692,7 +13307,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" t="s">
         <v>89</v>
@@ -12706,7 +13321,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B176" t="s">
         <v>100</v>
@@ -12720,7 +13335,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B177" t="s">
         <v>92</v>
@@ -12734,7 +13349,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B178" t="s">
         <v>129</v>
@@ -12745,7 +13360,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B179" t="s">
         <v>110</v>
@@ -12756,7 +13371,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B180" t="s">
         <v>97</v>
@@ -12770,7 +13385,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B181" t="s">
         <v>127</v>
@@ -12787,7 +13402,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B182" t="s">
         <v>108</v>
@@ -12798,7 +13413,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
         <v>87</v>
@@ -12809,7 +13424,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s">
         <v>173</v>
@@ -12820,7 +13435,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s">
         <v>102</v>
@@ -12834,7 +13449,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s">
         <v>110</v>
@@ -12845,7 +13460,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B187" t="s">
         <v>173</v>
@@ -12856,7 +13471,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s">
         <v>102</v>
@@ -12870,7 +13485,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B189" t="s">
         <v>87</v>
@@ -12881,7 +13496,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B190" t="s">
         <v>117</v>
@@ -12892,7 +13507,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B191" t="s">
         <v>119</v>
@@ -12906,7 +13521,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s">
         <v>106</v>
@@ -12920,7 +13535,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B193" t="s">
         <v>87</v>
@@ -12931,7 +13546,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B194" t="s">
         <v>87</v>
@@ -12942,7 +13557,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B195" t="s">
         <v>87</v>
@@ -12953,7 +13568,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s">
         <v>102</v>
@@ -12967,7 +13582,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B197" t="s">
         <v>110</v>
@@ -12981,7 +13596,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s">
         <v>102</v>
@@ -12995,7 +13610,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s">
         <v>97</v>
@@ -13006,7 +13621,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B200" t="s">
         <v>129</v>
@@ -13017,7 +13632,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B201" t="s">
         <v>110</v>
@@ -13028,7 +13643,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
@@ -13039,7 +13654,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B203" t="s">
         <v>117</v>
@@ -13053,7 +13668,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s">
         <v>110</v>
@@ -13067,7 +13682,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B205" t="s">
         <v>110</v>
@@ -13081,7 +13696,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B206" t="s">
         <v>117</v>
@@ -13095,7 +13710,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B207" t="s">
         <v>129</v>
@@ -13106,7 +13721,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s">
         <v>102</v>
@@ -13120,7 +13735,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B209" t="s">
         <v>95</v>
@@ -13134,7 +13749,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B210" t="s">
         <v>129</v>
@@ -13148,7 +13763,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B211" t="s">
         <v>119</v>
@@ -13159,7 +13774,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B212" t="s">
         <v>83</v>
@@ -13173,7 +13788,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B213" t="s">
         <v>84</v>
@@ -13187,7 +13802,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B214" t="s">
         <v>95</v>
@@ -13201,7 +13816,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B215" t="s">
         <v>173</v>
@@ -13212,7 +13827,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -13223,7 +13838,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B217" t="s">
         <v>119</v>
@@ -13237,7 +13852,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B218" t="s">
         <v>129</v>
@@ -13251,7 +13866,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B219" t="s">
         <v>129</v>
@@ -13262,7 +13877,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B220" t="s">
         <v>95</v>
@@ -13276,7 +13891,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B221" t="s">
         <v>92</v>
@@ -13290,7 +13905,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B222" t="s">
         <v>92</v>
@@ -13301,7 +13916,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B223" t="s">
         <v>173</v>
@@ -13312,7 +13927,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
@@ -13323,7 +13938,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B225" t="s">
         <v>89</v>
@@ -13337,7 +13952,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B226" t="s">
         <v>129</v>
@@ -13351,7 +13966,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B227" t="s">
         <v>129</v>
@@ -13371,7 +13986,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B228" t="s">
         <v>100</v>
@@ -13385,7 +14000,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B229" t="s">
         <v>83</v>
@@ -13396,7 +14011,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
@@ -13410,7 +14025,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
@@ -13424,7 +14039,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B232" t="s">
         <v>173</v>
@@ -13435,7 +14050,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B233" t="s">
         <v>102</v>
@@ -13446,7 +14061,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B234" t="s">
         <v>83</v>
@@ -13457,7 +14072,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B235" t="s">
         <v>173</v>
@@ -13471,7 +14086,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
@@ -13485,7 +14100,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B237" t="s">
         <v>173</v>
@@ -13499,7 +14114,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B238" t="s">
         <v>87</v>
@@ -13513,7 +14128,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B239" t="s">
         <v>129</v>
@@ -13527,7 +14142,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B240" t="s">
         <v>129</v>
@@ -13538,7 +14153,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B241" t="s">
         <v>95</v>
@@ -13552,7 +14167,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B242" t="s">
         <v>83</v>
@@ -13563,7 +14178,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B243" t="s">
         <v>129</v>
@@ -13574,7 +14189,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B244" t="s">
         <v>119</v>
@@ -13585,7 +14200,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B245" t="s">
         <v>95</v>
@@ -13596,7 +14211,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
         <v>95</v>
@@ -13607,7 +14222,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B247" t="s">
         <v>95</v>
@@ -13618,7 +14233,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B248" t="s">
         <v>102</v>
@@ -13629,7 +14244,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B249" t="s">
         <v>87</v>
@@ -13640,7 +14255,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B250" t="s">
         <v>117</v>
@@ -13654,7 +14269,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B251" t="s">
         <v>117</v>
@@ -13665,7 +14280,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B252" t="s">
         <v>102</v>
@@ -13679,7 +14294,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B253" t="s">
         <v>102</v>
@@ -13693,7 +14308,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B254" t="s">
         <v>119</v>
@@ -13704,7 +14319,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B255" t="s">
         <v>129</v>
@@ -13718,7 +14333,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B256" t="s">
         <v>83</v>
@@ -13729,7 +14344,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B257" t="s">
         <v>89</v>
@@ -13740,7 +14355,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B258" t="s">
         <v>117</v>
@@ -13754,7 +14369,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B259" t="s">
         <v>106</v>
@@ -13768,7 +14383,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B260" t="s">
         <v>173</v>
@@ -13782,7 +14397,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B261" t="s">
         <v>92</v>
@@ -13796,7 +14411,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B262" t="s">
         <v>87</v>
@@ -13813,7 +14428,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B263" t="s">
         <v>83</v>
@@ -13824,7 +14439,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B264" t="s">
         <v>173</v>
@@ -13838,7 +14453,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B265" t="s">
         <v>92</v>
@@ -13849,7 +14464,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B266" t="s">
         <v>110</v>
@@ -13860,7 +14475,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -13871,7 +14486,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B268" t="s">
         <v>92</v>
@@ -13888,7 +14503,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B269" t="s">
         <v>102</v>
@@ -13899,7 +14514,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B270" t="s">
         <v>129</v>
@@ -13910,7 +14525,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B271" t="s">
         <v>173</v>
@@ -13921,7 +14536,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B272" t="s">
         <v>97</v>
@@ -13935,7 +14550,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B273" t="s">
         <v>95</v>
@@ -13949,7 +14564,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B274" t="s">
         <v>119</v>
@@ -13960,7 +14575,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B275" t="s">
         <v>97</v>
@@ -13974,7 +14589,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B276" t="s">
         <v>119</v>
@@ -13988,7 +14603,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B277" t="s">
         <v>106</v>
@@ -14002,7 +14617,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B278" t="s">
         <v>110</v>
@@ -14016,7 +14631,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B279" t="s">
         <v>84</v>
@@ -14036,7 +14651,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B280" t="s">
         <v>89</v>
@@ -14047,7 +14662,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B281" t="s">
         <v>127</v>
@@ -14058,7 +14673,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B282" t="s">
         <v>127</v>
@@ -14072,7 +14687,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B283" t="s">
         <v>127</v>
@@ -14086,7 +14701,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B284" t="s">
         <v>110</v>
@@ -14097,7 +14712,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B285" t="s">
         <v>110</v>
@@ -14108,7 +14723,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B286" t="s">
         <v>127</v>
@@ -14122,7 +14737,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B287" t="s">
         <v>127</v>
@@ -14136,7 +14751,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B288" t="s">
         <v>95</v>
@@ -14150,7 +14765,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B289" t="s">
         <v>117</v>
@@ -14161,7 +14776,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B290" t="s">
         <v>84</v>
@@ -14184,7 +14799,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B291" t="s">
         <v>106</v>
@@ -14198,7 +14813,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B292" t="s">
         <v>173</v>
@@ -14212,7 +14827,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B293" t="s">
         <v>116</v>
@@ -14226,7 +14841,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B294" t="s">
         <v>102</v>
@@ -14240,7 +14855,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B295" t="s">
         <v>129</v>
@@ -14251,7 +14866,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B296" t="s">
         <v>83</v>
@@ -14262,7 +14877,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B297" t="s">
         <v>173</v>
@@ -14273,7 +14888,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B298" t="s">
         <v>173</v>
@@ -14284,7 +14899,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B299" t="s">
         <v>127</v>
@@ -14298,7 +14913,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
@@ -14312,7 +14927,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B301" t="s">
         <v>173</v>
@@ -14326,7 +14941,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B302" t="s">
         <v>106</v>
@@ -14340,7 +14955,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B303" t="s">
         <v>117</v>
@@ -14354,7 +14969,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B304" t="s">
         <v>110</v>
@@ -14368,7 +14983,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B305" t="s">
         <v>119</v>
@@ -14382,7 +14997,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B306" t="s">
         <v>97</v>
@@ -14396,7 +15011,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B307" t="s">
         <v>92</v>
@@ -14407,7 +15022,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B308" t="s">
         <v>102</v>
@@ -14421,7 +15036,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B309" t="s">
         <v>119</v>
@@ -14432,7 +15047,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B310" t="s">
         <v>97</v>
@@ -14446,7 +15061,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B311" t="s">
         <v>87</v>
@@ -14460,7 +15075,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B312" t="s">
         <v>106</v>
@@ -14474,7 +15089,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B313" t="s">
         <v>87</v>
@@ -14485,7 +15100,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B314" t="s">
         <v>119</v>
@@ -14499,7 +15114,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B315" t="s">
         <v>92</v>
@@ -14510,7 +15125,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B316" t="s">
         <v>173</v>
@@ -14521,7 +15136,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B317" t="s">
         <v>102</v>
@@ -14532,7 +15147,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B318" t="s">
         <v>129</v>
@@ -14543,7 +15158,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B319" t="s">
         <v>173</v>
@@ -14557,7 +15172,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B320" t="s">
         <v>119</v>
@@ -14568,7 +15183,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B321" t="s">
         <v>119</v>
@@ -14579,7 +15194,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B322" t="s">
         <v>106</v>
@@ -14590,7 +15205,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B323" t="s">
         <v>119</v>
@@ -14601,7 +15216,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B324" t="s">
         <v>129</v>
@@ -14612,7 +15227,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B325" t="s">
         <v>129</v>
@@ -14626,7 +15241,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B326" t="s">
         <v>97</v>
@@ -14637,7 +15252,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B327" t="s">
         <v>129</v>
@@ -14651,7 +15266,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B328" t="s">
         <v>95</v>
@@ -14665,7 +15280,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B329" t="s">
         <v>173</v>
@@ -14676,7 +15291,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B330" t="s">
         <v>117</v>
@@ -14690,7 +15305,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B331" t="s">
         <v>129</v>
@@ -14701,7 +15316,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B332" t="s">
         <v>129</v>
@@ -14715,7 +15330,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B333" t="s">
         <v>129</v>
@@ -14729,7 +15344,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B334" t="s">
         <v>106</v>
@@ -14743,7 +15358,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B335" t="s">
         <v>119</v>
@@ -14754,7 +15369,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B336" t="s">
         <v>119</v>
@@ -14768,7 +15383,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B337" t="s">
         <v>119</v>
@@ -14779,7 +15394,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B338" t="s">
         <v>95</v>
@@ -14790,7 +15405,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B339" t="s">
         <v>117</v>
@@ -14801,7 +15416,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B340" t="s">
         <v>110</v>
@@ -14815,7 +15430,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B341" t="s">
         <v>173</v>
@@ -14826,7 +15441,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B342" t="s">
         <v>102</v>
@@ -14840,7 +15455,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B343" t="s">
         <v>84</v>
@@ -14851,7 +15466,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B344" t="s">
         <v>100</v>
@@ -14862,7 +15477,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B345" t="s">
         <v>173</v>
@@ -14876,7 +15491,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B346" t="s">
         <v>95</v>
@@ -14887,7 +15502,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B347" t="s">
         <v>92</v>
@@ -14901,7 +15516,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B348" t="s">
         <v>129</v>
@@ -14915,7 +15530,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B349" t="s">
         <v>110</v>
@@ -14926,7 +15541,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B350" t="s">
         <v>92</v>
@@ -14940,7 +15555,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B351" t="s">
         <v>89</v>
@@ -14954,7 +15569,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B352" t="s">
         <v>106</v>
@@ -14968,7 +15583,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -14982,7 +15597,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B354" t="s">
         <v>119</v>
@@ -14996,7 +15611,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B355" t="s">
         <v>119</v>
@@ -15010,7 +15625,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B356" t="s">
         <v>119</v>
@@ -15024,7 +15639,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B357" t="s">
         <v>119</v>
@@ -15038,7 +15653,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B358" t="s">
         <v>119</v>
@@ -15052,7 +15667,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B359" t="s">
         <v>89</v>
@@ -15066,7 +15681,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B360" t="s">
         <v>102</v>
@@ -15080,7 +15695,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B361" t="s">
         <v>127</v>
@@ -15094,7 +15709,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B362" t="s">
         <v>129</v>
@@ -15105,7 +15720,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B363" t="s">
         <v>89</v>
@@ -15116,7 +15731,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B364" t="s">
         <v>89</v>
@@ -15127,7 +15742,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B365" t="s">
         <v>84</v>
@@ -15141,7 +15756,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B366" t="s">
         <v>119</v>
@@ -15155,7 +15770,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B367" t="s">
         <v>87</v>
@@ -15166,7 +15781,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B368" t="s">
         <v>173</v>
@@ -15180,7 +15795,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B369" t="s">
         <v>83</v>
@@ -15194,7 +15809,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B370" t="s">
         <v>83</v>
@@ -15208,7 +15823,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B371" t="s">
         <v>102</v>
@@ -15222,7 +15837,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B372" t="s">
         <v>108</v>
@@ -15236,7 +15851,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B373" t="s">
         <v>129</v>
@@ -15247,7 +15862,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B374" t="s">
         <v>129</v>
@@ -15261,7 +15876,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B375" t="s">
         <v>127</v>
@@ -15272,7 +15887,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B376" t="s">
         <v>129</v>
@@ -15286,7 +15901,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B377" t="s">
         <v>83</v>
@@ -15297,7 +15912,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B378" t="s">
         <v>83</v>
@@ -15311,7 +15926,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B379" t="s">
         <v>83</v>
@@ -15325,7 +15940,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B380" t="s">
         <v>106</v>
@@ -15339,7 +15954,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B381" t="s">
         <v>110</v>
@@ -15353,7 +15968,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B382" t="s">
         <v>173</v>
@@ -15367,7 +15982,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B383" t="s">
         <v>129</v>
@@ -15378,7 +15993,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B384" t="s">
         <v>83</v>
@@ -15389,7 +16004,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B385" t="s">
         <v>117</v>
@@ -15400,7 +16015,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B386" t="s">
         <v>83</v>
@@ -15414,7 +16029,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B387" t="s">
         <v>87</v>
@@ -15425,7 +16040,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B388" t="s">
         <v>127</v>
@@ -15439,7 +16054,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B389" t="s">
         <v>173</v>
@@ -15450,7 +16065,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B390" t="s">
         <v>106</v>
@@ -15464,7 +16079,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B391" t="s">
         <v>127</v>
@@ -15478,7 +16093,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B392" t="s">
         <v>129</v>
@@ -15495,7 +16110,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B393" t="s">
         <v>108</v>
@@ -15506,7 +16121,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B394" t="s">
         <v>173</v>
@@ -15517,7 +16132,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B395" t="s">
         <v>173</v>
@@ -15528,7 +16143,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B396" t="s">
         <v>95</v>
@@ -15542,7 +16157,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B397" t="s">
         <v>106</v>
@@ -15553,7 +16168,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B398" t="s">
         <v>173</v>
@@ -15564,7 +16179,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B399" t="s">
         <v>97</v>
@@ -15578,7 +16193,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B400" t="s">
         <v>173</v>
@@ -15592,7 +16207,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B401" t="s">
         <v>95</v>
@@ -15606,7 +16221,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B402" t="s">
         <v>173</v>
@@ -15620,7 +16235,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B403" t="s">
         <v>129</v>
@@ -15634,7 +16249,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B404" t="s">
         <v>92</v>
@@ -15648,7 +16263,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B405" t="s">
         <v>95</v>
@@ -15659,7 +16274,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B406" t="s">
         <v>173</v>
@@ -15670,7 +16285,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B407" t="s">
         <v>89</v>
@@ -15684,7 +16299,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B408" t="s">
         <v>89</v>
@@ -15698,7 +16313,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B409" t="s">
         <v>95</v>
@@ -15709,7 +16324,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B410" t="s">
         <v>129</v>
@@ -15720,7 +16335,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B411" t="s">
         <v>83</v>
@@ -15731,7 +16346,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B412" t="s">
         <v>127</v>
@@ -15742,7 +16357,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B413" t="s">
         <v>129</v>
@@ -15756,7 +16371,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B414" t="s">
         <v>129</v>
@@ -15770,7 +16385,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B415" t="s">
         <v>173</v>
@@ -15784,7 +16399,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B416" t="s">
         <v>110</v>
@@ -15798,7 +16413,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B417" t="s">
         <v>108</v>
@@ -15809,7 +16424,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B418" t="s">
         <v>117</v>
@@ -15823,7 +16438,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B419" t="s">
         <v>83</v>
@@ -15834,7 +16449,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B420" t="s">
         <v>83</v>
@@ -15848,7 +16463,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B421" t="s">
         <v>100</v>
@@ -15862,7 +16477,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B422" t="s">
         <v>173</v>
@@ -15873,7 +16488,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B423" t="s">
         <v>87</v>
@@ -15887,7 +16502,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B424" t="s">
         <v>87</v>
@@ -15901,7 +16516,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B425" t="s">
         <v>87</v>
@@ -15912,7 +16527,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B426" t="s">
         <v>129</v>
@@ -15926,7 +16541,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B427" t="s">
         <v>102</v>
@@ -15937,7 +16552,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B428" t="s">
         <v>87</v>
@@ -15948,7 +16563,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B429" t="s">
         <v>119</v>
@@ -15962,7 +16577,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B430" t="s">
         <v>108</v>
@@ -15976,7 +16591,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B431" t="s">
         <v>89</v>
@@ -15990,7 +16605,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B432" t="s">
         <v>119</v>
@@ -16004,7 +16619,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B433" t="s">
         <v>108</v>
@@ -16018,7 +16633,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B434" t="s">
         <v>117</v>
@@ -16029,7 +16644,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B435" t="s">
         <v>116</v>
@@ -16040,7 +16655,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B436" t="s">
         <v>83</v>
@@ -16057,7 +16672,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B437" t="s">
         <v>173</v>
@@ -16071,7 +16686,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B438" t="s">
         <v>127</v>
@@ -16085,7 +16700,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B439" t="s">
         <v>119</v>
@@ -16099,7 +16714,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B440" t="s">
         <v>97</v>
@@ -16113,7 +16728,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B441" t="s">
         <v>83</v>
@@ -16127,7 +16742,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B442" t="s">
         <v>83</v>
@@ -16138,7 +16753,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B443" t="s">
         <v>117</v>
@@ -16152,7 +16767,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B444" t="s">
         <v>117</v>
@@ -16163,7 +16778,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
@@ -16177,7 +16792,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B446" t="s">
         <v>95</v>
@@ -16191,7 +16806,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B447" t="s">
         <v>95</v>
@@ -16205,7 +16820,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B448" t="s">
         <v>102</v>
@@ -16216,7 +16831,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B449" t="s">
         <v>173</v>
@@ -16230,7 +16845,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B450" t="s">
         <v>110</v>
@@ -16241,7 +16856,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -16252,7 +16867,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B452" t="s">
         <v>84</v>
@@ -16269,7 +16884,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B453" t="s">
         <v>129</v>
@@ -16280,7 +16895,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
@@ -16297,7 +16912,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B455" t="s">
         <v>106</v>
@@ -16311,7 +16926,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B456" t="s">
         <v>83</v>
@@ -16325,7 +16940,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B457" t="s">
         <v>106</v>
@@ -16339,7 +16954,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B458" t="s">
         <v>83</v>
@@ -16353,7 +16968,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B459" t="s">
         <v>106</v>
@@ -16367,7 +16982,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B460" t="s">
         <v>83</v>
@@ -16381,7 +16996,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B461" t="s">
         <v>83</v>
@@ -16395,7 +17010,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B462" t="s">
         <v>106</v>
@@ -16409,7 +17024,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
@@ -16420,7 +17035,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B464" t="s">
         <v>117</v>
@@ -16434,7 +17049,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B465" t="s">
         <v>129</v>
@@ -16445,7 +17060,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B466" t="s">
         <v>84</v>
@@ -16459,7 +17074,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B467" t="s">
         <v>173</v>
@@ -16470,7 +17085,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B468" t="s">
         <v>127</v>
@@ -16481,7 +17096,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B469" t="s">
         <v>127</v>
@@ -16495,7 +17110,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B470" t="s">
         <v>83</v>
@@ -16509,7 +17124,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B471" t="s">
         <v>129</v>
@@ -16523,7 +17138,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B472" t="s">
         <v>173</v>
@@ -16537,7 +17152,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B473" t="s">
         <v>129</v>
@@ -16548,7 +17163,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B474" t="s">
         <v>110</v>
@@ -16559,7 +17174,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B475" t="s">
         <v>102</v>
@@ -16573,7 +17188,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B476" t="s">
         <v>106</v>
@@ -16587,7 +17202,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B477" t="s">
         <v>106</v>
@@ -16601,7 +17216,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
@@ -16615,7 +17230,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B479" t="s">
         <v>129</v>
@@ -16626,7 +17241,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B480" t="s">
         <v>173</v>
@@ -16643,7 +17258,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B481" t="s">
         <v>110</v>
@@ -16657,7 +17272,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B482" t="s">
         <v>106</v>
@@ -16671,7 +17286,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B483" t="s">
         <v>173</v>
@@ -16682,7 +17297,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B484" t="s">
         <v>102</v>
@@ -16696,7 +17311,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B485" t="s">
         <v>119</v>
@@ -16707,7 +17322,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B486" t="s">
         <v>119</v>
@@ -16718,7 +17333,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B487" t="s">
         <v>102</v>
@@ -16729,7 +17344,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B488" t="s">
         <v>100</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17D433-30C8-4EF0-9DBD-495932CBFE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185898FD-31A4-4624-8F45-5E671368073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="755">
   <si>
     <t>Name</t>
   </si>
@@ -2267,6 +2267,24 @@
   </si>
   <si>
     <t>Meteor Mash</t>
+  </si>
+  <si>
+    <t>Jump Kick</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Ice Shard</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Flip Turn</t>
+  </si>
+  <si>
+    <t>Fly</t>
   </si>
 </sst>
 </file>
@@ -2631,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="AM99" workbookViewId="0">
+      <selection activeCell="BC115" sqref="BC115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12479,6 +12497,66 @@
       <c r="E111" t="s">
         <v>85</v>
       </c>
+      <c r="I111" t="s">
+        <v>93</v>
+      </c>
+      <c r="J111" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" t="s">
+        <v>749</v>
+      </c>
+      <c r="L111" t="s">
+        <v>87</v>
+      </c>
+      <c r="M111" t="s">
+        <v>256</v>
+      </c>
+      <c r="N111" t="s">
+        <v>89</v>
+      </c>
+      <c r="O111" t="s">
+        <v>295</v>
+      </c>
+      <c r="P111" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>186</v>
+      </c>
+      <c r="R111" t="s">
+        <v>102</v>
+      </c>
+      <c r="S111" t="s">
+        <v>196</v>
+      </c>
+      <c r="T111" t="s">
+        <v>89</v>
+      </c>
+      <c r="U111" t="s">
+        <v>170</v>
+      </c>
+      <c r="V111" t="s">
+        <v>92</v>
+      </c>
+      <c r="W111" t="s">
+        <v>130</v>
+      </c>
+      <c r="X111" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="112" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -12493,8 +12571,158 @@
       <c r="G112" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I112" t="s">
+        <v>121</v>
+      </c>
+      <c r="J112" t="s">
+        <v>122</v>
+      </c>
+      <c r="K112" t="s">
+        <v>199</v>
+      </c>
+      <c r="L112" t="s">
+        <v>92</v>
+      </c>
+      <c r="M112" t="s">
+        <v>258</v>
+      </c>
+      <c r="N112" t="s">
+        <v>95</v>
+      </c>
+      <c r="O112" t="s">
+        <v>176</v>
+      </c>
+      <c r="P112" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>152</v>
+      </c>
+      <c r="R112" t="s">
+        <v>87</v>
+      </c>
+      <c r="S112" t="s">
+        <v>201</v>
+      </c>
+      <c r="T112" t="s">
+        <v>92</v>
+      </c>
+      <c r="U112" t="s">
+        <v>112</v>
+      </c>
+      <c r="V112" t="s">
+        <v>95</v>
+      </c>
+      <c r="W112" t="s">
+        <v>91</v>
+      </c>
+      <c r="X112" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS112" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX112" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY112" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ112" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA112" t="s">
+        <v>750</v>
+      </c>
+      <c r="BB112" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC112" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD112" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE112" t="s">
+        <v>751</v>
+      </c>
+      <c r="BF112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>365</v>
       </c>
@@ -12507,8 +12735,80 @@
       <c r="E113" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I113" t="s">
+        <v>93</v>
+      </c>
+      <c r="J113" t="s">
+        <v>87</v>
+      </c>
+      <c r="K113" t="s">
+        <v>195</v>
+      </c>
+      <c r="L113" t="s">
+        <v>95</v>
+      </c>
+      <c r="M113" t="s">
+        <v>155</v>
+      </c>
+      <c r="N113" t="s">
+        <v>117</v>
+      </c>
+      <c r="O113" t="s">
+        <v>88</v>
+      </c>
+      <c r="P113" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>91</v>
+      </c>
+      <c r="R113" t="s">
+        <v>92</v>
+      </c>
+      <c r="S113" t="s">
+        <v>112</v>
+      </c>
+      <c r="T113" t="s">
+        <v>95</v>
+      </c>
+      <c r="U113" t="s">
+        <v>90</v>
+      </c>
+      <c r="V113" t="s">
+        <v>89</v>
+      </c>
+      <c r="W113" t="s">
+        <v>94</v>
+      </c>
+      <c r="X113" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>366</v>
       </c>
@@ -12521,8 +12821,98 @@
       <c r="E114" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>124</v>
+      </c>
+      <c r="J114" t="s">
+        <v>87</v>
+      </c>
+      <c r="K114" t="s">
+        <v>225</v>
+      </c>
+      <c r="L114" t="s">
+        <v>129</v>
+      </c>
+      <c r="M114" t="s">
+        <v>91</v>
+      </c>
+      <c r="N114" t="s">
+        <v>92</v>
+      </c>
+      <c r="O114" t="s">
+        <v>232</v>
+      </c>
+      <c r="P114" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>136</v>
+      </c>
+      <c r="R114" t="s">
+        <v>129</v>
+      </c>
+      <c r="S114" t="s">
+        <v>107</v>
+      </c>
+      <c r="T114" t="s">
+        <v>108</v>
+      </c>
+      <c r="U114" t="s">
+        <v>115</v>
+      </c>
+      <c r="V114" t="s">
+        <v>116</v>
+      </c>
+      <c r="W114" t="s">
+        <v>157</v>
+      </c>
+      <c r="X114" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>753</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>367</v>
       </c>
@@ -12535,8 +12925,146 @@
       <c r="E115" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I115" t="s">
+        <v>101</v>
+      </c>
+      <c r="J115" t="s">
+        <v>102</v>
+      </c>
+      <c r="K115" t="s">
+        <v>124</v>
+      </c>
+      <c r="L115" t="s">
+        <v>87</v>
+      </c>
+      <c r="M115" t="s">
+        <v>185</v>
+      </c>
+      <c r="N115" t="s">
+        <v>83</v>
+      </c>
+      <c r="O115" t="s">
+        <v>152</v>
+      </c>
+      <c r="P115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>166</v>
+      </c>
+      <c r="R115" t="s">
+        <v>83</v>
+      </c>
+      <c r="S115" t="s">
+        <v>306</v>
+      </c>
+      <c r="T115" t="s">
+        <v>116</v>
+      </c>
+      <c r="U115" t="s">
+        <v>225</v>
+      </c>
+      <c r="V115" t="s">
+        <v>129</v>
+      </c>
+      <c r="W115" t="s">
+        <v>88</v>
+      </c>
+      <c r="X115" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>754</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS115" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV115" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW115" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY115" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ115" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA115" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>368</v>
       </c>
@@ -12550,7 +13078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>369</v>
       </c>
@@ -12564,7 +13092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>370</v>
       </c>
@@ -12578,7 +13106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -12589,7 +13117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -12600,7 +13128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>373</v>
       </c>
@@ -12611,7 +13139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>374</v>
       </c>
@@ -12622,7 +13150,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>375</v>
       </c>
@@ -12636,7 +13164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -12650,7 +13178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -12664,7 +13192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -12675,7 +13203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -12689,7 +13217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>380</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185898FD-31A4-4624-8F45-5E671368073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77F10F-CAE8-48DB-82B4-6340512BD1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2649,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM99" workbookViewId="0">
-      <selection activeCell="BC115" sqref="BC115"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77F10F-CAE8-48DB-82B4-6340512BD1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA59A98-7D3E-4CCA-9998-1951EC43B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="757">
   <si>
     <t>Name</t>
   </si>
@@ -2285,6 +2285,12 @@
   </si>
   <si>
     <t>Fly</t>
+  </si>
+  <si>
+    <t>Bug Buzz</t>
+  </si>
+  <si>
+    <t>Jaw Lock</t>
   </si>
 </sst>
 </file>
@@ -2649,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12722,7 +12728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>365</v>
       </c>
@@ -12808,7 +12814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>366</v>
       </c>
@@ -12912,7 +12918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>367</v>
       </c>
@@ -13064,7 +13070,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>368</v>
       </c>
@@ -13077,8 +13083,98 @@
       <c r="E116" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="I116" t="s">
+        <v>88</v>
+      </c>
+      <c r="J116" t="s">
+        <v>89</v>
+      </c>
+      <c r="K116" t="s">
+        <v>91</v>
+      </c>
+      <c r="L116" t="s">
+        <v>92</v>
+      </c>
+      <c r="M116" t="s">
+        <v>136</v>
+      </c>
+      <c r="N116" t="s">
+        <v>129</v>
+      </c>
+      <c r="O116" t="s">
+        <v>755</v>
+      </c>
+      <c r="P116" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>96</v>
+      </c>
+      <c r="R116" t="s">
+        <v>97</v>
+      </c>
+      <c r="S116" t="s">
+        <v>113</v>
+      </c>
+      <c r="T116" t="s">
+        <v>106</v>
+      </c>
+      <c r="U116" t="s">
+        <v>160</v>
+      </c>
+      <c r="V116" t="s">
+        <v>89</v>
+      </c>
+      <c r="W116" t="s">
+        <v>86</v>
+      </c>
+      <c r="X116" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>369</v>
       </c>
@@ -13091,8 +13187,122 @@
       <c r="E117" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="I117" t="s">
+        <v>121</v>
+      </c>
+      <c r="J117" t="s">
+        <v>122</v>
+      </c>
+      <c r="K117" t="s">
+        <v>105</v>
+      </c>
+      <c r="L117" t="s">
+        <v>106</v>
+      </c>
+      <c r="M117" t="s">
+        <v>152</v>
+      </c>
+      <c r="N117" t="s">
+        <v>87</v>
+      </c>
+      <c r="O117" t="s">
+        <v>88</v>
+      </c>
+      <c r="P117" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>90</v>
+      </c>
+      <c r="R117" t="s">
+        <v>89</v>
+      </c>
+      <c r="S117" t="s">
+        <v>156</v>
+      </c>
+      <c r="T117" t="s">
+        <v>84</v>
+      </c>
+      <c r="U117" t="s">
+        <v>98</v>
+      </c>
+      <c r="V117" t="s">
+        <v>87</v>
+      </c>
+      <c r="W117" t="s">
+        <v>137</v>
+      </c>
+      <c r="X117" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>756</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS117" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>370</v>
       </c>
@@ -13105,8 +13315,50 @@
       <c r="E118" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>199</v>
+      </c>
+      <c r="J118" t="s">
+        <v>92</v>
+      </c>
+      <c r="K118" t="s">
+        <v>101</v>
+      </c>
+      <c r="L118" t="s">
+        <v>102</v>
+      </c>
+      <c r="M118" t="s">
+        <v>118</v>
+      </c>
+      <c r="N118" t="s">
+        <v>119</v>
+      </c>
+      <c r="O118" t="s">
+        <v>110</v>
+      </c>
+      <c r="P118" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>349</v>
+      </c>
+      <c r="R118" t="s">
+        <v>117</v>
+      </c>
+      <c r="S118" t="s">
+        <v>200</v>
+      </c>
+      <c r="T118" t="s">
+        <v>102</v>
+      </c>
+      <c r="U118" t="s">
+        <v>130</v>
+      </c>
+      <c r="V118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -13116,8 +13368,182 @@
       <c r="E119" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="I119" t="s">
+        <v>101</v>
+      </c>
+      <c r="J119" t="s">
+        <v>102</v>
+      </c>
+      <c r="K119" t="s">
+        <v>124</v>
+      </c>
+      <c r="L119" t="s">
+        <v>87</v>
+      </c>
+      <c r="M119" t="s">
+        <v>176</v>
+      </c>
+      <c r="N119" t="s">
+        <v>127</v>
+      </c>
+      <c r="O119" t="s">
+        <v>152</v>
+      </c>
+      <c r="P119" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>88</v>
+      </c>
+      <c r="R119" t="s">
+        <v>89</v>
+      </c>
+      <c r="S119" t="s">
+        <v>91</v>
+      </c>
+      <c r="T119" t="s">
+        <v>92</v>
+      </c>
+      <c r="U119" t="s">
+        <v>219</v>
+      </c>
+      <c r="V119" t="s">
+        <v>117</v>
+      </c>
+      <c r="W119" t="s">
+        <v>136</v>
+      </c>
+      <c r="X119" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV119" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX119" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY119" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA119" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB119" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC119" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE119" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF119" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG119" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH119" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI119" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ119" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK119" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL119" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM119" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -13127,8 +13553,50 @@
       <c r="E120" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="I120" t="s">
+        <v>121</v>
+      </c>
+      <c r="J120" t="s">
+        <v>122</v>
+      </c>
+      <c r="K120" t="s">
+        <v>133</v>
+      </c>
+      <c r="L120" t="s">
+        <v>87</v>
+      </c>
+      <c r="M120" t="s">
+        <v>214</v>
+      </c>
+      <c r="N120" t="s">
+        <v>119</v>
+      </c>
+      <c r="O120" t="s">
+        <v>115</v>
+      </c>
+      <c r="P120" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>98</v>
+      </c>
+      <c r="R120" t="s">
+        <v>87</v>
+      </c>
+      <c r="S120" t="s">
+        <v>114</v>
+      </c>
+      <c r="T120" t="s">
+        <v>110</v>
+      </c>
+      <c r="U120" t="s">
+        <v>146</v>
+      </c>
+      <c r="V120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>373</v>
       </c>
@@ -13139,7 +13607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>374</v>
       </c>
@@ -13150,7 +13618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>375</v>
       </c>
@@ -13164,7 +13632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -13178,7 +13646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -13192,7 +13660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -13203,7 +13671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -13217,7 +13685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>380</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA59A98-7D3E-4CCA-9998-1951EC43B5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96730A0A-31AD-4021-83EB-54665B403BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="758">
   <si>
     <t>Name</t>
   </si>
@@ -2291,6 +2291,9 @@
   </si>
   <si>
     <t>Jaw Lock</t>
+  </si>
+  <si>
+    <t>Metal Burst</t>
   </si>
 </sst>
 </file>
@@ -2655,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="P113" workbookViewId="0">
+      <selection activeCell="AH125" sqref="AH125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6456,6 +6459,12 @@
       <c r="AJ38" t="s">
         <v>89</v>
       </c>
+      <c r="AK38" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -9821,6 +9830,12 @@
       <c r="X81" t="s">
         <v>95</v>
       </c>
+      <c r="Y81" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -12728,7 +12743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>365</v>
       </c>
@@ -12814,7 +12829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>366</v>
       </c>
@@ -12918,7 +12933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>367</v>
       </c>
@@ -13070,7 +13085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>368</v>
       </c>
@@ -13174,7 +13189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>369</v>
       </c>
@@ -13302,7 +13317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>370</v>
       </c>
@@ -13358,7 +13373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>371</v>
       </c>
@@ -13543,7 +13558,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>372</v>
       </c>
@@ -13596,7 +13611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>373</v>
       </c>
@@ -13606,8 +13621,224 @@
       <c r="E121" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I121" t="s">
+        <v>121</v>
+      </c>
+      <c r="J121" t="s">
+        <v>122</v>
+      </c>
+      <c r="K121" t="s">
+        <v>199</v>
+      </c>
+      <c r="L121" t="s">
+        <v>92</v>
+      </c>
+      <c r="M121" t="s">
+        <v>99</v>
+      </c>
+      <c r="N121" t="s">
+        <v>100</v>
+      </c>
+      <c r="O121" t="s">
+        <v>201</v>
+      </c>
+      <c r="P121" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>166</v>
+      </c>
+      <c r="R121" t="s">
+        <v>83</v>
+      </c>
+      <c r="S121" t="s">
+        <v>190</v>
+      </c>
+      <c r="T121" t="s">
+        <v>119</v>
+      </c>
+      <c r="U121" t="s">
+        <v>306</v>
+      </c>
+      <c r="V121" t="s">
+        <v>116</v>
+      </c>
+      <c r="W121" t="s">
+        <v>88</v>
+      </c>
+      <c r="X121" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS121" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV121" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW121" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX121" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ121" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA121" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB121" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC121" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD121" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE121" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF121" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG121" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH121" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI121" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ121" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK121" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL121" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM121" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN121" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO121" t="s">
+        <v>289</v>
+      </c>
+      <c r="BP121" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ121" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR121" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS121" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT121" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU121" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV121" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW121" t="s">
+        <v>308</v>
+      </c>
+      <c r="BX121" t="s">
+        <v>116</v>
+      </c>
+      <c r="BY121" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ121" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA121" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>374</v>
       </c>
@@ -13617,8 +13848,92 @@
       <c r="E122" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I122" t="s">
+        <v>133</v>
+      </c>
+      <c r="J122" t="s">
+        <v>87</v>
+      </c>
+      <c r="K122" t="s">
+        <v>112</v>
+      </c>
+      <c r="L122" t="s">
+        <v>95</v>
+      </c>
+      <c r="M122" t="s">
+        <v>175</v>
+      </c>
+      <c r="N122" t="s">
+        <v>102</v>
+      </c>
+      <c r="O122" t="s">
+        <v>254</v>
+      </c>
+      <c r="P122" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>126</v>
+      </c>
+      <c r="R122" t="s">
+        <v>127</v>
+      </c>
+      <c r="S122" t="s">
+        <v>186</v>
+      </c>
+      <c r="T122" t="s">
+        <v>102</v>
+      </c>
+      <c r="U122" t="s">
+        <v>94</v>
+      </c>
+      <c r="V122" t="s">
+        <v>95</v>
+      </c>
+      <c r="W122" t="s">
+        <v>228</v>
+      </c>
+      <c r="X122" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH122" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>375</v>
       </c>
@@ -13631,8 +13946,92 @@
       <c r="E123" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I123" t="s">
+        <v>133</v>
+      </c>
+      <c r="J123" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" t="s">
+        <v>112</v>
+      </c>
+      <c r="L123" t="s">
+        <v>95</v>
+      </c>
+      <c r="M123" t="s">
+        <v>175</v>
+      </c>
+      <c r="N123" t="s">
+        <v>102</v>
+      </c>
+      <c r="O123" t="s">
+        <v>254</v>
+      </c>
+      <c r="P123" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>126</v>
+      </c>
+      <c r="R123" t="s">
+        <v>127</v>
+      </c>
+      <c r="S123" t="s">
+        <v>186</v>
+      </c>
+      <c r="T123" t="s">
+        <v>102</v>
+      </c>
+      <c r="U123" t="s">
+        <v>94</v>
+      </c>
+      <c r="V123" t="s">
+        <v>95</v>
+      </c>
+      <c r="W123" t="s">
+        <v>228</v>
+      </c>
+      <c r="X123" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -13645,8 +14044,86 @@
       <c r="E124" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I124" t="s">
+        <v>204</v>
+      </c>
+      <c r="J124" t="s">
+        <v>122</v>
+      </c>
+      <c r="K124" t="s">
+        <v>166</v>
+      </c>
+      <c r="L124" t="s">
+        <v>83</v>
+      </c>
+      <c r="M124" t="s">
+        <v>118</v>
+      </c>
+      <c r="N124" t="s">
+        <v>119</v>
+      </c>
+      <c r="O124" t="s">
+        <v>112</v>
+      </c>
+      <c r="P124" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>175</v>
+      </c>
+      <c r="R124" t="s">
+        <v>102</v>
+      </c>
+      <c r="S124" t="s">
+        <v>98</v>
+      </c>
+      <c r="T124" t="s">
+        <v>87</v>
+      </c>
+      <c r="U124" t="s">
+        <v>154</v>
+      </c>
+      <c r="V124" t="s">
+        <v>102</v>
+      </c>
+      <c r="W124" t="s">
+        <v>86</v>
+      </c>
+      <c r="X124" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF124" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>757</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -13659,8 +14136,86 @@
       <c r="E125" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J125" t="s">
+        <v>122</v>
+      </c>
+      <c r="K125" t="s">
+        <v>152</v>
+      </c>
+      <c r="L125" t="s">
+        <v>87</v>
+      </c>
+      <c r="M125" t="s">
+        <v>112</v>
+      </c>
+      <c r="N125" t="s">
+        <v>95</v>
+      </c>
+      <c r="O125" t="s">
+        <v>125</v>
+      </c>
+      <c r="P125" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>137</v>
+      </c>
+      <c r="R125" t="s">
+        <v>102</v>
+      </c>
+      <c r="S125" t="s">
+        <v>160</v>
+      </c>
+      <c r="T125" t="s">
+        <v>89</v>
+      </c>
+      <c r="U125" t="s">
+        <v>94</v>
+      </c>
+      <c r="V125" t="s">
+        <v>95</v>
+      </c>
+      <c r="W125" t="s">
+        <v>196</v>
+      </c>
+      <c r="X125" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG125" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>378</v>
       </c>
@@ -13671,7 +14226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -13685,7 +14240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>380</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96730A0A-31AD-4021-83EB-54665B403BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD769E2-8E81-4628-9598-7151B595957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="760">
   <si>
     <t>Name</t>
   </si>
@@ -2294,6 +2294,12 @@
   </si>
   <si>
     <t>Metal Burst</t>
+  </si>
+  <si>
+    <t>Drill Peck</t>
+  </si>
+  <si>
+    <t>Power Trip</t>
   </si>
 </sst>
 </file>
@@ -2658,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P113" workbookViewId="0">
-      <selection activeCell="AH125" sqref="AH125"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14225,6 +14231,144 @@
       <c r="E126" t="s">
         <v>85</v>
       </c>
+      <c r="I126" t="s">
+        <v>121</v>
+      </c>
+      <c r="J126" t="s">
+        <v>122</v>
+      </c>
+      <c r="K126" t="s">
+        <v>263</v>
+      </c>
+      <c r="L126" t="s">
+        <v>92</v>
+      </c>
+      <c r="M126" t="s">
+        <v>101</v>
+      </c>
+      <c r="N126" t="s">
+        <v>102</v>
+      </c>
+      <c r="O126" t="s">
+        <v>120</v>
+      </c>
+      <c r="P126" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>124</v>
+      </c>
+      <c r="R126" t="s">
+        <v>87</v>
+      </c>
+      <c r="S126" t="s">
+        <v>159</v>
+      </c>
+      <c r="T126" t="s">
+        <v>87</v>
+      </c>
+      <c r="U126" t="s">
+        <v>156</v>
+      </c>
+      <c r="V126" t="s">
+        <v>84</v>
+      </c>
+      <c r="W126" t="s">
+        <v>110</v>
+      </c>
+      <c r="X126" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF126" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS126" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU126" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV126" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW126" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX126" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY126" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA126" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB126" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="127" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
@@ -14239,6 +14383,36 @@
       <c r="E127" t="s">
         <v>85</v>
       </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+      <c r="J127" t="s">
+        <v>83</v>
+      </c>
+      <c r="K127" t="s">
+        <v>125</v>
+      </c>
+      <c r="L127" t="s">
+        <v>83</v>
+      </c>
+      <c r="M127" t="s">
+        <v>110</v>
+      </c>
+      <c r="N127" t="s">
+        <v>110</v>
+      </c>
+      <c r="O127" t="s">
+        <v>96</v>
+      </c>
+      <c r="P127" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>162</v>
+      </c>
+      <c r="R127" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="128" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -14250,8 +14424,194 @@
       <c r="E128" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I128" t="s">
+        <v>104</v>
+      </c>
+      <c r="J128" t="s">
+        <v>87</v>
+      </c>
+      <c r="K128" t="s">
+        <v>185</v>
+      </c>
+      <c r="L128" t="s">
+        <v>83</v>
+      </c>
+      <c r="M128" t="s">
+        <v>99</v>
+      </c>
+      <c r="N128" t="s">
+        <v>100</v>
+      </c>
+      <c r="O128" t="s">
+        <v>152</v>
+      </c>
+      <c r="P128" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>201</v>
+      </c>
+      <c r="R128" t="s">
+        <v>92</v>
+      </c>
+      <c r="S128" t="s">
+        <v>91</v>
+      </c>
+      <c r="T128" t="s">
+        <v>92</v>
+      </c>
+      <c r="U128" t="s">
+        <v>136</v>
+      </c>
+      <c r="V128" t="s">
+        <v>129</v>
+      </c>
+      <c r="W128" t="s">
+        <v>155</v>
+      </c>
+      <c r="X128" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF128" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH128" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS128" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU128" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV128" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW128" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX128" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY128" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ128" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA128" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB128" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC128" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD128" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE128" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG128" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH128" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI128" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ128" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK128" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL128" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM128" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN128" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO128" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP128" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ128" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>381</v>
       </c>
@@ -14267,8 +14627,74 @@
       <c r="J129" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L129" t="s">
+        <v>87</v>
+      </c>
+      <c r="M129" t="s">
+        <v>258</v>
+      </c>
+      <c r="N129" t="s">
+        <v>95</v>
+      </c>
+      <c r="O129" t="s">
+        <v>225</v>
+      </c>
+      <c r="P129" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>157</v>
+      </c>
+      <c r="R129" t="s">
+        <v>129</v>
+      </c>
+      <c r="S129" t="s">
+        <v>232</v>
+      </c>
+      <c r="T129" t="s">
+        <v>129</v>
+      </c>
+      <c r="U129" t="s">
+        <v>141</v>
+      </c>
+      <c r="V129" t="s">
+        <v>92</v>
+      </c>
+      <c r="W129" t="s">
+        <v>752</v>
+      </c>
+      <c r="X129" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -14278,8 +14704,14 @@
       <c r="E130" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>212</v>
+      </c>
+      <c r="J130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -14289,8 +14721,152 @@
       <c r="E131" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>121</v>
+      </c>
+      <c r="J131" t="s">
+        <v>122</v>
+      </c>
+      <c r="K131" t="s">
+        <v>101</v>
+      </c>
+      <c r="L131" t="s">
+        <v>102</v>
+      </c>
+      <c r="M131" t="s">
+        <v>124</v>
+      </c>
+      <c r="N131" t="s">
+        <v>87</v>
+      </c>
+      <c r="O131" t="s">
+        <v>93</v>
+      </c>
+      <c r="P131" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>253</v>
+      </c>
+      <c r="R131" t="s">
+        <v>87</v>
+      </c>
+      <c r="S131" t="s">
+        <v>88</v>
+      </c>
+      <c r="T131" t="s">
+        <v>89</v>
+      </c>
+      <c r="U131" t="s">
+        <v>744</v>
+      </c>
+      <c r="V131" t="s">
+        <v>87</v>
+      </c>
+      <c r="W131" t="s">
+        <v>91</v>
+      </c>
+      <c r="X131" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF131" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH131" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO131" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS131" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU131" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV131" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW131" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX131" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY131" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ131" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA131" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB131" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC131" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>384</v>
       </c>
@@ -14300,8 +14876,38 @@
       <c r="E132" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I132" t="s">
+        <v>204</v>
+      </c>
+      <c r="J132" t="s">
+        <v>122</v>
+      </c>
+      <c r="K132" t="s">
+        <v>199</v>
+      </c>
+      <c r="L132" t="s">
+        <v>92</v>
+      </c>
+      <c r="M132" t="s">
+        <v>175</v>
+      </c>
+      <c r="N132" t="s">
+        <v>102</v>
+      </c>
+      <c r="O132" t="s">
+        <v>194</v>
+      </c>
+      <c r="P132" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>200</v>
+      </c>
+      <c r="R132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -14314,8 +14920,20 @@
       <c r="E133" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I133" t="s">
+        <v>199</v>
+      </c>
+      <c r="J133" t="s">
+        <v>92</v>
+      </c>
+      <c r="K133" t="s">
+        <v>175</v>
+      </c>
+      <c r="L133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>386</v>
       </c>
@@ -14328,8 +14946,134 @@
       <c r="E134" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>263</v>
+      </c>
+      <c r="J134" t="s">
+        <v>92</v>
+      </c>
+      <c r="K134" t="s">
+        <v>258</v>
+      </c>
+      <c r="L134" t="s">
+        <v>95</v>
+      </c>
+      <c r="M134" t="s">
+        <v>199</v>
+      </c>
+      <c r="N134" t="s">
+        <v>92</v>
+      </c>
+      <c r="O134" t="s">
+        <v>101</v>
+      </c>
+      <c r="P134" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>185</v>
+      </c>
+      <c r="R134" t="s">
+        <v>83</v>
+      </c>
+      <c r="S134" t="s">
+        <v>201</v>
+      </c>
+      <c r="T134" t="s">
+        <v>92</v>
+      </c>
+      <c r="U134" t="s">
+        <v>166</v>
+      </c>
+      <c r="V134" t="s">
+        <v>83</v>
+      </c>
+      <c r="W134" t="s">
+        <v>88</v>
+      </c>
+      <c r="X134" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO134" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS134" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW134" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX134" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -14342,8 +15086,50 @@
       <c r="E135" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>101</v>
+      </c>
+      <c r="J135" t="s">
+        <v>102</v>
+      </c>
+      <c r="K135" t="s">
+        <v>166</v>
+      </c>
+      <c r="L135" t="s">
+        <v>83</v>
+      </c>
+      <c r="M135" t="s">
+        <v>125</v>
+      </c>
+      <c r="N135" t="s">
+        <v>83</v>
+      </c>
+      <c r="O135" t="s">
+        <v>194</v>
+      </c>
+      <c r="P135" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>179</v>
+      </c>
+      <c r="R135" t="s">
+        <v>106</v>
+      </c>
+      <c r="S135" t="s">
+        <v>130</v>
+      </c>
+      <c r="T135" t="s">
+        <v>102</v>
+      </c>
+      <c r="U135" t="s">
+        <v>131</v>
+      </c>
+      <c r="V135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -14359,8 +15145,134 @@
       <c r="G136" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>101</v>
+      </c>
+      <c r="J136" t="s">
+        <v>102</v>
+      </c>
+      <c r="K136" t="s">
+        <v>185</v>
+      </c>
+      <c r="L136" t="s">
+        <v>83</v>
+      </c>
+      <c r="M136" t="s">
+        <v>88</v>
+      </c>
+      <c r="N136" t="s">
+        <v>89</v>
+      </c>
+      <c r="O136" t="s">
+        <v>156</v>
+      </c>
+      <c r="P136" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>758</v>
+      </c>
+      <c r="R136" t="s">
+        <v>116</v>
+      </c>
+      <c r="S136" t="s">
+        <v>249</v>
+      </c>
+      <c r="T136" t="s">
+        <v>84</v>
+      </c>
+      <c r="U136" t="s">
+        <v>186</v>
+      </c>
+      <c r="V136" t="s">
+        <v>102</v>
+      </c>
+      <c r="W136" t="s">
+        <v>160</v>
+      </c>
+      <c r="X136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF136" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH136" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN136" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO136" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP136" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ136" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR136" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS136" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT136" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU136" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV136" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW136" t="s">
+        <v>759</v>
+      </c>
+      <c r="AX136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>389</v>
       </c>
@@ -14373,8 +15285,74 @@
       <c r="E137" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I137" t="s">
+        <v>124</v>
+      </c>
+      <c r="J137" t="s">
+        <v>87</v>
+      </c>
+      <c r="K137" t="s">
+        <v>185</v>
+      </c>
+      <c r="L137" t="s">
+        <v>83</v>
+      </c>
+      <c r="M137" t="s">
+        <v>99</v>
+      </c>
+      <c r="N137" t="s">
+        <v>100</v>
+      </c>
+      <c r="O137" t="s">
+        <v>152</v>
+      </c>
+      <c r="P137" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>90</v>
+      </c>
+      <c r="R137" t="s">
+        <v>89</v>
+      </c>
+      <c r="S137" t="s">
+        <v>110</v>
+      </c>
+      <c r="T137" t="s">
+        <v>110</v>
+      </c>
+      <c r="U137" t="s">
+        <v>126</v>
+      </c>
+      <c r="V137" t="s">
+        <v>127</v>
+      </c>
+      <c r="W137" t="s">
+        <v>239</v>
+      </c>
+      <c r="X137" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD137" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>390</v>
       </c>
@@ -14384,8 +15362,80 @@
       <c r="E138" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I138" t="s">
+        <v>133</v>
+      </c>
+      <c r="J138" t="s">
+        <v>87</v>
+      </c>
+      <c r="K138" t="s">
+        <v>166</v>
+      </c>
+      <c r="L138" t="s">
+        <v>83</v>
+      </c>
+      <c r="M138" t="s">
+        <v>112</v>
+      </c>
+      <c r="N138" t="s">
+        <v>95</v>
+      </c>
+      <c r="O138" t="s">
+        <v>91</v>
+      </c>
+      <c r="P138" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>137</v>
+      </c>
+      <c r="R138" t="s">
+        <v>102</v>
+      </c>
+      <c r="S138" t="s">
+        <v>239</v>
+      </c>
+      <c r="T138" t="s">
+        <v>110</v>
+      </c>
+      <c r="U138" t="s">
+        <v>141</v>
+      </c>
+      <c r="V138" t="s">
+        <v>92</v>
+      </c>
+      <c r="W138" t="s">
+        <v>96</v>
+      </c>
+      <c r="X138" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>391</v>
       </c>
@@ -14399,7 +15449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>392</v>
       </c>
@@ -14410,7 +15460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>393</v>
       </c>
@@ -14424,7 +15474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>394</v>
       </c>
@@ -14438,7 +15488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>395</v>
       </c>
@@ -14449,7 +15499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>396</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD769E2-8E81-4628-9598-7151B595957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE51E6F2-984D-4B1B-94DA-CAB1F44B86DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="761">
   <si>
     <t>Name</t>
   </si>
@@ -2300,6 +2300,9 @@
   </si>
   <si>
     <t>Power Trip</t>
+  </si>
+  <si>
+    <t>Razor Shell</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2668,7 @@
   <dimension ref="A1:CD488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15448,6 +15451,84 @@
       <c r="E139" t="s">
         <v>85</v>
       </c>
+      <c r="I139" t="s">
+        <v>121</v>
+      </c>
+      <c r="J139" t="s">
+        <v>122</v>
+      </c>
+      <c r="K139" t="s">
+        <v>133</v>
+      </c>
+      <c r="L139" t="s">
+        <v>87</v>
+      </c>
+      <c r="M139" t="s">
+        <v>104</v>
+      </c>
+      <c r="N139" t="s">
+        <v>87</v>
+      </c>
+      <c r="O139" t="s">
+        <v>124</v>
+      </c>
+      <c r="P139" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>125</v>
+      </c>
+      <c r="R139" t="s">
+        <v>83</v>
+      </c>
+      <c r="S139" t="s">
+        <v>256</v>
+      </c>
+      <c r="T139" t="s">
+        <v>89</v>
+      </c>
+      <c r="U139" t="s">
+        <v>203</v>
+      </c>
+      <c r="V139" t="s">
+        <v>127</v>
+      </c>
+      <c r="W139" t="s">
+        <v>162</v>
+      </c>
+      <c r="X139" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF139" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="140" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -15458,6 +15539,54 @@
       </c>
       <c r="E140" t="s">
         <v>85</v>
+      </c>
+      <c r="I140" t="s">
+        <v>185</v>
+      </c>
+      <c r="J140" t="s">
+        <v>83</v>
+      </c>
+      <c r="K140" t="s">
+        <v>190</v>
+      </c>
+      <c r="L140" t="s">
+        <v>119</v>
+      </c>
+      <c r="M140" t="s">
+        <v>91</v>
+      </c>
+      <c r="N140" t="s">
+        <v>92</v>
+      </c>
+      <c r="O140" t="s">
+        <v>168</v>
+      </c>
+      <c r="P140" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>193</v>
+      </c>
+      <c r="R140" t="s">
+        <v>95</v>
+      </c>
+      <c r="S140" t="s">
+        <v>96</v>
+      </c>
+      <c r="T140" t="s">
+        <v>97</v>
+      </c>
+      <c r="U140" t="s">
+        <v>160</v>
+      </c>
+      <c r="V140" t="s">
+        <v>89</v>
+      </c>
+      <c r="W140" t="s">
+        <v>194</v>
+      </c>
+      <c r="X140" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:56" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE51E6F2-984D-4B1B-94DA-CAB1F44B86DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B500B-ECB3-461C-AAB0-A0D40A66F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2667,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B500B-ECB3-461C-AAB0-A0D40A66F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8CC97-7B16-4CD5-8FF6-DB5618BB770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="762">
   <si>
     <t>Name</t>
   </si>
@@ -2303,6 +2303,9 @@
   </si>
   <si>
     <t>Razor Shell</t>
+  </si>
+  <si>
+    <t>Psychic Noise</t>
   </si>
 </sst>
 </file>
@@ -2667,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" topLeftCell="AV131" workbookViewId="0">
+      <selection activeCell="BK144" sqref="BK144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14614,7 +14617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>381</v>
       </c>
@@ -14697,7 +14700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -14714,7 +14717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>383</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>384</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -14936,7 +14939,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>386</v>
       </c>
@@ -15076,7 +15079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -15132,7 +15135,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -15275,7 +15278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>389</v>
       </c>
@@ -15355,7 +15358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>390</v>
       </c>
@@ -15438,7 +15441,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>391</v>
       </c>
@@ -15530,7 +15533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>392</v>
       </c>
@@ -15589,7 +15592,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>393</v>
       </c>
@@ -15602,8 +15605,32 @@
       <c r="E141" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="142" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>93</v>
+      </c>
+      <c r="J141" t="s">
+        <v>87</v>
+      </c>
+      <c r="K141" t="s">
+        <v>88</v>
+      </c>
+      <c r="L141" t="s">
+        <v>89</v>
+      </c>
+      <c r="M141" t="s">
+        <v>126</v>
+      </c>
+      <c r="N141" t="s">
+        <v>127</v>
+      </c>
+      <c r="O141" t="s">
+        <v>145</v>
+      </c>
+      <c r="P141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>394</v>
       </c>
@@ -15616,8 +15643,104 @@
       <c r="E142" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I142" t="s">
+        <v>93</v>
+      </c>
+      <c r="J142" t="s">
+        <v>87</v>
+      </c>
+      <c r="K142" t="s">
+        <v>152</v>
+      </c>
+      <c r="L142" t="s">
+        <v>87</v>
+      </c>
+      <c r="M142" t="s">
+        <v>88</v>
+      </c>
+      <c r="N142" t="s">
+        <v>89</v>
+      </c>
+      <c r="O142" t="s">
+        <v>155</v>
+      </c>
+      <c r="P142" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>110</v>
+      </c>
+      <c r="R142" t="s">
+        <v>110</v>
+      </c>
+      <c r="S142" t="s">
+        <v>126</v>
+      </c>
+      <c r="T142" t="s">
+        <v>127</v>
+      </c>
+      <c r="U142" t="s">
+        <v>239</v>
+      </c>
+      <c r="V142" t="s">
+        <v>110</v>
+      </c>
+      <c r="W142" t="s">
+        <v>141</v>
+      </c>
+      <c r="X142" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG142" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH142" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL142" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM142" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>395</v>
       </c>
@@ -15627,8 +15750,182 @@
       <c r="E143" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="144" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I143" t="s">
+        <v>121</v>
+      </c>
+      <c r="J143" t="s">
+        <v>122</v>
+      </c>
+      <c r="K143" t="s">
+        <v>348</v>
+      </c>
+      <c r="L143" t="s">
+        <v>117</v>
+      </c>
+      <c r="M143" t="s">
+        <v>101</v>
+      </c>
+      <c r="N143" t="s">
+        <v>102</v>
+      </c>
+      <c r="O143" t="s">
+        <v>124</v>
+      </c>
+      <c r="P143" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>93</v>
+      </c>
+      <c r="R143" t="s">
+        <v>87</v>
+      </c>
+      <c r="S143" t="s">
+        <v>99</v>
+      </c>
+      <c r="T143" t="s">
+        <v>100</v>
+      </c>
+      <c r="U143" t="s">
+        <v>166</v>
+      </c>
+      <c r="V143" t="s">
+        <v>83</v>
+      </c>
+      <c r="W143" t="s">
+        <v>316</v>
+      </c>
+      <c r="X143" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH143" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN143" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO143" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP143" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ143" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR143" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS143" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT143" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU143" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV143" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW143" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX143" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY143" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ143" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA143" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC143" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD143" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE143" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF143" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG143" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI143" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ143" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK143" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL143" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM143" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>396</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8CC97-7B16-4CD5-8FF6-DB5618BB770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962EB36-412F-423E-ACF1-0B9536F6251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5773" uniqueCount="765">
   <si>
     <t>Name</t>
   </si>
@@ -2306,6 +2306,15 @@
   </si>
   <si>
     <t>Psychic Noise</t>
+  </si>
+  <si>
+    <t>High Horsepower</t>
+  </si>
+  <si>
+    <t>First Impression</t>
+  </si>
+  <si>
+    <t>Leaf Blade</t>
   </si>
 </sst>
 </file>
@@ -2670,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV131" workbookViewId="0">
-      <selection activeCell="BK144" sqref="BK144"/>
+    <sheetView tabSelected="1" topLeftCell="I133" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15935,8 +15944,98 @@
       <c r="E144" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I144" t="s">
+        <v>121</v>
+      </c>
+      <c r="J144" t="s">
+        <v>122</v>
+      </c>
+      <c r="K144" t="s">
+        <v>105</v>
+      </c>
+      <c r="L144" t="s">
+        <v>106</v>
+      </c>
+      <c r="M144" t="s">
+        <v>762</v>
+      </c>
+      <c r="N144" t="s">
+        <v>89</v>
+      </c>
+      <c r="O144" t="s">
+        <v>763</v>
+      </c>
+      <c r="P144" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>141</v>
+      </c>
+      <c r="R144" t="s">
+        <v>92</v>
+      </c>
+      <c r="S144" t="s">
+        <v>295</v>
+      </c>
+      <c r="T144" t="s">
+        <v>106</v>
+      </c>
+      <c r="U144" t="s">
+        <v>203</v>
+      </c>
+      <c r="V144" t="s">
+        <v>127</v>
+      </c>
+      <c r="W144" t="s">
+        <v>186</v>
+      </c>
+      <c r="X144" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH144" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>397</v>
       </c>
@@ -15949,8 +16048,92 @@
       <c r="E145" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I145" t="s">
+        <v>745</v>
+      </c>
+      <c r="J145" t="s">
+        <v>116</v>
+      </c>
+      <c r="K145" t="s">
+        <v>743</v>
+      </c>
+      <c r="L145" t="s">
+        <v>83</v>
+      </c>
+      <c r="M145" t="s">
+        <v>104</v>
+      </c>
+      <c r="N145" t="s">
+        <v>87</v>
+      </c>
+      <c r="O145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P145" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>219</v>
+      </c>
+      <c r="R145" t="s">
+        <v>117</v>
+      </c>
+      <c r="S145" t="s">
+        <v>763</v>
+      </c>
+      <c r="T145" t="s">
+        <v>106</v>
+      </c>
+      <c r="U145" t="s">
+        <v>764</v>
+      </c>
+      <c r="V145" t="s">
+        <v>83</v>
+      </c>
+      <c r="W145" t="s">
+        <v>203</v>
+      </c>
+      <c r="X145" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH145" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>398</v>
       </c>
@@ -15963,8 +16146,110 @@
       <c r="E146" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I146" t="s">
+        <v>204</v>
+      </c>
+      <c r="J146" t="s">
+        <v>122</v>
+      </c>
+      <c r="K146" t="s">
+        <v>185</v>
+      </c>
+      <c r="L146" t="s">
+        <v>83</v>
+      </c>
+      <c r="M146" t="s">
+        <v>93</v>
+      </c>
+      <c r="N146" t="s">
+        <v>87</v>
+      </c>
+      <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>88</v>
+      </c>
+      <c r="R146" t="s">
+        <v>89</v>
+      </c>
+      <c r="S146" t="s">
+        <v>91</v>
+      </c>
+      <c r="T146" t="s">
+        <v>92</v>
+      </c>
+      <c r="U146" t="s">
+        <v>175</v>
+      </c>
+      <c r="V146" t="s">
+        <v>102</v>
+      </c>
+      <c r="W146" t="s">
+        <v>125</v>
+      </c>
+      <c r="X146" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK146" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL146" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM146" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN146" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO146" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>399</v>
       </c>
@@ -15977,8 +16262,44 @@
       <c r="E147" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I147" t="s">
+        <v>219</v>
+      </c>
+      <c r="J147" t="s">
+        <v>117</v>
+      </c>
+      <c r="K147" t="s">
+        <v>256</v>
+      </c>
+      <c r="L147" t="s">
+        <v>89</v>
+      </c>
+      <c r="M147" t="s">
+        <v>186</v>
+      </c>
+      <c r="N147" t="s">
+        <v>102</v>
+      </c>
+      <c r="O147" t="s">
+        <v>170</v>
+      </c>
+      <c r="P147" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>179</v>
+      </c>
+      <c r="R147" t="s">
+        <v>106</v>
+      </c>
+      <c r="S147" t="s">
+        <v>131</v>
+      </c>
+      <c r="T147" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>400</v>
       </c>
@@ -15988,8 +16309,164 @@
       <c r="E148" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>121</v>
+      </c>
+      <c r="J148" t="s">
+        <v>122</v>
+      </c>
+      <c r="K148" t="s">
+        <v>101</v>
+      </c>
+      <c r="L148" t="s">
+        <v>102</v>
+      </c>
+      <c r="M148" t="s">
+        <v>124</v>
+      </c>
+      <c r="N148" t="s">
+        <v>87</v>
+      </c>
+      <c r="O148" t="s">
+        <v>93</v>
+      </c>
+      <c r="P148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>99</v>
+      </c>
+      <c r="R148" t="s">
+        <v>100</v>
+      </c>
+      <c r="S148" t="s">
+        <v>152</v>
+      </c>
+      <c r="T148" t="s">
+        <v>87</v>
+      </c>
+      <c r="U148" t="s">
+        <v>88</v>
+      </c>
+      <c r="V148" t="s">
+        <v>89</v>
+      </c>
+      <c r="W148" t="s">
+        <v>91</v>
+      </c>
+      <c r="X148" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH148" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK148" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL148" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM148" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN148" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO148" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP148" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ148" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR148" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS148" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT148" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU148" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV148" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW148" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX148" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY148" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ148" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA148" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB148" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC148" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD148" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE148" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF148" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG148" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>401</v>
       </c>
@@ -16002,8 +16479,92 @@
       <c r="E149" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I149" t="s">
+        <v>746</v>
+      </c>
+      <c r="J149" t="s">
+        <v>116</v>
+      </c>
+      <c r="K149" t="s">
+        <v>306</v>
+      </c>
+      <c r="L149" t="s">
+        <v>116</v>
+      </c>
+      <c r="M149" t="s">
+        <v>219</v>
+      </c>
+      <c r="N149" t="s">
+        <v>117</v>
+      </c>
+      <c r="O149" t="s">
+        <v>754</v>
+      </c>
+      <c r="P149" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>154</v>
+      </c>
+      <c r="R149" t="s">
+        <v>102</v>
+      </c>
+      <c r="S149" t="s">
+        <v>96</v>
+      </c>
+      <c r="T149" t="s">
+        <v>97</v>
+      </c>
+      <c r="U149" t="s">
+        <v>329</v>
+      </c>
+      <c r="V149" t="s">
+        <v>116</v>
+      </c>
+      <c r="W149" t="s">
+        <v>220</v>
+      </c>
+      <c r="X149" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>402</v>
       </c>
@@ -16016,8 +16577,44 @@
       <c r="E150" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>101</v>
+      </c>
+      <c r="J150" t="s">
+        <v>102</v>
+      </c>
+      <c r="K150" t="s">
+        <v>232</v>
+      </c>
+      <c r="L150" t="s">
+        <v>129</v>
+      </c>
+      <c r="M150" t="s">
+        <v>295</v>
+      </c>
+      <c r="N150" t="s">
+        <v>106</v>
+      </c>
+      <c r="O150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P150" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>179</v>
+      </c>
+      <c r="R150" t="s">
+        <v>106</v>
+      </c>
+      <c r="S150" t="s">
+        <v>146</v>
+      </c>
+      <c r="T150" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>403</v>
       </c>
@@ -16031,7 +16628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>404</v>
       </c>
@@ -16042,7 +16639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -16053,7 +16650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>406</v>
       </c>
@@ -16064,7 +16661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>407</v>
       </c>
@@ -16081,7 +16678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -16095,7 +16692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>409</v>
       </c>
@@ -16109,7 +16706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>410</v>
       </c>
@@ -16123,7 +16720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>411</v>
       </c>
@@ -16134,7 +16731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>412</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E962EB36-412F-423E-ACF1-0B9536F6251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DC0EE-00A2-4024-88ED-A155F0D2E9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5773" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="768">
   <si>
     <t>Name</t>
   </si>
@@ -1234,9 +1234,6 @@
     <t>Flapple</t>
   </si>
   <si>
-    <t>Flarion</t>
-  </si>
-  <si>
     <t>Floatzel</t>
   </si>
   <si>
@@ -2315,6 +2312,18 @@
   </si>
   <si>
     <t>Leaf Blade</t>
+  </si>
+  <si>
+    <t>Flareon</t>
+  </si>
+  <si>
+    <t>Petal Dance</t>
+  </si>
+  <si>
+    <t>Petal Blizzard</t>
+  </si>
+  <si>
+    <t>Fire Blast</t>
   </si>
 </sst>
 </file>
@@ -2679,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I133" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6481,7 +6490,7 @@
         <v>89</v>
       </c>
       <c r="AK38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AL38" t="s">
         <v>122</v>
@@ -9852,7 +9861,7 @@
         <v>95</v>
       </c>
       <c r="Y81" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Z81" t="s">
         <v>122</v>
@@ -10205,7 +10214,7 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -10213,7 +10222,7 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10324,7 +10333,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -10899,7 +10908,7 @@
         <v>83</v>
       </c>
       <c r="AC93" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AD93" t="s">
         <v>83</v>
@@ -11107,7 +11116,7 @@
         <v>95</v>
       </c>
       <c r="BE95" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BF95" t="s">
         <v>84</v>
@@ -11338,7 +11347,7 @@
         <v>89</v>
       </c>
       <c r="S98" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T98" t="s">
         <v>87</v>
@@ -11424,13 +11433,13 @@
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J99" t="s">
         <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L99" t="s">
         <v>116</v>
@@ -11522,13 +11531,13 @@
         <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11910,7 +11919,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -11997,7 +12006,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AJ105" t="s">
         <v>92</v>
@@ -12386,7 +12395,7 @@
         <v>87</v>
       </c>
       <c r="S109" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T109" t="s">
         <v>87</v>
@@ -12546,7 +12555,7 @@
         <v>87</v>
       </c>
       <c r="K111" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L111" t="s">
         <v>87</v>
@@ -12746,7 +12755,7 @@
         <v>119</v>
       </c>
       <c r="BA112" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="BB112" t="s">
         <v>102</v>
@@ -12758,7 +12767,7 @@
         <v>95</v>
       </c>
       <c r="BE112" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="BF112" t="s">
         <v>84</v>
@@ -12936,7 +12945,7 @@
         <v>129</v>
       </c>
       <c r="AG114" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AH114" t="s">
         <v>129</v>
@@ -12948,7 +12957,7 @@
         <v>129</v>
       </c>
       <c r="AK114" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AL114" t="s">
         <v>129</v>
@@ -13058,7 +13067,7 @@
         <v>119</v>
       </c>
       <c r="AM115" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AN115" t="s">
         <v>116</v>
@@ -13138,7 +13147,7 @@
         <v>129</v>
       </c>
       <c r="O116" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P116" t="s">
         <v>106</v>
@@ -13296,7 +13305,7 @@
         <v>89</v>
       </c>
       <c r="AG117" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AH117" t="s">
         <v>102</v>
@@ -14138,7 +14147,7 @@
         <v>95</v>
       </c>
       <c r="AG124" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AH124" t="s">
         <v>122</v>
@@ -14158,7 +14167,7 @@
         <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J125" t="s">
         <v>122</v>
@@ -14679,7 +14688,7 @@
         <v>92</v>
       </c>
       <c r="W129" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X129" t="s">
         <v>129</v>
@@ -14703,7 +14712,7 @@
         <v>129</v>
       </c>
       <c r="AE129" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF129" t="s">
         <v>129</v>
@@ -14773,7 +14782,7 @@
         <v>89</v>
       </c>
       <c r="U131" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V131" t="s">
         <v>87</v>
@@ -15185,7 +15194,7 @@
         <v>84</v>
       </c>
       <c r="Q136" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R136" t="s">
         <v>116</v>
@@ -15281,7 +15290,7 @@
         <v>84</v>
       </c>
       <c r="AW136" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AX136" t="s">
         <v>102</v>
@@ -15512,7 +15521,7 @@
         <v>83</v>
       </c>
       <c r="Y139" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Z139" t="s">
         <v>129</v>
@@ -15719,7 +15728,7 @@
         <v>87</v>
       </c>
       <c r="AE142" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF142" t="s">
         <v>110</v>
@@ -15820,7 +15829,7 @@
         <v>89</v>
       </c>
       <c r="AC143" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AD143" t="s">
         <v>87</v>
@@ -15957,13 +15966,13 @@
         <v>106</v>
       </c>
       <c r="M144" t="s">
+        <v>761</v>
+      </c>
+      <c r="N144" t="s">
+        <v>89</v>
+      </c>
+      <c r="O144" t="s">
         <v>762</v>
-      </c>
-      <c r="N144" t="s">
-        <v>89</v>
-      </c>
-      <c r="O144" t="s">
-        <v>763</v>
       </c>
       <c r="P144" t="s">
         <v>106</v>
@@ -16035,7 +16044,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>397</v>
       </c>
@@ -16049,13 +16058,13 @@
         <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J145" t="s">
         <v>116</v>
       </c>
       <c r="K145" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L145" t="s">
         <v>83</v>
@@ -16079,13 +16088,13 @@
         <v>117</v>
       </c>
       <c r="S145" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="T145" t="s">
         <v>106</v>
       </c>
       <c r="U145" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V145" t="s">
         <v>83</v>
@@ -16133,7 +16142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>398</v>
       </c>
@@ -16249,7 +16258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>399</v>
       </c>
@@ -16299,7 +16308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>400</v>
       </c>
@@ -16466,7 +16475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>401</v>
       </c>
@@ -16480,7 +16489,7 @@
         <v>85</v>
       </c>
       <c r="I149" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J149" t="s">
         <v>116</v>
@@ -16498,7 +16507,7 @@
         <v>117</v>
       </c>
       <c r="O149" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P149" t="s">
         <v>116</v>
@@ -16564,7 +16573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>402</v>
       </c>
@@ -16614,7 +16623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>403</v>
       </c>
@@ -16627,10 +16636,52 @@
       <c r="E151" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I151" t="s">
+        <v>201</v>
+      </c>
+      <c r="J151" t="s">
+        <v>92</v>
+      </c>
+      <c r="K151" t="s">
+        <v>753</v>
+      </c>
+      <c r="L151" t="s">
+        <v>116</v>
+      </c>
+      <c r="M151" t="s">
+        <v>329</v>
+      </c>
+      <c r="N151" t="s">
+        <v>116</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>179</v>
+      </c>
+      <c r="R151" t="s">
+        <v>106</v>
+      </c>
+      <c r="S151" t="s">
+        <v>174</v>
+      </c>
+      <c r="T151" t="s">
+        <v>116</v>
+      </c>
+      <c r="U151" t="s">
+        <v>308</v>
+      </c>
+      <c r="V151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>404</v>
+        <v>764</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -16638,10 +16689,64 @@
       <c r="E152" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I152" t="s">
+        <v>152</v>
+      </c>
+      <c r="J152" t="s">
+        <v>87</v>
+      </c>
+      <c r="K152" t="s">
+        <v>316</v>
+      </c>
+      <c r="L152" t="s">
+        <v>110</v>
+      </c>
+      <c r="M152" t="s">
+        <v>190</v>
+      </c>
+      <c r="N152" t="s">
+        <v>119</v>
+      </c>
+      <c r="O152" t="s">
+        <v>91</v>
+      </c>
+      <c r="P152" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>168</v>
+      </c>
+      <c r="R152" t="s">
+        <v>108</v>
+      </c>
+      <c r="S152" t="s">
+        <v>96</v>
+      </c>
+      <c r="T152" t="s">
+        <v>97</v>
+      </c>
+      <c r="U152" t="s">
+        <v>160</v>
+      </c>
+      <c r="V152" t="s">
+        <v>89</v>
+      </c>
+      <c r="W152" t="s">
+        <v>215</v>
+      </c>
+      <c r="X152" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" t="s">
         <v>129</v>
@@ -16649,10 +16754,100 @@
       <c r="E153" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I153" t="s">
+        <v>101</v>
+      </c>
+      <c r="J153" t="s">
+        <v>102</v>
+      </c>
+      <c r="K153" t="s">
+        <v>124</v>
+      </c>
+      <c r="L153" t="s">
+        <v>87</v>
+      </c>
+      <c r="M153" t="s">
+        <v>93</v>
+      </c>
+      <c r="N153" t="s">
+        <v>87</v>
+      </c>
+      <c r="O153" t="s">
+        <v>91</v>
+      </c>
+      <c r="P153" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>156</v>
+      </c>
+      <c r="R153" t="s">
+        <v>84</v>
+      </c>
+      <c r="S153" t="s">
+        <v>137</v>
+      </c>
+      <c r="T153" t="s">
+        <v>102</v>
+      </c>
+      <c r="U153" t="s">
+        <v>249</v>
+      </c>
+      <c r="V153" t="s">
+        <v>84</v>
+      </c>
+      <c r="W153" t="s">
+        <v>160</v>
+      </c>
+      <c r="X153" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B154" t="s">
         <v>108</v>
@@ -16660,10 +16855,76 @@
       <c r="E154" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I154" t="s">
+        <v>185</v>
+      </c>
+      <c r="J154" t="s">
+        <v>83</v>
+      </c>
+      <c r="K154" t="s">
+        <v>765</v>
+      </c>
+      <c r="L154" t="s">
+        <v>83</v>
+      </c>
+      <c r="M154" t="s">
+        <v>166</v>
+      </c>
+      <c r="N154" t="s">
+        <v>83</v>
+      </c>
+      <c r="O154" t="s">
+        <v>125</v>
+      </c>
+      <c r="P154" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>766</v>
+      </c>
+      <c r="R154" t="s">
+        <v>83</v>
+      </c>
+      <c r="S154" t="s">
+        <v>110</v>
+      </c>
+      <c r="T154" t="s">
+        <v>110</v>
+      </c>
+      <c r="U154" t="s">
+        <v>212</v>
+      </c>
+      <c r="V154" t="s">
+        <v>106</v>
+      </c>
+      <c r="W154" t="s">
+        <v>177</v>
+      </c>
+      <c r="X154" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B155" t="s">
         <v>89</v>
@@ -16677,10 +16938,172 @@
       <c r="G155" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I155" t="s">
+        <v>152</v>
+      </c>
+      <c r="J155" t="s">
+        <v>87</v>
+      </c>
+      <c r="K155" t="s">
+        <v>166</v>
+      </c>
+      <c r="L155" t="s">
+        <v>83</v>
+      </c>
+      <c r="M155" t="s">
+        <v>767</v>
+      </c>
+      <c r="N155" t="s">
+        <v>117</v>
+      </c>
+      <c r="O155" t="s">
+        <v>88</v>
+      </c>
+      <c r="P155" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>91</v>
+      </c>
+      <c r="R155" t="s">
+        <v>92</v>
+      </c>
+      <c r="S155" t="s">
+        <v>112</v>
+      </c>
+      <c r="T155" t="s">
+        <v>95</v>
+      </c>
+      <c r="U155" t="s">
+        <v>219</v>
+      </c>
+      <c r="V155" t="s">
+        <v>117</v>
+      </c>
+      <c r="W155" t="s">
+        <v>754</v>
+      </c>
+      <c r="X155" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN155" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO155" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP155" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ155" t="s">
+        <v>760</v>
+      </c>
+      <c r="AR155" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS155" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT155" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU155" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV155" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW155" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX155" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ155" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA155" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB155" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC155" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD155" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE155" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF155" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG155" t="s">
+        <v>308</v>
+      </c>
+      <c r="BH155" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI155" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B156" t="s">
         <v>106</v>
@@ -16691,10 +17114,130 @@
       <c r="E156" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I156" t="s">
+        <v>121</v>
+      </c>
+      <c r="J156" t="s">
+        <v>122</v>
+      </c>
+      <c r="K156" t="s">
+        <v>133</v>
+      </c>
+      <c r="L156" t="s">
+        <v>87</v>
+      </c>
+      <c r="M156" t="s">
+        <v>166</v>
+      </c>
+      <c r="N156" t="s">
+        <v>83</v>
+      </c>
+      <c r="O156" t="s">
+        <v>190</v>
+      </c>
+      <c r="P156" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>88</v>
+      </c>
+      <c r="R156" t="s">
+        <v>89</v>
+      </c>
+      <c r="S156" t="s">
+        <v>112</v>
+      </c>
+      <c r="T156" t="s">
+        <v>95</v>
+      </c>
+      <c r="U156" t="s">
+        <v>90</v>
+      </c>
+      <c r="V156" t="s">
+        <v>89</v>
+      </c>
+      <c r="W156" t="s">
+        <v>98</v>
+      </c>
+      <c r="X156" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR156" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS156" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT156" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU156" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B157" t="s">
         <v>84</v>
@@ -16706,9 +17249,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B158" t="s">
         <v>84</v>
@@ -16720,9 +17263,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -16731,9 +17274,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B160" t="s">
         <v>173</v>
@@ -16744,7 +17287,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B161" t="s">
         <v>110</v>
@@ -16758,7 +17301,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B162" t="s">
         <v>106</v>
@@ -16772,7 +17315,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B163" t="s">
         <v>127</v>
@@ -16783,7 +17326,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B164" t="s">
         <v>110</v>
@@ -16797,7 +17340,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B165" t="s">
         <v>129</v>
@@ -16811,7 +17354,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B166" t="s">
         <v>95</v>
@@ -16822,7 +17365,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B167" t="s">
         <v>84</v>
@@ -16839,7 +17382,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -16856,7 +17399,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -16867,7 +17410,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B170" t="s">
         <v>83</v>
@@ -16878,7 +17421,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" t="s">
         <v>129</v>
@@ -16889,7 +17432,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B172" t="s">
         <v>95</v>
@@ -16903,7 +17446,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B173" t="s">
         <v>95</v>
@@ -16917,7 +17460,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B174" t="s">
         <v>106</v>
@@ -16931,7 +17474,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B175" t="s">
         <v>89</v>
@@ -16945,7 +17488,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B176" t="s">
         <v>100</v>
@@ -16959,7 +17502,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B177" t="s">
         <v>92</v>
@@ -16973,7 +17516,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B178" t="s">
         <v>129</v>
@@ -16984,7 +17527,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B179" t="s">
         <v>110</v>
@@ -16995,7 +17538,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B180" t="s">
         <v>97</v>
@@ -17009,7 +17552,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B181" t="s">
         <v>127</v>
@@ -17026,7 +17569,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B182" t="s">
         <v>108</v>
@@ -17037,7 +17580,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B183" t="s">
         <v>87</v>
@@ -17048,7 +17591,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B184" t="s">
         <v>173</v>
@@ -17059,7 +17602,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B185" t="s">
         <v>102</v>
@@ -17073,7 +17616,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B186" t="s">
         <v>110</v>
@@ -17084,7 +17627,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B187" t="s">
         <v>173</v>
@@ -17095,7 +17638,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B188" t="s">
         <v>102</v>
@@ -17109,7 +17652,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B189" t="s">
         <v>87</v>
@@ -17120,7 +17663,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B190" t="s">
         <v>117</v>
@@ -17131,7 +17674,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B191" t="s">
         <v>119</v>
@@ -17145,7 +17688,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B192" t="s">
         <v>106</v>
@@ -17159,7 +17702,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B193" t="s">
         <v>87</v>
@@ -17170,7 +17713,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B194" t="s">
         <v>87</v>
@@ -17181,7 +17724,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B195" t="s">
         <v>87</v>
@@ -17192,7 +17735,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B196" t="s">
         <v>102</v>
@@ -17206,7 +17749,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s">
         <v>110</v>
@@ -17220,7 +17763,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B198" t="s">
         <v>102</v>
@@ -17234,7 +17777,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B199" t="s">
         <v>97</v>
@@ -17245,7 +17788,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B200" t="s">
         <v>129</v>
@@ -17256,7 +17799,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B201" t="s">
         <v>110</v>
@@ -17267,7 +17810,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
@@ -17278,7 +17821,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B203" t="s">
         <v>117</v>
@@ -17292,7 +17835,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B204" t="s">
         <v>110</v>
@@ -17306,7 +17849,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B205" t="s">
         <v>110</v>
@@ -17320,7 +17863,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B206" t="s">
         <v>117</v>
@@ -17334,7 +17877,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B207" t="s">
         <v>129</v>
@@ -17345,7 +17888,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B208" t="s">
         <v>102</v>
@@ -17359,7 +17902,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B209" t="s">
         <v>95</v>
@@ -17373,7 +17916,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B210" t="s">
         <v>129</v>
@@ -17387,7 +17930,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B211" t="s">
         <v>119</v>
@@ -17398,7 +17941,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B212" t="s">
         <v>83</v>
@@ -17412,7 +17955,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B213" t="s">
         <v>84</v>
@@ -17426,7 +17969,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B214" t="s">
         <v>95</v>
@@ -17440,7 +17983,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B215" t="s">
         <v>173</v>
@@ -17451,7 +17994,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -17462,7 +18005,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B217" t="s">
         <v>119</v>
@@ -17476,7 +18019,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B218" t="s">
         <v>129</v>
@@ -17490,7 +18033,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B219" t="s">
         <v>129</v>
@@ -17501,7 +18044,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B220" t="s">
         <v>95</v>
@@ -17515,7 +18058,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B221" t="s">
         <v>92</v>
@@ -17529,7 +18072,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B222" t="s">
         <v>92</v>
@@ -17540,7 +18083,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B223" t="s">
         <v>173</v>
@@ -17551,7 +18094,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
@@ -17562,7 +18105,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B225" t="s">
         <v>89</v>
@@ -17576,7 +18119,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B226" t="s">
         <v>129</v>
@@ -17590,7 +18133,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B227" t="s">
         <v>129</v>
@@ -17610,7 +18153,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B228" t="s">
         <v>100</v>
@@ -17624,7 +18167,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B229" t="s">
         <v>83</v>
@@ -17635,7 +18178,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
@@ -17649,7 +18192,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
@@ -17663,7 +18206,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B232" t="s">
         <v>173</v>
@@ -17674,7 +18217,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B233" t="s">
         <v>102</v>
@@ -17685,7 +18228,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B234" t="s">
         <v>83</v>
@@ -17696,7 +18239,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B235" t="s">
         <v>173</v>
@@ -17710,7 +18253,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
@@ -17724,7 +18267,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B237" t="s">
         <v>173</v>
@@ -17738,7 +18281,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B238" t="s">
         <v>87</v>
@@ -17752,7 +18295,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B239" t="s">
         <v>129</v>
@@ -17766,7 +18309,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B240" t="s">
         <v>129</v>
@@ -17777,7 +18320,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B241" t="s">
         <v>95</v>
@@ -17791,7 +18334,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B242" t="s">
         <v>83</v>
@@ -17802,7 +18345,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B243" t="s">
         <v>129</v>
@@ -17813,7 +18356,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B244" t="s">
         <v>119</v>
@@ -17824,7 +18367,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B245" t="s">
         <v>95</v>
@@ -17835,7 +18378,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B246" t="s">
         <v>95</v>
@@ -17846,7 +18389,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B247" t="s">
         <v>95</v>
@@ -17857,7 +18400,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B248" t="s">
         <v>102</v>
@@ -17868,7 +18411,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B249" t="s">
         <v>87</v>
@@ -17879,7 +18422,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B250" t="s">
         <v>117</v>
@@ -17893,7 +18436,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B251" t="s">
         <v>117</v>
@@ -17904,7 +18447,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B252" t="s">
         <v>102</v>
@@ -17918,7 +18461,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B253" t="s">
         <v>102</v>
@@ -17932,7 +18475,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s">
         <v>119</v>
@@ -17943,7 +18486,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B255" t="s">
         <v>129</v>
@@ -17957,7 +18500,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B256" t="s">
         <v>83</v>
@@ -17968,7 +18511,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B257" t="s">
         <v>89</v>
@@ -17979,7 +18522,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B258" t="s">
         <v>117</v>
@@ -17993,7 +18536,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B259" t="s">
         <v>106</v>
@@ -18007,7 +18550,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B260" t="s">
         <v>173</v>
@@ -18021,7 +18564,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B261" t="s">
         <v>92</v>
@@ -18035,7 +18578,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B262" t="s">
         <v>87</v>
@@ -18052,7 +18595,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B263" t="s">
         <v>83</v>
@@ -18063,7 +18606,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B264" t="s">
         <v>173</v>
@@ -18077,7 +18620,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B265" t="s">
         <v>92</v>
@@ -18088,7 +18631,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B266" t="s">
         <v>110</v>
@@ -18099,7 +18642,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -18110,7 +18653,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B268" t="s">
         <v>92</v>
@@ -18127,7 +18670,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B269" t="s">
         <v>102</v>
@@ -18138,7 +18681,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B270" t="s">
         <v>129</v>
@@ -18149,7 +18692,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B271" t="s">
         <v>173</v>
@@ -18160,7 +18703,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B272" t="s">
         <v>97</v>
@@ -18174,7 +18717,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B273" t="s">
         <v>95</v>
@@ -18188,7 +18731,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B274" t="s">
         <v>119</v>
@@ -18199,7 +18742,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B275" t="s">
         <v>97</v>
@@ -18213,7 +18756,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B276" t="s">
         <v>119</v>
@@ -18227,7 +18770,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B277" t="s">
         <v>106</v>
@@ -18241,7 +18784,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B278" t="s">
         <v>110</v>
@@ -18255,7 +18798,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B279" t="s">
         <v>84</v>
@@ -18275,7 +18818,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B280" t="s">
         <v>89</v>
@@ -18286,7 +18829,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B281" t="s">
         <v>127</v>
@@ -18297,7 +18840,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B282" t="s">
         <v>127</v>
@@ -18311,7 +18854,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B283" t="s">
         <v>127</v>
@@ -18325,7 +18868,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B284" t="s">
         <v>110</v>
@@ -18336,7 +18879,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B285" t="s">
         <v>110</v>
@@ -18347,7 +18890,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B286" t="s">
         <v>127</v>
@@ -18361,7 +18904,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B287" t="s">
         <v>127</v>
@@ -18375,7 +18918,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B288" t="s">
         <v>95</v>
@@ -18389,7 +18932,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B289" t="s">
         <v>117</v>
@@ -18400,7 +18943,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B290" t="s">
         <v>84</v>
@@ -18423,7 +18966,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B291" t="s">
         <v>106</v>
@@ -18437,7 +18980,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B292" t="s">
         <v>173</v>
@@ -18451,7 +18994,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B293" t="s">
         <v>116</v>
@@ -18465,7 +19008,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B294" t="s">
         <v>102</v>
@@ -18479,7 +19022,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B295" t="s">
         <v>129</v>
@@ -18490,7 +19033,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B296" t="s">
         <v>83</v>
@@ -18501,7 +19044,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B297" t="s">
         <v>173</v>
@@ -18512,7 +19055,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B298" t="s">
         <v>173</v>
@@ -18523,7 +19066,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B299" t="s">
         <v>127</v>
@@ -18537,7 +19080,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
@@ -18551,7 +19094,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B301" t="s">
         <v>173</v>
@@ -18565,7 +19108,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B302" t="s">
         <v>106</v>
@@ -18579,7 +19122,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B303" t="s">
         <v>117</v>
@@ -18593,7 +19136,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B304" t="s">
         <v>110</v>
@@ -18607,7 +19150,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B305" t="s">
         <v>119</v>
@@ -18621,7 +19164,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B306" t="s">
         <v>97</v>
@@ -18635,7 +19178,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B307" t="s">
         <v>92</v>
@@ -18646,7 +19189,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B308" t="s">
         <v>102</v>
@@ -18660,7 +19203,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B309" t="s">
         <v>119</v>
@@ -18671,7 +19214,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B310" t="s">
         <v>97</v>
@@ -18685,7 +19228,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B311" t="s">
         <v>87</v>
@@ -18699,7 +19242,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B312" t="s">
         <v>106</v>
@@ -18713,7 +19256,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B313" t="s">
         <v>87</v>
@@ -18724,7 +19267,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B314" t="s">
         <v>119</v>
@@ -18738,7 +19281,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B315" t="s">
         <v>92</v>
@@ -18749,7 +19292,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B316" t="s">
         <v>173</v>
@@ -18760,7 +19303,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B317" t="s">
         <v>102</v>
@@ -18771,7 +19314,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B318" t="s">
         <v>129</v>
@@ -18782,7 +19325,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B319" t="s">
         <v>173</v>
@@ -18796,7 +19339,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B320" t="s">
         <v>119</v>
@@ -18807,7 +19350,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B321" t="s">
         <v>119</v>
@@ -18818,7 +19361,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B322" t="s">
         <v>106</v>
@@ -18829,7 +19372,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B323" t="s">
         <v>119</v>
@@ -18840,7 +19383,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B324" t="s">
         <v>129</v>
@@ -18851,7 +19394,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B325" t="s">
         <v>129</v>
@@ -18865,7 +19408,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B326" t="s">
         <v>97</v>
@@ -18876,7 +19419,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B327" t="s">
         <v>129</v>
@@ -18890,7 +19433,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B328" t="s">
         <v>95</v>
@@ -18904,7 +19447,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B329" t="s">
         <v>173</v>
@@ -18915,7 +19458,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B330" t="s">
         <v>117</v>
@@ -18929,7 +19472,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B331" t="s">
         <v>129</v>
@@ -18940,7 +19483,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B332" t="s">
         <v>129</v>
@@ -18954,7 +19497,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B333" t="s">
         <v>129</v>
@@ -18968,7 +19511,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B334" t="s">
         <v>106</v>
@@ -18982,7 +19525,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B335" t="s">
         <v>119</v>
@@ -18993,7 +19536,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B336" t="s">
         <v>119</v>
@@ -19007,7 +19550,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B337" t="s">
         <v>119</v>
@@ -19018,7 +19561,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B338" t="s">
         <v>95</v>
@@ -19029,7 +19572,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B339" t="s">
         <v>117</v>
@@ -19040,7 +19583,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B340" t="s">
         <v>110</v>
@@ -19054,7 +19597,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B341" t="s">
         <v>173</v>
@@ -19065,7 +19608,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B342" t="s">
         <v>102</v>
@@ -19079,7 +19622,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B343" t="s">
         <v>84</v>
@@ -19090,7 +19633,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B344" t="s">
         <v>100</v>
@@ -19101,7 +19644,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B345" t="s">
         <v>173</v>
@@ -19115,7 +19658,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B346" t="s">
         <v>95</v>
@@ -19126,7 +19669,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B347" t="s">
         <v>92</v>
@@ -19140,7 +19683,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B348" t="s">
         <v>129</v>
@@ -19154,7 +19697,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B349" t="s">
         <v>110</v>
@@ -19165,7 +19708,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B350" t="s">
         <v>92</v>
@@ -19179,7 +19722,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B351" t="s">
         <v>89</v>
@@ -19193,7 +19736,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B352" t="s">
         <v>106</v>
@@ -19207,7 +19750,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -19221,7 +19764,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B354" t="s">
         <v>119</v>
@@ -19235,7 +19778,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B355" t="s">
         <v>119</v>
@@ -19249,7 +19792,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B356" t="s">
         <v>119</v>
@@ -19263,7 +19806,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B357" t="s">
         <v>119</v>
@@ -19277,7 +19820,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B358" t="s">
         <v>119</v>
@@ -19291,7 +19834,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B359" t="s">
         <v>89</v>
@@ -19305,7 +19848,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B360" t="s">
         <v>102</v>
@@ -19319,7 +19862,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B361" t="s">
         <v>127</v>
@@ -19333,7 +19876,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B362" t="s">
         <v>129</v>
@@ -19344,7 +19887,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B363" t="s">
         <v>89</v>
@@ -19355,7 +19898,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B364" t="s">
         <v>89</v>
@@ -19366,7 +19909,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B365" t="s">
         <v>84</v>
@@ -19380,7 +19923,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B366" t="s">
         <v>119</v>
@@ -19394,7 +19937,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B367" t="s">
         <v>87</v>
@@ -19405,7 +19948,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B368" t="s">
         <v>173</v>
@@ -19419,7 +19962,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B369" t="s">
         <v>83</v>
@@ -19433,7 +19976,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B370" t="s">
         <v>83</v>
@@ -19447,7 +19990,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B371" t="s">
         <v>102</v>
@@ -19461,7 +20004,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B372" t="s">
         <v>108</v>
@@ -19475,7 +20018,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B373" t="s">
         <v>129</v>
@@ -19486,7 +20029,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B374" t="s">
         <v>129</v>
@@ -19500,7 +20043,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B375" t="s">
         <v>127</v>
@@ -19511,7 +20054,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B376" t="s">
         <v>129</v>
@@ -19525,7 +20068,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B377" t="s">
         <v>83</v>
@@ -19536,7 +20079,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B378" t="s">
         <v>83</v>
@@ -19550,7 +20093,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B379" t="s">
         <v>83</v>
@@ -19564,7 +20107,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B380" t="s">
         <v>106</v>
@@ -19578,7 +20121,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B381" t="s">
         <v>110</v>
@@ -19592,7 +20135,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B382" t="s">
         <v>173</v>
@@ -19606,7 +20149,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B383" t="s">
         <v>129</v>
@@ -19617,7 +20160,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B384" t="s">
         <v>83</v>
@@ -19628,7 +20171,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B385" t="s">
         <v>117</v>
@@ -19639,7 +20182,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B386" t="s">
         <v>83</v>
@@ -19653,7 +20196,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B387" t="s">
         <v>87</v>
@@ -19664,7 +20207,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B388" t="s">
         <v>127</v>
@@ -19678,7 +20221,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B389" t="s">
         <v>173</v>
@@ -19689,7 +20232,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B390" t="s">
         <v>106</v>
@@ -19703,7 +20246,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B391" t="s">
         <v>127</v>
@@ -19717,7 +20260,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B392" t="s">
         <v>129</v>
@@ -19734,7 +20277,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B393" t="s">
         <v>108</v>
@@ -19745,7 +20288,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B394" t="s">
         <v>173</v>
@@ -19756,7 +20299,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B395" t="s">
         <v>173</v>
@@ -19767,7 +20310,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B396" t="s">
         <v>95</v>
@@ -19781,7 +20324,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B397" t="s">
         <v>106</v>
@@ -19792,7 +20335,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B398" t="s">
         <v>173</v>
@@ -19803,7 +20346,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B399" t="s">
         <v>97</v>
@@ -19817,7 +20360,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B400" t="s">
         <v>173</v>
@@ -19831,7 +20374,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B401" t="s">
         <v>95</v>
@@ -19845,7 +20388,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B402" t="s">
         <v>173</v>
@@ -19859,7 +20402,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B403" t="s">
         <v>129</v>
@@ -19873,7 +20416,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B404" t="s">
         <v>92</v>
@@ -19887,7 +20430,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B405" t="s">
         <v>95</v>
@@ -19898,7 +20441,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B406" t="s">
         <v>173</v>
@@ -19909,7 +20452,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B407" t="s">
         <v>89</v>
@@ -19923,7 +20466,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B408" t="s">
         <v>89</v>
@@ -19937,7 +20480,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B409" t="s">
         <v>95</v>
@@ -19948,7 +20491,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B410" t="s">
         <v>129</v>
@@ -19959,7 +20502,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B411" t="s">
         <v>83</v>
@@ -19970,7 +20513,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B412" t="s">
         <v>127</v>
@@ -19981,7 +20524,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B413" t="s">
         <v>129</v>
@@ -19995,7 +20538,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B414" t="s">
         <v>129</v>
@@ -20009,7 +20552,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B415" t="s">
         <v>173</v>
@@ -20023,7 +20566,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B416" t="s">
         <v>110</v>
@@ -20037,7 +20580,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B417" t="s">
         <v>108</v>
@@ -20048,7 +20591,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B418" t="s">
         <v>117</v>
@@ -20062,7 +20605,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B419" t="s">
         <v>83</v>
@@ -20073,7 +20616,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B420" t="s">
         <v>83</v>
@@ -20087,7 +20630,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B421" t="s">
         <v>100</v>
@@ -20101,7 +20644,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B422" t="s">
         <v>173</v>
@@ -20112,7 +20655,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B423" t="s">
         <v>87</v>
@@ -20126,7 +20669,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B424" t="s">
         <v>87</v>
@@ -20140,7 +20683,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B425" t="s">
         <v>87</v>
@@ -20151,7 +20694,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B426" t="s">
         <v>129</v>
@@ -20165,7 +20708,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B427" t="s">
         <v>102</v>
@@ -20176,7 +20719,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B428" t="s">
         <v>87</v>
@@ -20187,7 +20730,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B429" t="s">
         <v>119</v>
@@ -20201,7 +20744,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B430" t="s">
         <v>108</v>
@@ -20215,7 +20758,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B431" t="s">
         <v>89</v>
@@ -20229,7 +20772,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B432" t="s">
         <v>119</v>
@@ -20243,7 +20786,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B433" t="s">
         <v>108</v>
@@ -20257,7 +20800,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B434" t="s">
         <v>117</v>
@@ -20268,7 +20811,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B435" t="s">
         <v>116</v>
@@ -20279,7 +20822,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B436" t="s">
         <v>83</v>
@@ -20296,7 +20839,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B437" t="s">
         <v>173</v>
@@ -20310,7 +20853,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B438" t="s">
         <v>127</v>
@@ -20324,7 +20867,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B439" t="s">
         <v>119</v>
@@ -20338,7 +20881,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B440" t="s">
         <v>97</v>
@@ -20352,7 +20895,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B441" t="s">
         <v>83</v>
@@ -20366,7 +20909,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B442" t="s">
         <v>83</v>
@@ -20377,7 +20920,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B443" t="s">
         <v>117</v>
@@ -20391,7 +20934,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B444" t="s">
         <v>117</v>
@@ -20402,7 +20945,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
@@ -20416,7 +20959,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B446" t="s">
         <v>95</v>
@@ -20430,7 +20973,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B447" t="s">
         <v>95</v>
@@ -20444,7 +20987,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B448" t="s">
         <v>102</v>
@@ -20455,7 +20998,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B449" t="s">
         <v>173</v>
@@ -20469,7 +21012,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B450" t="s">
         <v>110</v>
@@ -20480,7 +21023,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -20491,7 +21034,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B452" t="s">
         <v>84</v>
@@ -20508,7 +21051,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B453" t="s">
         <v>129</v>
@@ -20519,7 +21062,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
@@ -20536,7 +21079,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B455" t="s">
         <v>106</v>
@@ -20550,7 +21093,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B456" t="s">
         <v>83</v>
@@ -20564,7 +21107,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B457" t="s">
         <v>106</v>
@@ -20578,7 +21121,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B458" t="s">
         <v>83</v>
@@ -20592,7 +21135,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B459" t="s">
         <v>106</v>
@@ -20606,7 +21149,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B460" t="s">
         <v>83</v>
@@ -20620,7 +21163,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B461" t="s">
         <v>83</v>
@@ -20634,7 +21177,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B462" t="s">
         <v>106</v>
@@ -20648,7 +21191,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
@@ -20659,7 +21202,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B464" t="s">
         <v>117</v>
@@ -20673,7 +21216,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B465" t="s">
         <v>129</v>
@@ -20684,7 +21227,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B466" t="s">
         <v>84</v>
@@ -20698,7 +21241,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B467" t="s">
         <v>173</v>
@@ -20709,7 +21252,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B468" t="s">
         <v>127</v>
@@ -20720,7 +21263,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B469" t="s">
         <v>127</v>
@@ -20734,7 +21277,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B470" t="s">
         <v>83</v>
@@ -20748,7 +21291,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B471" t="s">
         <v>129</v>
@@ -20762,7 +21305,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B472" t="s">
         <v>173</v>
@@ -20776,7 +21319,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B473" t="s">
         <v>129</v>
@@ -20787,7 +21330,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B474" t="s">
         <v>110</v>
@@ -20798,7 +21341,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B475" t="s">
         <v>102</v>
@@ -20812,7 +21355,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B476" t="s">
         <v>106</v>
@@ -20826,7 +21369,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B477" t="s">
         <v>106</v>
@@ -20840,7 +21383,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
@@ -20854,7 +21397,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B479" t="s">
         <v>129</v>
@@ -20865,7 +21408,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B480" t="s">
         <v>173</v>
@@ -20882,7 +21425,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B481" t="s">
         <v>110</v>
@@ -20896,7 +21439,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B482" t="s">
         <v>106</v>
@@ -20910,7 +21453,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B483" t="s">
         <v>173</v>
@@ -20921,7 +21464,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B484" t="s">
         <v>102</v>
@@ -20935,7 +21478,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B485" t="s">
         <v>119</v>
@@ -20946,7 +21489,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B486" t="s">
         <v>119</v>
@@ -20957,7 +21500,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B487" t="s">
         <v>102</v>
@@ -20968,7 +21511,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B488" t="s">
         <v>100</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DC0EE-00A2-4024-88ED-A155F0D2E9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0046E-E778-463E-9AE8-9B0AE84C14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="768">
   <si>
     <t>Name</t>
   </si>
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B146" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17248,6 +17248,54 @@
       <c r="E157" t="s">
         <v>85</v>
       </c>
+      <c r="I157" t="s">
+        <v>101</v>
+      </c>
+      <c r="J157" t="s">
+        <v>102</v>
+      </c>
+      <c r="K157" t="s">
+        <v>110</v>
+      </c>
+      <c r="L157" t="s">
+        <v>110</v>
+      </c>
+      <c r="M157" t="s">
+        <v>118</v>
+      </c>
+      <c r="N157" t="s">
+        <v>119</v>
+      </c>
+      <c r="O157" t="s">
+        <v>137</v>
+      </c>
+      <c r="P157" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>194</v>
+      </c>
+      <c r="R157" t="s">
+        <v>106</v>
+      </c>
+      <c r="S157" t="s">
+        <v>200</v>
+      </c>
+      <c r="T157" t="s">
+        <v>102</v>
+      </c>
+      <c r="U157" t="s">
+        <v>322</v>
+      </c>
+      <c r="V157" t="s">
+        <v>87</v>
+      </c>
+      <c r="W157" t="s">
+        <v>146</v>
+      </c>
+      <c r="X157" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="158" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
@@ -17262,6 +17310,54 @@
       <c r="E158" t="s">
         <v>85</v>
       </c>
+      <c r="I158" t="s">
+        <v>204</v>
+      </c>
+      <c r="J158" t="s">
+        <v>122</v>
+      </c>
+      <c r="K158" t="s">
+        <v>306</v>
+      </c>
+      <c r="L158" t="s">
+        <v>116</v>
+      </c>
+      <c r="M158" t="s">
+        <v>107</v>
+      </c>
+      <c r="N158" t="s">
+        <v>108</v>
+      </c>
+      <c r="O158" t="s">
+        <v>171</v>
+      </c>
+      <c r="P158" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>329</v>
+      </c>
+      <c r="R158" t="s">
+        <v>116</v>
+      </c>
+      <c r="S158" t="s">
+        <v>162</v>
+      </c>
+      <c r="T158" t="s">
+        <v>83</v>
+      </c>
+      <c r="U158" t="s">
+        <v>174</v>
+      </c>
+      <c r="V158" t="s">
+        <v>116</v>
+      </c>
+      <c r="W158" t="s">
+        <v>308</v>
+      </c>
+      <c r="X158" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="159" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
@@ -17273,6 +17369,60 @@
       <c r="E159" t="s">
         <v>85</v>
       </c>
+      <c r="I159" t="s">
+        <v>185</v>
+      </c>
+      <c r="J159" t="s">
+        <v>83</v>
+      </c>
+      <c r="K159" t="s">
+        <v>91</v>
+      </c>
+      <c r="L159" t="s">
+        <v>92</v>
+      </c>
+      <c r="M159" t="s">
+        <v>157</v>
+      </c>
+      <c r="N159" t="s">
+        <v>129</v>
+      </c>
+      <c r="O159" t="s">
+        <v>214</v>
+      </c>
+      <c r="P159" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>154</v>
+      </c>
+      <c r="R159" t="s">
+        <v>102</v>
+      </c>
+      <c r="S159" t="s">
+        <v>114</v>
+      </c>
+      <c r="T159" t="s">
+        <v>110</v>
+      </c>
+      <c r="U159" t="s">
+        <v>160</v>
+      </c>
+      <c r="V159" t="s">
+        <v>89</v>
+      </c>
+      <c r="W159" t="s">
+        <v>200</v>
+      </c>
+      <c r="X159" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="160" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -17283,6 +17433,162 @@
       </c>
       <c r="E160" t="s">
         <v>85</v>
+      </c>
+      <c r="I160" t="s">
+        <v>133</v>
+      </c>
+      <c r="J160" t="s">
+        <v>87</v>
+      </c>
+      <c r="K160" t="s">
+        <v>101</v>
+      </c>
+      <c r="L160" t="s">
+        <v>102</v>
+      </c>
+      <c r="M160" t="s">
+        <v>124</v>
+      </c>
+      <c r="N160" t="s">
+        <v>87</v>
+      </c>
+      <c r="O160" t="s">
+        <v>185</v>
+      </c>
+      <c r="P160" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>166</v>
+      </c>
+      <c r="R160" t="s">
+        <v>83</v>
+      </c>
+      <c r="S160" t="s">
+        <v>91</v>
+      </c>
+      <c r="T160" t="s">
+        <v>92</v>
+      </c>
+      <c r="U160" t="s">
+        <v>159</v>
+      </c>
+      <c r="V160" t="s">
+        <v>87</v>
+      </c>
+      <c r="W160" t="s">
+        <v>136</v>
+      </c>
+      <c r="X160" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR160" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS160" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT160" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU160" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV160" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW160" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX160" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY160" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ160" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA160" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB160" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC160" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD160" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE160" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF160" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG160" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH160" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0046E-E778-463E-9AE8-9B0AE84C14C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF307ED-25BB-4253-9902-E69D07E8908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6215" uniqueCount="770">
   <si>
     <t>Name</t>
   </si>
@@ -2324,6 +2324,12 @@
   </si>
   <si>
     <t>Fire Blast</t>
+  </si>
+  <si>
+    <t>Aqua Cutter</t>
+  </si>
+  <si>
+    <t>Sludge</t>
   </si>
 </sst>
 </file>
@@ -2688,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="J148" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17591,7 +17597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>412</v>
       </c>
@@ -17604,8 +17610,200 @@
       <c r="E161" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I161" t="s">
+        <v>101</v>
+      </c>
+      <c r="J161" t="s">
+        <v>102</v>
+      </c>
+      <c r="K161" t="s">
+        <v>742</v>
+      </c>
+      <c r="L161" t="s">
+        <v>83</v>
+      </c>
+      <c r="M161" t="s">
+        <v>185</v>
+      </c>
+      <c r="N161" t="s">
+        <v>83</v>
+      </c>
+      <c r="O161" t="s">
+        <v>88</v>
+      </c>
+      <c r="P161" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>112</v>
+      </c>
+      <c r="R161" t="s">
+        <v>95</v>
+      </c>
+      <c r="S161" t="s">
+        <v>125</v>
+      </c>
+      <c r="T161" t="s">
+        <v>83</v>
+      </c>
+      <c r="U161" t="s">
+        <v>118</v>
+      </c>
+      <c r="V161" t="s">
+        <v>119</v>
+      </c>
+      <c r="W161" t="s">
+        <v>763</v>
+      </c>
+      <c r="X161" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ161" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR161" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS161" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU161" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV161" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW161" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX161" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY161" t="s">
+        <v>768</v>
+      </c>
+      <c r="AZ161" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA161" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE161" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF161" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG161" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH161" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI161" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ161" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK161" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL161" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM161" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN161" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO161" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP161" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ161" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR161" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS161" t="s">
+        <v>178</v>
+      </c>
+      <c r="BT161" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -17618,8 +17816,56 @@
       <c r="E162" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I162" t="s">
+        <v>125</v>
+      </c>
+      <c r="J162" t="s">
+        <v>83</v>
+      </c>
+      <c r="K162" t="s">
+        <v>115</v>
+      </c>
+      <c r="L162" t="s">
+        <v>116</v>
+      </c>
+      <c r="M162" t="s">
+        <v>203</v>
+      </c>
+      <c r="N162" t="s">
+        <v>127</v>
+      </c>
+      <c r="O162" t="s">
+        <v>186</v>
+      </c>
+      <c r="P162" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>162</v>
+      </c>
+      <c r="R162" t="s">
+        <v>83</v>
+      </c>
+      <c r="S162" t="s">
+        <v>200</v>
+      </c>
+      <c r="T162" t="s">
+        <v>102</v>
+      </c>
+      <c r="U162" t="s">
+        <v>233</v>
+      </c>
+      <c r="V162" t="s">
+        <v>127</v>
+      </c>
+      <c r="W162" t="s">
+        <v>131</v>
+      </c>
+      <c r="X162" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>414</v>
       </c>
@@ -17629,8 +17875,86 @@
       <c r="E163" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I163" t="s">
+        <v>101</v>
+      </c>
+      <c r="J163" t="s">
+        <v>102</v>
+      </c>
+      <c r="K163" t="s">
+        <v>124</v>
+      </c>
+      <c r="L163" t="s">
+        <v>87</v>
+      </c>
+      <c r="M163" t="s">
+        <v>166</v>
+      </c>
+      <c r="N163" t="s">
+        <v>83</v>
+      </c>
+      <c r="O163" t="s">
+        <v>110</v>
+      </c>
+      <c r="P163" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>118</v>
+      </c>
+      <c r="R163" t="s">
+        <v>119</v>
+      </c>
+      <c r="S163" t="s">
+        <v>98</v>
+      </c>
+      <c r="T163" t="s">
+        <v>87</v>
+      </c>
+      <c r="U163" t="s">
+        <v>154</v>
+      </c>
+      <c r="V163" t="s">
+        <v>102</v>
+      </c>
+      <c r="W163" t="s">
+        <v>177</v>
+      </c>
+      <c r="X163" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>415</v>
       </c>
@@ -17643,8 +17967,104 @@
       <c r="E164" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I164" t="s">
+        <v>101</v>
+      </c>
+      <c r="J164" t="s">
+        <v>102</v>
+      </c>
+      <c r="K164" t="s">
+        <v>124</v>
+      </c>
+      <c r="L164" t="s">
+        <v>87</v>
+      </c>
+      <c r="M164" t="s">
+        <v>185</v>
+      </c>
+      <c r="N164" t="s">
+        <v>83</v>
+      </c>
+      <c r="O164" t="s">
+        <v>125</v>
+      </c>
+      <c r="P164" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>118</v>
+      </c>
+      <c r="R164" t="s">
+        <v>119</v>
+      </c>
+      <c r="S164" t="s">
+        <v>235</v>
+      </c>
+      <c r="T164" t="s">
+        <v>87</v>
+      </c>
+      <c r="U164" t="s">
+        <v>96</v>
+      </c>
+      <c r="V164" t="s">
+        <v>97</v>
+      </c>
+      <c r="W164" t="s">
+        <v>150</v>
+      </c>
+      <c r="X164" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>416</v>
       </c>
@@ -17657,8 +18077,80 @@
       <c r="E165" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I165" t="s">
+        <v>121</v>
+      </c>
+      <c r="J165" t="s">
+        <v>122</v>
+      </c>
+      <c r="K165" t="s">
+        <v>204</v>
+      </c>
+      <c r="L165" t="s">
+        <v>122</v>
+      </c>
+      <c r="M165" t="s">
+        <v>112</v>
+      </c>
+      <c r="N165" t="s">
+        <v>95</v>
+      </c>
+      <c r="O165" t="s">
+        <v>254</v>
+      </c>
+      <c r="P165" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>90</v>
+      </c>
+      <c r="R165" t="s">
+        <v>89</v>
+      </c>
+      <c r="S165" t="s">
+        <v>156</v>
+      </c>
+      <c r="T165" t="s">
+        <v>84</v>
+      </c>
+      <c r="U165" t="s">
+        <v>126</v>
+      </c>
+      <c r="V165" t="s">
+        <v>127</v>
+      </c>
+      <c r="W165" t="s">
+        <v>94</v>
+      </c>
+      <c r="X165" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>417</v>
       </c>
@@ -17669,7 +18161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>418</v>
       </c>
@@ -17686,7 +18178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>419</v>
       </c>
@@ -17703,7 +18195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>420</v>
       </c>
@@ -17714,7 +18206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>421</v>
       </c>
@@ -17725,7 +18217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>422</v>
       </c>
@@ -17736,7 +18228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>423</v>
       </c>
@@ -17750,7 +18242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>424</v>
       </c>
@@ -17764,7 +18256,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>425</v>
       </c>
@@ -17778,7 +18270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -17792,7 +18284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>427</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF307ED-25BB-4253-9902-E69D07E8908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486E070-9D3E-4205-B038-C359AF4B4D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6215" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6329" uniqueCount="770">
   <si>
     <t>Name</t>
   </si>
@@ -1279,9 +1279,6 @@
     <t>Glaceon</t>
   </si>
   <si>
-    <t>Glailie</t>
-  </si>
-  <si>
     <t>Glastrier</t>
   </si>
   <si>
@@ -2330,6 +2327,9 @@
   </si>
   <si>
     <t>Sludge</t>
+  </si>
+  <si>
+    <t>Glalie</t>
   </si>
 </sst>
 </file>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J148" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6496,7 +6496,7 @@
         <v>89</v>
       </c>
       <c r="AK38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AL38" t="s">
         <v>122</v>
@@ -9867,7 +9867,7 @@
         <v>95</v>
       </c>
       <c r="Y81" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Z81" t="s">
         <v>122</v>
@@ -10220,7 +10220,7 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10339,7 +10339,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -10914,7 +10914,7 @@
         <v>83</v>
       </c>
       <c r="AC93" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AD93" t="s">
         <v>83</v>
@@ -11122,7 +11122,7 @@
         <v>95</v>
       </c>
       <c r="BE95" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="BF95" t="s">
         <v>84</v>
@@ -11353,7 +11353,7 @@
         <v>89</v>
       </c>
       <c r="S98" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T98" t="s">
         <v>87</v>
@@ -11439,13 +11439,13 @@
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J99" t="s">
         <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L99" t="s">
         <v>116</v>
@@ -11537,13 +11537,13 @@
         <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -12012,7 +12012,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AJ105" t="s">
         <v>92</v>
@@ -12401,7 +12401,7 @@
         <v>87</v>
       </c>
       <c r="S109" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T109" t="s">
         <v>87</v>
@@ -12561,7 +12561,7 @@
         <v>87</v>
       </c>
       <c r="K111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L111" t="s">
         <v>87</v>
@@ -12761,7 +12761,7 @@
         <v>119</v>
       </c>
       <c r="BA112" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="BB112" t="s">
         <v>102</v>
@@ -12773,7 +12773,7 @@
         <v>95</v>
       </c>
       <c r="BE112" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="BF112" t="s">
         <v>84</v>
@@ -12951,7 +12951,7 @@
         <v>129</v>
       </c>
       <c r="AG114" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AH114" t="s">
         <v>129</v>
@@ -12963,7 +12963,7 @@
         <v>129</v>
       </c>
       <c r="AK114" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AL114" t="s">
         <v>129</v>
@@ -13073,7 +13073,7 @@
         <v>119</v>
       </c>
       <c r="AM115" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AN115" t="s">
         <v>116</v>
@@ -13153,7 +13153,7 @@
         <v>129</v>
       </c>
       <c r="O116" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P116" t="s">
         <v>106</v>
@@ -13311,7 +13311,7 @@
         <v>89</v>
       </c>
       <c r="AG117" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH117" t="s">
         <v>102</v>
@@ -14153,7 +14153,7 @@
         <v>95</v>
       </c>
       <c r="AG124" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AH124" t="s">
         <v>122</v>
@@ -14173,7 +14173,7 @@
         <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J125" t="s">
         <v>122</v>
@@ -14694,7 +14694,7 @@
         <v>92</v>
       </c>
       <c r="W129" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="X129" t="s">
         <v>129</v>
@@ -14718,7 +14718,7 @@
         <v>129</v>
       </c>
       <c r="AE129" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AF129" t="s">
         <v>129</v>
@@ -14788,7 +14788,7 @@
         <v>89</v>
       </c>
       <c r="U131" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V131" t="s">
         <v>87</v>
@@ -15200,7 +15200,7 @@
         <v>84</v>
       </c>
       <c r="Q136" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R136" t="s">
         <v>116</v>
@@ -15296,7 +15296,7 @@
         <v>84</v>
       </c>
       <c r="AW136" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AX136" t="s">
         <v>102</v>
@@ -15527,7 +15527,7 @@
         <v>83</v>
       </c>
       <c r="Y139" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Z139" t="s">
         <v>129</v>
@@ -15734,7 +15734,7 @@
         <v>87</v>
       </c>
       <c r="AE142" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF142" t="s">
         <v>110</v>
@@ -15835,7 +15835,7 @@
         <v>89</v>
       </c>
       <c r="AC143" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AD143" t="s">
         <v>87</v>
@@ -15972,13 +15972,13 @@
         <v>106</v>
       </c>
       <c r="M144" t="s">
+        <v>760</v>
+      </c>
+      <c r="N144" t="s">
+        <v>89</v>
+      </c>
+      <c r="O144" t="s">
         <v>761</v>
-      </c>
-      <c r="N144" t="s">
-        <v>89</v>
-      </c>
-      <c r="O144" t="s">
-        <v>762</v>
       </c>
       <c r="P144" t="s">
         <v>106</v>
@@ -16064,13 +16064,13 @@
         <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J145" t="s">
         <v>116</v>
       </c>
       <c r="K145" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L145" t="s">
         <v>83</v>
@@ -16094,13 +16094,13 @@
         <v>117</v>
       </c>
       <c r="S145" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T145" t="s">
         <v>106</v>
       </c>
       <c r="U145" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V145" t="s">
         <v>83</v>
@@ -16495,7 +16495,7 @@
         <v>85</v>
       </c>
       <c r="I149" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J149" t="s">
         <v>116</v>
@@ -16513,7 +16513,7 @@
         <v>117</v>
       </c>
       <c r="O149" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P149" t="s">
         <v>116</v>
@@ -16649,7 +16649,7 @@
         <v>92</v>
       </c>
       <c r="K151" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L151" t="s">
         <v>116</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="152" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -16868,7 +16868,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L154" t="s">
         <v>83</v>
@@ -16886,7 +16886,7 @@
         <v>83</v>
       </c>
       <c r="Q154" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R154" t="s">
         <v>83</v>
@@ -16916,7 +16916,7 @@
         <v>83</v>
       </c>
       <c r="AA154" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AB154" t="s">
         <v>110</v>
@@ -16957,7 +16957,7 @@
         <v>83</v>
       </c>
       <c r="M155" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N155" t="s">
         <v>117</v>
@@ -16987,13 +16987,13 @@
         <v>117</v>
       </c>
       <c r="W155" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="X155" t="s">
         <v>106</v>
       </c>
       <c r="Y155" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Z155" t="s">
         <v>106</v>
@@ -17005,7 +17005,7 @@
         <v>117</v>
       </c>
       <c r="AC155" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD155" t="s">
         <v>116</v>
@@ -17047,7 +17047,7 @@
         <v>83</v>
       </c>
       <c r="AQ155" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AR155" t="s">
         <v>110</v>
@@ -17617,7 +17617,7 @@
         <v>102</v>
       </c>
       <c r="K161" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L161" t="s">
         <v>83</v>
@@ -17653,7 +17653,7 @@
         <v>119</v>
       </c>
       <c r="W161" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="X161" t="s">
         <v>83</v>
@@ -17737,7 +17737,7 @@
         <v>106</v>
       </c>
       <c r="AY161" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AZ161" t="s">
         <v>129</v>
@@ -18132,7 +18132,7 @@
         <v>106</v>
       </c>
       <c r="AA165" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AB165" t="s">
         <v>127</v>
@@ -18160,6 +18160,66 @@
       <c r="E166" t="s">
         <v>85</v>
       </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+      <c r="J166" t="s">
+        <v>92</v>
+      </c>
+      <c r="K166" t="s">
+        <v>152</v>
+      </c>
+      <c r="L166" t="s">
+        <v>87</v>
+      </c>
+      <c r="M166" t="s">
+        <v>166</v>
+      </c>
+      <c r="N166" t="s">
+        <v>83</v>
+      </c>
+      <c r="O166" t="s">
+        <v>88</v>
+      </c>
+      <c r="P166" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>90</v>
+      </c>
+      <c r="R166" t="s">
+        <v>89</v>
+      </c>
+      <c r="S166" t="s">
+        <v>98</v>
+      </c>
+      <c r="T166" t="s">
+        <v>87</v>
+      </c>
+      <c r="U166" t="s">
+        <v>236</v>
+      </c>
+      <c r="V166" t="s">
+        <v>92</v>
+      </c>
+      <c r="W166" t="s">
+        <v>141</v>
+      </c>
+      <c r="X166" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="167" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
@@ -18177,10 +18237,64 @@
       <c r="J167" t="s">
         <v>119</v>
       </c>
+      <c r="K167" t="s">
+        <v>204</v>
+      </c>
+      <c r="L167" t="s">
+        <v>122</v>
+      </c>
+      <c r="M167" t="s">
+        <v>316</v>
+      </c>
+      <c r="N167" t="s">
+        <v>110</v>
+      </c>
+      <c r="O167" t="s">
+        <v>91</v>
+      </c>
+      <c r="P167" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>136</v>
+      </c>
+      <c r="R167" t="s">
+        <v>129</v>
+      </c>
+      <c r="S167" t="s">
+        <v>168</v>
+      </c>
+      <c r="T167" t="s">
+        <v>108</v>
+      </c>
+      <c r="U167" t="s">
+        <v>96</v>
+      </c>
+      <c r="V167" t="s">
+        <v>97</v>
+      </c>
+      <c r="W167" t="s">
+        <v>160</v>
+      </c>
+      <c r="X167" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>419</v>
+        <v>769</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -18194,10 +18308,76 @@
       <c r="J168" t="s">
         <v>119</v>
       </c>
+      <c r="K168" t="s">
+        <v>199</v>
+      </c>
+      <c r="L168" t="s">
+        <v>92</v>
+      </c>
+      <c r="M168" t="s">
+        <v>88</v>
+      </c>
+      <c r="N168" t="s">
+        <v>89</v>
+      </c>
+      <c r="O168" t="s">
+        <v>175</v>
+      </c>
+      <c r="P168" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>137</v>
+      </c>
+      <c r="R168" t="s">
+        <v>102</v>
+      </c>
+      <c r="S168" t="s">
+        <v>154</v>
+      </c>
+      <c r="T168" t="s">
+        <v>102</v>
+      </c>
+      <c r="U168" t="s">
+        <v>141</v>
+      </c>
+      <c r="V168" t="s">
+        <v>92</v>
+      </c>
+      <c r="W168" t="s">
+        <v>96</v>
+      </c>
+      <c r="X168" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -18205,10 +18385,88 @@
       <c r="E169" t="s">
         <v>85</v>
       </c>
+      <c r="I169" t="s">
+        <v>104</v>
+      </c>
+      <c r="J169" t="s">
+        <v>87</v>
+      </c>
+      <c r="K169" t="s">
+        <v>201</v>
+      </c>
+      <c r="L169" t="s">
+        <v>92</v>
+      </c>
+      <c r="M169" t="s">
+        <v>105</v>
+      </c>
+      <c r="N169" t="s">
+        <v>106</v>
+      </c>
+      <c r="O169" t="s">
+        <v>99</v>
+      </c>
+      <c r="P169" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>152</v>
+      </c>
+      <c r="R169" t="s">
+        <v>87</v>
+      </c>
+      <c r="S169" t="s">
+        <v>98</v>
+      </c>
+      <c r="T169" t="s">
+        <v>87</v>
+      </c>
+      <c r="U169" t="s">
+        <v>137</v>
+      </c>
+      <c r="V169" t="s">
+        <v>102</v>
+      </c>
+      <c r="W169" t="s">
+        <v>186</v>
+      </c>
+      <c r="X169" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="170" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B170" t="s">
         <v>83</v>
@@ -18216,10 +18474,94 @@
       <c r="E170" t="s">
         <v>85</v>
       </c>
+      <c r="I170" t="s">
+        <v>152</v>
+      </c>
+      <c r="J170" t="s">
+        <v>87</v>
+      </c>
+      <c r="K170" t="s">
+        <v>88</v>
+      </c>
+      <c r="L170" t="s">
+        <v>89</v>
+      </c>
+      <c r="M170" t="s">
+        <v>91</v>
+      </c>
+      <c r="N170" t="s">
+        <v>92</v>
+      </c>
+      <c r="O170" t="s">
+        <v>107</v>
+      </c>
+      <c r="P170" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>157</v>
+      </c>
+      <c r="R170" t="s">
+        <v>129</v>
+      </c>
+      <c r="S170" t="s">
+        <v>214</v>
+      </c>
+      <c r="T170" t="s">
+        <v>119</v>
+      </c>
+      <c r="U170" t="s">
+        <v>115</v>
+      </c>
+      <c r="V170" t="s">
+        <v>116</v>
+      </c>
+      <c r="W170" t="s">
+        <v>186</v>
+      </c>
+      <c r="X170" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="171" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B171" t="s">
         <v>129</v>
@@ -18230,7 +18572,7 @@
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B172" t="s">
         <v>95</v>
@@ -18244,7 +18586,7 @@
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B173" t="s">
         <v>95</v>
@@ -18258,7 +18600,7 @@
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B174" t="s">
         <v>106</v>
@@ -18272,7 +18614,7 @@
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B175" t="s">
         <v>89</v>
@@ -18286,7 +18628,7 @@
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B176" t="s">
         <v>100</v>
@@ -18300,7 +18642,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B177" t="s">
         <v>92</v>
@@ -18314,7 +18656,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B178" t="s">
         <v>129</v>
@@ -18325,7 +18667,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s">
         <v>110</v>
@@ -18336,7 +18678,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B180" t="s">
         <v>97</v>
@@ -18350,7 +18692,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B181" t="s">
         <v>127</v>
@@ -18367,7 +18709,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
         <v>108</v>
@@ -18378,7 +18720,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" t="s">
         <v>87</v>
@@ -18389,7 +18731,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B184" t="s">
         <v>173</v>
@@ -18400,7 +18742,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s">
         <v>102</v>
@@ -18414,7 +18756,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B186" t="s">
         <v>110</v>
@@ -18425,7 +18767,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B187" t="s">
         <v>173</v>
@@ -18436,7 +18778,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B188" t="s">
         <v>102</v>
@@ -18450,7 +18792,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B189" t="s">
         <v>87</v>
@@ -18461,7 +18803,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B190" t="s">
         <v>117</v>
@@ -18472,7 +18814,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" t="s">
         <v>119</v>
@@ -18486,7 +18828,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B192" t="s">
         <v>106</v>
@@ -18500,7 +18842,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B193" t="s">
         <v>87</v>
@@ -18511,7 +18853,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s">
         <v>87</v>
@@ -18522,7 +18864,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B195" t="s">
         <v>87</v>
@@ -18533,7 +18875,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B196" t="s">
         <v>102</v>
@@ -18547,7 +18889,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B197" t="s">
         <v>110</v>
@@ -18561,7 +18903,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B198" t="s">
         <v>102</v>
@@ -18575,7 +18917,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B199" t="s">
         <v>97</v>
@@ -18586,7 +18928,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B200" t="s">
         <v>129</v>
@@ -18597,7 +18939,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B201" t="s">
         <v>110</v>
@@ -18608,7 +18950,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B202" t="s">
         <v>106</v>
@@ -18619,7 +18961,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B203" t="s">
         <v>117</v>
@@ -18633,7 +18975,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B204" t="s">
         <v>110</v>
@@ -18647,7 +18989,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B205" t="s">
         <v>110</v>
@@ -18661,7 +19003,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B206" t="s">
         <v>117</v>
@@ -18675,7 +19017,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B207" t="s">
         <v>129</v>
@@ -18686,7 +19028,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B208" t="s">
         <v>102</v>
@@ -18700,7 +19042,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B209" t="s">
         <v>95</v>
@@ -18714,7 +19056,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B210" t="s">
         <v>129</v>
@@ -18728,7 +19070,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B211" t="s">
         <v>119</v>
@@ -18739,7 +19081,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B212" t="s">
         <v>83</v>
@@ -18753,7 +19095,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B213" t="s">
         <v>84</v>
@@ -18767,7 +19109,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B214" t="s">
         <v>95</v>
@@ -18781,7 +19123,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B215" t="s">
         <v>173</v>
@@ -18792,7 +19134,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B216" t="s">
         <v>173</v>
@@ -18803,7 +19145,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B217" t="s">
         <v>119</v>
@@ -18817,7 +19159,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B218" t="s">
         <v>129</v>
@@ -18831,7 +19173,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B219" t="s">
         <v>129</v>
@@ -18842,7 +19184,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B220" t="s">
         <v>95</v>
@@ -18856,7 +19198,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B221" t="s">
         <v>92</v>
@@ -18870,7 +19212,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B222" t="s">
         <v>92</v>
@@ -18881,7 +19223,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B223" t="s">
         <v>173</v>
@@ -18892,7 +19234,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B224" t="s">
         <v>106</v>
@@ -18903,7 +19245,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B225" t="s">
         <v>89</v>
@@ -18917,7 +19259,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B226" t="s">
         <v>129</v>
@@ -18931,7 +19273,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B227" t="s">
         <v>129</v>
@@ -18951,7 +19293,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B228" t="s">
         <v>100</v>
@@ -18965,7 +19307,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B229" t="s">
         <v>83</v>
@@ -18976,7 +19318,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B230" t="s">
         <v>106</v>
@@ -18990,7 +19332,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B231" t="s">
         <v>106</v>
@@ -19004,7 +19346,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B232" t="s">
         <v>173</v>
@@ -19015,7 +19357,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B233" t="s">
         <v>102</v>
@@ -19026,7 +19368,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B234" t="s">
         <v>83</v>
@@ -19037,7 +19379,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B235" t="s">
         <v>173</v>
@@ -19051,7 +19393,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B236" t="s">
         <v>106</v>
@@ -19065,7 +19407,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B237" t="s">
         <v>173</v>
@@ -19079,7 +19421,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B238" t="s">
         <v>87</v>
@@ -19093,7 +19435,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B239" t="s">
         <v>129</v>
@@ -19107,7 +19449,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B240" t="s">
         <v>129</v>
@@ -19118,7 +19460,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B241" t="s">
         <v>95</v>
@@ -19132,7 +19474,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B242" t="s">
         <v>83</v>
@@ -19143,7 +19485,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B243" t="s">
         <v>129</v>
@@ -19154,7 +19496,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s">
         <v>119</v>
@@ -19165,7 +19507,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s">
         <v>95</v>
@@ -19176,7 +19518,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B246" t="s">
         <v>95</v>
@@ -19187,7 +19529,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B247" t="s">
         <v>95</v>
@@ -19198,7 +19540,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B248" t="s">
         <v>102</v>
@@ -19209,7 +19551,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B249" t="s">
         <v>87</v>
@@ -19220,7 +19562,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B250" t="s">
         <v>117</v>
@@ -19234,7 +19576,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B251" t="s">
         <v>117</v>
@@ -19245,7 +19587,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B252" t="s">
         <v>102</v>
@@ -19259,7 +19601,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B253" t="s">
         <v>102</v>
@@ -19273,7 +19615,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B254" t="s">
         <v>119</v>
@@ -19284,7 +19626,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s">
         <v>129</v>
@@ -19298,7 +19640,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s">
         <v>83</v>
@@ -19309,7 +19651,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B257" t="s">
         <v>89</v>
@@ -19320,7 +19662,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B258" t="s">
         <v>117</v>
@@ -19334,7 +19676,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B259" t="s">
         <v>106</v>
@@ -19348,7 +19690,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B260" t="s">
         <v>173</v>
@@ -19362,7 +19704,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B261" t="s">
         <v>92</v>
@@ -19376,7 +19718,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B262" t="s">
         <v>87</v>
@@ -19393,7 +19735,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B263" t="s">
         <v>83</v>
@@ -19404,7 +19746,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B264" t="s">
         <v>173</v>
@@ -19418,7 +19760,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B265" t="s">
         <v>92</v>
@@ -19429,7 +19771,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B266" t="s">
         <v>110</v>
@@ -19440,7 +19782,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -19451,7 +19793,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B268" t="s">
         <v>92</v>
@@ -19468,7 +19810,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B269" t="s">
         <v>102</v>
@@ -19479,7 +19821,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B270" t="s">
         <v>129</v>
@@ -19490,7 +19832,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B271" t="s">
         <v>173</v>
@@ -19501,7 +19843,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B272" t="s">
         <v>97</v>
@@ -19515,7 +19857,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B273" t="s">
         <v>95</v>
@@ -19529,7 +19871,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B274" t="s">
         <v>119</v>
@@ -19540,7 +19882,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B275" t="s">
         <v>97</v>
@@ -19554,7 +19896,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B276" t="s">
         <v>119</v>
@@ -19568,7 +19910,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B277" t="s">
         <v>106</v>
@@ -19582,7 +19924,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B278" t="s">
         <v>110</v>
@@ -19596,7 +19938,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B279" t="s">
         <v>84</v>
@@ -19616,7 +19958,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B280" t="s">
         <v>89</v>
@@ -19627,7 +19969,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B281" t="s">
         <v>127</v>
@@ -19638,7 +19980,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B282" t="s">
         <v>127</v>
@@ -19652,7 +19994,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B283" t="s">
         <v>127</v>
@@ -19666,7 +20008,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B284" t="s">
         <v>110</v>
@@ -19677,7 +20019,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B285" t="s">
         <v>110</v>
@@ -19688,7 +20030,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B286" t="s">
         <v>127</v>
@@ -19702,7 +20044,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B287" t="s">
         <v>127</v>
@@ -19716,7 +20058,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B288" t="s">
         <v>95</v>
@@ -19730,7 +20072,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B289" t="s">
         <v>117</v>
@@ -19741,7 +20083,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B290" t="s">
         <v>84</v>
@@ -19764,7 +20106,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B291" t="s">
         <v>106</v>
@@ -19778,7 +20120,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B292" t="s">
         <v>173</v>
@@ -19792,7 +20134,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B293" t="s">
         <v>116</v>
@@ -19806,7 +20148,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B294" t="s">
         <v>102</v>
@@ -19820,7 +20162,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B295" t="s">
         <v>129</v>
@@ -19831,7 +20173,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B296" t="s">
         <v>83</v>
@@ -19842,7 +20184,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B297" t="s">
         <v>173</v>
@@ -19853,7 +20195,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B298" t="s">
         <v>173</v>
@@ -19864,7 +20206,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B299" t="s">
         <v>127</v>
@@ -19878,7 +20220,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
@@ -19892,7 +20234,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B301" t="s">
         <v>173</v>
@@ -19906,7 +20248,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B302" t="s">
         <v>106</v>
@@ -19920,7 +20262,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B303" t="s">
         <v>117</v>
@@ -19934,7 +20276,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B304" t="s">
         <v>110</v>
@@ -19948,7 +20290,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B305" t="s">
         <v>119</v>
@@ -19962,7 +20304,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B306" t="s">
         <v>97</v>
@@ -19976,7 +20318,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B307" t="s">
         <v>92</v>
@@ -19987,7 +20329,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B308" t="s">
         <v>102</v>
@@ -20001,7 +20343,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B309" t="s">
         <v>119</v>
@@ -20012,7 +20354,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B310" t="s">
         <v>97</v>
@@ -20026,7 +20368,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B311" t="s">
         <v>87</v>
@@ -20040,7 +20382,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B312" t="s">
         <v>106</v>
@@ -20054,7 +20396,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B313" t="s">
         <v>87</v>
@@ -20065,7 +20407,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B314" t="s">
         <v>119</v>
@@ -20079,7 +20421,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B315" t="s">
         <v>92</v>
@@ -20090,7 +20432,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B316" t="s">
         <v>173</v>
@@ -20101,7 +20443,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B317" t="s">
         <v>102</v>
@@ -20112,7 +20454,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B318" t="s">
         <v>129</v>
@@ -20123,7 +20465,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B319" t="s">
         <v>173</v>
@@ -20137,7 +20479,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B320" t="s">
         <v>119</v>
@@ -20148,7 +20490,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B321" t="s">
         <v>119</v>
@@ -20159,7 +20501,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B322" t="s">
         <v>106</v>
@@ -20170,7 +20512,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B323" t="s">
         <v>119</v>
@@ -20181,7 +20523,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B324" t="s">
         <v>129</v>
@@ -20192,7 +20534,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B325" t="s">
         <v>129</v>
@@ -20206,7 +20548,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B326" t="s">
         <v>97</v>
@@ -20217,7 +20559,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B327" t="s">
         <v>129</v>
@@ -20231,7 +20573,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B328" t="s">
         <v>95</v>
@@ -20245,7 +20587,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B329" t="s">
         <v>173</v>
@@ -20256,7 +20598,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B330" t="s">
         <v>117</v>
@@ -20270,7 +20612,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B331" t="s">
         <v>129</v>
@@ -20281,7 +20623,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B332" t="s">
         <v>129</v>
@@ -20295,7 +20637,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B333" t="s">
         <v>129</v>
@@ -20309,7 +20651,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B334" t="s">
         <v>106</v>
@@ -20323,7 +20665,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B335" t="s">
         <v>119</v>
@@ -20334,7 +20676,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B336" t="s">
         <v>119</v>
@@ -20348,7 +20690,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B337" t="s">
         <v>119</v>
@@ -20359,7 +20701,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B338" t="s">
         <v>95</v>
@@ -20370,7 +20712,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B339" t="s">
         <v>117</v>
@@ -20381,7 +20723,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B340" t="s">
         <v>110</v>
@@ -20395,7 +20737,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B341" t="s">
         <v>173</v>
@@ -20406,7 +20748,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B342" t="s">
         <v>102</v>
@@ -20420,7 +20762,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B343" t="s">
         <v>84</v>
@@ -20431,7 +20773,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B344" t="s">
         <v>100</v>
@@ -20442,7 +20784,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B345" t="s">
         <v>173</v>
@@ -20456,7 +20798,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B346" t="s">
         <v>95</v>
@@ -20467,7 +20809,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B347" t="s">
         <v>92</v>
@@ -20481,7 +20823,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B348" t="s">
         <v>129</v>
@@ -20495,7 +20837,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B349" t="s">
         <v>110</v>
@@ -20506,7 +20848,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B350" t="s">
         <v>92</v>
@@ -20520,7 +20862,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B351" t="s">
         <v>89</v>
@@ -20534,7 +20876,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B352" t="s">
         <v>106</v>
@@ -20548,7 +20890,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -20562,7 +20904,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B354" t="s">
         <v>119</v>
@@ -20576,7 +20918,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B355" t="s">
         <v>119</v>
@@ -20590,7 +20932,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B356" t="s">
         <v>119</v>
@@ -20604,7 +20946,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B357" t="s">
         <v>119</v>
@@ -20618,7 +20960,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B358" t="s">
         <v>119</v>
@@ -20632,7 +20974,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B359" t="s">
         <v>89</v>
@@ -20646,7 +20988,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B360" t="s">
         <v>102</v>
@@ -20660,7 +21002,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B361" t="s">
         <v>127</v>
@@ -20674,7 +21016,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B362" t="s">
         <v>129</v>
@@ -20685,7 +21027,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B363" t="s">
         <v>89</v>
@@ -20696,7 +21038,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B364" t="s">
         <v>89</v>
@@ -20707,7 +21049,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B365" t="s">
         <v>84</v>
@@ -20721,7 +21063,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B366" t="s">
         <v>119</v>
@@ -20735,7 +21077,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B367" t="s">
         <v>87</v>
@@ -20746,7 +21088,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B368" t="s">
         <v>173</v>
@@ -20760,7 +21102,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B369" t="s">
         <v>83</v>
@@ -20774,7 +21116,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B370" t="s">
         <v>83</v>
@@ -20788,7 +21130,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B371" t="s">
         <v>102</v>
@@ -20802,7 +21144,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B372" t="s">
         <v>108</v>
@@ -20816,7 +21158,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B373" t="s">
         <v>129</v>
@@ -20827,7 +21169,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B374" t="s">
         <v>129</v>
@@ -20841,7 +21183,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B375" t="s">
         <v>127</v>
@@ -20852,7 +21194,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B376" t="s">
         <v>129</v>
@@ -20866,7 +21208,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B377" t="s">
         <v>83</v>
@@ -20877,7 +21219,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B378" t="s">
         <v>83</v>
@@ -20891,7 +21233,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B379" t="s">
         <v>83</v>
@@ -20905,7 +21247,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B380" t="s">
         <v>106</v>
@@ -20919,7 +21261,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B381" t="s">
         <v>110</v>
@@ -20933,7 +21275,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B382" t="s">
         <v>173</v>
@@ -20947,7 +21289,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B383" t="s">
         <v>129</v>
@@ -20958,7 +21300,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B384" t="s">
         <v>83</v>
@@ -20969,7 +21311,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B385" t="s">
         <v>117</v>
@@ -20980,7 +21322,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B386" t="s">
         <v>83</v>
@@ -20994,7 +21336,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B387" t="s">
         <v>87</v>
@@ -21005,7 +21347,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B388" t="s">
         <v>127</v>
@@ -21019,7 +21361,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B389" t="s">
         <v>173</v>
@@ -21030,7 +21372,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B390" t="s">
         <v>106</v>
@@ -21044,7 +21386,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B391" t="s">
         <v>127</v>
@@ -21058,7 +21400,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B392" t="s">
         <v>129</v>
@@ -21075,7 +21417,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B393" t="s">
         <v>108</v>
@@ -21086,7 +21428,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B394" t="s">
         <v>173</v>
@@ -21097,7 +21439,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B395" t="s">
         <v>173</v>
@@ -21108,7 +21450,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B396" t="s">
         <v>95</v>
@@ -21122,7 +21464,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B397" t="s">
         <v>106</v>
@@ -21133,7 +21475,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B398" t="s">
         <v>173</v>
@@ -21144,7 +21486,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B399" t="s">
         <v>97</v>
@@ -21158,7 +21500,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B400" t="s">
         <v>173</v>
@@ -21172,7 +21514,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B401" t="s">
         <v>95</v>
@@ -21186,7 +21528,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B402" t="s">
         <v>173</v>
@@ -21200,7 +21542,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B403" t="s">
         <v>129</v>
@@ -21214,7 +21556,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B404" t="s">
         <v>92</v>
@@ -21228,7 +21570,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B405" t="s">
         <v>95</v>
@@ -21239,7 +21581,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B406" t="s">
         <v>173</v>
@@ -21250,7 +21592,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B407" t="s">
         <v>89</v>
@@ -21264,7 +21606,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B408" t="s">
         <v>89</v>
@@ -21278,7 +21620,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B409" t="s">
         <v>95</v>
@@ -21289,7 +21631,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B410" t="s">
         <v>129</v>
@@ -21300,7 +21642,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B411" t="s">
         <v>83</v>
@@ -21311,7 +21653,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B412" t="s">
         <v>127</v>
@@ -21322,7 +21664,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B413" t="s">
         <v>129</v>
@@ -21336,7 +21678,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B414" t="s">
         <v>129</v>
@@ -21350,7 +21692,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B415" t="s">
         <v>173</v>
@@ -21364,7 +21706,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B416" t="s">
         <v>110</v>
@@ -21378,7 +21720,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B417" t="s">
         <v>108</v>
@@ -21389,7 +21731,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B418" t="s">
         <v>117</v>
@@ -21403,7 +21745,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B419" t="s">
         <v>83</v>
@@ -21414,7 +21756,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B420" t="s">
         <v>83</v>
@@ -21428,7 +21770,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B421" t="s">
         <v>100</v>
@@ -21442,7 +21784,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B422" t="s">
         <v>173</v>
@@ -21453,7 +21795,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B423" t="s">
         <v>87</v>
@@ -21467,7 +21809,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B424" t="s">
         <v>87</v>
@@ -21481,7 +21823,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B425" t="s">
         <v>87</v>
@@ -21492,7 +21834,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B426" t="s">
         <v>129</v>
@@ -21506,7 +21848,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B427" t="s">
         <v>102</v>
@@ -21517,7 +21859,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B428" t="s">
         <v>87</v>
@@ -21528,7 +21870,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B429" t="s">
         <v>119</v>
@@ -21542,7 +21884,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B430" t="s">
         <v>108</v>
@@ -21556,7 +21898,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B431" t="s">
         <v>89</v>
@@ -21570,7 +21912,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B432" t="s">
         <v>119</v>
@@ -21584,7 +21926,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B433" t="s">
         <v>108</v>
@@ -21598,7 +21940,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B434" t="s">
         <v>117</v>
@@ -21609,7 +21951,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B435" t="s">
         <v>116</v>
@@ -21620,7 +21962,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B436" t="s">
         <v>83</v>
@@ -21637,7 +21979,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B437" t="s">
         <v>173</v>
@@ -21651,7 +21993,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B438" t="s">
         <v>127</v>
@@ -21665,7 +22007,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B439" t="s">
         <v>119</v>
@@ -21679,7 +22021,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B440" t="s">
         <v>97</v>
@@ -21693,7 +22035,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B441" t="s">
         <v>83</v>
@@ -21707,7 +22049,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B442" t="s">
         <v>83</v>
@@ -21718,7 +22060,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B443" t="s">
         <v>117</v>
@@ -21732,7 +22074,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B444" t="s">
         <v>117</v>
@@ -21743,7 +22085,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
@@ -21757,7 +22099,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B446" t="s">
         <v>95</v>
@@ -21771,7 +22113,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B447" t="s">
         <v>95</v>
@@ -21785,7 +22127,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B448" t="s">
         <v>102</v>
@@ -21796,7 +22138,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B449" t="s">
         <v>173</v>
@@ -21810,7 +22152,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B450" t="s">
         <v>110</v>
@@ -21821,7 +22163,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -21832,7 +22174,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B452" t="s">
         <v>84</v>
@@ -21849,7 +22191,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B453" t="s">
         <v>129</v>
@@ -21860,7 +22202,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
@@ -21877,7 +22219,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B455" t="s">
         <v>106</v>
@@ -21891,7 +22233,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B456" t="s">
         <v>83</v>
@@ -21905,7 +22247,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B457" t="s">
         <v>106</v>
@@ -21919,7 +22261,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B458" t="s">
         <v>83</v>
@@ -21933,7 +22275,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B459" t="s">
         <v>106</v>
@@ -21947,7 +22289,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B460" t="s">
         <v>83</v>
@@ -21961,7 +22303,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B461" t="s">
         <v>83</v>
@@ -21975,7 +22317,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B462" t="s">
         <v>106</v>
@@ -21989,7 +22331,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
@@ -22000,7 +22342,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B464" t="s">
         <v>117</v>
@@ -22014,7 +22356,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B465" t="s">
         <v>129</v>
@@ -22025,7 +22367,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B466" t="s">
         <v>84</v>
@@ -22039,7 +22381,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B467" t="s">
         <v>173</v>
@@ -22050,7 +22392,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B468" t="s">
         <v>127</v>
@@ -22061,7 +22403,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B469" t="s">
         <v>127</v>
@@ -22075,7 +22417,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B470" t="s">
         <v>83</v>
@@ -22089,7 +22431,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B471" t="s">
         <v>129</v>
@@ -22103,7 +22445,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B472" t="s">
         <v>173</v>
@@ -22117,7 +22459,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B473" t="s">
         <v>129</v>
@@ -22128,7 +22470,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B474" t="s">
         <v>110</v>
@@ -22139,7 +22481,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B475" t="s">
         <v>102</v>
@@ -22153,7 +22495,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B476" t="s">
         <v>106</v>
@@ -22167,7 +22509,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B477" t="s">
         <v>106</v>
@@ -22181,7 +22523,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
@@ -22195,7 +22537,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B479" t="s">
         <v>129</v>
@@ -22206,7 +22548,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B480" t="s">
         <v>173</v>
@@ -22223,7 +22565,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B481" t="s">
         <v>110</v>
@@ -22237,7 +22579,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B482" t="s">
         <v>106</v>
@@ -22251,7 +22593,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B483" t="s">
         <v>173</v>
@@ -22262,7 +22604,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B484" t="s">
         <v>102</v>
@@ -22276,7 +22618,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B485" t="s">
         <v>119</v>
@@ -22287,7 +22629,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B486" t="s">
         <v>119</v>
@@ -22298,7 +22640,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B487" t="s">
         <v>102</v>
@@ -22309,7 +22651,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B488" t="s">
         <v>100</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486E070-9D3E-4205-B038-C359AF4B4D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E944BD-4867-4988-A18B-DD4F37E37661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6329" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="774">
   <si>
     <t>Name</t>
   </si>
@@ -2330,6 +2330,18 @@
   </si>
   <si>
     <t>Glalie</t>
+  </si>
+  <si>
+    <t>Dynamic Puch</t>
+  </si>
+  <si>
+    <t>Zen Headbtt</t>
+  </si>
+  <si>
+    <t>Mud Bomb</t>
+  </si>
+  <si>
+    <t>Steamroller</t>
   </si>
 </sst>
 </file>
@@ -2694,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4285,6 +4297,12 @@
       <c r="BH13" t="s">
         <v>102</v>
       </c>
+      <c r="BI13" t="s">
+        <v>772</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -7361,6 +7379,12 @@
       <c r="AD48" t="s">
         <v>83</v>
       </c>
+      <c r="AE48" t="s">
+        <v>772</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -9694,6 +9718,9 @@
       <c r="E79" t="s">
         <v>85</v>
       </c>
+      <c r="G79" t="s">
+        <v>148</v>
+      </c>
       <c r="I79" t="s">
         <v>256</v>
       </c>
@@ -9818,6 +9845,9 @@
       <c r="E81" t="s">
         <v>85</v>
       </c>
+      <c r="G81" t="s">
+        <v>148</v>
+      </c>
       <c r="I81" t="s">
         <v>329</v>
       </c>
@@ -11536,6 +11566,9 @@
       <c r="E100" t="s">
         <v>85</v>
       </c>
+      <c r="G100" t="s">
+        <v>148</v>
+      </c>
       <c r="I100" t="s">
         <v>743</v>
       </c>
@@ -11753,6 +11786,12 @@
       <c r="AJ102" t="s">
         <v>102</v>
       </c>
+      <c r="AK102" t="s">
+        <v>772</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="103" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
@@ -18077,6 +18116,9 @@
       <c r="E165" t="s">
         <v>85</v>
       </c>
+      <c r="G165" t="s">
+        <v>148</v>
+      </c>
       <c r="I165" t="s">
         <v>121</v>
       </c>
@@ -18569,6 +18611,168 @@
       <c r="E171" t="s">
         <v>85</v>
       </c>
+      <c r="I171" t="s">
+        <v>121</v>
+      </c>
+      <c r="J171" t="s">
+        <v>122</v>
+      </c>
+      <c r="K171" t="s">
+        <v>101</v>
+      </c>
+      <c r="L171" t="s">
+        <v>102</v>
+      </c>
+      <c r="M171" t="s">
+        <v>124</v>
+      </c>
+      <c r="N171" t="s">
+        <v>87</v>
+      </c>
+      <c r="O171" t="s">
+        <v>120</v>
+      </c>
+      <c r="P171" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>185</v>
+      </c>
+      <c r="R171" t="s">
+        <v>83</v>
+      </c>
+      <c r="S171" t="s">
+        <v>93</v>
+      </c>
+      <c r="T171" t="s">
+        <v>87</v>
+      </c>
+      <c r="U171" t="s">
+        <v>316</v>
+      </c>
+      <c r="V171" t="s">
+        <v>110</v>
+      </c>
+      <c r="W171" t="s">
+        <v>253</v>
+      </c>
+      <c r="X171" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP171" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR171" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT171" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV171" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW171" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX171" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY171" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ171" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA171" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB171" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC171" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD171" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE171" t="s">
+        <v>772</v>
+      </c>
+      <c r="BF171" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG171" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH171" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI171" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ171" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="172" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
@@ -18583,6 +18787,114 @@
       <c r="E172" t="s">
         <v>85</v>
       </c>
+      <c r="I172" t="s">
+        <v>121</v>
+      </c>
+      <c r="J172" t="s">
+        <v>122</v>
+      </c>
+      <c r="K172" t="s">
+        <v>263</v>
+      </c>
+      <c r="L172" t="s">
+        <v>92</v>
+      </c>
+      <c r="M172" t="s">
+        <v>199</v>
+      </c>
+      <c r="N172" t="s">
+        <v>92</v>
+      </c>
+      <c r="O172" t="s">
+        <v>101</v>
+      </c>
+      <c r="P172" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>124</v>
+      </c>
+      <c r="R172" t="s">
+        <v>87</v>
+      </c>
+      <c r="S172" t="s">
+        <v>201</v>
+      </c>
+      <c r="T172" t="s">
+        <v>92</v>
+      </c>
+      <c r="U172" t="s">
+        <v>152</v>
+      </c>
+      <c r="V172" t="s">
+        <v>87</v>
+      </c>
+      <c r="W172" t="s">
+        <v>155</v>
+      </c>
+      <c r="X172" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP172" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>773</v>
+      </c>
+      <c r="AR172" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="173" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -18597,6 +18909,102 @@
       <c r="E173" t="s">
         <v>85</v>
       </c>
+      <c r="I173" t="s">
+        <v>121</v>
+      </c>
+      <c r="J173" t="s">
+        <v>122</v>
+      </c>
+      <c r="K173" t="s">
+        <v>263</v>
+      </c>
+      <c r="L173" t="s">
+        <v>92</v>
+      </c>
+      <c r="M173" t="s">
+        <v>199</v>
+      </c>
+      <c r="N173" t="s">
+        <v>92</v>
+      </c>
+      <c r="O173" t="s">
+        <v>101</v>
+      </c>
+      <c r="P173" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>124</v>
+      </c>
+      <c r="R173" t="s">
+        <v>87</v>
+      </c>
+      <c r="S173" t="s">
+        <v>201</v>
+      </c>
+      <c r="T173" t="s">
+        <v>92</v>
+      </c>
+      <c r="U173" t="s">
+        <v>152</v>
+      </c>
+      <c r="V173" t="s">
+        <v>87</v>
+      </c>
+      <c r="W173" t="s">
+        <v>155</v>
+      </c>
+      <c r="X173" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>773</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="174" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -18611,6 +19019,126 @@
       <c r="E174" t="s">
         <v>85</v>
       </c>
+      <c r="I174" t="s">
+        <v>101</v>
+      </c>
+      <c r="J174" t="s">
+        <v>102</v>
+      </c>
+      <c r="K174" t="s">
+        <v>104</v>
+      </c>
+      <c r="L174" t="s">
+        <v>87</v>
+      </c>
+      <c r="M174" t="s">
+        <v>124</v>
+      </c>
+      <c r="N174" t="s">
+        <v>87</v>
+      </c>
+      <c r="O174" t="s">
+        <v>254</v>
+      </c>
+      <c r="P174" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>156</v>
+      </c>
+      <c r="R174" t="s">
+        <v>84</v>
+      </c>
+      <c r="S174" t="s">
+        <v>126</v>
+      </c>
+      <c r="T174" t="s">
+        <v>127</v>
+      </c>
+      <c r="U174" t="s">
+        <v>154</v>
+      </c>
+      <c r="V174" t="s">
+        <v>102</v>
+      </c>
+      <c r="W174" t="s">
+        <v>256</v>
+      </c>
+      <c r="X174" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP174" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR174" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS174" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT174" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV174" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="175" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
@@ -18625,6 +19153,198 @@
       <c r="E175" t="s">
         <v>85</v>
       </c>
+      <c r="I175" t="s">
+        <v>263</v>
+      </c>
+      <c r="J175" t="s">
+        <v>92</v>
+      </c>
+      <c r="K175" t="s">
+        <v>199</v>
+      </c>
+      <c r="L175" t="s">
+        <v>92</v>
+      </c>
+      <c r="M175" t="s">
+        <v>101</v>
+      </c>
+      <c r="N175" t="s">
+        <v>102</v>
+      </c>
+      <c r="O175" t="s">
+        <v>104</v>
+      </c>
+      <c r="P175" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>124</v>
+      </c>
+      <c r="R175" t="s">
+        <v>87</v>
+      </c>
+      <c r="S175" t="s">
+        <v>185</v>
+      </c>
+      <c r="T175" t="s">
+        <v>83</v>
+      </c>
+      <c r="U175" t="s">
+        <v>334</v>
+      </c>
+      <c r="V175" t="s">
+        <v>117</v>
+      </c>
+      <c r="W175" t="s">
+        <v>201</v>
+      </c>
+      <c r="X175" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP175" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>752</v>
+      </c>
+      <c r="AR175" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS175" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT175" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV175" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW175" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX175" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY175" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ175" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA175" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB175" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC175" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD175" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE175" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF175" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG175" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH175" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI175" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ175" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK175" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL175" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM175" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN175" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO175" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP175" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ175" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR175" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS175" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT175" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="176" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
@@ -18640,7 +19360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>427</v>
       </c>
@@ -18654,7 +19374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>428</v>
       </c>
@@ -18665,7 +19385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>429</v>
       </c>
@@ -18676,7 +19396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -18690,7 +19410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>431</v>
       </c>
@@ -18707,7 +19427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>432</v>
       </c>
@@ -18717,8 +19437,11 @@
       <c r="E182" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>433</v>
       </c>
@@ -18729,7 +19452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>434</v>
       </c>
@@ -18740,7 +19463,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>435</v>
       </c>
@@ -18754,7 +19477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>436</v>
       </c>
@@ -18765,7 +19488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>437</v>
       </c>
@@ -18776,7 +19499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>438</v>
       </c>
@@ -18790,7 +19513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>439</v>
       </c>
@@ -18801,7 +19524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>440</v>
       </c>
@@ -18812,7 +19535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>441</v>
       </c>
@@ -18826,7 +19549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>442</v>
       </c>
@@ -19458,7 +20181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -19472,7 +20195,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>492</v>
       </c>
@@ -19483,7 +20206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -19494,7 +20217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>494</v>
       </c>
@@ -19505,7 +20228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>495</v>
       </c>
@@ -19516,7 +20239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>496</v>
       </c>
@@ -19527,7 +20250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>497</v>
       </c>
@@ -19538,7 +20261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>498</v>
       </c>
@@ -19549,7 +20272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>499</v>
       </c>
@@ -19560,7 +20283,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>500</v>
       </c>
@@ -19574,7 +20297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -19584,8 +20307,11 @@
       <c r="E251" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G251" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -19599,7 +20325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -19613,7 +20339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -19624,7 +20350,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -19638,7 +20364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>506</v>
       </c>
@@ -19991,6 +20717,9 @@
       <c r="E282" t="s">
         <v>85</v>
       </c>
+      <c r="G282" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
@@ -20888,7 +21617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>603</v>
       </c>
@@ -20902,7 +21631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>604</v>
       </c>
@@ -20916,7 +21645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>605</v>
       </c>
@@ -20930,7 +21659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>606</v>
       </c>
@@ -20944,7 +21673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>607</v>
       </c>
@@ -20958,7 +21687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>608</v>
       </c>
@@ -20972,7 +21701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>609</v>
       </c>
@@ -20986,7 +21715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>610</v>
       </c>
@@ -21000,7 +21729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>611</v>
       </c>
@@ -21014,7 +21743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>612</v>
       </c>
@@ -21025,7 +21754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>613</v>
       </c>
@@ -21036,7 +21765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>614</v>
       </c>
@@ -21047,7 +21776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>615</v>
       </c>
@@ -21061,7 +21790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>616</v>
       </c>
@@ -21074,8 +21803,11 @@
       <c r="E366" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G366" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>617</v>
       </c>
@@ -21086,7 +21818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>618</v>
       </c>
@@ -21924,7 +22656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>683</v>
       </c>
@@ -21938,7 +22670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>684</v>
       </c>
@@ -21949,7 +22681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>685</v>
       </c>
@@ -21960,7 +22692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>686</v>
       </c>
@@ -21977,7 +22709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>687</v>
       </c>
@@ -21991,7 +22723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>688</v>
       </c>
@@ -22004,8 +22736,11 @@
       <c r="E438" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G438" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>689</v>
       </c>
@@ -22019,7 +22754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>690</v>
       </c>
@@ -22033,7 +22768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>691</v>
       </c>
@@ -22047,7 +22782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>692</v>
       </c>
@@ -22057,8 +22792,11 @@
       <c r="E442" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G442" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>693</v>
       </c>
@@ -22072,7 +22810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>694</v>
       </c>
@@ -22083,7 +22821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>695</v>
       </c>
@@ -22097,7 +22835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>696</v>
       </c>
@@ -22111,7 +22849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>697</v>
       </c>
@@ -22125,7 +22863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>698</v>
       </c>
@@ -22199,6 +22937,9 @@
       <c r="E453" t="s">
         <v>85</v>
       </c>
+      <c r="G453" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
@@ -22400,6 +23141,9 @@
       <c r="E468" t="s">
         <v>85</v>
       </c>
+      <c r="G468" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
@@ -22563,7 +23307,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>731</v>
       </c>
@@ -22577,7 +23321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>732</v>
       </c>
@@ -22591,7 +23335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>733</v>
       </c>
@@ -22602,7 +23346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>734</v>
       </c>
@@ -22616,7 +23360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>735</v>
       </c>
@@ -22627,7 +23371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>736</v>
       </c>
@@ -22638,7 +23382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>737</v>
       </c>
@@ -22649,7 +23393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>738</v>
       </c>
@@ -22661,6 +23405,9 @@
       </c>
       <c r="E488" t="s">
         <v>85</v>
+      </c>
+      <c r="G488" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E944BD-4867-4988-A18B-DD4F37E37661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B617704A-5FA8-42A3-821E-5E709E6A8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6574" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="774">
   <si>
     <t>Name</t>
   </si>
@@ -2706,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView tabSelected="1" topLeftCell="K168" workbookViewId="0">
+      <selection activeCell="AC180" sqref="AC180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19359,8 +19359,146 @@
       <c r="G176" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I176" t="s">
+        <v>121</v>
+      </c>
+      <c r="J176" t="s">
+        <v>122</v>
+      </c>
+      <c r="K176" t="s">
+        <v>124</v>
+      </c>
+      <c r="L176" t="s">
+        <v>87</v>
+      </c>
+      <c r="M176" t="s">
+        <v>310</v>
+      </c>
+      <c r="N176" t="s">
+        <v>83</v>
+      </c>
+      <c r="O176" t="s">
+        <v>152</v>
+      </c>
+      <c r="P176" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>225</v>
+      </c>
+      <c r="R176" t="s">
+        <v>129</v>
+      </c>
+      <c r="S176" t="s">
+        <v>88</v>
+      </c>
+      <c r="T176" t="s">
+        <v>89</v>
+      </c>
+      <c r="U176" t="s">
+        <v>91</v>
+      </c>
+      <c r="V176" t="s">
+        <v>92</v>
+      </c>
+      <c r="W176" t="s">
+        <v>254</v>
+      </c>
+      <c r="X176" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP176" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR176" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS176" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT176" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV176" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW176" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX176" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY176" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ176" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA176" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB176" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>427</v>
       </c>
@@ -19373,8 +19511,128 @@
       <c r="E177" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I177" t="s">
+        <v>121</v>
+      </c>
+      <c r="J177" t="s">
+        <v>122</v>
+      </c>
+      <c r="K177" t="s">
+        <v>225</v>
+      </c>
+      <c r="L177" t="s">
+        <v>129</v>
+      </c>
+      <c r="M177" t="s">
+        <v>88</v>
+      </c>
+      <c r="N177" t="s">
+        <v>89</v>
+      </c>
+      <c r="O177" t="s">
+        <v>254</v>
+      </c>
+      <c r="P177" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>155</v>
+      </c>
+      <c r="R177" t="s">
+        <v>117</v>
+      </c>
+      <c r="S177" t="s">
+        <v>156</v>
+      </c>
+      <c r="T177" t="s">
+        <v>84</v>
+      </c>
+      <c r="U177" t="s">
+        <v>126</v>
+      </c>
+      <c r="V177" t="s">
+        <v>127</v>
+      </c>
+      <c r="W177" t="s">
+        <v>157</v>
+      </c>
+      <c r="X177" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP177" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR177" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS177" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT177" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>428</v>
       </c>
@@ -19384,8 +19642,38 @@
       <c r="E178" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I178" t="s">
+        <v>156</v>
+      </c>
+      <c r="J178" t="s">
+        <v>84</v>
+      </c>
+      <c r="K178" t="s">
+        <v>110</v>
+      </c>
+      <c r="L178" t="s">
+        <v>110</v>
+      </c>
+      <c r="M178" t="s">
+        <v>115</v>
+      </c>
+      <c r="N178" t="s">
+        <v>116</v>
+      </c>
+      <c r="O178" t="s">
+        <v>96</v>
+      </c>
+      <c r="P178" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>194</v>
+      </c>
+      <c r="R178" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>429</v>
       </c>
@@ -19395,8 +19683,98 @@
       <c r="E179" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I179" t="s">
+        <v>204</v>
+      </c>
+      <c r="J179" t="s">
+        <v>122</v>
+      </c>
+      <c r="K179" t="s">
+        <v>101</v>
+      </c>
+      <c r="L179" t="s">
+        <v>102</v>
+      </c>
+      <c r="M179" t="s">
+        <v>124</v>
+      </c>
+      <c r="N179" t="s">
+        <v>87</v>
+      </c>
+      <c r="O179" t="s">
+        <v>185</v>
+      </c>
+      <c r="P179" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>175</v>
+      </c>
+      <c r="R179" t="s">
+        <v>102</v>
+      </c>
+      <c r="S179" t="s">
+        <v>125</v>
+      </c>
+      <c r="T179" t="s">
+        <v>83</v>
+      </c>
+      <c r="U179" t="s">
+        <v>118</v>
+      </c>
+      <c r="V179" t="s">
+        <v>119</v>
+      </c>
+      <c r="W179" t="s">
+        <v>154</v>
+      </c>
+      <c r="X179" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -19409,8 +19787,68 @@
       <c r="E180" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I180" t="s">
+        <v>199</v>
+      </c>
+      <c r="J180" t="s">
+        <v>92</v>
+      </c>
+      <c r="K180" t="s">
+        <v>124</v>
+      </c>
+      <c r="L180" t="s">
+        <v>87</v>
+      </c>
+      <c r="M180" t="s">
+        <v>175</v>
+      </c>
+      <c r="N180" t="s">
+        <v>102</v>
+      </c>
+      <c r="O180" t="s">
+        <v>169</v>
+      </c>
+      <c r="P180" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>110</v>
+      </c>
+      <c r="R180" t="s">
+        <v>110</v>
+      </c>
+      <c r="S180" t="s">
+        <v>126</v>
+      </c>
+      <c r="T180" t="s">
+        <v>127</v>
+      </c>
+      <c r="U180" t="s">
+        <v>154</v>
+      </c>
+      <c r="V180" t="s">
+        <v>102</v>
+      </c>
+      <c r="W180" t="s">
+        <v>94</v>
+      </c>
+      <c r="X180" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>431</v>
       </c>
@@ -19427,7 +19865,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>432</v>
       </c>
@@ -19441,7 +19879,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>433</v>
       </c>
@@ -19452,7 +19890,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>434</v>
       </c>
@@ -19463,7 +19901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>435</v>
       </c>
@@ -19477,7 +19915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>436</v>
       </c>
@@ -19488,7 +19926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>437</v>
       </c>
@@ -19499,7 +19937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>438</v>
       </c>
@@ -19513,7 +19951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>439</v>
       </c>
@@ -19524,7 +19962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>440</v>
       </c>
@@ -19535,7 +19973,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>441</v>
       </c>
@@ -19549,7 +19987,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>442</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B617704A-5FA8-42A3-821E-5E709E6A8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8093A6D-BE4E-41B6-BF67-91BA4C3F93A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="775">
   <si>
     <t>Name</t>
   </si>
@@ -2342,6 +2342,9 @@
   </si>
   <si>
     <t>Steamroller</t>
+  </si>
+  <si>
+    <t>Octazooka</t>
   </si>
 </sst>
 </file>
@@ -2706,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K168" workbookViewId="0">
-      <selection activeCell="AC180" sqref="AC180"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19498,7 +19501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>427</v>
       </c>
@@ -19632,7 +19635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>428</v>
       </c>
@@ -19673,7 +19676,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="179" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>429</v>
       </c>
@@ -19774,7 +19777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="180" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -19848,7 +19851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>431</v>
       </c>
@@ -19864,8 +19867,80 @@
       <c r="F181" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="182" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I181" t="s">
+        <v>101</v>
+      </c>
+      <c r="J181" t="s">
+        <v>102</v>
+      </c>
+      <c r="K181" t="s">
+        <v>93</v>
+      </c>
+      <c r="L181" t="s">
+        <v>87</v>
+      </c>
+      <c r="M181" t="s">
+        <v>175</v>
+      </c>
+      <c r="N181" t="s">
+        <v>102</v>
+      </c>
+      <c r="O181" t="s">
+        <v>186</v>
+      </c>
+      <c r="P181" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>113</v>
+      </c>
+      <c r="R181" t="s">
+        <v>106</v>
+      </c>
+      <c r="S181" t="s">
+        <v>160</v>
+      </c>
+      <c r="T181" t="s">
+        <v>89</v>
+      </c>
+      <c r="U181" t="s">
+        <v>111</v>
+      </c>
+      <c r="V181" t="s">
+        <v>97</v>
+      </c>
+      <c r="W181" t="s">
+        <v>179</v>
+      </c>
+      <c r="X181" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>432</v>
       </c>
@@ -19878,8 +19953,224 @@
       <c r="G182" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I182" t="s">
+        <v>121</v>
+      </c>
+      <c r="J182" t="s">
+        <v>122</v>
+      </c>
+      <c r="K182" t="s">
+        <v>133</v>
+      </c>
+      <c r="L182" t="s">
+        <v>87</v>
+      </c>
+      <c r="M182" t="s">
+        <v>348</v>
+      </c>
+      <c r="N182" t="s">
+        <v>117</v>
+      </c>
+      <c r="O182" t="s">
+        <v>101</v>
+      </c>
+      <c r="P182" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>104</v>
+      </c>
+      <c r="R182" t="s">
+        <v>87</v>
+      </c>
+      <c r="S182" t="s">
+        <v>124</v>
+      </c>
+      <c r="T182" t="s">
+        <v>87</v>
+      </c>
+      <c r="U182" t="s">
+        <v>93</v>
+      </c>
+      <c r="V182" t="s">
+        <v>87</v>
+      </c>
+      <c r="W182" t="s">
+        <v>99</v>
+      </c>
+      <c r="X182" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP182" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR182" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS182" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT182" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX182" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY182" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ182" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA182" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB182" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC182" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD182" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE182" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF182" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG182" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH182" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI182" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ182" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK182" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL182" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM182" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN182" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO182" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP182" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ182" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR182" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS182" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT182" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU182" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV182" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW182" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX182" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY182" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ182" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA182" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB182" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>433</v>
       </c>
@@ -19889,8 +20180,92 @@
       <c r="E183" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="184" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I183" t="s">
+        <v>225</v>
+      </c>
+      <c r="J183" t="s">
+        <v>129</v>
+      </c>
+      <c r="K183" t="s">
+        <v>157</v>
+      </c>
+      <c r="L183" t="s">
+        <v>129</v>
+      </c>
+      <c r="M183" t="s">
+        <v>270</v>
+      </c>
+      <c r="N183" t="s">
+        <v>129</v>
+      </c>
+      <c r="O183" t="s">
+        <v>232</v>
+      </c>
+      <c r="P183" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>750</v>
+      </c>
+      <c r="R183" t="s">
+        <v>129</v>
+      </c>
+      <c r="S183" t="s">
+        <v>160</v>
+      </c>
+      <c r="T183" t="s">
+        <v>89</v>
+      </c>
+      <c r="U183" t="s">
+        <v>264</v>
+      </c>
+      <c r="V183" t="s">
+        <v>129</v>
+      </c>
+      <c r="W183" t="s">
+        <v>151</v>
+      </c>
+      <c r="X183" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>774</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>434</v>
       </c>
@@ -19900,8 +20275,128 @@
       <c r="E184" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="185" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I184" t="s">
+        <v>121</v>
+      </c>
+      <c r="J184" t="s">
+        <v>122</v>
+      </c>
+      <c r="K184" t="s">
+        <v>199</v>
+      </c>
+      <c r="L184" t="s">
+        <v>92</v>
+      </c>
+      <c r="M184" t="s">
+        <v>101</v>
+      </c>
+      <c r="N184" t="s">
+        <v>102</v>
+      </c>
+      <c r="O184" t="s">
+        <v>152</v>
+      </c>
+      <c r="P184" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>297</v>
+      </c>
+      <c r="R184" t="s">
+        <v>127</v>
+      </c>
+      <c r="S184" t="s">
+        <v>88</v>
+      </c>
+      <c r="T184" t="s">
+        <v>89</v>
+      </c>
+      <c r="U184" t="s">
+        <v>91</v>
+      </c>
+      <c r="V184" t="s">
+        <v>92</v>
+      </c>
+      <c r="W184" t="s">
+        <v>214</v>
+      </c>
+      <c r="X184" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS184" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT184" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>435</v>
       </c>
@@ -19914,8 +20409,110 @@
       <c r="E185" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="186" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I185" t="s">
+        <v>124</v>
+      </c>
+      <c r="J185" t="s">
+        <v>87</v>
+      </c>
+      <c r="K185" t="s">
+        <v>93</v>
+      </c>
+      <c r="L185" t="s">
+        <v>87</v>
+      </c>
+      <c r="M185" t="s">
+        <v>310</v>
+      </c>
+      <c r="N185" t="s">
+        <v>83</v>
+      </c>
+      <c r="O185" t="s">
+        <v>152</v>
+      </c>
+      <c r="P185" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>742</v>
+      </c>
+      <c r="R185" t="s">
+        <v>87</v>
+      </c>
+      <c r="S185" t="s">
+        <v>98</v>
+      </c>
+      <c r="T185" t="s">
+        <v>87</v>
+      </c>
+      <c r="U185" t="s">
+        <v>207</v>
+      </c>
+      <c r="V185" t="s">
+        <v>106</v>
+      </c>
+      <c r="W185" t="s">
+        <v>86</v>
+      </c>
+      <c r="X185" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP185" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>436</v>
       </c>
@@ -19926,7 +20523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>437</v>
       </c>
@@ -19937,7 +20534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>438</v>
       </c>
@@ -19951,7 +20548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>439</v>
       </c>
@@ -19962,7 +20559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="190" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>440</v>
       </c>
@@ -19973,7 +20570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>441</v>
       </c>
@@ -19987,7 +20584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>442</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8093A6D-BE4E-41B6-BF67-91BA4C3F93A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039FC02-AF01-4ABA-9512-0A9406E51B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="777">
   <si>
     <t>Name</t>
   </si>
@@ -2345,6 +2345,12 @@
   </si>
   <si>
     <t>Octazooka</t>
+  </si>
+  <si>
+    <t>Headlong Rush</t>
+  </si>
+  <si>
+    <t>Bullet Punch</t>
   </si>
 </sst>
 </file>
@@ -2710,7 +2716,7 @@
   <dimension ref="A1:CD488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+      <selection activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20522,6 +20528,186 @@
       <c r="E186" t="s">
         <v>85</v>
       </c>
+      <c r="I186" t="s">
+        <v>121</v>
+      </c>
+      <c r="J186" t="s">
+        <v>122</v>
+      </c>
+      <c r="K186" t="s">
+        <v>204</v>
+      </c>
+      <c r="L186" t="s">
+        <v>122</v>
+      </c>
+      <c r="M186" t="s">
+        <v>101</v>
+      </c>
+      <c r="N186" t="s">
+        <v>102</v>
+      </c>
+      <c r="O186" t="s">
+        <v>124</v>
+      </c>
+      <c r="P186" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>185</v>
+      </c>
+      <c r="R186" t="s">
+        <v>83</v>
+      </c>
+      <c r="S186" t="s">
+        <v>93</v>
+      </c>
+      <c r="T186" t="s">
+        <v>87</v>
+      </c>
+      <c r="U186" t="s">
+        <v>297</v>
+      </c>
+      <c r="V186" t="s">
+        <v>127</v>
+      </c>
+      <c r="W186" t="s">
+        <v>91</v>
+      </c>
+      <c r="X186" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW186" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX186" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY186" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ186" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA186" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB186" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC186" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE186" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF186" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG186" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH186" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI186" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ186" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK186" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL186" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM186" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN186" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO186" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP186" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="187" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
@@ -20533,6 +20719,162 @@
       <c r="E187" t="s">
         <v>85</v>
       </c>
+      <c r="I187" t="s">
+        <v>133</v>
+      </c>
+      <c r="J187" t="s">
+        <v>87</v>
+      </c>
+      <c r="K187" t="s">
+        <v>101</v>
+      </c>
+      <c r="L187" t="s">
+        <v>102</v>
+      </c>
+      <c r="M187" t="s">
+        <v>88</v>
+      </c>
+      <c r="N187" t="s">
+        <v>89</v>
+      </c>
+      <c r="O187" t="s">
+        <v>91</v>
+      </c>
+      <c r="P187" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>214</v>
+      </c>
+      <c r="R187" t="s">
+        <v>119</v>
+      </c>
+      <c r="S187" t="s">
+        <v>142</v>
+      </c>
+      <c r="T187" t="s">
+        <v>110</v>
+      </c>
+      <c r="U187" t="s">
+        <v>137</v>
+      </c>
+      <c r="V187" t="s">
+        <v>102</v>
+      </c>
+      <c r="W187" t="s">
+        <v>177</v>
+      </c>
+      <c r="X187" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY187" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ187" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA187" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC187" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE187" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF187" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG187" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH187" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="188" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
@@ -20547,6 +20889,138 @@
       <c r="E188" t="s">
         <v>85</v>
       </c>
+      <c r="I188" t="s">
+        <v>199</v>
+      </c>
+      <c r="J188" t="s">
+        <v>92</v>
+      </c>
+      <c r="K188" t="s">
+        <v>88</v>
+      </c>
+      <c r="L188" t="s">
+        <v>89</v>
+      </c>
+      <c r="M188" t="s">
+        <v>334</v>
+      </c>
+      <c r="N188" t="s">
+        <v>117</v>
+      </c>
+      <c r="O188" t="s">
+        <v>201</v>
+      </c>
+      <c r="P188" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>297</v>
+      </c>
+      <c r="R188" t="s">
+        <v>127</v>
+      </c>
+      <c r="S188" t="s">
+        <v>742</v>
+      </c>
+      <c r="T188" t="s">
+        <v>87</v>
+      </c>
+      <c r="U188" t="s">
+        <v>112</v>
+      </c>
+      <c r="V188" t="s">
+        <v>95</v>
+      </c>
+      <c r="W188" t="s">
+        <v>91</v>
+      </c>
+      <c r="X188" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP188" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>773</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="189" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
@@ -20558,6 +21032,138 @@
       <c r="E189" t="s">
         <v>85</v>
       </c>
+      <c r="I189" t="s">
+        <v>101</v>
+      </c>
+      <c r="J189" t="s">
+        <v>102</v>
+      </c>
+      <c r="K189" t="s">
+        <v>775</v>
+      </c>
+      <c r="L189" t="s">
+        <v>89</v>
+      </c>
+      <c r="M189" t="s">
+        <v>201</v>
+      </c>
+      <c r="N189" t="s">
+        <v>92</v>
+      </c>
+      <c r="O189" t="s">
+        <v>88</v>
+      </c>
+      <c r="P189" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>112</v>
+      </c>
+      <c r="R189" t="s">
+        <v>95</v>
+      </c>
+      <c r="S189" t="s">
+        <v>157</v>
+      </c>
+      <c r="T189" t="s">
+        <v>129</v>
+      </c>
+      <c r="U189" t="s">
+        <v>141</v>
+      </c>
+      <c r="V189" t="s">
+        <v>92</v>
+      </c>
+      <c r="W189" t="s">
+        <v>203</v>
+      </c>
+      <c r="X189" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR189" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS189" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT189" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY189" t="s">
+        <v>776</v>
+      </c>
+      <c r="AZ189" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="190" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
@@ -20568,6 +21174,120 @@
       </c>
       <c r="E190" t="s">
         <v>85</v>
+      </c>
+      <c r="I190" t="s">
+        <v>101</v>
+      </c>
+      <c r="J190" t="s">
+        <v>102</v>
+      </c>
+      <c r="K190" t="s">
+        <v>124</v>
+      </c>
+      <c r="L190" t="s">
+        <v>87</v>
+      </c>
+      <c r="M190" t="s">
+        <v>93</v>
+      </c>
+      <c r="N190" t="s">
+        <v>87</v>
+      </c>
+      <c r="O190" t="s">
+        <v>152</v>
+      </c>
+      <c r="P190" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>297</v>
+      </c>
+      <c r="R190" t="s">
+        <v>127</v>
+      </c>
+      <c r="S190" t="s">
+        <v>166</v>
+      </c>
+      <c r="T190" t="s">
+        <v>83</v>
+      </c>
+      <c r="U190" t="s">
+        <v>186</v>
+      </c>
+      <c r="V190" t="s">
+        <v>102</v>
+      </c>
+      <c r="W190" t="s">
+        <v>160</v>
+      </c>
+      <c r="X190" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP190" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR190" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS190" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT190" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:80" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039FC02-AF01-4ABA-9512-0A9406E51B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104532C0-6CFA-4C0F-9900-E686866E6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="779">
   <si>
     <t>Name</t>
   </si>
@@ -2351,6 +2351,12 @@
   </si>
   <si>
     <t>Bullet Punch</t>
+  </si>
+  <si>
+    <t>Blaze Kick</t>
+  </si>
+  <si>
+    <t>Brutal Swing</t>
   </si>
 </sst>
 </file>
@@ -2715,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21303,6 +21309,120 @@
       <c r="E191" t="s">
         <v>85</v>
       </c>
+      <c r="I191" t="s">
+        <v>124</v>
+      </c>
+      <c r="J191" t="s">
+        <v>87</v>
+      </c>
+      <c r="K191" t="s">
+        <v>185</v>
+      </c>
+      <c r="L191" t="s">
+        <v>83</v>
+      </c>
+      <c r="M191" t="s">
+        <v>93</v>
+      </c>
+      <c r="N191" t="s">
+        <v>87</v>
+      </c>
+      <c r="O191" t="s">
+        <v>166</v>
+      </c>
+      <c r="P191" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>91</v>
+      </c>
+      <c r="R191" t="s">
+        <v>92</v>
+      </c>
+      <c r="S191" t="s">
+        <v>158</v>
+      </c>
+      <c r="T191" t="s">
+        <v>100</v>
+      </c>
+      <c r="U191" t="s">
+        <v>157</v>
+      </c>
+      <c r="V191" t="s">
+        <v>129</v>
+      </c>
+      <c r="W191" t="s">
+        <v>144</v>
+      </c>
+      <c r="X191" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR191" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS191" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT191" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="192" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
@@ -21317,8 +21437,110 @@
       <c r="E192" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I192" t="s">
+        <v>121</v>
+      </c>
+      <c r="J192" t="s">
+        <v>122</v>
+      </c>
+      <c r="K192" t="s">
+        <v>101</v>
+      </c>
+      <c r="L192" t="s">
+        <v>102</v>
+      </c>
+      <c r="M192" t="s">
+        <v>88</v>
+      </c>
+      <c r="N192" t="s">
+        <v>89</v>
+      </c>
+      <c r="O192" t="s">
+        <v>112</v>
+      </c>
+      <c r="P192" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>186</v>
+      </c>
+      <c r="R192" t="s">
+        <v>102</v>
+      </c>
+      <c r="S192" t="s">
+        <v>160</v>
+      </c>
+      <c r="T192" t="s">
+        <v>89</v>
+      </c>
+      <c r="U192" t="s">
+        <v>94</v>
+      </c>
+      <c r="V192" t="s">
+        <v>95</v>
+      </c>
+      <c r="W192" t="s">
+        <v>111</v>
+      </c>
+      <c r="X192" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>443</v>
       </c>
@@ -21328,8 +21550,98 @@
       <c r="E193" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I193" t="s">
+        <v>101</v>
+      </c>
+      <c r="J193" t="s">
+        <v>102</v>
+      </c>
+      <c r="K193" t="s">
+        <v>88</v>
+      </c>
+      <c r="L193" t="s">
+        <v>89</v>
+      </c>
+      <c r="M193" t="s">
+        <v>112</v>
+      </c>
+      <c r="N193" t="s">
+        <v>95</v>
+      </c>
+      <c r="O193" t="s">
+        <v>203</v>
+      </c>
+      <c r="P193" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>186</v>
+      </c>
+      <c r="R193" t="s">
+        <v>102</v>
+      </c>
+      <c r="S193" t="s">
+        <v>94</v>
+      </c>
+      <c r="T193" t="s">
+        <v>95</v>
+      </c>
+      <c r="U193" t="s">
+        <v>150</v>
+      </c>
+      <c r="V193" t="s">
+        <v>117</v>
+      </c>
+      <c r="W193" t="s">
+        <v>153</v>
+      </c>
+      <c r="X193" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>444</v>
       </c>
@@ -21339,8 +21651,104 @@
       <c r="E194" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I194" t="s">
+        <v>101</v>
+      </c>
+      <c r="J194" t="s">
+        <v>102</v>
+      </c>
+      <c r="K194" t="s">
+        <v>88</v>
+      </c>
+      <c r="L194" t="s">
+        <v>89</v>
+      </c>
+      <c r="M194" t="s">
+        <v>112</v>
+      </c>
+      <c r="N194" t="s">
+        <v>95</v>
+      </c>
+      <c r="O194" t="s">
+        <v>777</v>
+      </c>
+      <c r="P194" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>115</v>
+      </c>
+      <c r="R194" t="s">
+        <v>116</v>
+      </c>
+      <c r="S194" t="s">
+        <v>295</v>
+      </c>
+      <c r="T194" t="s">
+        <v>106</v>
+      </c>
+      <c r="U194" t="s">
+        <v>203</v>
+      </c>
+      <c r="V194" t="s">
+        <v>127</v>
+      </c>
+      <c r="W194" t="s">
+        <v>186</v>
+      </c>
+      <c r="X194" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>776</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>445</v>
       </c>
@@ -21350,8 +21758,104 @@
       <c r="E195" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I195" t="s">
+        <v>121</v>
+      </c>
+      <c r="J195" t="s">
+        <v>122</v>
+      </c>
+      <c r="K195" t="s">
+        <v>199</v>
+      </c>
+      <c r="L195" t="s">
+        <v>92</v>
+      </c>
+      <c r="M195" t="s">
+        <v>88</v>
+      </c>
+      <c r="N195" t="s">
+        <v>89</v>
+      </c>
+      <c r="O195" t="s">
+        <v>112</v>
+      </c>
+      <c r="P195" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>256</v>
+      </c>
+      <c r="R195" t="s">
+        <v>89</v>
+      </c>
+      <c r="S195" t="s">
+        <v>249</v>
+      </c>
+      <c r="T195" t="s">
+        <v>84</v>
+      </c>
+      <c r="U195" t="s">
+        <v>160</v>
+      </c>
+      <c r="V195" t="s">
+        <v>89</v>
+      </c>
+      <c r="W195" t="s">
+        <v>94</v>
+      </c>
+      <c r="X195" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>776</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>446</v>
       </c>
@@ -21365,7 +21869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>447</v>
       </c>
@@ -21379,7 +21883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>448</v>
       </c>
@@ -21393,7 +21897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -21404,7 +21908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>450</v>
       </c>
@@ -21415,7 +21919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>451</v>
       </c>
@@ -21426,7 +21930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>452</v>
       </c>
@@ -21437,7 +21941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>453</v>
       </c>
@@ -21451,7 +21955,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -21465,7 +21969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>455</v>
       </c>
@@ -21479,7 +21983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>456</v>
       </c>
@@ -21493,7 +21997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>457</v>
       </c>
@@ -21504,7 +22008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>458</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104532C0-6CFA-4C0F-9900-E686866E6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842114FE-B74B-43E5-B068-3872368B94EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="780">
   <si>
     <t>Name</t>
   </si>
@@ -2357,6 +2357,9 @@
   </si>
   <si>
     <t>Brutal Swing</t>
+  </si>
+  <si>
+    <t>Comeuppance</t>
   </si>
 </sst>
 </file>
@@ -2721,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="R160" workbookViewId="0">
+      <selection activeCell="AA172" sqref="AA172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18681,7 +18684,7 @@
         <v>92</v>
       </c>
       <c r="AA171" t="s">
-        <v>770</v>
+        <v>159</v>
       </c>
       <c r="AB171" t="s">
         <v>87</v>
@@ -21540,7 +21543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>443</v>
       </c>
@@ -21641,7 +21644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>444</v>
       </c>
@@ -21748,7 +21751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>445</v>
       </c>
@@ -21855,7 +21858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>446</v>
       </c>
@@ -21868,8 +21871,62 @@
       <c r="E196" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I196" t="s">
+        <v>779</v>
+      </c>
+      <c r="J196" t="s">
+        <v>122</v>
+      </c>
+      <c r="K196" t="s">
+        <v>152</v>
+      </c>
+      <c r="L196" t="s">
+        <v>87</v>
+      </c>
+      <c r="M196" t="s">
+        <v>219</v>
+      </c>
+      <c r="N196" t="s">
+        <v>117</v>
+      </c>
+      <c r="O196" t="s">
+        <v>110</v>
+      </c>
+      <c r="P196" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>96</v>
+      </c>
+      <c r="R196" t="s">
+        <v>97</v>
+      </c>
+      <c r="S196" t="s">
+        <v>759</v>
+      </c>
+      <c r="T196" t="s">
+        <v>110</v>
+      </c>
+      <c r="U196" t="s">
+        <v>170</v>
+      </c>
+      <c r="V196" t="s">
+        <v>92</v>
+      </c>
+      <c r="W196" t="s">
+        <v>179</v>
+      </c>
+      <c r="X196" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>447</v>
       </c>
@@ -21882,8 +21939,122 @@
       <c r="E197" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I197" t="s">
+        <v>101</v>
+      </c>
+      <c r="J197" t="s">
+        <v>102</v>
+      </c>
+      <c r="K197" t="s">
+        <v>124</v>
+      </c>
+      <c r="L197" t="s">
+        <v>87</v>
+      </c>
+      <c r="M197" t="s">
+        <v>185</v>
+      </c>
+      <c r="N197" t="s">
+        <v>176</v>
+      </c>
+      <c r="O197" t="s">
+        <v>203</v>
+      </c>
+      <c r="P197" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>125</v>
+      </c>
+      <c r="R197" t="s">
+        <v>83</v>
+      </c>
+      <c r="S197" t="s">
+        <v>118</v>
+      </c>
+      <c r="T197" t="s">
+        <v>119</v>
+      </c>
+      <c r="U197" t="s">
+        <v>154</v>
+      </c>
+      <c r="V197" t="s">
+        <v>102</v>
+      </c>
+      <c r="W197" t="s">
+        <v>186</v>
+      </c>
+      <c r="X197" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS197" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT197" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>448</v>
       </c>
@@ -21896,8 +22067,62 @@
       <c r="E198" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I198" t="s">
+        <v>121</v>
+      </c>
+      <c r="J198" t="s">
+        <v>122</v>
+      </c>
+      <c r="K198" t="s">
+        <v>779</v>
+      </c>
+      <c r="L198" t="s">
+        <v>122</v>
+      </c>
+      <c r="M198" t="s">
+        <v>133</v>
+      </c>
+      <c r="N198" t="s">
+        <v>87</v>
+      </c>
+      <c r="O198" t="s">
+        <v>166</v>
+      </c>
+      <c r="P198" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>91</v>
+      </c>
+      <c r="R198" t="s">
+        <v>92</v>
+      </c>
+      <c r="S198" t="s">
+        <v>126</v>
+      </c>
+      <c r="T198" t="s">
+        <v>127</v>
+      </c>
+      <c r="U198" t="s">
+        <v>142</v>
+      </c>
+      <c r="V198" t="s">
+        <v>110</v>
+      </c>
+      <c r="W198" t="s">
+        <v>96</v>
+      </c>
+      <c r="X198" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -21907,8 +22132,68 @@
       <c r="E199" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I199" t="s">
+        <v>107</v>
+      </c>
+      <c r="J199" t="s">
+        <v>108</v>
+      </c>
+      <c r="K199" t="s">
+        <v>142</v>
+      </c>
+      <c r="L199" t="s">
+        <v>110</v>
+      </c>
+      <c r="M199" t="s">
+        <v>98</v>
+      </c>
+      <c r="N199" t="s">
+        <v>87</v>
+      </c>
+      <c r="O199" t="s">
+        <v>137</v>
+      </c>
+      <c r="P199" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>160</v>
+      </c>
+      <c r="R199" t="s">
+        <v>89</v>
+      </c>
+      <c r="S199" t="s">
+        <v>196</v>
+      </c>
+      <c r="T199" t="s">
+        <v>89</v>
+      </c>
+      <c r="U199" t="s">
+        <v>139</v>
+      </c>
+      <c r="V199" t="s">
+        <v>117</v>
+      </c>
+      <c r="W199" t="s">
+        <v>140</v>
+      </c>
+      <c r="X199" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>450</v>
       </c>
@@ -21918,8 +22203,44 @@
       <c r="E200" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="I200" t="s">
+        <v>156</v>
+      </c>
+      <c r="J200" t="s">
+        <v>84</v>
+      </c>
+      <c r="K200" t="s">
+        <v>115</v>
+      </c>
+      <c r="L200" t="s">
+        <v>116</v>
+      </c>
+      <c r="M200" t="s">
+        <v>137</v>
+      </c>
+      <c r="N200" t="s">
+        <v>102</v>
+      </c>
+      <c r="O200" t="s">
+        <v>200</v>
+      </c>
+      <c r="P200" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>140</v>
+      </c>
+      <c r="R200" t="s">
+        <v>84</v>
+      </c>
+      <c r="S200" t="s">
+        <v>210</v>
+      </c>
+      <c r="T200" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>451</v>
       </c>
@@ -21930,7 +22251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>452</v>
       </c>
@@ -21941,7 +22262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>453</v>
       </c>
@@ -21955,7 +22276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -21969,7 +22290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>455</v>
       </c>
@@ -21983,7 +22304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>456</v>
       </c>
@@ -21997,7 +22318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>457</v>
       </c>
@@ -22008,7 +22329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>458</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842114FE-B74B-43E5-B068-3872368B94EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D5414-DBBA-49BC-802B-445C4AF50425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2330,12 +2330,6 @@
   </si>
   <si>
     <t>Glalie</t>
-  </si>
-  <si>
-    <t>Dynamic Puch</t>
-  </si>
-  <si>
-    <t>Zen Headbtt</t>
   </si>
   <si>
     <t>Mud Bomb</t>
@@ -2724,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R160" workbookViewId="0">
-      <selection activeCell="AA172" sqref="AA172"/>
+    <sheetView tabSelected="1" topLeftCell="T187" workbookViewId="0">
+      <selection activeCell="AL194" sqref="AL194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4316,7 +4310,7 @@
         <v>102</v>
       </c>
       <c r="BI13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="BJ13" t="s">
         <v>89</v>
@@ -7398,7 +7392,7 @@
         <v>83</v>
       </c>
       <c r="AE48" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AF48" t="s">
         <v>89</v>
@@ -11805,7 +11799,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AL102" t="s">
         <v>89</v>
@@ -18714,7 +18708,7 @@
         <v>110</v>
       </c>
       <c r="AK171" t="s">
-        <v>771</v>
+        <v>114</v>
       </c>
       <c r="AL171" t="s">
         <v>110</v>
@@ -18774,7 +18768,7 @@
         <v>87</v>
       </c>
       <c r="BE171" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="BF171" t="s">
         <v>89</v>
@@ -18860,7 +18854,7 @@
         <v>87</v>
       </c>
       <c r="AA172" t="s">
-        <v>770</v>
+        <v>159</v>
       </c>
       <c r="AB172" t="s">
         <v>87</v>
@@ -18908,7 +18902,7 @@
         <v>102</v>
       </c>
       <c r="AQ172" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AR172" t="s">
         <v>106</v>
@@ -19012,7 +19006,7 @@
         <v>117</v>
       </c>
       <c r="AK173" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AL173" t="s">
         <v>106</v>
@@ -20268,7 +20262,7 @@
         <v>129</v>
       </c>
       <c r="AG183" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AH183" t="s">
         <v>129</v>
@@ -21013,7 +21007,7 @@
         <v>97</v>
       </c>
       <c r="AU188" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AV188" t="s">
         <v>106</v>
@@ -21048,7 +21042,7 @@
         <v>102</v>
       </c>
       <c r="K189" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L189" t="s">
         <v>89</v>
@@ -21168,7 +21162,7 @@
         <v>102</v>
       </c>
       <c r="AY189" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AZ189" t="s">
         <v>92</v>
@@ -21543,7 +21537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>443</v>
       </c>
@@ -21626,7 +21620,7 @@
         <v>95</v>
       </c>
       <c r="AG193" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AH193" t="s">
         <v>92</v>
@@ -21644,7 +21638,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>444</v>
       </c>
@@ -21673,7 +21667,7 @@
         <v>95</v>
       </c>
       <c r="O194" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="P194" t="s">
         <v>117</v>
@@ -21724,7 +21718,7 @@
         <v>145</v>
       </c>
       <c r="AF194" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG194" t="s">
         <v>210</v>
@@ -21733,7 +21727,7 @@
         <v>95</v>
       </c>
       <c r="AI194" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AJ194" t="s">
         <v>92</v>
@@ -21751,7 +21745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>445</v>
       </c>
@@ -21822,7 +21816,7 @@
         <v>116</v>
       </c>
       <c r="AC195" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AD195" t="s">
         <v>102</v>
@@ -21840,7 +21834,7 @@
         <v>102</v>
       </c>
       <c r="AI195" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AJ195" t="s">
         <v>92</v>
@@ -21858,7 +21852,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>446</v>
       </c>
@@ -21872,7 +21866,7 @@
         <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J196" t="s">
         <v>122</v>
@@ -21926,7 +21920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>447</v>
       </c>
@@ -21955,7 +21949,7 @@
         <v>185</v>
       </c>
       <c r="N197" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="O197" t="s">
         <v>203</v>
@@ -22053,8 +22047,14 @@
       <c r="AT197" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU197" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>448</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>122</v>
       </c>
       <c r="K198" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L198" t="s">
         <v>122</v>
@@ -22122,7 +22122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>450</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>451</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>452</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>453</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>455</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>456</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>457</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>458</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D5414-DBBA-49BC-802B-445C4AF50425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84779A-FEB1-477D-8C19-8FD13E5B221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T187" workbookViewId="0">
-      <selection activeCell="AL194" sqref="AL194"/>
+    <sheetView tabSelected="1" topLeftCell="H66" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE84779A-FEB1-477D-8C19-8FD13E5B221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9224F31-BB7C-468E-A7FE-2B510CBD5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H66" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9224F31-BB7C-468E-A7FE-2B510CBD5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30220EAA-2C21-4C74-BDA6-1E2988D0ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4419,10 +4419,10 @@
         <v>89</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="Z15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AA15" t="s">
         <v>143</v>
@@ -13082,93 +13082,87 @@
         <v>89</v>
       </c>
       <c r="Y115" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="Z115" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB115" t="s">
         <v>117</v>
       </c>
-      <c r="AA115" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB115" t="s">
-        <v>83</v>
-      </c>
       <c r="AC115" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD115" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AE115" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="AF115" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="AG115" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="AH115" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AI115" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="AJ115" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AK115" t="s">
-        <v>118</v>
+        <v>752</v>
       </c>
       <c r="AL115" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AM115" t="s">
-        <v>752</v>
+        <v>239</v>
       </c>
       <c r="AN115" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AO115" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="AP115" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AQ115" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="AR115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS115" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV115" t="s">
         <v>97</v>
       </c>
-      <c r="AS115" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT115" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU115" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV115" t="s">
-        <v>95</v>
-      </c>
       <c r="AW115" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="AX115" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AY115" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="AZ115" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA115" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB115" t="s">
         <v>89</v>
       </c>
     </row>
@@ -21537,7 +21531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>443</v>
       </c>
@@ -21638,7 +21632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>444</v>
       </c>
@@ -21745,7 +21739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="195" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>445</v>
       </c>
@@ -21852,7 +21846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>446</v>
       </c>
@@ -21920,7 +21914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>447</v>
       </c>
@@ -22054,7 +22048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="198" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>448</v>
       </c>
@@ -22122,7 +22116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -22193,7 +22187,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>450</v>
       </c>
@@ -22240,7 +22234,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>451</v>
       </c>
@@ -22250,8 +22244,140 @@
       <c r="E201" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I201" t="s">
+        <v>121</v>
+      </c>
+      <c r="J201" t="s">
+        <v>122</v>
+      </c>
+      <c r="K201" t="s">
+        <v>101</v>
+      </c>
+      <c r="L201" t="s">
+        <v>102</v>
+      </c>
+      <c r="M201" t="s">
+        <v>124</v>
+      </c>
+      <c r="N201" t="s">
+        <v>87</v>
+      </c>
+      <c r="O201" t="s">
+        <v>185</v>
+      </c>
+      <c r="P201" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>93</v>
+      </c>
+      <c r="R201" t="s">
+        <v>87</v>
+      </c>
+      <c r="S201" t="s">
+        <v>190</v>
+      </c>
+      <c r="T201" t="s">
+        <v>119</v>
+      </c>
+      <c r="U201" t="s">
+        <v>159</v>
+      </c>
+      <c r="V201" t="s">
+        <v>87</v>
+      </c>
+      <c r="W201" t="s">
+        <v>175</v>
+      </c>
+      <c r="X201" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP201" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS201" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT201" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW201" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX201" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY201" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ201" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>452</v>
       </c>
@@ -22261,8 +22387,92 @@
       <c r="E202" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="203" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I202" t="s">
+        <v>121</v>
+      </c>
+      <c r="J202" t="s">
+        <v>122</v>
+      </c>
+      <c r="K202" t="s">
+        <v>101</v>
+      </c>
+      <c r="L202" t="s">
+        <v>102</v>
+      </c>
+      <c r="M202" t="s">
+        <v>166</v>
+      </c>
+      <c r="N202" t="s">
+        <v>83</v>
+      </c>
+      <c r="O202" t="s">
+        <v>159</v>
+      </c>
+      <c r="P202" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>107</v>
+      </c>
+      <c r="R202" t="s">
+        <v>108</v>
+      </c>
+      <c r="S202" t="s">
+        <v>118</v>
+      </c>
+      <c r="T202" t="s">
+        <v>119</v>
+      </c>
+      <c r="U202" t="s">
+        <v>171</v>
+      </c>
+      <c r="V202" t="s">
+        <v>108</v>
+      </c>
+      <c r="W202" t="s">
+        <v>96</v>
+      </c>
+      <c r="X202" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>453</v>
       </c>
@@ -22275,8 +22485,128 @@
       <c r="E203" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I203" t="s">
+        <v>133</v>
+      </c>
+      <c r="J203" t="s">
+        <v>87</v>
+      </c>
+      <c r="K203" t="s">
+        <v>104</v>
+      </c>
+      <c r="L203" t="s">
+        <v>87</v>
+      </c>
+      <c r="M203" t="s">
+        <v>124</v>
+      </c>
+      <c r="N203" t="s">
+        <v>87</v>
+      </c>
+      <c r="O203" t="s">
+        <v>93</v>
+      </c>
+      <c r="P203" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>99</v>
+      </c>
+      <c r="R203" t="s">
+        <v>100</v>
+      </c>
+      <c r="S203" t="s">
+        <v>253</v>
+      </c>
+      <c r="T203" t="s">
+        <v>87</v>
+      </c>
+      <c r="U203" t="s">
+        <v>88</v>
+      </c>
+      <c r="V203" t="s">
+        <v>89</v>
+      </c>
+      <c r="W203" t="s">
+        <v>141</v>
+      </c>
+      <c r="X203" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP203" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT203" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>454</v>
       </c>
@@ -22289,8 +22619,44 @@
       <c r="E204" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I204" t="s">
+        <v>125</v>
+      </c>
+      <c r="J204" t="s">
+        <v>83</v>
+      </c>
+      <c r="K204" t="s">
+        <v>107</v>
+      </c>
+      <c r="L204" t="s">
+        <v>108</v>
+      </c>
+      <c r="M204" t="s">
+        <v>171</v>
+      </c>
+      <c r="N204" t="s">
+        <v>108</v>
+      </c>
+      <c r="O204" t="s">
+        <v>96</v>
+      </c>
+      <c r="P204" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>132</v>
+      </c>
+      <c r="R204" t="s">
+        <v>87</v>
+      </c>
+      <c r="S204" t="s">
+        <v>163</v>
+      </c>
+      <c r="T204" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="205" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>455</v>
       </c>
@@ -22303,8 +22669,50 @@
       <c r="E205" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I205" t="s">
+        <v>168</v>
+      </c>
+      <c r="J205" t="s">
+        <v>108</v>
+      </c>
+      <c r="K205" t="s">
+        <v>125</v>
+      </c>
+      <c r="L205" t="s">
+        <v>83</v>
+      </c>
+      <c r="M205" t="s">
+        <v>107</v>
+      </c>
+      <c r="N205" t="s">
+        <v>108</v>
+      </c>
+      <c r="O205" t="s">
+        <v>96</v>
+      </c>
+      <c r="P205" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>171</v>
+      </c>
+      <c r="R205" t="s">
+        <v>108</v>
+      </c>
+      <c r="S205" t="s">
+        <v>132</v>
+      </c>
+      <c r="T205" t="s">
+        <v>87</v>
+      </c>
+      <c r="U205" t="s">
+        <v>163</v>
+      </c>
+      <c r="V205" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="206" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>456</v>
       </c>
@@ -22317,8 +22725,146 @@
       <c r="E206" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I206" t="s">
+        <v>121</v>
+      </c>
+      <c r="J206" t="s">
+        <v>122</v>
+      </c>
+      <c r="K206" t="s">
+        <v>101</v>
+      </c>
+      <c r="L206" t="s">
+        <v>102</v>
+      </c>
+      <c r="M206" t="s">
+        <v>185</v>
+      </c>
+      <c r="N206" t="s">
+        <v>83</v>
+      </c>
+      <c r="O206" t="s">
+        <v>176</v>
+      </c>
+      <c r="P206" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>166</v>
+      </c>
+      <c r="R206" t="s">
+        <v>83</v>
+      </c>
+      <c r="S206" t="s">
+        <v>88</v>
+      </c>
+      <c r="T206" t="s">
+        <v>89</v>
+      </c>
+      <c r="U206" t="s">
+        <v>112</v>
+      </c>
+      <c r="V206" t="s">
+        <v>95</v>
+      </c>
+      <c r="W206" t="s">
+        <v>91</v>
+      </c>
+      <c r="X206" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP206" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS206" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY206" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ206" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA206" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB206" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>457</v>
       </c>
@@ -22328,8 +22874,98 @@
       <c r="E207" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="208" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I207" t="s">
+        <v>101</v>
+      </c>
+      <c r="J207" t="s">
+        <v>102</v>
+      </c>
+      <c r="K207" t="s">
+        <v>115</v>
+      </c>
+      <c r="L207" t="s">
+        <v>116</v>
+      </c>
+      <c r="M207" t="s">
+        <v>156</v>
+      </c>
+      <c r="N207" t="s">
+        <v>84</v>
+      </c>
+      <c r="O207" t="s">
+        <v>154</v>
+      </c>
+      <c r="P207" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>96</v>
+      </c>
+      <c r="R207" t="s">
+        <v>97</v>
+      </c>
+      <c r="S207" t="s">
+        <v>329</v>
+      </c>
+      <c r="T207" t="s">
+        <v>116</v>
+      </c>
+      <c r="U207" t="s">
+        <v>200</v>
+      </c>
+      <c r="V207" t="s">
+        <v>102</v>
+      </c>
+      <c r="W207" t="s">
+        <v>179</v>
+      </c>
+      <c r="X207" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>749</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>740</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>458</v>
       </c>
@@ -22342,8 +22978,92 @@
       <c r="E208" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I208" t="s">
+        <v>124</v>
+      </c>
+      <c r="J208" t="s">
+        <v>87</v>
+      </c>
+      <c r="K208" t="s">
+        <v>195</v>
+      </c>
+      <c r="L208" t="s">
+        <v>95</v>
+      </c>
+      <c r="M208" t="s">
+        <v>99</v>
+      </c>
+      <c r="N208" t="s">
+        <v>100</v>
+      </c>
+      <c r="O208" t="s">
+        <v>766</v>
+      </c>
+      <c r="P208" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>225</v>
+      </c>
+      <c r="R208" t="s">
+        <v>129</v>
+      </c>
+      <c r="S208" t="s">
+        <v>90</v>
+      </c>
+      <c r="T208" t="s">
+        <v>89</v>
+      </c>
+      <c r="U208" t="s">
+        <v>155</v>
+      </c>
+      <c r="V208" t="s">
+        <v>117</v>
+      </c>
+      <c r="W208" t="s">
+        <v>144</v>
+      </c>
+      <c r="X208" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -22356,8 +23076,134 @@
       <c r="E209" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I209" t="s">
+        <v>101</v>
+      </c>
+      <c r="J209" t="s">
+        <v>102</v>
+      </c>
+      <c r="K209" t="s">
+        <v>124</v>
+      </c>
+      <c r="L209" t="s">
+        <v>87</v>
+      </c>
+      <c r="M209" t="s">
+        <v>201</v>
+      </c>
+      <c r="N209" t="s">
+        <v>92</v>
+      </c>
+      <c r="O209" t="s">
+        <v>93</v>
+      </c>
+      <c r="P209" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>88</v>
+      </c>
+      <c r="R209" t="s">
+        <v>89</v>
+      </c>
+      <c r="S209" t="s">
+        <v>90</v>
+      </c>
+      <c r="T209" t="s">
+        <v>89</v>
+      </c>
+      <c r="U209" t="s">
+        <v>155</v>
+      </c>
+      <c r="V209" t="s">
+        <v>117</v>
+      </c>
+      <c r="W209" t="s">
+        <v>156</v>
+      </c>
+      <c r="X209" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP209" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR209" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT209" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW209" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>460</v>
       </c>
@@ -22370,8 +23216,56 @@
       <c r="E210" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I210" t="s">
+        <v>254</v>
+      </c>
+      <c r="J210" t="s">
+        <v>127</v>
+      </c>
+      <c r="K210" t="s">
+        <v>125</v>
+      </c>
+      <c r="L210" t="s">
+        <v>83</v>
+      </c>
+      <c r="M210" t="s">
+        <v>156</v>
+      </c>
+      <c r="N210" t="s">
+        <v>84</v>
+      </c>
+      <c r="O210" t="s">
+        <v>110</v>
+      </c>
+      <c r="P210" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>126</v>
+      </c>
+      <c r="R210" t="s">
+        <v>127</v>
+      </c>
+      <c r="S210" t="s">
+        <v>154</v>
+      </c>
+      <c r="T210" t="s">
+        <v>102</v>
+      </c>
+      <c r="U210" t="s">
+        <v>171</v>
+      </c>
+      <c r="V210" t="s">
+        <v>108</v>
+      </c>
+      <c r="W210" t="s">
+        <v>162</v>
+      </c>
+      <c r="X210" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>461</v>
       </c>
@@ -22381,8 +23275,56 @@
       <c r="E211" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I211" t="s">
+        <v>316</v>
+      </c>
+      <c r="J211" t="s">
+        <v>110</v>
+      </c>
+      <c r="K211" t="s">
+        <v>91</v>
+      </c>
+      <c r="L211" t="s">
+        <v>92</v>
+      </c>
+      <c r="M211" t="s">
+        <v>168</v>
+      </c>
+      <c r="N211" t="s">
+        <v>108</v>
+      </c>
+      <c r="O211" t="s">
+        <v>96</v>
+      </c>
+      <c r="P211" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>160</v>
+      </c>
+      <c r="R211" t="s">
+        <v>89</v>
+      </c>
+      <c r="S211" t="s">
+        <v>194</v>
+      </c>
+      <c r="T211" t="s">
+        <v>106</v>
+      </c>
+      <c r="U211" t="s">
+        <v>296</v>
+      </c>
+      <c r="V211" t="s">
+        <v>106</v>
+      </c>
+      <c r="W211" t="s">
+        <v>165</v>
+      </c>
+      <c r="X211" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>462</v>
       </c>
@@ -22396,7 +23338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>463</v>
       </c>
@@ -22410,7 +23352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>464</v>
       </c>
@@ -22424,7 +23366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>465</v>
       </c>
@@ -22435,7 +23377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>466</v>
       </c>
@@ -22446,7 +23388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>467</v>
       </c>
@@ -22460,7 +23402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -22474,7 +23416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>469</v>
       </c>
@@ -22485,7 +23427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>470</v>
       </c>
@@ -22499,7 +23441,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -22513,7 +23455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>472</v>
       </c>
@@ -22524,7 +23466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>473</v>
       </c>
@@ -22535,7 +23477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>474</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30220EAA-2C21-4C74-BDA6-1E2988D0ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDB93E-5793-45A6-8645-21EBBFBE79C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="778">
   <si>
     <t>Name</t>
   </si>
@@ -2718,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="I217" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23063,7 +23063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>460</v>
       </c>
@@ -23265,7 +23265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>461</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>462</v>
       </c>
@@ -23337,8 +23337,35 @@
       <c r="E212" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="I212" t="s">
+        <v>101</v>
+      </c>
+      <c r="J212" t="s">
+        <v>102</v>
+      </c>
+      <c r="K212" t="s">
+        <v>212</v>
+      </c>
+      <c r="L212" t="s">
+        <v>106</v>
+      </c>
+      <c r="M212" t="s">
+        <v>171</v>
+      </c>
+      <c r="N212" t="s">
+        <v>108</v>
+      </c>
+      <c r="O212" t="s">
+        <v>295</v>
+      </c>
+      <c r="P212" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="213" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>463</v>
       </c>
@@ -23351,8 +23378,92 @@
       <c r="E213" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="I213" t="s">
+        <v>121</v>
+      </c>
+      <c r="J213" t="s">
+        <v>122</v>
+      </c>
+      <c r="K213" t="s">
+        <v>101</v>
+      </c>
+      <c r="L213" t="s">
+        <v>102</v>
+      </c>
+      <c r="M213" t="s">
+        <v>124</v>
+      </c>
+      <c r="N213" t="s">
+        <v>87</v>
+      </c>
+      <c r="O213" t="s">
+        <v>185</v>
+      </c>
+      <c r="P213" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>159</v>
+      </c>
+      <c r="R213" t="s">
+        <v>87</v>
+      </c>
+      <c r="S213" t="s">
+        <v>125</v>
+      </c>
+      <c r="T213" t="s">
+        <v>83</v>
+      </c>
+      <c r="U213" t="s">
+        <v>96</v>
+      </c>
+      <c r="V213" t="s">
+        <v>97</v>
+      </c>
+      <c r="W213" t="s">
+        <v>276</v>
+      </c>
+      <c r="X213" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>464</v>
       </c>
@@ -23365,8 +23476,98 @@
       <c r="E214" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="I214" t="s">
+        <v>93</v>
+      </c>
+      <c r="J214" t="s">
+        <v>87</v>
+      </c>
+      <c r="K214" t="s">
+        <v>152</v>
+      </c>
+      <c r="L214" t="s">
+        <v>87</v>
+      </c>
+      <c r="M214" t="s">
+        <v>90</v>
+      </c>
+      <c r="N214" t="s">
+        <v>89</v>
+      </c>
+      <c r="O214" t="s">
+        <v>156</v>
+      </c>
+      <c r="P214" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>207</v>
+      </c>
+      <c r="R214" t="s">
+        <v>106</v>
+      </c>
+      <c r="S214" t="s">
+        <v>113</v>
+      </c>
+      <c r="T214" t="s">
+        <v>106</v>
+      </c>
+      <c r="U214" t="s">
+        <v>160</v>
+      </c>
+      <c r="V214" t="s">
+        <v>89</v>
+      </c>
+      <c r="W214" t="s">
+        <v>276</v>
+      </c>
+      <c r="X214" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>465</v>
       </c>
@@ -23376,8 +23577,212 @@
       <c r="E215" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="I215" t="s">
+        <v>121</v>
+      </c>
+      <c r="J215" t="s">
+        <v>87</v>
+      </c>
+      <c r="K215" t="s">
+        <v>133</v>
+      </c>
+      <c r="L215" t="s">
+        <v>87</v>
+      </c>
+      <c r="M215" t="s">
+        <v>101</v>
+      </c>
+      <c r="N215" t="s">
+        <v>102</v>
+      </c>
+      <c r="O215" t="s">
+        <v>124</v>
+      </c>
+      <c r="P215" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>93</v>
+      </c>
+      <c r="R215" t="s">
+        <v>87</v>
+      </c>
+      <c r="S215" t="s">
+        <v>99</v>
+      </c>
+      <c r="T215" t="s">
+        <v>100</v>
+      </c>
+      <c r="U215" t="s">
+        <v>166</v>
+      </c>
+      <c r="V215" t="s">
+        <v>83</v>
+      </c>
+      <c r="W215" t="s">
+        <v>190</v>
+      </c>
+      <c r="X215" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ215" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA215" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB215" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC215" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD215" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE215" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF215" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG215" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH215" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI215" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ215" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK215" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL215" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM215" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN215" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO215" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP215" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ215" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR215" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS215" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT215" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU215" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV215" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW215" t="s">
+        <v>191</v>
+      </c>
+      <c r="BX215" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>466</v>
       </c>
@@ -23387,8 +23792,164 @@
       <c r="E216" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="I216" t="s">
+        <v>121</v>
+      </c>
+      <c r="J216" t="s">
+        <v>122</v>
+      </c>
+      <c r="K216" t="s">
+        <v>101</v>
+      </c>
+      <c r="L216" t="s">
+        <v>102</v>
+      </c>
+      <c r="M216" t="s">
+        <v>185</v>
+      </c>
+      <c r="N216" t="s">
+        <v>83</v>
+      </c>
+      <c r="O216" t="s">
+        <v>93</v>
+      </c>
+      <c r="P216" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>166</v>
+      </c>
+      <c r="R216" t="s">
+        <v>83</v>
+      </c>
+      <c r="S216" t="s">
+        <v>316</v>
+      </c>
+      <c r="T216" t="s">
+        <v>110</v>
+      </c>
+      <c r="U216" t="s">
+        <v>91</v>
+      </c>
+      <c r="V216" t="s">
+        <v>92</v>
+      </c>
+      <c r="W216" t="s">
+        <v>159</v>
+      </c>
+      <c r="X216" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ216" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA216" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB216" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC216" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE216" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF216" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG216" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH216" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>467</v>
       </c>
@@ -23402,7 +23963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -23416,7 +23977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>469</v>
       </c>
@@ -23427,7 +23988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>470</v>
       </c>
@@ -23441,7 +24002,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -23455,7 +24016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>472</v>
       </c>
@@ -23466,7 +24027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>473</v>
       </c>
@@ -23477,7 +24038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>474</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDB93E-5793-45A6-8645-21EBBFBE79C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B81B6-0EE1-4924-88FA-73B5B6A71E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7931" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="779">
   <si>
     <t>Name</t>
   </si>
@@ -2354,6 +2354,9 @@
   </si>
   <si>
     <t>Comeuppance</t>
+  </si>
+  <si>
+    <t>Wood Hammer</t>
   </si>
 </sst>
 </file>
@@ -2718,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="I217" sqref="I217"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23581,7 +23584,7 @@
         <v>121</v>
       </c>
       <c r="J215" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K215" t="s">
         <v>133</v>
@@ -23962,6 +23965,9 @@
       <c r="E217" t="s">
         <v>85</v>
       </c>
+      <c r="I217" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="218" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
@@ -23976,6 +23982,48 @@
       <c r="E218" t="s">
         <v>85</v>
       </c>
+      <c r="I218" t="s">
+        <v>306</v>
+      </c>
+      <c r="J218" t="s">
+        <v>116</v>
+      </c>
+      <c r="K218" t="s">
+        <v>156</v>
+      </c>
+      <c r="L218" t="s">
+        <v>84</v>
+      </c>
+      <c r="M218" t="s">
+        <v>115</v>
+      </c>
+      <c r="N218" t="s">
+        <v>116</v>
+      </c>
+      <c r="O218" t="s">
+        <v>236</v>
+      </c>
+      <c r="P218" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>141</v>
+      </c>
+      <c r="R218" t="s">
+        <v>92</v>
+      </c>
+      <c r="S218" t="s">
+        <v>194</v>
+      </c>
+      <c r="T218" t="s">
+        <v>106</v>
+      </c>
+      <c r="U218" t="s">
+        <v>205</v>
+      </c>
+      <c r="V218" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="219" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
@@ -23987,6 +24035,84 @@
       <c r="E219" t="s">
         <v>85</v>
       </c>
+      <c r="I219" t="s">
+        <v>101</v>
+      </c>
+      <c r="J219" t="s">
+        <v>102</v>
+      </c>
+      <c r="K219" t="s">
+        <v>152</v>
+      </c>
+      <c r="L219" t="s">
+        <v>87</v>
+      </c>
+      <c r="M219" t="s">
+        <v>742</v>
+      </c>
+      <c r="N219" t="s">
+        <v>87</v>
+      </c>
+      <c r="O219" t="s">
+        <v>760</v>
+      </c>
+      <c r="P219" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>156</v>
+      </c>
+      <c r="R219" t="s">
+        <v>84</v>
+      </c>
+      <c r="S219" t="s">
+        <v>113</v>
+      </c>
+      <c r="T219" t="s">
+        <v>106</v>
+      </c>
+      <c r="U219" t="s">
+        <v>160</v>
+      </c>
+      <c r="V219" t="s">
+        <v>89</v>
+      </c>
+      <c r="W219" t="s">
+        <v>86</v>
+      </c>
+      <c r="X219" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="220" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
@@ -24001,6 +24127,96 @@
       <c r="F220" t="s">
         <v>148</v>
       </c>
+      <c r="I220" t="s">
+        <v>133</v>
+      </c>
+      <c r="J220" t="s">
+        <v>87</v>
+      </c>
+      <c r="K220" t="s">
+        <v>101</v>
+      </c>
+      <c r="L220" t="s">
+        <v>102</v>
+      </c>
+      <c r="M220" t="s">
+        <v>338</v>
+      </c>
+      <c r="N220" t="s">
+        <v>129</v>
+      </c>
+      <c r="O220" t="s">
+        <v>760</v>
+      </c>
+      <c r="P220" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>90</v>
+      </c>
+      <c r="R220" t="s">
+        <v>89</v>
+      </c>
+      <c r="S220" t="s">
+        <v>186</v>
+      </c>
+      <c r="T220" t="s">
+        <v>102</v>
+      </c>
+      <c r="U220" t="s">
+        <v>113</v>
+      </c>
+      <c r="V220" t="s">
+        <v>106</v>
+      </c>
+      <c r="W220" t="s">
+        <v>160</v>
+      </c>
+      <c r="X220" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="221" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
@@ -24015,6 +24231,36 @@
       <c r="E221" t="s">
         <v>85</v>
       </c>
+      <c r="I221" t="s">
+        <v>175</v>
+      </c>
+      <c r="J221" t="s">
+        <v>102</v>
+      </c>
+      <c r="K221" t="s">
+        <v>110</v>
+      </c>
+      <c r="L221" t="s">
+        <v>110</v>
+      </c>
+      <c r="M221" t="s">
+        <v>164</v>
+      </c>
+      <c r="N221" t="s">
+        <v>110</v>
+      </c>
+      <c r="O221" t="s">
+        <v>209</v>
+      </c>
+      <c r="P221" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>165</v>
+      </c>
+      <c r="R221" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="222" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
@@ -24026,6 +24272,42 @@
       <c r="E222" t="s">
         <v>85</v>
       </c>
+      <c r="I222" t="s">
+        <v>190</v>
+      </c>
+      <c r="J222" t="s">
+        <v>119</v>
+      </c>
+      <c r="K222" t="s">
+        <v>118</v>
+      </c>
+      <c r="L222" t="s">
+        <v>119</v>
+      </c>
+      <c r="M222" t="s">
+        <v>214</v>
+      </c>
+      <c r="N222" t="s">
+        <v>119</v>
+      </c>
+      <c r="O222" t="s">
+        <v>244</v>
+      </c>
+      <c r="P222" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>193</v>
+      </c>
+      <c r="R222" t="s">
+        <v>95</v>
+      </c>
+      <c r="S222" t="s">
+        <v>194</v>
+      </c>
+      <c r="T222" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="223" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
@@ -24037,6 +24319,144 @@
       <c r="E223" t="s">
         <v>85</v>
       </c>
+      <c r="I223" t="s">
+        <v>133</v>
+      </c>
+      <c r="J223" t="s">
+        <v>87</v>
+      </c>
+      <c r="K223" t="s">
+        <v>101</v>
+      </c>
+      <c r="L223" t="s">
+        <v>102</v>
+      </c>
+      <c r="M223" t="s">
+        <v>176</v>
+      </c>
+      <c r="N223" t="s">
+        <v>127</v>
+      </c>
+      <c r="O223" t="s">
+        <v>93</v>
+      </c>
+      <c r="P223" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>152</v>
+      </c>
+      <c r="R223" t="s">
+        <v>87</v>
+      </c>
+      <c r="S223" t="s">
+        <v>778</v>
+      </c>
+      <c r="T223" t="s">
+        <v>83</v>
+      </c>
+      <c r="U223" t="s">
+        <v>88</v>
+      </c>
+      <c r="V223" t="s">
+        <v>89</v>
+      </c>
+      <c r="W223" t="s">
+        <v>107</v>
+      </c>
+      <c r="X223" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="224" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
@@ -24048,8 +24468,44 @@
       <c r="E224" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I224" t="s">
+        <v>186</v>
+      </c>
+      <c r="J224" t="s">
+        <v>102</v>
+      </c>
+      <c r="K224" t="s">
+        <v>86</v>
+      </c>
+      <c r="L224" t="s">
+        <v>87</v>
+      </c>
+      <c r="M224" t="s">
+        <v>228</v>
+      </c>
+      <c r="N224" t="s">
+        <v>102</v>
+      </c>
+      <c r="O224" t="s">
+        <v>130</v>
+      </c>
+      <c r="P224" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>286</v>
+      </c>
+      <c r="R224" t="s">
+        <v>116</v>
+      </c>
+      <c r="S224" t="s">
+        <v>182</v>
+      </c>
+      <c r="T224" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>475</v>
       </c>
@@ -24062,8 +24518,158 @@
       <c r="E225" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I225" t="s">
+        <v>121</v>
+      </c>
+      <c r="J225" t="s">
+        <v>122</v>
+      </c>
+      <c r="K225" t="s">
+        <v>124</v>
+      </c>
+      <c r="L225" t="s">
+        <v>87</v>
+      </c>
+      <c r="M225" t="s">
+        <v>185</v>
+      </c>
+      <c r="N225" t="s">
+        <v>83</v>
+      </c>
+      <c r="O225" t="s">
+        <v>176</v>
+      </c>
+      <c r="P225" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>93</v>
+      </c>
+      <c r="R225" t="s">
+        <v>87</v>
+      </c>
+      <c r="S225" t="s">
+        <v>99</v>
+      </c>
+      <c r="T225" t="s">
+        <v>100</v>
+      </c>
+      <c r="U225" t="s">
+        <v>152</v>
+      </c>
+      <c r="V225" t="s">
+        <v>87</v>
+      </c>
+      <c r="W225" t="s">
+        <v>112</v>
+      </c>
+      <c r="X225" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE225" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF225" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>476</v>
       </c>
@@ -24077,7 +24683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>477</v>
       </c>
@@ -24097,7 +24703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -24111,7 +24717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>479</v>
       </c>
@@ -24122,7 +24728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>480</v>
       </c>
@@ -24136,7 +24742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>481</v>
       </c>
@@ -24150,7 +24756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>482</v>
       </c>
@@ -24161,7 +24767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>483</v>
       </c>
@@ -24172,7 +24778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>484</v>
       </c>
@@ -24183,7 +24789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>485</v>
       </c>
@@ -24197,7 +24803,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>486</v>
       </c>
@@ -24211,7 +24817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>487</v>
       </c>
@@ -24225,7 +24831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>488</v>
       </c>
@@ -24239,7 +24845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>489</v>
       </c>
@@ -24253,7 +24859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>490</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B81B6-0EE1-4924-88FA-73B5B6A71E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EAAB9-F119-4A4B-8451-7E546C1B3D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="779">
   <si>
     <t>Name</t>
   </si>
@@ -2721,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="I211" workbookViewId="0">
+      <selection activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24682,6 +24682,42 @@
       <c r="E226" t="s">
         <v>85</v>
       </c>
+      <c r="I226" t="s">
+        <v>156</v>
+      </c>
+      <c r="J226" t="s">
+        <v>84</v>
+      </c>
+      <c r="K226" t="s">
+        <v>115</v>
+      </c>
+      <c r="L226" t="s">
+        <v>116</v>
+      </c>
+      <c r="M226" t="s">
+        <v>171</v>
+      </c>
+      <c r="N226" t="s">
+        <v>108</v>
+      </c>
+      <c r="O226" t="s">
+        <v>194</v>
+      </c>
+      <c r="P226" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>200</v>
+      </c>
+      <c r="R226" t="s">
+        <v>102</v>
+      </c>
+      <c r="S226" t="s">
+        <v>229</v>
+      </c>
+      <c r="T226" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="227" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
@@ -24702,6 +24738,114 @@
       <c r="J227" t="s">
         <v>119</v>
       </c>
+      <c r="K227" t="s">
+        <v>120</v>
+      </c>
+      <c r="L227" t="s">
+        <v>110</v>
+      </c>
+      <c r="M227" t="s">
+        <v>105</v>
+      </c>
+      <c r="N227" t="s">
+        <v>106</v>
+      </c>
+      <c r="O227" t="s">
+        <v>99</v>
+      </c>
+      <c r="P227" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>166</v>
+      </c>
+      <c r="R227" t="s">
+        <v>83</v>
+      </c>
+      <c r="S227" t="s">
+        <v>190</v>
+      </c>
+      <c r="T227" t="s">
+        <v>119</v>
+      </c>
+      <c r="U227" t="s">
+        <v>88</v>
+      </c>
+      <c r="V227" t="s">
+        <v>89</v>
+      </c>
+      <c r="W227" t="s">
+        <v>91</v>
+      </c>
+      <c r="X227" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP227" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR227" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="228" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
@@ -24716,6 +24860,132 @@
       <c r="E228" t="s">
         <v>85</v>
       </c>
+      <c r="I228" t="s">
+        <v>185</v>
+      </c>
+      <c r="J228" t="s">
+        <v>83</v>
+      </c>
+      <c r="K228" t="s">
+        <v>166</v>
+      </c>
+      <c r="L228" t="s">
+        <v>83</v>
+      </c>
+      <c r="M228" t="s">
+        <v>88</v>
+      </c>
+      <c r="N228" t="s">
+        <v>89</v>
+      </c>
+      <c r="O228" t="s">
+        <v>125</v>
+      </c>
+      <c r="P228" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>156</v>
+      </c>
+      <c r="R228" t="s">
+        <v>84</v>
+      </c>
+      <c r="S228" t="s">
+        <v>157</v>
+      </c>
+      <c r="T228" t="s">
+        <v>129</v>
+      </c>
+      <c r="U228" t="s">
+        <v>118</v>
+      </c>
+      <c r="V228" t="s">
+        <v>119</v>
+      </c>
+      <c r="W228" t="s">
+        <v>752</v>
+      </c>
+      <c r="X228" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK228" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP228" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ228" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR228" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS228" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT228" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU228" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX228" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="229" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
@@ -24727,6 +24997,54 @@
       <c r="E229" t="s">
         <v>85</v>
       </c>
+      <c r="I229" t="s">
+        <v>316</v>
+      </c>
+      <c r="J229" t="s">
+        <v>110</v>
+      </c>
+      <c r="K229" t="s">
+        <v>91</v>
+      </c>
+      <c r="L229" t="s">
+        <v>92</v>
+      </c>
+      <c r="M229" t="s">
+        <v>168</v>
+      </c>
+      <c r="N229" t="s">
+        <v>108</v>
+      </c>
+      <c r="O229" t="s">
+        <v>96</v>
+      </c>
+      <c r="P229" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>113</v>
+      </c>
+      <c r="R229" t="s">
+        <v>106</v>
+      </c>
+      <c r="S229" t="s">
+        <v>160</v>
+      </c>
+      <c r="T229" t="s">
+        <v>89</v>
+      </c>
+      <c r="U229" t="s">
+        <v>130</v>
+      </c>
+      <c r="V229" t="s">
+        <v>102</v>
+      </c>
+      <c r="W229" t="s">
+        <v>165</v>
+      </c>
+      <c r="X229" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="230" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
@@ -24740,6 +25058,60 @@
       </c>
       <c r="E230" t="s">
         <v>85</v>
+      </c>
+      <c r="I230" t="s">
+        <v>93</v>
+      </c>
+      <c r="J230" t="s">
+        <v>87</v>
+      </c>
+      <c r="K230" t="s">
+        <v>203</v>
+      </c>
+      <c r="L230" t="s">
+        <v>127</v>
+      </c>
+      <c r="M230" t="s">
+        <v>186</v>
+      </c>
+      <c r="N230" t="s">
+        <v>102</v>
+      </c>
+      <c r="O230" t="s">
+        <v>329</v>
+      </c>
+      <c r="P230" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>111</v>
+      </c>
+      <c r="R230" t="s">
+        <v>97</v>
+      </c>
+      <c r="S230" t="s">
+        <v>170</v>
+      </c>
+      <c r="T230" t="s">
+        <v>92</v>
+      </c>
+      <c r="U230" t="s">
+        <v>130</v>
+      </c>
+      <c r="V230" t="s">
+        <v>102</v>
+      </c>
+      <c r="W230" t="s">
+        <v>146</v>
+      </c>
+      <c r="X230" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="231" spans="1:58" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EAAB9-F119-4A4B-8451-7E546C1B3D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8986FA-EEF6-47F9-AE6D-4E326EBD2CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="780">
   <si>
     <t>Name</t>
   </si>
@@ -2357,6 +2357,9 @@
   </si>
   <si>
     <t>Wood Hammer</t>
+  </si>
+  <si>
+    <t>Mach Punch</t>
   </si>
 </sst>
 </file>
@@ -2721,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I211" workbookViewId="0">
-      <selection activeCell="K231" sqref="K231"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="I236" sqref="I236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23066,7 +23069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="209" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -23206,7 +23209,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>460</v>
       </c>
@@ -23268,7 +23271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="211" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>461</v>
       </c>
@@ -23327,7 +23330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="212" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>462</v>
       </c>
@@ -23368,7 +23371,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>463</v>
       </c>
@@ -23466,7 +23469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="214" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>464</v>
       </c>
@@ -23570,7 +23573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="215" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>465</v>
       </c>
@@ -23784,8 +23787,14 @@
       <c r="BX215" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="216" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="BY215" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ215" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="216" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>466</v>
       </c>
@@ -23952,7 +23961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="217" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>467</v>
       </c>
@@ -23969,7 +23978,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="218" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>468</v>
       </c>
@@ -24025,7 +24034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="219" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>469</v>
       </c>
@@ -24114,7 +24123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="220" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>470</v>
       </c>
@@ -24218,7 +24227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>471</v>
       </c>
@@ -24262,7 +24271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="222" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>472</v>
       </c>
@@ -24309,7 +24318,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="223" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>473</v>
       </c>
@@ -24458,7 +24467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>474</v>
       </c>
@@ -24505,7 +24514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>475</v>
       </c>
@@ -24669,7 +24678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>476</v>
       </c>
@@ -24719,7 +24728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="227" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>477</v>
       </c>
@@ -24847,7 +24856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -24987,7 +24996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>479</v>
       </c>
@@ -25046,7 +25055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="230" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>480</v>
       </c>
@@ -25114,7 +25123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>481</v>
       </c>
@@ -25127,8 +25136,92 @@
       <c r="E231" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="232" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="I231" t="s">
+        <v>121</v>
+      </c>
+      <c r="J231" t="s">
+        <v>122</v>
+      </c>
+      <c r="K231" t="s">
+        <v>101</v>
+      </c>
+      <c r="L231" t="s">
+        <v>102</v>
+      </c>
+      <c r="M231" t="s">
+        <v>124</v>
+      </c>
+      <c r="N231" t="s">
+        <v>87</v>
+      </c>
+      <c r="O231" t="s">
+        <v>166</v>
+      </c>
+      <c r="P231" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>159</v>
+      </c>
+      <c r="R231" t="s">
+        <v>87</v>
+      </c>
+      <c r="S231" t="s">
+        <v>160</v>
+      </c>
+      <c r="T231" t="s">
+        <v>89</v>
+      </c>
+      <c r="U231" t="s">
+        <v>86</v>
+      </c>
+      <c r="V231" t="s">
+        <v>87</v>
+      </c>
+      <c r="W231" t="s">
+        <v>132</v>
+      </c>
+      <c r="X231" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>779</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="232" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>482</v>
       </c>
@@ -25138,8 +25231,206 @@
       <c r="E232" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="233" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="I232" t="s">
+        <v>121</v>
+      </c>
+      <c r="J232" t="s">
+        <v>87</v>
+      </c>
+      <c r="K232" t="s">
+        <v>199</v>
+      </c>
+      <c r="L232" t="s">
+        <v>92</v>
+      </c>
+      <c r="M232" t="s">
+        <v>101</v>
+      </c>
+      <c r="N232" t="s">
+        <v>102</v>
+      </c>
+      <c r="O232" t="s">
+        <v>124</v>
+      </c>
+      <c r="P232" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>310</v>
+      </c>
+      <c r="R232" t="s">
+        <v>83</v>
+      </c>
+      <c r="S232" t="s">
+        <v>297</v>
+      </c>
+      <c r="T232" t="s">
+        <v>127</v>
+      </c>
+      <c r="U232" t="s">
+        <v>166</v>
+      </c>
+      <c r="V232" t="s">
+        <v>83</v>
+      </c>
+      <c r="W232" t="s">
+        <v>225</v>
+      </c>
+      <c r="X232" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP232" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ232" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR232" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS232" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT232" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV232" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW232" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX232" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY232" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ232" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA232" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB232" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC232" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD232" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE232" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF232" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG232" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH232" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI232" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ232" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK232" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL232" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM232" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN232" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO232" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP232" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ232" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR232" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS232" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT232" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU232" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV232" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>483</v>
       </c>
@@ -25149,8 +25440,74 @@
       <c r="E233" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="234" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="I233" t="s">
+        <v>185</v>
+      </c>
+      <c r="J233" t="s">
+        <v>83</v>
+      </c>
+      <c r="K233" t="s">
+        <v>176</v>
+      </c>
+      <c r="L233" t="s">
+        <v>127</v>
+      </c>
+      <c r="M233" t="s">
+        <v>91</v>
+      </c>
+      <c r="N233" t="s">
+        <v>92</v>
+      </c>
+      <c r="O233" t="s">
+        <v>107</v>
+      </c>
+      <c r="P233" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>177</v>
+      </c>
+      <c r="R233" t="s">
+        <v>83</v>
+      </c>
+      <c r="S233" t="s">
+        <v>96</v>
+      </c>
+      <c r="T233" t="s">
+        <v>97</v>
+      </c>
+      <c r="U233" t="s">
+        <v>109</v>
+      </c>
+      <c r="V233" t="s">
+        <v>110</v>
+      </c>
+      <c r="W233" t="s">
+        <v>111</v>
+      </c>
+      <c r="X233" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>484</v>
       </c>
@@ -25160,8 +25517,20 @@
       <c r="E234" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="235" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="I234" t="s">
+        <v>212</v>
+      </c>
+      <c r="J234" t="s">
+        <v>106</v>
+      </c>
+      <c r="K234" t="s">
+        <v>168</v>
+      </c>
+      <c r="L234" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="235" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>485</v>
       </c>
@@ -25174,8 +25543,104 @@
       <c r="F235" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="236" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="I235" t="s">
+        <v>101</v>
+      </c>
+      <c r="J235" t="s">
+        <v>102</v>
+      </c>
+      <c r="K235" t="s">
+        <v>185</v>
+      </c>
+      <c r="L235" t="s">
+        <v>83</v>
+      </c>
+      <c r="M235" t="s">
+        <v>176</v>
+      </c>
+      <c r="N235" t="s">
+        <v>127</v>
+      </c>
+      <c r="O235" t="s">
+        <v>91</v>
+      </c>
+      <c r="P235" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>156</v>
+      </c>
+      <c r="R235" t="s">
+        <v>84</v>
+      </c>
+      <c r="S235" t="s">
+        <v>157</v>
+      </c>
+      <c r="T235" t="s">
+        <v>129</v>
+      </c>
+      <c r="U235" t="s">
+        <v>118</v>
+      </c>
+      <c r="V235" t="s">
+        <v>119</v>
+      </c>
+      <c r="W235" t="s">
+        <v>107</v>
+      </c>
+      <c r="X235" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>486</v>
       </c>
@@ -25189,7 +25654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>487</v>
       </c>
@@ -25203,7 +25668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="238" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>488</v>
       </c>
@@ -25217,7 +25682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="239" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>489</v>
       </c>
@@ -25231,7 +25696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>490</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8986FA-EEF6-47F9-AE6D-4E326EBD2CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C7B2E-4E88-4E36-8B4B-A80987E05F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8566" uniqueCount="784">
   <si>
     <t>Name</t>
   </si>
@@ -2360,6 +2360,18 @@
   </si>
   <si>
     <t>Mach Punch</t>
+  </si>
+  <si>
+    <t>Axe Kick</t>
+  </si>
+  <si>
+    <t>High Jump Kick</t>
+  </si>
+  <si>
+    <t>Sky Uppercut</t>
+  </si>
+  <si>
+    <t>Bone Rush</t>
   </si>
 </sst>
 </file>
@@ -2724,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="I236" sqref="I236"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25653,6 +25665,48 @@
       <c r="E236" t="s">
         <v>85</v>
       </c>
+      <c r="I236" t="s">
+        <v>121</v>
+      </c>
+      <c r="J236" t="s">
+        <v>122</v>
+      </c>
+      <c r="K236" t="s">
+        <v>133</v>
+      </c>
+      <c r="L236" t="s">
+        <v>87</v>
+      </c>
+      <c r="M236" t="s">
+        <v>780</v>
+      </c>
+      <c r="N236" t="s">
+        <v>87</v>
+      </c>
+      <c r="O236" t="s">
+        <v>93</v>
+      </c>
+      <c r="P236" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>115</v>
+      </c>
+      <c r="R236" t="s">
+        <v>116</v>
+      </c>
+      <c r="S236" t="s">
+        <v>86</v>
+      </c>
+      <c r="T236" t="s">
+        <v>87</v>
+      </c>
+      <c r="U236" t="s">
+        <v>187</v>
+      </c>
+      <c r="V236" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="237" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
@@ -25667,6 +25721,174 @@
       <c r="E237" t="s">
         <v>85</v>
       </c>
+      <c r="I237" t="s">
+        <v>204</v>
+      </c>
+      <c r="J237" t="s">
+        <v>122</v>
+      </c>
+      <c r="K237" t="s">
+        <v>133</v>
+      </c>
+      <c r="L237" t="s">
+        <v>87</v>
+      </c>
+      <c r="M237" t="s">
+        <v>781</v>
+      </c>
+      <c r="N237" t="s">
+        <v>87</v>
+      </c>
+      <c r="O237" t="s">
+        <v>101</v>
+      </c>
+      <c r="P237" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>104</v>
+      </c>
+      <c r="R237" t="s">
+        <v>87</v>
+      </c>
+      <c r="S237" t="s">
+        <v>124</v>
+      </c>
+      <c r="T237" t="s">
+        <v>87</v>
+      </c>
+      <c r="U237" t="s">
+        <v>185</v>
+      </c>
+      <c r="V237" t="s">
+        <v>83</v>
+      </c>
+      <c r="W237" t="s">
+        <v>93</v>
+      </c>
+      <c r="X237" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR237" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX237" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY237" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ237" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA237" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB237" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC237" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD237" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE237" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF237" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG237" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH237" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI237" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ237" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK237" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL237" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="238" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
@@ -25681,6 +25903,120 @@
       <c r="E238" t="s">
         <v>85</v>
       </c>
+      <c r="I238" t="s">
+        <v>101</v>
+      </c>
+      <c r="J238" t="s">
+        <v>102</v>
+      </c>
+      <c r="K238" t="s">
+        <v>88</v>
+      </c>
+      <c r="L238" t="s">
+        <v>89</v>
+      </c>
+      <c r="M238" t="s">
+        <v>112</v>
+      </c>
+      <c r="N238" t="s">
+        <v>95</v>
+      </c>
+      <c r="O238" t="s">
+        <v>110</v>
+      </c>
+      <c r="P238" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>775</v>
+      </c>
+      <c r="R238" t="s">
+        <v>117</v>
+      </c>
+      <c r="S238" t="s">
+        <v>144</v>
+      </c>
+      <c r="T238" t="s">
+        <v>100</v>
+      </c>
+      <c r="U238" t="s">
+        <v>137</v>
+      </c>
+      <c r="V238" t="s">
+        <v>102</v>
+      </c>
+      <c r="W238" t="s">
+        <v>154</v>
+      </c>
+      <c r="X238" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="239" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
@@ -25695,6 +26031,84 @@
       <c r="E239" t="s">
         <v>85</v>
       </c>
+      <c r="I239" t="s">
+        <v>121</v>
+      </c>
+      <c r="J239" t="s">
+        <v>122</v>
+      </c>
+      <c r="K239" t="s">
+        <v>101</v>
+      </c>
+      <c r="L239" t="s">
+        <v>102</v>
+      </c>
+      <c r="M239" t="s">
+        <v>124</v>
+      </c>
+      <c r="N239" t="s">
+        <v>87</v>
+      </c>
+      <c r="O239" t="s">
+        <v>159</v>
+      </c>
+      <c r="P239" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>156</v>
+      </c>
+      <c r="R239" t="s">
+        <v>84</v>
+      </c>
+      <c r="S239" t="s">
+        <v>249</v>
+      </c>
+      <c r="T239" t="s">
+        <v>84</v>
+      </c>
+      <c r="U239" t="s">
+        <v>114</v>
+      </c>
+      <c r="V239" t="s">
+        <v>110</v>
+      </c>
+      <c r="W239" t="s">
+        <v>86</v>
+      </c>
+      <c r="X239" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="240" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
@@ -25705,6 +26119,72 @@
       </c>
       <c r="E240" t="s">
         <v>85</v>
+      </c>
+      <c r="I240" t="s">
+        <v>156</v>
+      </c>
+      <c r="J240" t="s">
+        <v>84</v>
+      </c>
+      <c r="K240" t="s">
+        <v>115</v>
+      </c>
+      <c r="L240" t="s">
+        <v>116</v>
+      </c>
+      <c r="M240" t="s">
+        <v>168</v>
+      </c>
+      <c r="N240" t="s">
+        <v>108</v>
+      </c>
+      <c r="O240" t="s">
+        <v>171</v>
+      </c>
+      <c r="P240" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>329</v>
+      </c>
+      <c r="R240" t="s">
+        <v>116</v>
+      </c>
+      <c r="S240" t="s">
+        <v>194</v>
+      </c>
+      <c r="T240" t="s">
+        <v>106</v>
+      </c>
+      <c r="U240" t="s">
+        <v>179</v>
+      </c>
+      <c r="V240" t="s">
+        <v>106</v>
+      </c>
+      <c r="W240" t="s">
+        <v>205</v>
+      </c>
+      <c r="X240" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C7B2E-4E88-4E36-8B4B-A80987E05F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A59893-6BBA-455E-A0CD-DF2B68042F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8566" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8774" uniqueCount="784">
   <si>
     <t>Name</t>
   </si>
@@ -2736,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26187,7 +26187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>491</v>
       </c>
@@ -26200,8 +26200,74 @@
       <c r="E241" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I241" t="s">
+        <v>199</v>
+      </c>
+      <c r="J241" t="s">
+        <v>92</v>
+      </c>
+      <c r="K241" t="s">
+        <v>185</v>
+      </c>
+      <c r="L241" t="s">
+        <v>83</v>
+      </c>
+      <c r="M241" t="s">
+        <v>88</v>
+      </c>
+      <c r="N241" t="s">
+        <v>89</v>
+      </c>
+      <c r="O241" t="s">
+        <v>169</v>
+      </c>
+      <c r="P241" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>90</v>
+      </c>
+      <c r="R241" t="s">
+        <v>89</v>
+      </c>
+      <c r="S241" t="s">
+        <v>156</v>
+      </c>
+      <c r="T241" t="s">
+        <v>84</v>
+      </c>
+      <c r="U241" t="s">
+        <v>141</v>
+      </c>
+      <c r="V241" t="s">
+        <v>92</v>
+      </c>
+      <c r="W241" t="s">
+        <v>96</v>
+      </c>
+      <c r="X241" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>492</v>
       </c>
@@ -26211,8 +26277,104 @@
       <c r="E242" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I242" t="s">
+        <v>101</v>
+      </c>
+      <c r="J242" t="s">
+        <v>102</v>
+      </c>
+      <c r="K242" t="s">
+        <v>152</v>
+      </c>
+      <c r="L242" t="s">
+        <v>87</v>
+      </c>
+      <c r="M242" t="s">
+        <v>212</v>
+      </c>
+      <c r="N242" t="s">
+        <v>106</v>
+      </c>
+      <c r="O242" t="s">
+        <v>207</v>
+      </c>
+      <c r="P242" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>203</v>
+      </c>
+      <c r="R242" t="s">
+        <v>127</v>
+      </c>
+      <c r="S242" t="s">
+        <v>113</v>
+      </c>
+      <c r="T242" t="s">
+        <v>106</v>
+      </c>
+      <c r="U242" t="s">
+        <v>86</v>
+      </c>
+      <c r="V242" t="s">
+        <v>87</v>
+      </c>
+      <c r="W242" t="s">
+        <v>194</v>
+      </c>
+      <c r="X242" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -26222,8 +26384,26 @@
       <c r="E243" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I243" t="s">
+        <v>156</v>
+      </c>
+      <c r="J243" t="s">
+        <v>84</v>
+      </c>
+      <c r="K243" t="s">
+        <v>115</v>
+      </c>
+      <c r="L243" t="s">
+        <v>116</v>
+      </c>
+      <c r="M243" t="s">
+        <v>208</v>
+      </c>
+      <c r="N243" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>494</v>
       </c>
@@ -26233,8 +26413,68 @@
       <c r="E244" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I244" t="s">
+        <v>152</v>
+      </c>
+      <c r="J244" t="s">
+        <v>87</v>
+      </c>
+      <c r="K244" t="s">
+        <v>91</v>
+      </c>
+      <c r="L244" t="s">
+        <v>92</v>
+      </c>
+      <c r="M244" t="s">
+        <v>107</v>
+      </c>
+      <c r="N244" t="s">
+        <v>108</v>
+      </c>
+      <c r="O244" t="s">
+        <v>142</v>
+      </c>
+      <c r="P244" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>137</v>
+      </c>
+      <c r="R244" t="s">
+        <v>102</v>
+      </c>
+      <c r="S244" t="s">
+        <v>186</v>
+      </c>
+      <c r="T244" t="s">
+        <v>102</v>
+      </c>
+      <c r="U244" t="s">
+        <v>194</v>
+      </c>
+      <c r="V244" t="s">
+        <v>106</v>
+      </c>
+      <c r="W244" t="s">
+        <v>228</v>
+      </c>
+      <c r="X244" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>495</v>
       </c>
@@ -26244,8 +26484,104 @@
       <c r="E245" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I245" t="s">
+        <v>104</v>
+      </c>
+      <c r="J245" t="s">
+        <v>87</v>
+      </c>
+      <c r="K245" t="s">
+        <v>91</v>
+      </c>
+      <c r="L245" t="s">
+        <v>92</v>
+      </c>
+      <c r="M245" t="s">
+        <v>90</v>
+      </c>
+      <c r="N245" t="s">
+        <v>89</v>
+      </c>
+      <c r="O245" t="s">
+        <v>107</v>
+      </c>
+      <c r="P245" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>142</v>
+      </c>
+      <c r="R245" t="s">
+        <v>110</v>
+      </c>
+      <c r="S245" t="s">
+        <v>256</v>
+      </c>
+      <c r="T245" t="s">
+        <v>89</v>
+      </c>
+      <c r="U245" t="s">
+        <v>137</v>
+      </c>
+      <c r="V245" t="s">
+        <v>102</v>
+      </c>
+      <c r="W245" t="s">
+        <v>141</v>
+      </c>
+      <c r="X245" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>496</v>
       </c>
@@ -26255,8 +26591,128 @@
       <c r="E246" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I246" t="s">
+        <v>121</v>
+      </c>
+      <c r="J246" t="s">
+        <v>122</v>
+      </c>
+      <c r="K246" t="s">
+        <v>133</v>
+      </c>
+      <c r="L246" t="s">
+        <v>87</v>
+      </c>
+      <c r="M246" t="s">
+        <v>104</v>
+      </c>
+      <c r="N246" t="s">
+        <v>87</v>
+      </c>
+      <c r="O246" t="s">
+        <v>99</v>
+      </c>
+      <c r="P246" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>91</v>
+      </c>
+      <c r="R246" t="s">
+        <v>92</v>
+      </c>
+      <c r="S246" t="s">
+        <v>90</v>
+      </c>
+      <c r="T246" t="s">
+        <v>89</v>
+      </c>
+      <c r="U246" t="s">
+        <v>107</v>
+      </c>
+      <c r="V246" t="s">
+        <v>108</v>
+      </c>
+      <c r="W246" t="s">
+        <v>142</v>
+      </c>
+      <c r="X246" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP246" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR246" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT246" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>497</v>
       </c>
@@ -26266,8 +26722,176 @@
       <c r="E247" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I247" t="s">
+        <v>121</v>
+      </c>
+      <c r="J247" t="s">
+        <v>122</v>
+      </c>
+      <c r="K247" t="s">
+        <v>133</v>
+      </c>
+      <c r="L247" t="s">
+        <v>87</v>
+      </c>
+      <c r="M247" t="s">
+        <v>101</v>
+      </c>
+      <c r="N247" t="s">
+        <v>102</v>
+      </c>
+      <c r="O247" t="s">
+        <v>104</v>
+      </c>
+      <c r="P247" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>99</v>
+      </c>
+      <c r="R247" t="s">
+        <v>100</v>
+      </c>
+      <c r="S247" t="s">
+        <v>91</v>
+      </c>
+      <c r="T247" t="s">
+        <v>92</v>
+      </c>
+      <c r="U247" t="s">
+        <v>175</v>
+      </c>
+      <c r="V247" t="s">
+        <v>102</v>
+      </c>
+      <c r="W247" t="s">
+        <v>90</v>
+      </c>
+      <c r="X247" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP247" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR247" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT247" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV247" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW247" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX247" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY247" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ247" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA247" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB247" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC247" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD247" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE247" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF247" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG247" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH247" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI247" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ247" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK247" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL247" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>498</v>
       </c>
@@ -26278,7 +26902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>499</v>
       </c>
@@ -26289,7 +26913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>500</v>
       </c>
@@ -26303,7 +26927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -26317,7 +26941,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -26331,7 +26955,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>503</v>
       </c>
@@ -26345,7 +26969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -26356,7 +26980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -26370,7 +26994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>506</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A59893-6BBA-455E-A0CD-DF2B68042F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9483EC-745C-4DBF-B9CA-FD68209A11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8774" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8852" uniqueCount="784">
   <si>
     <t>Name</t>
   </si>
@@ -2737,7 +2737,7 @@
   <dimension ref="A1:CD488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="I248" sqref="I248"/>
+      <selection activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26901,6 +26901,66 @@
       <c r="E248" t="s">
         <v>85</v>
       </c>
+      <c r="I248" t="s">
+        <v>777</v>
+      </c>
+      <c r="J248" t="s">
+        <v>122</v>
+      </c>
+      <c r="K248" t="s">
+        <v>133</v>
+      </c>
+      <c r="L248" t="s">
+        <v>87</v>
+      </c>
+      <c r="M248" t="s">
+        <v>99</v>
+      </c>
+      <c r="N248" t="s">
+        <v>100</v>
+      </c>
+      <c r="O248" t="s">
+        <v>107</v>
+      </c>
+      <c r="P248" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>214</v>
+      </c>
+      <c r="R248" t="s">
+        <v>119</v>
+      </c>
+      <c r="S248" t="s">
+        <v>142</v>
+      </c>
+      <c r="T248" t="s">
+        <v>110</v>
+      </c>
+      <c r="U248" t="s">
+        <v>160</v>
+      </c>
+      <c r="V248" t="s">
+        <v>89</v>
+      </c>
+      <c r="W248" t="s">
+        <v>139</v>
+      </c>
+      <c r="X248" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="249" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
@@ -26912,6 +26972,144 @@
       <c r="E249" t="s">
         <v>85</v>
       </c>
+      <c r="I249" t="s">
+        <v>121</v>
+      </c>
+      <c r="J249" t="s">
+        <v>122</v>
+      </c>
+      <c r="K249" t="s">
+        <v>101</v>
+      </c>
+      <c r="L249" t="s">
+        <v>102</v>
+      </c>
+      <c r="M249" t="s">
+        <v>201</v>
+      </c>
+      <c r="N249" t="s">
+        <v>92</v>
+      </c>
+      <c r="O249" t="s">
+        <v>766</v>
+      </c>
+      <c r="P249" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>88</v>
+      </c>
+      <c r="R249" t="s">
+        <v>89</v>
+      </c>
+      <c r="S249" t="s">
+        <v>112</v>
+      </c>
+      <c r="T249" t="s">
+        <v>95</v>
+      </c>
+      <c r="U249" t="s">
+        <v>155</v>
+      </c>
+      <c r="V249" t="s">
+        <v>117</v>
+      </c>
+      <c r="W249" t="s">
+        <v>273</v>
+      </c>
+      <c r="X249" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP249" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>774</v>
+      </c>
+      <c r="AX249" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY249" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ249" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA249" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB249" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="250" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
@@ -26925,6 +27123,42 @@
       </c>
       <c r="E250" t="s">
         <v>85</v>
+      </c>
+      <c r="I250" t="s">
+        <v>199</v>
+      </c>
+      <c r="J250" t="s">
+        <v>92</v>
+      </c>
+      <c r="K250" t="s">
+        <v>166</v>
+      </c>
+      <c r="L250" t="s">
+        <v>83</v>
+      </c>
+      <c r="M250" t="s">
+        <v>88</v>
+      </c>
+      <c r="N250" t="s">
+        <v>89</v>
+      </c>
+      <c r="O250" t="s">
+        <v>215</v>
+      </c>
+      <c r="P250" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>90</v>
+      </c>
+      <c r="R250" t="s">
+        <v>89</v>
+      </c>
+      <c r="S250" t="s">
+        <v>145</v>
+      </c>
+      <c r="T250" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:64" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9483EC-745C-4DBF-B9CA-FD68209A11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13262BBA-DF2B-41BE-9374-DB63D375BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8852" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="786">
   <si>
     <t>Name</t>
   </si>
@@ -2372,6 +2372,12 @@
   </si>
   <si>
     <t>Bone Rush</t>
+  </si>
+  <si>
+    <t>Tye</t>
+  </si>
+  <si>
+    <t>Flame Burst</t>
   </si>
 </sst>
 </file>
@@ -2736,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="I251" sqref="I251"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27174,6 +27180,150 @@
       <c r="G251" t="s">
         <v>148</v>
       </c>
+      <c r="I251" t="s">
+        <v>121</v>
+      </c>
+      <c r="J251" t="s">
+        <v>784</v>
+      </c>
+      <c r="K251" t="s">
+        <v>101</v>
+      </c>
+      <c r="L251" t="s">
+        <v>102</v>
+      </c>
+      <c r="M251" t="s">
+        <v>124</v>
+      </c>
+      <c r="N251" t="s">
+        <v>87</v>
+      </c>
+      <c r="O251" t="s">
+        <v>93</v>
+      </c>
+      <c r="P251" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>297</v>
+      </c>
+      <c r="R251" t="s">
+        <v>127</v>
+      </c>
+      <c r="S251" t="s">
+        <v>166</v>
+      </c>
+      <c r="T251" t="s">
+        <v>83</v>
+      </c>
+      <c r="U251" t="s">
+        <v>253</v>
+      </c>
+      <c r="V251" t="s">
+        <v>87</v>
+      </c>
+      <c r="W251" t="s">
+        <v>88</v>
+      </c>
+      <c r="X251" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ251" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>779</v>
+      </c>
+      <c r="BB251" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC251" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD251" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="252" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
@@ -27188,6 +27338,66 @@
       <c r="E252" t="s">
         <v>85</v>
       </c>
+      <c r="I252" t="s">
+        <v>133</v>
+      </c>
+      <c r="J252" t="s">
+        <v>87</v>
+      </c>
+      <c r="K252" t="s">
+        <v>101</v>
+      </c>
+      <c r="L252" t="s">
+        <v>102</v>
+      </c>
+      <c r="M252" t="s">
+        <v>152</v>
+      </c>
+      <c r="N252" t="s">
+        <v>87</v>
+      </c>
+      <c r="O252" t="s">
+        <v>155</v>
+      </c>
+      <c r="P252" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>110</v>
+      </c>
+      <c r="R252" t="s">
+        <v>110</v>
+      </c>
+      <c r="S252" t="s">
+        <v>118</v>
+      </c>
+      <c r="T252" t="s">
+        <v>119</v>
+      </c>
+      <c r="U252" t="s">
+        <v>232</v>
+      </c>
+      <c r="V252" t="s">
+        <v>129</v>
+      </c>
+      <c r="W252" t="s">
+        <v>295</v>
+      </c>
+      <c r="X252" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="253" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
@@ -27202,6 +27412,42 @@
       <c r="E253" t="s">
         <v>85</v>
       </c>
+      <c r="I253" t="s">
+        <v>219</v>
+      </c>
+      <c r="J253" t="s">
+        <v>117</v>
+      </c>
+      <c r="K253" t="s">
+        <v>96</v>
+      </c>
+      <c r="L253" t="s">
+        <v>97</v>
+      </c>
+      <c r="M253" t="s">
+        <v>170</v>
+      </c>
+      <c r="N253" t="s">
+        <v>92</v>
+      </c>
+      <c r="O253" t="s">
+        <v>179</v>
+      </c>
+      <c r="P253" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>210</v>
+      </c>
+      <c r="R253" t="s">
+        <v>95</v>
+      </c>
+      <c r="S253" t="s">
+        <v>783</v>
+      </c>
+      <c r="T253" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="254" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
@@ -27213,6 +27459,60 @@
       <c r="E254" t="s">
         <v>85</v>
       </c>
+      <c r="I254" t="s">
+        <v>348</v>
+      </c>
+      <c r="J254" t="s">
+        <v>117</v>
+      </c>
+      <c r="K254" t="s">
+        <v>91</v>
+      </c>
+      <c r="L254" t="s">
+        <v>92</v>
+      </c>
+      <c r="M254" t="s">
+        <v>155</v>
+      </c>
+      <c r="N254" t="s">
+        <v>117</v>
+      </c>
+      <c r="O254" t="s">
+        <v>142</v>
+      </c>
+      <c r="P254" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>137</v>
+      </c>
+      <c r="R254" t="s">
+        <v>102</v>
+      </c>
+      <c r="S254" t="s">
+        <v>194</v>
+      </c>
+      <c r="T254" t="s">
+        <v>106</v>
+      </c>
+      <c r="U254" t="s">
+        <v>785</v>
+      </c>
+      <c r="V254" t="s">
+        <v>117</v>
+      </c>
+      <c r="W254" t="s">
+        <v>139</v>
+      </c>
+      <c r="X254" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="255" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
@@ -27226,6 +27526,84 @@
       </c>
       <c r="E255" t="s">
         <v>85</v>
+      </c>
+      <c r="I255" t="s">
+        <v>204</v>
+      </c>
+      <c r="J255" t="s">
+        <v>122</v>
+      </c>
+      <c r="K255" t="s">
+        <v>176</v>
+      </c>
+      <c r="L255" t="s">
+        <v>127</v>
+      </c>
+      <c r="M255" t="s">
+        <v>88</v>
+      </c>
+      <c r="N255" t="s">
+        <v>89</v>
+      </c>
+      <c r="O255" t="s">
+        <v>156</v>
+      </c>
+      <c r="P255" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>98</v>
+      </c>
+      <c r="R255" t="s">
+        <v>87</v>
+      </c>
+      <c r="S255" t="s">
+        <v>141</v>
+      </c>
+      <c r="T255" t="s">
+        <v>92</v>
+      </c>
+      <c r="U255" t="s">
+        <v>177</v>
+      </c>
+      <c r="V255" t="s">
+        <v>83</v>
+      </c>
+      <c r="W255" t="s">
+        <v>94</v>
+      </c>
+      <c r="X255" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:64" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13262BBA-DF2B-41BE-9374-DB63D375BE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A663E5DE-5101-41E7-8931-1F117E13393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9420" uniqueCount="789">
   <si>
     <t>Name</t>
   </si>
@@ -2378,6 +2378,15 @@
   </si>
   <si>
     <t>Flame Burst</t>
+  </si>
+  <si>
+    <t>Bone Club</t>
+  </si>
+  <si>
+    <t>Bonemerang</t>
+  </si>
+  <si>
+    <t>Meowstic-F</t>
   </si>
 </sst>
 </file>
@@ -2740,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD488"/>
+  <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27616,8 +27625,50 @@
       <c r="E256" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I256" t="s">
+        <v>115</v>
+      </c>
+      <c r="J256" t="s">
+        <v>116</v>
+      </c>
+      <c r="K256" t="s">
+        <v>203</v>
+      </c>
+      <c r="L256" t="s">
+        <v>127</v>
+      </c>
+      <c r="M256" t="s">
+        <v>186</v>
+      </c>
+      <c r="N256" t="s">
+        <v>102</v>
+      </c>
+      <c r="O256" t="s">
+        <v>132</v>
+      </c>
+      <c r="P256" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>200</v>
+      </c>
+      <c r="R256" t="s">
+        <v>102</v>
+      </c>
+      <c r="S256" t="s">
+        <v>130</v>
+      </c>
+      <c r="T256" t="s">
+        <v>102</v>
+      </c>
+      <c r="U256" t="s">
+        <v>296</v>
+      </c>
+      <c r="V256" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="257" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>507</v>
       </c>
@@ -27627,8 +27678,122 @@
       <c r="E257" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I257" t="s">
+        <v>121</v>
+      </c>
+      <c r="J257" t="s">
+        <v>122</v>
+      </c>
+      <c r="K257" t="s">
+        <v>101</v>
+      </c>
+      <c r="L257" t="s">
+        <v>102</v>
+      </c>
+      <c r="M257" t="s">
+        <v>93</v>
+      </c>
+      <c r="N257" t="s">
+        <v>87</v>
+      </c>
+      <c r="O257" t="s">
+        <v>99</v>
+      </c>
+      <c r="P257" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>155</v>
+      </c>
+      <c r="R257" t="s">
+        <v>117</v>
+      </c>
+      <c r="S257" t="s">
+        <v>112</v>
+      </c>
+      <c r="T257" t="s">
+        <v>95</v>
+      </c>
+      <c r="U257" t="s">
+        <v>159</v>
+      </c>
+      <c r="V257" t="s">
+        <v>87</v>
+      </c>
+      <c r="W257" t="s">
+        <v>91</v>
+      </c>
+      <c r="X257" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR257" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT257" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="258" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -27641,8 +27806,176 @@
       <c r="E258" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I258" t="s">
+        <v>121</v>
+      </c>
+      <c r="J258" t="s">
+        <v>122</v>
+      </c>
+      <c r="K258" t="s">
+        <v>101</v>
+      </c>
+      <c r="L258" t="s">
+        <v>102</v>
+      </c>
+      <c r="M258" t="s">
+        <v>124</v>
+      </c>
+      <c r="N258" t="s">
+        <v>87</v>
+      </c>
+      <c r="O258" t="s">
+        <v>93</v>
+      </c>
+      <c r="P258" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>99</v>
+      </c>
+      <c r="R258" t="s">
+        <v>100</v>
+      </c>
+      <c r="S258" t="s">
+        <v>88</v>
+      </c>
+      <c r="T258" t="s">
+        <v>89</v>
+      </c>
+      <c r="U258" t="s">
+        <v>112</v>
+      </c>
+      <c r="V258" t="s">
+        <v>95</v>
+      </c>
+      <c r="W258" t="s">
+        <v>159</v>
+      </c>
+      <c r="X258" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR258" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX258" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY258" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ258" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA258" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB258" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC258" t="s">
+        <v>786</v>
+      </c>
+      <c r="BD258" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE258" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF258" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG258" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH258" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI258" t="s">
+        <v>787</v>
+      </c>
+      <c r="BJ258" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK258" t="s">
+        <v>783</v>
+      </c>
+      <c r="BL258" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="259" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>509</v>
       </c>
@@ -27655,8 +27988,86 @@
       <c r="E259" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I259" t="s">
+        <v>166</v>
+      </c>
+      <c r="J259" t="s">
+        <v>83</v>
+      </c>
+      <c r="K259" t="s">
+        <v>225</v>
+      </c>
+      <c r="L259" t="s">
+        <v>129</v>
+      </c>
+      <c r="M259" t="s">
+        <v>175</v>
+      </c>
+      <c r="N259" t="s">
+        <v>102</v>
+      </c>
+      <c r="O259" t="s">
+        <v>125</v>
+      </c>
+      <c r="P259" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>156</v>
+      </c>
+      <c r="R259" t="s">
+        <v>84</v>
+      </c>
+      <c r="S259" t="s">
+        <v>157</v>
+      </c>
+      <c r="T259" t="s">
+        <v>129</v>
+      </c>
+      <c r="U259" t="s">
+        <v>232</v>
+      </c>
+      <c r="V259" t="s">
+        <v>129</v>
+      </c>
+      <c r="W259" t="s">
+        <v>305</v>
+      </c>
+      <c r="X259" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="260" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>510</v>
       </c>
@@ -27669,8 +28080,74 @@
       <c r="F260" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I260" t="s">
+        <v>185</v>
+      </c>
+      <c r="J260" t="s">
+        <v>83</v>
+      </c>
+      <c r="K260" t="s">
+        <v>93</v>
+      </c>
+      <c r="L260" t="s">
+        <v>87</v>
+      </c>
+      <c r="M260" t="s">
+        <v>107</v>
+      </c>
+      <c r="N260" t="s">
+        <v>108</v>
+      </c>
+      <c r="O260" t="s">
+        <v>137</v>
+      </c>
+      <c r="P260" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>177</v>
+      </c>
+      <c r="R260" t="s">
+        <v>83</v>
+      </c>
+      <c r="S260" t="s">
+        <v>160</v>
+      </c>
+      <c r="T260" t="s">
+        <v>89</v>
+      </c>
+      <c r="U260" t="s">
+        <v>111</v>
+      </c>
+      <c r="V260" t="s">
+        <v>97</v>
+      </c>
+      <c r="W260" t="s">
+        <v>179</v>
+      </c>
+      <c r="X260" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="261" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>511</v>
       </c>
@@ -27683,8 +28160,170 @@
       <c r="E261" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I261" t="s">
+        <v>121</v>
+      </c>
+      <c r="J261" t="s">
+        <v>122</v>
+      </c>
+      <c r="K261" t="s">
+        <v>755</v>
+      </c>
+      <c r="L261" t="s">
+        <v>122</v>
+      </c>
+      <c r="M261" t="s">
+        <v>101</v>
+      </c>
+      <c r="N261" t="s">
+        <v>102</v>
+      </c>
+      <c r="O261" t="s">
+        <v>124</v>
+      </c>
+      <c r="P261" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>185</v>
+      </c>
+      <c r="R261" t="s">
+        <v>83</v>
+      </c>
+      <c r="S261" t="s">
+        <v>166</v>
+      </c>
+      <c r="T261" t="s">
+        <v>83</v>
+      </c>
+      <c r="U261" t="s">
+        <v>112</v>
+      </c>
+      <c r="V261" t="s">
+        <v>95</v>
+      </c>
+      <c r="W261" t="s">
+        <v>159</v>
+      </c>
+      <c r="X261" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP261" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR261" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS261" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT261" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU261" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV261" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW261" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX261" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY261" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ261" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA261" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB261" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC261" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD261" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE261" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF261" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG261" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH261" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI261" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ261" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="262" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>512</v>
       </c>
@@ -27700,8 +28339,80 @@
       <c r="G262" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I262" t="s">
+        <v>121</v>
+      </c>
+      <c r="J262" t="s">
+        <v>122</v>
+      </c>
+      <c r="K262" t="s">
+        <v>101</v>
+      </c>
+      <c r="L262" t="s">
+        <v>102</v>
+      </c>
+      <c r="M262" t="s">
+        <v>185</v>
+      </c>
+      <c r="N262" t="s">
+        <v>83</v>
+      </c>
+      <c r="O262" t="s">
+        <v>125</v>
+      </c>
+      <c r="P262" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>203</v>
+      </c>
+      <c r="R262" t="s">
+        <v>127</v>
+      </c>
+      <c r="S262" t="s">
+        <v>96</v>
+      </c>
+      <c r="T262" t="s">
+        <v>97</v>
+      </c>
+      <c r="U262" t="s">
+        <v>150</v>
+      </c>
+      <c r="V262" t="s">
+        <v>117</v>
+      </c>
+      <c r="W262" t="s">
+        <v>151</v>
+      </c>
+      <c r="X262" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="263" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>513</v>
       </c>
@@ -27711,8 +28422,56 @@
       <c r="E263" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I263" t="s">
+        <v>121</v>
+      </c>
+      <c r="J263" t="s">
+        <v>122</v>
+      </c>
+      <c r="K263" t="s">
+        <v>99</v>
+      </c>
+      <c r="L263" t="s">
+        <v>100</v>
+      </c>
+      <c r="M263" t="s">
+        <v>88</v>
+      </c>
+      <c r="N263" t="s">
+        <v>89</v>
+      </c>
+      <c r="O263" t="s">
+        <v>91</v>
+      </c>
+      <c r="P263" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>98</v>
+      </c>
+      <c r="R263" t="s">
+        <v>87</v>
+      </c>
+      <c r="S263" t="s">
+        <v>114</v>
+      </c>
+      <c r="T263" t="s">
+        <v>110</v>
+      </c>
+      <c r="U263" t="s">
+        <v>130</v>
+      </c>
+      <c r="V263" t="s">
+        <v>102</v>
+      </c>
+      <c r="W263" t="s">
+        <v>145</v>
+      </c>
+      <c r="X263" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="264" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>514</v>
       </c>
@@ -27725,8 +28484,176 @@
       <c r="E264" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I264" t="s">
+        <v>101</v>
+      </c>
+      <c r="J264" t="s">
+        <v>102</v>
+      </c>
+      <c r="K264" t="s">
+        <v>185</v>
+      </c>
+      <c r="L264" t="s">
+        <v>83</v>
+      </c>
+      <c r="M264" t="s">
+        <v>104</v>
+      </c>
+      <c r="N264" t="s">
+        <v>87</v>
+      </c>
+      <c r="O264" t="s">
+        <v>124</v>
+      </c>
+      <c r="P264" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>93</v>
+      </c>
+      <c r="R264" t="s">
+        <v>87</v>
+      </c>
+      <c r="S264" t="s">
+        <v>133</v>
+      </c>
+      <c r="T264" t="s">
+        <v>87</v>
+      </c>
+      <c r="U264" t="s">
+        <v>112</v>
+      </c>
+      <c r="V264" t="s">
+        <v>95</v>
+      </c>
+      <c r="W264" t="s">
+        <v>125</v>
+      </c>
+      <c r="X264" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR264" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS264" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT264" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU264" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV264" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX264" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY264" t="s">
+        <v>322</v>
+      </c>
+      <c r="AZ264" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA264" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB264" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC264" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD264" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE264" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF264" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG264" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH264" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI264" t="s">
+        <v>180</v>
+      </c>
+      <c r="BJ264" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK264" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL264" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="265" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>515</v>
       </c>
@@ -27736,8 +28663,11 @@
       <c r="E265" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I265" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>516</v>
       </c>
@@ -27747,10 +28677,76 @@
       <c r="E266" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I266" t="s">
+        <v>168</v>
+      </c>
+      <c r="J266" t="s">
+        <v>108</v>
+      </c>
+      <c r="K266" t="s">
+        <v>154</v>
+      </c>
+      <c r="L266" t="s">
+        <v>102</v>
+      </c>
+      <c r="M266" t="s">
+        <v>125</v>
+      </c>
+      <c r="N266" t="s">
+        <v>83</v>
+      </c>
+      <c r="O266" t="s">
+        <v>91</v>
+      </c>
+      <c r="P266" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>107</v>
+      </c>
+      <c r="R266" t="s">
+        <v>108</v>
+      </c>
+      <c r="S266" t="s">
+        <v>118</v>
+      </c>
+      <c r="T266" t="s">
+        <v>119</v>
+      </c>
+      <c r="U266" t="s">
+        <v>96</v>
+      </c>
+      <c r="V266" t="s">
+        <v>97</v>
+      </c>
+      <c r="W266" t="s">
+        <v>160</v>
+      </c>
+      <c r="X266" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>517</v>
+        <v>788</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -27758,66 +28754,399 @@
       <c r="E267" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I267" t="s">
+        <v>125</v>
+      </c>
+      <c r="J267" t="s">
+        <v>83</v>
+      </c>
+      <c r="K267" t="s">
+        <v>107</v>
+      </c>
+      <c r="L267" t="s">
+        <v>108</v>
+      </c>
+      <c r="M267" t="s">
+        <v>118</v>
+      </c>
+      <c r="N267" t="s">
+        <v>119</v>
+      </c>
+      <c r="O267" t="s">
+        <v>154</v>
+      </c>
+      <c r="P267" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>168</v>
+      </c>
+      <c r="R267" t="s">
+        <v>108</v>
+      </c>
+      <c r="S267" t="s">
+        <v>96</v>
+      </c>
+      <c r="T267" t="s">
+        <v>97</v>
+      </c>
+      <c r="U267" t="s">
+        <v>160</v>
+      </c>
+      <c r="V267" t="s">
+        <v>89</v>
+      </c>
+      <c r="W267" t="s">
+        <v>194</v>
+      </c>
+      <c r="X267" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" t="s">
+        <v>110</v>
+      </c>
+      <c r="E268" t="s">
+        <v>85</v>
+      </c>
+      <c r="I268" t="s">
+        <v>101</v>
+      </c>
+      <c r="J268" t="s">
+        <v>102</v>
+      </c>
+      <c r="K268" t="s">
+        <v>185</v>
+      </c>
+      <c r="L268" t="s">
+        <v>83</v>
+      </c>
+      <c r="M268" t="s">
+        <v>91</v>
+      </c>
+      <c r="N268" t="s">
+        <v>92</v>
+      </c>
+      <c r="O268" t="s">
+        <v>125</v>
+      </c>
+      <c r="P268" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>156</v>
+      </c>
+      <c r="R268" t="s">
+        <v>84</v>
+      </c>
+      <c r="S268" t="s">
+        <v>107</v>
+      </c>
+      <c r="T268" t="s">
+        <v>108</v>
+      </c>
+      <c r="U268" t="s">
+        <v>118</v>
+      </c>
+      <c r="V268" t="s">
+        <v>119</v>
+      </c>
+      <c r="W268" t="s">
+        <v>171</v>
+      </c>
+      <c r="X268" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="269" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
         <v>518</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>92</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>110</v>
       </c>
-      <c r="E268" t="s">
-        <v>85</v>
-      </c>
-      <c r="G268" t="s">
+      <c r="E269" t="s">
+        <v>85</v>
+      </c>
+      <c r="G269" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
+      <c r="I269" t="s">
+        <v>185</v>
+      </c>
+      <c r="J269" t="s">
+        <v>83</v>
+      </c>
+      <c r="K269" t="s">
+        <v>195</v>
+      </c>
+      <c r="L269" t="s">
+        <v>95</v>
+      </c>
+      <c r="M269" t="s">
+        <v>88</v>
+      </c>
+      <c r="N269" t="s">
+        <v>89</v>
+      </c>
+      <c r="O269" t="s">
+        <v>742</v>
+      </c>
+      <c r="P269" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>112</v>
+      </c>
+      <c r="R269" t="s">
+        <v>95</v>
+      </c>
+      <c r="S269" t="s">
+        <v>159</v>
+      </c>
+      <c r="T269" t="s">
+        <v>87</v>
+      </c>
+      <c r="U269" t="s">
+        <v>126</v>
+      </c>
+      <c r="V269" t="s">
+        <v>127</v>
+      </c>
+      <c r="W269" t="s">
+        <v>98</v>
+      </c>
+      <c r="X269" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR269" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT269" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
         <v>519</v>
       </c>
-      <c r="B269" t="s">
-        <v>102</v>
-      </c>
-      <c r="E269" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
+        <v>102</v>
+      </c>
+      <c r="E270" t="s">
+        <v>85</v>
+      </c>
+      <c r="I270" t="s">
+        <v>121</v>
+      </c>
+      <c r="J270" t="s">
+        <v>122</v>
+      </c>
+      <c r="K270" t="s">
+        <v>91</v>
+      </c>
+      <c r="L270" t="s">
+        <v>92</v>
+      </c>
+      <c r="M270" t="s">
+        <v>107</v>
+      </c>
+      <c r="N270" t="s">
+        <v>108</v>
+      </c>
+      <c r="O270" t="s">
+        <v>142</v>
+      </c>
+      <c r="P270" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>96</v>
+      </c>
+      <c r="R270" t="s">
+        <v>97</v>
+      </c>
+      <c r="S270" t="s">
+        <v>160</v>
+      </c>
+      <c r="T270" t="s">
+        <v>89</v>
+      </c>
+      <c r="U270" t="s">
+        <v>139</v>
+      </c>
+      <c r="V270" t="s">
+        <v>117</v>
+      </c>
+      <c r="W270" t="s">
+        <v>140</v>
+      </c>
+      <c r="X270" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="271" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
         <v>520</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>129</v>
       </c>
-      <c r="E270" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
+      <c r="E271" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="272" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
         <v>521</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>173</v>
-      </c>
-      <c r="E271" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>522</v>
-      </c>
-      <c r="B272" t="s">
-        <v>97</v>
-      </c>
-      <c r="C272" t="s">
-        <v>108</v>
       </c>
       <c r="E272" t="s">
         <v>85</v>
@@ -27825,13 +29154,13 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B273" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C273" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E273" t="s">
         <v>85</v>
@@ -27839,10 +29168,13 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B274" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+      <c r="C274" t="s">
+        <v>116</v>
       </c>
       <c r="E274" t="s">
         <v>85</v>
@@ -27850,41 +29182,38 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B275" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E275" t="s">
         <v>85</v>
-      </c>
-      <c r="F275" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B276" t="s">
-        <v>119</v>
-      </c>
-      <c r="C276" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E276" t="s">
         <v>85</v>
+      </c>
+      <c r="F276" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B277" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C277" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E277" t="s">
         <v>85</v>
@@ -27892,13 +29221,13 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B278" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C278" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E278" t="s">
         <v>85</v>
@@ -27906,41 +29235,44 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B279" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C279" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E279" t="s">
         <v>85</v>
-      </c>
-      <c r="I279" t="s">
-        <v>222</v>
-      </c>
-      <c r="J279" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B280" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C280" t="s">
+        <v>110</v>
       </c>
       <c r="E280" t="s">
         <v>85</v>
+      </c>
+      <c r="I280" t="s">
+        <v>222</v>
+      </c>
+      <c r="J280" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B281" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E281" t="s">
         <v>85</v>
@@ -27948,40 +29280,40 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B282" t="s">
         <v>127</v>
       </c>
-      <c r="C282" t="s">
-        <v>102</v>
-      </c>
       <c r="E282" t="s">
         <v>85</v>
-      </c>
-      <c r="G282" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B283" t="s">
         <v>127</v>
       </c>
       <c r="C283" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E283" t="s">
         <v>85</v>
+      </c>
+      <c r="G283" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B284" t="s">
+        <v>127</v>
+      </c>
+      <c r="C284" t="s">
         <v>110</v>
       </c>
       <c r="E284" t="s">
@@ -27990,7 +29322,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B285" t="s">
         <v>110</v>
@@ -28001,13 +29333,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B286" t="s">
-        <v>127</v>
-      </c>
-      <c r="C286" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E286" t="s">
         <v>85</v>
@@ -28015,7 +29344,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B287" t="s">
         <v>127</v>
@@ -28029,13 +29358,13 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B288" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C288" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E288" t="s">
         <v>85</v>
@@ -28043,10 +29372,13 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B289" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+      <c r="C289" t="s">
+        <v>127</v>
       </c>
       <c r="E289" t="s">
         <v>85</v>
@@ -28054,47 +29386,44 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B290" t="s">
-        <v>84</v>
-      </c>
-      <c r="C290" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E290" t="s">
         <v>85</v>
-      </c>
-      <c r="G290" t="s">
-        <v>148</v>
-      </c>
-      <c r="I290" t="s">
-        <v>222</v>
-      </c>
-      <c r="J290" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B291" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C291" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E291" t="s">
         <v>85</v>
+      </c>
+      <c r="G291" t="s">
+        <v>148</v>
+      </c>
+      <c r="I291" t="s">
+        <v>222</v>
+      </c>
+      <c r="J291" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B292" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C292" t="s">
         <v>116</v>
@@ -28105,13 +29434,13 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B293" t="s">
+        <v>173</v>
+      </c>
+      <c r="C293" t="s">
         <v>116</v>
-      </c>
-      <c r="C293" t="s">
-        <v>100</v>
       </c>
       <c r="E293" t="s">
         <v>85</v>
@@ -28119,13 +29448,13 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B294" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C294" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="E294" t="s">
         <v>85</v>
@@ -28133,10 +29462,13 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B295" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="C295" t="s">
+        <v>173</v>
       </c>
       <c r="E295" t="s">
         <v>85</v>
@@ -28144,10 +29476,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B296" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E296" t="s">
         <v>85</v>
@@ -28155,10 +29487,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B297" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="E297" t="s">
         <v>85</v>
@@ -28166,7 +29498,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B298" t="s">
         <v>173</v>
@@ -28177,13 +29509,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B299" t="s">
-        <v>127</v>
-      </c>
-      <c r="C299" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E299" t="s">
         <v>85</v>
@@ -28191,13 +29520,13 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B300" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C300" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E300" t="s">
         <v>85</v>
@@ -28205,13 +29534,13 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B301" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E301" t="s">
         <v>85</v>
@@ -28219,10 +29548,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B302" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C302" t="s">
         <v>110</v>
@@ -28233,13 +29562,13 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B303" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C303" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E303" t="s">
         <v>85</v>
@@ -28247,10 +29576,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B304" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C304" t="s">
         <v>116</v>
@@ -28261,10 +29590,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B305" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C305" t="s">
         <v>116</v>
@@ -28275,10 +29604,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B306" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C306" t="s">
         <v>116</v>
@@ -28289,10 +29618,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B307" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="C307" t="s">
+        <v>116</v>
       </c>
       <c r="E307" t="s">
         <v>85</v>
@@ -28300,13 +29632,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B308" t="s">
-        <v>102</v>
-      </c>
-      <c r="C308" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E308" t="s">
         <v>85</v>
@@ -28314,10 +29643,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B309" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="C309" t="s">
+        <v>127</v>
       </c>
       <c r="E309" t="s">
         <v>85</v>
@@ -28325,13 +29657,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B310" t="s">
-        <v>97</v>
-      </c>
-      <c r="C310" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E310" t="s">
         <v>85</v>
@@ -28339,13 +29668,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B311" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C311" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E311" t="s">
         <v>85</v>
@@ -28353,13 +29682,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B312" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C312" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E312" t="s">
         <v>85</v>
@@ -28367,10 +29696,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B313" t="s">
-        <v>87</v>
+        <v>106</v>
+      </c>
+      <c r="C313" t="s">
+        <v>83</v>
       </c>
       <c r="E313" t="s">
         <v>85</v>
@@ -28378,12 +29710,9 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B314" t="s">
-        <v>119</v>
-      </c>
-      <c r="C314" t="s">
         <v>87</v>
       </c>
       <c r="E314" t="s">
@@ -28392,10 +29721,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B315" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="C315" t="s">
+        <v>87</v>
       </c>
       <c r="E315" t="s">
         <v>85</v>
@@ -28403,10 +29735,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="E316" t="s">
         <v>85</v>
@@ -28414,10 +29746,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B317" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E317" t="s">
         <v>85</v>
@@ -28425,10 +29757,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B318" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E318" t="s">
         <v>85</v>
@@ -28436,13 +29768,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B319" t="s">
-        <v>173</v>
-      </c>
-      <c r="C319" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E319" t="s">
         <v>85</v>
@@ -28450,10 +29779,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B320" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="C320" t="s">
+        <v>116</v>
       </c>
       <c r="E320" t="s">
         <v>85</v>
@@ -28461,7 +29793,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B321" t="s">
         <v>119</v>
@@ -28472,10 +29804,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B322" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E322" t="s">
         <v>85</v>
@@ -28483,10 +29815,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B323" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E323" t="s">
         <v>85</v>
@@ -28494,10 +29826,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B324" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E324" t="s">
         <v>85</v>
@@ -28505,24 +29837,24 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B325" t="s">
         <v>129</v>
       </c>
-      <c r="C325" t="s">
-        <v>87</v>
-      </c>
       <c r="E325" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B326" t="s">
-        <v>97</v>
+        <v>129</v>
+      </c>
+      <c r="C326" t="s">
+        <v>87</v>
       </c>
       <c r="E326" t="s">
         <v>85</v>
@@ -28530,13 +29862,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B327" t="s">
-        <v>129</v>
-      </c>
-      <c r="C327" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E327" t="s">
         <v>85</v>
@@ -28544,13 +29873,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B328" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C328" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E328" t="s">
         <v>85</v>
@@ -28558,10 +29887,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B329" t="s">
-        <v>173</v>
+        <v>95</v>
+      </c>
+      <c r="C329" t="s">
+        <v>92</v>
       </c>
       <c r="E329" t="s">
         <v>85</v>
@@ -28569,12 +29901,9 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B330" t="s">
-        <v>117</v>
-      </c>
-      <c r="C330" t="s">
         <v>173</v>
       </c>
       <c r="E330" t="s">
@@ -28583,10 +29912,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B331" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="C331" t="s">
+        <v>173</v>
       </c>
       <c r="E331" t="s">
         <v>85</v>
@@ -28594,27 +29926,24 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B332" t="s">
         <v>129</v>
       </c>
-      <c r="C332" t="s">
-        <v>89</v>
-      </c>
       <c r="E332" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B333" t="s">
         <v>129</v>
       </c>
       <c r="C333" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E333" t="s">
         <v>85</v>
@@ -28622,13 +29951,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B334" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C334" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E334" t="s">
         <v>85</v>
@@ -28636,10 +29965,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B335" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="C335" t="s">
+        <v>110</v>
       </c>
       <c r="E335" t="s">
         <v>85</v>
@@ -28647,35 +29979,35 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B336" t="s">
         <v>119</v>
       </c>
-      <c r="C336" t="s">
-        <v>110</v>
-      </c>
       <c r="E336" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B337" t="s">
         <v>119</v>
       </c>
+      <c r="C337" t="s">
+        <v>110</v>
+      </c>
       <c r="E337" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B338" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E338" t="s">
         <v>85</v>
@@ -28683,10 +30015,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B339" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E339" t="s">
         <v>85</v>
@@ -28694,13 +30026,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B340" t="s">
-        <v>110</v>
-      </c>
-      <c r="C340" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E340" t="s">
         <v>85</v>
@@ -28708,10 +30037,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B341" t="s">
-        <v>173</v>
+        <v>110</v>
+      </c>
+      <c r="C341" t="s">
+        <v>108</v>
       </c>
       <c r="E341" t="s">
         <v>85</v>
@@ -28719,12 +30051,9 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B342" t="s">
-        <v>102</v>
-      </c>
-      <c r="C342" t="s">
         <v>173</v>
       </c>
       <c r="E342" t="s">
@@ -28733,10 +30062,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B343" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="C343" t="s">
+        <v>173</v>
       </c>
       <c r="E343" t="s">
         <v>85</v>
@@ -28744,10 +30076,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B344" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E344" t="s">
         <v>85</v>
@@ -28755,63 +30087,63 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B345" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="E345" t="s">
         <v>85</v>
-      </c>
-      <c r="F345" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B346" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E346" t="s">
         <v>85</v>
+      </c>
+      <c r="F346" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B347" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E347" t="s">
         <v>85</v>
-      </c>
-      <c r="F347" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B348" t="s">
-        <v>129</v>
-      </c>
-      <c r="C348" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E348" t="s">
         <v>85</v>
+      </c>
+      <c r="F348" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B349" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+      <c r="C349" t="s">
+        <v>95</v>
       </c>
       <c r="E349" t="s">
         <v>85</v>
@@ -28819,13 +30151,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B350" t="s">
-        <v>92</v>
-      </c>
-      <c r="C350" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E350" t="s">
         <v>85</v>
@@ -28833,13 +30162,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B351" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C351" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E351" t="s">
         <v>85</v>
@@ -28847,13 +30176,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B352" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C352" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E352" t="s">
         <v>85</v>
@@ -28861,13 +30190,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B353" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C353" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E353" t="s">
         <v>85</v>
@@ -28875,13 +30204,13 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B354" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C354" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E354" t="s">
         <v>85</v>
@@ -28889,13 +30218,13 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B355" t="s">
         <v>119</v>
       </c>
       <c r="C355" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E355" t="s">
         <v>85</v>
@@ -28903,13 +30232,13 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B356" t="s">
         <v>119</v>
       </c>
       <c r="C356" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E356" t="s">
         <v>85</v>
@@ -28917,13 +30246,13 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B357" t="s">
         <v>119</v>
       </c>
       <c r="C357" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E357" t="s">
         <v>85</v>
@@ -28931,13 +30260,13 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B358" t="s">
         <v>119</v>
       </c>
       <c r="C358" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E358" t="s">
         <v>85</v>
@@ -28945,13 +30274,13 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B359" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C359" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E359" t="s">
         <v>85</v>
@@ -28959,10 +30288,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B360" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C360" t="s">
         <v>97</v>
@@ -28973,13 +30302,13 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B361" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C361" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E361" t="s">
         <v>85</v>
@@ -28987,10 +30316,13 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B362" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="C362" t="s">
+        <v>117</v>
       </c>
       <c r="E362" t="s">
         <v>85</v>
@@ -28998,10 +30330,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B363" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E363" t="s">
         <v>85</v>
@@ -29009,7 +30341,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B364" t="s">
         <v>89</v>
@@ -29020,13 +30352,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B365" t="s">
-        <v>84</v>
-      </c>
-      <c r="C365" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E365" t="s">
         <v>85</v>
@@ -29034,41 +30363,41 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B366" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C366" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E366" t="s">
         <v>85</v>
-      </c>
-      <c r="G366" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B367" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C367" t="s">
+        <v>89</v>
       </c>
       <c r="E367" t="s">
         <v>85</v>
+      </c>
+      <c r="G367" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B368" t="s">
-        <v>173</v>
-      </c>
-      <c r="C368" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E368" t="s">
         <v>85</v>
@@ -29076,13 +30405,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B369" t="s">
+        <v>173</v>
+      </c>
+      <c r="C369" t="s">
         <v>83</v>
-      </c>
-      <c r="D369" t="s">
-        <v>100</v>
       </c>
       <c r="E369" t="s">
         <v>85</v>
@@ -29090,13 +30419,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B370" t="s">
         <v>83</v>
       </c>
-      <c r="C370" t="s">
-        <v>117</v>
+      <c r="D370" t="s">
+        <v>100</v>
       </c>
       <c r="E370" t="s">
         <v>85</v>
@@ -29104,13 +30433,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B371" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C371" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E371" t="s">
         <v>85</v>
@@ -29118,13 +30447,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B372" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C372" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E372" t="s">
         <v>85</v>
@@ -29132,10 +30461,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B373" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="C373" t="s">
+        <v>110</v>
       </c>
       <c r="E373" t="s">
         <v>85</v>
@@ -29143,24 +30475,24 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B374" t="s">
         <v>129</v>
       </c>
-      <c r="C374" t="s">
-        <v>89</v>
-      </c>
       <c r="E374" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B375" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="C375" t="s">
+        <v>89</v>
       </c>
       <c r="E375" t="s">
         <v>85</v>
@@ -29168,13 +30500,10 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B376" t="s">
-        <v>129</v>
-      </c>
-      <c r="C376" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E376" t="s">
         <v>85</v>
@@ -29182,10 +30511,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B377" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="C377" t="s">
+        <v>102</v>
       </c>
       <c r="E377" t="s">
         <v>85</v>
@@ -29193,27 +30525,24 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B378" t="s">
         <v>83</v>
       </c>
-      <c r="C378" t="s">
-        <v>102</v>
-      </c>
       <c r="E378" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B379" t="s">
         <v>83</v>
       </c>
       <c r="C379" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E379" t="s">
         <v>85</v>
@@ -29221,13 +30550,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B380" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C380" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E380" t="s">
         <v>85</v>
@@ -29235,13 +30564,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B381" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C381" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E381" t="s">
         <v>85</v>
@@ -29249,35 +30578,38 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B382" t="s">
-        <v>173</v>
+        <v>110</v>
+      </c>
+      <c r="C382" t="s">
+        <v>116</v>
       </c>
       <c r="E382" t="s">
         <v>85</v>
-      </c>
-      <c r="F382" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B383" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E383" t="s">
         <v>85</v>
+      </c>
+      <c r="F383" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B384" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E384" t="s">
         <v>85</v>
@@ -29285,10 +30617,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B385" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E385" t="s">
         <v>85</v>
@@ -29296,13 +30628,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B386" t="s">
-        <v>83</v>
-      </c>
-      <c r="C386" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E386" t="s">
         <v>85</v>
@@ -29310,10 +30639,13 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B387" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C387" t="s">
+        <v>97</v>
       </c>
       <c r="E387" t="s">
         <v>85</v>
@@ -29321,13 +30653,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B388" t="s">
-        <v>127</v>
-      </c>
-      <c r="C388" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E388" t="s">
         <v>85</v>
@@ -29335,10 +30664,13 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B389" t="s">
-        <v>173</v>
+        <v>127</v>
+      </c>
+      <c r="C389" t="s">
+        <v>102</v>
       </c>
       <c r="E389" t="s">
         <v>85</v>
@@ -29346,13 +30678,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B390" t="s">
-        <v>106</v>
-      </c>
-      <c r="C390" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E390" t="s">
         <v>85</v>
@@ -29360,13 +30689,13 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B391" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C391" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E391" t="s">
         <v>85</v>
@@ -29374,10 +30703,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B392" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C392" t="s">
         <v>110</v>
@@ -29385,27 +30714,30 @@
       <c r="E392" t="s">
         <v>85</v>
       </c>
-      <c r="G392" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B393" t="s">
-        <v>108</v>
+        <v>129</v>
+      </c>
+      <c r="C393" t="s">
+        <v>110</v>
       </c>
       <c r="E393" t="s">
         <v>85</v>
+      </c>
+      <c r="G393" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B394" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="E394" t="s">
         <v>85</v>
@@ -29413,7 +30745,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B395" t="s">
         <v>173</v>
@@ -29424,13 +30756,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B396" t="s">
-        <v>95</v>
-      </c>
-      <c r="C396" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="E396" t="s">
         <v>85</v>
@@ -29438,10 +30767,13 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B397" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C397" t="s">
+        <v>110</v>
       </c>
       <c r="E397" t="s">
         <v>85</v>
@@ -29449,10 +30781,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B398" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E398" t="s">
         <v>85</v>
@@ -29460,13 +30792,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B399" t="s">
-        <v>97</v>
-      </c>
-      <c r="C399" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E399" t="s">
         <v>85</v>
@@ -29474,13 +30803,13 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B400" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C400" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E400" t="s">
         <v>85</v>
@@ -29488,13 +30817,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B401" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C401" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E401" t="s">
         <v>85</v>
@@ -29502,13 +30831,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B402" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C402" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E402" t="s">
         <v>85</v>
@@ -29516,13 +30845,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B403" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C403" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E403" t="s">
         <v>85</v>
@@ -29530,13 +30859,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B404" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C404" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E404" t="s">
         <v>85</v>
@@ -29544,10 +30873,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B405" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C405" t="s">
+        <v>89</v>
       </c>
       <c r="E405" t="s">
         <v>85</v>
@@ -29555,10 +30887,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B406" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="E406" t="s">
         <v>85</v>
@@ -29566,13 +30898,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B407" t="s">
-        <v>89</v>
-      </c>
-      <c r="C407" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="E407" t="s">
         <v>85</v>
@@ -29580,13 +30909,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B408" t="s">
         <v>89</v>
       </c>
       <c r="C408" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E408" t="s">
         <v>85</v>
@@ -29594,10 +30923,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B409" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C409" t="s">
+        <v>92</v>
       </c>
       <c r="E409" t="s">
         <v>85</v>
@@ -29605,10 +30937,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B410" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E410" t="s">
         <v>85</v>
@@ -29616,10 +30948,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B411" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E411" t="s">
         <v>85</v>
@@ -29627,10 +30959,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B412" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="E412" t="s">
         <v>85</v>
@@ -29638,13 +30970,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B413" t="s">
-        <v>129</v>
-      </c>
-      <c r="C413" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E413" t="s">
         <v>85</v>
@@ -29652,13 +30981,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B414" t="s">
         <v>129</v>
       </c>
       <c r="C414" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E414" t="s">
         <v>85</v>
@@ -29666,10 +30995,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B415" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C415" t="s">
         <v>116</v>
@@ -29680,10 +31009,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B416" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C416" t="s">
         <v>116</v>
@@ -29694,10 +31023,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B417" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C417" t="s">
+        <v>116</v>
       </c>
       <c r="E417" t="s">
         <v>85</v>
@@ -29705,13 +31037,10 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B418" t="s">
-        <v>117</v>
-      </c>
-      <c r="C418" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E418" t="s">
         <v>85</v>
@@ -29719,10 +31048,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B419" t="s">
-        <v>83</v>
+        <v>117</v>
+      </c>
+      <c r="C419" t="s">
+        <v>116</v>
       </c>
       <c r="E419" t="s">
         <v>85</v>
@@ -29730,27 +31062,24 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B420" t="s">
         <v>83</v>
       </c>
-      <c r="C420" t="s">
-        <v>108</v>
-      </c>
       <c r="E420" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B421" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C421" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E421" t="s">
         <v>85</v>
@@ -29758,10 +31087,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B422" t="s">
-        <v>173</v>
+        <v>100</v>
+      </c>
+      <c r="C422" t="s">
+        <v>129</v>
       </c>
       <c r="E422" t="s">
         <v>85</v>
@@ -29769,13 +31101,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B423" t="s">
-        <v>87</v>
-      </c>
-      <c r="C423" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E423" t="s">
         <v>85</v>
@@ -29783,13 +31112,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B424" t="s">
         <v>87</v>
       </c>
       <c r="C424" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E424" t="s">
         <v>85</v>
@@ -29797,10 +31126,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B425" t="s">
         <v>87</v>
+      </c>
+      <c r="C425" t="s">
+        <v>117</v>
       </c>
       <c r="E425" t="s">
         <v>85</v>
@@ -29808,13 +31140,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B426" t="s">
-        <v>129</v>
-      </c>
-      <c r="C426" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E426" t="s">
         <v>85</v>
@@ -29822,10 +31151,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B427" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="C427" t="s">
+        <v>127</v>
       </c>
       <c r="E427" t="s">
         <v>85</v>
@@ -29833,10 +31165,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B428" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E428" t="s">
         <v>85</v>
@@ -29844,13 +31176,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B429" t="s">
-        <v>119</v>
-      </c>
-      <c r="C429" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E429" t="s">
         <v>85</v>
@@ -29858,13 +31187,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B430" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C430" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E430" t="s">
         <v>85</v>
@@ -29872,13 +31201,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B431" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C431" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E431" t="s">
         <v>85</v>
@@ -29886,13 +31215,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B432" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C432" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E432" t="s">
         <v>85</v>
@@ -29900,13 +31229,13 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B433" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C433" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E433" t="s">
         <v>85</v>
@@ -29914,10 +31243,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B434" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="C434" t="s">
+        <v>116</v>
       </c>
       <c r="E434" t="s">
         <v>85</v>
@@ -29925,10 +31257,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B435" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E435" t="s">
         <v>85</v>
@@ -29936,75 +31268,72 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B436" t="s">
-        <v>83</v>
-      </c>
-      <c r="C436" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E436" t="s">
         <v>85</v>
-      </c>
-      <c r="F436" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B437" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="C437" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E437" t="s">
         <v>85</v>
+      </c>
+      <c r="F437" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B438" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C438" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E438" t="s">
         <v>85</v>
-      </c>
-      <c r="G438" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B439" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C439" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E439" t="s">
         <v>85</v>
+      </c>
+      <c r="G439" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B440" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C440" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E440" t="s">
         <v>85</v>
@@ -30012,13 +31341,13 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B441" t="s">
+        <v>97</v>
+      </c>
+      <c r="C441" t="s">
         <v>83</v>
-      </c>
-      <c r="C441" t="s">
-        <v>116</v>
       </c>
       <c r="E441" t="s">
         <v>85</v>
@@ -30026,66 +31355,66 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B442" t="s">
         <v>83</v>
       </c>
+      <c r="C442" t="s">
+        <v>116</v>
+      </c>
       <c r="E442" t="s">
         <v>85</v>
-      </c>
-      <c r="G442" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B443" t="s">
-        <v>117</v>
-      </c>
-      <c r="C443" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E443" t="s">
         <v>85</v>
+      </c>
+      <c r="G443" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B444" t="s">
         <v>117</v>
       </c>
+      <c r="C444" t="s">
+        <v>100</v>
+      </c>
       <c r="E444" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
       </c>
-      <c r="C445" t="s">
-        <v>97</v>
-      </c>
       <c r="E445" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B446" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C446" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E446" t="s">
         <v>85</v>
@@ -30093,13 +31422,13 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B447" t="s">
         <v>95</v>
       </c>
       <c r="C447" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E447" t="s">
         <v>85</v>
@@ -30107,10 +31436,13 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B448" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="C448" t="s">
+        <v>100</v>
       </c>
       <c r="E448" t="s">
         <v>85</v>
@@ -30118,13 +31450,10 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B449" t="s">
-        <v>173</v>
-      </c>
-      <c r="C449" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E449" t="s">
         <v>85</v>
@@ -30132,10 +31461,13 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B450" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="C450" t="s">
+        <v>116</v>
       </c>
       <c r="E450" t="s">
         <v>85</v>
@@ -30143,7 +31475,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -30154,72 +31486,69 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B452" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E452" t="s">
         <v>85</v>
-      </c>
-      <c r="I452" t="s">
-        <v>222</v>
-      </c>
-      <c r="J452" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B453" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E453" t="s">
         <v>85</v>
       </c>
-      <c r="G453" t="s">
-        <v>148</v>
+      <c r="I453" t="s">
+        <v>222</v>
+      </c>
+      <c r="J453" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
       </c>
-      <c r="C454" t="s">
-        <v>110</v>
-      </c>
       <c r="E454" t="s">
         <v>85</v>
       </c>
-      <c r="F454" t="s">
+      <c r="G454" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B455" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C455" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E455" t="s">
         <v>85</v>
+      </c>
+      <c r="F455" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B456" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C456" t="s">
         <v>127</v>
@@ -30230,13 +31559,13 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B457" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C457" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E457" t="s">
         <v>85</v>
@@ -30244,13 +31573,13 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B458" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C458" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E458" t="s">
         <v>85</v>
@@ -30258,13 +31587,13 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B459" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C459" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E459" t="s">
         <v>85</v>
@@ -30272,13 +31601,13 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B460" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C460" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E460" t="s">
         <v>85</v>
@@ -30286,13 +31615,13 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B461" t="s">
         <v>83</v>
       </c>
       <c r="C461" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E461" t="s">
         <v>85</v>
@@ -30300,13 +31629,13 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B462" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C462" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E462" t="s">
         <v>85</v>
@@ -30314,24 +31643,24 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
       </c>
+      <c r="C463" t="s">
+        <v>116</v>
+      </c>
       <c r="E463" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B464" t="s">
-        <v>117</v>
-      </c>
-      <c r="C464" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E464" t="s">
         <v>85</v>
@@ -30339,9 +31668,12 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B465" t="s">
+        <v>117</v>
+      </c>
+      <c r="C465" t="s">
         <v>129</v>
       </c>
       <c r="E465" t="s">
@@ -30350,12 +31682,9 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B466" t="s">
-        <v>84</v>
-      </c>
-      <c r="C466" t="s">
         <v>129</v>
       </c>
       <c r="E466" t="s">
@@ -30364,10 +31693,13 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B467" t="s">
-        <v>173</v>
+        <v>84</v>
+      </c>
+      <c r="C467" t="s">
+        <v>129</v>
       </c>
       <c r="E467" t="s">
         <v>85</v>
@@ -30375,38 +31707,35 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B468" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E468" t="s">
         <v>85</v>
-      </c>
-      <c r="G468" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B469" t="s">
         <v>127</v>
       </c>
-      <c r="C469" t="s">
-        <v>108</v>
-      </c>
       <c r="E469" t="s">
         <v>85</v>
+      </c>
+      <c r="G469" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B470" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C470" t="s">
         <v>108</v>
@@ -30417,13 +31746,13 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B471" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C471" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E471" t="s">
         <v>85</v>
@@ -30431,13 +31760,13 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B472" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C472" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E472" t="s">
         <v>85</v>
@@ -30445,10 +31774,13 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B473" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="C473" t="s">
+        <v>108</v>
       </c>
       <c r="E473" t="s">
         <v>85</v>
@@ -30456,10 +31788,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B474" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E474" t="s">
         <v>85</v>
@@ -30467,13 +31799,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B475" t="s">
-        <v>102</v>
-      </c>
-      <c r="C475" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E475" t="s">
         <v>85</v>
@@ -30481,10 +31810,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B476" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C476" t="s">
         <v>83</v>
@@ -30495,13 +31824,13 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B477" t="s">
         <v>106</v>
       </c>
       <c r="C477" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E477" t="s">
         <v>85</v>
@@ -30509,13 +31838,13 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
       </c>
       <c r="C478" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E478" t="s">
         <v>85</v>
@@ -30523,10 +31852,13 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B479" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="C479" t="s">
+        <v>92</v>
       </c>
       <c r="E479" t="s">
         <v>85</v>
@@ -30534,41 +31866,38 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B480" t="s">
-        <v>173</v>
-      </c>
-      <c r="C480" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E480" t="s">
         <v>85</v>
-      </c>
-      <c r="G480" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B481" t="s">
+        <v>173</v>
+      </c>
+      <c r="C481" t="s">
         <v>110</v>
       </c>
-      <c r="C481" t="s">
-        <v>116</v>
-      </c>
       <c r="E481" t="s">
         <v>85</v>
+      </c>
+      <c r="G481" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B482" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C482" t="s">
         <v>116</v>
@@ -30579,10 +31908,13 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B483" t="s">
-        <v>173</v>
+        <v>106</v>
+      </c>
+      <c r="C483" t="s">
+        <v>116</v>
       </c>
       <c r="E483" t="s">
         <v>85</v>
@@ -30590,13 +31922,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B484" t="s">
-        <v>102</v>
-      </c>
-      <c r="C484" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="E484" t="s">
         <v>85</v>
@@ -30604,10 +31933,13 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B485" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="C485" t="s">
+        <v>83</v>
       </c>
       <c r="E485" t="s">
         <v>85</v>
@@ -30615,7 +31947,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B486" t="s">
         <v>119</v>
@@ -30626,10 +31958,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B487" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E487" t="s">
         <v>85</v>
@@ -30637,18 +31969,29 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488" t="s">
+        <v>102</v>
+      </c>
+      <c r="E488" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
         <v>738</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B489" t="s">
         <v>100</v>
       </c>
-      <c r="C488" t="s">
-        <v>89</v>
-      </c>
-      <c r="E488" t="s">
-        <v>85</v>
-      </c>
-      <c r="G488" t="s">
+      <c r="C489" t="s">
+        <v>89</v>
+      </c>
+      <c r="E489" t="s">
+        <v>85</v>
+      </c>
+      <c r="G489" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A663E5DE-5101-41E7-8931-1F117E13393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7D55D5-F040-499A-AA4C-740865F31597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9420" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="789">
   <si>
     <t>Name</t>
   </si>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E261" sqref="E261"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29140,6 +29140,72 @@
       <c r="E271" t="s">
         <v>85</v>
       </c>
+      <c r="I271" t="s">
+        <v>204</v>
+      </c>
+      <c r="J271" t="s">
+        <v>122</v>
+      </c>
+      <c r="K271" t="s">
+        <v>156</v>
+      </c>
+      <c r="L271" t="s">
+        <v>84</v>
+      </c>
+      <c r="M271" t="s">
+        <v>144</v>
+      </c>
+      <c r="N271" t="s">
+        <v>100</v>
+      </c>
+      <c r="O271" t="s">
+        <v>168</v>
+      </c>
+      <c r="P271" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>141</v>
+      </c>
+      <c r="R271" t="s">
+        <v>92</v>
+      </c>
+      <c r="S271" t="s">
+        <v>209</v>
+      </c>
+      <c r="T271" t="s">
+        <v>106</v>
+      </c>
+      <c r="U271" t="s">
+        <v>149</v>
+      </c>
+      <c r="V271" t="s">
+        <v>84</v>
+      </c>
+      <c r="W271" t="s">
+        <v>197</v>
+      </c>
+      <c r="X271" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="272" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
@@ -29150,6 +29216,174 @@
       </c>
       <c r="E272" t="s">
         <v>85</v>
+      </c>
+      <c r="I272" t="s">
+        <v>121</v>
+      </c>
+      <c r="J272" t="s">
+        <v>122</v>
+      </c>
+      <c r="K272" t="s">
+        <v>133</v>
+      </c>
+      <c r="L272" t="s">
+        <v>87</v>
+      </c>
+      <c r="M272" t="s">
+        <v>199</v>
+      </c>
+      <c r="N272" t="s">
+        <v>92</v>
+      </c>
+      <c r="O272" t="s">
+        <v>101</v>
+      </c>
+      <c r="P272" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>124</v>
+      </c>
+      <c r="R272" t="s">
+        <v>87</v>
+      </c>
+      <c r="S272" t="s">
+        <v>297</v>
+      </c>
+      <c r="T272" t="s">
+        <v>127</v>
+      </c>
+      <c r="U272" t="s">
+        <v>201</v>
+      </c>
+      <c r="V272" t="s">
+        <v>92</v>
+      </c>
+      <c r="W272" t="s">
+        <v>166</v>
+      </c>
+      <c r="X272" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI272" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ272" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP272" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU272" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV272" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW272" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY272" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ272" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA272" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB272" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC272" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD272" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE272" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF272" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG272" t="s">
+        <v>322</v>
+      </c>
+      <c r="BH272" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI272" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ272" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK272" t="s">
+        <v>210</v>
+      </c>
+      <c r="BL272" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7D55D5-F040-499A-AA4C-740865F31597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65022E-CCB4-42AD-8CE9-0FC66D68A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9498" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="790">
   <si>
     <t>Name</t>
   </si>
@@ -2387,6 +2387,9 @@
   </si>
   <si>
     <t>Meowstic-F</t>
+  </si>
+  <si>
+    <t>Inferno</t>
   </si>
 </sst>
 </file>
@@ -2751,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I273" sqref="I273"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I282" sqref="I282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29386,7 +29389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>522</v>
       </c>
@@ -29399,8 +29402,74 @@
       <c r="E273" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I273" t="s">
+        <v>101</v>
+      </c>
+      <c r="J273" t="s">
+        <v>102</v>
+      </c>
+      <c r="K273" t="s">
+        <v>778</v>
+      </c>
+      <c r="L273" t="s">
+        <v>83</v>
+      </c>
+      <c r="M273" t="s">
+        <v>118</v>
+      </c>
+      <c r="N273" t="s">
+        <v>119</v>
+      </c>
+      <c r="O273" t="s">
+        <v>110</v>
+      </c>
+      <c r="P273" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>154</v>
+      </c>
+      <c r="R273" t="s">
+        <v>102</v>
+      </c>
+      <c r="S273" t="s">
+        <v>207</v>
+      </c>
+      <c r="T273" t="s">
+        <v>106</v>
+      </c>
+      <c r="U273" t="s">
+        <v>113</v>
+      </c>
+      <c r="V273" t="s">
+        <v>106</v>
+      </c>
+      <c r="W273" t="s">
+        <v>132</v>
+      </c>
+      <c r="X273" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="274" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -29413,8 +29482,74 @@
       <c r="E274" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I274" t="s">
+        <v>199</v>
+      </c>
+      <c r="J274" t="s">
+        <v>92</v>
+      </c>
+      <c r="K274" t="s">
+        <v>166</v>
+      </c>
+      <c r="L274" t="s">
+        <v>83</v>
+      </c>
+      <c r="M274" t="s">
+        <v>88</v>
+      </c>
+      <c r="N274" t="s">
+        <v>89</v>
+      </c>
+      <c r="O274" t="s">
+        <v>90</v>
+      </c>
+      <c r="P274" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>110</v>
+      </c>
+      <c r="R274" t="s">
+        <v>110</v>
+      </c>
+      <c r="S274" t="s">
+        <v>171</v>
+      </c>
+      <c r="T274" t="s">
+        <v>108</v>
+      </c>
+      <c r="U274" t="s">
+        <v>141</v>
+      </c>
+      <c r="V274" t="s">
+        <v>92</v>
+      </c>
+      <c r="W274" t="s">
+        <v>114</v>
+      </c>
+      <c r="X274" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="275" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>524</v>
       </c>
@@ -29424,8 +29559,50 @@
       <c r="E275" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I275" t="s">
+        <v>121</v>
+      </c>
+      <c r="J275" t="s">
+        <v>122</v>
+      </c>
+      <c r="K275" t="s">
+        <v>101</v>
+      </c>
+      <c r="L275" t="s">
+        <v>102</v>
+      </c>
+      <c r="M275" t="s">
+        <v>185</v>
+      </c>
+      <c r="N275" t="s">
+        <v>83</v>
+      </c>
+      <c r="O275" t="s">
+        <v>159</v>
+      </c>
+      <c r="P275" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>107</v>
+      </c>
+      <c r="R275" t="s">
+        <v>108</v>
+      </c>
+      <c r="S275" t="s">
+        <v>168</v>
+      </c>
+      <c r="T275" t="s">
+        <v>108</v>
+      </c>
+      <c r="U275" t="s">
+        <v>194</v>
+      </c>
+      <c r="V275" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="276" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>525</v>
       </c>
@@ -29438,8 +29615,128 @@
       <c r="F276" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I276" t="s">
+        <v>120</v>
+      </c>
+      <c r="J276" t="s">
+        <v>110</v>
+      </c>
+      <c r="K276" t="s">
+        <v>185</v>
+      </c>
+      <c r="L276" t="s">
+        <v>83</v>
+      </c>
+      <c r="M276" t="s">
+        <v>190</v>
+      </c>
+      <c r="N276" t="s">
+        <v>119</v>
+      </c>
+      <c r="O276" t="s">
+        <v>789</v>
+      </c>
+      <c r="P276" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>175</v>
+      </c>
+      <c r="R276" t="s">
+        <v>102</v>
+      </c>
+      <c r="S276" t="s">
+        <v>125</v>
+      </c>
+      <c r="T276" t="s">
+        <v>83</v>
+      </c>
+      <c r="U276" t="s">
+        <v>110</v>
+      </c>
+      <c r="V276" t="s">
+        <v>110</v>
+      </c>
+      <c r="W276" t="s">
+        <v>118</v>
+      </c>
+      <c r="X276" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH276" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI276" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>759</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP276" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR276" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU276" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV276" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="277" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>526</v>
       </c>
@@ -29452,8 +29749,68 @@
       <c r="E277" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I277" t="s">
+        <v>133</v>
+      </c>
+      <c r="J277" t="s">
+        <v>87</v>
+      </c>
+      <c r="K277" t="s">
+        <v>99</v>
+      </c>
+      <c r="L277" t="s">
+        <v>100</v>
+      </c>
+      <c r="M277" t="s">
+        <v>142</v>
+      </c>
+      <c r="N277" t="s">
+        <v>110</v>
+      </c>
+      <c r="O277" t="s">
+        <v>177</v>
+      </c>
+      <c r="P277" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>86</v>
+      </c>
+      <c r="R277" t="s">
+        <v>87</v>
+      </c>
+      <c r="S277" t="s">
+        <v>196</v>
+      </c>
+      <c r="T277" t="s">
+        <v>89</v>
+      </c>
+      <c r="U277" t="s">
+        <v>139</v>
+      </c>
+      <c r="V277" t="s">
+        <v>117</v>
+      </c>
+      <c r="W277" t="s">
+        <v>140</v>
+      </c>
+      <c r="X277" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>527</v>
       </c>
@@ -29466,8 +29823,50 @@
       <c r="E278" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I278" t="s">
+        <v>166</v>
+      </c>
+      <c r="J278" t="s">
+        <v>83</v>
+      </c>
+      <c r="K278" t="s">
+        <v>125</v>
+      </c>
+      <c r="L278" t="s">
+        <v>83</v>
+      </c>
+      <c r="M278" t="s">
+        <v>110</v>
+      </c>
+      <c r="N278" t="s">
+        <v>110</v>
+      </c>
+      <c r="O278" t="s">
+        <v>96</v>
+      </c>
+      <c r="P278" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>162</v>
+      </c>
+      <c r="R278" t="s">
+        <v>83</v>
+      </c>
+      <c r="S278" t="s">
+        <v>229</v>
+      </c>
+      <c r="T278" t="s">
+        <v>110</v>
+      </c>
+      <c r="U278" t="s">
+        <v>134</v>
+      </c>
+      <c r="V278" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>528</v>
       </c>
@@ -29480,8 +29879,140 @@
       <c r="E279" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I279" t="s">
+        <v>121</v>
+      </c>
+      <c r="J279" t="s">
+        <v>87</v>
+      </c>
+      <c r="K279" t="s">
+        <v>101</v>
+      </c>
+      <c r="L279" t="s">
+        <v>102</v>
+      </c>
+      <c r="M279" t="s">
+        <v>124</v>
+      </c>
+      <c r="N279" t="s">
+        <v>87</v>
+      </c>
+      <c r="O279" t="s">
+        <v>185</v>
+      </c>
+      <c r="P279" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>166</v>
+      </c>
+      <c r="R279" t="s">
+        <v>83</v>
+      </c>
+      <c r="S279" t="s">
+        <v>190</v>
+      </c>
+      <c r="T279" t="s">
+        <v>119</v>
+      </c>
+      <c r="U279" t="s">
+        <v>159</v>
+      </c>
+      <c r="V279" t="s">
+        <v>87</v>
+      </c>
+      <c r="W279" t="s">
+        <v>175</v>
+      </c>
+      <c r="X279" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP279" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR279" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX279" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ279" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="280" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>529</v>
       </c>
@@ -29500,8 +30031,110 @@
       <c r="J280" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K280" t="s">
+        <v>204</v>
+      </c>
+      <c r="L280" t="s">
+        <v>122</v>
+      </c>
+      <c r="M280" t="s">
+        <v>101</v>
+      </c>
+      <c r="N280" t="s">
+        <v>102</v>
+      </c>
+      <c r="O280" t="s">
+        <v>124</v>
+      </c>
+      <c r="P280" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>185</v>
+      </c>
+      <c r="R280" t="s">
+        <v>83</v>
+      </c>
+      <c r="S280" t="s">
+        <v>125</v>
+      </c>
+      <c r="T280" t="s">
+        <v>83</v>
+      </c>
+      <c r="U280" t="s">
+        <v>166</v>
+      </c>
+      <c r="V280" t="s">
+        <v>83</v>
+      </c>
+      <c r="W280" t="s">
+        <v>175</v>
+      </c>
+      <c r="X280" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP280" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR280" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="281" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>530</v>
       </c>
@@ -29511,8 +30144,86 @@
       <c r="E281" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I281" t="s">
+        <v>121</v>
+      </c>
+      <c r="J281" t="s">
+        <v>122</v>
+      </c>
+      <c r="K281" t="s">
+        <v>104</v>
+      </c>
+      <c r="L281" t="s">
+        <v>87</v>
+      </c>
+      <c r="M281" t="s">
+        <v>124</v>
+      </c>
+      <c r="N281" t="s">
+        <v>87</v>
+      </c>
+      <c r="O281" t="s">
+        <v>201</v>
+      </c>
+      <c r="P281" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>93</v>
+      </c>
+      <c r="R281" t="s">
+        <v>87</v>
+      </c>
+      <c r="S281" t="s">
+        <v>152</v>
+      </c>
+      <c r="T281" t="s">
+        <v>87</v>
+      </c>
+      <c r="U281" t="s">
+        <v>112</v>
+      </c>
+      <c r="V281" t="s">
+        <v>95</v>
+      </c>
+      <c r="W281" t="s">
+        <v>98</v>
+      </c>
+      <c r="X281" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="282" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>531</v>
       </c>
@@ -29523,7 +30234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>532</v>
       </c>
@@ -29540,7 +30251,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>533</v>
       </c>
@@ -29554,7 +30265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>534</v>
       </c>
@@ -29565,7 +30276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>535</v>
       </c>
@@ -29576,7 +30287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>536</v>
       </c>
@@ -29590,7 +30301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>537</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65022E-CCB4-42AD-8CE9-0FC66D68A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF753037-1DE2-4CAB-9A8C-11BBB394B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9734" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="793">
   <si>
     <t>Name</t>
   </si>
@@ -2390,6 +2390,15 @@
   </si>
   <si>
     <t>Inferno</t>
+  </si>
+  <si>
+    <t>Poltergeist</t>
+  </si>
+  <si>
+    <t>Misty Explosion</t>
+  </si>
+  <si>
+    <t>Dak</t>
   </si>
 </sst>
 </file>
@@ -2754,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I282" sqref="I282"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29389,7 +29398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>522</v>
       </c>
@@ -29469,7 +29478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="274" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>523</v>
       </c>
@@ -29549,7 +29558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="275" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>524</v>
       </c>
@@ -29602,7 +29611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="276" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>525</v>
       </c>
@@ -29736,7 +29745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="277" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>526</v>
       </c>
@@ -29810,7 +29819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="278" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>527</v>
       </c>
@@ -29866,7 +29875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="279" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>528</v>
       </c>
@@ -30012,7 +30021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="280" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>529</v>
       </c>
@@ -30134,7 +30143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="281" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>530</v>
       </c>
@@ -30223,7 +30232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="282" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>531</v>
       </c>
@@ -30233,8 +30242,164 @@
       <c r="E282" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="283" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I282" t="s">
+        <v>101</v>
+      </c>
+      <c r="J282" t="s">
+        <v>102</v>
+      </c>
+      <c r="K282" t="s">
+        <v>124</v>
+      </c>
+      <c r="L282" t="s">
+        <v>87</v>
+      </c>
+      <c r="M282" t="s">
+        <v>190</v>
+      </c>
+      <c r="N282" t="s">
+        <v>119</v>
+      </c>
+      <c r="O282" t="s">
+        <v>766</v>
+      </c>
+      <c r="P282" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>159</v>
+      </c>
+      <c r="R282" t="s">
+        <v>87</v>
+      </c>
+      <c r="S282" t="s">
+        <v>169</v>
+      </c>
+      <c r="T282" t="s">
+        <v>108</v>
+      </c>
+      <c r="U282" t="s">
+        <v>155</v>
+      </c>
+      <c r="V282" t="s">
+        <v>117</v>
+      </c>
+      <c r="W282" t="s">
+        <v>118</v>
+      </c>
+      <c r="X282" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP282" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR282" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS282" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV282" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW282" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX282" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ282" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA282" t="s">
+        <v>770</v>
+      </c>
+      <c r="BB282" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC282" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD282" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE282" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF282" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG282" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH282" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>532</v>
       </c>
@@ -30250,8 +30415,116 @@
       <c r="G283" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="284" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I283" t="s">
+        <v>124</v>
+      </c>
+      <c r="J283" t="s">
+        <v>87</v>
+      </c>
+      <c r="K283" t="s">
+        <v>112</v>
+      </c>
+      <c r="L283" t="s">
+        <v>95</v>
+      </c>
+      <c r="M283" t="s">
+        <v>169</v>
+      </c>
+      <c r="N283" t="s">
+        <v>108</v>
+      </c>
+      <c r="O283" t="s">
+        <v>155</v>
+      </c>
+      <c r="P283" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>118</v>
+      </c>
+      <c r="R283" t="s">
+        <v>119</v>
+      </c>
+      <c r="S283" t="s">
+        <v>96</v>
+      </c>
+      <c r="T283" t="s">
+        <v>97</v>
+      </c>
+      <c r="U283" t="s">
+        <v>114</v>
+      </c>
+      <c r="V283" t="s">
+        <v>110</v>
+      </c>
+      <c r="W283" t="s">
+        <v>160</v>
+      </c>
+      <c r="X283" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="284" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>533</v>
       </c>
@@ -30264,8 +30537,62 @@
       <c r="E284" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="285" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I284" t="s">
+        <v>101</v>
+      </c>
+      <c r="J284" t="s">
+        <v>102</v>
+      </c>
+      <c r="K284" t="s">
+        <v>124</v>
+      </c>
+      <c r="L284" t="s">
+        <v>87</v>
+      </c>
+      <c r="M284" t="s">
+        <v>185</v>
+      </c>
+      <c r="N284" t="s">
+        <v>83</v>
+      </c>
+      <c r="O284" t="s">
+        <v>790</v>
+      </c>
+      <c r="P284" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>96</v>
+      </c>
+      <c r="R284" t="s">
+        <v>97</v>
+      </c>
+      <c r="S284" t="s">
+        <v>220</v>
+      </c>
+      <c r="T284" t="s">
+        <v>102</v>
+      </c>
+      <c r="U284" t="s">
+        <v>111</v>
+      </c>
+      <c r="V284" t="s">
+        <v>97</v>
+      </c>
+      <c r="W284" t="s">
+        <v>179</v>
+      </c>
+      <c r="X284" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="285" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>534</v>
       </c>
@@ -30275,8 +30602,62 @@
       <c r="E285" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="286" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I285" t="s">
+        <v>199</v>
+      </c>
+      <c r="J285" t="s">
+        <v>92</v>
+      </c>
+      <c r="K285" t="s">
+        <v>791</v>
+      </c>
+      <c r="L285" t="s">
+        <v>108</v>
+      </c>
+      <c r="M285" t="s">
+        <v>169</v>
+      </c>
+      <c r="N285" t="s">
+        <v>108</v>
+      </c>
+      <c r="O285" t="s">
+        <v>125</v>
+      </c>
+      <c r="P285" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>171</v>
+      </c>
+      <c r="R285" t="s">
+        <v>108</v>
+      </c>
+      <c r="S285" t="s">
+        <v>96</v>
+      </c>
+      <c r="T285" t="s">
+        <v>97</v>
+      </c>
+      <c r="U285" t="s">
+        <v>94</v>
+      </c>
+      <c r="V285" t="s">
+        <v>95</v>
+      </c>
+      <c r="W285" t="s">
+        <v>194</v>
+      </c>
+      <c r="X285" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="286" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>535</v>
       </c>
@@ -30286,8 +30667,158 @@
       <c r="E286" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="287" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I286" t="s">
+        <v>101</v>
+      </c>
+      <c r="J286" t="s">
+        <v>102</v>
+      </c>
+      <c r="K286" t="s">
+        <v>195</v>
+      </c>
+      <c r="L286" t="s">
+        <v>95</v>
+      </c>
+      <c r="M286" t="s">
+        <v>99</v>
+      </c>
+      <c r="N286" t="s">
+        <v>100</v>
+      </c>
+      <c r="O286" t="s">
+        <v>166</v>
+      </c>
+      <c r="P286" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>88</v>
+      </c>
+      <c r="R286" t="s">
+        <v>89</v>
+      </c>
+      <c r="S286" t="s">
+        <v>112</v>
+      </c>
+      <c r="T286" t="s">
+        <v>95</v>
+      </c>
+      <c r="U286" t="s">
+        <v>219</v>
+      </c>
+      <c r="V286" t="s">
+        <v>117</v>
+      </c>
+      <c r="W286" t="s">
+        <v>90</v>
+      </c>
+      <c r="X286" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP286" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX286" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY286" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ286" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA286" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB286" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC286" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD286" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE286" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF286" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="287" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>536</v>
       </c>
@@ -30300,8 +30831,206 @@
       <c r="E287" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="288" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I287" t="s">
+        <v>121</v>
+      </c>
+      <c r="J287" t="s">
+        <v>122</v>
+      </c>
+      <c r="K287" t="s">
+        <v>258</v>
+      </c>
+      <c r="L287" t="s">
+        <v>95</v>
+      </c>
+      <c r="M287" t="s">
+        <v>101</v>
+      </c>
+      <c r="N287" t="s">
+        <v>102</v>
+      </c>
+      <c r="O287" t="s">
+        <v>124</v>
+      </c>
+      <c r="P287" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>105</v>
+      </c>
+      <c r="R287" t="s">
+        <v>106</v>
+      </c>
+      <c r="S287" t="s">
+        <v>99</v>
+      </c>
+      <c r="T287" t="s">
+        <v>100</v>
+      </c>
+      <c r="U287" t="s">
+        <v>152</v>
+      </c>
+      <c r="V287" t="s">
+        <v>87</v>
+      </c>
+      <c r="W287" t="s">
+        <v>91</v>
+      </c>
+      <c r="X287" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP287" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR287" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW287" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX287" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ287" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA287" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB287" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC287" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD287" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE287" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF287" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG287" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH287" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI287" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ287" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK287" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL287" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM287" t="s">
+        <v>289</v>
+      </c>
+      <c r="BN287" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO287" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP287" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ287" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR287" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS287" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT287" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU287" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV287" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="288" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>537</v>
       </c>
@@ -30314,8 +31043,206 @@
       <c r="E288" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I288" t="s">
+        <v>121</v>
+      </c>
+      <c r="J288" t="s">
+        <v>122</v>
+      </c>
+      <c r="K288" t="s">
+        <v>101</v>
+      </c>
+      <c r="L288" t="s">
+        <v>102</v>
+      </c>
+      <c r="M288" t="s">
+        <v>124</v>
+      </c>
+      <c r="N288" t="s">
+        <v>87</v>
+      </c>
+      <c r="O288" t="s">
+        <v>99</v>
+      </c>
+      <c r="P288" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>152</v>
+      </c>
+      <c r="R288" t="s">
+        <v>87</v>
+      </c>
+      <c r="S288" t="s">
+        <v>112</v>
+      </c>
+      <c r="T288" t="s">
+        <v>95</v>
+      </c>
+      <c r="U288" t="s">
+        <v>159</v>
+      </c>
+      <c r="V288" t="s">
+        <v>87</v>
+      </c>
+      <c r="W288" t="s">
+        <v>91</v>
+      </c>
+      <c r="X288" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP288" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR288" t="s">
+        <v>792</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT288" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX288" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ288" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA288" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB288" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC288" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD288" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE288" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF288" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG288" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH288" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI288" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ288" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK288" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL288" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM288" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN288" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO288" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP288" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ288" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR288" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS288" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT288" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU288" t="s">
+        <v>191</v>
+      </c>
+      <c r="BV288" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>538</v>
       </c>
@@ -30328,8 +31255,74 @@
       <c r="E289" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I289" t="s">
+        <v>204</v>
+      </c>
+      <c r="J289" t="s">
+        <v>122</v>
+      </c>
+      <c r="K289" t="s">
+        <v>185</v>
+      </c>
+      <c r="L289" t="s">
+        <v>83</v>
+      </c>
+      <c r="M289" t="s">
+        <v>175</v>
+      </c>
+      <c r="N289" t="s">
+        <v>102</v>
+      </c>
+      <c r="O289" t="s">
+        <v>110</v>
+      </c>
+      <c r="P289" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>118</v>
+      </c>
+      <c r="R289" t="s">
+        <v>119</v>
+      </c>
+      <c r="S289" t="s">
+        <v>171</v>
+      </c>
+      <c r="T289" t="s">
+        <v>108</v>
+      </c>
+      <c r="U289" t="s">
+        <v>141</v>
+      </c>
+      <c r="V289" t="s">
+        <v>92</v>
+      </c>
+      <c r="W289" t="s">
+        <v>164</v>
+      </c>
+      <c r="X289" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>539</v>
       </c>
@@ -30339,8 +31332,92 @@
       <c r="E290" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I290" t="s">
+        <v>166</v>
+      </c>
+      <c r="J290" t="s">
+        <v>83</v>
+      </c>
+      <c r="K290" t="s">
+        <v>91</v>
+      </c>
+      <c r="L290" t="s">
+        <v>92</v>
+      </c>
+      <c r="M290" t="s">
+        <v>175</v>
+      </c>
+      <c r="N290" t="s">
+        <v>102</v>
+      </c>
+      <c r="O290" t="s">
+        <v>125</v>
+      </c>
+      <c r="P290" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>154</v>
+      </c>
+      <c r="R290" t="s">
+        <v>102</v>
+      </c>
+      <c r="S290" t="s">
+        <v>239</v>
+      </c>
+      <c r="T290" t="s">
+        <v>110</v>
+      </c>
+      <c r="U290" t="s">
+        <v>164</v>
+      </c>
+      <c r="V290" t="s">
+        <v>110</v>
+      </c>
+      <c r="W290" t="s">
+        <v>96</v>
+      </c>
+      <c r="X290" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="291" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>540</v>
       </c>
@@ -30363,7 +31440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>541</v>
       </c>
@@ -30377,7 +31454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>542</v>
       </c>
@@ -30391,7 +31468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>543</v>
       </c>
@@ -30405,7 +31482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>544</v>
       </c>
@@ -30419,7 +31496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>545</v>
       </c>
@@ -30430,7 +31507,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>546</v>
       </c>
@@ -30441,7 +31518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>547</v>
       </c>
@@ -30452,7 +31529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>548</v>
       </c>
@@ -30463,7 +31540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>549</v>
       </c>
@@ -30477,7 +31554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>550</v>
       </c>
@@ -30491,7 +31568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>551</v>
       </c>
@@ -30505,7 +31582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>552</v>
       </c>
@@ -30519,7 +31596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>553</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF753037-1DE2-4CAB-9A8C-11BBB394B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60103A8-1E3A-4E5F-A09A-5E7D82C8F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10090" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10205" uniqueCount="793">
   <si>
     <t>Name</t>
   </si>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G294" sqref="G294"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I296" sqref="I296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28493,6 +28493,9 @@
       <c r="C264" t="s">
         <v>110</v>
       </c>
+      <c r="D264" t="s">
+        <v>87</v>
+      </c>
       <c r="E264" t="s">
         <v>85</v>
       </c>
@@ -31242,7 +31245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>538</v>
       </c>
@@ -31322,7 +31325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>539</v>
       </c>
@@ -31417,7 +31420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>540</v>
       </c>
@@ -31440,7 +31443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>541</v>
       </c>
@@ -31453,8 +31456,38 @@
       <c r="E292" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="I292" t="s">
+        <v>166</v>
+      </c>
+      <c r="J292" t="s">
+        <v>83</v>
+      </c>
+      <c r="K292" t="s">
+        <v>96</v>
+      </c>
+      <c r="L292" t="s">
+        <v>97</v>
+      </c>
+      <c r="M292" t="s">
+        <v>160</v>
+      </c>
+      <c r="N292" t="s">
+        <v>89</v>
+      </c>
+      <c r="O292" t="s">
+        <v>162</v>
+      </c>
+      <c r="P292" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>228</v>
+      </c>
+      <c r="R292" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="293" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>542</v>
       </c>
@@ -31467,8 +31500,68 @@
       <c r="E293" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="I293" t="s">
+        <v>120</v>
+      </c>
+      <c r="J293" t="s">
+        <v>110</v>
+      </c>
+      <c r="K293" t="s">
+        <v>316</v>
+      </c>
+      <c r="L293" t="s">
+        <v>110</v>
+      </c>
+      <c r="M293" t="s">
+        <v>219</v>
+      </c>
+      <c r="N293" t="s">
+        <v>117</v>
+      </c>
+      <c r="O293" t="s">
+        <v>110</v>
+      </c>
+      <c r="P293" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>239</v>
+      </c>
+      <c r="R293" t="s">
+        <v>110</v>
+      </c>
+      <c r="S293" t="s">
+        <v>96</v>
+      </c>
+      <c r="T293" t="s">
+        <v>97</v>
+      </c>
+      <c r="U293" t="s">
+        <v>114</v>
+      </c>
+      <c r="V293" t="s">
+        <v>110</v>
+      </c>
+      <c r="W293" t="s">
+        <v>759</v>
+      </c>
+      <c r="X293" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="294" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>543</v>
       </c>
@@ -31481,8 +31574,104 @@
       <c r="E294" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="I294" t="s">
+        <v>124</v>
+      </c>
+      <c r="J294" t="s">
+        <v>87</v>
+      </c>
+      <c r="K294" t="s">
+        <v>166</v>
+      </c>
+      <c r="L294" t="s">
+        <v>83</v>
+      </c>
+      <c r="M294" t="s">
+        <v>91</v>
+      </c>
+      <c r="N294" t="s">
+        <v>92</v>
+      </c>
+      <c r="O294" t="s">
+        <v>219</v>
+      </c>
+      <c r="P294" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>155</v>
+      </c>
+      <c r="R294" t="s">
+        <v>117</v>
+      </c>
+      <c r="S294" t="s">
+        <v>110</v>
+      </c>
+      <c r="T294" t="s">
+        <v>110</v>
+      </c>
+      <c r="U294" t="s">
+        <v>214</v>
+      </c>
+      <c r="V294" t="s">
+        <v>119</v>
+      </c>
+      <c r="W294" t="s">
+        <v>154</v>
+      </c>
+      <c r="X294" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="295" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>544</v>
       </c>
@@ -31495,8 +31684,164 @@
       <c r="E295" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="I295" t="s">
+        <v>121</v>
+      </c>
+      <c r="J295" t="s">
+        <v>122</v>
+      </c>
+      <c r="K295" t="s">
+        <v>133</v>
+      </c>
+      <c r="L295" t="s">
+        <v>87</v>
+      </c>
+      <c r="M295" t="s">
+        <v>104</v>
+      </c>
+      <c r="N295" t="s">
+        <v>87</v>
+      </c>
+      <c r="O295" t="s">
+        <v>185</v>
+      </c>
+      <c r="P295" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>176</v>
+      </c>
+      <c r="R295" t="s">
+        <v>127</v>
+      </c>
+      <c r="S295" t="s">
+        <v>93</v>
+      </c>
+      <c r="T295" t="s">
+        <v>87</v>
+      </c>
+      <c r="U295" t="s">
+        <v>253</v>
+      </c>
+      <c r="V295" t="s">
+        <v>87</v>
+      </c>
+      <c r="W295" t="s">
+        <v>91</v>
+      </c>
+      <c r="X295" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP295" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR295" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS295" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT295" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU295" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV295" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW295" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX295" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY295" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ295" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA295" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB295" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC295" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD295" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE295" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF295" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG295" t="s">
+        <v>296</v>
+      </c>
+      <c r="BH295" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="296" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>545</v>
       </c>
@@ -31507,7 +31852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>546</v>
       </c>
@@ -31518,7 +31863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>547</v>
       </c>
@@ -31529,7 +31874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>548</v>
       </c>
@@ -31540,7 +31885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>549</v>
       </c>
@@ -31554,7 +31899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>550</v>
       </c>
@@ -31568,7 +31913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>551</v>
       </c>
@@ -31582,7 +31927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>552</v>
       </c>
@@ -31596,7 +31941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>553</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60103A8-1E3A-4E5F-A09A-5E7D82C8F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CABAA7-D87F-4C2A-9889-F5B17FCC929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10205" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10369" uniqueCount="793">
   <si>
     <t>Name</t>
   </si>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I296" sqref="I296"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21206,6 +21206,12 @@
       <c r="AZ189" t="s">
         <v>92</v>
       </c>
+      <c r="BA189" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="190" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
@@ -26044,6 +26050,12 @@
       <c r="AT238" t="s">
         <v>89</v>
       </c>
+      <c r="AU238" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="239" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
@@ -31851,6 +31863,102 @@
       <c r="E296" t="s">
         <v>85</v>
       </c>
+      <c r="I296" t="s">
+        <v>176</v>
+      </c>
+      <c r="J296" t="s">
+        <v>127</v>
+      </c>
+      <c r="K296" t="s">
+        <v>254</v>
+      </c>
+      <c r="L296" t="s">
+        <v>127</v>
+      </c>
+      <c r="M296" t="s">
+        <v>125</v>
+      </c>
+      <c r="N296" t="s">
+        <v>83</v>
+      </c>
+      <c r="O296" t="s">
+        <v>155</v>
+      </c>
+      <c r="P296" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>156</v>
+      </c>
+      <c r="R296" t="s">
+        <v>84</v>
+      </c>
+      <c r="S296" t="s">
+        <v>110</v>
+      </c>
+      <c r="T296" t="s">
+        <v>110</v>
+      </c>
+      <c r="U296" t="s">
+        <v>115</v>
+      </c>
+      <c r="V296" t="s">
+        <v>116</v>
+      </c>
+      <c r="W296" t="s">
+        <v>236</v>
+      </c>
+      <c r="X296" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="297" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
@@ -31862,6 +31970,96 @@
       <c r="E297" t="s">
         <v>85</v>
       </c>
+      <c r="I297" t="s">
+        <v>121</v>
+      </c>
+      <c r="J297" t="s">
+        <v>122</v>
+      </c>
+      <c r="K297" t="s">
+        <v>133</v>
+      </c>
+      <c r="L297" t="s">
+        <v>87</v>
+      </c>
+      <c r="M297" t="s">
+        <v>101</v>
+      </c>
+      <c r="N297" t="s">
+        <v>102</v>
+      </c>
+      <c r="O297" t="s">
+        <v>93</v>
+      </c>
+      <c r="P297" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>152</v>
+      </c>
+      <c r="R297" t="s">
+        <v>87</v>
+      </c>
+      <c r="S297" t="s">
+        <v>107</v>
+      </c>
+      <c r="T297" t="s">
+        <v>108</v>
+      </c>
+      <c r="U297" t="s">
+        <v>186</v>
+      </c>
+      <c r="V297" t="s">
+        <v>102</v>
+      </c>
+      <c r="W297" t="s">
+        <v>114</v>
+      </c>
+      <c r="X297" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="298" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
@@ -31873,6 +32071,90 @@
       <c r="E298" t="s">
         <v>85</v>
       </c>
+      <c r="I298" t="s">
+        <v>297</v>
+      </c>
+      <c r="J298" t="s">
+        <v>127</v>
+      </c>
+      <c r="K298" t="s">
+        <v>760</v>
+      </c>
+      <c r="L298" t="s">
+        <v>89</v>
+      </c>
+      <c r="M298" t="s">
+        <v>90</v>
+      </c>
+      <c r="N298" t="s">
+        <v>89</v>
+      </c>
+      <c r="O298" t="s">
+        <v>125</v>
+      </c>
+      <c r="P298" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>107</v>
+      </c>
+      <c r="R298" t="s">
+        <v>108</v>
+      </c>
+      <c r="S298" t="s">
+        <v>98</v>
+      </c>
+      <c r="T298" t="s">
+        <v>87</v>
+      </c>
+      <c r="U298" t="s">
+        <v>141</v>
+      </c>
+      <c r="V298" t="s">
+        <v>92</v>
+      </c>
+      <c r="W298" t="s">
+        <v>177</v>
+      </c>
+      <c r="X298" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="299" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
@@ -31884,6 +32166,90 @@
       <c r="E299" t="s">
         <v>85</v>
       </c>
+      <c r="I299" t="s">
+        <v>297</v>
+      </c>
+      <c r="J299" t="s">
+        <v>127</v>
+      </c>
+      <c r="K299" t="s">
+        <v>760</v>
+      </c>
+      <c r="L299" t="s">
+        <v>89</v>
+      </c>
+      <c r="M299" t="s">
+        <v>90</v>
+      </c>
+      <c r="N299" t="s">
+        <v>89</v>
+      </c>
+      <c r="O299" t="s">
+        <v>125</v>
+      </c>
+      <c r="P299" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>107</v>
+      </c>
+      <c r="R299" t="s">
+        <v>108</v>
+      </c>
+      <c r="S299" t="s">
+        <v>98</v>
+      </c>
+      <c r="T299" t="s">
+        <v>87</v>
+      </c>
+      <c r="U299" t="s">
+        <v>141</v>
+      </c>
+      <c r="V299" t="s">
+        <v>92</v>
+      </c>
+      <c r="W299" t="s">
+        <v>177</v>
+      </c>
+      <c r="X299" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="300" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
@@ -31897,6 +32263,132 @@
       </c>
       <c r="E300" t="s">
         <v>85</v>
+      </c>
+      <c r="I300" t="s">
+        <v>121</v>
+      </c>
+      <c r="J300" t="s">
+        <v>122</v>
+      </c>
+      <c r="K300" t="s">
+        <v>263</v>
+      </c>
+      <c r="L300" t="s">
+        <v>92</v>
+      </c>
+      <c r="M300" t="s">
+        <v>101</v>
+      </c>
+      <c r="N300" t="s">
+        <v>102</v>
+      </c>
+      <c r="O300" t="s">
+        <v>99</v>
+      </c>
+      <c r="P300" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>760</v>
+      </c>
+      <c r="R300" t="s">
+        <v>89</v>
+      </c>
+      <c r="S300" t="s">
+        <v>142</v>
+      </c>
+      <c r="T300" t="s">
+        <v>110</v>
+      </c>
+      <c r="U300" t="s">
+        <v>137</v>
+      </c>
+      <c r="V300" t="s">
+        <v>102</v>
+      </c>
+      <c r="W300" t="s">
+        <v>141</v>
+      </c>
+      <c r="X300" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP300" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR300" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS300" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT300" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU300" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX300" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:60" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CABAA7-D87F-4C2A-9889-F5B17FCC929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DE5ACF-53BB-4F96-AFBB-32A7AD7C69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10369" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10661" uniqueCount="793">
   <si>
     <t>Name</t>
   </si>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I301" sqref="I301"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I316" sqref="I316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32404,6 +32404,54 @@
       <c r="E301" t="s">
         <v>85</v>
       </c>
+      <c r="I301" t="s">
+        <v>199</v>
+      </c>
+      <c r="J301" t="s">
+        <v>92</v>
+      </c>
+      <c r="K301" t="s">
+        <v>90</v>
+      </c>
+      <c r="L301" t="s">
+        <v>89</v>
+      </c>
+      <c r="M301" t="s">
+        <v>156</v>
+      </c>
+      <c r="N301" t="s">
+        <v>84</v>
+      </c>
+      <c r="O301" t="s">
+        <v>137</v>
+      </c>
+      <c r="P301" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>276</v>
+      </c>
+      <c r="R301" t="s">
+        <v>87</v>
+      </c>
+      <c r="S301" t="s">
+        <v>130</v>
+      </c>
+      <c r="T301" t="s">
+        <v>102</v>
+      </c>
+      <c r="U301" t="s">
+        <v>205</v>
+      </c>
+      <c r="V301" t="s">
+        <v>84</v>
+      </c>
+      <c r="W301" t="s">
+        <v>296</v>
+      </c>
+      <c r="X301" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="302" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
@@ -32418,6 +32466,72 @@
       <c r="E302" t="s">
         <v>85</v>
       </c>
+      <c r="I302" t="s">
+        <v>101</v>
+      </c>
+      <c r="J302" t="s">
+        <v>102</v>
+      </c>
+      <c r="K302" t="s">
+        <v>124</v>
+      </c>
+      <c r="L302" t="s">
+        <v>87</v>
+      </c>
+      <c r="M302" t="s">
+        <v>175</v>
+      </c>
+      <c r="N302" t="s">
+        <v>102</v>
+      </c>
+      <c r="O302" t="s">
+        <v>125</v>
+      </c>
+      <c r="P302" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>118</v>
+      </c>
+      <c r="R302" t="s">
+        <v>119</v>
+      </c>
+      <c r="S302" t="s">
+        <v>96</v>
+      </c>
+      <c r="T302" t="s">
+        <v>97</v>
+      </c>
+      <c r="U302" t="s">
+        <v>86</v>
+      </c>
+      <c r="V302" t="s">
+        <v>87</v>
+      </c>
+      <c r="W302" t="s">
+        <v>94</v>
+      </c>
+      <c r="X302" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="303" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
@@ -32432,6 +32546,48 @@
       <c r="E303" t="s">
         <v>85</v>
       </c>
+      <c r="I303" t="s">
+        <v>204</v>
+      </c>
+      <c r="J303" t="s">
+        <v>122</v>
+      </c>
+      <c r="K303" t="s">
+        <v>166</v>
+      </c>
+      <c r="L303" t="s">
+        <v>83</v>
+      </c>
+      <c r="M303" t="s">
+        <v>96</v>
+      </c>
+      <c r="N303" t="s">
+        <v>97</v>
+      </c>
+      <c r="O303" t="s">
+        <v>125</v>
+      </c>
+      <c r="P303" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>98</v>
+      </c>
+      <c r="R303" t="s">
+        <v>87</v>
+      </c>
+      <c r="S303" t="s">
+        <v>162</v>
+      </c>
+      <c r="T303" t="s">
+        <v>83</v>
+      </c>
+      <c r="U303" t="s">
+        <v>146</v>
+      </c>
+      <c r="V303" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="304" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
@@ -32446,8 +32602,32 @@
       <c r="E304" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I304" t="s">
+        <v>133</v>
+      </c>
+      <c r="J304" t="s">
+        <v>87</v>
+      </c>
+      <c r="K304" t="s">
+        <v>168</v>
+      </c>
+      <c r="L304" t="s">
+        <v>108</v>
+      </c>
+      <c r="M304" t="s">
+        <v>170</v>
+      </c>
+      <c r="N304" t="s">
+        <v>92</v>
+      </c>
+      <c r="O304" t="s">
+        <v>179</v>
+      </c>
+      <c r="P304" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>554</v>
       </c>
@@ -32460,8 +32640,32 @@
       <c r="E305" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I305" t="s">
+        <v>133</v>
+      </c>
+      <c r="J305" t="s">
+        <v>87</v>
+      </c>
+      <c r="K305" t="s">
+        <v>168</v>
+      </c>
+      <c r="L305" t="s">
+        <v>108</v>
+      </c>
+      <c r="M305" t="s">
+        <v>170</v>
+      </c>
+      <c r="N305" t="s">
+        <v>92</v>
+      </c>
+      <c r="O305" t="s">
+        <v>179</v>
+      </c>
+      <c r="P305" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="306" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>555</v>
       </c>
@@ -32474,8 +32678,32 @@
       <c r="E306" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I306" t="s">
+        <v>133</v>
+      </c>
+      <c r="J306" t="s">
+        <v>87</v>
+      </c>
+      <c r="K306" t="s">
+        <v>168</v>
+      </c>
+      <c r="L306" t="s">
+        <v>108</v>
+      </c>
+      <c r="M306" t="s">
+        <v>170</v>
+      </c>
+      <c r="N306" t="s">
+        <v>92</v>
+      </c>
+      <c r="O306" t="s">
+        <v>179</v>
+      </c>
+      <c r="P306" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="307" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>556</v>
       </c>
@@ -32488,8 +32716,32 @@
       <c r="E307" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I307" t="s">
+        <v>133</v>
+      </c>
+      <c r="J307" t="s">
+        <v>87</v>
+      </c>
+      <c r="K307" t="s">
+        <v>168</v>
+      </c>
+      <c r="L307" t="s">
+        <v>108</v>
+      </c>
+      <c r="M307" t="s">
+        <v>170</v>
+      </c>
+      <c r="N307" t="s">
+        <v>92</v>
+      </c>
+      <c r="O307" t="s">
+        <v>179</v>
+      </c>
+      <c r="P307" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="308" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>557</v>
       </c>
@@ -32499,8 +32751,62 @@
       <c r="E308" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I308" t="s">
+        <v>755</v>
+      </c>
+      <c r="J308" t="s">
+        <v>122</v>
+      </c>
+      <c r="K308" t="s">
+        <v>88</v>
+      </c>
+      <c r="L308" t="s">
+        <v>89</v>
+      </c>
+      <c r="M308" t="s">
+        <v>90</v>
+      </c>
+      <c r="N308" t="s">
+        <v>89</v>
+      </c>
+      <c r="O308" t="s">
+        <v>98</v>
+      </c>
+      <c r="P308" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>160</v>
+      </c>
+      <c r="R308" t="s">
+        <v>89</v>
+      </c>
+      <c r="S308" t="s">
+        <v>94</v>
+      </c>
+      <c r="T308" t="s">
+        <v>95</v>
+      </c>
+      <c r="U308" t="s">
+        <v>145</v>
+      </c>
+      <c r="V308" t="s">
+        <v>89</v>
+      </c>
+      <c r="W308" t="s">
+        <v>223</v>
+      </c>
+      <c r="X308" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="309" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>558</v>
       </c>
@@ -32513,8 +32819,98 @@
       <c r="E309" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I309" t="s">
+        <v>133</v>
+      </c>
+      <c r="J309" t="s">
+        <v>87</v>
+      </c>
+      <c r="K309" t="s">
+        <v>199</v>
+      </c>
+      <c r="L309" t="s">
+        <v>92</v>
+      </c>
+      <c r="M309" t="s">
+        <v>136</v>
+      </c>
+      <c r="N309" t="s">
+        <v>129</v>
+      </c>
+      <c r="O309" t="s">
+        <v>156</v>
+      </c>
+      <c r="P309" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>157</v>
+      </c>
+      <c r="R309" t="s">
+        <v>129</v>
+      </c>
+      <c r="S309" t="s">
+        <v>232</v>
+      </c>
+      <c r="T309" t="s">
+        <v>129</v>
+      </c>
+      <c r="U309" t="s">
+        <v>96</v>
+      </c>
+      <c r="V309" t="s">
+        <v>97</v>
+      </c>
+      <c r="W309" t="s">
+        <v>750</v>
+      </c>
+      <c r="X309" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG309" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH309" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI309" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ309" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK309" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL309" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>559</v>
       </c>
@@ -32524,8 +32920,62 @@
       <c r="E310" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I310" t="s">
+        <v>101</v>
+      </c>
+      <c r="J310" t="s">
+        <v>102</v>
+      </c>
+      <c r="K310" t="s">
+        <v>185</v>
+      </c>
+      <c r="L310" t="s">
+        <v>83</v>
+      </c>
+      <c r="M310" t="s">
+        <v>176</v>
+      </c>
+      <c r="N310" t="s">
+        <v>127</v>
+      </c>
+      <c r="O310" t="s">
+        <v>91</v>
+      </c>
+      <c r="P310" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>107</v>
+      </c>
+      <c r="R310" t="s">
+        <v>108</v>
+      </c>
+      <c r="S310" t="s">
+        <v>168</v>
+      </c>
+      <c r="T310" t="s">
+        <v>108</v>
+      </c>
+      <c r="U310" t="s">
+        <v>177</v>
+      </c>
+      <c r="V310" t="s">
+        <v>83</v>
+      </c>
+      <c r="W310" t="s">
+        <v>160</v>
+      </c>
+      <c r="X310" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>560</v>
       </c>
@@ -32538,8 +32988,68 @@
       <c r="E311" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I311" t="s">
+        <v>101</v>
+      </c>
+      <c r="J311" t="s">
+        <v>102</v>
+      </c>
+      <c r="K311" t="s">
+        <v>112</v>
+      </c>
+      <c r="L311" t="s">
+        <v>95</v>
+      </c>
+      <c r="M311" t="s">
+        <v>125</v>
+      </c>
+      <c r="N311" t="s">
+        <v>83</v>
+      </c>
+      <c r="O311" t="s">
+        <v>110</v>
+      </c>
+      <c r="P311" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>126</v>
+      </c>
+      <c r="R311" t="s">
+        <v>127</v>
+      </c>
+      <c r="S311" t="s">
+        <v>236</v>
+      </c>
+      <c r="T311" t="s">
+        <v>92</v>
+      </c>
+      <c r="U311" t="s">
+        <v>162</v>
+      </c>
+      <c r="V311" t="s">
+        <v>83</v>
+      </c>
+      <c r="W311" t="s">
+        <v>94</v>
+      </c>
+      <c r="X311" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>561</v>
       </c>
@@ -32552,8 +33062,134 @@
       <c r="E312" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I312" t="s">
+        <v>185</v>
+      </c>
+      <c r="J312" t="s">
+        <v>83</v>
+      </c>
+      <c r="K312" t="s">
+        <v>176</v>
+      </c>
+      <c r="L312" t="s">
+        <v>127</v>
+      </c>
+      <c r="M312" t="s">
+        <v>99</v>
+      </c>
+      <c r="N312" t="s">
+        <v>100</v>
+      </c>
+      <c r="O312" t="s">
+        <v>88</v>
+      </c>
+      <c r="P312" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>112</v>
+      </c>
+      <c r="R312" t="s">
+        <v>95</v>
+      </c>
+      <c r="S312" t="s">
+        <v>126</v>
+      </c>
+      <c r="T312" t="s">
+        <v>127</v>
+      </c>
+      <c r="U312" t="s">
+        <v>157</v>
+      </c>
+      <c r="V312" t="s">
+        <v>129</v>
+      </c>
+      <c r="W312" t="s">
+        <v>138</v>
+      </c>
+      <c r="X312" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG312" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH312" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI312" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ312" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK312" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL312" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM312" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN312" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO312" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP312" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ312" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR312" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS312" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT312" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU312" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV312" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW312" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>562</v>
       </c>
@@ -32566,8 +33202,68 @@
       <c r="E313" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I313" t="s">
+        <v>121</v>
+      </c>
+      <c r="J313" t="s">
+        <v>122</v>
+      </c>
+      <c r="K313" t="s">
+        <v>126</v>
+      </c>
+      <c r="L313" t="s">
+        <v>127</v>
+      </c>
+      <c r="M313" t="s">
+        <v>186</v>
+      </c>
+      <c r="N313" t="s">
+        <v>102</v>
+      </c>
+      <c r="O313" t="s">
+        <v>160</v>
+      </c>
+      <c r="P313" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>86</v>
+      </c>
+      <c r="R313" t="s">
+        <v>87</v>
+      </c>
+      <c r="S313" t="s">
+        <v>233</v>
+      </c>
+      <c r="T313" t="s">
+        <v>127</v>
+      </c>
+      <c r="U313" t="s">
+        <v>130</v>
+      </c>
+      <c r="V313" t="s">
+        <v>102</v>
+      </c>
+      <c r="W313" t="s">
+        <v>229</v>
+      </c>
+      <c r="X313" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="314" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>563</v>
       </c>
@@ -32577,8 +33273,122 @@
       <c r="E314" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I314" t="s">
+        <v>121</v>
+      </c>
+      <c r="J314" t="s">
+        <v>122</v>
+      </c>
+      <c r="K314" t="s">
+        <v>199</v>
+      </c>
+      <c r="L314" t="s">
+        <v>92</v>
+      </c>
+      <c r="M314" t="s">
+        <v>101</v>
+      </c>
+      <c r="N314" t="s">
+        <v>102</v>
+      </c>
+      <c r="O314" t="s">
+        <v>185</v>
+      </c>
+      <c r="P314" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>176</v>
+      </c>
+      <c r="R314" t="s">
+        <v>127</v>
+      </c>
+      <c r="S314" t="s">
+        <v>88</v>
+      </c>
+      <c r="T314" t="s">
+        <v>89</v>
+      </c>
+      <c r="U314" t="s">
+        <v>91</v>
+      </c>
+      <c r="V314" t="s">
+        <v>92</v>
+      </c>
+      <c r="W314" t="s">
+        <v>125</v>
+      </c>
+      <c r="X314" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG314" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH314" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI314" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ314" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK314" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL314" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM314" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN314" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO314" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP314" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ314" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR314" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS314" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT314" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="315" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>564</v>
       </c>
@@ -32591,8 +33401,74 @@
       <c r="E315" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I315" t="s">
+        <v>101</v>
+      </c>
+      <c r="J315" t="s">
+        <v>102</v>
+      </c>
+      <c r="K315" t="s">
+        <v>185</v>
+      </c>
+      <c r="L315" t="s">
+        <v>83</v>
+      </c>
+      <c r="M315" t="s">
+        <v>107</v>
+      </c>
+      <c r="N315" t="s">
+        <v>108</v>
+      </c>
+      <c r="O315" t="s">
+        <v>137</v>
+      </c>
+      <c r="P315" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>177</v>
+      </c>
+      <c r="R315" t="s">
+        <v>83</v>
+      </c>
+      <c r="S315" t="s">
+        <v>186</v>
+      </c>
+      <c r="T315" t="s">
+        <v>102</v>
+      </c>
+      <c r="U315" t="s">
+        <v>150</v>
+      </c>
+      <c r="V315" t="s">
+        <v>117</v>
+      </c>
+      <c r="W315" t="s">
+        <v>151</v>
+      </c>
+      <c r="X315" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="316" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>565</v>
       </c>
@@ -32603,7 +33479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>566</v>
       </c>
@@ -32614,7 +33490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>567</v>
       </c>
@@ -32625,7 +33501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>568</v>
       </c>
@@ -32636,7 +33512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>569</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DE5ACF-53BB-4F96-AFBB-32A7AD7C69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5D96E-C0DC-42B0-966A-DB166E07E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="110" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10661" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10811" uniqueCount="794">
   <si>
     <t>Name</t>
   </si>
@@ -2399,6 +2399,9 @@
   </si>
   <si>
     <t>Dak</t>
+  </si>
+  <si>
+    <t>Pelipper</t>
   </si>
 </sst>
 </file>
@@ -2761,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD489"/>
+  <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I316" sqref="I316"/>
+    <sheetView tabSelected="1" topLeftCell="I304" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I321" sqref="I321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33470,68 +33473,509 @@
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>565</v>
+        <v>793</v>
       </c>
       <c r="B316" t="s">
+        <v>129</v>
+      </c>
+      <c r="C316" t="s">
+        <v>116</v>
+      </c>
+      <c r="E316" t="s">
+        <v>85</v>
+      </c>
+      <c r="I316" t="s">
+        <v>101</v>
+      </c>
+      <c r="J316" t="s">
+        <v>102</v>
+      </c>
+      <c r="K316" t="s">
+        <v>176</v>
+      </c>
+      <c r="L316" t="s">
+        <v>127</v>
+      </c>
+      <c r="M316" t="s">
+        <v>156</v>
+      </c>
+      <c r="N316" t="s">
+        <v>84</v>
+      </c>
+      <c r="O316" t="s">
+        <v>177</v>
+      </c>
+      <c r="P316" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>170</v>
+      </c>
+      <c r="R316" t="s">
         <v>92</v>
       </c>
-      <c r="E316" t="s">
-        <v>85</v>
+      <c r="S316" t="s">
+        <v>179</v>
+      </c>
+      <c r="T316" t="s">
+        <v>106</v>
+      </c>
+      <c r="U316" t="s">
+        <v>130</v>
+      </c>
+      <c r="V316" t="s">
+        <v>102</v>
+      </c>
+      <c r="W316" t="s">
+        <v>146</v>
+      </c>
+      <c r="X316" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="E317" t="s">
         <v>85</v>
+      </c>
+      <c r="I317" t="s">
+        <v>755</v>
+      </c>
+      <c r="J317" t="s">
+        <v>122</v>
+      </c>
+      <c r="K317" t="s">
+        <v>101</v>
+      </c>
+      <c r="L317" t="s">
+        <v>102</v>
+      </c>
+      <c r="M317" t="s">
+        <v>104</v>
+      </c>
+      <c r="N317" t="s">
+        <v>87</v>
+      </c>
+      <c r="O317" t="s">
+        <v>176</v>
+      </c>
+      <c r="P317" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>175</v>
+      </c>
+      <c r="R317" t="s">
+        <v>102</v>
+      </c>
+      <c r="S317" t="s">
+        <v>107</v>
+      </c>
+      <c r="T317" t="s">
+        <v>108</v>
+      </c>
+      <c r="U317" t="s">
+        <v>118</v>
+      </c>
+      <c r="V317" t="s">
+        <v>119</v>
+      </c>
+      <c r="W317" t="s">
+        <v>137</v>
+      </c>
+      <c r="X317" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF317" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG317" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH317" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI317" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ317" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK317" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL317" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM317" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO317" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP317" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ317" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR317" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS317" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU317" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV317" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW317" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX317" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B318" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E318" t="s">
         <v>85</v>
+      </c>
+      <c r="I318" t="s">
+        <v>176</v>
+      </c>
+      <c r="J318" t="s">
+        <v>127</v>
+      </c>
+      <c r="K318" t="s">
+        <v>764</v>
+      </c>
+      <c r="L318" t="s">
+        <v>83</v>
+      </c>
+      <c r="M318" t="s">
+        <v>190</v>
+      </c>
+      <c r="N318" t="s">
+        <v>119</v>
+      </c>
+      <c r="O318" t="s">
+        <v>118</v>
+      </c>
+      <c r="P318" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>91</v>
+      </c>
+      <c r="R318" t="s">
+        <v>92</v>
+      </c>
+      <c r="S318" t="s">
+        <v>175</v>
+      </c>
+      <c r="T318" t="s">
+        <v>102</v>
+      </c>
+      <c r="U318" t="s">
+        <v>107</v>
+      </c>
+      <c r="V318" t="s">
+        <v>108</v>
+      </c>
+      <c r="W318" t="s">
+        <v>154</v>
+      </c>
+      <c r="X318" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF318" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG318" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH318" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI318" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ318" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK318" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL318" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM318" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN318" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO318" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP318" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ318" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR318" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS318" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT318" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU318" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV318" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW318" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX318" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B319" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E319" t="s">
         <v>85</v>
+      </c>
+      <c r="I319" t="s">
+        <v>176</v>
+      </c>
+      <c r="J319" t="s">
+        <v>127</v>
+      </c>
+      <c r="K319" t="s">
+        <v>91</v>
+      </c>
+      <c r="L319" t="s">
+        <v>92</v>
+      </c>
+      <c r="M319" t="s">
+        <v>107</v>
+      </c>
+      <c r="N319" t="s">
+        <v>108</v>
+      </c>
+      <c r="O319" t="s">
+        <v>118</v>
+      </c>
+      <c r="P319" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>193</v>
+      </c>
+      <c r="R319" t="s">
+        <v>95</v>
+      </c>
+      <c r="S319" t="s">
+        <v>177</v>
+      </c>
+      <c r="T319" t="s">
+        <v>83</v>
+      </c>
+      <c r="U319" t="s">
+        <v>96</v>
+      </c>
+      <c r="V319" t="s">
+        <v>97</v>
+      </c>
+      <c r="W319" t="s">
+        <v>160</v>
+      </c>
+      <c r="X319" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE319" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF319" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B320" t="s">
-        <v>173</v>
-      </c>
-      <c r="C320" t="s">
+        <v>129</v>
+      </c>
+      <c r="E320" t="s">
+        <v>85</v>
+      </c>
+      <c r="I320" t="s">
+        <v>101</v>
+      </c>
+      <c r="J320" t="s">
+        <v>102</v>
+      </c>
+      <c r="K320" t="s">
+        <v>185</v>
+      </c>
+      <c r="L320" t="s">
+        <v>83</v>
+      </c>
+      <c r="M320" t="s">
+        <v>156</v>
+      </c>
+      <c r="N320" t="s">
+        <v>84</v>
+      </c>
+      <c r="O320" t="s">
+        <v>168</v>
+      </c>
+      <c r="P320" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>115</v>
+      </c>
+      <c r="R320" t="s">
         <v>116</v>
       </c>
-      <c r="E320" t="s">
-        <v>85</v>
+      <c r="S320" t="s">
+        <v>114</v>
+      </c>
+      <c r="T320" t="s">
+        <v>110</v>
+      </c>
+      <c r="U320" t="s">
+        <v>171</v>
+      </c>
+      <c r="V320" t="s">
+        <v>108</v>
+      </c>
+      <c r="W320" t="s">
+        <v>194</v>
+      </c>
+      <c r="X320" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B321" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="C321" t="s">
+        <v>116</v>
       </c>
       <c r="E321" t="s">
         <v>85</v>
@@ -33539,7 +33983,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B322" t="s">
         <v>119</v>
@@ -33550,10 +33994,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B323" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E323" t="s">
         <v>85</v>
@@ -33561,10 +34005,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B324" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E324" t="s">
         <v>85</v>
@@ -33572,10 +34016,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B325" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E325" t="s">
         <v>85</v>
@@ -33583,24 +34027,24 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B326" t="s">
         <v>129</v>
       </c>
-      <c r="C326" t="s">
-        <v>87</v>
-      </c>
       <c r="E326" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B327" t="s">
-        <v>97</v>
+        <v>129</v>
+      </c>
+      <c r="C327" t="s">
+        <v>87</v>
       </c>
       <c r="E327" t="s">
         <v>85</v>
@@ -33608,13 +34052,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B328" t="s">
-        <v>129</v>
-      </c>
-      <c r="C328" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E328" t="s">
         <v>85</v>
@@ -33622,13 +34063,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B329" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C329" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E329" t="s">
         <v>85</v>
@@ -33636,10 +34077,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B330" t="s">
-        <v>173</v>
+        <v>95</v>
+      </c>
+      <c r="C330" t="s">
+        <v>92</v>
       </c>
       <c r="E330" t="s">
         <v>85</v>
@@ -33647,12 +34091,9 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B331" t="s">
-        <v>117</v>
-      </c>
-      <c r="C331" t="s">
         <v>173</v>
       </c>
       <c r="E331" t="s">
@@ -33661,10 +34102,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B332" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="C332" t="s">
+        <v>173</v>
       </c>
       <c r="E332" t="s">
         <v>85</v>
@@ -33672,27 +34116,24 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B333" t="s">
         <v>129</v>
       </c>
-      <c r="C333" t="s">
-        <v>89</v>
-      </c>
       <c r="E333" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B334" t="s">
         <v>129</v>
       </c>
       <c r="C334" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E334" t="s">
         <v>85</v>
@@ -33700,13 +34141,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B335" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C335" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E335" t="s">
         <v>85</v>
@@ -33714,10 +34155,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B336" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="C336" t="s">
+        <v>110</v>
       </c>
       <c r="E336" t="s">
         <v>85</v>
@@ -33725,35 +34169,35 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B337" t="s">
         <v>119</v>
       </c>
-      <c r="C337" t="s">
-        <v>110</v>
-      </c>
       <c r="E337" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B338" t="s">
         <v>119</v>
       </c>
+      <c r="C338" t="s">
+        <v>110</v>
+      </c>
       <c r="E338" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B339" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E339" t="s">
         <v>85</v>
@@ -33761,10 +34205,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B340" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E340" t="s">
         <v>85</v>
@@ -33772,13 +34216,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B341" t="s">
-        <v>110</v>
-      </c>
-      <c r="C341" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E341" t="s">
         <v>85</v>
@@ -33786,10 +34227,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B342" t="s">
-        <v>173</v>
+        <v>110</v>
+      </c>
+      <c r="C342" t="s">
+        <v>108</v>
       </c>
       <c r="E342" t="s">
         <v>85</v>
@@ -33797,12 +34241,9 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B343" t="s">
-        <v>102</v>
-      </c>
-      <c r="C343" t="s">
         <v>173</v>
       </c>
       <c r="E343" t="s">
@@ -33811,10 +34252,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B344" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="C344" t="s">
+        <v>173</v>
       </c>
       <c r="E344" t="s">
         <v>85</v>
@@ -33822,10 +34266,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B345" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E345" t="s">
         <v>85</v>
@@ -33833,63 +34277,63 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B346" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="E346" t="s">
         <v>85</v>
-      </c>
-      <c r="F346" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B347" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E347" t="s">
         <v>85</v>
+      </c>
+      <c r="F347" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B348" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E348" t="s">
         <v>85</v>
-      </c>
-      <c r="F348" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B349" t="s">
-        <v>129</v>
-      </c>
-      <c r="C349" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E349" t="s">
         <v>85</v>
+      </c>
+      <c r="F349" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B350" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+      <c r="C350" t="s">
+        <v>95</v>
       </c>
       <c r="E350" t="s">
         <v>85</v>
@@ -33897,13 +34341,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B351" t="s">
-        <v>92</v>
-      </c>
-      <c r="C351" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E351" t="s">
         <v>85</v>
@@ -33911,13 +34352,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B352" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C352" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E352" t="s">
         <v>85</v>
@@ -33925,13 +34366,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B353" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C353" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E353" t="s">
         <v>85</v>
@@ -33939,13 +34380,13 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B354" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C354" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E354" t="s">
         <v>85</v>
@@ -33953,13 +34394,13 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B355" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C355" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="E355" t="s">
         <v>85</v>
@@ -33967,13 +34408,13 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B356" t="s">
         <v>119</v>
       </c>
       <c r="C356" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E356" t="s">
         <v>85</v>
@@ -33981,13 +34422,13 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B357" t="s">
         <v>119</v>
       </c>
       <c r="C357" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E357" t="s">
         <v>85</v>
@@ -33995,13 +34436,13 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B358" t="s">
         <v>119</v>
       </c>
       <c r="C358" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E358" t="s">
         <v>85</v>
@@ -34009,13 +34450,13 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B359" t="s">
         <v>119</v>
       </c>
       <c r="C359" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E359" t="s">
         <v>85</v>
@@ -34023,13 +34464,13 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B360" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C360" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E360" t="s">
         <v>85</v>
@@ -34037,10 +34478,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B361" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C361" t="s">
         <v>97</v>
@@ -34051,13 +34492,13 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B362" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C362" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E362" t="s">
         <v>85</v>
@@ -34065,10 +34506,13 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B363" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="C363" t="s">
+        <v>117</v>
       </c>
       <c r="E363" t="s">
         <v>85</v>
@@ -34076,10 +34520,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B364" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E364" t="s">
         <v>85</v>
@@ -34087,7 +34531,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B365" t="s">
         <v>89</v>
@@ -34098,13 +34542,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B366" t="s">
-        <v>84</v>
-      </c>
-      <c r="C366" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E366" t="s">
         <v>85</v>
@@ -34112,41 +34553,41 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B367" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C367" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E367" t="s">
         <v>85</v>
-      </c>
-      <c r="G367" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B368" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C368" t="s">
+        <v>89</v>
       </c>
       <c r="E368" t="s">
         <v>85</v>
+      </c>
+      <c r="G368" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B369" t="s">
-        <v>173</v>
-      </c>
-      <c r="C369" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E369" t="s">
         <v>85</v>
@@ -34154,13 +34595,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B370" t="s">
+        <v>173</v>
+      </c>
+      <c r="C370" t="s">
         <v>83</v>
-      </c>
-      <c r="D370" t="s">
-        <v>100</v>
       </c>
       <c r="E370" t="s">
         <v>85</v>
@@ -34168,13 +34609,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B371" t="s">
         <v>83</v>
       </c>
-      <c r="C371" t="s">
-        <v>117</v>
+      <c r="D371" t="s">
+        <v>100</v>
       </c>
       <c r="E371" t="s">
         <v>85</v>
@@ -34182,13 +34623,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B372" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C372" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E372" t="s">
         <v>85</v>
@@ -34196,13 +34637,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B373" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C373" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E373" t="s">
         <v>85</v>
@@ -34210,10 +34651,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B374" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="C374" t="s">
+        <v>110</v>
       </c>
       <c r="E374" t="s">
         <v>85</v>
@@ -34221,24 +34665,24 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B375" t="s">
         <v>129</v>
       </c>
-      <c r="C375" t="s">
-        <v>89</v>
-      </c>
       <c r="E375" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B376" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="C376" t="s">
+        <v>89</v>
       </c>
       <c r="E376" t="s">
         <v>85</v>
@@ -34246,13 +34690,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B377" t="s">
-        <v>129</v>
-      </c>
-      <c r="C377" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E377" t="s">
         <v>85</v>
@@ -34260,10 +34701,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B378" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="C378" t="s">
+        <v>102</v>
       </c>
       <c r="E378" t="s">
         <v>85</v>
@@ -34271,27 +34715,24 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B379" t="s">
         <v>83</v>
       </c>
-      <c r="C379" t="s">
-        <v>102</v>
-      </c>
       <c r="E379" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B380" t="s">
         <v>83</v>
       </c>
       <c r="C380" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E380" t="s">
         <v>85</v>
@@ -34299,13 +34740,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B381" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C381" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E381" t="s">
         <v>85</v>
@@ -34313,13 +34754,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B382" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C382" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E382" t="s">
         <v>85</v>
@@ -34327,35 +34768,38 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B383" t="s">
-        <v>173</v>
+        <v>110</v>
+      </c>
+      <c r="C383" t="s">
+        <v>116</v>
       </c>
       <c r="E383" t="s">
         <v>85</v>
-      </c>
-      <c r="F383" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B384" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E384" t="s">
         <v>85</v>
+      </c>
+      <c r="F384" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B385" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E385" t="s">
         <v>85</v>
@@ -34363,10 +34807,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B386" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E386" t="s">
         <v>85</v>
@@ -34374,13 +34818,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B387" t="s">
-        <v>83</v>
-      </c>
-      <c r="C387" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E387" t="s">
         <v>85</v>
@@ -34388,10 +34829,13 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B388" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C388" t="s">
+        <v>97</v>
       </c>
       <c r="E388" t="s">
         <v>85</v>
@@ -34399,13 +34843,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B389" t="s">
-        <v>127</v>
-      </c>
-      <c r="C389" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E389" t="s">
         <v>85</v>
@@ -34413,10 +34854,13 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B390" t="s">
-        <v>173</v>
+        <v>127</v>
+      </c>
+      <c r="C390" t="s">
+        <v>102</v>
       </c>
       <c r="E390" t="s">
         <v>85</v>
@@ -34424,13 +34868,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B391" t="s">
-        <v>106</v>
-      </c>
-      <c r="C391" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="E391" t="s">
         <v>85</v>
@@ -34438,13 +34879,13 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B392" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C392" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E392" t="s">
         <v>85</v>
@@ -34452,10 +34893,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B393" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C393" t="s">
         <v>110</v>
@@ -34463,27 +34904,30 @@
       <c r="E393" t="s">
         <v>85</v>
       </c>
-      <c r="G393" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B394" t="s">
-        <v>108</v>
+        <v>129</v>
+      </c>
+      <c r="C394" t="s">
+        <v>110</v>
       </c>
       <c r="E394" t="s">
         <v>85</v>
+      </c>
+      <c r="G394" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B395" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="E395" t="s">
         <v>85</v>
@@ -34491,7 +34935,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B396" t="s">
         <v>173</v>
@@ -34502,13 +34946,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B397" t="s">
-        <v>95</v>
-      </c>
-      <c r="C397" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="E397" t="s">
         <v>85</v>
@@ -34516,10 +34957,13 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B398" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C398" t="s">
+        <v>110</v>
       </c>
       <c r="E398" t="s">
         <v>85</v>
@@ -34527,10 +34971,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B399" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="E399" t="s">
         <v>85</v>
@@ -34538,13 +34982,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B400" t="s">
-        <v>97</v>
-      </c>
-      <c r="C400" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E400" t="s">
         <v>85</v>
@@ -34552,13 +34993,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B401" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C401" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E401" t="s">
         <v>85</v>
@@ -34566,13 +35007,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B402" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C402" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E402" t="s">
         <v>85</v>
@@ -34580,13 +35021,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B403" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C403" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E403" t="s">
         <v>85</v>
@@ -34594,13 +35035,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B404" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C404" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E404" t="s">
         <v>85</v>
@@ -34608,13 +35049,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B405" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C405" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E405" t="s">
         <v>85</v>
@@ -34622,10 +35063,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B406" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C406" t="s">
+        <v>89</v>
       </c>
       <c r="E406" t="s">
         <v>85</v>
@@ -34633,10 +35077,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B407" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="E407" t="s">
         <v>85</v>
@@ -34644,13 +35088,10 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B408" t="s">
-        <v>89</v>
-      </c>
-      <c r="C408" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="E408" t="s">
         <v>85</v>
@@ -34658,13 +35099,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B409" t="s">
         <v>89</v>
       </c>
       <c r="C409" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E409" t="s">
         <v>85</v>
@@ -34672,10 +35113,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B410" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C410" t="s">
+        <v>92</v>
       </c>
       <c r="E410" t="s">
         <v>85</v>
@@ -34683,10 +35127,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B411" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E411" t="s">
         <v>85</v>
@@ -34694,10 +35138,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B412" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E412" t="s">
         <v>85</v>
@@ -34705,10 +35149,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B413" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="E413" t="s">
         <v>85</v>
@@ -34716,13 +35160,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B414" t="s">
-        <v>129</v>
-      </c>
-      <c r="C414" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E414" t="s">
         <v>85</v>
@@ -34730,13 +35171,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B415" t="s">
         <v>129</v>
       </c>
       <c r="C415" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E415" t="s">
         <v>85</v>
@@ -34744,10 +35185,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B416" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C416" t="s">
         <v>116</v>
@@ -34758,10 +35199,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B417" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C417" t="s">
         <v>116</v>
@@ -34772,10 +35213,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B418" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C418" t="s">
+        <v>116</v>
       </c>
       <c r="E418" t="s">
         <v>85</v>
@@ -34783,13 +35227,10 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B419" t="s">
-        <v>117</v>
-      </c>
-      <c r="C419" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E419" t="s">
         <v>85</v>
@@ -34797,10 +35238,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B420" t="s">
-        <v>83</v>
+        <v>117</v>
+      </c>
+      <c r="C420" t="s">
+        <v>116</v>
       </c>
       <c r="E420" t="s">
         <v>85</v>
@@ -34808,27 +35252,24 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B421" t="s">
         <v>83</v>
       </c>
-      <c r="C421" t="s">
-        <v>108</v>
-      </c>
       <c r="E421" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B422" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C422" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E422" t="s">
         <v>85</v>
@@ -34836,10 +35277,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B423" t="s">
-        <v>173</v>
+        <v>100</v>
+      </c>
+      <c r="C423" t="s">
+        <v>129</v>
       </c>
       <c r="E423" t="s">
         <v>85</v>
@@ -34847,13 +35291,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B424" t="s">
-        <v>87</v>
-      </c>
-      <c r="C424" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E424" t="s">
         <v>85</v>
@@ -34861,13 +35302,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B425" t="s">
         <v>87</v>
       </c>
       <c r="C425" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E425" t="s">
         <v>85</v>
@@ -34875,10 +35316,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B426" t="s">
         <v>87</v>
+      </c>
+      <c r="C426" t="s">
+        <v>117</v>
       </c>
       <c r="E426" t="s">
         <v>85</v>
@@ -34886,13 +35330,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B427" t="s">
-        <v>129</v>
-      </c>
-      <c r="C427" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E427" t="s">
         <v>85</v>
@@ -34900,10 +35341,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B428" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="C428" t="s">
+        <v>127</v>
       </c>
       <c r="E428" t="s">
         <v>85</v>
@@ -34911,10 +35355,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B429" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E429" t="s">
         <v>85</v>
@@ -34922,13 +35366,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B430" t="s">
-        <v>119</v>
-      </c>
-      <c r="C430" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E430" t="s">
         <v>85</v>
@@ -34936,13 +35377,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B431" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C431" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E431" t="s">
         <v>85</v>
@@ -34950,13 +35391,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B432" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C432" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E432" t="s">
         <v>85</v>
@@ -34964,13 +35405,13 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B433" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C433" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E433" t="s">
         <v>85</v>
@@ -34978,13 +35419,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B434" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C434" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E434" t="s">
         <v>85</v>
@@ -34992,10 +35433,13 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B435" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="C435" t="s">
+        <v>116</v>
       </c>
       <c r="E435" t="s">
         <v>85</v>
@@ -35003,10 +35447,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B436" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E436" t="s">
         <v>85</v>
@@ -35014,75 +35458,72 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B437" t="s">
-        <v>83</v>
-      </c>
-      <c r="C437" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E437" t="s">
         <v>85</v>
-      </c>
-      <c r="F437" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B438" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="C438" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E438" t="s">
         <v>85</v>
+      </c>
+      <c r="F438" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B439" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C439" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E439" t="s">
         <v>85</v>
-      </c>
-      <c r="G439" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B440" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C440" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E440" t="s">
         <v>85</v>
+      </c>
+      <c r="G440" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B441" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C441" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E441" t="s">
         <v>85</v>
@@ -35090,13 +35531,13 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B442" t="s">
+        <v>97</v>
+      </c>
+      <c r="C442" t="s">
         <v>83</v>
-      </c>
-      <c r="C442" t="s">
-        <v>116</v>
       </c>
       <c r="E442" t="s">
         <v>85</v>
@@ -35104,66 +35545,66 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B443" t="s">
         <v>83</v>
       </c>
+      <c r="C443" t="s">
+        <v>116</v>
+      </c>
       <c r="E443" t="s">
         <v>85</v>
-      </c>
-      <c r="G443" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B444" t="s">
-        <v>117</v>
-      </c>
-      <c r="C444" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E444" t="s">
         <v>85</v>
+      </c>
+      <c r="G444" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B445" t="s">
         <v>117</v>
       </c>
+      <c r="C445" t="s">
+        <v>100</v>
+      </c>
       <c r="E445" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B446" t="s">
         <v>117</v>
       </c>
-      <c r="C446" t="s">
-        <v>97</v>
-      </c>
       <c r="E446" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B447" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C447" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E447" t="s">
         <v>85</v>
@@ -35171,13 +35612,13 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B448" t="s">
         <v>95</v>
       </c>
       <c r="C448" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E448" t="s">
         <v>85</v>
@@ -35185,10 +35626,13 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B449" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="C449" t="s">
+        <v>100</v>
       </c>
       <c r="E449" t="s">
         <v>85</v>
@@ -35196,13 +35640,10 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B450" t="s">
-        <v>173</v>
-      </c>
-      <c r="C450" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E450" t="s">
         <v>85</v>
@@ -35210,10 +35651,13 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B451" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="C451" t="s">
+        <v>116</v>
       </c>
       <c r="E451" t="s">
         <v>85</v>
@@ -35221,7 +35665,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B452" t="s">
         <v>110</v>
@@ -35232,72 +35676,69 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B453" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E453" t="s">
         <v>85</v>
-      </c>
-      <c r="I453" t="s">
-        <v>222</v>
-      </c>
-      <c r="J453" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B454" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E454" t="s">
         <v>85</v>
       </c>
-      <c r="G454" t="s">
-        <v>148</v>
+      <c r="I454" t="s">
+        <v>222</v>
+      </c>
+      <c r="J454" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B455" t="s">
         <v>129</v>
       </c>
-      <c r="C455" t="s">
-        <v>110</v>
-      </c>
       <c r="E455" t="s">
         <v>85</v>
       </c>
-      <c r="F455" t="s">
+      <c r="G455" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B456" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C456" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E456" t="s">
         <v>85</v>
+      </c>
+      <c r="F456" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B457" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C457" t="s">
         <v>127</v>
@@ -35308,13 +35749,13 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B458" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C458" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E458" t="s">
         <v>85</v>
@@ -35322,13 +35763,13 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B459" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C459" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E459" t="s">
         <v>85</v>
@@ -35336,13 +35777,13 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B460" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C460" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E460" t="s">
         <v>85</v>
@@ -35350,13 +35791,13 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B461" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C461" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E461" t="s">
         <v>85</v>
@@ -35364,13 +35805,13 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B462" t="s">
         <v>83</v>
       </c>
       <c r="C462" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E462" t="s">
         <v>85</v>
@@ -35378,13 +35819,13 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B463" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C463" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E463" t="s">
         <v>85</v>
@@ -35392,24 +35833,24 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B464" t="s">
         <v>106</v>
       </c>
+      <c r="C464" t="s">
+        <v>116</v>
+      </c>
       <c r="E464" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B465" t="s">
-        <v>117</v>
-      </c>
-      <c r="C465" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E465" t="s">
         <v>85</v>
@@ -35417,9 +35858,12 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B466" t="s">
+        <v>117</v>
+      </c>
+      <c r="C466" t="s">
         <v>129</v>
       </c>
       <c r="E466" t="s">
@@ -35428,12 +35872,9 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B467" t="s">
-        <v>84</v>
-      </c>
-      <c r="C467" t="s">
         <v>129</v>
       </c>
       <c r="E467" t="s">
@@ -35442,10 +35883,13 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B468" t="s">
-        <v>173</v>
+        <v>84</v>
+      </c>
+      <c r="C468" t="s">
+        <v>129</v>
       </c>
       <c r="E468" t="s">
         <v>85</v>
@@ -35453,38 +35897,35 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B469" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E469" t="s">
         <v>85</v>
-      </c>
-      <c r="G469" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B470" t="s">
         <v>127</v>
       </c>
-      <c r="C470" t="s">
-        <v>108</v>
-      </c>
       <c r="E470" t="s">
         <v>85</v>
+      </c>
+      <c r="G470" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B471" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C471" t="s">
         <v>108</v>
@@ -35495,13 +35936,13 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B472" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C472" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E472" t="s">
         <v>85</v>
@@ -35509,13 +35950,13 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B473" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C473" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E473" t="s">
         <v>85</v>
@@ -35523,10 +35964,13 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B474" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="C474" t="s">
+        <v>108</v>
       </c>
       <c r="E474" t="s">
         <v>85</v>
@@ -35534,10 +35978,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B475" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E475" t="s">
         <v>85</v>
@@ -35545,13 +35989,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B476" t="s">
-        <v>102</v>
-      </c>
-      <c r="C476" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E476" t="s">
         <v>85</v>
@@ -35559,10 +36000,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B477" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C477" t="s">
         <v>83</v>
@@ -35573,13 +36014,13 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B478" t="s">
         <v>106</v>
       </c>
       <c r="C478" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E478" t="s">
         <v>85</v>
@@ -35587,13 +36028,13 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B479" t="s">
         <v>106</v>
       </c>
       <c r="C479" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E479" t="s">
         <v>85</v>
@@ -35601,10 +36042,13 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B480" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="C480" t="s">
+        <v>92</v>
       </c>
       <c r="E480" t="s">
         <v>85</v>
@@ -35612,41 +36056,38 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B481" t="s">
-        <v>173</v>
-      </c>
-      <c r="C481" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E481" t="s">
         <v>85</v>
-      </c>
-      <c r="G481" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B482" t="s">
+        <v>173</v>
+      </c>
+      <c r="C482" t="s">
         <v>110</v>
       </c>
-      <c r="C482" t="s">
-        <v>116</v>
-      </c>
       <c r="E482" t="s">
         <v>85</v>
+      </c>
+      <c r="G482" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B483" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C483" t="s">
         <v>116</v>
@@ -35657,10 +36098,13 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B484" t="s">
-        <v>173</v>
+        <v>106</v>
+      </c>
+      <c r="C484" t="s">
+        <v>116</v>
       </c>
       <c r="E484" t="s">
         <v>85</v>
@@ -35668,13 +36112,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B485" t="s">
-        <v>102</v>
-      </c>
-      <c r="C485" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="E485" t="s">
         <v>85</v>
@@ -35682,10 +36123,13 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B486" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="C486" t="s">
+        <v>83</v>
       </c>
       <c r="E486" t="s">
         <v>85</v>
@@ -35693,7 +36137,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B487" t="s">
         <v>119</v>
@@ -35704,10 +36148,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B488" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E488" t="s">
         <v>85</v>
@@ -35715,18 +36159,29 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
+        <v>737</v>
+      </c>
+      <c r="B489" t="s">
+        <v>102</v>
+      </c>
+      <c r="E489" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
         <v>738</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B490" t="s">
         <v>100</v>
       </c>
-      <c r="C489" t="s">
-        <v>89</v>
-      </c>
-      <c r="E489" t="s">
-        <v>85</v>
-      </c>
-      <c r="G489" t="s">
+      <c r="C490" t="s">
+        <v>89</v>
+      </c>
+      <c r="E490" t="s">
+        <v>85</v>
+      </c>
+      <c r="G490" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5D96E-C0DC-42B0-966A-DB166E07E605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940173F5-6C1C-4E3D-A8C5-30E429317033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="110" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10811" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10932" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -2402,6 +2402,12 @@
   </si>
   <si>
     <t>Pelipper</t>
+  </si>
+  <si>
+    <t>Vital Throw</t>
+  </si>
+  <si>
+    <t>Storm Throw</t>
   </si>
 </sst>
 </file>
@@ -2766,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I304" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I321" sqref="I321"/>
+    <sheetView tabSelected="1" topLeftCell="K311" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K326" sqref="K326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33967,7 +33973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>569</v>
       </c>
@@ -33980,8 +33986,32 @@
       <c r="E321" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I321" t="s">
+        <v>219</v>
+      </c>
+      <c r="J321" t="s">
+        <v>117</v>
+      </c>
+      <c r="K321" t="s">
+        <v>170</v>
+      </c>
+      <c r="L321" t="s">
+        <v>92</v>
+      </c>
+      <c r="M321" t="s">
+        <v>179</v>
+      </c>
+      <c r="N321" t="s">
+        <v>106</v>
+      </c>
+      <c r="O321" t="s">
+        <v>131</v>
+      </c>
+      <c r="P321" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="322" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>570</v>
       </c>
@@ -33991,8 +34021,98 @@
       <c r="E322" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I322" t="s">
+        <v>121</v>
+      </c>
+      <c r="J322" t="s">
+        <v>122</v>
+      </c>
+      <c r="K322" t="s">
+        <v>133</v>
+      </c>
+      <c r="L322" t="s">
+        <v>87</v>
+      </c>
+      <c r="M322" t="s">
+        <v>101</v>
+      </c>
+      <c r="N322" t="s">
+        <v>102</v>
+      </c>
+      <c r="O322" t="s">
+        <v>185</v>
+      </c>
+      <c r="P322" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>91</v>
+      </c>
+      <c r="R322" t="s">
+        <v>92</v>
+      </c>
+      <c r="S322" t="s">
+        <v>159</v>
+      </c>
+      <c r="T322" t="s">
+        <v>87</v>
+      </c>
+      <c r="U322" t="s">
+        <v>107</v>
+      </c>
+      <c r="V322" t="s">
+        <v>108</v>
+      </c>
+      <c r="W322" t="s">
+        <v>157</v>
+      </c>
+      <c r="X322" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG322" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH322" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI322" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ322" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK322" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL322" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>571</v>
       </c>
@@ -34002,19 +34122,220 @@
       <c r="E323" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I323" t="s">
+        <v>133</v>
+      </c>
+      <c r="J323" t="s">
+        <v>87</v>
+      </c>
+      <c r="K323" t="s">
+        <v>225</v>
+      </c>
+      <c r="L323" t="s">
+        <v>129</v>
+      </c>
+      <c r="M323" t="s">
+        <v>157</v>
+      </c>
+      <c r="N323" t="s">
+        <v>129</v>
+      </c>
+      <c r="O323" t="s">
+        <v>270</v>
+      </c>
+      <c r="P323" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>232</v>
+      </c>
+      <c r="R323" t="s">
+        <v>129</v>
+      </c>
+      <c r="S323" t="s">
+        <v>203</v>
+      </c>
+      <c r="T323" t="s">
+        <v>127</v>
+      </c>
+      <c r="U323" t="s">
+        <v>305</v>
+      </c>
+      <c r="V323" t="s">
+        <v>129</v>
+      </c>
+      <c r="W323" t="s">
+        <v>186</v>
+      </c>
+      <c r="X323" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF323" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG323" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH323" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI323" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ323" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK323" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL323" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>572</v>
       </c>
       <c r="B324" t="s">
         <v>106</v>
       </c>
+      <c r="D324" t="s">
+        <v>116</v>
+      </c>
       <c r="E324" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I324" t="s">
+        <v>133</v>
+      </c>
+      <c r="J324" t="s">
+        <v>87</v>
+      </c>
+      <c r="K324" t="s">
+        <v>101</v>
+      </c>
+      <c r="L324" t="s">
+        <v>102</v>
+      </c>
+      <c r="M324" t="s">
+        <v>104</v>
+      </c>
+      <c r="N324" t="s">
+        <v>87</v>
+      </c>
+      <c r="O324" t="s">
+        <v>124</v>
+      </c>
+      <c r="P324" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>99</v>
+      </c>
+      <c r="R324" t="s">
+        <v>100</v>
+      </c>
+      <c r="S324" t="s">
+        <v>88</v>
+      </c>
+      <c r="T324" t="s">
+        <v>89</v>
+      </c>
+      <c r="U324" t="s">
+        <v>112</v>
+      </c>
+      <c r="V324" t="s">
+        <v>95</v>
+      </c>
+      <c r="W324" t="s">
+        <v>186</v>
+      </c>
+      <c r="X324" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF324" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG324" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI324" t="s">
+        <v>794</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK324" t="s">
+        <v>795</v>
+      </c>
+      <c r="AL324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM324" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN324" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO324" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ324" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR324" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="325" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>573</v>
       </c>
@@ -34024,8 +34345,56 @@
       <c r="E325" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I325" t="s">
+        <v>121</v>
+      </c>
+      <c r="J325" t="s">
+        <v>122</v>
+      </c>
+      <c r="K325" t="s">
+        <v>101</v>
+      </c>
+      <c r="L325" t="s">
+        <v>102</v>
+      </c>
+      <c r="M325" t="s">
+        <v>185</v>
+      </c>
+      <c r="N325" t="s">
+        <v>83</v>
+      </c>
+      <c r="O325" t="s">
+        <v>91</v>
+      </c>
+      <c r="P325" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>159</v>
+      </c>
+      <c r="R325" t="s">
+        <v>87</v>
+      </c>
+      <c r="S325" t="s">
+        <v>107</v>
+      </c>
+      <c r="T325" t="s">
+        <v>108</v>
+      </c>
+      <c r="U325" t="s">
+        <v>168</v>
+      </c>
+      <c r="V325" t="s">
+        <v>108</v>
+      </c>
+      <c r="W325" t="s">
+        <v>194</v>
+      </c>
+      <c r="X325" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>574</v>
       </c>
@@ -34036,7 +34405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>575</v>
       </c>
@@ -34050,7 +34419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>576</v>
       </c>
@@ -34061,7 +34430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>577</v>
       </c>
@@ -34075,7 +34444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>578</v>
       </c>
@@ -34089,7 +34458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>579</v>
       </c>
@@ -34100,7 +34469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>580</v>
       </c>
@@ -34114,7 +34483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>581</v>
       </c>
@@ -34125,7 +34494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>582</v>
       </c>
@@ -34139,7 +34508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>583</v>
       </c>
@@ -34153,7 +34522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>584</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940173F5-6C1C-4E3D-A8C5-30E429317033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68EA7E3-FC41-4582-B354-ACB5C7DA340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9910" yWindow="360" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10932" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11071" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -2426,6 +2426,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2772,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K311" zoomScale="99" workbookViewId="0">
-      <selection activeCell="K326" sqref="K326"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34404,6 +34405,114 @@
       <c r="E326" t="s">
         <v>85</v>
       </c>
+      <c r="I326" t="s">
+        <v>121</v>
+      </c>
+      <c r="J326" t="s">
+        <v>122</v>
+      </c>
+      <c r="K326" t="s">
+        <v>101</v>
+      </c>
+      <c r="L326" t="s">
+        <v>102</v>
+      </c>
+      <c r="M326" t="s">
+        <v>124</v>
+      </c>
+      <c r="N326" t="s">
+        <v>87</v>
+      </c>
+      <c r="O326" t="s">
+        <v>93</v>
+      </c>
+      <c r="P326" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>88</v>
+      </c>
+      <c r="R326" t="s">
+        <v>89</v>
+      </c>
+      <c r="S326" t="s">
+        <v>159</v>
+      </c>
+      <c r="T326" t="s">
+        <v>87</v>
+      </c>
+      <c r="U326" t="s">
+        <v>90</v>
+      </c>
+      <c r="V326" t="s">
+        <v>89</v>
+      </c>
+      <c r="W326" t="s">
+        <v>156</v>
+      </c>
+      <c r="X326" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF326" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG326" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI326" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ326" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK326" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL326" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM326" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN326" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO326" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP326" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ326" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR326" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
@@ -34418,6 +34527,114 @@
       <c r="E327" t="s">
         <v>85</v>
       </c>
+      <c r="I327" t="s">
+        <v>121</v>
+      </c>
+      <c r="J327" t="s">
+        <v>122</v>
+      </c>
+      <c r="K327" t="s">
+        <v>101</v>
+      </c>
+      <c r="L327" t="s">
+        <v>102</v>
+      </c>
+      <c r="M327" t="s">
+        <v>88</v>
+      </c>
+      <c r="N327" t="s">
+        <v>89</v>
+      </c>
+      <c r="O327" t="s">
+        <v>90</v>
+      </c>
+      <c r="P327" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>156</v>
+      </c>
+      <c r="R327" t="s">
+        <v>84</v>
+      </c>
+      <c r="S327" t="s">
+        <v>110</v>
+      </c>
+      <c r="T327" t="s">
+        <v>110</v>
+      </c>
+      <c r="U327" t="s">
+        <v>273</v>
+      </c>
+      <c r="V327" t="s">
+        <v>102</v>
+      </c>
+      <c r="W327" t="s">
+        <v>203</v>
+      </c>
+      <c r="X327" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE327" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF327" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG327" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI327" t="s">
+        <v>770</v>
+      </c>
+      <c r="AJ327" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK327" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL327" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM327" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN327" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO327" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP327" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ327" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR327" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
@@ -34429,6 +34646,60 @@
       <c r="E328" t="s">
         <v>85</v>
       </c>
+      <c r="I328" t="s">
+        <v>175</v>
+      </c>
+      <c r="J328" t="s">
+        <v>102</v>
+      </c>
+      <c r="K328" t="s">
+        <v>110</v>
+      </c>
+      <c r="L328" t="s">
+        <v>110</v>
+      </c>
+      <c r="M328" t="s">
+        <v>154</v>
+      </c>
+      <c r="N328" t="s">
+        <v>102</v>
+      </c>
+      <c r="O328" t="s">
+        <v>164</v>
+      </c>
+      <c r="P328" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>162</v>
+      </c>
+      <c r="R328" t="s">
+        <v>83</v>
+      </c>
+      <c r="S328" t="s">
+        <v>200</v>
+      </c>
+      <c r="T328" t="s">
+        <v>102</v>
+      </c>
+      <c r="U328" t="s">
+        <v>229</v>
+      </c>
+      <c r="V328" t="s">
+        <v>110</v>
+      </c>
+      <c r="W328" t="s">
+        <v>146</v>
+      </c>
+      <c r="X328" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
@@ -34443,6 +34714,66 @@
       <c r="E329" t="s">
         <v>85</v>
       </c>
+      <c r="I329" t="s">
+        <v>91</v>
+      </c>
+      <c r="J329" t="s">
+        <v>92</v>
+      </c>
+      <c r="K329" t="s">
+        <v>125</v>
+      </c>
+      <c r="L329" t="s">
+        <v>83</v>
+      </c>
+      <c r="M329" t="s">
+        <v>156</v>
+      </c>
+      <c r="N329" t="s">
+        <v>84</v>
+      </c>
+      <c r="O329" t="s">
+        <v>110</v>
+      </c>
+      <c r="P329" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>249</v>
+      </c>
+      <c r="R329" t="s">
+        <v>84</v>
+      </c>
+      <c r="S329" t="s">
+        <v>96</v>
+      </c>
+      <c r="T329" t="s">
+        <v>97</v>
+      </c>
+      <c r="U329" t="s">
+        <v>759</v>
+      </c>
+      <c r="V329" t="s">
+        <v>110</v>
+      </c>
+      <c r="W329" t="s">
+        <v>174</v>
+      </c>
+      <c r="X329" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
@@ -34456,6 +34787,93 @@
       </c>
       <c r="E330" t="s">
         <v>85</v>
+      </c>
+      <c r="F330" t="s">
+        <v>148</v>
+      </c>
+      <c r="I330" t="s">
+        <v>190</v>
+      </c>
+      <c r="J330" t="s">
+        <v>119</v>
+      </c>
+      <c r="K330" t="s">
+        <v>88</v>
+      </c>
+      <c r="L330" t="s">
+        <v>89</v>
+      </c>
+      <c r="M330" t="s">
+        <v>335</v>
+      </c>
+      <c r="N330" t="s">
+        <v>119</v>
+      </c>
+      <c r="O330" t="s">
+        <v>159</v>
+      </c>
+      <c r="P330" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>90</v>
+      </c>
+      <c r="R330" t="s">
+        <v>89</v>
+      </c>
+      <c r="S330" t="s">
+        <v>118</v>
+      </c>
+      <c r="T330" t="s">
+        <v>119</v>
+      </c>
+      <c r="U330" t="s">
+        <v>98</v>
+      </c>
+      <c r="V330" t="s">
+        <v>87</v>
+      </c>
+      <c r="W330" t="s">
+        <v>171</v>
+      </c>
+      <c r="X330" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE330" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG330" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI330" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ330" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68EA7E3-FC41-4582-B354-ACB5C7DA340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40214E63-CED2-431D-82E3-A89A45DF5C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9910" yWindow="360" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11071" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11185" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -2774,7 +2774,7 @@
   <dimension ref="A1:CD490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A328" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+      <selection activeCell="I336" sqref="I336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34886,6 +34886,96 @@
       <c r="E331" t="s">
         <v>85</v>
       </c>
+      <c r="I331" t="s">
+        <v>91</v>
+      </c>
+      <c r="J331" t="s">
+        <v>92</v>
+      </c>
+      <c r="K331" t="s">
+        <v>175</v>
+      </c>
+      <c r="L331" t="s">
+        <v>102</v>
+      </c>
+      <c r="M331" t="s">
+        <v>107</v>
+      </c>
+      <c r="N331" t="s">
+        <v>108</v>
+      </c>
+      <c r="O331" t="s">
+        <v>118</v>
+      </c>
+      <c r="P331" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>96</v>
+      </c>
+      <c r="R331" t="s">
+        <v>97</v>
+      </c>
+      <c r="S331" t="s">
+        <v>186</v>
+      </c>
+      <c r="T331" t="s">
+        <v>102</v>
+      </c>
+      <c r="U331" t="s">
+        <v>160</v>
+      </c>
+      <c r="V331" t="s">
+        <v>89</v>
+      </c>
+      <c r="W331" t="s">
+        <v>196</v>
+      </c>
+      <c r="X331" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE331" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF331" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG331" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI331" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ331" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK331" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL331" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
@@ -34900,6 +34990,78 @@
       <c r="E332" t="s">
         <v>85</v>
       </c>
+      <c r="I332" t="s">
+        <v>166</v>
+      </c>
+      <c r="J332" t="s">
+        <v>83</v>
+      </c>
+      <c r="K332" t="s">
+        <v>91</v>
+      </c>
+      <c r="L332" t="s">
+        <v>92</v>
+      </c>
+      <c r="M332" t="s">
+        <v>214</v>
+      </c>
+      <c r="N332" t="s">
+        <v>119</v>
+      </c>
+      <c r="O332" t="s">
+        <v>142</v>
+      </c>
+      <c r="P332" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>115</v>
+      </c>
+      <c r="R332" t="s">
+        <v>116</v>
+      </c>
+      <c r="S332" t="s">
+        <v>137</v>
+      </c>
+      <c r="T332" t="s">
+        <v>102</v>
+      </c>
+      <c r="U332" t="s">
+        <v>154</v>
+      </c>
+      <c r="V332" t="s">
+        <v>102</v>
+      </c>
+      <c r="W332" t="s">
+        <v>160</v>
+      </c>
+      <c r="X332" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD332" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE332" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF332" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
@@ -34911,6 +35073,18 @@
       <c r="E333" t="s">
         <v>85</v>
       </c>
+      <c r="I333" t="s">
+        <v>121</v>
+      </c>
+      <c r="J333" t="s">
+        <v>122</v>
+      </c>
+      <c r="K333" t="s">
+        <v>204</v>
+      </c>
+      <c r="L333" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
@@ -34925,6 +35099,102 @@
       <c r="E334" t="s">
         <v>85</v>
       </c>
+      <c r="I334" t="s">
+        <v>121</v>
+      </c>
+      <c r="J334" t="s">
+        <v>122</v>
+      </c>
+      <c r="K334" t="s">
+        <v>101</v>
+      </c>
+      <c r="L334" t="s">
+        <v>102</v>
+      </c>
+      <c r="M334" t="s">
+        <v>124</v>
+      </c>
+      <c r="N334" t="s">
+        <v>87</v>
+      </c>
+      <c r="O334" t="s">
+        <v>91</v>
+      </c>
+      <c r="P334" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>112</v>
+      </c>
+      <c r="R334" t="s">
+        <v>95</v>
+      </c>
+      <c r="S334" t="s">
+        <v>159</v>
+      </c>
+      <c r="T334" t="s">
+        <v>87</v>
+      </c>
+      <c r="U334" t="s">
+        <v>254</v>
+      </c>
+      <c r="V334" t="s">
+        <v>127</v>
+      </c>
+      <c r="W334" t="s">
+        <v>156</v>
+      </c>
+      <c r="X334" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF334" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG334" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH334" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI334" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ334" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK334" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL334" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM334" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN334" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
@@ -34938,6 +35208,78 @@
       </c>
       <c r="E335" t="s">
         <v>85</v>
+      </c>
+      <c r="I335" t="s">
+        <v>133</v>
+      </c>
+      <c r="J335" t="s">
+        <v>87</v>
+      </c>
+      <c r="K335" t="s">
+        <v>199</v>
+      </c>
+      <c r="L335" t="s">
+        <v>92</v>
+      </c>
+      <c r="M335" t="s">
+        <v>156</v>
+      </c>
+      <c r="N335" t="s">
+        <v>84</v>
+      </c>
+      <c r="O335" t="s">
+        <v>137</v>
+      </c>
+      <c r="P335" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>96</v>
+      </c>
+      <c r="R335" t="s">
+        <v>97</v>
+      </c>
+      <c r="S335" t="s">
+        <v>186</v>
+      </c>
+      <c r="T335" t="s">
+        <v>102</v>
+      </c>
+      <c r="U335" t="s">
+        <v>194</v>
+      </c>
+      <c r="V335" t="s">
+        <v>106</v>
+      </c>
+      <c r="W335" t="s">
+        <v>289</v>
+      </c>
+      <c r="X335" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF335" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40214E63-CED2-431D-82E3-A89A45DF5C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03682625-F88B-4EB4-8D67-56D8EB6AD690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11185" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11207" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I336" sqref="I336"/>
+    <sheetView tabSelected="1" topLeftCell="W328" zoomScale="99" workbookViewId="0">
+      <selection activeCell="W337" sqref="W337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35295,6 +35295,72 @@
       <c r="E336" t="s">
         <v>85</v>
       </c>
+      <c r="I336" t="s">
+        <v>101</v>
+      </c>
+      <c r="J336" t="s">
+        <v>102</v>
+      </c>
+      <c r="K336" t="s">
+        <v>176</v>
+      </c>
+      <c r="L336" t="s">
+        <v>127</v>
+      </c>
+      <c r="M336" t="s">
+        <v>790</v>
+      </c>
+      <c r="N336" t="s">
+        <v>97</v>
+      </c>
+      <c r="O336" t="s">
+        <v>90</v>
+      </c>
+      <c r="P336" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>125</v>
+      </c>
+      <c r="R336" t="s">
+        <v>83</v>
+      </c>
+      <c r="S336" t="s">
+        <v>126</v>
+      </c>
+      <c r="T336" t="s">
+        <v>127</v>
+      </c>
+      <c r="U336" t="s">
+        <v>171</v>
+      </c>
+      <c r="V336" t="s">
+        <v>108</v>
+      </c>
+      <c r="W336" t="s">
+        <v>193</v>
+      </c>
+      <c r="X336" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03682625-F88B-4EB4-8D67-56D8EB6AD690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56B948-4B10-417E-9FE6-7AB71ADB2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="20" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11207" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="796">
   <si>
     <t>Name</t>
   </si>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W328" zoomScale="99" workbookViewId="0">
-      <selection activeCell="W337" sqref="W337"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I341" sqref="I341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35362,7 +35362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>585</v>
       </c>
@@ -35372,8 +35372,98 @@
       <c r="E337" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I337" t="s">
+        <v>121</v>
+      </c>
+      <c r="J337" t="s">
+        <v>122</v>
+      </c>
+      <c r="K337" t="s">
+        <v>133</v>
+      </c>
+      <c r="L337" t="s">
+        <v>87</v>
+      </c>
+      <c r="M337" t="s">
+        <v>101</v>
+      </c>
+      <c r="N337" t="s">
+        <v>102</v>
+      </c>
+      <c r="O337" t="s">
+        <v>124</v>
+      </c>
+      <c r="P337" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>185</v>
+      </c>
+      <c r="R337" t="s">
+        <v>83</v>
+      </c>
+      <c r="S337" t="s">
+        <v>91</v>
+      </c>
+      <c r="T337" t="s">
+        <v>92</v>
+      </c>
+      <c r="U337" t="s">
+        <v>159</v>
+      </c>
+      <c r="V337" t="s">
+        <v>87</v>
+      </c>
+      <c r="W337" t="s">
+        <v>107</v>
+      </c>
+      <c r="X337" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF337" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG337" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH337" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI337" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ337" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK337" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL337" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>586</v>
       </c>
@@ -35386,8 +35476,104 @@
       <c r="E338" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I338" t="s">
+        <v>121</v>
+      </c>
+      <c r="J338" t="s">
+        <v>122</v>
+      </c>
+      <c r="K338" t="s">
+        <v>133</v>
+      </c>
+      <c r="L338" t="s">
+        <v>87</v>
+      </c>
+      <c r="M338" t="s">
+        <v>101</v>
+      </c>
+      <c r="N338" t="s">
+        <v>102</v>
+      </c>
+      <c r="O338" t="s">
+        <v>124</v>
+      </c>
+      <c r="P338" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>185</v>
+      </c>
+      <c r="R338" t="s">
+        <v>83</v>
+      </c>
+      <c r="S338" t="s">
+        <v>91</v>
+      </c>
+      <c r="T338" t="s">
+        <v>92</v>
+      </c>
+      <c r="U338" t="s">
+        <v>159</v>
+      </c>
+      <c r="V338" t="s">
+        <v>87</v>
+      </c>
+      <c r="W338" t="s">
+        <v>107</v>
+      </c>
+      <c r="X338" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG338" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI338" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ338" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK338" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL338" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM338" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN338" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>587</v>
       </c>
@@ -35397,8 +35583,74 @@
       <c r="E339" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I339" t="s">
+        <v>91</v>
+      </c>
+      <c r="J339" t="s">
+        <v>92</v>
+      </c>
+      <c r="K339" t="s">
+        <v>235</v>
+      </c>
+      <c r="L339" t="s">
+        <v>87</v>
+      </c>
+      <c r="M339" t="s">
+        <v>137</v>
+      </c>
+      <c r="N339" t="s">
+        <v>102</v>
+      </c>
+      <c r="O339" t="s">
+        <v>239</v>
+      </c>
+      <c r="P339" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>141</v>
+      </c>
+      <c r="R339" t="s">
+        <v>92</v>
+      </c>
+      <c r="S339" t="s">
+        <v>305</v>
+      </c>
+      <c r="T339" t="s">
+        <v>129</v>
+      </c>
+      <c r="U339" t="s">
+        <v>96</v>
+      </c>
+      <c r="V339" t="s">
+        <v>97</v>
+      </c>
+      <c r="W339" t="s">
+        <v>186</v>
+      </c>
+      <c r="X339" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>588</v>
       </c>
@@ -35408,8 +35660,188 @@
       <c r="E340" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I340" t="s">
+        <v>101</v>
+      </c>
+      <c r="J340" t="s">
+        <v>102</v>
+      </c>
+      <c r="K340" t="s">
+        <v>124</v>
+      </c>
+      <c r="L340" t="s">
+        <v>87</v>
+      </c>
+      <c r="M340" t="s">
+        <v>99</v>
+      </c>
+      <c r="N340" t="s">
+        <v>100</v>
+      </c>
+      <c r="O340" t="s">
+        <v>152</v>
+      </c>
+      <c r="P340" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>201</v>
+      </c>
+      <c r="R340" t="s">
+        <v>92</v>
+      </c>
+      <c r="S340" t="s">
+        <v>88</v>
+      </c>
+      <c r="T340" t="s">
+        <v>89</v>
+      </c>
+      <c r="U340" t="s">
+        <v>742</v>
+      </c>
+      <c r="V340" t="s">
+        <v>87</v>
+      </c>
+      <c r="W340" t="s">
+        <v>335</v>
+      </c>
+      <c r="X340" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG340" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI340" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ340" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK340" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL340" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM340" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN340" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO340" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP340" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ340" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR340" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS340" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT340" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU340" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV340" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW340" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX340" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY340" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ340" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA340" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB340" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC340" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD340" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE340" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF340" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG340" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH340" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI340" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ340" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK340" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL340" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM340" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN340" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO340" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP340" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>589</v>
       </c>
@@ -35420,7 +35852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>590</v>
       </c>
@@ -35434,7 +35866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>591</v>
       </c>
@@ -35445,7 +35877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>592</v>
       </c>
@@ -35459,7 +35891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>593</v>
       </c>
@@ -35470,7 +35902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>594</v>
       </c>
@@ -35481,7 +35913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>595</v>
       </c>
@@ -35495,7 +35927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>596</v>
       </c>
@@ -35506,7 +35938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>597</v>
       </c>
@@ -35520,7 +35952,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>598</v>
       </c>
@@ -35534,7 +35966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>599</v>
       </c>
@@ -35545,7 +35977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>600</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56B948-4B10-417E-9FE6-7AB71ADB2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606B509-01D3-4283-B745-B2869BFB38EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11505" uniqueCount="797">
   <si>
     <t>Name</t>
   </si>
@@ -2408,6 +2408,9 @@
   </si>
   <si>
     <t>Storm Throw</t>
+  </si>
+  <si>
+    <t>Poisn Jab</t>
   </si>
 </sst>
 </file>
@@ -2774,7 +2777,7 @@
   <dimension ref="A1:CD490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I341" sqref="I341"/>
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35851,6 +35854,90 @@
       <c r="E341" t="s">
         <v>85</v>
       </c>
+      <c r="I341" t="s">
+        <v>741</v>
+      </c>
+      <c r="J341" t="s">
+        <v>83</v>
+      </c>
+      <c r="K341" t="s">
+        <v>93</v>
+      </c>
+      <c r="L341" t="s">
+        <v>87</v>
+      </c>
+      <c r="M341" t="s">
+        <v>105</v>
+      </c>
+      <c r="N341" t="s">
+        <v>106</v>
+      </c>
+      <c r="O341" t="s">
+        <v>166</v>
+      </c>
+      <c r="P341" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>91</v>
+      </c>
+      <c r="R341" t="s">
+        <v>92</v>
+      </c>
+      <c r="S341" t="s">
+        <v>760</v>
+      </c>
+      <c r="T341" t="s">
+        <v>89</v>
+      </c>
+      <c r="U341" t="s">
+        <v>107</v>
+      </c>
+      <c r="V341" t="s">
+        <v>108</v>
+      </c>
+      <c r="W341" t="s">
+        <v>214</v>
+      </c>
+      <c r="X341" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>796</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG341" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI341" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ341" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="342" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
@@ -35865,6 +35952,66 @@
       <c r="E342" t="s">
         <v>85</v>
       </c>
+      <c r="I342" t="s">
+        <v>93</v>
+      </c>
+      <c r="J342" t="s">
+        <v>87</v>
+      </c>
+      <c r="K342" t="s">
+        <v>105</v>
+      </c>
+      <c r="L342" t="s">
+        <v>106</v>
+      </c>
+      <c r="M342" t="s">
+        <v>91</v>
+      </c>
+      <c r="N342" t="s">
+        <v>92</v>
+      </c>
+      <c r="O342" t="s">
+        <v>760</v>
+      </c>
+      <c r="P342" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>214</v>
+      </c>
+      <c r="R342" t="s">
+        <v>119</v>
+      </c>
+      <c r="S342" t="s">
+        <v>115</v>
+      </c>
+      <c r="T342" t="s">
+        <v>116</v>
+      </c>
+      <c r="U342" t="s">
+        <v>256</v>
+      </c>
+      <c r="V342" t="s">
+        <v>89</v>
+      </c>
+      <c r="W342" t="s">
+        <v>186</v>
+      </c>
+      <c r="X342" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="343" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
@@ -35876,6 +36023,114 @@
       <c r="E343" t="s">
         <v>85</v>
       </c>
+      <c r="I343" t="s">
+        <v>121</v>
+      </c>
+      <c r="J343" t="s">
+        <v>122</v>
+      </c>
+      <c r="K343" t="s">
+        <v>133</v>
+      </c>
+      <c r="L343" t="s">
+        <v>87</v>
+      </c>
+      <c r="M343" t="s">
+        <v>91</v>
+      </c>
+      <c r="N343" t="s">
+        <v>92</v>
+      </c>
+      <c r="O343" t="s">
+        <v>156</v>
+      </c>
+      <c r="P343" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>118</v>
+      </c>
+      <c r="R343" t="s">
+        <v>119</v>
+      </c>
+      <c r="S343" t="s">
+        <v>214</v>
+      </c>
+      <c r="T343" t="s">
+        <v>119</v>
+      </c>
+      <c r="U343" t="s">
+        <v>137</v>
+      </c>
+      <c r="V343" t="s">
+        <v>102</v>
+      </c>
+      <c r="W343" t="s">
+        <v>96</v>
+      </c>
+      <c r="X343" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG343" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH343" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI343" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ343" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK343" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL343" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM343" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN343" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO343" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP343" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ343" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR343" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="344" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
@@ -35890,6 +36145,102 @@
       <c r="E344" t="s">
         <v>85</v>
       </c>
+      <c r="I344" t="s">
+        <v>121</v>
+      </c>
+      <c r="J344" t="s">
+        <v>122</v>
+      </c>
+      <c r="K344" t="s">
+        <v>133</v>
+      </c>
+      <c r="L344" t="s">
+        <v>87</v>
+      </c>
+      <c r="M344" t="s">
+        <v>185</v>
+      </c>
+      <c r="N344" t="s">
+        <v>83</v>
+      </c>
+      <c r="O344" t="s">
+        <v>91</v>
+      </c>
+      <c r="P344" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>254</v>
+      </c>
+      <c r="R344" t="s">
+        <v>127</v>
+      </c>
+      <c r="S344" t="s">
+        <v>156</v>
+      </c>
+      <c r="T344" t="s">
+        <v>84</v>
+      </c>
+      <c r="U344" t="s">
+        <v>126</v>
+      </c>
+      <c r="V344" t="s">
+        <v>127</v>
+      </c>
+      <c r="W344" t="s">
+        <v>96</v>
+      </c>
+      <c r="X344" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF344" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG344" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH344" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI344" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ344" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK344" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL344" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM344" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN344" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="345" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
@@ -35900,6 +36251,120 @@
       </c>
       <c r="E345" t="s">
         <v>85</v>
+      </c>
+      <c r="I345" t="s">
+        <v>121</v>
+      </c>
+      <c r="J345" t="s">
+        <v>87</v>
+      </c>
+      <c r="K345" t="s">
+        <v>101</v>
+      </c>
+      <c r="L345" t="s">
+        <v>102</v>
+      </c>
+      <c r="M345" t="s">
+        <v>124</v>
+      </c>
+      <c r="N345" t="s">
+        <v>87</v>
+      </c>
+      <c r="O345" t="s">
+        <v>201</v>
+      </c>
+      <c r="P345" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>152</v>
+      </c>
+      <c r="R345" t="s">
+        <v>87</v>
+      </c>
+      <c r="S345" t="s">
+        <v>190</v>
+      </c>
+      <c r="T345" t="s">
+        <v>119</v>
+      </c>
+      <c r="U345" t="s">
+        <v>88</v>
+      </c>
+      <c r="V345" t="s">
+        <v>89</v>
+      </c>
+      <c r="W345" t="s">
+        <v>742</v>
+      </c>
+      <c r="X345" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF345" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG345" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH345" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI345" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ345" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK345" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL345" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM345" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN345" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO345" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP345" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ345" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR345" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS345" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT345" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="346" spans="1:68" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606B509-01D3-4283-B745-B2869BFB38EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFD6CB-5DF8-48C2-83BB-3EBD89A5C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11505" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11670" uniqueCount="797">
   <si>
     <t>Name</t>
   </si>
@@ -2776,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I351" sqref="I351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36377,6 +36377,54 @@
       <c r="E346" t="s">
         <v>85</v>
       </c>
+      <c r="I346" t="s">
+        <v>133</v>
+      </c>
+      <c r="J346" t="s">
+        <v>87</v>
+      </c>
+      <c r="K346" t="s">
+        <v>88</v>
+      </c>
+      <c r="L346" t="s">
+        <v>89</v>
+      </c>
+      <c r="M346" t="s">
+        <v>742</v>
+      </c>
+      <c r="N346" t="s">
+        <v>87</v>
+      </c>
+      <c r="O346" t="s">
+        <v>90</v>
+      </c>
+      <c r="P346" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>137</v>
+      </c>
+      <c r="R346" t="s">
+        <v>102</v>
+      </c>
+      <c r="S346" t="s">
+        <v>139</v>
+      </c>
+      <c r="T346" t="s">
+        <v>117</v>
+      </c>
+      <c r="U346" t="s">
+        <v>140</v>
+      </c>
+      <c r="V346" t="s">
+        <v>84</v>
+      </c>
+      <c r="W346" t="s">
+        <v>143</v>
+      </c>
+      <c r="X346" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="347" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
@@ -36391,6 +36439,162 @@
       <c r="F347" t="s">
         <v>148</v>
       </c>
+      <c r="I347" t="s">
+        <v>263</v>
+      </c>
+      <c r="J347" t="s">
+        <v>92</v>
+      </c>
+      <c r="K347" t="s">
+        <v>101</v>
+      </c>
+      <c r="L347" t="s">
+        <v>102</v>
+      </c>
+      <c r="M347" t="s">
+        <v>124</v>
+      </c>
+      <c r="N347" t="s">
+        <v>87</v>
+      </c>
+      <c r="O347" t="s">
+        <v>334</v>
+      </c>
+      <c r="P347" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>201</v>
+      </c>
+      <c r="R347" t="s">
+        <v>92</v>
+      </c>
+      <c r="S347" t="s">
+        <v>152</v>
+      </c>
+      <c r="T347" t="s">
+        <v>87</v>
+      </c>
+      <c r="U347" t="s">
+        <v>88</v>
+      </c>
+      <c r="V347" t="s">
+        <v>89</v>
+      </c>
+      <c r="W347" t="s">
+        <v>742</v>
+      </c>
+      <c r="X347" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF347" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG347" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH347" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI347" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ347" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK347" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL347" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM347" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN347" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO347" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP347" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ347" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR347" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS347" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT347" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU347" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV347" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW347" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX347" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY347" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ347" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA347" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB347" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC347" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD347" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE347" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF347" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG347" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH347" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="348" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
@@ -36402,6 +36606,138 @@
       <c r="E348" t="s">
         <v>85</v>
       </c>
+      <c r="I348" t="s">
+        <v>121</v>
+      </c>
+      <c r="J348" t="s">
+        <v>122</v>
+      </c>
+      <c r="K348" t="s">
+        <v>263</v>
+      </c>
+      <c r="L348" t="s">
+        <v>92</v>
+      </c>
+      <c r="M348" t="s">
+        <v>101</v>
+      </c>
+      <c r="N348" t="s">
+        <v>102</v>
+      </c>
+      <c r="O348" t="s">
+        <v>124</v>
+      </c>
+      <c r="P348" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>201</v>
+      </c>
+      <c r="R348" t="s">
+        <v>92</v>
+      </c>
+      <c r="S348" t="s">
+        <v>152</v>
+      </c>
+      <c r="T348" t="s">
+        <v>87</v>
+      </c>
+      <c r="U348" t="s">
+        <v>190</v>
+      </c>
+      <c r="V348" t="s">
+        <v>119</v>
+      </c>
+      <c r="W348" t="s">
+        <v>88</v>
+      </c>
+      <c r="X348" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF348" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH348" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI348" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ348" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK348" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL348" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM348" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN348" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO348" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP348" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ348" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR348" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS348" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT348" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU348" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV348" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW348" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX348" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY348" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ348" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="349" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
@@ -36416,6 +36752,114 @@
       <c r="F349" t="s">
         <v>148</v>
       </c>
+      <c r="I349" t="s">
+        <v>121</v>
+      </c>
+      <c r="J349" t="s">
+        <v>122</v>
+      </c>
+      <c r="K349" t="s">
+        <v>101</v>
+      </c>
+      <c r="L349" t="s">
+        <v>102</v>
+      </c>
+      <c r="M349" t="s">
+        <v>124</v>
+      </c>
+      <c r="N349" t="s">
+        <v>87</v>
+      </c>
+      <c r="O349" t="s">
+        <v>195</v>
+      </c>
+      <c r="P349" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>152</v>
+      </c>
+      <c r="R349" t="s">
+        <v>87</v>
+      </c>
+      <c r="S349" t="s">
+        <v>190</v>
+      </c>
+      <c r="T349" t="s">
+        <v>119</v>
+      </c>
+      <c r="U349" t="s">
+        <v>88</v>
+      </c>
+      <c r="V349" t="s">
+        <v>89</v>
+      </c>
+      <c r="W349" t="s">
+        <v>742</v>
+      </c>
+      <c r="X349" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF349" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG349" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH349" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI349" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ349" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK349" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL349" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM349" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN349" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO349" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP349" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ349" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR349" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="350" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
@@ -36429,6 +36873,57 @@
       </c>
       <c r="E350" t="s">
         <v>85</v>
+      </c>
+      <c r="F350" t="s">
+        <v>148</v>
+      </c>
+      <c r="I350" t="s">
+        <v>88</v>
+      </c>
+      <c r="J350" t="s">
+        <v>89</v>
+      </c>
+      <c r="K350" t="s">
+        <v>90</v>
+      </c>
+      <c r="L350" t="s">
+        <v>89</v>
+      </c>
+      <c r="M350" t="s">
+        <v>156</v>
+      </c>
+      <c r="N350" t="s">
+        <v>84</v>
+      </c>
+      <c r="O350" t="s">
+        <v>115</v>
+      </c>
+      <c r="P350" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>98</v>
+      </c>
+      <c r="R350" t="s">
+        <v>87</v>
+      </c>
+      <c r="S350" t="s">
+        <v>114</v>
+      </c>
+      <c r="T350" t="s">
+        <v>110</v>
+      </c>
+      <c r="U350" t="s">
+        <v>145</v>
+      </c>
+      <c r="V350" t="s">
+        <v>89</v>
+      </c>
+      <c r="W350" t="s">
+        <v>208</v>
+      </c>
+      <c r="X350" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:68" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFD6CB-5DF8-48C2-83BB-3EBD89A5C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F83BC-FD0E-458B-82A9-D016080DD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11670" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11910" uniqueCount="807">
   <si>
     <t>Name</t>
   </si>
@@ -2411,6 +2411,36 @@
   </si>
   <si>
     <t>Poisn Jab</t>
+  </si>
+  <si>
+    <t>Type39</t>
+  </si>
+  <si>
+    <t>Move38</t>
+  </si>
+  <si>
+    <t>Type38</t>
+  </si>
+  <si>
+    <t>Type40</t>
+  </si>
+  <si>
+    <t>Move40</t>
+  </si>
+  <si>
+    <t>Move41</t>
+  </si>
+  <si>
+    <t>Type41</t>
+  </si>
+  <si>
+    <t>Move42</t>
+  </si>
+  <si>
+    <t>Type42</t>
+  </si>
+  <si>
+    <t>Shadow</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2463,13 +2493,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2774,15 +2818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD490"/>
+  <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I351" sqref="I351"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H360" sqref="H360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3029,8 +3073,38 @@
       <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="CE1" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3104,7 +3178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -3211,7 +3285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3276,7 +3350,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3380,7 +3454,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3571,7 +3645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -3636,7 +3710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -3719,7 +3793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -3952,7 +4026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -4074,7 +4148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -4151,7 +4225,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -4201,7 +4275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -4374,7 +4448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -4418,7 +4492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -4525,7 +4599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -32922,6 +32996,12 @@
       <c r="AL309" t="s">
         <v>100</v>
       </c>
+      <c r="AM309" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN309" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="310" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
@@ -36936,6 +37016,108 @@
       <c r="E351" t="s">
         <v>85</v>
       </c>
+      <c r="I351" t="s">
+        <v>199</v>
+      </c>
+      <c r="J351" t="s">
+        <v>92</v>
+      </c>
+      <c r="K351" t="s">
+        <v>101</v>
+      </c>
+      <c r="L351" t="s">
+        <v>102</v>
+      </c>
+      <c r="M351" t="s">
+        <v>124</v>
+      </c>
+      <c r="N351" t="s">
+        <v>87</v>
+      </c>
+      <c r="O351" t="s">
+        <v>185</v>
+      </c>
+      <c r="P351" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>152</v>
+      </c>
+      <c r="R351" t="s">
+        <v>87</v>
+      </c>
+      <c r="S351" t="s">
+        <v>742</v>
+      </c>
+      <c r="T351" t="s">
+        <v>87</v>
+      </c>
+      <c r="U351" t="s">
+        <v>125</v>
+      </c>
+      <c r="V351" t="s">
+        <v>83</v>
+      </c>
+      <c r="W351" t="s">
+        <v>236</v>
+      </c>
+      <c r="X351" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG351" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI351" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ351" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK351" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL351" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN351" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO351" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP351" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="352" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
@@ -36950,8 +37132,44 @@
       <c r="E352" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I352" t="s">
+        <v>348</v>
+      </c>
+      <c r="J352" t="s">
+        <v>117</v>
+      </c>
+      <c r="K352" t="s">
+        <v>760</v>
+      </c>
+      <c r="L352" t="s">
+        <v>89</v>
+      </c>
+      <c r="M352" t="s">
+        <v>114</v>
+      </c>
+      <c r="N352" t="s">
+        <v>110</v>
+      </c>
+      <c r="O352" t="s">
+        <v>220</v>
+      </c>
+      <c r="P352" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>349</v>
+      </c>
+      <c r="R352" t="s">
+        <v>117</v>
+      </c>
+      <c r="S352" t="s">
+        <v>145</v>
+      </c>
+      <c r="T352" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="353" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>601</v>
       </c>
@@ -36964,8 +37182,260 @@
       <c r="E353" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I353" t="s">
+        <v>755</v>
+      </c>
+      <c r="J353" t="s">
+        <v>92</v>
+      </c>
+      <c r="K353" t="s">
+        <v>133</v>
+      </c>
+      <c r="L353" t="s">
+        <v>87</v>
+      </c>
+      <c r="M353" t="s">
+        <v>101</v>
+      </c>
+      <c r="N353" t="s">
+        <v>102</v>
+      </c>
+      <c r="O353" t="s">
+        <v>124</v>
+      </c>
+      <c r="P353" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>334</v>
+      </c>
+      <c r="R353" t="s">
+        <v>117</v>
+      </c>
+      <c r="S353" t="s">
+        <v>201</v>
+      </c>
+      <c r="T353" t="s">
+        <v>92</v>
+      </c>
+      <c r="U353" t="s">
+        <v>105</v>
+      </c>
+      <c r="V353" t="s">
+        <v>106</v>
+      </c>
+      <c r="W353" t="s">
+        <v>99</v>
+      </c>
+      <c r="X353" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG353" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI353" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ353" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK353" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL353" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM353" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN353" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO353" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP353" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ353" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR353" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS353" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT353" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU353" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV353" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW353" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX353" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY353" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ353" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA353" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB353" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC353" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD353" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE353" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF353" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG353" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH353" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI353" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ353" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK353" t="s">
+        <v>276</v>
+      </c>
+      <c r="BL353" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM353" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN353" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO353" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP353" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ353" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR353" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS353" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT353" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU353" t="s">
+        <v>153</v>
+      </c>
+      <c r="BV353" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW353" t="s">
+        <v>349</v>
+      </c>
+      <c r="BX353" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY353" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ353" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA353" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB353" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC353" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD353" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE353" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF353" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG353" t="s">
+        <v>240</v>
+      </c>
+      <c r="CH353" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI353" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ353" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK353" t="s">
+        <v>149</v>
+      </c>
+      <c r="CL353" t="s">
+        <v>84</v>
+      </c>
+      <c r="CM353" t="s">
+        <v>131</v>
+      </c>
+      <c r="CN353" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="354" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>602</v>
       </c>
@@ -36978,8 +37448,56 @@
       <c r="E354" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I354" t="s">
+        <v>185</v>
+      </c>
+      <c r="J354" t="s">
+        <v>83</v>
+      </c>
+      <c r="K354" t="s">
+        <v>166</v>
+      </c>
+      <c r="L354" t="s">
+        <v>83</v>
+      </c>
+      <c r="M354" t="s">
+        <v>125</v>
+      </c>
+      <c r="N354" t="s">
+        <v>83</v>
+      </c>
+      <c r="O354" t="s">
+        <v>110</v>
+      </c>
+      <c r="P354" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>759</v>
+      </c>
+      <c r="R354" t="s">
+        <v>110</v>
+      </c>
+      <c r="S354" t="s">
+        <v>174</v>
+      </c>
+      <c r="T354" t="s">
+        <v>116</v>
+      </c>
+      <c r="U354" t="s">
+        <v>308</v>
+      </c>
+      <c r="V354" t="s">
+        <v>116</v>
+      </c>
+      <c r="W354" t="s">
+        <v>165</v>
+      </c>
+      <c r="X354" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>603</v>
       </c>
@@ -36992,8 +37510,32 @@
       <c r="E355" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I355" t="s">
+        <v>171</v>
+      </c>
+      <c r="J355" t="s">
+        <v>108</v>
+      </c>
+      <c r="K355" t="s">
+        <v>239</v>
+      </c>
+      <c r="L355" t="s">
+        <v>110</v>
+      </c>
+      <c r="M355" t="s">
+        <v>96</v>
+      </c>
+      <c r="N355" t="s">
+        <v>97</v>
+      </c>
+      <c r="O355" t="s">
+        <v>296</v>
+      </c>
+      <c r="P355" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="356" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>604</v>
       </c>
@@ -37006,8 +37548,38 @@
       <c r="E356" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I356" t="s">
+        <v>175</v>
+      </c>
+      <c r="J356" t="s">
+        <v>102</v>
+      </c>
+      <c r="K356" t="s">
+        <v>154</v>
+      </c>
+      <c r="L356" t="s">
+        <v>102</v>
+      </c>
+      <c r="M356" t="s">
+        <v>194</v>
+      </c>
+      <c r="N356" t="s">
+        <v>106</v>
+      </c>
+      <c r="O356" t="s">
+        <v>200</v>
+      </c>
+      <c r="P356" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>165</v>
+      </c>
+      <c r="R356" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="357" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>605</v>
       </c>
@@ -37020,8 +37592,56 @@
       <c r="E357" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I357" t="s">
+        <v>175</v>
+      </c>
+      <c r="J357" t="s">
+        <v>102</v>
+      </c>
+      <c r="K357" t="s">
+        <v>790</v>
+      </c>
+      <c r="L357" t="s">
+        <v>97</v>
+      </c>
+      <c r="M357" t="s">
+        <v>154</v>
+      </c>
+      <c r="N357" t="s">
+        <v>102</v>
+      </c>
+      <c r="O357" t="s">
+        <v>806</v>
+      </c>
+      <c r="P357" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>194</v>
+      </c>
+      <c r="R357" t="s">
+        <v>106</v>
+      </c>
+      <c r="S357" t="s">
+        <v>200</v>
+      </c>
+      <c r="T357" t="s">
+        <v>102</v>
+      </c>
+      <c r="U357" t="s">
+        <v>289</v>
+      </c>
+      <c r="V357" t="s">
+        <v>97</v>
+      </c>
+      <c r="W357" t="s">
+        <v>165</v>
+      </c>
+      <c r="X357" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="358" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>606</v>
       </c>
@@ -37034,8 +37654,56 @@
       <c r="E358" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I358" t="s">
+        <v>175</v>
+      </c>
+      <c r="J358" t="s">
+        <v>102</v>
+      </c>
+      <c r="K358" t="s">
+        <v>790</v>
+      </c>
+      <c r="L358" t="s">
+        <v>97</v>
+      </c>
+      <c r="M358" t="s">
+        <v>154</v>
+      </c>
+      <c r="N358" t="s">
+        <v>102</v>
+      </c>
+      <c r="O358" t="s">
+        <v>806</v>
+      </c>
+      <c r="P358" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>194</v>
+      </c>
+      <c r="R358" t="s">
+        <v>106</v>
+      </c>
+      <c r="S358" t="s">
+        <v>200</v>
+      </c>
+      <c r="T358" t="s">
+        <v>102</v>
+      </c>
+      <c r="U358" t="s">
+        <v>289</v>
+      </c>
+      <c r="V358" t="s">
+        <v>97</v>
+      </c>
+      <c r="W358" t="s">
+        <v>165</v>
+      </c>
+      <c r="X358" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>607</v>
       </c>
@@ -37048,8 +37716,56 @@
       <c r="E359" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I359" t="s">
+        <v>175</v>
+      </c>
+      <c r="J359" t="s">
+        <v>102</v>
+      </c>
+      <c r="K359" t="s">
+        <v>790</v>
+      </c>
+      <c r="L359" t="s">
+        <v>97</v>
+      </c>
+      <c r="M359" t="s">
+        <v>154</v>
+      </c>
+      <c r="N359" t="s">
+        <v>102</v>
+      </c>
+      <c r="O359" t="s">
+        <v>806</v>
+      </c>
+      <c r="P359" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>194</v>
+      </c>
+      <c r="R359" t="s">
+        <v>106</v>
+      </c>
+      <c r="S359" t="s">
+        <v>200</v>
+      </c>
+      <c r="T359" t="s">
+        <v>102</v>
+      </c>
+      <c r="U359" t="s">
+        <v>289</v>
+      </c>
+      <c r="V359" t="s">
+        <v>97</v>
+      </c>
+      <c r="W359" t="s">
+        <v>165</v>
+      </c>
+      <c r="X359" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="360" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>608</v>
       </c>
@@ -37062,8 +37778,56 @@
       <c r="E360" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I360" t="s">
+        <v>175</v>
+      </c>
+      <c r="J360" t="s">
+        <v>102</v>
+      </c>
+      <c r="K360" t="s">
+        <v>790</v>
+      </c>
+      <c r="L360" t="s">
+        <v>97</v>
+      </c>
+      <c r="M360" t="s">
+        <v>154</v>
+      </c>
+      <c r="N360" t="s">
+        <v>102</v>
+      </c>
+      <c r="O360" t="s">
+        <v>806</v>
+      </c>
+      <c r="P360" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>194</v>
+      </c>
+      <c r="R360" t="s">
+        <v>106</v>
+      </c>
+      <c r="S360" t="s">
+        <v>200</v>
+      </c>
+      <c r="T360" t="s">
+        <v>102</v>
+      </c>
+      <c r="U360" t="s">
+        <v>289</v>
+      </c>
+      <c r="V360" t="s">
+        <v>97</v>
+      </c>
+      <c r="W360" t="s">
+        <v>165</v>
+      </c>
+      <c r="X360" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="361" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>609</v>
       </c>
@@ -37077,7 +37841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>610</v>
       </c>
@@ -37091,7 +37855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>611</v>
       </c>
@@ -37105,7 +37869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>612</v>
       </c>
@@ -37116,7 +37880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>613</v>
       </c>
@@ -37127,7 +37891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>614</v>
       </c>
@@ -37138,7 +37902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>615</v>
       </c>
@@ -37152,7 +37916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>616</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F83BC-FD0E-458B-82A9-D016080DD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA62DA2-3CCC-4931-ADA5-9811BED89F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11910" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12078" uniqueCount="808">
   <si>
     <t>Name</t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>Shadow</t>
+  </si>
+  <si>
+    <t>Sacred Sword</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2820,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H360" sqref="H360"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37840,6 +37843,72 @@
       <c r="E361" t="s">
         <v>85</v>
       </c>
+      <c r="I361" t="s">
+        <v>185</v>
+      </c>
+      <c r="J361" t="s">
+        <v>83</v>
+      </c>
+      <c r="K361" t="s">
+        <v>112</v>
+      </c>
+      <c r="L361" t="s">
+        <v>95</v>
+      </c>
+      <c r="M361" t="s">
+        <v>125</v>
+      </c>
+      <c r="N361" t="s">
+        <v>83</v>
+      </c>
+      <c r="O361" t="s">
+        <v>110</v>
+      </c>
+      <c r="P361" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>144</v>
+      </c>
+      <c r="R361" t="s">
+        <v>100</v>
+      </c>
+      <c r="S361" t="s">
+        <v>154</v>
+      </c>
+      <c r="T361" t="s">
+        <v>102</v>
+      </c>
+      <c r="U361" t="s">
+        <v>114</v>
+      </c>
+      <c r="V361" t="s">
+        <v>110</v>
+      </c>
+      <c r="W361" t="s">
+        <v>94</v>
+      </c>
+      <c r="X361" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="362" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
@@ -37854,6 +37923,162 @@
       <c r="E362" t="s">
         <v>85</v>
       </c>
+      <c r="I362" t="s">
+        <v>121</v>
+      </c>
+      <c r="J362" t="s">
+        <v>122</v>
+      </c>
+      <c r="K362" t="s">
+        <v>755</v>
+      </c>
+      <c r="L362" t="s">
+        <v>92</v>
+      </c>
+      <c r="M362" t="s">
+        <v>199</v>
+      </c>
+      <c r="N362" t="s">
+        <v>92</v>
+      </c>
+      <c r="O362" t="s">
+        <v>93</v>
+      </c>
+      <c r="P362" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>159</v>
+      </c>
+      <c r="R362" t="s">
+        <v>87</v>
+      </c>
+      <c r="S362" t="s">
+        <v>125</v>
+      </c>
+      <c r="T362" t="s">
+        <v>83</v>
+      </c>
+      <c r="U362" t="s">
+        <v>110</v>
+      </c>
+      <c r="V362" t="s">
+        <v>110</v>
+      </c>
+      <c r="W362" t="s">
+        <v>154</v>
+      </c>
+      <c r="X362" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z362" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE362" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF362" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG362" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH362" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI362" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ362" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK362" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL362" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM362" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN362" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO362" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP362" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ362" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR362" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS362" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT362" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU362" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV362" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW362" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX362" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY362" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ362" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA362" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB362" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC362" t="s">
+        <v>772</v>
+      </c>
+      <c r="BD362" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE362" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF362" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG362" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH362" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="363" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
@@ -37868,6 +38093,84 @@
       <c r="E363" t="s">
         <v>85</v>
       </c>
+      <c r="I363" t="s">
+        <v>101</v>
+      </c>
+      <c r="J363" t="s">
+        <v>102</v>
+      </c>
+      <c r="K363" t="s">
+        <v>91</v>
+      </c>
+      <c r="L363" t="s">
+        <v>92</v>
+      </c>
+      <c r="M363" t="s">
+        <v>175</v>
+      </c>
+      <c r="N363" t="s">
+        <v>102</v>
+      </c>
+      <c r="O363" t="s">
+        <v>144</v>
+      </c>
+      <c r="P363" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>138</v>
+      </c>
+      <c r="R363" t="s">
+        <v>100</v>
+      </c>
+      <c r="S363" t="s">
+        <v>207</v>
+      </c>
+      <c r="T363" t="s">
+        <v>106</v>
+      </c>
+      <c r="U363" t="s">
+        <v>111</v>
+      </c>
+      <c r="V363" t="s">
+        <v>97</v>
+      </c>
+      <c r="W363" t="s">
+        <v>209</v>
+      </c>
+      <c r="X363" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE363" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF363" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG363" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH363" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="364" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
@@ -37879,6 +38182,120 @@
       <c r="E364" t="s">
         <v>85</v>
       </c>
+      <c r="I364" t="s">
+        <v>101</v>
+      </c>
+      <c r="J364" t="s">
+        <v>102</v>
+      </c>
+      <c r="K364" t="s">
+        <v>185</v>
+      </c>
+      <c r="L364" t="s">
+        <v>83</v>
+      </c>
+      <c r="M364" t="s">
+        <v>105</v>
+      </c>
+      <c r="N364" t="s">
+        <v>106</v>
+      </c>
+      <c r="O364" t="s">
+        <v>152</v>
+      </c>
+      <c r="P364" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>91</v>
+      </c>
+      <c r="R364" t="s">
+        <v>92</v>
+      </c>
+      <c r="S364" t="s">
+        <v>156</v>
+      </c>
+      <c r="T364" t="s">
+        <v>84</v>
+      </c>
+      <c r="U364" t="s">
+        <v>807</v>
+      </c>
+      <c r="V364" t="s">
+        <v>87</v>
+      </c>
+      <c r="W364" t="s">
+        <v>256</v>
+      </c>
+      <c r="X364" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF364" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH364" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI364" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ364" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK364" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL364" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM364" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN364" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO364" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP364" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ364" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR364" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS364" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT364" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="365" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
@@ -37889,6 +38306,96 @@
       </c>
       <c r="E365" t="s">
         <v>85</v>
+      </c>
+      <c r="I365" t="s">
+        <v>99</v>
+      </c>
+      <c r="J365" t="s">
+        <v>100</v>
+      </c>
+      <c r="K365" t="s">
+        <v>297</v>
+      </c>
+      <c r="L365" t="s">
+        <v>127</v>
+      </c>
+      <c r="M365" t="s">
+        <v>306</v>
+      </c>
+      <c r="N365" t="s">
+        <v>116</v>
+      </c>
+      <c r="O365" t="s">
+        <v>112</v>
+      </c>
+      <c r="P365" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>158</v>
+      </c>
+      <c r="R365" t="s">
+        <v>100</v>
+      </c>
+      <c r="S365" t="s">
+        <v>98</v>
+      </c>
+      <c r="T365" t="s">
+        <v>87</v>
+      </c>
+      <c r="U365" t="s">
+        <v>141</v>
+      </c>
+      <c r="V365" t="s">
+        <v>92</v>
+      </c>
+      <c r="W365" t="s">
+        <v>114</v>
+      </c>
+      <c r="X365" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF365" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG365" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH365" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI365" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ365" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK365" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL365" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:92" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA62DA2-3CCC-4931-ADA5-9811BED89F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635DF04-0901-497B-96B4-4DBC9D2A02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12078" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12232" uniqueCount="807">
   <si>
     <t>Name</t>
   </si>
@@ -2408,9 +2408,6 @@
   </si>
   <si>
     <t>Storm Throw</t>
-  </si>
-  <si>
-    <t>Poisn Jab</t>
   </si>
   <si>
     <t>Type39</t>
@@ -2823,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView tabSelected="1" topLeftCell="I354" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I371" sqref="I371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3077,34 +3074,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -35998,7 +35995,7 @@
         <v>89</v>
       </c>
       <c r="AC341" t="s">
-        <v>796</v>
+        <v>203</v>
       </c>
       <c r="AD341" t="s">
         <v>127</v>
@@ -37614,7 +37611,7 @@
         <v>102</v>
       </c>
       <c r="O357" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P357" t="s">
         <v>97</v>
@@ -37676,7 +37673,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37738,7 +37735,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37800,7 +37797,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -38219,7 +38216,7 @@
         <v>84</v>
       </c>
       <c r="U364" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V364" t="s">
         <v>87</v>
@@ -38408,6 +38405,132 @@
       <c r="E366" t="s">
         <v>85</v>
       </c>
+      <c r="I366" t="s">
+        <v>121</v>
+      </c>
+      <c r="J366" t="s">
+        <v>122</v>
+      </c>
+      <c r="K366" t="s">
+        <v>199</v>
+      </c>
+      <c r="L366" t="s">
+        <v>92</v>
+      </c>
+      <c r="M366" t="s">
+        <v>101</v>
+      </c>
+      <c r="N366" t="s">
+        <v>102</v>
+      </c>
+      <c r="O366" t="s">
+        <v>124</v>
+      </c>
+      <c r="P366" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>176</v>
+      </c>
+      <c r="R366" t="s">
+        <v>127</v>
+      </c>
+      <c r="S366" t="s">
+        <v>93</v>
+      </c>
+      <c r="T366" t="s">
+        <v>87</v>
+      </c>
+      <c r="U366" t="s">
+        <v>112</v>
+      </c>
+      <c r="V366" t="s">
+        <v>95</v>
+      </c>
+      <c r="W366" t="s">
+        <v>159</v>
+      </c>
+      <c r="X366" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF366" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH366" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI366" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ366" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK366" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL366" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM366" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN366" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO366" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP366" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ366" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR366" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS366" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT366" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU366" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV366" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW366" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX366" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="367" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
@@ -38422,6 +38545,132 @@
       <c r="E367" t="s">
         <v>85</v>
       </c>
+      <c r="I367" t="s">
+        <v>121</v>
+      </c>
+      <c r="J367" t="s">
+        <v>122</v>
+      </c>
+      <c r="K367" t="s">
+        <v>204</v>
+      </c>
+      <c r="L367" t="s">
+        <v>122</v>
+      </c>
+      <c r="M367" t="s">
+        <v>755</v>
+      </c>
+      <c r="N367" t="s">
+        <v>122</v>
+      </c>
+      <c r="O367" t="s">
+        <v>101</v>
+      </c>
+      <c r="P367" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>124</v>
+      </c>
+      <c r="R367" t="s">
+        <v>87</v>
+      </c>
+      <c r="S367" t="s">
+        <v>93</v>
+      </c>
+      <c r="T367" t="s">
+        <v>87</v>
+      </c>
+      <c r="U367" t="s">
+        <v>88</v>
+      </c>
+      <c r="V367" t="s">
+        <v>89</v>
+      </c>
+      <c r="W367" t="s">
+        <v>136</v>
+      </c>
+      <c r="X367" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF367" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG367" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH367" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI367" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ367" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK367" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL367" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM367" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN367" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO367" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP367" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ367" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR367" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS367" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT367" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU367" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV367" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW367" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX367" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="368" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
@@ -38439,8 +38688,38 @@
       <c r="G368" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I368" t="s">
+        <v>98</v>
+      </c>
+      <c r="J368" t="s">
+        <v>87</v>
+      </c>
+      <c r="K368" t="s">
+        <v>236</v>
+      </c>
+      <c r="L368" t="s">
+        <v>92</v>
+      </c>
+      <c r="M368" t="s">
+        <v>204</v>
+      </c>
+      <c r="N368" t="s">
+        <v>122</v>
+      </c>
+      <c r="O368" t="s">
+        <v>201</v>
+      </c>
+      <c r="P368" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>193</v>
+      </c>
+      <c r="R368" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>617</v>
       </c>
@@ -38450,8 +38729,116 @@
       <c r="E369" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I369" t="s">
+        <v>121</v>
+      </c>
+      <c r="J369" t="s">
+        <v>122</v>
+      </c>
+      <c r="K369" t="s">
+        <v>101</v>
+      </c>
+      <c r="L369" t="s">
+        <v>102</v>
+      </c>
+      <c r="M369" t="s">
+        <v>185</v>
+      </c>
+      <c r="N369" t="s">
+        <v>83</v>
+      </c>
+      <c r="O369" t="s">
+        <v>88</v>
+      </c>
+      <c r="P369" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>112</v>
+      </c>
+      <c r="R369" t="s">
+        <v>95</v>
+      </c>
+      <c r="S369" t="s">
+        <v>203</v>
+      </c>
+      <c r="T369" t="s">
+        <v>127</v>
+      </c>
+      <c r="U369" t="s">
+        <v>186</v>
+      </c>
+      <c r="V369" t="s">
+        <v>102</v>
+      </c>
+      <c r="W369" t="s">
+        <v>114</v>
+      </c>
+      <c r="X369" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF369" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG369" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH369" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI369" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ369" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK369" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL369" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM369" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN369" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO369" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP369" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ369" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR369" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>618</v>
       </c>
@@ -38464,8 +38851,80 @@
       <c r="E370" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I370" t="s">
+        <v>105</v>
+      </c>
+      <c r="J370" t="s">
+        <v>106</v>
+      </c>
+      <c r="K370" t="s">
+        <v>747</v>
+      </c>
+      <c r="L370" t="s">
+        <v>87</v>
+      </c>
+      <c r="M370" t="s">
+        <v>760</v>
+      </c>
+      <c r="N370" t="s">
+        <v>89</v>
+      </c>
+      <c r="O370" t="s">
+        <v>107</v>
+      </c>
+      <c r="P370" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>214</v>
+      </c>
+      <c r="R370" t="s">
+        <v>119</v>
+      </c>
+      <c r="S370" t="s">
+        <v>115</v>
+      </c>
+      <c r="T370" t="s">
+        <v>116</v>
+      </c>
+      <c r="U370" t="s">
+        <v>96</v>
+      </c>
+      <c r="V370" t="s">
+        <v>97</v>
+      </c>
+      <c r="W370" t="s">
+        <v>186</v>
+      </c>
+      <c r="X370" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y370" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD370" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE370" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF370" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>619</v>
       </c>
@@ -38479,7 +38938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>620</v>
       </c>
@@ -38493,7 +38952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>621</v>
       </c>
@@ -38507,7 +38966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>622</v>
       </c>
@@ -38521,7 +38980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>623</v>
       </c>
@@ -38532,7 +38991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>624</v>
       </c>
@@ -38546,7 +39005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>625</v>
       </c>
@@ -38557,7 +39016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>626</v>
       </c>
@@ -38571,7 +39030,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>627</v>
       </c>
@@ -38582,7 +39041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>628</v>
       </c>
@@ -38596,7 +39055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>629</v>
       </c>
@@ -38610,7 +39069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>630</v>
       </c>
@@ -38624,7 +39083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>631</v>
       </c>
@@ -38638,7 +39097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>632</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635DF04-0901-497B-96B4-4DBC9D2A02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F111EE-A782-4C50-9601-5969CA9158CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12232" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12391" uniqueCount="807">
   <si>
     <t>Name</t>
   </si>
@@ -2820,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I354" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I371" sqref="I371"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I376" sqref="I376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38719,7 +38719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>617</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>618</v>
       </c>
@@ -38924,7 +38924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>619</v>
       </c>
@@ -38937,8 +38937,182 @@
       <c r="E371" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="I371" t="s">
+        <v>121</v>
+      </c>
+      <c r="J371" t="s">
+        <v>122</v>
+      </c>
+      <c r="K371" t="s">
+        <v>101</v>
+      </c>
+      <c r="L371" t="s">
+        <v>102</v>
+      </c>
+      <c r="M371" t="s">
+        <v>124</v>
+      </c>
+      <c r="N371" t="s">
+        <v>87</v>
+      </c>
+      <c r="O371" t="s">
+        <v>93</v>
+      </c>
+      <c r="P371" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>99</v>
+      </c>
+      <c r="R371" t="s">
+        <v>100</v>
+      </c>
+      <c r="S371" t="s">
+        <v>88</v>
+      </c>
+      <c r="T371" t="s">
+        <v>89</v>
+      </c>
+      <c r="U371" t="s">
+        <v>91</v>
+      </c>
+      <c r="V371" t="s">
+        <v>92</v>
+      </c>
+      <c r="W371" t="s">
+        <v>159</v>
+      </c>
+      <c r="X371" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y371" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD371" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE371" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF371" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG371" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH371" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI371" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ371" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK371" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL371" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM371" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN371" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO371" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP371" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ371" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR371" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS371" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT371" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU371" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV371" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW371" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX371" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY371" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ371" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA371" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB371" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC371" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD371" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE371" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF371" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG371" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH371" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI371" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ371" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK371" t="s">
+        <v>180</v>
+      </c>
+      <c r="BL371" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM371" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN371" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>620</v>
       </c>
@@ -38951,8 +39125,32 @@
       <c r="E372" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="I372" t="s">
+        <v>137</v>
+      </c>
+      <c r="J372" t="s">
+        <v>102</v>
+      </c>
+      <c r="K372" t="s">
+        <v>114</v>
+      </c>
+      <c r="L372" t="s">
+        <v>110</v>
+      </c>
+      <c r="M372" t="s">
+        <v>220</v>
+      </c>
+      <c r="N372" t="s">
+        <v>102</v>
+      </c>
+      <c r="O372" t="s">
+        <v>196</v>
+      </c>
+      <c r="P372" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="373" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>621</v>
       </c>
@@ -38965,8 +39163,122 @@
       <c r="E373" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="I373" t="s">
+        <v>121</v>
+      </c>
+      <c r="J373" t="s">
+        <v>122</v>
+      </c>
+      <c r="K373" t="s">
+        <v>258</v>
+      </c>
+      <c r="L373" t="s">
+        <v>95</v>
+      </c>
+      <c r="M373" t="s">
+        <v>185</v>
+      </c>
+      <c r="N373" t="s">
+        <v>83</v>
+      </c>
+      <c r="O373" t="s">
+        <v>99</v>
+      </c>
+      <c r="P373" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>112</v>
+      </c>
+      <c r="R373" t="s">
+        <v>95</v>
+      </c>
+      <c r="S373" t="s">
+        <v>91</v>
+      </c>
+      <c r="T373" t="s">
+        <v>92</v>
+      </c>
+      <c r="U373" t="s">
+        <v>126</v>
+      </c>
+      <c r="V373" t="s">
+        <v>127</v>
+      </c>
+      <c r="W373" t="s">
+        <v>144</v>
+      </c>
+      <c r="X373" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD373" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE373" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF373" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG373" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH373" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI373" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ373" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK373" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL373" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM373" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN373" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO373" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP373" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ373" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR373" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS373" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT373" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="374" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>622</v>
       </c>
@@ -38979,8 +39291,116 @@
       <c r="E374" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="I374" t="s">
+        <v>199</v>
+      </c>
+      <c r="J374" t="s">
+        <v>92</v>
+      </c>
+      <c r="K374" t="s">
+        <v>101</v>
+      </c>
+      <c r="L374" t="s">
+        <v>102</v>
+      </c>
+      <c r="M374" t="s">
+        <v>124</v>
+      </c>
+      <c r="N374" t="s">
+        <v>87</v>
+      </c>
+      <c r="O374" t="s">
+        <v>185</v>
+      </c>
+      <c r="P374" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>155</v>
+      </c>
+      <c r="R374" t="s">
+        <v>117</v>
+      </c>
+      <c r="S374" t="s">
+        <v>156</v>
+      </c>
+      <c r="T374" t="s">
+        <v>84</v>
+      </c>
+      <c r="U374" t="s">
+        <v>118</v>
+      </c>
+      <c r="V374" t="s">
+        <v>119</v>
+      </c>
+      <c r="W374" t="s">
+        <v>137</v>
+      </c>
+      <c r="X374" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE374" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF374" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG374" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH374" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI374" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ374" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK374" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL374" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM374" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN374" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO374" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP374" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ374" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR374" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="375" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>623</v>
       </c>
@@ -38990,8 +39410,68 @@
       <c r="E375" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="I375" t="s">
+        <v>105</v>
+      </c>
+      <c r="J375" t="s">
+        <v>106</v>
+      </c>
+      <c r="K375" t="s">
+        <v>156</v>
+      </c>
+      <c r="L375" t="s">
+        <v>84</v>
+      </c>
+      <c r="M375" t="s">
+        <v>115</v>
+      </c>
+      <c r="N375" t="s">
+        <v>116</v>
+      </c>
+      <c r="O375" t="s">
+        <v>256</v>
+      </c>
+      <c r="P375" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>203</v>
+      </c>
+      <c r="R375" t="s">
+        <v>127</v>
+      </c>
+      <c r="S375" t="s">
+        <v>186</v>
+      </c>
+      <c r="T375" t="s">
+        <v>102</v>
+      </c>
+      <c r="U375" t="s">
+        <v>194</v>
+      </c>
+      <c r="V375" t="s">
+        <v>106</v>
+      </c>
+      <c r="W375" t="s">
+        <v>217</v>
+      </c>
+      <c r="X375" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="376" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>624</v>
       </c>
@@ -39005,7 +39485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>625</v>
       </c>
@@ -39016,7 +39496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>626</v>
       </c>
@@ -39030,7 +39510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>627</v>
       </c>
@@ -39041,7 +39521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>628</v>
       </c>
@@ -39055,7 +39535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>629</v>
       </c>
@@ -39069,7 +39549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>630</v>
       </c>
@@ -39083,7 +39563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>631</v>
       </c>
@@ -39097,7 +39577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>632</v>
       </c>
@@ -39106,9 +39586,6 @@
       </c>
       <c r="E384" t="s">
         <v>85</v>
-      </c>
-      <c r="F384" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F111EE-A782-4C50-9601-5969CA9158CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F94CC-C941-48CC-B6D4-4521F02A3310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12391" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12543" uniqueCount="808">
   <si>
     <t>Name</t>
   </si>
@@ -2441,6 +2441,9 @@
   </si>
   <si>
     <t>Sacred Sword</t>
+  </si>
+  <si>
+    <t>Zen Headbut</t>
   </si>
 </sst>
 </file>
@@ -2820,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I376" sqref="I376"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39484,6 +39487,102 @@
       <c r="E376" t="s">
         <v>85</v>
       </c>
+      <c r="I376" t="s">
+        <v>101</v>
+      </c>
+      <c r="J376" t="s">
+        <v>102</v>
+      </c>
+      <c r="K376" t="s">
+        <v>124</v>
+      </c>
+      <c r="L376" t="s">
+        <v>87</v>
+      </c>
+      <c r="M376" t="s">
+        <v>185</v>
+      </c>
+      <c r="N376" t="s">
+        <v>83</v>
+      </c>
+      <c r="O376" t="s">
+        <v>93</v>
+      </c>
+      <c r="P376" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>310</v>
+      </c>
+      <c r="R376" t="s">
+        <v>83</v>
+      </c>
+      <c r="S376" t="s">
+        <v>254</v>
+      </c>
+      <c r="T376" t="s">
+        <v>127</v>
+      </c>
+      <c r="U376" t="s">
+        <v>126</v>
+      </c>
+      <c r="V376" t="s">
+        <v>127</v>
+      </c>
+      <c r="W376" t="s">
+        <v>115</v>
+      </c>
+      <c r="X376" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD376" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF376" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH376" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI376" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ376" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK376" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL376" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM376" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN376" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="377" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
@@ -39495,6 +39594,156 @@
       <c r="E377" t="s">
         <v>85</v>
       </c>
+      <c r="I377" t="s">
+        <v>133</v>
+      </c>
+      <c r="J377" t="s">
+        <v>87</v>
+      </c>
+      <c r="K377" t="s">
+        <v>88</v>
+      </c>
+      <c r="L377" t="s">
+        <v>89</v>
+      </c>
+      <c r="M377" t="s">
+        <v>91</v>
+      </c>
+      <c r="N377" t="s">
+        <v>92</v>
+      </c>
+      <c r="O377" t="s">
+        <v>136</v>
+      </c>
+      <c r="P377" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>155</v>
+      </c>
+      <c r="R377" t="s">
+        <v>117</v>
+      </c>
+      <c r="S377" t="s">
+        <v>142</v>
+      </c>
+      <c r="T377" t="s">
+        <v>110</v>
+      </c>
+      <c r="U377" t="s">
+        <v>137</v>
+      </c>
+      <c r="V377" t="s">
+        <v>102</v>
+      </c>
+      <c r="W377" t="s">
+        <v>141</v>
+      </c>
+      <c r="X377" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF377" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG377" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH377" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI377" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ377" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK377" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL377" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM377" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN377" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO377" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP377" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ377" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR377" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS377" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT377" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU377" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV377" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW377" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX377" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY377" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ377" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA377" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB377" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC377" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD377" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE377" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF377" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="378" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
@@ -39509,6 +39758,84 @@
       <c r="E378" t="s">
         <v>85</v>
       </c>
+      <c r="I378" t="s">
+        <v>104</v>
+      </c>
+      <c r="J378" t="s">
+        <v>87</v>
+      </c>
+      <c r="K378" t="s">
+        <v>88</v>
+      </c>
+      <c r="L378" t="s">
+        <v>89</v>
+      </c>
+      <c r="M378" t="s">
+        <v>156</v>
+      </c>
+      <c r="N378" t="s">
+        <v>84</v>
+      </c>
+      <c r="O378" t="s">
+        <v>142</v>
+      </c>
+      <c r="P378" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>115</v>
+      </c>
+      <c r="R378" t="s">
+        <v>116</v>
+      </c>
+      <c r="S378" t="s">
+        <v>203</v>
+      </c>
+      <c r="T378" t="s">
+        <v>127</v>
+      </c>
+      <c r="U378" t="s">
+        <v>114</v>
+      </c>
+      <c r="V378" t="s">
+        <v>110</v>
+      </c>
+      <c r="W378" t="s">
+        <v>140</v>
+      </c>
+      <c r="X378" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH378" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="379" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
@@ -39520,6 +39847,42 @@
       <c r="E379" t="s">
         <v>85</v>
       </c>
+      <c r="I379" t="s">
+        <v>90</v>
+      </c>
+      <c r="J379" t="s">
+        <v>89</v>
+      </c>
+      <c r="K379" t="s">
+        <v>107</v>
+      </c>
+      <c r="L379" t="s">
+        <v>108</v>
+      </c>
+      <c r="M379" t="s">
+        <v>110</v>
+      </c>
+      <c r="N379" t="s">
+        <v>110</v>
+      </c>
+      <c r="O379" t="s">
+        <v>171</v>
+      </c>
+      <c r="P379" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>807</v>
+      </c>
+      <c r="R379" t="s">
+        <v>110</v>
+      </c>
+      <c r="S379" t="s">
+        <v>329</v>
+      </c>
+      <c r="T379" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="380" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
@@ -39533,6 +39896,102 @@
       </c>
       <c r="E380" t="s">
         <v>85</v>
+      </c>
+      <c r="I380" t="s">
+        <v>133</v>
+      </c>
+      <c r="J380" t="s">
+        <v>87</v>
+      </c>
+      <c r="K380" t="s">
+        <v>124</v>
+      </c>
+      <c r="L380" t="s">
+        <v>87</v>
+      </c>
+      <c r="M380" t="s">
+        <v>93</v>
+      </c>
+      <c r="N380" t="s">
+        <v>87</v>
+      </c>
+      <c r="O380" t="s">
+        <v>219</v>
+      </c>
+      <c r="P380" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>115</v>
+      </c>
+      <c r="R380" t="s">
+        <v>116</v>
+      </c>
+      <c r="S380" t="s">
+        <v>239</v>
+      </c>
+      <c r="T380" t="s">
+        <v>110</v>
+      </c>
+      <c r="U380" t="s">
+        <v>96</v>
+      </c>
+      <c r="V380" t="s">
+        <v>97</v>
+      </c>
+      <c r="W380" t="s">
+        <v>113</v>
+      </c>
+      <c r="X380" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC380" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF380" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH380" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI380" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ380" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK380" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL380" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM380" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN380" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F94CC-C941-48CC-B6D4-4521F02A3310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F2E33-C249-4D60-BB3E-81F2E74257A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12543" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12679" uniqueCount="809">
   <si>
     <t>Name</t>
   </si>
@@ -2444,6 +2444,9 @@
   </si>
   <si>
     <t>Zen Headbut</t>
+  </si>
+  <si>
+    <t>Draco Meteor</t>
   </si>
 </sst>
 </file>
@@ -2824,7 +2827,7 @@
   <dimension ref="A1:CN490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A366" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I381" sqref="I381"/>
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40007,6 +40010,30 @@
       <c r="E381" t="s">
         <v>85</v>
       </c>
+      <c r="I381" t="s">
+        <v>126</v>
+      </c>
+      <c r="J381" t="s">
+        <v>127</v>
+      </c>
+      <c r="K381" t="s">
+        <v>212</v>
+      </c>
+      <c r="L381" t="s">
+        <v>106</v>
+      </c>
+      <c r="M381" t="s">
+        <v>132</v>
+      </c>
+      <c r="N381" t="s">
+        <v>87</v>
+      </c>
+      <c r="O381" t="s">
+        <v>194</v>
+      </c>
+      <c r="P381" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="382" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
@@ -40021,6 +40048,66 @@
       <c r="E382" t="s">
         <v>85</v>
       </c>
+      <c r="I382" t="s">
+        <v>133</v>
+      </c>
+      <c r="J382" t="s">
+        <v>87</v>
+      </c>
+      <c r="K382" t="s">
+        <v>199</v>
+      </c>
+      <c r="L382" t="s">
+        <v>92</v>
+      </c>
+      <c r="M382" t="s">
+        <v>88</v>
+      </c>
+      <c r="N382" t="s">
+        <v>89</v>
+      </c>
+      <c r="O382" t="s">
+        <v>254</v>
+      </c>
+      <c r="P382" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>90</v>
+      </c>
+      <c r="R382" t="s">
+        <v>89</v>
+      </c>
+      <c r="S382" t="s">
+        <v>126</v>
+      </c>
+      <c r="T382" t="s">
+        <v>127</v>
+      </c>
+      <c r="U382" t="s">
+        <v>160</v>
+      </c>
+      <c r="V382" t="s">
+        <v>89</v>
+      </c>
+      <c r="W382" t="s">
+        <v>130</v>
+      </c>
+      <c r="X382" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z382" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="383" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
@@ -40035,6 +40122,66 @@
       <c r="E383" t="s">
         <v>85</v>
       </c>
+      <c r="I383" t="s">
+        <v>166</v>
+      </c>
+      <c r="J383" t="s">
+        <v>83</v>
+      </c>
+      <c r="K383" t="s">
+        <v>219</v>
+      </c>
+      <c r="L383" t="s">
+        <v>117</v>
+      </c>
+      <c r="M383" t="s">
+        <v>125</v>
+      </c>
+      <c r="N383" t="s">
+        <v>83</v>
+      </c>
+      <c r="O383" t="s">
+        <v>156</v>
+      </c>
+      <c r="P383" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>154</v>
+      </c>
+      <c r="R383" t="s">
+        <v>102</v>
+      </c>
+      <c r="S383" t="s">
+        <v>171</v>
+      </c>
+      <c r="T383" t="s">
+        <v>108</v>
+      </c>
+      <c r="U383" t="s">
+        <v>236</v>
+      </c>
+      <c r="V383" t="s">
+        <v>92</v>
+      </c>
+      <c r="W383" t="s">
+        <v>96</v>
+      </c>
+      <c r="X383" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="384" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
@@ -40046,8 +40193,152 @@
       <c r="E384" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I384" t="s">
+        <v>133</v>
+      </c>
+      <c r="J384" t="s">
+        <v>87</v>
+      </c>
+      <c r="K384" t="s">
+        <v>808</v>
+      </c>
+      <c r="L384" t="s">
+        <v>100</v>
+      </c>
+      <c r="M384" t="s">
+        <v>99</v>
+      </c>
+      <c r="N384" t="s">
+        <v>100</v>
+      </c>
+      <c r="O384" t="s">
+        <v>155</v>
+      </c>
+      <c r="P384" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>156</v>
+      </c>
+      <c r="R384" t="s">
+        <v>84</v>
+      </c>
+      <c r="S384" t="s">
+        <v>157</v>
+      </c>
+      <c r="T384" t="s">
+        <v>129</v>
+      </c>
+      <c r="U384" t="s">
+        <v>118</v>
+      </c>
+      <c r="V384" t="s">
+        <v>119</v>
+      </c>
+      <c r="W384" t="s">
+        <v>142</v>
+      </c>
+      <c r="X384" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC384" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD384" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF384" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH384" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI384" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ384" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK384" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL384" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM384" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN384" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO384" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP384" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ384" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR384" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS384" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT384" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU384" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV384" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW384" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX384" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY384" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ384" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA384" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB384" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC384" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD384" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="385" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>633</v>
       </c>
@@ -40057,8 +40348,128 @@
       <c r="E385" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I385" t="s">
+        <v>101</v>
+      </c>
+      <c r="J385" t="s">
+        <v>102</v>
+      </c>
+      <c r="K385" t="s">
+        <v>124</v>
+      </c>
+      <c r="L385" t="s">
+        <v>87</v>
+      </c>
+      <c r="M385" t="s">
+        <v>185</v>
+      </c>
+      <c r="N385" t="s">
+        <v>83</v>
+      </c>
+      <c r="O385" t="s">
+        <v>176</v>
+      </c>
+      <c r="P385" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>93</v>
+      </c>
+      <c r="R385" t="s">
+        <v>87</v>
+      </c>
+      <c r="S385" t="s">
+        <v>152</v>
+      </c>
+      <c r="T385" t="s">
+        <v>87</v>
+      </c>
+      <c r="U385" t="s">
+        <v>91</v>
+      </c>
+      <c r="V385" t="s">
+        <v>92</v>
+      </c>
+      <c r="W385" t="s">
+        <v>156</v>
+      </c>
+      <c r="X385" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y385" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC385" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD385" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF385" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH385" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI385" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ385" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK385" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL385" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM385" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN385" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO385" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP385" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ385" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR385" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS385" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT385" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU385" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV385" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="386" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>634</v>
       </c>
@@ -40069,7 +40480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>635</v>
       </c>
@@ -40080,7 +40491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>636</v>
       </c>
@@ -40094,7 +40505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>637</v>
       </c>
@@ -40105,7 +40516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>638</v>
       </c>
@@ -40119,7 +40530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>639</v>
       </c>
@@ -40130,7 +40541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>640</v>
       </c>
@@ -40144,7 +40555,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>641</v>
       </c>
@@ -40158,7 +40569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>642</v>
       </c>
@@ -40175,7 +40586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>643</v>
       </c>
@@ -40186,7 +40597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>644</v>
       </c>
@@ -40197,7 +40608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>645</v>
       </c>
@@ -40208,7 +40619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>646</v>
       </c>
@@ -40222,7 +40633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>647</v>
       </c>
@@ -40233,7 +40644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>648</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F2E33-C249-4D60-BB3E-81F2E74257A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456F750-75C1-495F-AF37-D3745DFD0AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12679" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12879" uniqueCount="809">
   <si>
     <t>Name</t>
   </si>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A386" sqref="A386"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I392" sqref="I392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40338,7 +40338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>633</v>
       </c>
@@ -40469,7 +40469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>634</v>
       </c>
@@ -40479,8 +40479,110 @@
       <c r="E386" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="387" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I386" t="s">
+        <v>101</v>
+      </c>
+      <c r="J386" t="s">
+        <v>102</v>
+      </c>
+      <c r="K386" t="s">
+        <v>124</v>
+      </c>
+      <c r="L386" t="s">
+        <v>87</v>
+      </c>
+      <c r="M386" t="s">
+        <v>176</v>
+      </c>
+      <c r="N386" t="s">
+        <v>127</v>
+      </c>
+      <c r="O386" t="s">
+        <v>93</v>
+      </c>
+      <c r="P386" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>152</v>
+      </c>
+      <c r="R386" t="s">
+        <v>87</v>
+      </c>
+      <c r="S386" t="s">
+        <v>91</v>
+      </c>
+      <c r="T386" t="s">
+        <v>92</v>
+      </c>
+      <c r="U386" t="s">
+        <v>137</v>
+      </c>
+      <c r="V386" t="s">
+        <v>102</v>
+      </c>
+      <c r="W386" t="s">
+        <v>186</v>
+      </c>
+      <c r="X386" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC386" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD386" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF386" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH386" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI386" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ386" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK386" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL386" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM386" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN386" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO386" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP386" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="387" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>635</v>
       </c>
@@ -40490,8 +40592,128 @@
       <c r="E387" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="388" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I387" t="s">
+        <v>101</v>
+      </c>
+      <c r="J387" t="s">
+        <v>102</v>
+      </c>
+      <c r="K387" t="s">
+        <v>124</v>
+      </c>
+      <c r="L387" t="s">
+        <v>87</v>
+      </c>
+      <c r="M387" t="s">
+        <v>185</v>
+      </c>
+      <c r="N387" t="s">
+        <v>83</v>
+      </c>
+      <c r="O387" t="s">
+        <v>176</v>
+      </c>
+      <c r="P387" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>93</v>
+      </c>
+      <c r="R387" t="s">
+        <v>87</v>
+      </c>
+      <c r="S387" t="s">
+        <v>152</v>
+      </c>
+      <c r="T387" t="s">
+        <v>87</v>
+      </c>
+      <c r="U387" t="s">
+        <v>297</v>
+      </c>
+      <c r="V387" t="s">
+        <v>127</v>
+      </c>
+      <c r="W387" t="s">
+        <v>166</v>
+      </c>
+      <c r="X387" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC387" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD387" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF387" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH387" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI387" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ387" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK387" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL387" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM387" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN387" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO387" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP387" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ387" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR387" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS387" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT387" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU387" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV387" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="388" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>636</v>
       </c>
@@ -40504,8 +40726,20 @@
       <c r="E388" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="389" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I388" t="s">
+        <v>175</v>
+      </c>
+      <c r="J388" t="s">
+        <v>102</v>
+      </c>
+      <c r="K388" t="s">
+        <v>305</v>
+      </c>
+      <c r="L388" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="389" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>637</v>
       </c>
@@ -40515,8 +40749,74 @@
       <c r="E389" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="390" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I389" t="s">
+        <v>743</v>
+      </c>
+      <c r="J389" t="s">
+        <v>116</v>
+      </c>
+      <c r="K389" t="s">
+        <v>741</v>
+      </c>
+      <c r="L389" t="s">
+        <v>83</v>
+      </c>
+      <c r="M389" t="s">
+        <v>744</v>
+      </c>
+      <c r="N389" t="s">
+        <v>116</v>
+      </c>
+      <c r="O389" t="s">
+        <v>761</v>
+      </c>
+      <c r="P389" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>762</v>
+      </c>
+      <c r="R389" t="s">
+        <v>83</v>
+      </c>
+      <c r="S389" t="s">
+        <v>203</v>
+      </c>
+      <c r="T389" t="s">
+        <v>127</v>
+      </c>
+      <c r="U389" t="s">
+        <v>186</v>
+      </c>
+      <c r="V389" t="s">
+        <v>102</v>
+      </c>
+      <c r="W389" t="s">
+        <v>170</v>
+      </c>
+      <c r="X389" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y389" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC389" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="390" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>638</v>
       </c>
@@ -40529,8 +40829,68 @@
       <c r="E390" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="391" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I390" t="s">
+        <v>91</v>
+      </c>
+      <c r="J390" t="s">
+        <v>92</v>
+      </c>
+      <c r="K390" t="s">
+        <v>155</v>
+      </c>
+      <c r="L390" t="s">
+        <v>117</v>
+      </c>
+      <c r="M390" t="s">
+        <v>107</v>
+      </c>
+      <c r="N390" t="s">
+        <v>108</v>
+      </c>
+      <c r="O390" t="s">
+        <v>96</v>
+      </c>
+      <c r="P390" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>160</v>
+      </c>
+      <c r="R390" t="s">
+        <v>89</v>
+      </c>
+      <c r="S390" t="s">
+        <v>349</v>
+      </c>
+      <c r="T390" t="s">
+        <v>117</v>
+      </c>
+      <c r="U390" t="s">
+        <v>111</v>
+      </c>
+      <c r="V390" t="s">
+        <v>97</v>
+      </c>
+      <c r="W390" t="s">
+        <v>251</v>
+      </c>
+      <c r="X390" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y390" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="391" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>639</v>
       </c>
@@ -40540,8 +40900,248 @@
       <c r="E391" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="392" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I391" t="s">
+        <v>263</v>
+      </c>
+      <c r="J391" t="s">
+        <v>92</v>
+      </c>
+      <c r="K391" t="s">
+        <v>133</v>
+      </c>
+      <c r="L391" t="s">
+        <v>87</v>
+      </c>
+      <c r="M391" t="s">
+        <v>101</v>
+      </c>
+      <c r="N391" t="s">
+        <v>102</v>
+      </c>
+      <c r="O391" t="s">
+        <v>124</v>
+      </c>
+      <c r="P391" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>176</v>
+      </c>
+      <c r="R391" t="s">
+        <v>127</v>
+      </c>
+      <c r="S391" t="s">
+        <v>201</v>
+      </c>
+      <c r="T391" t="s">
+        <v>92</v>
+      </c>
+      <c r="U391" t="s">
+        <v>93</v>
+      </c>
+      <c r="V391" t="s">
+        <v>87</v>
+      </c>
+      <c r="W391" t="s">
+        <v>99</v>
+      </c>
+      <c r="X391" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y391" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z391" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD391" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF391" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH391" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI391" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ391" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK391" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL391" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM391" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN391" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO391" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP391" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ391" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR391" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS391" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT391" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU391" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV391" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW391" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX391" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY391" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ391" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA391" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB391" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC391" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD391" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE391" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF391" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG391" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH391" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI391" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ391" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK391" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL391" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM391" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN391" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO391" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP391" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ391" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR391" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS391" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT391" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU391" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV391" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW391" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX391" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY391" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ391" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA391" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB391" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC391" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD391" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE391" t="s">
+        <v>145</v>
+      </c>
+      <c r="CF391" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG391" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH391" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI391" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ391" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="392" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>640</v>
       </c>
@@ -40555,7 +41155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="393" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>641</v>
       </c>
@@ -40569,7 +41169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="394" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>642</v>
       </c>
@@ -40586,7 +41186,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="395" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>643</v>
       </c>
@@ -40597,7 +41197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="396" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>644</v>
       </c>
@@ -40608,7 +41208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>645</v>
       </c>
@@ -40619,7 +41219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="398" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>646</v>
       </c>
@@ -40633,7 +41233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="399" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>647</v>
       </c>
@@ -40644,7 +41244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="400" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>648</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456F750-75C1-495F-AF37-D3745DFD0AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95347C4E-B3B4-45A2-AFF8-7062F17CD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12879" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12903" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>Draco Meteor</t>
+  </si>
+  <si>
+    <t>Flare Blitz</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I392" sqref="I392"/>
+    <sheetView tabSelected="1" topLeftCell="B381" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I393" sqref="I393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41154,6 +41157,78 @@
       <c r="E392" t="s">
         <v>85</v>
       </c>
+      <c r="I392" t="s">
+        <v>809</v>
+      </c>
+      <c r="J392" t="s">
+        <v>117</v>
+      </c>
+      <c r="K392" t="s">
+        <v>334</v>
+      </c>
+      <c r="L392" t="s">
+        <v>117</v>
+      </c>
+      <c r="M392" t="s">
+        <v>201</v>
+      </c>
+      <c r="N392" t="s">
+        <v>92</v>
+      </c>
+      <c r="O392" t="s">
+        <v>306</v>
+      </c>
+      <c r="P392" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>88</v>
+      </c>
+      <c r="R392" t="s">
+        <v>89</v>
+      </c>
+      <c r="S392" t="s">
+        <v>219</v>
+      </c>
+      <c r="T392" t="s">
+        <v>117</v>
+      </c>
+      <c r="U392" t="s">
+        <v>214</v>
+      </c>
+      <c r="V392" t="s">
+        <v>119</v>
+      </c>
+      <c r="W392" t="s">
+        <v>114</v>
+      </c>
+      <c r="X392" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="393" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A393" t="s">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95347C4E-B3B4-45A2-AFF8-7062F17CD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D3FB8-0800-455C-9259-021903FBA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12903" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13016" uniqueCount="809">
   <si>
     <t>Name</t>
   </si>
@@ -1952,9 +1952,6 @@
   </si>
   <si>
     <t>Slurpuff</t>
-  </si>
-  <si>
-    <t>Smeargle</t>
   </si>
   <si>
     <t>Snorlax</t>
@@ -2827,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN490"/>
+  <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B381" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I393" sqref="I393"/>
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396:XFD396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3083,34 +3080,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -4451,7 +4448,7 @@
         <v>102</v>
       </c>
       <c r="BI13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="BJ13" t="s">
         <v>89</v>
@@ -6667,7 +6664,7 @@
         <v>89</v>
       </c>
       <c r="AK38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AL38" t="s">
         <v>122</v>
@@ -7533,7 +7530,7 @@
         <v>83</v>
       </c>
       <c r="AE48" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF48" t="s">
         <v>89</v>
@@ -10050,7 +10047,7 @@
         <v>95</v>
       </c>
       <c r="Y81" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Z81" t="s">
         <v>122</v>
@@ -10403,7 +10400,7 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -10411,7 +10408,7 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10522,7 +10519,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -11097,7 +11094,7 @@
         <v>83</v>
       </c>
       <c r="AC93" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AD93" t="s">
         <v>83</v>
@@ -11305,7 +11302,7 @@
         <v>95</v>
       </c>
       <c r="BE95" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BF95" t="s">
         <v>84</v>
@@ -11536,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="S98" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T98" t="s">
         <v>87</v>
@@ -11622,13 +11619,13 @@
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J99" t="s">
         <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L99" t="s">
         <v>116</v>
@@ -11723,13 +11720,13 @@
         <v>148</v>
       </c>
       <c r="I100" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11940,7 +11937,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AL102" t="s">
         <v>89</v>
@@ -12117,7 +12114,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -12204,7 +12201,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AJ105" t="s">
         <v>92</v>
@@ -12593,7 +12590,7 @@
         <v>87</v>
       </c>
       <c r="S109" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T109" t="s">
         <v>87</v>
@@ -12753,7 +12750,7 @@
         <v>87</v>
       </c>
       <c r="K111" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L111" t="s">
         <v>87</v>
@@ -12953,7 +12950,7 @@
         <v>119</v>
       </c>
       <c r="BA112" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="BB112" t="s">
         <v>102</v>
@@ -12965,7 +12962,7 @@
         <v>95</v>
       </c>
       <c r="BE112" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="BF112" t="s">
         <v>84</v>
@@ -13143,7 +13140,7 @@
         <v>129</v>
       </c>
       <c r="AG114" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AH114" t="s">
         <v>129</v>
@@ -13155,7 +13152,7 @@
         <v>129</v>
       </c>
       <c r="AK114" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AL114" t="s">
         <v>129</v>
@@ -13259,7 +13256,7 @@
         <v>119</v>
       </c>
       <c r="AK115" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AL115" t="s">
         <v>116</v>
@@ -13339,7 +13336,7 @@
         <v>129</v>
       </c>
       <c r="O116" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P116" t="s">
         <v>106</v>
@@ -13497,7 +13494,7 @@
         <v>89</v>
       </c>
       <c r="AG117" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH117" t="s">
         <v>102</v>
@@ -14339,7 +14336,7 @@
         <v>95</v>
       </c>
       <c r="AG124" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH124" t="s">
         <v>122</v>
@@ -14359,7 +14356,7 @@
         <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J125" t="s">
         <v>122</v>
@@ -14880,7 +14877,7 @@
         <v>92</v>
       </c>
       <c r="W129" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X129" t="s">
         <v>129</v>
@@ -14904,7 +14901,7 @@
         <v>129</v>
       </c>
       <c r="AE129" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AF129" t="s">
         <v>129</v>
@@ -14974,7 +14971,7 @@
         <v>89</v>
       </c>
       <c r="U131" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V131" t="s">
         <v>87</v>
@@ -15386,7 +15383,7 @@
         <v>84</v>
       </c>
       <c r="Q136" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R136" t="s">
         <v>116</v>
@@ -15482,7 +15479,7 @@
         <v>84</v>
       </c>
       <c r="AW136" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AX136" t="s">
         <v>102</v>
@@ -15713,7 +15710,7 @@
         <v>83</v>
       </c>
       <c r="Y139" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Z139" t="s">
         <v>129</v>
@@ -15920,7 +15917,7 @@
         <v>87</v>
       </c>
       <c r="AE142" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AF142" t="s">
         <v>110</v>
@@ -16021,7 +16018,7 @@
         <v>89</v>
       </c>
       <c r="AC143" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AD143" t="s">
         <v>87</v>
@@ -16158,13 +16155,13 @@
         <v>106</v>
       </c>
       <c r="M144" t="s">
+        <v>759</v>
+      </c>
+      <c r="N144" t="s">
+        <v>89</v>
+      </c>
+      <c r="O144" t="s">
         <v>760</v>
-      </c>
-      <c r="N144" t="s">
-        <v>89</v>
-      </c>
-      <c r="O144" t="s">
-        <v>761</v>
       </c>
       <c r="P144" t="s">
         <v>106</v>
@@ -16250,13 +16247,13 @@
         <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J145" t="s">
         <v>116</v>
       </c>
       <c r="K145" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L145" t="s">
         <v>83</v>
@@ -16280,13 +16277,13 @@
         <v>117</v>
       </c>
       <c r="S145" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T145" t="s">
         <v>106</v>
       </c>
       <c r="U145" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V145" t="s">
         <v>83</v>
@@ -16681,7 +16678,7 @@
         <v>85</v>
       </c>
       <c r="I149" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J149" t="s">
         <v>116</v>
@@ -16699,7 +16696,7 @@
         <v>117</v>
       </c>
       <c r="O149" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P149" t="s">
         <v>116</v>
@@ -16835,7 +16832,7 @@
         <v>92</v>
       </c>
       <c r="K151" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L151" t="s">
         <v>116</v>
@@ -16873,7 +16870,7 @@
     </row>
     <row r="152" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -17054,7 +17051,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L154" t="s">
         <v>83</v>
@@ -17072,7 +17069,7 @@
         <v>83</v>
       </c>
       <c r="Q154" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R154" t="s">
         <v>83</v>
@@ -17102,7 +17099,7 @@
         <v>83</v>
       </c>
       <c r="AA154" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AB154" t="s">
         <v>110</v>
@@ -17143,7 +17140,7 @@
         <v>83</v>
       </c>
       <c r="M155" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N155" t="s">
         <v>117</v>
@@ -17173,13 +17170,13 @@
         <v>117</v>
       </c>
       <c r="W155" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="X155" t="s">
         <v>106</v>
       </c>
       <c r="Y155" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Z155" t="s">
         <v>106</v>
@@ -17191,7 +17188,7 @@
         <v>117</v>
       </c>
       <c r="AC155" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD155" t="s">
         <v>116</v>
@@ -17233,7 +17230,7 @@
         <v>83</v>
       </c>
       <c r="AQ155" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AR155" t="s">
         <v>110</v>
@@ -17803,7 +17800,7 @@
         <v>102</v>
       </c>
       <c r="K161" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L161" t="s">
         <v>83</v>
@@ -17839,7 +17836,7 @@
         <v>119</v>
       </c>
       <c r="W161" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="X161" t="s">
         <v>83</v>
@@ -17923,7 +17920,7 @@
         <v>106</v>
       </c>
       <c r="AY161" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AZ161" t="s">
         <v>129</v>
@@ -18321,7 +18318,7 @@
         <v>106</v>
       </c>
       <c r="AA165" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB165" t="s">
         <v>127</v>
@@ -18483,7 +18480,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -18873,7 +18870,7 @@
         <v>84</v>
       </c>
       <c r="AU171" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AV171" t="s">
         <v>110</v>
@@ -18903,7 +18900,7 @@
         <v>87</v>
       </c>
       <c r="BE171" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="BF171" t="s">
         <v>89</v>
@@ -18983,7 +18980,7 @@
         <v>117</v>
       </c>
       <c r="Y172" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Z172" t="s">
         <v>87</v>
@@ -19037,7 +19034,7 @@
         <v>102</v>
       </c>
       <c r="AQ172" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AR172" t="s">
         <v>106</v>
@@ -19141,7 +19138,7 @@
         <v>117</v>
       </c>
       <c r="AK173" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AL173" t="s">
         <v>106</v>
@@ -19367,7 +19364,7 @@
         <v>83</v>
       </c>
       <c r="AE175" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF175" t="s">
         <v>87</v>
@@ -19403,7 +19400,7 @@
         <v>119</v>
       </c>
       <c r="AQ175" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AR175" t="s">
         <v>116</v>
@@ -20349,7 +20346,7 @@
         <v>129</v>
       </c>
       <c r="Q183" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R183" t="s">
         <v>129</v>
@@ -20397,7 +20394,7 @@
         <v>129</v>
       </c>
       <c r="AG183" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH183" t="s">
         <v>129</v>
@@ -20578,7 +20575,7 @@
         <v>87</v>
       </c>
       <c r="Q185" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R185" t="s">
         <v>87</v>
@@ -21058,7 +21055,7 @@
         <v>127</v>
       </c>
       <c r="S188" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T188" t="s">
         <v>87</v>
@@ -21142,7 +21139,7 @@
         <v>97</v>
       </c>
       <c r="AU188" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AV188" t="s">
         <v>106</v>
@@ -21177,7 +21174,7 @@
         <v>102</v>
       </c>
       <c r="K189" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L189" t="s">
         <v>89</v>
@@ -21297,7 +21294,7 @@
         <v>102</v>
       </c>
       <c r="AY189" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AZ189" t="s">
         <v>92</v>
@@ -21761,7 +21758,7 @@
         <v>95</v>
       </c>
       <c r="AG193" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AH193" t="s">
         <v>92</v>
@@ -21808,7 +21805,7 @@
         <v>95</v>
       </c>
       <c r="O194" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P194" t="s">
         <v>117</v>
@@ -21868,7 +21865,7 @@
         <v>95</v>
       </c>
       <c r="AI194" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AJ194" t="s">
         <v>92</v>
@@ -21957,7 +21954,7 @@
         <v>116</v>
       </c>
       <c r="AC195" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AD195" t="s">
         <v>102</v>
@@ -21975,7 +21972,7 @@
         <v>102</v>
       </c>
       <c r="AI195" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AJ195" t="s">
         <v>92</v>
@@ -22007,7 +22004,7 @@
         <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J196" t="s">
         <v>122</v>
@@ -22037,7 +22034,7 @@
         <v>97</v>
       </c>
       <c r="S196" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T196" t="s">
         <v>110</v>
@@ -22215,7 +22212,7 @@
         <v>122</v>
       </c>
       <c r="K198" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L198" t="s">
         <v>122</v>
@@ -23088,7 +23085,7 @@
         <v>116</v>
       </c>
       <c r="AE207" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AF207" t="s">
         <v>84</v>
@@ -23100,7 +23097,7 @@
         <v>87</v>
       </c>
       <c r="AI207" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AJ207" t="s">
         <v>84</v>
@@ -23144,7 +23141,7 @@
         <v>100</v>
       </c>
       <c r="O208" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P208" t="s">
         <v>117</v>
@@ -23779,7 +23776,7 @@
         <v>89</v>
       </c>
       <c r="AA215" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB215" t="s">
         <v>87</v>
@@ -24198,13 +24195,13 @@
         <v>87</v>
       </c>
       <c r="M219" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N219" t="s">
         <v>87</v>
       </c>
       <c r="O219" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P219" t="s">
         <v>89</v>
@@ -24296,7 +24293,7 @@
         <v>129</v>
       </c>
       <c r="O220" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P220" t="s">
         <v>89</v>
@@ -24500,7 +24497,7 @@
         <v>87</v>
       </c>
       <c r="S223" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T223" t="s">
         <v>83</v>
@@ -24979,7 +24976,7 @@
         <v>92</v>
       </c>
       <c r="AO227" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AP227" t="s">
         <v>110</v>
@@ -25053,7 +25050,7 @@
         <v>119</v>
       </c>
       <c r="W228" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X228" t="s">
         <v>116</v>
@@ -25083,7 +25080,7 @@
         <v>97</v>
       </c>
       <c r="AG228" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AH228" t="s">
         <v>129</v>
@@ -25356,7 +25353,7 @@
         <v>110</v>
       </c>
       <c r="AI231" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AJ231" t="s">
         <v>87</v>
@@ -25427,7 +25424,7 @@
         <v>89</v>
       </c>
       <c r="AA232" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB232" t="s">
         <v>87</v>
@@ -25807,7 +25804,7 @@
         <v>87</v>
       </c>
       <c r="M236" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="N236" t="s">
         <v>87</v>
@@ -25863,7 +25860,7 @@
         <v>87</v>
       </c>
       <c r="M237" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N237" t="s">
         <v>87</v>
@@ -25911,7 +25908,7 @@
         <v>92</v>
       </c>
       <c r="AC237" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AD237" t="s">
         <v>87</v>
@@ -25941,7 +25938,7 @@
         <v>116</v>
       </c>
       <c r="AM237" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AN237" t="s">
         <v>87</v>
@@ -26057,7 +26054,7 @@
         <v>110</v>
       </c>
       <c r="Q238" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R238" t="s">
         <v>117</v>
@@ -26141,7 +26138,7 @@
         <v>102</v>
       </c>
       <c r="AS238" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AT238" t="s">
         <v>89</v>
@@ -27037,7 +27034,7 @@
         <v>85</v>
       </c>
       <c r="I248" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J248" t="s">
         <v>122</v>
@@ -27126,7 +27123,7 @@
         <v>92</v>
       </c>
       <c r="O249" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P249" t="s">
         <v>117</v>
@@ -27228,7 +27225,7 @@
         <v>102</v>
       </c>
       <c r="AW249" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AX249" t="s">
         <v>92</v>
@@ -27313,7 +27310,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K251" t="s">
         <v>101</v>
@@ -27442,7 +27439,7 @@
         <v>95</v>
       </c>
       <c r="BA251" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="BB251" t="s">
         <v>87</v>
@@ -27572,7 +27569,7 @@
         <v>95</v>
       </c>
       <c r="S253" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="T253" t="s">
         <v>89</v>
@@ -27625,7 +27622,7 @@
         <v>106</v>
       </c>
       <c r="U254" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V254" t="s">
         <v>117</v>
@@ -28065,7 +28062,7 @@
         <v>102</v>
       </c>
       <c r="BC258" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BD258" t="s">
         <v>89</v>
@@ -28083,13 +28080,13 @@
         <v>95</v>
       </c>
       <c r="BI258" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BJ258" t="s">
         <v>89</v>
       </c>
       <c r="BK258" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="BL258" t="s">
         <v>89</v>
@@ -28163,7 +28160,7 @@
         <v>97</v>
       </c>
       <c r="AA259" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AB259" t="s">
         <v>129</v>
@@ -28287,7 +28284,7 @@
         <v>122</v>
       </c>
       <c r="K261" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L261" t="s">
         <v>122</v>
@@ -28869,7 +28866,7 @@
     </row>
     <row r="267" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -29092,7 +29089,7 @@
         <v>89</v>
       </c>
       <c r="O269" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P269" t="s">
         <v>87</v>
@@ -29395,7 +29392,7 @@
         <v>89</v>
       </c>
       <c r="AA272" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AB272" t="s">
         <v>87</v>
@@ -29529,7 +29526,7 @@
         <v>102</v>
       </c>
       <c r="K273" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L273" t="s">
         <v>83</v>
@@ -29754,7 +29751,7 @@
         <v>119</v>
       </c>
       <c r="O276" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P276" t="s">
         <v>117</v>
@@ -29820,7 +29817,7 @@
         <v>117</v>
       </c>
       <c r="AK276" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AL276" t="s">
         <v>110</v>
@@ -30372,7 +30369,7 @@
         <v>119</v>
       </c>
       <c r="O282" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P282" t="s">
         <v>117</v>
@@ -30486,7 +30483,7 @@
         <v>102</v>
       </c>
       <c r="BA282" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="BB282" t="s">
         <v>89</v>
@@ -30667,7 +30664,7 @@
         <v>83</v>
       </c>
       <c r="O284" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P284" t="s">
         <v>97</v>
@@ -30720,7 +30717,7 @@
         <v>92</v>
       </c>
       <c r="K285" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L285" t="s">
         <v>108</v>
@@ -31260,7 +31257,7 @@
         <v>186</v>
       </c>
       <c r="AR288" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AS288" t="s">
         <v>276</v>
@@ -31651,7 +31648,7 @@
         <v>110</v>
       </c>
       <c r="W293" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="X293" t="s">
         <v>110</v>
@@ -31755,7 +31752,7 @@
         <v>87</v>
       </c>
       <c r="AG294" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AH294" t="s">
         <v>110</v>
@@ -32174,7 +32171,7 @@
         <v>127</v>
       </c>
       <c r="K298" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L298" t="s">
         <v>89</v>
@@ -32269,7 +32266,7 @@
         <v>127</v>
       </c>
       <c r="K299" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L299" t="s">
         <v>89</v>
@@ -32385,7 +32382,7 @@
         <v>100</v>
       </c>
       <c r="Q300" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R300" t="s">
         <v>89</v>
@@ -32848,7 +32845,7 @@
         <v>85</v>
       </c>
       <c r="I308" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J308" t="s">
         <v>122</v>
@@ -32958,7 +32955,7 @@
         <v>97</v>
       </c>
       <c r="W309" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X309" t="s">
         <v>129</v>
@@ -33572,7 +33569,7 @@
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B316" t="s">
         <v>129</v>
@@ -33649,7 +33646,7 @@
         <v>85</v>
       </c>
       <c r="I317" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J317" t="s">
         <v>122</v>
@@ -33792,7 +33789,7 @@
         <v>127</v>
       </c>
       <c r="K318" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L318" t="s">
         <v>83</v>
@@ -34163,7 +34160,7 @@
         <v>129</v>
       </c>
       <c r="Y322" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Z322" t="s">
         <v>116</v>
@@ -34398,13 +34395,13 @@
         <v>102</v>
       </c>
       <c r="AI324" t="s">
+        <v>793</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK324" t="s">
         <v>794</v>
-      </c>
-      <c r="AJ324" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK324" t="s">
-        <v>795</v>
       </c>
       <c r="AL324" t="s">
         <v>87</v>
@@ -34698,7 +34695,7 @@
         <v>102</v>
       </c>
       <c r="AI327" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AJ327" t="s">
         <v>89</v>
@@ -34843,7 +34840,7 @@
         <v>97</v>
       </c>
       <c r="U329" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V329" t="s">
         <v>110</v>
@@ -35400,7 +35397,7 @@
         <v>127</v>
       </c>
       <c r="M336" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N336" t="s">
         <v>97</v>
@@ -35519,7 +35516,7 @@
         <v>129</v>
       </c>
       <c r="AA337" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AB337" t="s">
         <v>116</v>
@@ -35623,7 +35620,7 @@
         <v>129</v>
       </c>
       <c r="AA338" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AB338" t="s">
         <v>116</v>
@@ -35789,7 +35786,7 @@
         <v>89</v>
       </c>
       <c r="U340" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V340" t="s">
         <v>87</v>
@@ -35944,7 +35941,7 @@
         <v>85</v>
       </c>
       <c r="I341" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J341" t="s">
         <v>83</v>
@@ -35974,7 +35971,7 @@
         <v>92</v>
       </c>
       <c r="S341" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T341" t="s">
         <v>89</v>
@@ -36060,7 +36057,7 @@
         <v>92</v>
       </c>
       <c r="O342" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P342" t="s">
         <v>89</v>
@@ -36384,7 +36381,7 @@
         <v>89</v>
       </c>
       <c r="W345" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X345" t="s">
         <v>87</v>
@@ -36479,7 +36476,7 @@
         <v>89</v>
       </c>
       <c r="M346" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N346" t="s">
         <v>87</v>
@@ -36571,7 +36568,7 @@
         <v>89</v>
       </c>
       <c r="W347" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X347" t="s">
         <v>87</v>
@@ -36744,7 +36741,7 @@
         <v>89</v>
       </c>
       <c r="Y348" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Z348" t="s">
         <v>87</v>
@@ -36884,7 +36881,7 @@
         <v>89</v>
       </c>
       <c r="W349" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X349" t="s">
         <v>87</v>
@@ -37056,7 +37053,7 @@
         <v>87</v>
       </c>
       <c r="S351" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T351" t="s">
         <v>87</v>
@@ -37148,7 +37145,7 @@
         <v>117</v>
       </c>
       <c r="K352" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L352" t="s">
         <v>89</v>
@@ -37192,7 +37189,7 @@
         <v>85</v>
       </c>
       <c r="I353" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J353" t="s">
         <v>92</v>
@@ -37258,7 +37255,7 @@
         <v>129</v>
       </c>
       <c r="AE353" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF353" t="s">
         <v>87</v>
@@ -37482,7 +37479,7 @@
         <v>110</v>
       </c>
       <c r="Q354" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R354" t="s">
         <v>110</v>
@@ -37608,7 +37605,7 @@
         <v>102</v>
       </c>
       <c r="K357" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L357" t="s">
         <v>97</v>
@@ -37620,7 +37617,7 @@
         <v>102</v>
       </c>
       <c r="O357" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P357" t="s">
         <v>97</v>
@@ -37670,7 +37667,7 @@
         <v>102</v>
       </c>
       <c r="K358" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L358" t="s">
         <v>97</v>
@@ -37682,7 +37679,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37732,7 +37729,7 @@
         <v>102</v>
       </c>
       <c r="K359" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L359" t="s">
         <v>97</v>
@@ -37744,7 +37741,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37794,7 +37791,7 @@
         <v>102</v>
       </c>
       <c r="K360" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L360" t="s">
         <v>97</v>
@@ -37806,7 +37803,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -37936,7 +37933,7 @@
         <v>122</v>
       </c>
       <c r="K362" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L362" t="s">
         <v>92</v>
@@ -38068,7 +38065,7 @@
         <v>87</v>
       </c>
       <c r="BC362" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="BD362" t="s">
         <v>129</v>
@@ -38225,7 +38222,7 @@
         <v>84</v>
       </c>
       <c r="U364" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V364" t="s">
         <v>87</v>
@@ -38567,7 +38564,7 @@
         <v>122</v>
       </c>
       <c r="M367" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N367" t="s">
         <v>122</v>
@@ -38867,13 +38864,13 @@
         <v>106</v>
       </c>
       <c r="K370" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L370" t="s">
         <v>87</v>
       </c>
       <c r="M370" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="N370" t="s">
         <v>89</v>
@@ -39878,7 +39875,7 @@
         <v>108</v>
       </c>
       <c r="Q379" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R379" t="s">
         <v>110</v>
@@ -40203,7 +40200,7 @@
         <v>87</v>
       </c>
       <c r="K384" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L384" t="s">
         <v>100</v>
@@ -40753,31 +40750,31 @@
         <v>85</v>
       </c>
       <c r="I389" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J389" t="s">
         <v>116</v>
       </c>
       <c r="K389" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L389" t="s">
         <v>83</v>
       </c>
       <c r="M389" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N389" t="s">
         <v>116</v>
       </c>
       <c r="O389" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P389" t="s">
         <v>106</v>
       </c>
       <c r="Q389" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R389" t="s">
         <v>83</v>
@@ -40881,7 +40878,7 @@
         <v>117</v>
       </c>
       <c r="Y390" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Z390" t="s">
         <v>117</v>
@@ -40964,7 +40961,7 @@
         <v>89</v>
       </c>
       <c r="AC391" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AD391" t="s">
         <v>87</v>
@@ -41158,7 +41155,7 @@
         <v>85</v>
       </c>
       <c r="I392" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J392" t="s">
         <v>117</v>
@@ -41243,6 +41240,174 @@
       <c r="E393" t="s">
         <v>85</v>
       </c>
+      <c r="I393" t="s">
+        <v>101</v>
+      </c>
+      <c r="J393" t="s">
+        <v>102</v>
+      </c>
+      <c r="K393" t="s">
+        <v>124</v>
+      </c>
+      <c r="L393" t="s">
+        <v>87</v>
+      </c>
+      <c r="M393" t="s">
+        <v>185</v>
+      </c>
+      <c r="N393" t="s">
+        <v>83</v>
+      </c>
+      <c r="O393" t="s">
+        <v>91</v>
+      </c>
+      <c r="P393" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>88</v>
+      </c>
+      <c r="R393" t="s">
+        <v>89</v>
+      </c>
+      <c r="S393" t="s">
+        <v>175</v>
+      </c>
+      <c r="T393" t="s">
+        <v>102</v>
+      </c>
+      <c r="U393" t="s">
+        <v>155</v>
+      </c>
+      <c r="V393" t="s">
+        <v>117</v>
+      </c>
+      <c r="W393" t="s">
+        <v>156</v>
+      </c>
+      <c r="X393" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC393" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI393" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK393" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL393" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM393" t="s">
+        <v>749</v>
+      </c>
+      <c r="AN393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO393" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP393" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ393" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR393" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS393" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT393" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU393" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV393" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW393" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX393" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY393" t="s">
+        <v>757</v>
+      </c>
+      <c r="AZ393" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA393" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB393" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC393" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD393" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE393" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF393" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG393" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH393" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI393" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ393" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK393" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL393" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="394" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
@@ -41260,6 +41425,150 @@
       <c r="G394" t="s">
         <v>148</v>
       </c>
+      <c r="I394" t="s">
+        <v>101</v>
+      </c>
+      <c r="J394" t="s">
+        <v>102</v>
+      </c>
+      <c r="K394" t="s">
+        <v>124</v>
+      </c>
+      <c r="L394" t="s">
+        <v>87</v>
+      </c>
+      <c r="M394" t="s">
+        <v>185</v>
+      </c>
+      <c r="N394" t="s">
+        <v>83</v>
+      </c>
+      <c r="O394" t="s">
+        <v>297</v>
+      </c>
+      <c r="P394" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>190</v>
+      </c>
+      <c r="R394" t="s">
+        <v>119</v>
+      </c>
+      <c r="S394" t="s">
+        <v>88</v>
+      </c>
+      <c r="T394" t="s">
+        <v>89</v>
+      </c>
+      <c r="U394" t="s">
+        <v>91</v>
+      </c>
+      <c r="V394" t="s">
+        <v>92</v>
+      </c>
+      <c r="W394" t="s">
+        <v>159</v>
+      </c>
+      <c r="X394" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC394" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI394" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ394" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK394" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL394" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM394" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN394" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO394" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP394" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ394" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR394" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS394" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT394" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU394" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV394" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW394" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX394" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY394" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ394" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA394" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB394" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC394" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD394" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="395" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
@@ -41271,6 +41580,42 @@
       <c r="E395" t="s">
         <v>85</v>
       </c>
+      <c r="I395" t="s">
+        <v>125</v>
+      </c>
+      <c r="J395" t="s">
+        <v>83</v>
+      </c>
+      <c r="K395" t="s">
+        <v>155</v>
+      </c>
+      <c r="L395" t="s">
+        <v>117</v>
+      </c>
+      <c r="M395" t="s">
+        <v>110</v>
+      </c>
+      <c r="N395" t="s">
+        <v>110</v>
+      </c>
+      <c r="O395" t="s">
+        <v>157</v>
+      </c>
+      <c r="P395" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>118</v>
+      </c>
+      <c r="R395" t="s">
+        <v>119</v>
+      </c>
+      <c r="S395" t="s">
+        <v>132</v>
+      </c>
+      <c r="T395" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="396" spans="1:88" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
@@ -41288,7 +41633,10 @@
         <v>645</v>
       </c>
       <c r="B397" t="s">
-        <v>173</v>
+        <v>95</v>
+      </c>
+      <c r="C397" t="s">
+        <v>110</v>
       </c>
       <c r="E397" t="s">
         <v>85</v>
@@ -41299,10 +41647,7 @@
         <v>646</v>
       </c>
       <c r="B398" t="s">
-        <v>95</v>
-      </c>
-      <c r="C398" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E398" t="s">
         <v>85</v>
@@ -41313,7 +41658,7 @@
         <v>647</v>
       </c>
       <c r="B399" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E399" t="s">
         <v>85</v>
@@ -41324,7 +41669,10 @@
         <v>648</v>
       </c>
       <c r="B400" t="s">
-        <v>173</v>
+        <v>97</v>
+      </c>
+      <c r="C400" t="s">
+        <v>102</v>
       </c>
       <c r="E400" t="s">
         <v>85</v>
@@ -41335,10 +41683,10 @@
         <v>649</v>
       </c>
       <c r="B401" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C401" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E401" t="s">
         <v>85</v>
@@ -41349,10 +41697,10 @@
         <v>650</v>
       </c>
       <c r="B402" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C402" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E402" t="s">
         <v>85</v>
@@ -41363,10 +41711,10 @@
         <v>651</v>
       </c>
       <c r="B403" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C403" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E403" t="s">
         <v>85</v>
@@ -41377,10 +41725,10 @@
         <v>652</v>
       </c>
       <c r="B404" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C404" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E404" t="s">
         <v>85</v>
@@ -41391,10 +41739,10 @@
         <v>653</v>
       </c>
       <c r="B405" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C405" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E405" t="s">
         <v>85</v>
@@ -41405,10 +41753,7 @@
         <v>654</v>
       </c>
       <c r="B406" t="s">
-        <v>92</v>
-      </c>
-      <c r="C406" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E406" t="s">
         <v>85</v>
@@ -41419,7 +41764,7 @@
         <v>655</v>
       </c>
       <c r="B407" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E407" t="s">
         <v>85</v>
@@ -41430,7 +41775,10 @@
         <v>656</v>
       </c>
       <c r="B408" t="s">
-        <v>173</v>
+        <v>89</v>
+      </c>
+      <c r="C408" t="s">
+        <v>119</v>
       </c>
       <c r="E408" t="s">
         <v>85</v>
@@ -41444,7 +41792,7 @@
         <v>89</v>
       </c>
       <c r="C409" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E409" t="s">
         <v>85</v>
@@ -41455,10 +41803,7 @@
         <v>658</v>
       </c>
       <c r="B410" t="s">
-        <v>89</v>
-      </c>
-      <c r="C410" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E410" t="s">
         <v>85</v>
@@ -41469,7 +41814,7 @@
         <v>659</v>
       </c>
       <c r="B411" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E411" t="s">
         <v>85</v>
@@ -41480,7 +41825,7 @@
         <v>660</v>
       </c>
       <c r="B412" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E412" t="s">
         <v>85</v>
@@ -41491,7 +41836,7 @@
         <v>661</v>
       </c>
       <c r="B413" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E413" t="s">
         <v>85</v>
@@ -41502,7 +41847,10 @@
         <v>662</v>
       </c>
       <c r="B414" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="C414" t="s">
+        <v>89</v>
       </c>
       <c r="E414" t="s">
         <v>85</v>
@@ -41516,7 +41864,7 @@
         <v>129</v>
       </c>
       <c r="C415" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E415" t="s">
         <v>85</v>
@@ -41527,7 +41875,7 @@
         <v>664</v>
       </c>
       <c r="B416" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C416" t="s">
         <v>116</v>
@@ -41541,7 +41889,7 @@
         <v>665</v>
       </c>
       <c r="B417" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="C417" t="s">
         <v>116</v>
@@ -41555,10 +41903,7 @@
         <v>666</v>
       </c>
       <c r="B418" t="s">
-        <v>110</v>
-      </c>
-      <c r="C418" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E418" t="s">
         <v>85</v>
@@ -41569,7 +41914,10 @@
         <v>667</v>
       </c>
       <c r="B419" t="s">
-        <v>108</v>
+        <v>117</v>
+      </c>
+      <c r="C419" t="s">
+        <v>116</v>
       </c>
       <c r="E419" t="s">
         <v>85</v>
@@ -41580,10 +41928,7 @@
         <v>668</v>
       </c>
       <c r="B420" t="s">
-        <v>117</v>
-      </c>
-      <c r="C420" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E420" t="s">
         <v>85</v>
@@ -41596,6 +41941,9 @@
       <c r="B421" t="s">
         <v>83</v>
       </c>
+      <c r="C421" t="s">
+        <v>108</v>
+      </c>
       <c r="E421" t="s">
         <v>85</v>
       </c>
@@ -41605,10 +41953,10 @@
         <v>670</v>
       </c>
       <c r="B422" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C422" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E422" t="s">
         <v>85</v>
@@ -41619,10 +41967,7 @@
         <v>671</v>
       </c>
       <c r="B423" t="s">
-        <v>100</v>
-      </c>
-      <c r="C423" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E423" t="s">
         <v>85</v>
@@ -41633,7 +41978,10 @@
         <v>672</v>
       </c>
       <c r="B424" t="s">
-        <v>173</v>
+        <v>87</v>
+      </c>
+      <c r="C424" t="s">
+        <v>129</v>
       </c>
       <c r="E424" t="s">
         <v>85</v>
@@ -41647,7 +41995,7 @@
         <v>87</v>
       </c>
       <c r="C425" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E425" t="s">
         <v>85</v>
@@ -41660,9 +42008,6 @@
       <c r="B426" t="s">
         <v>87</v>
       </c>
-      <c r="C426" t="s">
-        <v>117</v>
-      </c>
       <c r="E426" t="s">
         <v>85</v>
       </c>
@@ -41672,7 +42017,10 @@
         <v>675</v>
       </c>
       <c r="B427" t="s">
-        <v>87</v>
+        <v>129</v>
+      </c>
+      <c r="C427" t="s">
+        <v>127</v>
       </c>
       <c r="E427" t="s">
         <v>85</v>
@@ -41683,10 +42031,7 @@
         <v>676</v>
       </c>
       <c r="B428" t="s">
-        <v>129</v>
-      </c>
-      <c r="C428" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E428" t="s">
         <v>85</v>
@@ -41697,7 +42042,7 @@
         <v>677</v>
       </c>
       <c r="B429" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E429" t="s">
         <v>85</v>
@@ -41708,7 +42053,10 @@
         <v>678</v>
       </c>
       <c r="B430" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C430" t="s">
+        <v>116</v>
       </c>
       <c r="E430" t="s">
         <v>85</v>
@@ -41719,10 +42067,10 @@
         <v>679</v>
       </c>
       <c r="B431" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C431" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E431" t="s">
         <v>85</v>
@@ -41733,10 +42081,10 @@
         <v>680</v>
       </c>
       <c r="B432" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C432" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E432" t="s">
         <v>85</v>
@@ -41747,10 +42095,10 @@
         <v>681</v>
       </c>
       <c r="B433" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C433" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E433" t="s">
         <v>85</v>
@@ -41761,10 +42109,10 @@
         <v>682</v>
       </c>
       <c r="B434" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C434" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E434" t="s">
         <v>85</v>
@@ -41775,10 +42123,7 @@
         <v>683</v>
       </c>
       <c r="B435" t="s">
-        <v>108</v>
-      </c>
-      <c r="C435" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E435" t="s">
         <v>85</v>
@@ -41789,7 +42134,7 @@
         <v>684</v>
       </c>
       <c r="B436" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E436" t="s">
         <v>85</v>
@@ -41800,10 +42145,16 @@
         <v>685</v>
       </c>
       <c r="B437" t="s">
-        <v>116</v>
+        <v>83</v>
+      </c>
+      <c r="C437" t="s">
+        <v>89</v>
       </c>
       <c r="E437" t="s">
         <v>85</v>
+      </c>
+      <c r="F437" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
@@ -41811,16 +42162,13 @@
         <v>686</v>
       </c>
       <c r="B438" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="C438" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E438" t="s">
         <v>85</v>
-      </c>
-      <c r="F438" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
@@ -41828,13 +42176,16 @@
         <v>687</v>
       </c>
       <c r="B439" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C439" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E439" t="s">
         <v>85</v>
+      </c>
+      <c r="G439" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
@@ -41842,16 +42193,13 @@
         <v>688</v>
       </c>
       <c r="B440" t="s">
+        <v>119</v>
+      </c>
+      <c r="C440" t="s">
         <v>127</v>
       </c>
-      <c r="C440" t="s">
-        <v>87</v>
-      </c>
       <c r="E440" t="s">
         <v>85</v>
-      </c>
-      <c r="G440" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
@@ -41859,10 +42207,10 @@
         <v>689</v>
       </c>
       <c r="B441" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C441" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="E441" t="s">
         <v>85</v>
@@ -41873,10 +42221,10 @@
         <v>690</v>
       </c>
       <c r="B442" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C442" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E442" t="s">
         <v>85</v>
@@ -41889,11 +42237,11 @@
       <c r="B443" t="s">
         <v>83</v>
       </c>
-      <c r="C443" t="s">
-        <v>116</v>
-      </c>
       <c r="E443" t="s">
         <v>85</v>
+      </c>
+      <c r="G443" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
@@ -41901,13 +42249,13 @@
         <v>692</v>
       </c>
       <c r="B444" t="s">
-        <v>83</v>
+        <v>117</v>
+      </c>
+      <c r="C444" t="s">
+        <v>100</v>
       </c>
       <c r="E444" t="s">
         <v>85</v>
-      </c>
-      <c r="G444" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
@@ -41917,9 +42265,6 @@
       <c r="B445" t="s">
         <v>117</v>
       </c>
-      <c r="C445" t="s">
-        <v>100</v>
-      </c>
       <c r="E445" t="s">
         <v>85</v>
       </c>
@@ -41931,6 +42276,9 @@
       <c r="B446" t="s">
         <v>117</v>
       </c>
+      <c r="C446" t="s">
+        <v>97</v>
+      </c>
       <c r="E446" t="s">
         <v>85</v>
       </c>
@@ -41940,10 +42288,10 @@
         <v>695</v>
       </c>
       <c r="B447" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C447" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E447" t="s">
         <v>85</v>
@@ -41957,7 +42305,7 @@
         <v>95</v>
       </c>
       <c r="C448" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E448" t="s">
         <v>85</v>
@@ -41968,10 +42316,7 @@
         <v>697</v>
       </c>
       <c r="B449" t="s">
-        <v>95</v>
-      </c>
-      <c r="C449" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E449" t="s">
         <v>85</v>
@@ -41982,7 +42327,10 @@
         <v>698</v>
       </c>
       <c r="B450" t="s">
-        <v>102</v>
+        <v>173</v>
+      </c>
+      <c r="C450" t="s">
+        <v>116</v>
       </c>
       <c r="E450" t="s">
         <v>85</v>
@@ -41993,10 +42341,7 @@
         <v>699</v>
       </c>
       <c r="B451" t="s">
-        <v>173</v>
-      </c>
-      <c r="C451" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E451" t="s">
         <v>85</v>
@@ -42018,10 +42363,16 @@
         <v>701</v>
       </c>
       <c r="B453" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E453" t="s">
         <v>85</v>
+      </c>
+      <c r="I453" t="s">
+        <v>222</v>
+      </c>
+      <c r="J453" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.35">
@@ -42029,16 +42380,13 @@
         <v>702</v>
       </c>
       <c r="B454" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="E454" t="s">
         <v>85</v>
       </c>
-      <c r="I454" t="s">
-        <v>222</v>
-      </c>
-      <c r="J454" t="s">
-        <v>119</v>
+      <c r="G454" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.35">
@@ -42048,10 +42396,13 @@
       <c r="B455" t="s">
         <v>129</v>
       </c>
+      <c r="C455" t="s">
+        <v>110</v>
+      </c>
       <c r="E455" t="s">
         <v>85</v>
       </c>
-      <c r="G455" t="s">
+      <c r="F455" t="s">
         <v>148</v>
       </c>
     </row>
@@ -42060,16 +42411,13 @@
         <v>704</v>
       </c>
       <c r="B456" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C456" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E456" t="s">
         <v>85</v>
-      </c>
-      <c r="F456" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.35">
@@ -42077,7 +42425,7 @@
         <v>705</v>
       </c>
       <c r="B457" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C457" t="s">
         <v>127</v>
@@ -42091,10 +42439,10 @@
         <v>706</v>
       </c>
       <c r="B458" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C458" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E458" t="s">
         <v>85</v>
@@ -42105,10 +42453,10 @@
         <v>707</v>
       </c>
       <c r="B459" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C459" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E459" t="s">
         <v>85</v>
@@ -42119,10 +42467,10 @@
         <v>708</v>
       </c>
       <c r="B460" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C460" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E460" t="s">
         <v>85</v>
@@ -42133,10 +42481,10 @@
         <v>709</v>
       </c>
       <c r="B461" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C461" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E461" t="s">
         <v>85</v>
@@ -42150,7 +42498,7 @@
         <v>83</v>
       </c>
       <c r="C462" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E462" t="s">
         <v>85</v>
@@ -42161,10 +42509,10 @@
         <v>711</v>
       </c>
       <c r="B463" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C463" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E463" t="s">
         <v>85</v>
@@ -42177,9 +42525,6 @@
       <c r="B464" t="s">
         <v>106</v>
       </c>
-      <c r="C464" t="s">
-        <v>116</v>
-      </c>
       <c r="E464" t="s">
         <v>85</v>
       </c>
@@ -42189,7 +42534,10 @@
         <v>713</v>
       </c>
       <c r="B465" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="C465" t="s">
+        <v>129</v>
       </c>
       <c r="E465" t="s">
         <v>85</v>
@@ -42200,9 +42548,6 @@
         <v>714</v>
       </c>
       <c r="B466" t="s">
-        <v>117</v>
-      </c>
-      <c r="C466" t="s">
         <v>129</v>
       </c>
       <c r="E466" t="s">
@@ -42214,6 +42559,9 @@
         <v>715</v>
       </c>
       <c r="B467" t="s">
+        <v>84</v>
+      </c>
+      <c r="C467" t="s">
         <v>129</v>
       </c>
       <c r="E467" t="s">
@@ -42225,10 +42573,7 @@
         <v>716</v>
       </c>
       <c r="B468" t="s">
-        <v>84</v>
-      </c>
-      <c r="C468" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E468" t="s">
         <v>85</v>
@@ -42239,10 +42584,13 @@
         <v>717</v>
       </c>
       <c r="B469" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E469" t="s">
         <v>85</v>
+      </c>
+      <c r="G469" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
@@ -42252,11 +42600,11 @@
       <c r="B470" t="s">
         <v>127</v>
       </c>
+      <c r="C470" t="s">
+        <v>108</v>
+      </c>
       <c r="E470" t="s">
         <v>85</v>
-      </c>
-      <c r="G470" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
@@ -42264,7 +42612,7 @@
         <v>719</v>
       </c>
       <c r="B471" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C471" t="s">
         <v>108</v>
@@ -42278,10 +42626,10 @@
         <v>720</v>
       </c>
       <c r="B472" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C472" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E472" t="s">
         <v>85</v>
@@ -42292,10 +42640,10 @@
         <v>721</v>
       </c>
       <c r="B473" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C473" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E473" t="s">
         <v>85</v>
@@ -42306,10 +42654,7 @@
         <v>722</v>
       </c>
       <c r="B474" t="s">
-        <v>173</v>
-      </c>
-      <c r="C474" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E474" t="s">
         <v>85</v>
@@ -42320,7 +42665,7 @@
         <v>723</v>
       </c>
       <c r="B475" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E475" t="s">
         <v>85</v>
@@ -42331,7 +42676,10 @@
         <v>724</v>
       </c>
       <c r="B476" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="C476" t="s">
+        <v>83</v>
       </c>
       <c r="E476" t="s">
         <v>85</v>
@@ -42342,7 +42690,7 @@
         <v>725</v>
       </c>
       <c r="B477" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C477" t="s">
         <v>83</v>
@@ -42359,7 +42707,7 @@
         <v>106</v>
       </c>
       <c r="C478" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E478" t="s">
         <v>85</v>
@@ -42373,7 +42721,7 @@
         <v>106</v>
       </c>
       <c r="C479" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E479" t="s">
         <v>85</v>
@@ -42384,10 +42732,7 @@
         <v>728</v>
       </c>
       <c r="B480" t="s">
-        <v>106</v>
-      </c>
-      <c r="C480" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E480" t="s">
         <v>85</v>
@@ -42398,10 +42743,16 @@
         <v>729</v>
       </c>
       <c r="B481" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="C481" t="s">
+        <v>110</v>
       </c>
       <c r="E481" t="s">
         <v>85</v>
+      </c>
+      <c r="G481" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
@@ -42409,16 +42760,13 @@
         <v>730</v>
       </c>
       <c r="B482" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="C482" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E482" t="s">
         <v>85</v>
-      </c>
-      <c r="G482" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
@@ -42426,7 +42774,7 @@
         <v>731</v>
       </c>
       <c r="B483" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C483" t="s">
         <v>116</v>
@@ -42440,10 +42788,7 @@
         <v>732</v>
       </c>
       <c r="B484" t="s">
-        <v>106</v>
-      </c>
-      <c r="C484" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E484" t="s">
         <v>85</v>
@@ -42454,7 +42799,10 @@
         <v>733</v>
       </c>
       <c r="B485" t="s">
-        <v>173</v>
+        <v>102</v>
+      </c>
+      <c r="C485" t="s">
+        <v>83</v>
       </c>
       <c r="E485" t="s">
         <v>85</v>
@@ -42465,10 +42813,7 @@
         <v>734</v>
       </c>
       <c r="B486" t="s">
-        <v>102</v>
-      </c>
-      <c r="C486" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E486" t="s">
         <v>85</v>
@@ -42490,7 +42835,7 @@
         <v>736</v>
       </c>
       <c r="B488" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E488" t="s">
         <v>85</v>
@@ -42501,26 +42846,15 @@
         <v>737</v>
       </c>
       <c r="B489" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C489" t="s">
+        <v>89</v>
       </c>
       <c r="E489" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A490" t="s">
-        <v>738</v>
-      </c>
-      <c r="B490" t="s">
-        <v>100</v>
-      </c>
-      <c r="C490" t="s">
-        <v>89</v>
-      </c>
-      <c r="E490" t="s">
-        <v>85</v>
-      </c>
-      <c r="G490" t="s">
+      <c r="G489" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D3FB8-0800-455C-9259-021903FBA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233B930-A84F-4AE0-A653-94AC2DDB282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13016" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13198" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>Flare Blitz</t>
+  </si>
+  <si>
+    <t>Body Pres</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396:XFD396"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40338,7 +40341,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>633</v>
       </c>
@@ -40469,7 +40472,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>634</v>
       </c>
@@ -40582,7 +40585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="387" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>635</v>
       </c>
@@ -40713,7 +40716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="388" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>636</v>
       </c>
@@ -40739,7 +40742,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="389" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>637</v>
       </c>
@@ -40815,8 +40818,14 @@
       <c r="AD389" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="390" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="AE389" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF389" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="390" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>638</v>
       </c>
@@ -40890,7 +40899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="391" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>639</v>
       </c>
@@ -41140,8 +41149,14 @@
       <c r="CJ391" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="392" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="CK391" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL391" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="392" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>640</v>
       </c>
@@ -41227,7 +41242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="393" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>641</v>
       </c>
@@ -41409,7 +41424,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="394" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>642</v>
       </c>
@@ -41569,8 +41584,14 @@
       <c r="BD394" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="395" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="BE394" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF394" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="395" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>643</v>
       </c>
@@ -41617,7 +41638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="396" spans="1:88" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>644</v>
       </c>
@@ -41627,8 +41648,248 @@
       <c r="E396" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="397" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="I396" t="s">
+        <v>263</v>
+      </c>
+      <c r="J396" t="s">
+        <v>92</v>
+      </c>
+      <c r="K396" t="s">
+        <v>101</v>
+      </c>
+      <c r="L396" t="s">
+        <v>102</v>
+      </c>
+      <c r="M396" t="s">
+        <v>124</v>
+      </c>
+      <c r="N396" t="s">
+        <v>87</v>
+      </c>
+      <c r="O396" t="s">
+        <v>176</v>
+      </c>
+      <c r="P396" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>334</v>
+      </c>
+      <c r="R396" t="s">
+        <v>117</v>
+      </c>
+      <c r="S396" t="s">
+        <v>201</v>
+      </c>
+      <c r="T396" t="s">
+        <v>92</v>
+      </c>
+      <c r="U396" t="s">
+        <v>99</v>
+      </c>
+      <c r="V396" t="s">
+        <v>100</v>
+      </c>
+      <c r="W396" t="s">
+        <v>152</v>
+      </c>
+      <c r="X396" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y396" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC396" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD396" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE396" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF396" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH396" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI396" t="s">
+        <v>741</v>
+      </c>
+      <c r="AJ396" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK396" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL396" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM396" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN396" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO396" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP396" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ396" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR396" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS396" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT396" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU396" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV396" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW396" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX396" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY396" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ396" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA396" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB396" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC396" t="s">
+        <v>809</v>
+      </c>
+      <c r="BD396" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE396" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF396" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG396" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH396" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI396" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ396" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK396" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL396" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM396" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN396" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO396" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP396" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ396" t="s">
+        <v>276</v>
+      </c>
+      <c r="BR396" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS396" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT396" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU396" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV396" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW396" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX396" t="s">
+        <v>84</v>
+      </c>
+      <c r="BY396" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ396" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA396" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB396" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC396" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD396" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE396" t="s">
+        <v>210</v>
+      </c>
+      <c r="CF396" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG396" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH396" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI396" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ396" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="397" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>645</v>
       </c>
@@ -41641,8 +41902,80 @@
       <c r="E397" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="398" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="I397" t="s">
+        <v>199</v>
+      </c>
+      <c r="J397" t="s">
+        <v>92</v>
+      </c>
+      <c r="K397" t="s">
+        <v>348</v>
+      </c>
+      <c r="L397" t="s">
+        <v>117</v>
+      </c>
+      <c r="M397" t="s">
+        <v>808</v>
+      </c>
+      <c r="N397" t="s">
+        <v>117</v>
+      </c>
+      <c r="O397" t="s">
+        <v>185</v>
+      </c>
+      <c r="P397" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>166</v>
+      </c>
+      <c r="R397" t="s">
+        <v>83</v>
+      </c>
+      <c r="S397" t="s">
+        <v>155</v>
+      </c>
+      <c r="T397" t="s">
+        <v>117</v>
+      </c>
+      <c r="U397" t="s">
+        <v>88</v>
+      </c>
+      <c r="V397" t="s">
+        <v>89</v>
+      </c>
+      <c r="W397" t="s">
+        <v>141</v>
+      </c>
+      <c r="X397" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>646</v>
       </c>
@@ -41652,8 +41985,80 @@
       <c r="E398" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="399" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="I398" t="s">
+        <v>101</v>
+      </c>
+      <c r="J398" t="s">
+        <v>102</v>
+      </c>
+      <c r="K398" t="s">
+        <v>133</v>
+      </c>
+      <c r="L398" t="s">
+        <v>87</v>
+      </c>
+      <c r="M398" t="s">
+        <v>121</v>
+      </c>
+      <c r="N398" t="s">
+        <v>122</v>
+      </c>
+      <c r="O398" t="s">
+        <v>93</v>
+      </c>
+      <c r="P398" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>203</v>
+      </c>
+      <c r="R398" t="s">
+        <v>127</v>
+      </c>
+      <c r="S398" t="s">
+        <v>186</v>
+      </c>
+      <c r="T398" t="s">
+        <v>102</v>
+      </c>
+      <c r="U398" t="s">
+        <v>86</v>
+      </c>
+      <c r="V398" t="s">
+        <v>87</v>
+      </c>
+      <c r="W398" t="s">
+        <v>111</v>
+      </c>
+      <c r="X398" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC398" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="399" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>647</v>
       </c>
@@ -41663,8 +42068,128 @@
       <c r="E399" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="400" spans="1:88" x14ac:dyDescent="0.35">
+      <c r="I399" t="s">
+        <v>121</v>
+      </c>
+      <c r="J399" t="s">
+        <v>122</v>
+      </c>
+      <c r="K399" t="s">
+        <v>101</v>
+      </c>
+      <c r="L399" t="s">
+        <v>102</v>
+      </c>
+      <c r="M399" t="s">
+        <v>93</v>
+      </c>
+      <c r="N399" t="s">
+        <v>87</v>
+      </c>
+      <c r="O399" t="s">
+        <v>101</v>
+      </c>
+      <c r="P399" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>152</v>
+      </c>
+      <c r="R399" t="s">
+        <v>87</v>
+      </c>
+      <c r="S399" t="s">
+        <v>159</v>
+      </c>
+      <c r="T399" t="s">
+        <v>87</v>
+      </c>
+      <c r="U399" t="s">
+        <v>110</v>
+      </c>
+      <c r="V399" t="s">
+        <v>110</v>
+      </c>
+      <c r="W399" t="s">
+        <v>214</v>
+      </c>
+      <c r="X399" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y399" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC399" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD399" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF399" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH399" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI399" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ399" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK399" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL399" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM399" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN399" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO399" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP399" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR399" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS399" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT399" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU399" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV399" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="400" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>648</v>
       </c>
@@ -41676,6 +42201,30 @@
       </c>
       <c r="E400" t="s">
         <v>85</v>
+      </c>
+      <c r="I400" t="s">
+        <v>164</v>
+      </c>
+      <c r="J400" t="s">
+        <v>110</v>
+      </c>
+      <c r="K400" t="s">
+        <v>251</v>
+      </c>
+      <c r="L400" t="s">
+        <v>117</v>
+      </c>
+      <c r="M400" t="s">
+        <v>210</v>
+      </c>
+      <c r="N400" t="s">
+        <v>95</v>
+      </c>
+      <c r="O400" t="s">
+        <v>165</v>
+      </c>
+      <c r="P400" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233B930-A84F-4AE0-A653-94AC2DDB282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CF417-620A-4AC2-84E5-154ADECDE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13198" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13288" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView tabSelected="1" topLeftCell="J390" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J406" sqref="J406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42227,7 +42227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>649</v>
       </c>
@@ -42240,8 +42240,38 @@
       <c r="E401" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I401" t="s">
+        <v>133</v>
+      </c>
+      <c r="J401" t="s">
+        <v>87</v>
+      </c>
+      <c r="K401" t="s">
+        <v>175</v>
+      </c>
+      <c r="L401" t="s">
+        <v>102</v>
+      </c>
+      <c r="M401" t="s">
+        <v>219</v>
+      </c>
+      <c r="N401" t="s">
+        <v>117</v>
+      </c>
+      <c r="O401" t="s">
+        <v>220</v>
+      </c>
+      <c r="P401" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>179</v>
+      </c>
+      <c r="R401" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="402" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>650</v>
       </c>
@@ -42254,8 +42284,44 @@
       <c r="E402" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I402" t="s">
+        <v>334</v>
+      </c>
+      <c r="J402" t="s">
+        <v>117</v>
+      </c>
+      <c r="K402" t="s">
+        <v>152</v>
+      </c>
+      <c r="L402" t="s">
+        <v>87</v>
+      </c>
+      <c r="M402" t="s">
+        <v>88</v>
+      </c>
+      <c r="N402" t="s">
+        <v>89</v>
+      </c>
+      <c r="O402" t="s">
+        <v>98</v>
+      </c>
+      <c r="P402" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>806</v>
+      </c>
+      <c r="R402" t="s">
+        <v>110</v>
+      </c>
+      <c r="S402" t="s">
+        <v>145</v>
+      </c>
+      <c r="T402" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="403" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>651</v>
       </c>
@@ -42268,8 +42334,44 @@
       <c r="E403" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I403" t="s">
+        <v>104</v>
+      </c>
+      <c r="J403" t="s">
+        <v>87</v>
+      </c>
+      <c r="K403" t="s">
+        <v>219</v>
+      </c>
+      <c r="L403" t="s">
+        <v>117</v>
+      </c>
+      <c r="M403" t="s">
+        <v>170</v>
+      </c>
+      <c r="N403" t="s">
+        <v>92</v>
+      </c>
+      <c r="O403" t="s">
+        <v>179</v>
+      </c>
+      <c r="P403" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>188</v>
+      </c>
+      <c r="R403" t="s">
+        <v>87</v>
+      </c>
+      <c r="S403" t="s">
+        <v>131</v>
+      </c>
+      <c r="T403" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="404" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>652</v>
       </c>
@@ -42282,8 +42384,74 @@
       <c r="E404" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I404" t="s">
+        <v>199</v>
+      </c>
+      <c r="J404" t="s">
+        <v>92</v>
+      </c>
+      <c r="K404" t="s">
+        <v>185</v>
+      </c>
+      <c r="L404" t="s">
+        <v>83</v>
+      </c>
+      <c r="M404" t="s">
+        <v>195</v>
+      </c>
+      <c r="N404" t="s">
+        <v>95</v>
+      </c>
+      <c r="O404" t="s">
+        <v>190</v>
+      </c>
+      <c r="P404" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>156</v>
+      </c>
+      <c r="R404" t="s">
+        <v>84</v>
+      </c>
+      <c r="S404" t="s">
+        <v>118</v>
+      </c>
+      <c r="T404" t="s">
+        <v>119</v>
+      </c>
+      <c r="U404" t="s">
+        <v>171</v>
+      </c>
+      <c r="V404" t="s">
+        <v>108</v>
+      </c>
+      <c r="W404" t="s">
+        <v>236</v>
+      </c>
+      <c r="X404" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD404" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="405" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>653</v>
       </c>
@@ -42296,8 +42464,110 @@
       <c r="E405" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I405" t="s">
+        <v>258</v>
+      </c>
+      <c r="J405" t="s">
+        <v>95</v>
+      </c>
+      <c r="K405" t="s">
+        <v>195</v>
+      </c>
+      <c r="L405" t="s">
+        <v>95</v>
+      </c>
+      <c r="M405" t="s">
+        <v>112</v>
+      </c>
+      <c r="N405" t="s">
+        <v>95</v>
+      </c>
+      <c r="O405" t="s">
+        <v>136</v>
+      </c>
+      <c r="P405" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>144</v>
+      </c>
+      <c r="R405" t="s">
+        <v>100</v>
+      </c>
+      <c r="S405" t="s">
+        <v>142</v>
+      </c>
+      <c r="T405" t="s">
+        <v>110</v>
+      </c>
+      <c r="U405" t="s">
+        <v>98</v>
+      </c>
+      <c r="V405" t="s">
+        <v>87</v>
+      </c>
+      <c r="W405" t="s">
+        <v>137</v>
+      </c>
+      <c r="X405" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y405" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD405" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE405" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF405" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH405" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI405" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ405" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK405" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL405" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM405" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN405" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO405" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP405" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="406" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>654</v>
       </c>
@@ -42308,7 +42578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>655</v>
       </c>
@@ -42319,7 +42589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>656</v>
       </c>
@@ -42333,7 +42603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>657</v>
       </c>
@@ -42347,7 +42617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>658</v>
       </c>
@@ -42358,7 +42628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>659</v>
       </c>
@@ -42369,7 +42639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>660</v>
       </c>
@@ -42380,7 +42650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>661</v>
       </c>
@@ -42391,7 +42661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>662</v>
       </c>
@@ -42405,7 +42675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>663</v>
       </c>
@@ -42419,7 +42689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>664</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CF417-620A-4AC2-84E5-154ADECDE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7217F-319E-43DF-B248-8F2798369228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13288" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13448" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J390" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J406" sqref="J406"/>
+    <sheetView tabSelected="1" topLeftCell="AO241" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AR254" sqref="AR254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42227,7 +42227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>649</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>650</v>
       </c>
@@ -42321,7 +42321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>651</v>
       </c>
@@ -42371,7 +42371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>652</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>653</v>
       </c>
@@ -42567,7 +42567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>654</v>
       </c>
@@ -42577,8 +42577,68 @@
       <c r="E406" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I406" t="s">
+        <v>263</v>
+      </c>
+      <c r="J406" t="s">
+        <v>92</v>
+      </c>
+      <c r="K406" t="s">
+        <v>334</v>
+      </c>
+      <c r="L406" t="s">
+        <v>117</v>
+      </c>
+      <c r="M406" t="s">
+        <v>201</v>
+      </c>
+      <c r="N406" t="s">
+        <v>92</v>
+      </c>
+      <c r="O406" t="s">
+        <v>93</v>
+      </c>
+      <c r="P406" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>152</v>
+      </c>
+      <c r="R406" t="s">
+        <v>87</v>
+      </c>
+      <c r="S406" t="s">
+        <v>88</v>
+      </c>
+      <c r="T406" t="s">
+        <v>89</v>
+      </c>
+      <c r="U406" t="s">
+        <v>90</v>
+      </c>
+      <c r="V406" t="s">
+        <v>89</v>
+      </c>
+      <c r="W406" t="s">
+        <v>98</v>
+      </c>
+      <c r="X406" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="407" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>655</v>
       </c>
@@ -42588,8 +42648,116 @@
       <c r="E407" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I407" t="s">
+        <v>133</v>
+      </c>
+      <c r="J407" t="s">
+        <v>87</v>
+      </c>
+      <c r="K407" t="s">
+        <v>152</v>
+      </c>
+      <c r="L407" t="s">
+        <v>87</v>
+      </c>
+      <c r="M407" t="s">
+        <v>107</v>
+      </c>
+      <c r="N407" t="s">
+        <v>108</v>
+      </c>
+      <c r="O407" t="s">
+        <v>157</v>
+      </c>
+      <c r="P407" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>118</v>
+      </c>
+      <c r="R407" t="s">
+        <v>119</v>
+      </c>
+      <c r="S407" t="s">
+        <v>214</v>
+      </c>
+      <c r="T407" t="s">
+        <v>119</v>
+      </c>
+      <c r="U407" t="s">
+        <v>142</v>
+      </c>
+      <c r="V407" t="s">
+        <v>110</v>
+      </c>
+      <c r="W407" t="s">
+        <v>137</v>
+      </c>
+      <c r="X407" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y407" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC407" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD407" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE407" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF407" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH407" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI407" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ407" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK407" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL407" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM407" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN407" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO407" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP407" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ407" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR407" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="408" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>656</v>
       </c>
@@ -42602,8 +42770,98 @@
       <c r="E408" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I408" t="s">
+        <v>112</v>
+      </c>
+      <c r="J408" t="s">
+        <v>95</v>
+      </c>
+      <c r="K408" t="s">
+        <v>175</v>
+      </c>
+      <c r="L408" t="s">
+        <v>102</v>
+      </c>
+      <c r="M408" t="s">
+        <v>254</v>
+      </c>
+      <c r="N408" t="s">
+        <v>127</v>
+      </c>
+      <c r="O408" t="s">
+        <v>136</v>
+      </c>
+      <c r="P408" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>157</v>
+      </c>
+      <c r="R408" t="s">
+        <v>129</v>
+      </c>
+      <c r="S408" t="s">
+        <v>126</v>
+      </c>
+      <c r="T408" t="s">
+        <v>127</v>
+      </c>
+      <c r="U408" t="s">
+        <v>270</v>
+      </c>
+      <c r="V408" t="s">
+        <v>129</v>
+      </c>
+      <c r="W408" t="s">
+        <v>115</v>
+      </c>
+      <c r="X408" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y408" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC408" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD408" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE408" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF408" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH408" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI408" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ408" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK408" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL408" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="409" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>657</v>
       </c>
@@ -42616,8 +42874,110 @@
       <c r="E409" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I409" t="s">
+        <v>121</v>
+      </c>
+      <c r="J409" t="s">
+        <v>122</v>
+      </c>
+      <c r="K409" t="s">
+        <v>112</v>
+      </c>
+      <c r="L409" t="s">
+        <v>95</v>
+      </c>
+      <c r="M409" t="s">
+        <v>175</v>
+      </c>
+      <c r="N409" t="s">
+        <v>102</v>
+      </c>
+      <c r="O409" t="s">
+        <v>254</v>
+      </c>
+      <c r="P409" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>126</v>
+      </c>
+      <c r="R409" t="s">
+        <v>127</v>
+      </c>
+      <c r="S409" t="s">
+        <v>157</v>
+      </c>
+      <c r="T409" t="s">
+        <v>129</v>
+      </c>
+      <c r="U409" t="s">
+        <v>270</v>
+      </c>
+      <c r="V409" t="s">
+        <v>129</v>
+      </c>
+      <c r="W409" t="s">
+        <v>115</v>
+      </c>
+      <c r="X409" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC409" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF409" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH409" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI409" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ409" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK409" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL409" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM409" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN409" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO409" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP409" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>658</v>
       </c>
@@ -42627,8 +42987,128 @@
       <c r="E410" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="I410" t="s">
+        <v>121</v>
+      </c>
+      <c r="J410" t="s">
+        <v>122</v>
+      </c>
+      <c r="K410" t="s">
+        <v>101</v>
+      </c>
+      <c r="L410" t="s">
+        <v>102</v>
+      </c>
+      <c r="M410" t="s">
+        <v>185</v>
+      </c>
+      <c r="N410" t="s">
+        <v>83</v>
+      </c>
+      <c r="O410" t="s">
+        <v>93</v>
+      </c>
+      <c r="P410" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>777</v>
+      </c>
+      <c r="R410" t="s">
+        <v>83</v>
+      </c>
+      <c r="S410" t="s">
+        <v>88</v>
+      </c>
+      <c r="T410" t="s">
+        <v>89</v>
+      </c>
+      <c r="U410" t="s">
+        <v>741</v>
+      </c>
+      <c r="V410" t="s">
+        <v>87</v>
+      </c>
+      <c r="W410" t="s">
+        <v>159</v>
+      </c>
+      <c r="X410" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC410" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF410" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH410" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI410" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ410" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK410" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL410" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM410" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN410" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO410" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP410" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ410" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR410" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS410" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT410" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU410" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV410" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="411" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>659</v>
       </c>
@@ -42639,7 +43119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>660</v>
       </c>
@@ -42650,7 +43130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>661</v>
       </c>
@@ -42661,7 +43141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>662</v>
       </c>
@@ -42675,7 +43155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>663</v>
       </c>
@@ -42689,7 +43169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>664</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E7217F-319E-43DF-B248-8F2798369228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4657D9-D41A-4CA8-A89E-4C5460A3D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13448" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13574" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO241" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AR254" sqref="AR254"/>
+    <sheetView tabSelected="1" topLeftCell="G406" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I416" sqref="I416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42227,7 +42227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="401" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>649</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="402" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>650</v>
       </c>
@@ -42321,7 +42321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>651</v>
       </c>
@@ -42371,7 +42371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="404" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>652</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="405" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>653</v>
       </c>
@@ -42567,7 +42567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="406" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>654</v>
       </c>
@@ -42638,7 +42638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="407" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>655</v>
       </c>
@@ -42757,7 +42757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="408" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>656</v>
       </c>
@@ -42861,7 +42861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="409" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>657</v>
       </c>
@@ -42977,7 +42977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="410" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>658</v>
       </c>
@@ -43108,7 +43108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="411" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>659</v>
       </c>
@@ -43118,8 +43118,92 @@
       <c r="E411" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="412" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I411" t="s">
+        <v>204</v>
+      </c>
+      <c r="J411" t="s">
+        <v>122</v>
+      </c>
+      <c r="K411" t="s">
+        <v>91</v>
+      </c>
+      <c r="L411" t="s">
+        <v>92</v>
+      </c>
+      <c r="M411" t="s">
+        <v>156</v>
+      </c>
+      <c r="N411" t="s">
+        <v>84</v>
+      </c>
+      <c r="O411" t="s">
+        <v>137</v>
+      </c>
+      <c r="P411" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>239</v>
+      </c>
+      <c r="R411" t="s">
+        <v>110</v>
+      </c>
+      <c r="S411" t="s">
+        <v>141</v>
+      </c>
+      <c r="T411" t="s">
+        <v>92</v>
+      </c>
+      <c r="U411" t="s">
+        <v>96</v>
+      </c>
+      <c r="V411" t="s">
+        <v>97</v>
+      </c>
+      <c r="W411" t="s">
+        <v>160</v>
+      </c>
+      <c r="X411" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF411" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH411" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI411" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ411" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="412" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>660</v>
       </c>
@@ -43129,8 +43213,26 @@
       <c r="E412" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="413" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I412" t="s">
+        <v>90</v>
+      </c>
+      <c r="J412" t="s">
+        <v>89</v>
+      </c>
+      <c r="K412" t="s">
+        <v>126</v>
+      </c>
+      <c r="L412" t="s">
+        <v>127</v>
+      </c>
+      <c r="M412" t="s">
+        <v>171</v>
+      </c>
+      <c r="N412" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="413" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>661</v>
       </c>
@@ -43140,8 +43242,128 @@
       <c r="E413" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="414" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I413" t="s">
+        <v>98</v>
+      </c>
+      <c r="J413" t="s">
+        <v>87</v>
+      </c>
+      <c r="K413" t="s">
+        <v>88</v>
+      </c>
+      <c r="L413" t="s">
+        <v>89</v>
+      </c>
+      <c r="M413" t="s">
+        <v>150</v>
+      </c>
+      <c r="N413" t="s">
+        <v>117</v>
+      </c>
+      <c r="O413" t="s">
+        <v>162</v>
+      </c>
+      <c r="P413" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>156</v>
+      </c>
+      <c r="R413" t="s">
+        <v>84</v>
+      </c>
+      <c r="S413" t="s">
+        <v>151</v>
+      </c>
+      <c r="T413" t="s">
+        <v>84</v>
+      </c>
+      <c r="U413" t="s">
+        <v>130</v>
+      </c>
+      <c r="V413" t="s">
+        <v>102</v>
+      </c>
+      <c r="W413" t="s">
+        <v>121</v>
+      </c>
+      <c r="X413" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD413" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF413" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH413" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI413" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ413" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK413" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL413" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM413" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN413" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO413" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP413" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ413" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR413" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS413" t="s">
+        <v>321</v>
+      </c>
+      <c r="AT413" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU413" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV413" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="414" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>662</v>
       </c>
@@ -43154,8 +43376,146 @@
       <c r="E414" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="415" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I414" t="s">
+        <v>121</v>
+      </c>
+      <c r="J414" t="s">
+        <v>122</v>
+      </c>
+      <c r="K414" t="s">
+        <v>204</v>
+      </c>
+      <c r="L414" t="s">
+        <v>122</v>
+      </c>
+      <c r="M414" t="s">
+        <v>263</v>
+      </c>
+      <c r="N414" t="s">
+        <v>92</v>
+      </c>
+      <c r="O414" t="s">
+        <v>101</v>
+      </c>
+      <c r="P414" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>124</v>
+      </c>
+      <c r="R414" t="s">
+        <v>87</v>
+      </c>
+      <c r="S414" t="s">
+        <v>93</v>
+      </c>
+      <c r="T414" t="s">
+        <v>87</v>
+      </c>
+      <c r="U414" t="s">
+        <v>99</v>
+      </c>
+      <c r="V414" t="s">
+        <v>100</v>
+      </c>
+      <c r="W414" t="s">
+        <v>152</v>
+      </c>
+      <c r="X414" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC414" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD414" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF414" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH414" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI414" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ414" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK414" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL414" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM414" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN414" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO414" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP414" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ414" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR414" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS414" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT414" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU414" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV414" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW414" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX414" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY414" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ414" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA414" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB414" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="415" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>663</v>
       </c>
@@ -43168,8 +43528,26 @@
       <c r="E415" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="416" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I415" t="s">
+        <v>156</v>
+      </c>
+      <c r="J415" t="s">
+        <v>84</v>
+      </c>
+      <c r="K415" t="s">
+        <v>168</v>
+      </c>
+      <c r="L415" t="s">
+        <v>108</v>
+      </c>
+      <c r="M415" t="s">
+        <v>130</v>
+      </c>
+      <c r="N415" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="416" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>664</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4657D9-D41A-4CA8-A89E-4C5460A3D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AFE01-FFB5-4526-A740-5B4EB441385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13574" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13648" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G406" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I416" sqref="I416"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43560,8 +43560,44 @@
       <c r="E416" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I416" t="s">
+        <v>121</v>
+      </c>
+      <c r="J416" t="s">
+        <v>122</v>
+      </c>
+      <c r="K416" t="s">
+        <v>133</v>
+      </c>
+      <c r="L416" t="s">
+        <v>87</v>
+      </c>
+      <c r="M416" t="s">
+        <v>219</v>
+      </c>
+      <c r="N416" t="s">
+        <v>117</v>
+      </c>
+      <c r="O416" t="s">
+        <v>170</v>
+      </c>
+      <c r="P416" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>179</v>
+      </c>
+      <c r="R416" t="s">
+        <v>106</v>
+      </c>
+      <c r="S416" t="s">
+        <v>131</v>
+      </c>
+      <c r="T416" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="417" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>665</v>
       </c>
@@ -43574,8 +43610,62 @@
       <c r="E417" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I417" t="s">
+        <v>199</v>
+      </c>
+      <c r="J417" t="s">
+        <v>92</v>
+      </c>
+      <c r="K417" t="s">
+        <v>219</v>
+      </c>
+      <c r="L417" t="s">
+        <v>117</v>
+      </c>
+      <c r="M417" t="s">
+        <v>125</v>
+      </c>
+      <c r="N417" t="s">
+        <v>83</v>
+      </c>
+      <c r="O417" t="s">
+        <v>96</v>
+      </c>
+      <c r="P417" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>162</v>
+      </c>
+      <c r="R417" t="s">
+        <v>83</v>
+      </c>
+      <c r="S417" t="s">
+        <v>194</v>
+      </c>
+      <c r="T417" t="s">
+        <v>106</v>
+      </c>
+      <c r="U417" t="s">
+        <v>170</v>
+      </c>
+      <c r="V417" t="s">
+        <v>92</v>
+      </c>
+      <c r="W417" t="s">
+        <v>179</v>
+      </c>
+      <c r="X417" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="418" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>666</v>
       </c>
@@ -43585,8 +43675,56 @@
       <c r="E418" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I418" t="s">
+        <v>316</v>
+      </c>
+      <c r="J418" t="s">
+        <v>110</v>
+      </c>
+      <c r="K418" t="s">
+        <v>91</v>
+      </c>
+      <c r="L418" t="s">
+        <v>92</v>
+      </c>
+      <c r="M418" t="s">
+        <v>110</v>
+      </c>
+      <c r="N418" t="s">
+        <v>110</v>
+      </c>
+      <c r="O418" t="s">
+        <v>164</v>
+      </c>
+      <c r="P418" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>96</v>
+      </c>
+      <c r="R418" t="s">
+        <v>97</v>
+      </c>
+      <c r="S418" t="s">
+        <v>160</v>
+      </c>
+      <c r="T418" t="s">
+        <v>89</v>
+      </c>
+      <c r="U418" t="s">
+        <v>163</v>
+      </c>
+      <c r="V418" t="s">
+        <v>117</v>
+      </c>
+      <c r="W418" t="s">
+        <v>165</v>
+      </c>
+      <c r="X418" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="419" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>667</v>
       </c>
@@ -43599,8 +43737,26 @@
       <c r="E419" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I419" t="s">
+        <v>166</v>
+      </c>
+      <c r="J419" t="s">
+        <v>83</v>
+      </c>
+      <c r="K419" t="s">
+        <v>170</v>
+      </c>
+      <c r="L419" t="s">
+        <v>92</v>
+      </c>
+      <c r="M419" t="s">
+        <v>179</v>
+      </c>
+      <c r="N419" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="420" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>668</v>
       </c>
@@ -43610,8 +43766,74 @@
       <c r="E420" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I420" t="s">
+        <v>101</v>
+      </c>
+      <c r="J420" t="s">
+        <v>102</v>
+      </c>
+      <c r="K420" t="s">
+        <v>124</v>
+      </c>
+      <c r="L420" t="s">
+        <v>87</v>
+      </c>
+      <c r="M420" t="s">
+        <v>88</v>
+      </c>
+      <c r="N420" t="s">
+        <v>89</v>
+      </c>
+      <c r="O420" t="s">
+        <v>126</v>
+      </c>
+      <c r="P420" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>203</v>
+      </c>
+      <c r="R420" t="s">
+        <v>127</v>
+      </c>
+      <c r="S420" t="s">
+        <v>86</v>
+      </c>
+      <c r="T420" t="s">
+        <v>87</v>
+      </c>
+      <c r="U420" t="s">
+        <v>94</v>
+      </c>
+      <c r="V420" t="s">
+        <v>95</v>
+      </c>
+      <c r="W420" t="s">
+        <v>130</v>
+      </c>
+      <c r="X420" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC420" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD420" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="421" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>669</v>
       </c>
@@ -43625,7 +43847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>670</v>
       </c>
@@ -43639,7 +43861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>671</v>
       </c>
@@ -43650,7 +43872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>672</v>
       </c>
@@ -43664,7 +43886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>673</v>
       </c>
@@ -43678,7 +43900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>674</v>
       </c>
@@ -43689,7 +43911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>675</v>
       </c>
@@ -43703,7 +43925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>676</v>
       </c>
@@ -43714,7 +43936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>677</v>
       </c>
@@ -43725,7 +43947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>678</v>
       </c>
@@ -43739,7 +43961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>679</v>
       </c>
@@ -43753,7 +43975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>680</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AFE01-FFB5-4526-A740-5B4EB441385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14244F-F453-467C-B030-A42432933935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13648" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13742" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
+    <sheetView tabSelected="1" topLeftCell="B405" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I424" sqref="I424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43597,7 +43597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="417" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>665</v>
       </c>
@@ -43665,7 +43665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="418" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>666</v>
       </c>
@@ -43724,7 +43724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="419" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>667</v>
       </c>
@@ -43756,7 +43756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="420" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>668</v>
       </c>
@@ -43833,7 +43833,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="421" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>669</v>
       </c>
@@ -43846,8 +43846,110 @@
       <c r="E421" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="422" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="I421" t="s">
+        <v>101</v>
+      </c>
+      <c r="J421" t="s">
+        <v>102</v>
+      </c>
+      <c r="K421" t="s">
+        <v>104</v>
+      </c>
+      <c r="L421" t="s">
+        <v>87</v>
+      </c>
+      <c r="M421" t="s">
+        <v>124</v>
+      </c>
+      <c r="N421" t="s">
+        <v>87</v>
+      </c>
+      <c r="O421" t="s">
+        <v>105</v>
+      </c>
+      <c r="P421" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>152</v>
+      </c>
+      <c r="R421" t="s">
+        <v>87</v>
+      </c>
+      <c r="S421" t="s">
+        <v>112</v>
+      </c>
+      <c r="T421" t="s">
+        <v>95</v>
+      </c>
+      <c r="U421" t="s">
+        <v>759</v>
+      </c>
+      <c r="V421" t="s">
+        <v>89</v>
+      </c>
+      <c r="W421" t="s">
+        <v>273</v>
+      </c>
+      <c r="X421" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC421" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD421" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE421" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF421" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH421" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI421" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ421" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK421" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL421" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM421" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN421" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO421" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP421" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="422" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>670</v>
       </c>
@@ -43860,8 +43962,26 @@
       <c r="E422" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="423" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="I422" t="s">
+        <v>121</v>
+      </c>
+      <c r="J422" t="s">
+        <v>122</v>
+      </c>
+      <c r="K422" t="s">
+        <v>204</v>
+      </c>
+      <c r="L422" t="s">
+        <v>122</v>
+      </c>
+      <c r="M422" t="s">
+        <v>295</v>
+      </c>
+      <c r="N422" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="423" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>671</v>
       </c>
@@ -43871,8 +43991,170 @@
       <c r="E423" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="424" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="I423" t="s">
+        <v>133</v>
+      </c>
+      <c r="J423" t="s">
+        <v>87</v>
+      </c>
+      <c r="K423" t="s">
+        <v>104</v>
+      </c>
+      <c r="L423" t="s">
+        <v>87</v>
+      </c>
+      <c r="M423" t="s">
+        <v>105</v>
+      </c>
+      <c r="N423" t="s">
+        <v>106</v>
+      </c>
+      <c r="O423" t="s">
+        <v>99</v>
+      </c>
+      <c r="P423" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>166</v>
+      </c>
+      <c r="R423" t="s">
+        <v>83</v>
+      </c>
+      <c r="S423" t="s">
+        <v>190</v>
+      </c>
+      <c r="T423" t="s">
+        <v>119</v>
+      </c>
+      <c r="U423" t="s">
+        <v>88</v>
+      </c>
+      <c r="V423" t="s">
+        <v>89</v>
+      </c>
+      <c r="W423" t="s">
+        <v>112</v>
+      </c>
+      <c r="X423" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y423" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z423" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC423" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD423" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE423" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF423" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG423" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH423" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI423" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ423" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK423" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL423" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM423" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN423" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO423" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP423" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ423" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR423" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS423" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT423" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU423" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV423" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW423" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX423" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY423" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ423" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA423" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB423" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC423" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD423" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE423" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF423" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG423" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH423" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI423" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ423" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="424" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>672</v>
       </c>
@@ -43886,7 +44168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="425" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>673</v>
       </c>
@@ -43900,7 +44182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="426" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>674</v>
       </c>
@@ -43911,7 +44193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="427" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>675</v>
       </c>
@@ -43925,7 +44207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="428" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>676</v>
       </c>
@@ -43936,7 +44218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="429" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>677</v>
       </c>
@@ -43947,7 +44229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="430" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>678</v>
       </c>
@@ -43961,7 +44243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="431" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>679</v>
       </c>
@@ -43975,7 +44257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="432" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>680</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14244F-F453-467C-B030-A42432933935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DDB0E-CD16-4C83-9CF3-F5404BE82A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="40" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13742" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13868" uniqueCount="810">
   <si>
     <t>Name</t>
   </si>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B405" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I424" sqref="I424"/>
+    <sheetView tabSelected="1" topLeftCell="I409" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I429" sqref="I429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44167,6 +44167,84 @@
       <c r="E424" t="s">
         <v>85</v>
       </c>
+      <c r="I424" t="s">
+        <v>99</v>
+      </c>
+      <c r="J424" t="s">
+        <v>100</v>
+      </c>
+      <c r="K424" t="s">
+        <v>88</v>
+      </c>
+      <c r="L424" t="s">
+        <v>89</v>
+      </c>
+      <c r="M424" t="s">
+        <v>112</v>
+      </c>
+      <c r="N424" t="s">
+        <v>95</v>
+      </c>
+      <c r="O424" t="s">
+        <v>214</v>
+      </c>
+      <c r="P424" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>256</v>
+      </c>
+      <c r="R424" t="s">
+        <v>89</v>
+      </c>
+      <c r="S424" t="s">
+        <v>220</v>
+      </c>
+      <c r="T424" t="s">
+        <v>102</v>
+      </c>
+      <c r="U424" t="s">
+        <v>94</v>
+      </c>
+      <c r="V424" t="s">
+        <v>95</v>
+      </c>
+      <c r="W424" t="s">
+        <v>141</v>
+      </c>
+      <c r="X424" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y424" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC424" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD424" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE424" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF424" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG424" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH424" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="425" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
@@ -44181,6 +44259,84 @@
       <c r="E425" t="s">
         <v>85</v>
       </c>
+      <c r="I425" t="s">
+        <v>99</v>
+      </c>
+      <c r="J425" t="s">
+        <v>100</v>
+      </c>
+      <c r="K425" t="s">
+        <v>88</v>
+      </c>
+      <c r="L425" t="s">
+        <v>89</v>
+      </c>
+      <c r="M425" t="s">
+        <v>112</v>
+      </c>
+      <c r="N425" t="s">
+        <v>95</v>
+      </c>
+      <c r="O425" t="s">
+        <v>214</v>
+      </c>
+      <c r="P425" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>256</v>
+      </c>
+      <c r="R425" t="s">
+        <v>89</v>
+      </c>
+      <c r="S425" t="s">
+        <v>220</v>
+      </c>
+      <c r="T425" t="s">
+        <v>102</v>
+      </c>
+      <c r="U425" t="s">
+        <v>94</v>
+      </c>
+      <c r="V425" t="s">
+        <v>95</v>
+      </c>
+      <c r="W425" t="s">
+        <v>141</v>
+      </c>
+      <c r="X425" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y425" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC425" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD425" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE425" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF425" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH425" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="426" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
@@ -44192,6 +44348,96 @@
       <c r="E426" t="s">
         <v>85</v>
       </c>
+      <c r="I426" t="s">
+        <v>99</v>
+      </c>
+      <c r="J426" t="s">
+        <v>100</v>
+      </c>
+      <c r="K426" t="s">
+        <v>88</v>
+      </c>
+      <c r="L426" t="s">
+        <v>89</v>
+      </c>
+      <c r="M426" t="s">
+        <v>112</v>
+      </c>
+      <c r="N426" t="s">
+        <v>95</v>
+      </c>
+      <c r="O426" t="s">
+        <v>214</v>
+      </c>
+      <c r="P426" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>256</v>
+      </c>
+      <c r="R426" t="s">
+        <v>89</v>
+      </c>
+      <c r="S426" t="s">
+        <v>220</v>
+      </c>
+      <c r="T426" t="s">
+        <v>102</v>
+      </c>
+      <c r="U426" t="s">
+        <v>94</v>
+      </c>
+      <c r="V426" t="s">
+        <v>95</v>
+      </c>
+      <c r="W426" t="s">
+        <v>141</v>
+      </c>
+      <c r="X426" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y426" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC426" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD426" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE426" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF426" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH426" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI426" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ426" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK426" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL426" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="427" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
@@ -44206,6 +44452,66 @@
       <c r="E427" t="s">
         <v>85</v>
       </c>
+      <c r="I427" t="s">
+        <v>204</v>
+      </c>
+      <c r="J427" t="s">
+        <v>122</v>
+      </c>
+      <c r="K427" t="s">
+        <v>156</v>
+      </c>
+      <c r="L427" t="s">
+        <v>84</v>
+      </c>
+      <c r="M427" t="s">
+        <v>171</v>
+      </c>
+      <c r="N427" t="s">
+        <v>108</v>
+      </c>
+      <c r="O427" t="s">
+        <v>186</v>
+      </c>
+      <c r="P427" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>162</v>
+      </c>
+      <c r="R427" t="s">
+        <v>83</v>
+      </c>
+      <c r="S427" t="s">
+        <v>209</v>
+      </c>
+      <c r="T427" t="s">
+        <v>106</v>
+      </c>
+      <c r="U427" t="s">
+        <v>130</v>
+      </c>
+      <c r="V427" t="s">
+        <v>102</v>
+      </c>
+      <c r="W427" t="s">
+        <v>289</v>
+      </c>
+      <c r="X427" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y427" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z427" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB427" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="428" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
@@ -44216,6 +44522,78 @@
       </c>
       <c r="E428" t="s">
         <v>85</v>
+      </c>
+      <c r="I428" t="s">
+        <v>185</v>
+      </c>
+      <c r="J428" t="s">
+        <v>83</v>
+      </c>
+      <c r="K428" t="s">
+        <v>107</v>
+      </c>
+      <c r="L428" t="s">
+        <v>108</v>
+      </c>
+      <c r="M428" t="s">
+        <v>110</v>
+      </c>
+      <c r="N428" t="s">
+        <v>110</v>
+      </c>
+      <c r="O428" t="s">
+        <v>96</v>
+      </c>
+      <c r="P428" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>160</v>
+      </c>
+      <c r="R428" t="s">
+        <v>89</v>
+      </c>
+      <c r="S428" t="s">
+        <v>111</v>
+      </c>
+      <c r="T428" t="s">
+        <v>97</v>
+      </c>
+      <c r="U428" t="s">
+        <v>179</v>
+      </c>
+      <c r="V428" t="s">
+        <v>106</v>
+      </c>
+      <c r="W428" t="s">
+        <v>251</v>
+      </c>
+      <c r="X428" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y428" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z428" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB428" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC428" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD428" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE428" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF428" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="429" spans="1:62" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DDB0E-CD16-4C83-9CF3-F5404BE82A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00123B7F-BB1C-4845-89EE-44D0E5E86986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="40" windowWidth="9630" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13868" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14076" uniqueCount="812">
   <si>
     <t>Name</t>
   </si>
@@ -2450,6 +2450,12 @@
   </si>
   <si>
     <t>Body Pres</t>
+  </si>
+  <si>
+    <t>Zen Headbtt</t>
+  </si>
+  <si>
+    <t>Ice Hammer</t>
   </si>
 </sst>
 </file>
@@ -2829,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I409" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I429" sqref="I429"/>
+    <sheetView tabSelected="1" topLeftCell="AE415" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AM435" sqref="AM435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44606,6 +44612,96 @@
       <c r="E429" t="s">
         <v>85</v>
       </c>
+      <c r="I429" t="s">
+        <v>101</v>
+      </c>
+      <c r="J429" t="s">
+        <v>102</v>
+      </c>
+      <c r="K429" t="s">
+        <v>185</v>
+      </c>
+      <c r="L429" t="s">
+        <v>83</v>
+      </c>
+      <c r="M429" t="s">
+        <v>88</v>
+      </c>
+      <c r="N429" t="s">
+        <v>89</v>
+      </c>
+      <c r="O429" t="s">
+        <v>112</v>
+      </c>
+      <c r="P429" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>203</v>
+      </c>
+      <c r="R429" t="s">
+        <v>127</v>
+      </c>
+      <c r="S429" t="s">
+        <v>114</v>
+      </c>
+      <c r="T429" t="s">
+        <v>110</v>
+      </c>
+      <c r="U429" t="s">
+        <v>160</v>
+      </c>
+      <c r="V429" t="s">
+        <v>89</v>
+      </c>
+      <c r="W429" t="s">
+        <v>150</v>
+      </c>
+      <c r="X429" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y429" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z429" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB429" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC429" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD429" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE429" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF429" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG429" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH429" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI429" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ429" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK429" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL429" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="430" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
@@ -44620,6 +44716,132 @@
       <c r="E430" t="s">
         <v>85</v>
       </c>
+      <c r="I430" t="s">
+        <v>101</v>
+      </c>
+      <c r="J430" t="s">
+        <v>102</v>
+      </c>
+      <c r="K430" t="s">
+        <v>124</v>
+      </c>
+      <c r="L430" t="s">
+        <v>87</v>
+      </c>
+      <c r="M430" t="s">
+        <v>185</v>
+      </c>
+      <c r="N430" t="s">
+        <v>83</v>
+      </c>
+      <c r="O430" t="s">
+        <v>152</v>
+      </c>
+      <c r="P430" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>741</v>
+      </c>
+      <c r="R430" t="s">
+        <v>87</v>
+      </c>
+      <c r="S430" t="s">
+        <v>91</v>
+      </c>
+      <c r="T430" t="s">
+        <v>92</v>
+      </c>
+      <c r="U430" t="s">
+        <v>175</v>
+      </c>
+      <c r="V430" t="s">
+        <v>102</v>
+      </c>
+      <c r="W430" t="s">
+        <v>254</v>
+      </c>
+      <c r="X430" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y430" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z430" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB430" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC430" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD430" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE430" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF430" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG430" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH430" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI430" t="s">
+        <v>810</v>
+      </c>
+      <c r="AJ430" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK430" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL430" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM430" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN430" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO430" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP430" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ430" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR430" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS430" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT430" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU430" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV430" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW430" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX430" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="431" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
@@ -44634,6 +44856,72 @@
       <c r="E431" t="s">
         <v>85</v>
       </c>
+      <c r="I431" t="s">
+        <v>101</v>
+      </c>
+      <c r="J431" t="s">
+        <v>102</v>
+      </c>
+      <c r="K431" t="s">
+        <v>811</v>
+      </c>
+      <c r="L431" t="s">
+        <v>84</v>
+      </c>
+      <c r="M431" t="s">
+        <v>112</v>
+      </c>
+      <c r="N431" t="s">
+        <v>95</v>
+      </c>
+      <c r="O431" t="s">
+        <v>175</v>
+      </c>
+      <c r="P431" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>107</v>
+      </c>
+      <c r="R431" t="s">
+        <v>108</v>
+      </c>
+      <c r="S431" t="s">
+        <v>86</v>
+      </c>
+      <c r="T431" t="s">
+        <v>87</v>
+      </c>
+      <c r="U431" t="s">
+        <v>94</v>
+      </c>
+      <c r="V431" t="s">
+        <v>95</v>
+      </c>
+      <c r="W431" t="s">
+        <v>209</v>
+      </c>
+      <c r="X431" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y431" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB431" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC431" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD431" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="432" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
@@ -44648,8 +44936,74 @@
       <c r="E432" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I432" t="s">
+        <v>204</v>
+      </c>
+      <c r="J432" t="s">
+        <v>122</v>
+      </c>
+      <c r="K432" t="s">
+        <v>175</v>
+      </c>
+      <c r="L432" t="s">
+        <v>102</v>
+      </c>
+      <c r="M432" t="s">
+        <v>90</v>
+      </c>
+      <c r="N432" t="s">
+        <v>89</v>
+      </c>
+      <c r="O432" t="s">
+        <v>126</v>
+      </c>
+      <c r="P432" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>171</v>
+      </c>
+      <c r="R432" t="s">
+        <v>108</v>
+      </c>
+      <c r="S432" t="s">
+        <v>236</v>
+      </c>
+      <c r="T432" t="s">
+        <v>92</v>
+      </c>
+      <c r="U432" t="s">
+        <v>295</v>
+      </c>
+      <c r="V432" t="s">
+        <v>106</v>
+      </c>
+      <c r="W432" t="s">
+        <v>209</v>
+      </c>
+      <c r="X432" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y432" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z432" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA432" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB432" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC432" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD432" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="433" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>681</v>
       </c>
@@ -44662,8 +45016,62 @@
       <c r="E433" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I433" t="s">
+        <v>133</v>
+      </c>
+      <c r="J433" t="s">
+        <v>87</v>
+      </c>
+      <c r="K433" t="s">
+        <v>101</v>
+      </c>
+      <c r="L433" t="s">
+        <v>102</v>
+      </c>
+      <c r="M433" t="s">
+        <v>185</v>
+      </c>
+      <c r="N433" t="s">
+        <v>83</v>
+      </c>
+      <c r="O433" t="s">
+        <v>115</v>
+      </c>
+      <c r="P433" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>203</v>
+      </c>
+      <c r="R433" t="s">
+        <v>127</v>
+      </c>
+      <c r="S433" t="s">
+        <v>114</v>
+      </c>
+      <c r="T433" t="s">
+        <v>110</v>
+      </c>
+      <c r="U433" t="s">
+        <v>179</v>
+      </c>
+      <c r="V433" t="s">
+        <v>106</v>
+      </c>
+      <c r="W433" t="s">
+        <v>146</v>
+      </c>
+      <c r="X433" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y433" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="434" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>682</v>
       </c>
@@ -44676,8 +45084,140 @@
       <c r="E434" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I434" t="s">
+        <v>121</v>
+      </c>
+      <c r="J434" t="s">
+        <v>122</v>
+      </c>
+      <c r="K434" t="s">
+        <v>101</v>
+      </c>
+      <c r="L434" t="s">
+        <v>102</v>
+      </c>
+      <c r="M434" t="s">
+        <v>120</v>
+      </c>
+      <c r="N434" t="s">
+        <v>110</v>
+      </c>
+      <c r="O434" t="s">
+        <v>185</v>
+      </c>
+      <c r="P434" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>166</v>
+      </c>
+      <c r="R434" t="s">
+        <v>83</v>
+      </c>
+      <c r="S434" t="s">
+        <v>190</v>
+      </c>
+      <c r="T434" t="s">
+        <v>119</v>
+      </c>
+      <c r="U434" t="s">
+        <v>765</v>
+      </c>
+      <c r="V434" t="s">
+        <v>117</v>
+      </c>
+      <c r="W434" t="s">
+        <v>219</v>
+      </c>
+      <c r="X434" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y434" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z434" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC434" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD434" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE434" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG434" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI434" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ434" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK434" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM434" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN434" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO434" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP434" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ434" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR434" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS434" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT434" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU434" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV434" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW434" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX434" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY434" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ434" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="435" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>683</v>
       </c>
@@ -44687,8 +45227,98 @@
       <c r="E435" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I435" t="s">
+        <v>199</v>
+      </c>
+      <c r="J435" t="s">
+        <v>92</v>
+      </c>
+      <c r="K435" t="s">
+        <v>152</v>
+      </c>
+      <c r="L435" t="s">
+        <v>87</v>
+      </c>
+      <c r="M435" t="s">
+        <v>201</v>
+      </c>
+      <c r="N435" t="s">
+        <v>92</v>
+      </c>
+      <c r="O435" t="s">
+        <v>166</v>
+      </c>
+      <c r="P435" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>88</v>
+      </c>
+      <c r="R435" t="s">
+        <v>89</v>
+      </c>
+      <c r="S435" t="s">
+        <v>91</v>
+      </c>
+      <c r="T435" t="s">
+        <v>92</v>
+      </c>
+      <c r="U435" t="s">
+        <v>112</v>
+      </c>
+      <c r="V435" t="s">
+        <v>95</v>
+      </c>
+      <c r="W435" t="s">
+        <v>90</v>
+      </c>
+      <c r="X435" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y435" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z435" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA435" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB435" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC435" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD435" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE435" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF435" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG435" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH435" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI435" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ435" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK435" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL435" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="436" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>684</v>
       </c>
@@ -44699,7 +45329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>685</v>
       </c>
@@ -44716,7 +45346,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>686</v>
       </c>
@@ -44730,7 +45360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>687</v>
       </c>
@@ -44747,7 +45377,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>688</v>
       </c>
@@ -44761,7 +45391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -44775,7 +45405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>690</v>
       </c>
@@ -44789,7 +45419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>691</v>
       </c>
@@ -44803,7 +45433,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>692</v>
       </c>
@@ -44817,7 +45447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>693</v>
       </c>
@@ -44828,7 +45458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>694</v>
       </c>
@@ -44842,7 +45472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>695</v>
       </c>
@@ -44856,7 +45486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>696</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00123B7F-BB1C-4845-89EE-44D0E5E86986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18980DB9-D0A8-49D4-A0EB-64A906802FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14076" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14234" uniqueCount="812">
   <si>
     <t>Name</t>
   </si>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE415" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AM435" sqref="AM435"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F440" sqref="F440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45003,7 +45003,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="433" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>681</v>
       </c>
@@ -45071,7 +45071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="434" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>682</v>
       </c>
@@ -45217,7 +45217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>683</v>
       </c>
@@ -45318,7 +45318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>684</v>
       </c>
@@ -45328,8 +45328,134 @@
       <c r="E436" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="437" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I436" t="s">
+        <v>133</v>
+      </c>
+      <c r="J436" t="s">
+        <v>87</v>
+      </c>
+      <c r="K436" t="s">
+        <v>101</v>
+      </c>
+      <c r="L436" t="s">
+        <v>102</v>
+      </c>
+      <c r="M436" t="s">
+        <v>124</v>
+      </c>
+      <c r="N436" t="s">
+        <v>87</v>
+      </c>
+      <c r="O436" t="s">
+        <v>185</v>
+      </c>
+      <c r="P436" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>152</v>
+      </c>
+      <c r="R436" t="s">
+        <v>87</v>
+      </c>
+      <c r="S436" t="s">
+        <v>741</v>
+      </c>
+      <c r="T436" t="s">
+        <v>87</v>
+      </c>
+      <c r="U436" t="s">
+        <v>91</v>
+      </c>
+      <c r="V436" t="s">
+        <v>92</v>
+      </c>
+      <c r="W436" t="s">
+        <v>175</v>
+      </c>
+      <c r="X436" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y436" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC436" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD436" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE436" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF436" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG436" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH436" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI436" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ436" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK436" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL436" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM436" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN436" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO436" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP436" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ436" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR436" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS436" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT436" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU436" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV436" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW436" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX436" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="437" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>685</v>
       </c>
@@ -45345,8 +45471,80 @@
       <c r="F437" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="438" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I437" t="s">
+        <v>263</v>
+      </c>
+      <c r="J437" t="s">
+        <v>92</v>
+      </c>
+      <c r="K437" t="s">
+        <v>201</v>
+      </c>
+      <c r="L437" t="s">
+        <v>92</v>
+      </c>
+      <c r="M437" t="s">
+        <v>99</v>
+      </c>
+      <c r="N437" t="s">
+        <v>100</v>
+      </c>
+      <c r="O437" t="s">
+        <v>152</v>
+      </c>
+      <c r="P437" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>112</v>
+      </c>
+      <c r="R437" t="s">
+        <v>95</v>
+      </c>
+      <c r="S437" t="s">
+        <v>91</v>
+      </c>
+      <c r="T437" t="s">
+        <v>92</v>
+      </c>
+      <c r="U437" t="s">
+        <v>98</v>
+      </c>
+      <c r="V437" t="s">
+        <v>87</v>
+      </c>
+      <c r="W437" t="s">
+        <v>137</v>
+      </c>
+      <c r="X437" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y437" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z437" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB437" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC437" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD437" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE437" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF437" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="438" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>686</v>
       </c>
@@ -45359,8 +45557,86 @@
       <c r="E438" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="439" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I438" t="s">
+        <v>348</v>
+      </c>
+      <c r="J438" t="s">
+        <v>117</v>
+      </c>
+      <c r="K438" t="s">
+        <v>176</v>
+      </c>
+      <c r="L438" t="s">
+        <v>127</v>
+      </c>
+      <c r="M438" t="s">
+        <v>219</v>
+      </c>
+      <c r="N438" t="s">
+        <v>117</v>
+      </c>
+      <c r="O438" t="s">
+        <v>236</v>
+      </c>
+      <c r="P438" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>177</v>
+      </c>
+      <c r="R438" t="s">
+        <v>83</v>
+      </c>
+      <c r="S438" t="s">
+        <v>186</v>
+      </c>
+      <c r="T438" t="s">
+        <v>102</v>
+      </c>
+      <c r="U438" t="s">
+        <v>86</v>
+      </c>
+      <c r="V438" t="s">
+        <v>87</v>
+      </c>
+      <c r="W438" t="s">
+        <v>349</v>
+      </c>
+      <c r="X438" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y438" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z438" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB438" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC438" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD438" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE438" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF438" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG438" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH438" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="439" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>687</v>
       </c>
@@ -45376,8 +45652,152 @@
       <c r="G439" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="440" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I439" t="s">
+        <v>121</v>
+      </c>
+      <c r="J439" t="s">
+        <v>122</v>
+      </c>
+      <c r="K439" t="s">
+        <v>101</v>
+      </c>
+      <c r="L439" t="s">
+        <v>102</v>
+      </c>
+      <c r="M439" t="s">
+        <v>88</v>
+      </c>
+      <c r="N439" t="s">
+        <v>89</v>
+      </c>
+      <c r="O439" t="s">
+        <v>112</v>
+      </c>
+      <c r="P439" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>175</v>
+      </c>
+      <c r="R439" t="s">
+        <v>102</v>
+      </c>
+      <c r="S439" t="s">
+        <v>115</v>
+      </c>
+      <c r="T439" t="s">
+        <v>116</v>
+      </c>
+      <c r="U439" t="s">
+        <v>154</v>
+      </c>
+      <c r="V439" t="s">
+        <v>102</v>
+      </c>
+      <c r="W439" t="s">
+        <v>96</v>
+      </c>
+      <c r="X439" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y439" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z439" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB439" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC439" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD439" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE439" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF439" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG439" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH439" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI439" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ439" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK439" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL439" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM439" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN439" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO439" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP439" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ439" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR439" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS439" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT439" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU439" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV439" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW439" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX439" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY439" t="s">
+        <v>773</v>
+      </c>
+      <c r="AZ439" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA439" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB439" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC439" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD439" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>688</v>
       </c>
@@ -45390,8 +45810,62 @@
       <c r="E440" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="441" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="I440" t="s">
+        <v>101</v>
+      </c>
+      <c r="J440" t="s">
+        <v>102</v>
+      </c>
+      <c r="K440" t="s">
+        <v>186</v>
+      </c>
+      <c r="L440" t="s">
+        <v>102</v>
+      </c>
+      <c r="M440" t="s">
+        <v>86</v>
+      </c>
+      <c r="N440" t="s">
+        <v>87</v>
+      </c>
+      <c r="O440" t="s">
+        <v>132</v>
+      </c>
+      <c r="P440" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>150</v>
+      </c>
+      <c r="R440" t="s">
+        <v>117</v>
+      </c>
+      <c r="S440" t="s">
+        <v>758</v>
+      </c>
+      <c r="T440" t="s">
+        <v>110</v>
+      </c>
+      <c r="U440" t="s">
+        <v>289</v>
+      </c>
+      <c r="V440" t="s">
+        <v>97</v>
+      </c>
+      <c r="W440" t="s">
+        <v>146</v>
+      </c>
+      <c r="X440" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y440" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z440" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="441" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -45405,7 +45879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="442" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>690</v>
       </c>
@@ -45419,7 +45893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="443" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>691</v>
       </c>
@@ -45433,7 +45907,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="444" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>692</v>
       </c>
@@ -45447,7 +45921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="445" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>693</v>
       </c>
@@ -45458,7 +45932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="446" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>694</v>
       </c>
@@ -45472,7 +45946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="447" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>695</v>
       </c>
@@ -45486,7 +45960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="448" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>696</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18980DB9-D0A8-49D4-A0EB-64A906802FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7616-C21D-49C5-9F24-A249ED611998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14234" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14404" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2456,6 +2456,9 @@
   </si>
   <si>
     <t>Ice Hammer</t>
+  </si>
+  <si>
+    <t>Dragon Hammer</t>
   </si>
 </sst>
 </file>
@@ -2835,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F440" sqref="F440"/>
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45003,7 +45006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="433" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>681</v>
       </c>
@@ -45071,7 +45074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="434" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>682</v>
       </c>
@@ -45217,7 +45220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>683</v>
       </c>
@@ -45318,7 +45321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>684</v>
       </c>
@@ -45455,7 +45458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="437" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>685</v>
       </c>
@@ -45544,7 +45547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="438" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>686</v>
       </c>
@@ -45636,7 +45639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="439" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>687</v>
       </c>
@@ -45797,7 +45800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="440" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>688</v>
       </c>
@@ -45865,7 +45868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="441" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -45878,8 +45881,110 @@
       <c r="E441" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="442" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I441" t="s">
+        <v>124</v>
+      </c>
+      <c r="J441" t="s">
+        <v>87</v>
+      </c>
+      <c r="K441" t="s">
+        <v>88</v>
+      </c>
+      <c r="L441" t="s">
+        <v>89</v>
+      </c>
+      <c r="M441" t="s">
+        <v>175</v>
+      </c>
+      <c r="N441" t="s">
+        <v>102</v>
+      </c>
+      <c r="O441" t="s">
+        <v>110</v>
+      </c>
+      <c r="P441" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>154</v>
+      </c>
+      <c r="R441" t="s">
+        <v>102</v>
+      </c>
+      <c r="S441" t="s">
+        <v>203</v>
+      </c>
+      <c r="T441" t="s">
+        <v>127</v>
+      </c>
+      <c r="U441" t="s">
+        <v>113</v>
+      </c>
+      <c r="V441" t="s">
+        <v>106</v>
+      </c>
+      <c r="W441" t="s">
+        <v>160</v>
+      </c>
+      <c r="X441" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y441" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z441" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA441" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB441" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC441" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD441" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE441" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF441" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG441" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH441" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI441" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ441" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK441" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL441" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM441" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN441" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO441" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP441" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="442" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>690</v>
       </c>
@@ -45892,8 +45997,68 @@
       <c r="E442" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="443" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I442" t="s">
+        <v>99</v>
+      </c>
+      <c r="J442" t="s">
+        <v>100</v>
+      </c>
+      <c r="K442" t="s">
+        <v>88</v>
+      </c>
+      <c r="L442" t="s">
+        <v>89</v>
+      </c>
+      <c r="M442" t="s">
+        <v>812</v>
+      </c>
+      <c r="N442" t="s">
+        <v>100</v>
+      </c>
+      <c r="O442" t="s">
+        <v>144</v>
+      </c>
+      <c r="P442" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>98</v>
+      </c>
+      <c r="R442" t="s">
+        <v>87</v>
+      </c>
+      <c r="S442" t="s">
+        <v>114</v>
+      </c>
+      <c r="T442" t="s">
+        <v>110</v>
+      </c>
+      <c r="U442" t="s">
+        <v>196</v>
+      </c>
+      <c r="V442" t="s">
+        <v>89</v>
+      </c>
+      <c r="W442" t="s">
+        <v>179</v>
+      </c>
+      <c r="X442" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y442" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z442" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA442" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB442" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="443" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>691</v>
       </c>
@@ -45906,8 +46071,86 @@
       <c r="G443" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="444" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I443" t="s">
+        <v>780</v>
+      </c>
+      <c r="J443" t="s">
+        <v>87</v>
+      </c>
+      <c r="K443" t="s">
+        <v>101</v>
+      </c>
+      <c r="L443" t="s">
+        <v>102</v>
+      </c>
+      <c r="M443" t="s">
+        <v>93</v>
+      </c>
+      <c r="N443" t="s">
+        <v>87</v>
+      </c>
+      <c r="O443" t="s">
+        <v>107</v>
+      </c>
+      <c r="P443" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>115</v>
+      </c>
+      <c r="R443" t="s">
+        <v>116</v>
+      </c>
+      <c r="S443" t="s">
+        <v>171</v>
+      </c>
+      <c r="T443" t="s">
+        <v>108</v>
+      </c>
+      <c r="U443" t="s">
+        <v>114</v>
+      </c>
+      <c r="V443" t="s">
+        <v>110</v>
+      </c>
+      <c r="W443" t="s">
+        <v>179</v>
+      </c>
+      <c r="X443" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y443" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z443" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB443" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC443" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD443" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE443" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF443" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG443" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH443" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="444" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>692</v>
       </c>
@@ -45920,8 +46163,122 @@
       <c r="E444" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="445" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I444" t="s">
+        <v>258</v>
+      </c>
+      <c r="J444" t="s">
+        <v>95</v>
+      </c>
+      <c r="K444" t="s">
+        <v>101</v>
+      </c>
+      <c r="L444" t="s">
+        <v>102</v>
+      </c>
+      <c r="M444" t="s">
+        <v>124</v>
+      </c>
+      <c r="N444" t="s">
+        <v>87</v>
+      </c>
+      <c r="O444" t="s">
+        <v>201</v>
+      </c>
+      <c r="P444" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>166</v>
+      </c>
+      <c r="R444" t="s">
+        <v>83</v>
+      </c>
+      <c r="S444" t="s">
+        <v>88</v>
+      </c>
+      <c r="T444" t="s">
+        <v>89</v>
+      </c>
+      <c r="U444" t="s">
+        <v>112</v>
+      </c>
+      <c r="V444" t="s">
+        <v>95</v>
+      </c>
+      <c r="W444" t="s">
+        <v>91</v>
+      </c>
+      <c r="X444" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y444" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z444" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB444" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC444" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD444" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE444" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF444" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG444" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH444" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI444" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ444" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK444" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL444" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM444" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN444" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO444" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP444" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ444" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR444" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS444" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT444" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="445" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>693</v>
       </c>
@@ -45931,8 +46288,164 @@
       <c r="E445" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="446" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="I445" t="s">
+        <v>121</v>
+      </c>
+      <c r="J445" t="s">
+        <v>122</v>
+      </c>
+      <c r="K445" t="s">
+        <v>133</v>
+      </c>
+      <c r="L445" t="s">
+        <v>87</v>
+      </c>
+      <c r="M445" t="s">
+        <v>199</v>
+      </c>
+      <c r="N445" t="s">
+        <v>92</v>
+      </c>
+      <c r="O445" t="s">
+        <v>101</v>
+      </c>
+      <c r="P445" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>124</v>
+      </c>
+      <c r="R445" t="s">
+        <v>87</v>
+      </c>
+      <c r="S445" t="s">
+        <v>93</v>
+      </c>
+      <c r="T445" t="s">
+        <v>87</v>
+      </c>
+      <c r="U445" t="s">
+        <v>166</v>
+      </c>
+      <c r="V445" t="s">
+        <v>83</v>
+      </c>
+      <c r="W445" t="s">
+        <v>88</v>
+      </c>
+      <c r="X445" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y445" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z445" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB445" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC445" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD445" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE445" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF445" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG445" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH445" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI445" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ445" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK445" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL445" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM445" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN445" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO445" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP445" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ445" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR445" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS445" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT445" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU445" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV445" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW445" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX445" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY445" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ445" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA445" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB445" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC445" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD445" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE445" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF445" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG445" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH445" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="446" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>694</v>
       </c>
@@ -45946,7 +46459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="447" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>695</v>
       </c>
@@ -45960,7 +46473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="448" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>696</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7616-C21D-49C5-9F24-A249ED611998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AC640-2F82-4CB9-9C5A-A49525FA4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14404" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14557" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2838,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45006,7 +45006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="433" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>681</v>
       </c>
@@ -45074,7 +45074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="434" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>682</v>
       </c>
@@ -45220,7 +45220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="435" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>683</v>
       </c>
@@ -45321,7 +45321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>684</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="437" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>685</v>
       </c>
@@ -45547,7 +45547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="438" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>686</v>
       </c>
@@ -45639,7 +45639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="439" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>687</v>
       </c>
@@ -45800,7 +45800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="440" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>688</v>
       </c>
@@ -45868,7 +45868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="441" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>689</v>
       </c>
@@ -45984,7 +45984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="442" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>690</v>
       </c>
@@ -46058,7 +46058,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="443" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>691</v>
       </c>
@@ -46150,7 +46150,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="444" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>692</v>
       </c>
@@ -46278,7 +46278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="445" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>693</v>
       </c>
@@ -46445,7 +46445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="446" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>694</v>
       </c>
@@ -46458,8 +46458,116 @@
       <c r="E446" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="447" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I446" t="s">
+        <v>133</v>
+      </c>
+      <c r="J446" t="s">
+        <v>87</v>
+      </c>
+      <c r="K446" t="s">
+        <v>199</v>
+      </c>
+      <c r="L446" t="s">
+        <v>92</v>
+      </c>
+      <c r="M446" t="s">
+        <v>124</v>
+      </c>
+      <c r="N446" t="s">
+        <v>87</v>
+      </c>
+      <c r="O446" t="s">
+        <v>93</v>
+      </c>
+      <c r="P446" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>166</v>
+      </c>
+      <c r="R446" t="s">
+        <v>83</v>
+      </c>
+      <c r="S446" t="s">
+        <v>88</v>
+      </c>
+      <c r="T446" t="s">
+        <v>89</v>
+      </c>
+      <c r="U446" t="s">
+        <v>91</v>
+      </c>
+      <c r="V446" t="s">
+        <v>92</v>
+      </c>
+      <c r="W446" t="s">
+        <v>107</v>
+      </c>
+      <c r="X446" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y446" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z446" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB446" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC446" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD446" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE446" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF446" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG446" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH446" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI446" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ446" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK446" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL446" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM446" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN446" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO446" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP446" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ446" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR446" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="447" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>695</v>
       </c>
@@ -46472,8 +46580,200 @@
       <c r="E447" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="448" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="I447" t="s">
+        <v>121</v>
+      </c>
+      <c r="J447" t="s">
+        <v>122</v>
+      </c>
+      <c r="K447" t="s">
+        <v>124</v>
+      </c>
+      <c r="L447" t="s">
+        <v>87</v>
+      </c>
+      <c r="M447" t="s">
+        <v>201</v>
+      </c>
+      <c r="N447" t="s">
+        <v>92</v>
+      </c>
+      <c r="O447" t="s">
+        <v>93</v>
+      </c>
+      <c r="P447" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>99</v>
+      </c>
+      <c r="R447" t="s">
+        <v>100</v>
+      </c>
+      <c r="S447" t="s">
+        <v>152</v>
+      </c>
+      <c r="T447" t="s">
+        <v>87</v>
+      </c>
+      <c r="U447" t="s">
+        <v>225</v>
+      </c>
+      <c r="V447" t="s">
+        <v>129</v>
+      </c>
+      <c r="W447" t="s">
+        <v>88</v>
+      </c>
+      <c r="X447" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y447" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z447" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA447" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB447" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC447" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD447" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE447" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF447" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG447" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH447" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI447" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ447" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK447" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL447" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM447" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN447" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO447" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP447" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ447" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR447" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS447" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT447" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU447" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV447" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW447" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX447" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY447" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ447" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA447" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB447" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC447" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD447" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE447" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF447" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG447" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH447" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI447" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ447" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK447" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL447" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM447" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN447" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO447" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP447" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ447" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR447" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS447" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT447" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="448" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>696</v>
       </c>
@@ -46486,8 +46786,107 @@
       <c r="E448" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F448" t="s">
+        <v>148</v>
+      </c>
+      <c r="I448" t="s">
+        <v>104</v>
+      </c>
+      <c r="J448" t="s">
+        <v>87</v>
+      </c>
+      <c r="K448" t="s">
+        <v>88</v>
+      </c>
+      <c r="L448" t="s">
+        <v>89</v>
+      </c>
+      <c r="M448" t="s">
+        <v>91</v>
+      </c>
+      <c r="N448" t="s">
+        <v>92</v>
+      </c>
+      <c r="O448" t="s">
+        <v>90</v>
+      </c>
+      <c r="P448" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>107</v>
+      </c>
+      <c r="R448" t="s">
+        <v>108</v>
+      </c>
+      <c r="S448" t="s">
+        <v>142</v>
+      </c>
+      <c r="T448" t="s">
+        <v>110</v>
+      </c>
+      <c r="U448" t="s">
+        <v>137</v>
+      </c>
+      <c r="V448" t="s">
+        <v>102</v>
+      </c>
+      <c r="W448" t="s">
+        <v>141</v>
+      </c>
+      <c r="X448" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y448" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z448" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA448" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB448" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC448" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD448" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE448" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF448" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG448" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH448" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI448" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ448" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK448" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL448" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM448" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN448" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>697</v>
       </c>
@@ -46497,8 +46896,50 @@
       <c r="E449" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I449" t="s">
+        <v>190</v>
+      </c>
+      <c r="J449" t="s">
+        <v>119</v>
+      </c>
+      <c r="K449" t="s">
+        <v>91</v>
+      </c>
+      <c r="L449" t="s">
+        <v>92</v>
+      </c>
+      <c r="M449" t="s">
+        <v>110</v>
+      </c>
+      <c r="N449" t="s">
+        <v>110</v>
+      </c>
+      <c r="O449" t="s">
+        <v>168</v>
+      </c>
+      <c r="P449" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>96</v>
+      </c>
+      <c r="R449" t="s">
+        <v>97</v>
+      </c>
+      <c r="S449" t="s">
+        <v>160</v>
+      </c>
+      <c r="T449" t="s">
+        <v>89</v>
+      </c>
+      <c r="U449" t="s">
+        <v>165</v>
+      </c>
+      <c r="V449" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>698</v>
       </c>
@@ -46511,8 +46952,26 @@
       <c r="E450" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I450" t="s">
+        <v>219</v>
+      </c>
+      <c r="J450" t="s">
+        <v>117</v>
+      </c>
+      <c r="K450" t="s">
+        <v>170</v>
+      </c>
+      <c r="L450" t="s">
+        <v>92</v>
+      </c>
+      <c r="M450" t="s">
+        <v>179</v>
+      </c>
+      <c r="N450" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="451" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>699</v>
       </c>
@@ -46523,7 +46982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>700</v>
       </c>
@@ -46534,7 +46993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>701</v>
       </c>
@@ -46551,7 +47010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>702</v>
       </c>
@@ -46565,7 +47024,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>703</v>
       </c>
@@ -46582,7 +47041,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>704</v>
       </c>
@@ -46596,7 +47055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>705</v>
       </c>
@@ -46610,7 +47069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>706</v>
       </c>
@@ -46624,7 +47083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>707</v>
       </c>
@@ -46638,7 +47097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>708</v>
       </c>
@@ -46652,7 +47111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>709</v>
       </c>
@@ -46666,7 +47125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>710</v>
       </c>
@@ -46680,7 +47139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>711</v>
       </c>
@@ -46694,7 +47153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>712</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896AC640-2F82-4CB9-9C5A-A49525FA4DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF98F9A-D2D0-4B77-8FC1-32A5DC568E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14557" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14652" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2119,9 +2119,6 @@
     <t>Unfezant</t>
   </si>
   <si>
-    <t>Unown</t>
-  </si>
-  <si>
     <t>Uxie</t>
   </si>
   <si>
@@ -2459,6 +2456,9 @@
   </si>
   <si>
     <t>Dragon Hammer</t>
+  </si>
+  <si>
+    <t>Mirror Shot</t>
   </si>
 </sst>
 </file>
@@ -2836,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN489"/>
+  <dimension ref="A1:CN488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451"/>
+    <sheetView tabSelected="1" topLeftCell="S445" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AA455" sqref="AA455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3092,34 +3092,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -4460,7 +4460,7 @@
         <v>102</v>
       </c>
       <c r="BI13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BJ13" t="s">
         <v>89</v>
@@ -6676,7 +6676,7 @@
         <v>89</v>
       </c>
       <c r="AK38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AL38" t="s">
         <v>122</v>
@@ -7542,7 +7542,7 @@
         <v>83</v>
       </c>
       <c r="AE48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF48" t="s">
         <v>89</v>
@@ -10059,7 +10059,7 @@
         <v>95</v>
       </c>
       <c r="Y81" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Z81" t="s">
         <v>122</v>
@@ -10412,7 +10412,7 @@
         <v>122</v>
       </c>
       <c r="AC85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -10420,7 +10420,7 @@
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -10531,7 +10531,7 @@
         <v>129</v>
       </c>
       <c r="AQ86" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AR86" t="s">
         <v>84</v>
@@ -11106,7 +11106,7 @@
         <v>83</v>
       </c>
       <c r="AC93" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AD93" t="s">
         <v>83</v>
@@ -11314,7 +11314,7 @@
         <v>95</v>
       </c>
       <c r="BE95" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="BF95" t="s">
         <v>84</v>
@@ -11545,7 +11545,7 @@
         <v>89</v>
       </c>
       <c r="S98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T98" t="s">
         <v>87</v>
@@ -11631,13 +11631,13 @@
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J99" t="s">
         <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L99" t="s">
         <v>116</v>
@@ -11732,13 +11732,13 @@
         <v>148</v>
       </c>
       <c r="I100" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11949,7 +11949,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AL102" t="s">
         <v>89</v>
@@ -12126,7 +12126,7 @@
     </row>
     <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -12213,7 +12213,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AJ105" t="s">
         <v>92</v>
@@ -12602,7 +12602,7 @@
         <v>87</v>
       </c>
       <c r="S109" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T109" t="s">
         <v>87</v>
@@ -12762,7 +12762,7 @@
         <v>87</v>
       </c>
       <c r="K111" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L111" t="s">
         <v>87</v>
@@ -12962,7 +12962,7 @@
         <v>119</v>
       </c>
       <c r="BA112" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="BB112" t="s">
         <v>102</v>
@@ -12974,7 +12974,7 @@
         <v>95</v>
       </c>
       <c r="BE112" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="BF112" t="s">
         <v>84</v>
@@ -13152,7 +13152,7 @@
         <v>129</v>
       </c>
       <c r="AG114" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AH114" t="s">
         <v>129</v>
@@ -13164,7 +13164,7 @@
         <v>129</v>
       </c>
       <c r="AK114" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AL114" t="s">
         <v>129</v>
@@ -13268,7 +13268,7 @@
         <v>119</v>
       </c>
       <c r="AK115" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AL115" t="s">
         <v>116</v>
@@ -13348,7 +13348,7 @@
         <v>129</v>
       </c>
       <c r="O116" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P116" t="s">
         <v>106</v>
@@ -13506,7 +13506,7 @@
         <v>89</v>
       </c>
       <c r="AG117" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AH117" t="s">
         <v>102</v>
@@ -14348,7 +14348,7 @@
         <v>95</v>
       </c>
       <c r="AG124" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH124" t="s">
         <v>122</v>
@@ -14368,7 +14368,7 @@
         <v>85</v>
       </c>
       <c r="I125" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J125" t="s">
         <v>122</v>
@@ -14889,7 +14889,7 @@
         <v>92</v>
       </c>
       <c r="W129" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X129" t="s">
         <v>129</v>
@@ -14913,7 +14913,7 @@
         <v>129</v>
       </c>
       <c r="AE129" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AF129" t="s">
         <v>129</v>
@@ -14983,7 +14983,7 @@
         <v>89</v>
       </c>
       <c r="U131" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V131" t="s">
         <v>87</v>
@@ -15395,7 +15395,7 @@
         <v>84</v>
       </c>
       <c r="Q136" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R136" t="s">
         <v>116</v>
@@ -15491,7 +15491,7 @@
         <v>84</v>
       </c>
       <c r="AW136" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AX136" t="s">
         <v>102</v>
@@ -15722,7 +15722,7 @@
         <v>83</v>
       </c>
       <c r="Y139" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Z139" t="s">
         <v>129</v>
@@ -15929,7 +15929,7 @@
         <v>87</v>
       </c>
       <c r="AE142" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF142" t="s">
         <v>110</v>
@@ -16030,7 +16030,7 @@
         <v>89</v>
       </c>
       <c r="AC143" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AD143" t="s">
         <v>87</v>
@@ -16167,13 +16167,13 @@
         <v>106</v>
       </c>
       <c r="M144" t="s">
+        <v>758</v>
+      </c>
+      <c r="N144" t="s">
+        <v>89</v>
+      </c>
+      <c r="O144" t="s">
         <v>759</v>
-      </c>
-      <c r="N144" t="s">
-        <v>89</v>
-      </c>
-      <c r="O144" t="s">
-        <v>760</v>
       </c>
       <c r="P144" t="s">
         <v>106</v>
@@ -16259,13 +16259,13 @@
         <v>85</v>
       </c>
       <c r="I145" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J145" t="s">
         <v>116</v>
       </c>
       <c r="K145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L145" t="s">
         <v>83</v>
@@ -16289,13 +16289,13 @@
         <v>117</v>
       </c>
       <c r="S145" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T145" t="s">
         <v>106</v>
       </c>
       <c r="U145" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V145" t="s">
         <v>83</v>
@@ -16690,7 +16690,7 @@
         <v>85</v>
       </c>
       <c r="I149" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J149" t="s">
         <v>116</v>
@@ -16708,7 +16708,7 @@
         <v>117</v>
       </c>
       <c r="O149" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P149" t="s">
         <v>116</v>
@@ -16844,7 +16844,7 @@
         <v>92</v>
       </c>
       <c r="K151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L151" t="s">
         <v>116</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="152" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -17063,7 +17063,7 @@
         <v>83</v>
       </c>
       <c r="K154" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L154" t="s">
         <v>83</v>
@@ -17081,7 +17081,7 @@
         <v>83</v>
       </c>
       <c r="Q154" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R154" t="s">
         <v>83</v>
@@ -17111,7 +17111,7 @@
         <v>83</v>
       </c>
       <c r="AA154" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB154" t="s">
         <v>110</v>
@@ -17152,7 +17152,7 @@
         <v>83</v>
       </c>
       <c r="M155" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="N155" t="s">
         <v>117</v>
@@ -17182,13 +17182,13 @@
         <v>117</v>
       </c>
       <c r="W155" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X155" t="s">
         <v>106</v>
       </c>
       <c r="Y155" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Z155" t="s">
         <v>106</v>
@@ -17200,7 +17200,7 @@
         <v>117</v>
       </c>
       <c r="AC155" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD155" t="s">
         <v>116</v>
@@ -17242,7 +17242,7 @@
         <v>83</v>
       </c>
       <c r="AQ155" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AR155" t="s">
         <v>110</v>
@@ -17812,7 +17812,7 @@
         <v>102</v>
       </c>
       <c r="K161" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L161" t="s">
         <v>83</v>
@@ -17848,7 +17848,7 @@
         <v>119</v>
       </c>
       <c r="W161" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="X161" t="s">
         <v>83</v>
@@ -17932,7 +17932,7 @@
         <v>106</v>
       </c>
       <c r="AY161" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AZ161" t="s">
         <v>129</v>
@@ -18330,7 +18330,7 @@
         <v>106</v>
       </c>
       <c r="AA165" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AB165" t="s">
         <v>127</v>
@@ -18492,7 +18492,7 @@
     </row>
     <row r="168" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -18882,7 +18882,7 @@
         <v>84</v>
       </c>
       <c r="AU171" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AV171" t="s">
         <v>110</v>
@@ -18912,7 +18912,7 @@
         <v>87</v>
       </c>
       <c r="BE171" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BF171" t="s">
         <v>89</v>
@@ -18992,7 +18992,7 @@
         <v>117</v>
       </c>
       <c r="Y172" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z172" t="s">
         <v>87</v>
@@ -19046,7 +19046,7 @@
         <v>102</v>
       </c>
       <c r="AQ172" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AR172" t="s">
         <v>106</v>
@@ -19150,7 +19150,7 @@
         <v>117</v>
       </c>
       <c r="AK173" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AL173" t="s">
         <v>106</v>
@@ -19376,7 +19376,7 @@
         <v>83</v>
       </c>
       <c r="AE175" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF175" t="s">
         <v>87</v>
@@ -19412,7 +19412,7 @@
         <v>119</v>
       </c>
       <c r="AQ175" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AR175" t="s">
         <v>116</v>
@@ -20358,7 +20358,7 @@
         <v>129</v>
       </c>
       <c r="Q183" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R183" t="s">
         <v>129</v>
@@ -20406,7 +20406,7 @@
         <v>129</v>
       </c>
       <c r="AG183" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AH183" t="s">
         <v>129</v>
@@ -20587,7 +20587,7 @@
         <v>87</v>
       </c>
       <c r="Q185" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R185" t="s">
         <v>87</v>
@@ -21067,7 +21067,7 @@
         <v>127</v>
       </c>
       <c r="S188" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T188" t="s">
         <v>87</v>
@@ -21151,7 +21151,7 @@
         <v>97</v>
       </c>
       <c r="AU188" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AV188" t="s">
         <v>106</v>
@@ -21186,7 +21186,7 @@
         <v>102</v>
       </c>
       <c r="K189" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L189" t="s">
         <v>89</v>
@@ -21306,7 +21306,7 @@
         <v>102</v>
       </c>
       <c r="AY189" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AZ189" t="s">
         <v>92</v>
@@ -21770,7 +21770,7 @@
         <v>95</v>
       </c>
       <c r="AG193" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AH193" t="s">
         <v>92</v>
@@ -21817,7 +21817,7 @@
         <v>95</v>
       </c>
       <c r="O194" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P194" t="s">
         <v>117</v>
@@ -21877,7 +21877,7 @@
         <v>95</v>
       </c>
       <c r="AI194" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AJ194" t="s">
         <v>92</v>
@@ -21966,7 +21966,7 @@
         <v>116</v>
       </c>
       <c r="AC195" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AD195" t="s">
         <v>102</v>
@@ -21984,7 +21984,7 @@
         <v>102</v>
       </c>
       <c r="AI195" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AJ195" t="s">
         <v>92</v>
@@ -22016,7 +22016,7 @@
         <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J196" t="s">
         <v>122</v>
@@ -22046,7 +22046,7 @@
         <v>97</v>
       </c>
       <c r="S196" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T196" t="s">
         <v>110</v>
@@ -22224,7 +22224,7 @@
         <v>122</v>
       </c>
       <c r="K198" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L198" t="s">
         <v>122</v>
@@ -23097,7 +23097,7 @@
         <v>116</v>
       </c>
       <c r="AE207" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AF207" t="s">
         <v>84</v>
@@ -23109,7 +23109,7 @@
         <v>87</v>
       </c>
       <c r="AI207" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AJ207" t="s">
         <v>84</v>
@@ -23153,7 +23153,7 @@
         <v>100</v>
       </c>
       <c r="O208" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P208" t="s">
         <v>117</v>
@@ -23788,7 +23788,7 @@
         <v>89</v>
       </c>
       <c r="AA215" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AB215" t="s">
         <v>87</v>
@@ -24207,13 +24207,13 @@
         <v>87</v>
       </c>
       <c r="M219" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N219" t="s">
         <v>87</v>
       </c>
       <c r="O219" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P219" t="s">
         <v>89</v>
@@ -24305,7 +24305,7 @@
         <v>129</v>
       </c>
       <c r="O220" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P220" t="s">
         <v>89</v>
@@ -24509,7 +24509,7 @@
         <v>87</v>
       </c>
       <c r="S223" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="T223" t="s">
         <v>83</v>
@@ -24988,7 +24988,7 @@
         <v>92</v>
       </c>
       <c r="AO227" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AP227" t="s">
         <v>110</v>
@@ -25062,7 +25062,7 @@
         <v>119</v>
       </c>
       <c r="W228" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="X228" t="s">
         <v>116</v>
@@ -25092,7 +25092,7 @@
         <v>97</v>
       </c>
       <c r="AG228" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AH228" t="s">
         <v>129</v>
@@ -25365,7 +25365,7 @@
         <v>110</v>
       </c>
       <c r="AI231" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AJ231" t="s">
         <v>87</v>
@@ -25436,7 +25436,7 @@
         <v>89</v>
       </c>
       <c r="AA232" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AB232" t="s">
         <v>87</v>
@@ -25816,7 +25816,7 @@
         <v>87</v>
       </c>
       <c r="M236" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N236" t="s">
         <v>87</v>
@@ -25872,7 +25872,7 @@
         <v>87</v>
       </c>
       <c r="M237" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="N237" t="s">
         <v>87</v>
@@ -25920,7 +25920,7 @@
         <v>92</v>
       </c>
       <c r="AC237" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AD237" t="s">
         <v>87</v>
@@ -25950,7 +25950,7 @@
         <v>116</v>
       </c>
       <c r="AM237" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AN237" t="s">
         <v>87</v>
@@ -26066,7 +26066,7 @@
         <v>110</v>
       </c>
       <c r="Q238" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R238" t="s">
         <v>117</v>
@@ -26150,7 +26150,7 @@
         <v>102</v>
       </c>
       <c r="AS238" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AT238" t="s">
         <v>89</v>
@@ -27046,7 +27046,7 @@
         <v>85</v>
       </c>
       <c r="I248" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J248" t="s">
         <v>122</v>
@@ -27135,7 +27135,7 @@
         <v>92</v>
       </c>
       <c r="O249" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P249" t="s">
         <v>117</v>
@@ -27237,7 +27237,7 @@
         <v>102</v>
       </c>
       <c r="AW249" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AX249" t="s">
         <v>92</v>
@@ -27322,7 +27322,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K251" t="s">
         <v>101</v>
@@ -27451,7 +27451,7 @@
         <v>95</v>
       </c>
       <c r="BA251" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB251" t="s">
         <v>87</v>
@@ -27581,7 +27581,7 @@
         <v>95</v>
       </c>
       <c r="S253" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="T253" t="s">
         <v>89</v>
@@ -27634,7 +27634,7 @@
         <v>106</v>
       </c>
       <c r="U254" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V254" t="s">
         <v>117</v>
@@ -28074,7 +28074,7 @@
         <v>102</v>
       </c>
       <c r="BC258" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BD258" t="s">
         <v>89</v>
@@ -28092,13 +28092,13 @@
         <v>95</v>
       </c>
       <c r="BI258" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BJ258" t="s">
         <v>89</v>
       </c>
       <c r="BK258" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BL258" t="s">
         <v>89</v>
@@ -28172,7 +28172,7 @@
         <v>97</v>
       </c>
       <c r="AA259" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AB259" t="s">
         <v>129</v>
@@ -28296,7 +28296,7 @@
         <v>122</v>
       </c>
       <c r="K261" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L261" t="s">
         <v>122</v>
@@ -28878,7 +28878,7 @@
     </row>
     <row r="267" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -29101,7 +29101,7 @@
         <v>89</v>
       </c>
       <c r="O269" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P269" t="s">
         <v>87</v>
@@ -29404,7 +29404,7 @@
         <v>89</v>
       </c>
       <c r="AA272" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AB272" t="s">
         <v>87</v>
@@ -29538,7 +29538,7 @@
         <v>102</v>
       </c>
       <c r="K273" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L273" t="s">
         <v>83</v>
@@ -29763,7 +29763,7 @@
         <v>119</v>
       </c>
       <c r="O276" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P276" t="s">
         <v>117</v>
@@ -29829,7 +29829,7 @@
         <v>117</v>
       </c>
       <c r="AK276" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AL276" t="s">
         <v>110</v>
@@ -30381,7 +30381,7 @@
         <v>119</v>
       </c>
       <c r="O282" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P282" t="s">
         <v>117</v>
@@ -30495,7 +30495,7 @@
         <v>102</v>
       </c>
       <c r="BA282" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BB282" t="s">
         <v>89</v>
@@ -30676,7 +30676,7 @@
         <v>83</v>
       </c>
       <c r="O284" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P284" t="s">
         <v>97</v>
@@ -30729,7 +30729,7 @@
         <v>92</v>
       </c>
       <c r="K285" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L285" t="s">
         <v>108</v>
@@ -31269,7 +31269,7 @@
         <v>186</v>
       </c>
       <c r="AR288" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AS288" t="s">
         <v>276</v>
@@ -31660,7 +31660,7 @@
         <v>110</v>
       </c>
       <c r="W293" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X293" t="s">
         <v>110</v>
@@ -31764,7 +31764,7 @@
         <v>87</v>
       </c>
       <c r="AG294" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AH294" t="s">
         <v>110</v>
@@ -32183,7 +32183,7 @@
         <v>127</v>
       </c>
       <c r="K298" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L298" t="s">
         <v>89</v>
@@ -32278,7 +32278,7 @@
         <v>127</v>
       </c>
       <c r="K299" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L299" t="s">
         <v>89</v>
@@ -32394,7 +32394,7 @@
         <v>100</v>
       </c>
       <c r="Q300" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R300" t="s">
         <v>89</v>
@@ -32857,7 +32857,7 @@
         <v>85</v>
       </c>
       <c r="I308" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J308" t="s">
         <v>122</v>
@@ -32967,7 +32967,7 @@
         <v>97</v>
       </c>
       <c r="W309" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X309" t="s">
         <v>129</v>
@@ -33581,7 +33581,7 @@
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B316" t="s">
         <v>129</v>
@@ -33658,7 +33658,7 @@
         <v>85</v>
       </c>
       <c r="I317" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J317" t="s">
         <v>122</v>
@@ -33801,7 +33801,7 @@
         <v>127</v>
       </c>
       <c r="K318" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L318" t="s">
         <v>83</v>
@@ -34172,7 +34172,7 @@
         <v>129</v>
       </c>
       <c r="Y322" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Z322" t="s">
         <v>116</v>
@@ -34407,13 +34407,13 @@
         <v>102</v>
       </c>
       <c r="AI324" t="s">
+        <v>792</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK324" t="s">
         <v>793</v>
-      </c>
-      <c r="AJ324" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK324" t="s">
-        <v>794</v>
       </c>
       <c r="AL324" t="s">
         <v>87</v>
@@ -34707,7 +34707,7 @@
         <v>102</v>
       </c>
       <c r="AI327" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AJ327" t="s">
         <v>89</v>
@@ -34852,7 +34852,7 @@
         <v>97</v>
       </c>
       <c r="U329" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V329" t="s">
         <v>110</v>
@@ -35409,7 +35409,7 @@
         <v>127</v>
       </c>
       <c r="M336" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N336" t="s">
         <v>97</v>
@@ -35528,7 +35528,7 @@
         <v>129</v>
       </c>
       <c r="AA337" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AB337" t="s">
         <v>116</v>
@@ -35632,7 +35632,7 @@
         <v>129</v>
       </c>
       <c r="AA338" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AB338" t="s">
         <v>116</v>
@@ -35798,7 +35798,7 @@
         <v>89</v>
       </c>
       <c r="U340" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V340" t="s">
         <v>87</v>
@@ -35953,7 +35953,7 @@
         <v>85</v>
       </c>
       <c r="I341" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J341" t="s">
         <v>83</v>
@@ -35983,7 +35983,7 @@
         <v>92</v>
       </c>
       <c r="S341" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T341" t="s">
         <v>89</v>
@@ -36069,7 +36069,7 @@
         <v>92</v>
       </c>
       <c r="O342" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P342" t="s">
         <v>89</v>
@@ -36393,7 +36393,7 @@
         <v>89</v>
       </c>
       <c r="W345" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X345" t="s">
         <v>87</v>
@@ -36488,7 +36488,7 @@
         <v>89</v>
       </c>
       <c r="M346" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="N346" t="s">
         <v>87</v>
@@ -36580,7 +36580,7 @@
         <v>89</v>
       </c>
       <c r="W347" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X347" t="s">
         <v>87</v>
@@ -36753,7 +36753,7 @@
         <v>89</v>
       </c>
       <c r="Y348" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z348" t="s">
         <v>87</v>
@@ -36893,7 +36893,7 @@
         <v>89</v>
       </c>
       <c r="W349" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X349" t="s">
         <v>87</v>
@@ -37065,7 +37065,7 @@
         <v>87</v>
       </c>
       <c r="S351" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T351" t="s">
         <v>87</v>
@@ -37157,7 +37157,7 @@
         <v>117</v>
       </c>
       <c r="K352" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L352" t="s">
         <v>89</v>
@@ -37201,7 +37201,7 @@
         <v>85</v>
       </c>
       <c r="I353" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J353" t="s">
         <v>92</v>
@@ -37267,7 +37267,7 @@
         <v>129</v>
       </c>
       <c r="AE353" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF353" t="s">
         <v>87</v>
@@ -37491,7 +37491,7 @@
         <v>110</v>
       </c>
       <c r="Q354" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R354" t="s">
         <v>110</v>
@@ -37617,7 +37617,7 @@
         <v>102</v>
       </c>
       <c r="K357" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L357" t="s">
         <v>97</v>
@@ -37629,7 +37629,7 @@
         <v>102</v>
       </c>
       <c r="O357" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P357" t="s">
         <v>97</v>
@@ -37679,7 +37679,7 @@
         <v>102</v>
       </c>
       <c r="K358" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L358" t="s">
         <v>97</v>
@@ -37691,7 +37691,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37741,7 +37741,7 @@
         <v>102</v>
       </c>
       <c r="K359" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L359" t="s">
         <v>97</v>
@@ -37753,7 +37753,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37803,7 +37803,7 @@
         <v>102</v>
       </c>
       <c r="K360" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L360" t="s">
         <v>97</v>
@@ -37815,7 +37815,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -37945,7 +37945,7 @@
         <v>122</v>
       </c>
       <c r="K362" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L362" t="s">
         <v>92</v>
@@ -38077,7 +38077,7 @@
         <v>87</v>
       </c>
       <c r="BC362" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="BD362" t="s">
         <v>129</v>
@@ -38234,7 +38234,7 @@
         <v>84</v>
       </c>
       <c r="U364" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V364" t="s">
         <v>87</v>
@@ -38576,7 +38576,7 @@
         <v>122</v>
       </c>
       <c r="M367" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N367" t="s">
         <v>122</v>
@@ -38876,13 +38876,13 @@
         <v>106</v>
       </c>
       <c r="K370" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L370" t="s">
         <v>87</v>
       </c>
       <c r="M370" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N370" t="s">
         <v>89</v>
@@ -39887,7 +39887,7 @@
         <v>108</v>
       </c>
       <c r="Q379" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R379" t="s">
         <v>110</v>
@@ -40212,7 +40212,7 @@
         <v>87</v>
       </c>
       <c r="K384" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L384" t="s">
         <v>100</v>
@@ -40762,31 +40762,31 @@
         <v>85</v>
       </c>
       <c r="I389" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J389" t="s">
         <v>116</v>
       </c>
       <c r="K389" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L389" t="s">
         <v>83</v>
       </c>
       <c r="M389" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N389" t="s">
         <v>116</v>
       </c>
       <c r="O389" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P389" t="s">
         <v>106</v>
       </c>
       <c r="Q389" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R389" t="s">
         <v>83</v>
@@ -40896,7 +40896,7 @@
         <v>117</v>
       </c>
       <c r="Y390" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Z390" t="s">
         <v>117</v>
@@ -40979,7 +40979,7 @@
         <v>89</v>
       </c>
       <c r="AC391" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AD391" t="s">
         <v>87</v>
@@ -41179,7 +41179,7 @@
         <v>85</v>
       </c>
       <c r="I392" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J392" t="s">
         <v>117</v>
@@ -41355,7 +41355,7 @@
         <v>97</v>
       </c>
       <c r="AM393" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AN393" t="s">
         <v>129</v>
@@ -41391,7 +41391,7 @@
         <v>84</v>
       </c>
       <c r="AY393" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AZ393" t="s">
         <v>129</v>
@@ -41736,7 +41736,7 @@
         <v>89</v>
       </c>
       <c r="AI396" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AJ396" t="s">
         <v>87</v>
@@ -41796,7 +41796,7 @@
         <v>102</v>
       </c>
       <c r="BC396" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="BD396" t="s">
         <v>87</v>
@@ -41924,7 +41924,7 @@
         <v>117</v>
       </c>
       <c r="M397" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N397" t="s">
         <v>117</v>
@@ -42318,7 +42318,7 @@
         <v>87</v>
       </c>
       <c r="Q402" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R402" t="s">
         <v>110</v>
@@ -43021,7 +43021,7 @@
         <v>87</v>
       </c>
       <c r="Q410" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R410" t="s">
         <v>83</v>
@@ -43033,7 +43033,7 @@
         <v>89</v>
       </c>
       <c r="U410" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V410" t="s">
         <v>87</v>
@@ -43434,7 +43434,7 @@
         <v>87</v>
       </c>
       <c r="Y414" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z414" t="s">
         <v>87</v>
@@ -43892,7 +43892,7 @@
         <v>95</v>
       </c>
       <c r="U421" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V421" t="s">
         <v>89</v>
@@ -44744,7 +44744,7 @@
         <v>87</v>
       </c>
       <c r="Q430" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R430" t="s">
         <v>87</v>
@@ -44798,7 +44798,7 @@
         <v>92</v>
       </c>
       <c r="AI430" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AJ430" t="s">
         <v>110</v>
@@ -44866,7 +44866,7 @@
         <v>102</v>
       </c>
       <c r="K431" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L431" t="s">
         <v>84</v>
@@ -45124,7 +45124,7 @@
         <v>119</v>
       </c>
       <c r="U434" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V434" t="s">
         <v>117</v>
@@ -45362,7 +45362,7 @@
         <v>87</v>
       </c>
       <c r="S436" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T436" t="s">
         <v>87</v>
@@ -45782,7 +45782,7 @@
         <v>102</v>
       </c>
       <c r="AY439" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AZ439" t="s">
         <v>92</v>
@@ -45844,7 +45844,7 @@
         <v>117</v>
       </c>
       <c r="S440" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="T440" t="s">
         <v>110</v>
@@ -45942,7 +45942,7 @@
         <v>102</v>
       </c>
       <c r="AC441" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AD441" t="s">
         <v>110</v>
@@ -46010,7 +46010,7 @@
         <v>89</v>
       </c>
       <c r="M442" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N442" t="s">
         <v>100</v>
@@ -46072,7 +46072,7 @@
         <v>148</v>
       </c>
       <c r="I443" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J443" t="s">
         <v>87</v>
@@ -46886,7 +46886,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>697</v>
       </c>
@@ -46939,7 +46939,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>698</v>
       </c>
@@ -46971,7 +46971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>699</v>
       </c>
@@ -46981,72 +46981,369 @@
       <c r="E451" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I451" t="s">
+        <v>101</v>
+      </c>
+      <c r="J451" t="s">
+        <v>102</v>
+      </c>
+      <c r="K451" t="s">
+        <v>185</v>
+      </c>
+      <c r="L451" t="s">
+        <v>83</v>
+      </c>
+      <c r="M451" t="s">
+        <v>166</v>
+      </c>
+      <c r="N451" t="s">
+        <v>83</v>
+      </c>
+      <c r="O451" t="s">
+        <v>118</v>
+      </c>
+      <c r="P451" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q451" t="s">
+        <v>91</v>
+      </c>
+      <c r="R451" t="s">
+        <v>92</v>
+      </c>
+      <c r="S451" t="s">
+        <v>175</v>
+      </c>
+      <c r="T451" t="s">
+        <v>102</v>
+      </c>
+      <c r="U451" t="s">
+        <v>125</v>
+      </c>
+      <c r="V451" t="s">
+        <v>83</v>
+      </c>
+      <c r="W451" t="s">
+        <v>107</v>
+      </c>
+      <c r="X451" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y451" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z451" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA451" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB451" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC451" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD451" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE451" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF451" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG451" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH451" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI451" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ451" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK451" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL451" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM451" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN451" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO451" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP451" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ451" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR451" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS451" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT451" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU451" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV451" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="452" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>700</v>
       </c>
       <c r="B452" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E452" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I452" t="s">
+        <v>222</v>
+      </c>
+      <c r="J452" t="s">
+        <v>119</v>
+      </c>
+      <c r="K452" t="s">
+        <v>204</v>
+      </c>
+      <c r="L452" t="s">
+        <v>122</v>
+      </c>
+      <c r="M452" t="s">
+        <v>236</v>
+      </c>
+      <c r="N452" t="s">
+        <v>92</v>
+      </c>
+      <c r="O452" t="s">
+        <v>194</v>
+      </c>
+      <c r="P452" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>812</v>
+      </c>
+      <c r="R452" t="s">
+        <v>92</v>
+      </c>
+      <c r="S452" t="s">
+        <v>191</v>
+      </c>
+      <c r="T452" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="453" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>701</v>
       </c>
       <c r="B453" t="s">
+        <v>129</v>
+      </c>
+      <c r="E453" t="s">
+        <v>85</v>
+      </c>
+      <c r="G453" t="s">
+        <v>148</v>
+      </c>
+      <c r="I453" t="s">
+        <v>316</v>
+      </c>
+      <c r="J453" t="s">
+        <v>110</v>
+      </c>
+      <c r="K453" t="s">
+        <v>91</v>
+      </c>
+      <c r="L453" t="s">
+        <v>92</v>
+      </c>
+      <c r="M453" t="s">
+        <v>156</v>
+      </c>
+      <c r="N453" t="s">
         <v>84</v>
       </c>
-      <c r="E453" t="s">
-        <v>85</v>
-      </c>
-      <c r="I453" t="s">
-        <v>222</v>
-      </c>
-      <c r="J453" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O453" t="s">
+        <v>168</v>
+      </c>
+      <c r="P453" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>96</v>
+      </c>
+      <c r="R453" t="s">
+        <v>97</v>
+      </c>
+      <c r="S453" t="s">
+        <v>160</v>
+      </c>
+      <c r="T453" t="s">
+        <v>89</v>
+      </c>
+      <c r="U453" t="s">
+        <v>194</v>
+      </c>
+      <c r="V453" t="s">
+        <v>106</v>
+      </c>
+      <c r="W453" t="s">
+        <v>205</v>
+      </c>
+      <c r="X453" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y453" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z453" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="454" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>702</v>
       </c>
       <c r="B454" t="s">
         <v>129</v>
       </c>
+      <c r="C454" t="s">
+        <v>110</v>
+      </c>
       <c r="E454" t="s">
         <v>85</v>
       </c>
-      <c r="G454" t="s">
+      <c r="F454" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I454" t="s">
+        <v>156</v>
+      </c>
+      <c r="J454" t="s">
+        <v>84</v>
+      </c>
+      <c r="K454" t="s">
+        <v>137</v>
+      </c>
+      <c r="L454" t="s">
+        <v>102</v>
+      </c>
+      <c r="M454" t="s">
+        <v>256</v>
+      </c>
+      <c r="N454" t="s">
+        <v>89</v>
+      </c>
+      <c r="O454" t="s">
+        <v>228</v>
+      </c>
+      <c r="P454" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>140</v>
+      </c>
+      <c r="R454" t="s">
+        <v>84</v>
+      </c>
+      <c r="S454" t="s">
+        <v>208</v>
+      </c>
+      <c r="T454" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="455" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>703</v>
       </c>
       <c r="B455" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C455" t="s">
+        <v>127</v>
+      </c>
+      <c r="E455" t="s">
+        <v>85</v>
+      </c>
+      <c r="I455" t="s">
+        <v>166</v>
+      </c>
+      <c r="J455" t="s">
+        <v>83</v>
+      </c>
+      <c r="K455" t="s">
+        <v>125</v>
+      </c>
+      <c r="L455" t="s">
+        <v>83</v>
+      </c>
+      <c r="M455" t="s">
         <v>110</v>
       </c>
-      <c r="E455" t="s">
-        <v>85</v>
-      </c>
-      <c r="F455" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N455" t="s">
+        <v>110</v>
+      </c>
+      <c r="O455" t="s">
+        <v>114</v>
+      </c>
+      <c r="P455" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>329</v>
+      </c>
+      <c r="R455" t="s">
+        <v>116</v>
+      </c>
+      <c r="S455" t="s">
+        <v>162</v>
+      </c>
+      <c r="T455" t="s">
+        <v>83</v>
+      </c>
+      <c r="U455" t="s">
+        <v>757</v>
+      </c>
+      <c r="V455" t="s">
+        <v>110</v>
+      </c>
+      <c r="W455" t="s">
+        <v>229</v>
+      </c>
+      <c r="X455" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y455" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z455" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="456" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>704</v>
       </c>
       <c r="B456" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C456" t="s">
         <v>127</v>
@@ -47055,63 +47352,63 @@
         <v>85</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>705</v>
       </c>
       <c r="B457" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C457" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E457" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>706</v>
       </c>
       <c r="B458" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C458" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E458" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>707</v>
       </c>
       <c r="B459" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C459" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E459" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>708</v>
       </c>
       <c r="B460" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C460" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E460" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>709</v>
       </c>
@@ -47119,46 +47416,46 @@
         <v>83</v>
       </c>
       <c r="C461" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E461" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>710</v>
       </c>
       <c r="B462" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C462" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E462" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>711</v>
       </c>
       <c r="B463" t="s">
         <v>106</v>
       </c>
-      <c r="C463" t="s">
-        <v>116</v>
-      </c>
       <c r="E463" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>712</v>
       </c>
       <c r="B464" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="C464" t="s">
+        <v>129</v>
       </c>
       <c r="E464" t="s">
         <v>85</v>
@@ -47169,9 +47466,6 @@
         <v>713</v>
       </c>
       <c r="B465" t="s">
-        <v>117</v>
-      </c>
-      <c r="C465" t="s">
         <v>129</v>
       </c>
       <c r="E465" t="s">
@@ -47183,6 +47477,9 @@
         <v>714</v>
       </c>
       <c r="B466" t="s">
+        <v>84</v>
+      </c>
+      <c r="C466" t="s">
         <v>129</v>
       </c>
       <c r="E466" t="s">
@@ -47194,10 +47491,7 @@
         <v>715</v>
       </c>
       <c r="B467" t="s">
-        <v>84</v>
-      </c>
-      <c r="C467" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E467" t="s">
         <v>85</v>
@@ -47208,10 +47502,13 @@
         <v>716</v>
       </c>
       <c r="B468" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E468" t="s">
         <v>85</v>
+      </c>
+      <c r="G468" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
@@ -47221,11 +47518,11 @@
       <c r="B469" t="s">
         <v>127</v>
       </c>
+      <c r="C469" t="s">
+        <v>108</v>
+      </c>
       <c r="E469" t="s">
         <v>85</v>
-      </c>
-      <c r="G469" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
@@ -47233,7 +47530,7 @@
         <v>718</v>
       </c>
       <c r="B470" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C470" t="s">
         <v>108</v>
@@ -47247,10 +47544,10 @@
         <v>719</v>
       </c>
       <c r="B471" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C471" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E471" t="s">
         <v>85</v>
@@ -47261,10 +47558,10 @@
         <v>720</v>
       </c>
       <c r="B472" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C472" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E472" t="s">
         <v>85</v>
@@ -47275,10 +47572,7 @@
         <v>721</v>
       </c>
       <c r="B473" t="s">
-        <v>173</v>
-      </c>
-      <c r="C473" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E473" t="s">
         <v>85</v>
@@ -47289,7 +47583,7 @@
         <v>722</v>
       </c>
       <c r="B474" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E474" t="s">
         <v>85</v>
@@ -47300,7 +47594,10 @@
         <v>723</v>
       </c>
       <c r="B475" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="C475" t="s">
+        <v>83</v>
       </c>
       <c r="E475" t="s">
         <v>85</v>
@@ -47311,7 +47608,7 @@
         <v>724</v>
       </c>
       <c r="B476" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C476" t="s">
         <v>83</v>
@@ -47328,7 +47625,7 @@
         <v>106</v>
       </c>
       <c r="C477" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E477" t="s">
         <v>85</v>
@@ -47342,7 +47639,7 @@
         <v>106</v>
       </c>
       <c r="C478" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E478" t="s">
         <v>85</v>
@@ -47353,10 +47650,7 @@
         <v>727</v>
       </c>
       <c r="B479" t="s">
-        <v>106</v>
-      </c>
-      <c r="C479" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E479" t="s">
         <v>85</v>
@@ -47367,10 +47661,16 @@
         <v>728</v>
       </c>
       <c r="B480" t="s">
-        <v>129</v>
+        <v>173</v>
+      </c>
+      <c r="C480" t="s">
+        <v>110</v>
       </c>
       <c r="E480" t="s">
         <v>85</v>
+      </c>
+      <c r="G480" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
@@ -47378,16 +47678,13 @@
         <v>729</v>
       </c>
       <c r="B481" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="C481" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E481" t="s">
         <v>85</v>
-      </c>
-      <c r="G481" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
@@ -47395,7 +47692,7 @@
         <v>730</v>
       </c>
       <c r="B482" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C482" t="s">
         <v>116</v>
@@ -47409,10 +47706,7 @@
         <v>731</v>
       </c>
       <c r="B483" t="s">
-        <v>106</v>
-      </c>
-      <c r="C483" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E483" t="s">
         <v>85</v>
@@ -47423,7 +47717,10 @@
         <v>732</v>
       </c>
       <c r="B484" t="s">
-        <v>173</v>
+        <v>102</v>
+      </c>
+      <c r="C484" t="s">
+        <v>83</v>
       </c>
       <c r="E484" t="s">
         <v>85</v>
@@ -47434,10 +47731,7 @@
         <v>733</v>
       </c>
       <c r="B485" t="s">
-        <v>102</v>
-      </c>
-      <c r="C485" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E485" t="s">
         <v>85</v>
@@ -47459,7 +47753,7 @@
         <v>735</v>
       </c>
       <c r="B487" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E487" t="s">
         <v>85</v>
@@ -47470,26 +47764,15 @@
         <v>736</v>
       </c>
       <c r="B488" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="C488" t="s">
+        <v>89</v>
       </c>
       <c r="E488" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A489" t="s">
-        <v>737</v>
-      </c>
-      <c r="B489" t="s">
-        <v>100</v>
-      </c>
-      <c r="C489" t="s">
-        <v>89</v>
-      </c>
-      <c r="E489" t="s">
-        <v>85</v>
-      </c>
-      <c r="G489" t="s">
+      <c r="G488" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF98F9A-D2D0-4B77-8FC1-32A5DC568E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F02D9-DEAB-4EF7-8FE3-9D574248A42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14652" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14722" uniqueCount="811">
   <si>
     <t>Name</t>
   </si>
@@ -2368,9 +2368,6 @@
     <t>Bone Rush</t>
   </si>
   <si>
-    <t>Tye</t>
-  </si>
-  <si>
     <t>Flame Burst</t>
   </si>
   <si>
@@ -2447,9 +2444,6 @@
   </si>
   <si>
     <t>Body Pres</t>
-  </si>
-  <si>
-    <t>Zen Headbtt</t>
   </si>
   <si>
     <t>Ice Hammer</t>
@@ -2838,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S445" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AA455" sqref="AA455"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3092,34 +3086,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -27322,7 +27316,7 @@
         <v>121</v>
       </c>
       <c r="J251" t="s">
-        <v>782</v>
+        <v>122</v>
       </c>
       <c r="K251" t="s">
         <v>101</v>
@@ -27634,7 +27628,7 @@
         <v>106</v>
       </c>
       <c r="U254" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V254" t="s">
         <v>117</v>
@@ -28074,7 +28068,7 @@
         <v>102</v>
       </c>
       <c r="BC258" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="BD258" t="s">
         <v>89</v>
@@ -28092,7 +28086,7 @@
         <v>95</v>
       </c>
       <c r="BI258" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BJ258" t="s">
         <v>89</v>
@@ -28878,7 +28872,7 @@
     </row>
     <row r="267" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B267" t="s">
         <v>110</v>
@@ -29763,7 +29757,7 @@
         <v>119</v>
       </c>
       <c r="O276" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P276" t="s">
         <v>117</v>
@@ -30676,7 +30670,7 @@
         <v>83</v>
       </c>
       <c r="O284" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P284" t="s">
         <v>97</v>
@@ -30729,7 +30723,7 @@
         <v>92</v>
       </c>
       <c r="K285" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L285" t="s">
         <v>108</v>
@@ -31269,7 +31263,7 @@
         <v>186</v>
       </c>
       <c r="AR288" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AS288" t="s">
         <v>276</v>
@@ -33581,7 +33575,7 @@
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B316" t="s">
         <v>129</v>
@@ -34407,13 +34401,13 @@
         <v>102</v>
       </c>
       <c r="AI324" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK324" t="s">
         <v>792</v>
-      </c>
-      <c r="AJ324" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK324" t="s">
-        <v>793</v>
       </c>
       <c r="AL324" t="s">
         <v>87</v>
@@ -35409,7 +35403,7 @@
         <v>127</v>
       </c>
       <c r="M336" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N336" t="s">
         <v>97</v>
@@ -37617,7 +37611,7 @@
         <v>102</v>
       </c>
       <c r="K357" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L357" t="s">
         <v>97</v>
@@ -37629,7 +37623,7 @@
         <v>102</v>
       </c>
       <c r="O357" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P357" t="s">
         <v>97</v>
@@ -37679,7 +37673,7 @@
         <v>102</v>
       </c>
       <c r="K358" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L358" t="s">
         <v>97</v>
@@ -37691,7 +37685,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37741,7 +37735,7 @@
         <v>102</v>
       </c>
       <c r="K359" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L359" t="s">
         <v>97</v>
@@ -37753,7 +37747,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37803,7 +37797,7 @@
         <v>102</v>
       </c>
       <c r="K360" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L360" t="s">
         <v>97</v>
@@ -37815,7 +37809,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -38234,7 +38228,7 @@
         <v>84</v>
       </c>
       <c r="U364" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V364" t="s">
         <v>87</v>
@@ -39887,7 +39881,7 @@
         <v>108</v>
       </c>
       <c r="Q379" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R379" t="s">
         <v>110</v>
@@ -40212,7 +40206,7 @@
         <v>87</v>
       </c>
       <c r="K384" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L384" t="s">
         <v>100</v>
@@ -40896,7 +40890,7 @@
         <v>117</v>
       </c>
       <c r="Y390" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Z390" t="s">
         <v>117</v>
@@ -41179,7 +41173,7 @@
         <v>85</v>
       </c>
       <c r="I392" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J392" t="s">
         <v>117</v>
@@ -41796,7 +41790,7 @@
         <v>102</v>
       </c>
       <c r="BC396" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="BD396" t="s">
         <v>87</v>
@@ -41924,7 +41918,7 @@
         <v>117</v>
       </c>
       <c r="M397" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N397" t="s">
         <v>117</v>
@@ -42318,7 +42312,7 @@
         <v>87</v>
       </c>
       <c r="Q402" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R402" t="s">
         <v>110</v>
@@ -44798,7 +44792,7 @@
         <v>92</v>
       </c>
       <c r="AI430" t="s">
-        <v>809</v>
+        <v>114</v>
       </c>
       <c r="AJ430" t="s">
         <v>110</v>
@@ -44866,7 +44860,7 @@
         <v>102</v>
       </c>
       <c r="K431" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L431" t="s">
         <v>84</v>
@@ -46010,7 +46004,7 @@
         <v>89</v>
       </c>
       <c r="M442" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="N442" t="s">
         <v>100</v>
@@ -47137,7 +47131,7 @@
         <v>106</v>
       </c>
       <c r="Q452" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="R452" t="s">
         <v>92</v>
@@ -47351,6 +47345,36 @@
       <c r="E456" t="s">
         <v>85</v>
       </c>
+      <c r="I456" t="s">
+        <v>99</v>
+      </c>
+      <c r="J456" t="s">
+        <v>100</v>
+      </c>
+      <c r="K456" t="s">
+        <v>88</v>
+      </c>
+      <c r="L456" t="s">
+        <v>89</v>
+      </c>
+      <c r="M456" t="s">
+        <v>90</v>
+      </c>
+      <c r="N456" t="s">
+        <v>89</v>
+      </c>
+      <c r="O456" t="s">
+        <v>130</v>
+      </c>
+      <c r="P456" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>145</v>
+      </c>
+      <c r="R456" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="457" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
@@ -47365,6 +47389,66 @@
       <c r="E457" t="s">
         <v>85</v>
       </c>
+      <c r="I457" t="s">
+        <v>133</v>
+      </c>
+      <c r="J457" t="s">
+        <v>87</v>
+      </c>
+      <c r="K457" t="s">
+        <v>126</v>
+      </c>
+      <c r="L457" t="s">
+        <v>127</v>
+      </c>
+      <c r="M457" t="s">
+        <v>193</v>
+      </c>
+      <c r="N457" t="s">
+        <v>95</v>
+      </c>
+      <c r="O457" t="s">
+        <v>757</v>
+      </c>
+      <c r="P457" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>233</v>
+      </c>
+      <c r="R457" t="s">
+        <v>127</v>
+      </c>
+      <c r="S457" t="s">
+        <v>289</v>
+      </c>
+      <c r="T457" t="s">
+        <v>97</v>
+      </c>
+      <c r="U457" t="s">
+        <v>134</v>
+      </c>
+      <c r="V457" t="s">
+        <v>127</v>
+      </c>
+      <c r="W457" t="s">
+        <v>188</v>
+      </c>
+      <c r="X457" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y457" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z457" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA457" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB457" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="458" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
@@ -47379,6 +47463,30 @@
       <c r="E458" t="s">
         <v>85</v>
       </c>
+      <c r="I458" t="s">
+        <v>207</v>
+      </c>
+      <c r="J458" t="s">
+        <v>106</v>
+      </c>
+      <c r="K458" t="s">
+        <v>295</v>
+      </c>
+      <c r="L458" t="s">
+        <v>106</v>
+      </c>
+      <c r="M458" t="s">
+        <v>200</v>
+      </c>
+      <c r="N458" t="s">
+        <v>102</v>
+      </c>
+      <c r="O458" t="s">
+        <v>130</v>
+      </c>
+      <c r="P458" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="459" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
@@ -47393,6 +47501,72 @@
       <c r="E459" t="s">
         <v>85</v>
       </c>
+      <c r="I459" t="s">
+        <v>166</v>
+      </c>
+      <c r="J459" t="s">
+        <v>83</v>
+      </c>
+      <c r="K459" t="s">
+        <v>125</v>
+      </c>
+      <c r="L459" t="s">
+        <v>83</v>
+      </c>
+      <c r="M459" t="s">
+        <v>750</v>
+      </c>
+      <c r="N459" t="s">
+        <v>116</v>
+      </c>
+      <c r="O459" t="s">
+        <v>137</v>
+      </c>
+      <c r="P459" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>236</v>
+      </c>
+      <c r="R459" t="s">
+        <v>92</v>
+      </c>
+      <c r="S459" t="s">
+        <v>203</v>
+      </c>
+      <c r="T459" t="s">
+        <v>127</v>
+      </c>
+      <c r="U459" t="s">
+        <v>160</v>
+      </c>
+      <c r="V459" t="s">
+        <v>89</v>
+      </c>
+      <c r="W459" t="s">
+        <v>329</v>
+      </c>
+      <c r="X459" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y459" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z459" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA459" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB459" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC459" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD459" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="460" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
@@ -47406,6 +47580,36 @@
       </c>
       <c r="E460" t="s">
         <v>85</v>
+      </c>
+      <c r="I460" t="s">
+        <v>101</v>
+      </c>
+      <c r="J460" t="s">
+        <v>102</v>
+      </c>
+      <c r="K460" t="s">
+        <v>169</v>
+      </c>
+      <c r="L460" t="s">
+        <v>108</v>
+      </c>
+      <c r="M460" t="s">
+        <v>212</v>
+      </c>
+      <c r="N460" t="s">
+        <v>106</v>
+      </c>
+      <c r="O460" t="s">
+        <v>171</v>
+      </c>
+      <c r="P460" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q460" t="s">
+        <v>132</v>
+      </c>
+      <c r="R460" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="461" spans="1:48" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F02D9-DEAB-4EF7-8FE3-9D574248A42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A78AF3-2308-4B02-B68D-D03CBF19492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14722" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14834" uniqueCount="811">
   <si>
     <t>Name</t>
   </si>
@@ -2832,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I466" sqref="I466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46880,7 +46880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="449" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>697</v>
       </c>
@@ -46933,7 +46933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="450" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>698</v>
       </c>
@@ -46965,7 +46965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="451" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>699</v>
       </c>
@@ -47096,7 +47096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="452" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>700</v>
       </c>
@@ -47143,7 +47143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="453" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>701</v>
       </c>
@@ -47211,7 +47211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="454" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>702</v>
       </c>
@@ -47264,7 +47264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>703</v>
       </c>
@@ -47332,7 +47332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="456" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>704</v>
       </c>
@@ -47376,7 +47376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="457" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>705</v>
       </c>
@@ -47450,7 +47450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="458" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>706</v>
       </c>
@@ -47488,7 +47488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="459" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>707</v>
       </c>
@@ -47568,7 +47568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="460" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>708</v>
       </c>
@@ -47612,7 +47612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="461" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>709</v>
       </c>
@@ -47625,8 +47625,50 @@
       <c r="E461" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="462" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I461" t="s">
+        <v>105</v>
+      </c>
+      <c r="J461" t="s">
+        <v>106</v>
+      </c>
+      <c r="K461" t="s">
+        <v>112</v>
+      </c>
+      <c r="L461" t="s">
+        <v>95</v>
+      </c>
+      <c r="M461" t="s">
+        <v>115</v>
+      </c>
+      <c r="N461" t="s">
+        <v>116</v>
+      </c>
+      <c r="O461" t="s">
+        <v>113</v>
+      </c>
+      <c r="P461" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q461" t="s">
+        <v>804</v>
+      </c>
+      <c r="R461" t="s">
+        <v>110</v>
+      </c>
+      <c r="S461" t="s">
+        <v>329</v>
+      </c>
+      <c r="T461" t="s">
+        <v>116</v>
+      </c>
+      <c r="U461" t="s">
+        <v>217</v>
+      </c>
+      <c r="V461" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="462" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>710</v>
       </c>
@@ -47639,8 +47681,38 @@
       <c r="E462" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="463" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I462" t="s">
+        <v>166</v>
+      </c>
+      <c r="J462" t="s">
+        <v>83</v>
+      </c>
+      <c r="K462" t="s">
+        <v>125</v>
+      </c>
+      <c r="L462" t="s">
+        <v>83</v>
+      </c>
+      <c r="M462" t="s">
+        <v>162</v>
+      </c>
+      <c r="N462" t="s">
+        <v>83</v>
+      </c>
+      <c r="O462" t="s">
+        <v>110</v>
+      </c>
+      <c r="P462" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q462" t="s">
+        <v>229</v>
+      </c>
+      <c r="R462" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="463" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>711</v>
       </c>
@@ -47650,8 +47722,98 @@
       <c r="E463" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="464" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="I463" t="s">
+        <v>121</v>
+      </c>
+      <c r="J463" t="s">
+        <v>122</v>
+      </c>
+      <c r="K463" t="s">
+        <v>101</v>
+      </c>
+      <c r="L463" t="s">
+        <v>102</v>
+      </c>
+      <c r="M463" t="s">
+        <v>166</v>
+      </c>
+      <c r="N463" t="s">
+        <v>83</v>
+      </c>
+      <c r="O463" t="s">
+        <v>159</v>
+      </c>
+      <c r="P463" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>107</v>
+      </c>
+      <c r="R463" t="s">
+        <v>108</v>
+      </c>
+      <c r="S463" t="s">
+        <v>118</v>
+      </c>
+      <c r="T463" t="s">
+        <v>119</v>
+      </c>
+      <c r="U463" t="s">
+        <v>171</v>
+      </c>
+      <c r="V463" t="s">
+        <v>108</v>
+      </c>
+      <c r="W463" t="s">
+        <v>96</v>
+      </c>
+      <c r="X463" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y463" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z463" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB463" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC463" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD463" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE463" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF463" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG463" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH463" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI463" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ463" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK463" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL463" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="464" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>712</v>
       </c>
@@ -47664,8 +47826,134 @@
       <c r="E464" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I464" t="s">
+        <v>199</v>
+      </c>
+      <c r="J464" t="s">
+        <v>92</v>
+      </c>
+      <c r="K464" t="s">
+        <v>101</v>
+      </c>
+      <c r="L464" t="s">
+        <v>102</v>
+      </c>
+      <c r="M464" t="s">
+        <v>124</v>
+      </c>
+      <c r="N464" t="s">
+        <v>87</v>
+      </c>
+      <c r="O464" t="s">
+        <v>201</v>
+      </c>
+      <c r="P464" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q464" t="s">
+        <v>152</v>
+      </c>
+      <c r="R464" t="s">
+        <v>87</v>
+      </c>
+      <c r="S464" t="s">
+        <v>166</v>
+      </c>
+      <c r="T464" t="s">
+        <v>83</v>
+      </c>
+      <c r="U464" t="s">
+        <v>88</v>
+      </c>
+      <c r="V464" t="s">
+        <v>89</v>
+      </c>
+      <c r="W464" t="s">
+        <v>112</v>
+      </c>
+      <c r="X464" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y464" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z464" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA464" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB464" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC464" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD464" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE464" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF464" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG464" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH464" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI464" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ464" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK464" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL464" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM464" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN464" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO464" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP464" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ464" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR464" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS464" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT464" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU464" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV464" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW464" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX464" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>713</v>
       </c>
@@ -47675,8 +47963,56 @@
       <c r="E465" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I465" t="s">
+        <v>201</v>
+      </c>
+      <c r="J465" t="s">
+        <v>92</v>
+      </c>
+      <c r="K465" t="s">
+        <v>88</v>
+      </c>
+      <c r="L465" t="s">
+        <v>89</v>
+      </c>
+      <c r="M465" t="s">
+        <v>156</v>
+      </c>
+      <c r="N465" t="s">
+        <v>84</v>
+      </c>
+      <c r="O465" t="s">
+        <v>115</v>
+      </c>
+      <c r="P465" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q465" t="s">
+        <v>98</v>
+      </c>
+      <c r="R465" t="s">
+        <v>87</v>
+      </c>
+      <c r="S465" t="s">
+        <v>114</v>
+      </c>
+      <c r="T465" t="s">
+        <v>110</v>
+      </c>
+      <c r="U465" t="s">
+        <v>145</v>
+      </c>
+      <c r="V465" t="s">
+        <v>89</v>
+      </c>
+      <c r="W465" t="s">
+        <v>210</v>
+      </c>
+      <c r="X465" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>714</v>
       </c>
@@ -47690,7 +48026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>715</v>
       </c>
@@ -47701,7 +48037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>716</v>
       </c>
@@ -47715,7 +48051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>717</v>
       </c>
@@ -47729,7 +48065,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>718</v>
       </c>
@@ -47743,7 +48079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>719</v>
       </c>
@@ -47757,7 +48093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>720</v>
       </c>
@@ -47771,7 +48107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>721</v>
       </c>
@@ -47782,7 +48118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>722</v>
       </c>
@@ -47793,7 +48129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>723</v>
       </c>
@@ -47807,7 +48143,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>724</v>
       </c>
@@ -47821,7 +48157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>725</v>
       </c>
@@ -47835,7 +48171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>726</v>
       </c>
@@ -47849,7 +48185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>727</v>
       </c>
@@ -47860,7 +48196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>728</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A78AF3-2308-4B02-B68D-D03CBF19492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D68BE4-57BD-45AD-B45F-D63F1604A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14834" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14940" uniqueCount="811">
   <si>
     <t>Name</t>
   </si>
@@ -2832,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I466" sqref="I466"/>
+    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40002,6 +40002,12 @@
       <c r="AN380" t="s">
         <v>87</v>
       </c>
+      <c r="AO380" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP380" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
@@ -47953,7 +47959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>713</v>
       </c>
@@ -48012,7 +48018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>714</v>
       </c>
@@ -48025,8 +48031,68 @@
       <c r="E466" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I466" t="s">
+        <v>88</v>
+      </c>
+      <c r="J466" t="s">
+        <v>89</v>
+      </c>
+      <c r="K466" t="s">
+        <v>91</v>
+      </c>
+      <c r="L466" t="s">
+        <v>92</v>
+      </c>
+      <c r="M466" t="s">
+        <v>98</v>
+      </c>
+      <c r="N466" t="s">
+        <v>87</v>
+      </c>
+      <c r="O466" t="s">
+        <v>137</v>
+      </c>
+      <c r="P466" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q466" t="s">
+        <v>141</v>
+      </c>
+      <c r="R466" t="s">
+        <v>92</v>
+      </c>
+      <c r="S466" t="s">
+        <v>94</v>
+      </c>
+      <c r="T466" t="s">
+        <v>95</v>
+      </c>
+      <c r="U466" t="s">
+        <v>196</v>
+      </c>
+      <c r="V466" t="s">
+        <v>89</v>
+      </c>
+      <c r="W466" t="s">
+        <v>194</v>
+      </c>
+      <c r="X466" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y466" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z466" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA466" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB466" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="467" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>715</v>
       </c>
@@ -48036,8 +48102,134 @@
       <c r="E467" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I467" t="s">
+        <v>101</v>
+      </c>
+      <c r="J467" t="s">
+        <v>102</v>
+      </c>
+      <c r="K467" t="s">
+        <v>124</v>
+      </c>
+      <c r="L467" t="s">
+        <v>87</v>
+      </c>
+      <c r="M467" t="s">
+        <v>185</v>
+      </c>
+      <c r="N467" t="s">
+        <v>83</v>
+      </c>
+      <c r="O467" t="s">
+        <v>176</v>
+      </c>
+      <c r="P467" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q467" t="s">
+        <v>93</v>
+      </c>
+      <c r="R467" t="s">
+        <v>87</v>
+      </c>
+      <c r="S467" t="s">
+        <v>91</v>
+      </c>
+      <c r="T467" t="s">
+        <v>92</v>
+      </c>
+      <c r="U467" t="s">
+        <v>136</v>
+      </c>
+      <c r="V467" t="s">
+        <v>129</v>
+      </c>
+      <c r="W467" t="s">
+        <v>155</v>
+      </c>
+      <c r="X467" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y467" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z467" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA467" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB467" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC467" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD467" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE467" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF467" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG467" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH467" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI467" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ467" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK467" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL467" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM467" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN467" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO467" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP467" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ467" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR467" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS467" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT467" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU467" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV467" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW467" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX467" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="468" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>716</v>
       </c>
@@ -48050,8 +48242,50 @@
       <c r="G468" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I468" t="s">
+        <v>190</v>
+      </c>
+      <c r="J468" t="s">
+        <v>119</v>
+      </c>
+      <c r="K468" t="s">
+        <v>146</v>
+      </c>
+      <c r="L468" t="s">
+        <v>102</v>
+      </c>
+      <c r="M468" t="s">
+        <v>155</v>
+      </c>
+      <c r="N468" t="s">
+        <v>117</v>
+      </c>
+      <c r="O468" t="s">
+        <v>96</v>
+      </c>
+      <c r="P468" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q468" t="s">
+        <v>118</v>
+      </c>
+      <c r="R468" t="s">
+        <v>119</v>
+      </c>
+      <c r="S468" t="s">
+        <v>154</v>
+      </c>
+      <c r="T468" t="s">
+        <v>102</v>
+      </c>
+      <c r="U468" t="s">
+        <v>199</v>
+      </c>
+      <c r="V468" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="469" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>717</v>
       </c>
@@ -48064,8 +48298,50 @@
       <c r="E469" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I469" t="s">
+        <v>199</v>
+      </c>
+      <c r="J469" t="s">
+        <v>92</v>
+      </c>
+      <c r="K469" t="s">
+        <v>348</v>
+      </c>
+      <c r="L469" t="s">
+        <v>117</v>
+      </c>
+      <c r="M469" t="s">
+        <v>190</v>
+      </c>
+      <c r="N469" t="s">
+        <v>119</v>
+      </c>
+      <c r="O469" t="s">
+        <v>118</v>
+      </c>
+      <c r="P469" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q469" t="s">
+        <v>154</v>
+      </c>
+      <c r="R469" t="s">
+        <v>102</v>
+      </c>
+      <c r="S469" t="s">
+        <v>96</v>
+      </c>
+      <c r="T469" t="s">
+        <v>97</v>
+      </c>
+      <c r="U469" t="s">
+        <v>146</v>
+      </c>
+      <c r="V469" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="470" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>718</v>
       </c>
@@ -48078,8 +48354,50 @@
       <c r="E470" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I470" t="s">
+        <v>101</v>
+      </c>
+      <c r="J470" t="s">
+        <v>102</v>
+      </c>
+      <c r="K470" t="s">
+        <v>306</v>
+      </c>
+      <c r="L470" t="s">
+        <v>116</v>
+      </c>
+      <c r="M470" t="s">
+        <v>110</v>
+      </c>
+      <c r="N470" t="s">
+        <v>110</v>
+      </c>
+      <c r="O470" t="s">
+        <v>96</v>
+      </c>
+      <c r="P470" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q470" t="s">
+        <v>179</v>
+      </c>
+      <c r="R470" t="s">
+        <v>106</v>
+      </c>
+      <c r="S470" t="s">
+        <v>130</v>
+      </c>
+      <c r="T470" t="s">
+        <v>102</v>
+      </c>
+      <c r="U470" t="s">
+        <v>191</v>
+      </c>
+      <c r="V470" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="471" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>719</v>
       </c>
@@ -48093,7 +48411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>720</v>
       </c>
@@ -48107,7 +48425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>721</v>
       </c>
@@ -48118,7 +48436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>722</v>
       </c>
@@ -48129,7 +48447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>723</v>
       </c>
@@ -48143,7 +48461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>724</v>
       </c>
@@ -48157,7 +48475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>725</v>
       </c>
@@ -48171,7 +48489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>726</v>
       </c>
@@ -48185,7 +48503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>727</v>
       </c>
@@ -48196,7 +48514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>728</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D68BE4-57BD-45AD-B45F-D63F1604A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC29A9-1512-46AA-996E-B37206705DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14940" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15038" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2453,6 +2453,12 @@
   </si>
   <si>
     <t>Mirror Shot</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Expanding Force</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2839,7 @@
   <dimension ref="A1:CN488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A463" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A471" sqref="A471"/>
+      <selection activeCell="I476" sqref="I476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47959,7 +47965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="465" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>713</v>
       </c>
@@ -48018,7 +48024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="466" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>714</v>
       </c>
@@ -48092,7 +48098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="467" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>715</v>
       </c>
@@ -48229,7 +48235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="468" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>716</v>
       </c>
@@ -48285,7 +48291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="469" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>717</v>
       </c>
@@ -48341,7 +48347,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>718</v>
       </c>
@@ -48397,7 +48403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="471" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>719</v>
       </c>
@@ -48410,8 +48416,56 @@
       <c r="E471" t="s">
         <v>85</v>
       </c>
+      <c r="I471" t="s">
+        <v>120</v>
+      </c>
+      <c r="J471" t="s">
+        <v>110</v>
+      </c>
+      <c r="K471" t="s">
+        <v>112</v>
+      </c>
+      <c r="L471" t="s">
+        <v>95</v>
+      </c>
+      <c r="M471" t="s">
+        <v>156</v>
+      </c>
+      <c r="N471" t="s">
+        <v>84</v>
+      </c>
+      <c r="O471" t="s">
+        <v>115</v>
+      </c>
+      <c r="P471" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q471" t="s">
+        <v>804</v>
+      </c>
+      <c r="R471" t="s">
+        <v>110</v>
+      </c>
+      <c r="S471" t="s">
+        <v>94</v>
+      </c>
+      <c r="T471" t="s">
+        <v>95</v>
+      </c>
+      <c r="U471" t="s">
+        <v>811</v>
+      </c>
+      <c r="V471" t="s">
+        <v>119</v>
+      </c>
+      <c r="W471" t="s">
+        <v>210</v>
+      </c>
+      <c r="X471" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="472" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>720</v>
       </c>
@@ -48424,8 +48478,188 @@
       <c r="E472" t="s">
         <v>85</v>
       </c>
+      <c r="I472" t="s">
+        <v>121</v>
+      </c>
+      <c r="J472" t="s">
+        <v>122</v>
+      </c>
+      <c r="K472" t="s">
+        <v>199</v>
+      </c>
+      <c r="L472" t="s">
+        <v>92</v>
+      </c>
+      <c r="M472" t="s">
+        <v>185</v>
+      </c>
+      <c r="N472" t="s">
+        <v>83</v>
+      </c>
+      <c r="O472" t="s">
+        <v>166</v>
+      </c>
+      <c r="P472" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>190</v>
+      </c>
+      <c r="R472" t="s">
+        <v>119</v>
+      </c>
+      <c r="S472" t="s">
+        <v>159</v>
+      </c>
+      <c r="T472" t="s">
+        <v>87</v>
+      </c>
+      <c r="U472" t="s">
+        <v>125</v>
+      </c>
+      <c r="V472" t="s">
+        <v>83</v>
+      </c>
+      <c r="W472" t="s">
+        <v>155</v>
+      </c>
+      <c r="X472" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y472" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z472" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA472" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB472" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC472" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD472" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE472" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF472" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG472" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH472" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI472" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ472" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK472" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL472" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM472" t="s">
+        <v>812</v>
+      </c>
+      <c r="AN472" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO472" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP472" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ472" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR472" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS472" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT472" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU472" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV472" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW472" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX472" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY472" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ472" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA472" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB472" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC472" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD472" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE472" t="s">
+        <v>757</v>
+      </c>
+      <c r="BF472" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG472" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH472" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI472" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ472" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK472" t="s">
+        <v>322</v>
+      </c>
+      <c r="BL472" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM472" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN472" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO472" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP472" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="473" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>721</v>
       </c>
@@ -48435,8 +48669,38 @@
       <c r="E473" t="s">
         <v>85</v>
       </c>
+      <c r="I473" t="s">
+        <v>88</v>
+      </c>
+      <c r="J473" t="s">
+        <v>89</v>
+      </c>
+      <c r="K473" t="s">
+        <v>91</v>
+      </c>
+      <c r="L473" t="s">
+        <v>92</v>
+      </c>
+      <c r="M473" t="s">
+        <v>156</v>
+      </c>
+      <c r="N473" t="s">
+        <v>84</v>
+      </c>
+      <c r="O473" t="s">
+        <v>179</v>
+      </c>
+      <c r="P473" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>208</v>
+      </c>
+      <c r="R473" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="474" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>722</v>
       </c>
@@ -48446,8 +48710,20 @@
       <c r="E474" t="s">
         <v>85</v>
       </c>
+      <c r="I474" t="s">
+        <v>121</v>
+      </c>
+      <c r="J474" t="s">
+        <v>122</v>
+      </c>
+      <c r="K474" t="s">
+        <v>204</v>
+      </c>
+      <c r="L474" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="475" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>723</v>
       </c>
@@ -48460,8 +48736,32 @@
       <c r="E475" t="s">
         <v>85</v>
       </c>
+      <c r="I475" t="s">
+        <v>212</v>
+      </c>
+      <c r="J475" t="s">
+        <v>106</v>
+      </c>
+      <c r="K475" t="s">
+        <v>98</v>
+      </c>
+      <c r="L475" t="s">
+        <v>87</v>
+      </c>
+      <c r="M475" t="s">
+        <v>114</v>
+      </c>
+      <c r="N475" t="s">
+        <v>110</v>
+      </c>
+      <c r="O475" t="s">
+        <v>289</v>
+      </c>
+      <c r="P475" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="476" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>724</v>
       </c>
@@ -48475,7 +48775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="477" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>725</v>
       </c>
@@ -48489,7 +48789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="478" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>726</v>
       </c>
@@ -48503,7 +48803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="479" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>727</v>
       </c>
@@ -48514,7 +48814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="480" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>728</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC29A9-1512-46AA-996E-B37206705DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C6B57A-3A70-4972-B9F2-D5F78454FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15038" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15126" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2465,7 +2465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2478,6 +2478,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2526,7 +2533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2534,6 +2541,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2838,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I476" sqref="I476"/>
+    <sheetView tabSelected="1" topLeftCell="K469" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K481" sqref="K481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48774,6 +48782,36 @@
       <c r="E476" t="s">
         <v>85</v>
       </c>
+      <c r="I476" t="s">
+        <v>110</v>
+      </c>
+      <c r="J476" t="s">
+        <v>110</v>
+      </c>
+      <c r="K476" t="s">
+        <v>96</v>
+      </c>
+      <c r="L476" t="s">
+        <v>97</v>
+      </c>
+      <c r="M476" t="s">
+        <v>200</v>
+      </c>
+      <c r="N476" t="s">
+        <v>102</v>
+      </c>
+      <c r="O476" t="s">
+        <v>229</v>
+      </c>
+      <c r="P476" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q476" t="s">
+        <v>134</v>
+      </c>
+      <c r="R476" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="477" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
@@ -48788,6 +48826,42 @@
       <c r="E477" t="s">
         <v>85</v>
       </c>
+      <c r="I477" t="s">
+        <v>110</v>
+      </c>
+      <c r="J477" t="s">
+        <v>110</v>
+      </c>
+      <c r="K477" t="s">
+        <v>96</v>
+      </c>
+      <c r="L477" t="s">
+        <v>97</v>
+      </c>
+      <c r="M477" t="s">
+        <v>200</v>
+      </c>
+      <c r="N477" t="s">
+        <v>102</v>
+      </c>
+      <c r="O477" t="s">
+        <v>229</v>
+      </c>
+      <c r="P477" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q477" t="s">
+        <v>134</v>
+      </c>
+      <c r="R477" t="s">
+        <v>127</v>
+      </c>
+      <c r="S477" t="s">
+        <v>210</v>
+      </c>
+      <c r="T477" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="478" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
@@ -48802,6 +48876,48 @@
       <c r="E478" t="s">
         <v>85</v>
       </c>
+      <c r="I478" t="s">
+        <v>753</v>
+      </c>
+      <c r="J478" t="s">
+        <v>122</v>
+      </c>
+      <c r="K478" t="s">
+        <v>176</v>
+      </c>
+      <c r="L478" t="s">
+        <v>127</v>
+      </c>
+      <c r="M478" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O478" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P478" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q478" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R478" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S478" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T478" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U478" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V478" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="479" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
@@ -48813,6 +48929,54 @@
       <c r="E479" t="s">
         <v>85</v>
       </c>
+      <c r="I479" t="s">
+        <v>175</v>
+      </c>
+      <c r="J479" t="s">
+        <v>102</v>
+      </c>
+      <c r="K479" t="s">
+        <v>90</v>
+      </c>
+      <c r="L479" t="s">
+        <v>89</v>
+      </c>
+      <c r="M479" t="s">
+        <v>156</v>
+      </c>
+      <c r="N479" t="s">
+        <v>84</v>
+      </c>
+      <c r="O479" t="s">
+        <v>186</v>
+      </c>
+      <c r="P479" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q479" t="s">
+        <v>160</v>
+      </c>
+      <c r="R479" t="s">
+        <v>89</v>
+      </c>
+      <c r="S479" t="s">
+        <v>196</v>
+      </c>
+      <c r="T479" t="s">
+        <v>89</v>
+      </c>
+      <c r="U479" t="s">
+        <v>200</v>
+      </c>
+      <c r="V479" t="s">
+        <v>102</v>
+      </c>
+      <c r="W479" t="s">
+        <v>145</v>
+      </c>
+      <c r="X479" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="480" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
@@ -48829,6 +48993,114 @@
       </c>
       <c r="G480" t="s">
         <v>148</v>
+      </c>
+      <c r="I480" t="s">
+        <v>105</v>
+      </c>
+      <c r="J480" t="s">
+        <v>106</v>
+      </c>
+      <c r="K480" t="s">
+        <v>166</v>
+      </c>
+      <c r="L480" t="s">
+        <v>83</v>
+      </c>
+      <c r="M480" t="s">
+        <v>88</v>
+      </c>
+      <c r="N480" t="s">
+        <v>89</v>
+      </c>
+      <c r="O480" t="s">
+        <v>91</v>
+      </c>
+      <c r="P480" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>745</v>
+      </c>
+      <c r="R480" t="s">
+        <v>87</v>
+      </c>
+      <c r="S480" t="s">
+        <v>758</v>
+      </c>
+      <c r="T480" t="s">
+        <v>89</v>
+      </c>
+      <c r="U480" t="s">
+        <v>90</v>
+      </c>
+      <c r="V480" t="s">
+        <v>89</v>
+      </c>
+      <c r="W480" t="s">
+        <v>125</v>
+      </c>
+      <c r="X480" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y480" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z480" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA480" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB480" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC480" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD480" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE480" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF480" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG480" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH480" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI480" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ480" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK480" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL480" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM480" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN480" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO480" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP480" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ480" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR480" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E93166-597F-4505-953B-E5D42A9878AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A28B6-394D-4B92-9676-75E3331E7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Q$1:$Q$490</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15154" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15154" uniqueCount="812">
   <si>
     <t>Name</t>
   </si>
@@ -2383,9 +2386,6 @@
     <t>Misty Explosion</t>
   </si>
   <si>
-    <t>Dak</t>
-  </si>
-  <si>
     <t>Pelipper</t>
   </si>
   <si>
@@ -2428,16 +2428,10 @@
     <t>Sacred Sword</t>
   </si>
   <si>
-    <t>Zen Headbut</t>
-  </si>
-  <si>
     <t>Draco Meteor</t>
   </si>
   <si>
     <t>Flare Blitz</t>
-  </si>
-  <si>
-    <t>Body Pres</t>
   </si>
   <si>
     <t>Ice Hammer</t>
@@ -2852,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M472" zoomScale="99" workbookViewId="0">
-      <selection activeCell="V478" sqref="V478"/>
+    <sheetView tabSelected="1" topLeftCell="AM278" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AR290" sqref="AR290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3106,34 +3100,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -4060,7 +4054,7 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -24303,7 +24297,7 @@
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
@@ -31300,7 +31294,7 @@
         <v>186</v>
       </c>
       <c r="AR289" t="s">
-        <v>787</v>
+        <v>102</v>
       </c>
       <c r="AS289" t="s">
         <v>276</v>
@@ -33612,7 +33606,7 @@
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B317" t="s">
         <v>129</v>
@@ -34438,13 +34432,13 @@
         <v>102</v>
       </c>
       <c r="AI325" t="s">
+        <v>788</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK325" t="s">
         <v>789</v>
-      </c>
-      <c r="AJ325" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK325" t="s">
-        <v>790</v>
       </c>
       <c r="AL325" t="s">
         <v>87</v>
@@ -37660,7 +37654,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37722,7 +37716,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37784,7 +37778,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -37846,7 +37840,7 @@
         <v>102</v>
       </c>
       <c r="O361" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P361" t="s">
         <v>97</v>
@@ -38265,7 +38259,7 @@
         <v>84</v>
       </c>
       <c r="U365" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="V365" t="s">
         <v>87</v>
@@ -39918,7 +39912,7 @@
         <v>108</v>
       </c>
       <c r="Q380" t="s">
-        <v>802</v>
+        <v>114</v>
       </c>
       <c r="R380" t="s">
         <v>110</v>
@@ -39932,7 +39926,7 @@
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B381" t="s">
         <v>106</v>
@@ -40260,7 +40254,7 @@
         <v>87</v>
       </c>
       <c r="K386" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L386" t="s">
         <v>100</v>
@@ -40884,7 +40878,7 @@
     </row>
     <row r="392" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B392" t="s">
         <v>117</v>
@@ -41238,7 +41232,7 @@
         <v>85</v>
       </c>
       <c r="I395" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J395" t="s">
         <v>117</v>
@@ -41855,7 +41849,7 @@
         <v>102</v>
       </c>
       <c r="BC399" t="s">
-        <v>805</v>
+        <v>98</v>
       </c>
       <c r="BD399" t="s">
         <v>87</v>
@@ -41983,7 +41977,7 @@
         <v>117</v>
       </c>
       <c r="M400" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N400" t="s">
         <v>117</v>
@@ -42377,7 +42371,7 @@
         <v>87</v>
       </c>
       <c r="Q405" t="s">
-        <v>802</v>
+        <v>114</v>
       </c>
       <c r="R405" t="s">
         <v>110</v>
@@ -44925,7 +44919,7 @@
         <v>102</v>
       </c>
       <c r="K434" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="L434" t="s">
         <v>84</v>
@@ -46069,7 +46063,7 @@
         <v>89</v>
       </c>
       <c r="M445" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="N445" t="s">
         <v>100</v>
@@ -47196,7 +47190,7 @@
         <v>106</v>
       </c>
       <c r="Q455" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="R455" t="s">
         <v>92</v>
@@ -47715,7 +47709,7 @@
         <v>106</v>
       </c>
       <c r="Q464" t="s">
-        <v>802</v>
+        <v>114</v>
       </c>
       <c r="R464" t="s">
         <v>110</v>
@@ -48252,7 +48246,7 @@
         <v>117</v>
       </c>
       <c r="AM470" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="AN470" t="s">
         <v>84</v>
@@ -48494,7 +48488,7 @@
         <v>116</v>
       </c>
       <c r="Q474" t="s">
-        <v>802</v>
+        <v>114</v>
       </c>
       <c r="R474" t="s">
         <v>110</v>
@@ -48506,7 +48500,7 @@
         <v>95</v>
       </c>
       <c r="U474" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="V474" t="s">
         <v>119</v>
@@ -48622,7 +48616,7 @@
         <v>102</v>
       </c>
       <c r="AM475" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AN475" t="s">
         <v>110</v>
@@ -49301,6 +49295,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="Q1:Q490" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A28B6-394D-4B92-9676-75E3331E7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC802FC5-90E4-4683-AD02-12482EE84182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Q$1:$Q$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Q$1:$Q$489</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15154" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15353" uniqueCount="812">
   <si>
     <t>Name</t>
   </si>
@@ -2224,9 +2224,6 @@
     <t>Zebstrika</t>
   </si>
   <si>
-    <t>Zeraora</t>
-  </si>
-  <si>
     <t>Zoroark</t>
   </si>
   <si>
@@ -2459,6 +2456,9 @@
   </si>
   <si>
     <t>Skeledirge</t>
+  </si>
+  <si>
+    <t>Bite</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN490"/>
+  <dimension ref="A1:CN489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM278" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AR290" sqref="AR290"/>
+    <sheetView tabSelected="1" topLeftCell="R375" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AI392" sqref="AI392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3100,34 +3100,34 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.35">
@@ -4054,7 +4054,7 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -4512,7 +4512,7 @@
         <v>102</v>
       </c>
       <c r="BI14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="BJ14" t="s">
         <v>89</v>
@@ -6728,7 +6728,7 @@
         <v>89</v>
       </c>
       <c r="AK39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AL39" t="s">
         <v>122</v>
@@ -7594,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="AE49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF49" t="s">
         <v>89</v>
@@ -10111,7 +10111,7 @@
         <v>95</v>
       </c>
       <c r="Y82" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Z82" t="s">
         <v>122</v>
@@ -10464,7 +10464,7 @@
         <v>122</v>
       </c>
       <c r="AC86" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AD86" t="s">
         <v>84</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
@@ -10583,7 +10583,7 @@
         <v>129</v>
       </c>
       <c r="AQ87" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AR87" t="s">
         <v>84</v>
@@ -11158,7 +11158,7 @@
         <v>83</v>
       </c>
       <c r="AC94" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AD94" t="s">
         <v>83</v>
@@ -11366,7 +11366,7 @@
         <v>95</v>
       </c>
       <c r="BE96" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="BF96" t="s">
         <v>84</v>
@@ -11597,7 +11597,7 @@
         <v>89</v>
       </c>
       <c r="S99" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T99" t="s">
         <v>87</v>
@@ -11683,13 +11683,13 @@
         <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J100" t="s">
         <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L100" t="s">
         <v>116</v>
@@ -11784,13 +11784,13 @@
         <v>148</v>
       </c>
       <c r="I101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J101" t="s">
         <v>116</v>
       </c>
       <c r="K101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L101" t="s">
         <v>116</v>
@@ -12001,7 +12001,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AL103" t="s">
         <v>89</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="106" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
@@ -12265,7 +12265,7 @@
         <v>84</v>
       </c>
       <c r="AI106" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AJ106" t="s">
         <v>92</v>
@@ -12654,7 +12654,7 @@
         <v>87</v>
       </c>
       <c r="S110" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T110" t="s">
         <v>87</v>
@@ -12814,7 +12814,7 @@
         <v>87</v>
       </c>
       <c r="K112" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L112" t="s">
         <v>87</v>
@@ -13014,7 +13014,7 @@
         <v>119</v>
       </c>
       <c r="BA113" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BB113" t="s">
         <v>102</v>
@@ -13026,7 +13026,7 @@
         <v>95</v>
       </c>
       <c r="BE113" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="BF113" t="s">
         <v>84</v>
@@ -13204,7 +13204,7 @@
         <v>129</v>
       </c>
       <c r="AG115" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH115" t="s">
         <v>129</v>
@@ -13216,7 +13216,7 @@
         <v>129</v>
       </c>
       <c r="AK115" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AL115" t="s">
         <v>129</v>
@@ -13320,7 +13320,7 @@
         <v>119</v>
       </c>
       <c r="AK116" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AL116" t="s">
         <v>116</v>
@@ -13400,7 +13400,7 @@
         <v>129</v>
       </c>
       <c r="O117" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P117" t="s">
         <v>106</v>
@@ -13558,7 +13558,7 @@
         <v>89</v>
       </c>
       <c r="AG118" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AH118" t="s">
         <v>102</v>
@@ -14400,7 +14400,7 @@
         <v>95</v>
       </c>
       <c r="AG125" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AH125" t="s">
         <v>122</v>
@@ -14420,7 +14420,7 @@
         <v>85</v>
       </c>
       <c r="I126" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J126" t="s">
         <v>122</v>
@@ -14941,7 +14941,7 @@
         <v>92</v>
       </c>
       <c r="W130" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X130" t="s">
         <v>129</v>
@@ -14965,7 +14965,7 @@
         <v>129</v>
       </c>
       <c r="AE130" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AF130" t="s">
         <v>129</v>
@@ -15035,7 +15035,7 @@
         <v>89</v>
       </c>
       <c r="U132" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V132" t="s">
         <v>87</v>
@@ -15447,7 +15447,7 @@
         <v>84</v>
       </c>
       <c r="Q137" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R137" t="s">
         <v>116</v>
@@ -15543,7 +15543,7 @@
         <v>84</v>
       </c>
       <c r="AW137" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AX137" t="s">
         <v>102</v>
@@ -15774,7 +15774,7 @@
         <v>83</v>
       </c>
       <c r="Y140" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Z140" t="s">
         <v>129</v>
@@ -15981,7 +15981,7 @@
         <v>87</v>
       </c>
       <c r="AE143" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AF143" t="s">
         <v>110</v>
@@ -16082,7 +16082,7 @@
         <v>89</v>
       </c>
       <c r="AC144" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AD144" t="s">
         <v>87</v>
@@ -16219,13 +16219,13 @@
         <v>106</v>
       </c>
       <c r="M145" t="s">
+        <v>755</v>
+      </c>
+      <c r="N145" t="s">
+        <v>89</v>
+      </c>
+      <c r="O145" t="s">
         <v>756</v>
-      </c>
-      <c r="N145" t="s">
-        <v>89</v>
-      </c>
-      <c r="O145" t="s">
-        <v>757</v>
       </c>
       <c r="P145" t="s">
         <v>106</v>
@@ -16311,13 +16311,13 @@
         <v>85</v>
       </c>
       <c r="I146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J146" t="s">
         <v>116</v>
       </c>
       <c r="K146" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L146" t="s">
         <v>83</v>
@@ -16341,13 +16341,13 @@
         <v>117</v>
       </c>
       <c r="S146" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T146" t="s">
         <v>106</v>
       </c>
       <c r="U146" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V146" t="s">
         <v>83</v>
@@ -16742,7 +16742,7 @@
         <v>85</v>
       </c>
       <c r="I150" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J150" t="s">
         <v>116</v>
@@ -16760,7 +16760,7 @@
         <v>117</v>
       </c>
       <c r="O150" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P150" t="s">
         <v>116</v>
@@ -16896,7 +16896,7 @@
         <v>92</v>
       </c>
       <c r="K152" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L152" t="s">
         <v>116</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="153" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -17115,7 +17115,7 @@
         <v>83</v>
       </c>
       <c r="K155" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L155" t="s">
         <v>83</v>
@@ -17133,7 +17133,7 @@
         <v>83</v>
       </c>
       <c r="Q155" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R155" t="s">
         <v>83</v>
@@ -17163,7 +17163,7 @@
         <v>83</v>
       </c>
       <c r="AA155" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AB155" t="s">
         <v>110</v>
@@ -17204,7 +17204,7 @@
         <v>83</v>
       </c>
       <c r="M156" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N156" t="s">
         <v>117</v>
@@ -17234,13 +17234,13 @@
         <v>117</v>
       </c>
       <c r="W156" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X156" t="s">
         <v>106</v>
       </c>
       <c r="Y156" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Z156" t="s">
         <v>106</v>
@@ -17252,7 +17252,7 @@
         <v>117</v>
       </c>
       <c r="AC156" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AD156" t="s">
         <v>116</v>
@@ -17294,7 +17294,7 @@
         <v>83</v>
       </c>
       <c r="AQ156" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AR156" t="s">
         <v>110</v>
@@ -17864,7 +17864,7 @@
         <v>102</v>
       </c>
       <c r="K162" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L162" t="s">
         <v>83</v>
@@ -17900,7 +17900,7 @@
         <v>119</v>
       </c>
       <c r="W162" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X162" t="s">
         <v>83</v>
@@ -17984,7 +17984,7 @@
         <v>106</v>
       </c>
       <c r="AY162" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AZ162" t="s">
         <v>129</v>
@@ -18382,7 +18382,7 @@
         <v>106</v>
       </c>
       <c r="AA166" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB166" t="s">
         <v>127</v>
@@ -18544,7 +18544,7 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -18934,7 +18934,7 @@
         <v>84</v>
       </c>
       <c r="AU172" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AV172" t="s">
         <v>110</v>
@@ -18964,7 +18964,7 @@
         <v>87</v>
       </c>
       <c r="BE172" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="BF172" t="s">
         <v>89</v>
@@ -19044,7 +19044,7 @@
         <v>117</v>
       </c>
       <c r="Y173" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Z173" t="s">
         <v>87</v>
@@ -19098,7 +19098,7 @@
         <v>102</v>
       </c>
       <c r="AQ173" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AR173" t="s">
         <v>106</v>
@@ -19202,7 +19202,7 @@
         <v>117</v>
       </c>
       <c r="AK174" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AL174" t="s">
         <v>106</v>
@@ -19428,7 +19428,7 @@
         <v>83</v>
       </c>
       <c r="AE176" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF176" t="s">
         <v>87</v>
@@ -19464,7 +19464,7 @@
         <v>119</v>
       </c>
       <c r="AQ176" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AR176" t="s">
         <v>116</v>
@@ -20276,7 +20276,7 @@
         <v>129</v>
       </c>
       <c r="Q183" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R183" t="s">
         <v>129</v>
@@ -20324,7 +20324,7 @@
         <v>129</v>
       </c>
       <c r="AG183" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH183" t="s">
         <v>129</v>
@@ -20505,7 +20505,7 @@
         <v>87</v>
       </c>
       <c r="Q185" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R185" t="s">
         <v>87</v>
@@ -20985,7 +20985,7 @@
         <v>127</v>
       </c>
       <c r="S188" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T188" t="s">
         <v>87</v>
@@ -21069,7 +21069,7 @@
         <v>97</v>
       </c>
       <c r="AU188" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AV188" t="s">
         <v>106</v>
@@ -21104,7 +21104,7 @@
         <v>102</v>
       </c>
       <c r="K189" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L189" t="s">
         <v>89</v>
@@ -21224,7 +21224,7 @@
         <v>102</v>
       </c>
       <c r="AY189" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AZ189" t="s">
         <v>92</v>
@@ -21688,7 +21688,7 @@
         <v>95</v>
       </c>
       <c r="AG193" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AH193" t="s">
         <v>92</v>
@@ -21735,7 +21735,7 @@
         <v>95</v>
       </c>
       <c r="O194" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P194" t="s">
         <v>117</v>
@@ -21795,7 +21795,7 @@
         <v>95</v>
       </c>
       <c r="AI194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AJ194" t="s">
         <v>92</v>
@@ -21884,7 +21884,7 @@
         <v>116</v>
       </c>
       <c r="AC195" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AD195" t="s">
         <v>102</v>
@@ -21902,7 +21902,7 @@
         <v>102</v>
       </c>
       <c r="AI195" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AJ195" t="s">
         <v>92</v>
@@ -21934,7 +21934,7 @@
         <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J196" t="s">
         <v>122</v>
@@ -21964,7 +21964,7 @@
         <v>97</v>
       </c>
       <c r="S196" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T196" t="s">
         <v>110</v>
@@ -22142,7 +22142,7 @@
         <v>122</v>
       </c>
       <c r="K198" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L198" t="s">
         <v>122</v>
@@ -23015,7 +23015,7 @@
         <v>116</v>
       </c>
       <c r="AE207" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AF207" t="s">
         <v>84</v>
@@ -23027,7 +23027,7 @@
         <v>87</v>
       </c>
       <c r="AI207" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AJ207" t="s">
         <v>84</v>
@@ -23071,7 +23071,7 @@
         <v>100</v>
       </c>
       <c r="O208" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P208" t="s">
         <v>117</v>
@@ -23706,7 +23706,7 @@
         <v>89</v>
       </c>
       <c r="AA215" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AB215" t="s">
         <v>87</v>
@@ -24125,13 +24125,13 @@
         <v>87</v>
       </c>
       <c r="M219" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N219" t="s">
         <v>87</v>
       </c>
       <c r="O219" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P219" t="s">
         <v>89</v>
@@ -24223,7 +24223,7 @@
         <v>129</v>
       </c>
       <c r="O220" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P220" t="s">
         <v>89</v>
@@ -24297,7 +24297,7 @@
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
@@ -24534,7 +24534,7 @@
         <v>87</v>
       </c>
       <c r="S224" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T224" t="s">
         <v>83</v>
@@ -25013,7 +25013,7 @@
         <v>92</v>
       </c>
       <c r="AO228" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AP228" t="s">
         <v>110</v>
@@ -25087,7 +25087,7 @@
         <v>119</v>
       </c>
       <c r="W229" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="X229" t="s">
         <v>116</v>
@@ -25117,7 +25117,7 @@
         <v>97</v>
       </c>
       <c r="AG229" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH229" t="s">
         <v>129</v>
@@ -25390,7 +25390,7 @@
         <v>110</v>
       </c>
       <c r="AI232" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AJ232" t="s">
         <v>87</v>
@@ -25410,7 +25410,7 @@
         <v>121</v>
       </c>
       <c r="J233" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K233" t="s">
         <v>199</v>
@@ -25461,7 +25461,7 @@
         <v>89</v>
       </c>
       <c r="AA233" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AB233" t="s">
         <v>87</v>
@@ -25841,7 +25841,7 @@
         <v>87</v>
       </c>
       <c r="M237" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N237" t="s">
         <v>87</v>
@@ -25897,7 +25897,7 @@
         <v>87</v>
       </c>
       <c r="M238" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N238" t="s">
         <v>87</v>
@@ -25945,7 +25945,7 @@
         <v>92</v>
       </c>
       <c r="AC238" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AD238" t="s">
         <v>87</v>
@@ -25975,7 +25975,7 @@
         <v>116</v>
       </c>
       <c r="AM238" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AN238" t="s">
         <v>87</v>
@@ -26091,7 +26091,7 @@
         <v>110</v>
       </c>
       <c r="Q239" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R239" t="s">
         <v>117</v>
@@ -26175,7 +26175,7 @@
         <v>102</v>
       </c>
       <c r="AS239" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AT239" t="s">
         <v>89</v>
@@ -27071,7 +27071,7 @@
         <v>85</v>
       </c>
       <c r="I249" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J249" t="s">
         <v>122</v>
@@ -27160,7 +27160,7 @@
         <v>92</v>
       </c>
       <c r="O250" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P250" t="s">
         <v>117</v>
@@ -27262,7 +27262,7 @@
         <v>102</v>
       </c>
       <c r="AW250" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AX250" t="s">
         <v>92</v>
@@ -27476,7 +27476,7 @@
         <v>95</v>
       </c>
       <c r="BA252" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BB252" t="s">
         <v>87</v>
@@ -27606,7 +27606,7 @@
         <v>95</v>
       </c>
       <c r="S254" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T254" t="s">
         <v>89</v>
@@ -27659,7 +27659,7 @@
         <v>106</v>
       </c>
       <c r="U255" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V255" t="s">
         <v>117</v>
@@ -28099,7 +28099,7 @@
         <v>102</v>
       </c>
       <c r="BC259" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="BD259" t="s">
         <v>89</v>
@@ -28117,13 +28117,13 @@
         <v>95</v>
       </c>
       <c r="BI259" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="BJ259" t="s">
         <v>89</v>
       </c>
       <c r="BK259" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="BL259" t="s">
         <v>89</v>
@@ -28197,7 +28197,7 @@
         <v>97</v>
       </c>
       <c r="AA260" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AB260" t="s">
         <v>129</v>
@@ -28321,7 +28321,7 @@
         <v>122</v>
       </c>
       <c r="K262" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L262" t="s">
         <v>122</v>
@@ -28903,7 +28903,7 @@
     </row>
     <row r="268" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B268" t="s">
         <v>110</v>
@@ -29126,7 +29126,7 @@
         <v>89</v>
       </c>
       <c r="O270" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P270" t="s">
         <v>87</v>
@@ -29429,7 +29429,7 @@
         <v>89</v>
       </c>
       <c r="AA273" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AB273" t="s">
         <v>87</v>
@@ -29563,7 +29563,7 @@
         <v>102</v>
       </c>
       <c r="K274" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L274" t="s">
         <v>83</v>
@@ -29788,7 +29788,7 @@
         <v>119</v>
       </c>
       <c r="O277" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P277" t="s">
         <v>117</v>
@@ -29854,7 +29854,7 @@
         <v>117</v>
       </c>
       <c r="AK277" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AL277" t="s">
         <v>110</v>
@@ -30406,7 +30406,7 @@
         <v>119</v>
       </c>
       <c r="O283" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P283" t="s">
         <v>117</v>
@@ -30520,7 +30520,7 @@
         <v>102</v>
       </c>
       <c r="BA283" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="BB283" t="s">
         <v>89</v>
@@ -30701,7 +30701,7 @@
         <v>83</v>
       </c>
       <c r="O285" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P285" t="s">
         <v>97</v>
@@ -30754,7 +30754,7 @@
         <v>92</v>
       </c>
       <c r="K286" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L286" t="s">
         <v>108</v>
@@ -31685,7 +31685,7 @@
         <v>110</v>
       </c>
       <c r="W294" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X294" t="s">
         <v>110</v>
@@ -31789,7 +31789,7 @@
         <v>87</v>
       </c>
       <c r="AG295" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH295" t="s">
         <v>110</v>
@@ -32208,7 +32208,7 @@
         <v>127</v>
       </c>
       <c r="K299" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L299" t="s">
         <v>89</v>
@@ -32303,7 +32303,7 @@
         <v>127</v>
       </c>
       <c r="K300" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L300" t="s">
         <v>89</v>
@@ -32419,7 +32419,7 @@
         <v>100</v>
       </c>
       <c r="Q301" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R301" t="s">
         <v>89</v>
@@ -32882,7 +32882,7 @@
         <v>85</v>
       </c>
       <c r="I309" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J309" t="s">
         <v>122</v>
@@ -32992,7 +32992,7 @@
         <v>97</v>
       </c>
       <c r="W310" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X310" t="s">
         <v>129</v>
@@ -33606,7 +33606,7 @@
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B317" t="s">
         <v>129</v>
@@ -33683,7 +33683,7 @@
         <v>85</v>
       </c>
       <c r="I318" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J318" t="s">
         <v>122</v>
@@ -33826,7 +33826,7 @@
         <v>127</v>
       </c>
       <c r="K319" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L319" t="s">
         <v>83</v>
@@ -34197,7 +34197,7 @@
         <v>129</v>
       </c>
       <c r="Y323" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Z323" t="s">
         <v>116</v>
@@ -34432,13 +34432,13 @@
         <v>102</v>
       </c>
       <c r="AI325" t="s">
+        <v>787</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK325" t="s">
         <v>788</v>
-      </c>
-      <c r="AJ325" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK325" t="s">
-        <v>789</v>
       </c>
       <c r="AL325" t="s">
         <v>87</v>
@@ -34732,7 +34732,7 @@
         <v>102</v>
       </c>
       <c r="AI328" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AJ328" t="s">
         <v>89</v>
@@ -34877,7 +34877,7 @@
         <v>97</v>
       </c>
       <c r="U330" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V330" t="s">
         <v>110</v>
@@ -35434,7 +35434,7 @@
         <v>127</v>
       </c>
       <c r="M337" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N337" t="s">
         <v>97</v>
@@ -35553,7 +35553,7 @@
         <v>129</v>
       </c>
       <c r="AA338" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB338" t="s">
         <v>116</v>
@@ -35657,7 +35657,7 @@
         <v>129</v>
       </c>
       <c r="AA339" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB339" t="s">
         <v>116</v>
@@ -35823,7 +35823,7 @@
         <v>89</v>
       </c>
       <c r="U341" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V341" t="s">
         <v>87</v>
@@ -35978,7 +35978,7 @@
         <v>85</v>
       </c>
       <c r="I342" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J342" t="s">
         <v>83</v>
@@ -36008,7 +36008,7 @@
         <v>92</v>
       </c>
       <c r="S342" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T342" t="s">
         <v>89</v>
@@ -36094,7 +36094,7 @@
         <v>92</v>
       </c>
       <c r="O343" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P343" t="s">
         <v>89</v>
@@ -36379,7 +36379,7 @@
         <v>121</v>
       </c>
       <c r="J346" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K346" t="s">
         <v>101</v>
@@ -36418,7 +36418,7 @@
         <v>89</v>
       </c>
       <c r="W346" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X346" t="s">
         <v>87</v>
@@ -36513,7 +36513,7 @@
         <v>89</v>
       </c>
       <c r="M347" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N347" t="s">
         <v>87</v>
@@ -36605,7 +36605,7 @@
         <v>89</v>
       </c>
       <c r="W348" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X348" t="s">
         <v>87</v>
@@ -36778,7 +36778,7 @@
         <v>89</v>
       </c>
       <c r="Y349" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Z349" t="s">
         <v>87</v>
@@ -36918,7 +36918,7 @@
         <v>89</v>
       </c>
       <c r="W350" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X350" t="s">
         <v>87</v>
@@ -37090,7 +37090,7 @@
         <v>87</v>
       </c>
       <c r="S352" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T352" t="s">
         <v>87</v>
@@ -37182,7 +37182,7 @@
         <v>117</v>
       </c>
       <c r="K353" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L353" t="s">
         <v>89</v>
@@ -37226,10 +37226,10 @@
         <v>85</v>
       </c>
       <c r="I354" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J354" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="K354" t="s">
         <v>133</v>
@@ -37292,7 +37292,7 @@
         <v>129</v>
       </c>
       <c r="AE354" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF354" t="s">
         <v>87</v>
@@ -37516,7 +37516,7 @@
         <v>110</v>
       </c>
       <c r="Q355" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R355" t="s">
         <v>110</v>
@@ -37642,7 +37642,7 @@
         <v>102</v>
       </c>
       <c r="K358" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L358" t="s">
         <v>97</v>
@@ -37654,7 +37654,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37704,7 +37704,7 @@
         <v>102</v>
       </c>
       <c r="K359" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L359" t="s">
         <v>97</v>
@@ -37716,7 +37716,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37766,7 +37766,7 @@
         <v>102</v>
       </c>
       <c r="K360" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L360" t="s">
         <v>97</v>
@@ -37778,7 +37778,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -37828,7 +37828,7 @@
         <v>102</v>
       </c>
       <c r="K361" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L361" t="s">
         <v>97</v>
@@ -37840,7 +37840,7 @@
         <v>102</v>
       </c>
       <c r="O361" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P361" t="s">
         <v>97</v>
@@ -37970,10 +37970,10 @@
         <v>122</v>
       </c>
       <c r="K363" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L363" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="M363" t="s">
         <v>199</v>
@@ -38102,7 +38102,7 @@
         <v>87</v>
       </c>
       <c r="BC363" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BD363" t="s">
         <v>129</v>
@@ -38259,7 +38259,7 @@
         <v>84</v>
       </c>
       <c r="U365" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V365" t="s">
         <v>87</v>
@@ -38601,7 +38601,7 @@
         <v>122</v>
       </c>
       <c r="M368" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N368" t="s">
         <v>122</v>
@@ -38901,13 +38901,13 @@
         <v>106</v>
       </c>
       <c r="K371" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L371" t="s">
         <v>87</v>
       </c>
       <c r="M371" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N371" t="s">
         <v>89</v>
@@ -39926,13 +39926,37 @@
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B381" t="s">
         <v>106</v>
       </c>
       <c r="C381" t="s">
         <v>97</v>
+      </c>
+      <c r="I381" t="s">
+        <v>166</v>
+      </c>
+      <c r="J381" t="s">
+        <v>83</v>
+      </c>
+      <c r="K381" t="s">
+        <v>160</v>
+      </c>
+      <c r="L381" t="s">
+        <v>89</v>
+      </c>
+      <c r="M381" t="s">
+        <v>228</v>
+      </c>
+      <c r="N381" t="s">
+        <v>102</v>
+      </c>
+      <c r="O381" t="s">
+        <v>200</v>
+      </c>
+      <c r="P381" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="382" spans="1:66" x14ac:dyDescent="0.35">
@@ -40254,7 +40278,7 @@
         <v>87</v>
       </c>
       <c r="K386" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L386" t="s">
         <v>100</v>
@@ -40804,31 +40828,31 @@
         <v>85</v>
       </c>
       <c r="I391" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J391" t="s">
         <v>116</v>
       </c>
       <c r="K391" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L391" t="s">
         <v>83</v>
       </c>
       <c r="M391" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N391" t="s">
         <v>116</v>
       </c>
       <c r="O391" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P391" t="s">
         <v>106</v>
       </c>
       <c r="Q391" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R391" t="s">
         <v>83</v>
@@ -40878,13 +40902,91 @@
     </row>
     <row r="392" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B392" t="s">
         <v>117</v>
       </c>
       <c r="C392" t="s">
         <v>97</v>
+      </c>
+      <c r="I392" t="s">
+        <v>99</v>
+      </c>
+      <c r="J392" t="s">
+        <v>100</v>
+      </c>
+      <c r="K392" t="s">
+        <v>297</v>
+      </c>
+      <c r="L392" t="s">
+        <v>127</v>
+      </c>
+      <c r="M392" t="s">
+        <v>166</v>
+      </c>
+      <c r="N392" t="s">
+        <v>83</v>
+      </c>
+      <c r="O392" t="s">
+        <v>88</v>
+      </c>
+      <c r="P392" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>90</v>
+      </c>
+      <c r="R392" t="s">
+        <v>89</v>
+      </c>
+      <c r="S392" t="s">
+        <v>168</v>
+      </c>
+      <c r="T392" t="s">
+        <v>108</v>
+      </c>
+      <c r="U392" t="s">
+        <v>137</v>
+      </c>
+      <c r="V392" t="s">
+        <v>102</v>
+      </c>
+      <c r="W392" t="s">
+        <v>177</v>
+      </c>
+      <c r="X392" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>811</v>
+      </c>
+      <c r="AH392" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="393" spans="1:90" x14ac:dyDescent="0.35">
@@ -40949,7 +41051,7 @@
         <v>117</v>
       </c>
       <c r="Y393" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Z393" t="s">
         <v>117</v>
@@ -41032,7 +41134,7 @@
         <v>89</v>
       </c>
       <c r="AC394" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AD394" t="s">
         <v>87</v>
@@ -41232,7 +41334,7 @@
         <v>85</v>
       </c>
       <c r="I395" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J395" t="s">
         <v>117</v>
@@ -41408,7 +41510,7 @@
         <v>97</v>
       </c>
       <c r="AM396" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AN396" t="s">
         <v>129</v>
@@ -41444,7 +41546,7 @@
         <v>84</v>
       </c>
       <c r="AY396" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AZ396" t="s">
         <v>129</v>
@@ -41789,7 +41891,7 @@
         <v>89</v>
       </c>
       <c r="AI399" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AJ399" t="s">
         <v>87</v>
@@ -41977,7 +42079,7 @@
         <v>117</v>
       </c>
       <c r="M400" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N400" t="s">
         <v>117</v>
@@ -43074,7 +43176,7 @@
         <v>87</v>
       </c>
       <c r="Q413" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R413" t="s">
         <v>83</v>
@@ -43086,7 +43188,7 @@
         <v>89</v>
       </c>
       <c r="U413" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="V413" t="s">
         <v>87</v>
@@ -43487,7 +43589,7 @@
         <v>87</v>
       </c>
       <c r="Y417" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Z417" t="s">
         <v>87</v>
@@ -43945,7 +44047,7 @@
         <v>95</v>
       </c>
       <c r="U424" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V424" t="s">
         <v>89</v>
@@ -44797,7 +44899,7 @@
         <v>87</v>
       </c>
       <c r="Q433" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R433" t="s">
         <v>87</v>
@@ -44919,7 +45021,7 @@
         <v>102</v>
       </c>
       <c r="K434" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L434" t="s">
         <v>84</v>
@@ -45177,7 +45279,7 @@
         <v>119</v>
       </c>
       <c r="U437" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V437" t="s">
         <v>117</v>
@@ -45415,7 +45517,7 @@
         <v>87</v>
       </c>
       <c r="S439" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T439" t="s">
         <v>87</v>
@@ -45835,7 +45937,7 @@
         <v>102</v>
       </c>
       <c r="AY442" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AZ442" t="s">
         <v>92</v>
@@ -45897,7 +45999,7 @@
         <v>117</v>
       </c>
       <c r="S443" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T443" t="s">
         <v>110</v>
@@ -45995,7 +46097,7 @@
         <v>102</v>
       </c>
       <c r="AC444" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AD444" t="s">
         <v>110</v>
@@ -46063,7 +46165,7 @@
         <v>89</v>
       </c>
       <c r="M445" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N445" t="s">
         <v>100</v>
@@ -46125,7 +46227,7 @@
         <v>148</v>
       </c>
       <c r="I446" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J446" t="s">
         <v>87</v>
@@ -47190,7 +47292,7 @@
         <v>106</v>
       </c>
       <c r="Q455" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R455" t="s">
         <v>92</v>
@@ -47373,7 +47475,7 @@
         <v>83</v>
       </c>
       <c r="U458" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V458" t="s">
         <v>110</v>
@@ -47467,7 +47569,7 @@
         <v>95</v>
       </c>
       <c r="O460" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P460" t="s">
         <v>110</v>
@@ -47573,7 +47675,7 @@
         <v>83</v>
       </c>
       <c r="M462" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N462" t="s">
         <v>116</v>
@@ -48500,7 +48602,7 @@
         <v>95</v>
       </c>
       <c r="U474" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V474" t="s">
         <v>119</v>
@@ -48616,7 +48718,7 @@
         <v>102</v>
       </c>
       <c r="AM475" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AN475" t="s">
         <v>110</v>
@@ -48670,7 +48772,7 @@
         <v>117</v>
       </c>
       <c r="BE475" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="BF475" t="s">
         <v>110</v>
@@ -48902,7 +49004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="481" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>725</v>
       </c>
@@ -48916,7 +49018,7 @@
         <v>85</v>
       </c>
       <c r="I481" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J481" t="s">
         <v>122</v>
@@ -48958,7 +49060,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="482" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>726</v>
       </c>
@@ -49017,7 +49119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="483" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>727</v>
       </c>
@@ -49058,13 +49160,13 @@
         <v>92</v>
       </c>
       <c r="Q483" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R483" t="s">
         <v>87</v>
       </c>
       <c r="S483" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T483" t="s">
         <v>89</v>
@@ -49142,7 +49244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="484" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>728</v>
       </c>
@@ -49222,7 +49324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="485" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>729</v>
       </c>
@@ -49235,8 +49337,62 @@
       <c r="E485" t="s">
         <v>85</v>
       </c>
+      <c r="I485" t="s">
+        <v>133</v>
+      </c>
+      <c r="J485" t="s">
+        <v>87</v>
+      </c>
+      <c r="K485" t="s">
+        <v>166</v>
+      </c>
+      <c r="L485" t="s">
+        <v>83</v>
+      </c>
+      <c r="M485" t="s">
+        <v>110</v>
+      </c>
+      <c r="N485" t="s">
+        <v>110</v>
+      </c>
+      <c r="O485" t="s">
+        <v>137</v>
+      </c>
+      <c r="P485" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q485" t="s">
+        <v>96</v>
+      </c>
+      <c r="R485" t="s">
+        <v>97</v>
+      </c>
+      <c r="S485" t="s">
+        <v>162</v>
+      </c>
+      <c r="T485" t="s">
+        <v>83</v>
+      </c>
+      <c r="U485" t="s">
+        <v>754</v>
+      </c>
+      <c r="V485" t="s">
+        <v>110</v>
+      </c>
+      <c r="W485" t="s">
+        <v>228</v>
+      </c>
+      <c r="X485" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y485" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z485" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="486" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>730</v>
       </c>
@@ -49246,8 +49402,230 @@
       <c r="E486" t="s">
         <v>85</v>
       </c>
+      <c r="I486" t="s">
+        <v>121</v>
+      </c>
+      <c r="J486" t="s">
+        <v>122</v>
+      </c>
+      <c r="K486" t="s">
+        <v>133</v>
+      </c>
+      <c r="L486" t="s">
+        <v>87</v>
+      </c>
+      <c r="M486" t="s">
+        <v>101</v>
+      </c>
+      <c r="N486" t="s">
+        <v>102</v>
+      </c>
+      <c r="O486" t="s">
+        <v>104</v>
+      </c>
+      <c r="P486" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>124</v>
+      </c>
+      <c r="R486" t="s">
+        <v>87</v>
+      </c>
+      <c r="S486" t="s">
+        <v>185</v>
+      </c>
+      <c r="T486" t="s">
+        <v>83</v>
+      </c>
+      <c r="U486" t="s">
+        <v>176</v>
+      </c>
+      <c r="V486" t="s">
+        <v>127</v>
+      </c>
+      <c r="W486" t="s">
+        <v>93</v>
+      </c>
+      <c r="X486" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y486" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z486" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA486" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB486" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC486" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD486" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE486" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF486" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG486" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH486" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI486" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ486" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK486" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL486" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM486" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN486" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO486" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP486" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ486" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR486" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS486" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT486" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU486" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV486" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW486" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX486" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY486" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ486" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA486" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB486" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC486" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD486" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE486" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF486" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG486" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH486" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI486" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ486" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK486" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL486" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM486" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN486" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO486" t="s">
+        <v>228</v>
+      </c>
+      <c r="BP486" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ486" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR486" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS486" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT486" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU486" t="s">
+        <v>188</v>
+      </c>
+      <c r="BV486" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW486" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX486" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY486" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ486" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA486" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB486" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC486" t="s">
+        <v>752</v>
+      </c>
+      <c r="CD486" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="487" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>731</v>
       </c>
@@ -49260,8 +49638,80 @@
       <c r="E487" t="s">
         <v>85</v>
       </c>
+      <c r="I487" t="s">
+        <v>104</v>
+      </c>
+      <c r="J487" t="s">
+        <v>87</v>
+      </c>
+      <c r="K487" t="s">
+        <v>93</v>
+      </c>
+      <c r="L487" t="s">
+        <v>87</v>
+      </c>
+      <c r="M487" t="s">
+        <v>737</v>
+      </c>
+      <c r="N487" t="s">
+        <v>87</v>
+      </c>
+      <c r="O487" t="s">
+        <v>91</v>
+      </c>
+      <c r="P487" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>160</v>
+      </c>
+      <c r="R487" t="s">
+        <v>89</v>
+      </c>
+      <c r="S487" t="s">
+        <v>94</v>
+      </c>
+      <c r="T487" t="s">
+        <v>95</v>
+      </c>
+      <c r="U487" t="s">
+        <v>196</v>
+      </c>
+      <c r="V487" t="s">
+        <v>89</v>
+      </c>
+      <c r="W487" t="s">
+        <v>179</v>
+      </c>
+      <c r="X487" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y487" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z487" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA487" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB487" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC487" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD487" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE487" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF487" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="488" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>732</v>
       </c>
@@ -49271,31 +49721,176 @@
       <c r="E488" t="s">
         <v>85</v>
       </c>
+      <c r="I488" t="s">
+        <v>348</v>
+      </c>
+      <c r="J488" t="s">
+        <v>117</v>
+      </c>
+      <c r="K488" t="s">
+        <v>93</v>
+      </c>
+      <c r="L488" t="s">
+        <v>87</v>
+      </c>
+      <c r="M488" t="s">
+        <v>755</v>
+      </c>
+      <c r="N488" t="s">
+        <v>89</v>
+      </c>
+      <c r="O488" t="s">
+        <v>115</v>
+      </c>
+      <c r="P488" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>194</v>
+      </c>
+      <c r="R488" t="s">
+        <v>106</v>
+      </c>
+      <c r="S488" t="s">
+        <v>217</v>
+      </c>
+      <c r="T488" t="s">
+        <v>92</v>
+      </c>
+      <c r="U488" t="s">
+        <v>145</v>
+      </c>
+      <c r="V488" t="s">
+        <v>89</v>
+      </c>
+      <c r="W488" t="s">
+        <v>131</v>
+      </c>
+      <c r="X488" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="489" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>733</v>
       </c>
       <c r="B489" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E489" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="490" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A490" t="s">
-        <v>734</v>
-      </c>
-      <c r="B490" t="s">
-        <v>102</v>
-      </c>
-      <c r="E490" t="s">
-        <v>85</v>
+      <c r="I489" t="s">
+        <v>121</v>
+      </c>
+      <c r="J489" t="s">
+        <v>122</v>
+      </c>
+      <c r="K489" t="s">
+        <v>124</v>
+      </c>
+      <c r="L489" t="s">
+        <v>87</v>
+      </c>
+      <c r="M489" t="s">
+        <v>185</v>
+      </c>
+      <c r="N489" t="s">
+        <v>83</v>
+      </c>
+      <c r="O489" t="s">
+        <v>93</v>
+      </c>
+      <c r="P489" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q489" t="s">
+        <v>155</v>
+      </c>
+      <c r="R489" t="s">
+        <v>117</v>
+      </c>
+      <c r="S489" t="s">
+        <v>110</v>
+      </c>
+      <c r="T489" t="s">
+        <v>110</v>
+      </c>
+      <c r="U489" t="s">
+        <v>126</v>
+      </c>
+      <c r="V489" t="s">
+        <v>127</v>
+      </c>
+      <c r="W489" t="s">
+        <v>115</v>
+      </c>
+      <c r="X489" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y489" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z489" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA489" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB489" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC489" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD489" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE489" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF489" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG489" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH489" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI489" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ489" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK489" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL489" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM489" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN489" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO489" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP489" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ489" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR489" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q1:Q490" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="Q1:Q489" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC802FC5-90E4-4683-AD02-12482EE84182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937DE982-8CB3-4DEA-BE6C-A588A0243BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15353" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15359" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2419,9 +2419,6 @@
     <t>Type42</t>
   </si>
   <si>
-    <t>Shadow</t>
-  </si>
-  <si>
     <t>Sacred Sword</t>
   </si>
   <si>
@@ -2459,6 +2456,12 @@
   </si>
   <si>
     <t>Bite</t>
+  </si>
+  <si>
+    <t>Move43</t>
+  </si>
+  <si>
+    <t>Type43</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2542,6 +2545,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2844,15 +2850,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN489"/>
+  <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R375" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AI392" sqref="AI392"/>
+    <sheetView tabSelected="1" topLeftCell="CF1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="CO2" sqref="CO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,8 +3135,14 @@
       <c r="CN1" s="2" t="s">
         <v>797</v>
       </c>
+      <c r="CO1" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -4052,9 +4064,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -4096,7 +4108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -4218,7 +4230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -24045,6 +24057,9 @@
       <c r="I217" t="s">
         <v>179</v>
       </c>
+      <c r="J217" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="218" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
@@ -24297,7 +24312,7 @@
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
@@ -28823,6 +28838,9 @@
       <c r="I266" t="s">
         <v>118</v>
       </c>
+      <c r="J266" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="267" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
@@ -37162,7 +37180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="353" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>599</v>
       </c>
@@ -37212,7 +37230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="354" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>600</v>
       </c>
@@ -37477,8 +37495,14 @@
       <c r="CN354" t="s">
         <v>102</v>
       </c>
+      <c r="CO354" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP354" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="355" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>601</v>
       </c>
@@ -37540,7 +37564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="356" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>602</v>
       </c>
@@ -37578,7 +37602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="357" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>603</v>
       </c>
@@ -37622,7 +37646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="358" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>604</v>
       </c>
@@ -37654,7 +37678,7 @@
         <v>102</v>
       </c>
       <c r="O358" t="s">
-        <v>798</v>
+        <v>96</v>
       </c>
       <c r="P358" t="s">
         <v>97</v>
@@ -37684,7 +37708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="359" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>605</v>
       </c>
@@ -37716,7 +37740,7 @@
         <v>102</v>
       </c>
       <c r="O359" t="s">
-        <v>798</v>
+        <v>96</v>
       </c>
       <c r="P359" t="s">
         <v>97</v>
@@ -37746,7 +37770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="360" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>606</v>
       </c>
@@ -37778,7 +37802,7 @@
         <v>102</v>
       </c>
       <c r="O360" t="s">
-        <v>798</v>
+        <v>96</v>
       </c>
       <c r="P360" t="s">
         <v>97</v>
@@ -37808,7 +37832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="361" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>607</v>
       </c>
@@ -37840,7 +37864,7 @@
         <v>102</v>
       </c>
       <c r="O361" t="s">
-        <v>798</v>
+        <v>96</v>
       </c>
       <c r="P361" t="s">
         <v>97</v>
@@ -37870,7 +37894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>608</v>
       </c>
@@ -37950,7 +37974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="363" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>609</v>
       </c>
@@ -38120,7 +38144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="364" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>610</v>
       </c>
@@ -38212,7 +38236,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="365" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>611</v>
       </c>
@@ -38259,7 +38283,7 @@
         <v>84</v>
       </c>
       <c r="U365" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V365" t="s">
         <v>87</v>
@@ -38337,7 +38361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="366" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>612</v>
       </c>
@@ -38438,7 +38462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="367" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>613</v>
       </c>
@@ -38575,7 +38599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="368" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>614</v>
       </c>
@@ -39926,7 +39950,7 @@
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B381" t="s">
         <v>106</v>
@@ -40278,7 +40302,7 @@
         <v>87</v>
       </c>
       <c r="K386" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L386" t="s">
         <v>100</v>
@@ -40902,7 +40926,7 @@
     </row>
     <row r="392" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B392" t="s">
         <v>117</v>
@@ -40983,7 +41007,7 @@
         <v>119</v>
       </c>
       <c r="AG392" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AH392" t="s">
         <v>102</v>
@@ -41334,7 +41358,7 @@
         <v>85</v>
       </c>
       <c r="I395" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J395" t="s">
         <v>117</v>
@@ -42079,7 +42103,7 @@
         <v>117</v>
       </c>
       <c r="M400" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N400" t="s">
         <v>117</v>
@@ -45021,7 +45045,7 @@
         <v>102</v>
       </c>
       <c r="K434" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L434" t="s">
         <v>84</v>
@@ -46165,7 +46189,7 @@
         <v>89</v>
       </c>
       <c r="M445" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N445" t="s">
         <v>100</v>
@@ -47292,7 +47316,7 @@
         <v>106</v>
       </c>
       <c r="Q455" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R455" t="s">
         <v>92</v>
@@ -48602,7 +48626,7 @@
         <v>95</v>
       </c>
       <c r="U474" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V474" t="s">
         <v>119</v>
@@ -48718,7 +48742,7 @@
         <v>102</v>
       </c>
       <c r="AM475" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AN475" t="s">
         <v>110</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937DE982-8CB3-4DEA-BE6C-A588A0243BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE187F20-3817-4B14-9BC4-E6B448C6DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2536,7 +2536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2545,9 +2545,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2852,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J280" sqref="J280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3135,10 +3132,10 @@
       <c r="CN1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="2" t="s">
         <v>812</v>
       </c>
     </row>
@@ -5257,7 +5254,7 @@
         <v>145</v>
       </c>
       <c r="AJ22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
@@ -30055,7 +30052,7 @@
         <v>121</v>
       </c>
       <c r="J280" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K280" t="s">
         <v>101</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE187F20-3817-4B14-9BC4-E6B448C6DED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377B2E1-F84A-4982-B68D-9260CCA573F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15359" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15360" uniqueCount="813">
   <si>
     <t>Name</t>
   </si>
@@ -2849,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J280" sqref="J280"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23447,6 +23447,9 @@
       <c r="Q212" t="s">
         <v>179</v>
       </c>
+      <c r="R212" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="213" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A213" t="s">

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377B2E1-F84A-4982-B68D-9260CCA573F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0084E-730C-419E-8DEF-5563297F359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15360" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15364" uniqueCount="814">
   <si>
     <t>Name</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Type43</t>
+  </si>
+  <si>
+    <t>Thunder</t>
   </si>
 </sst>
 </file>
@@ -2849,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="T4" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5254,7 +5257,7 @@
         <v>145</v>
       </c>
       <c r="AJ22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
@@ -16037,171 +16040,177 @@
         <v>122</v>
       </c>
       <c r="K144" t="s">
+        <v>315</v>
+      </c>
+      <c r="L144" t="s">
+        <v>173</v>
+      </c>
+      <c r="M144" t="s">
         <v>348</v>
       </c>
-      <c r="L144" t="s">
+      <c r="N144" t="s">
         <v>117</v>
       </c>
-      <c r="M144" t="s">
+      <c r="O144" t="s">
         <v>101</v>
       </c>
-      <c r="N144" t="s">
-        <v>102</v>
-      </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q144" t="s">
         <v>124</v>
       </c>
-      <c r="P144" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
+        <v>87</v>
+      </c>
+      <c r="S144" t="s">
         <v>93</v>
       </c>
-      <c r="R144" t="s">
-        <v>87</v>
-      </c>
-      <c r="S144" t="s">
+      <c r="T144" t="s">
+        <v>87</v>
+      </c>
+      <c r="U144" t="s">
         <v>99</v>
       </c>
-      <c r="T144" t="s">
+      <c r="V144" t="s">
         <v>100</v>
       </c>
-      <c r="U144" t="s">
+      <c r="W144" t="s">
         <v>166</v>
       </c>
-      <c r="V144" t="s">
+      <c r="X144" t="s">
         <v>83</v>
       </c>
-      <c r="W144" t="s">
+      <c r="Y144" t="s">
         <v>316</v>
       </c>
-      <c r="X144" t="s">
+      <c r="Z144" t="s">
         <v>110</v>
       </c>
-      <c r="Y144" t="s">
+      <c r="AA144" t="s">
         <v>225</v>
       </c>
-      <c r="Z144" t="s">
+      <c r="AB144" t="s">
         <v>129</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AC144" t="s">
         <v>88</v>
       </c>
-      <c r="AB144" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC144" t="s">
+      <c r="AD144" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE144" t="s">
         <v>737</v>
       </c>
-      <c r="AD144" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE144" t="s">
+      <c r="AF144" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG144" t="s">
         <v>159</v>
       </c>
-      <c r="AF144" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG144" t="s">
+      <c r="AH144" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI144" t="s">
         <v>155</v>
       </c>
-      <c r="AH144" t="s">
+      <c r="AJ144" t="s">
         <v>117</v>
       </c>
-      <c r="AI144" t="s">
+      <c r="AK144" t="s">
         <v>156</v>
       </c>
-      <c r="AJ144" t="s">
+      <c r="AL144" t="s">
         <v>84</v>
       </c>
-      <c r="AK144" t="s">
+      <c r="AM144" t="s">
         <v>157</v>
       </c>
-      <c r="AL144" t="s">
+      <c r="AN144" t="s">
         <v>129</v>
       </c>
-      <c r="AM144" t="s">
+      <c r="AO144" t="s">
         <v>137</v>
       </c>
-      <c r="AN144" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO144" t="s">
+      <c r="AP144" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ144" t="s">
         <v>239</v>
       </c>
-      <c r="AP144" t="s">
+      <c r="AR144" t="s">
         <v>110</v>
       </c>
-      <c r="AQ144" t="s">
+      <c r="AS144" t="s">
         <v>96</v>
       </c>
-      <c r="AR144" t="s">
+      <c r="AT144" t="s">
         <v>97</v>
       </c>
-      <c r="AS144" t="s">
+      <c r="AU144" t="s">
         <v>86</v>
       </c>
-      <c r="AT144" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU144" t="s">
+      <c r="AV144" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW144" t="s">
         <v>150</v>
       </c>
-      <c r="AV144" t="s">
+      <c r="AX144" t="s">
         <v>117</v>
       </c>
-      <c r="AW144" t="s">
+      <c r="AY144" t="s">
         <v>151</v>
       </c>
-      <c r="AX144" t="s">
+      <c r="AZ144" t="s">
         <v>84</v>
       </c>
-      <c r="AY144" t="s">
+      <c r="BA144" t="s">
         <v>94</v>
       </c>
-      <c r="AZ144" t="s">
+      <c r="BB144" t="s">
         <v>95</v>
       </c>
-      <c r="BA144" t="s">
+      <c r="BC144" t="s">
         <v>153</v>
       </c>
-      <c r="BB144" t="s">
+      <c r="BD144" t="s">
         <v>119</v>
       </c>
-      <c r="BC144" t="s">
+      <c r="BE144" t="s">
         <v>139</v>
       </c>
-      <c r="BD144" t="s">
+      <c r="BF144" t="s">
         <v>117</v>
       </c>
-      <c r="BE144" t="s">
+      <c r="BG144" t="s">
         <v>140</v>
       </c>
-      <c r="BF144" t="s">
+      <c r="BH144" t="s">
         <v>84</v>
       </c>
-      <c r="BG144" t="s">
+      <c r="BI144" t="s">
         <v>143</v>
       </c>
-      <c r="BH144" t="s">
+      <c r="BJ144" t="s">
         <v>119</v>
       </c>
-      <c r="BI144" t="s">
+      <c r="BK144" t="s">
         <v>149</v>
       </c>
-      <c r="BJ144" t="s">
+      <c r="BL144" t="s">
         <v>84</v>
       </c>
-      <c r="BK144" t="s">
+      <c r="BM144" t="s">
         <v>145</v>
       </c>
-      <c r="BL144" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM144" t="s">
+      <c r="BN144" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO144" t="s">
         <v>210</v>
       </c>
-      <c r="BN144" t="s">
+      <c r="BP144" t="s">
         <v>95</v>
       </c>
     </row>
@@ -37108,75 +37117,81 @@
         <v>87</v>
       </c>
       <c r="S352" t="s">
+        <v>813</v>
+      </c>
+      <c r="T352" t="s">
+        <v>119</v>
+      </c>
+      <c r="U352" t="s">
         <v>737</v>
       </c>
-      <c r="T352" t="s">
-        <v>87</v>
-      </c>
-      <c r="U352" t="s">
+      <c r="V352" t="s">
+        <v>87</v>
+      </c>
+      <c r="W352" t="s">
         <v>125</v>
       </c>
-      <c r="V352" t="s">
+      <c r="X352" t="s">
         <v>83</v>
       </c>
-      <c r="W352" t="s">
+      <c r="Y352" t="s">
         <v>236</v>
       </c>
-      <c r="X352" t="s">
+      <c r="Z352" t="s">
         <v>92</v>
       </c>
-      <c r="Y352" t="s">
+      <c r="AA352" t="s">
         <v>96</v>
       </c>
-      <c r="Z352" t="s">
+      <c r="AB352" t="s">
         <v>97</v>
       </c>
-      <c r="AA352" t="s">
+      <c r="AC352" t="s">
         <v>132</v>
       </c>
-      <c r="AB352" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC352" t="s">
+      <c r="AD352" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE352" t="s">
         <v>150</v>
       </c>
-      <c r="AD352" t="s">
+      <c r="AF352" t="s">
         <v>117</v>
       </c>
-      <c r="AE352" t="s">
+      <c r="AG352" t="s">
         <v>151</v>
       </c>
-      <c r="AF352" t="s">
+      <c r="AH352" t="s">
         <v>84</v>
       </c>
-      <c r="AG352" t="s">
+      <c r="AI352" t="s">
         <v>94</v>
       </c>
-      <c r="AH352" t="s">
+      <c r="AJ352" t="s">
         <v>95</v>
       </c>
-      <c r="AI352" t="s">
+      <c r="AK352" t="s">
         <v>194</v>
       </c>
-      <c r="AJ352" t="s">
+      <c r="AL352" t="s">
         <v>106</v>
       </c>
-      <c r="AK352" t="s">
+      <c r="AM352" t="s">
         <v>153</v>
       </c>
-      <c r="AL352" t="s">
+      <c r="AN352" t="s">
         <v>119</v>
       </c>
-      <c r="AM352" t="s">
+      <c r="AO352" t="s">
         <v>130</v>
       </c>
-      <c r="AN352" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO352" t="s">
+      <c r="AP352" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ352" t="s">
         <v>210</v>
       </c>
-      <c r="AP352" t="s">
+      <c r="AR352" t="s">
         <v>95</v>
       </c>
     </row>
@@ -49914,7 +49929,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q1:Q489" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0084E-730C-419E-8DEF-5563297F359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC79387-F72E-4925-8D1B-3C0D3BAA7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15364" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15364" uniqueCount="815">
   <si>
     <t>Name</t>
   </si>
@@ -2465,6 +2465,9 @@
   </si>
   <si>
     <t>Thunder</t>
+  </si>
+  <si>
+    <t>Move39</t>
   </si>
 </sst>
 </file>
@@ -2852,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T4" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="CH2" sqref="CH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3112,7 +3115,7 @@
         <v>791</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="CH1" s="2" t="s">
         <v>789</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC79387-F72E-4925-8D1B-3C0D3BAA7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065821D-DCB6-48E1-B5B1-8C2A2E6DBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15364" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15356" uniqueCount="815">
   <si>
     <t>Name</t>
   </si>
@@ -2855,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="99" workbookViewId="0">
+      <selection activeCell="U437" sqref="U437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16217,7 +16217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>396</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>397</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>398</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>399</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>400</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>401</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>402</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>403</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>758</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>404</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>405</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>406</v>
       </c>
@@ -17225,157 +17225,151 @@
         <v>83</v>
       </c>
       <c r="M156" t="s">
-        <v>761</v>
+        <v>88</v>
       </c>
       <c r="N156" t="s">
+        <v>89</v>
+      </c>
+      <c r="O156" t="s">
+        <v>91</v>
+      </c>
+      <c r="P156" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>112</v>
+      </c>
+      <c r="R156" t="s">
+        <v>95</v>
+      </c>
+      <c r="S156" t="s">
+        <v>219</v>
+      </c>
+      <c r="T156" t="s">
         <v>117</v>
       </c>
-      <c r="O156" t="s">
-        <v>88</v>
-      </c>
-      <c r="P156" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>91</v>
-      </c>
-      <c r="R156" t="s">
-        <v>92</v>
-      </c>
-      <c r="S156" t="s">
-        <v>112</v>
-      </c>
-      <c r="T156" t="s">
-        <v>95</v>
-      </c>
       <c r="U156" t="s">
-        <v>219</v>
+        <v>748</v>
       </c>
       <c r="V156" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="W156" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="X156" t="s">
         <v>106</v>
       </c>
       <c r="Y156" t="s">
-        <v>756</v>
+        <v>155</v>
       </c>
       <c r="Z156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>754</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR156" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS156" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT156" t="s">
         <v>106</v>
       </c>
-      <c r="AA156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC156" t="s">
-        <v>747</v>
-      </c>
-      <c r="AD156" t="s">
+      <c r="AU156" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV156" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW156" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ156" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA156" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB156" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC156" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD156" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE156" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF156" t="s">
         <v>116</v>
       </c>
-      <c r="AE156" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF156" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG156" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH156" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI156" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ156" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK156" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL156" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM156" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN156" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO156" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP156" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ156" t="s">
-        <v>754</v>
-      </c>
-      <c r="AR156" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS156" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT156" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU156" t="s">
-        <v>194</v>
-      </c>
-      <c r="AV156" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW156" t="s">
-        <v>153</v>
-      </c>
-      <c r="AX156" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY156" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ156" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA156" t="s">
-        <v>179</v>
-      </c>
-      <c r="BB156" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC156" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD156" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE156" t="s">
-        <v>210</v>
-      </c>
-      <c r="BF156" t="s">
-        <v>95</v>
-      </c>
       <c r="BG156" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="BH156" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI156" t="s">
-        <v>284</v>
-      </c>
-      <c r="BJ156" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>407</v>
       </c>
@@ -17509,7 +17503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -17571,7 +17565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>409</v>
       </c>
@@ -17633,7 +17627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -23092,69 +23086,63 @@
         <v>100</v>
       </c>
       <c r="O208" t="s">
-        <v>761</v>
+        <v>225</v>
       </c>
       <c r="P208" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>90</v>
+      </c>
+      <c r="R208" t="s">
+        <v>89</v>
+      </c>
+      <c r="S208" t="s">
+        <v>155</v>
+      </c>
+      <c r="T208" t="s">
         <v>117</v>
       </c>
-      <c r="Q208" t="s">
-        <v>225</v>
-      </c>
-      <c r="R208" t="s">
-        <v>129</v>
-      </c>
-      <c r="S208" t="s">
-        <v>90</v>
-      </c>
-      <c r="T208" t="s">
-        <v>89</v>
-      </c>
       <c r="U208" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V208" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="W208" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="X208" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Y208" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="Z208" t="s">
         <v>92</v>
       </c>
       <c r="AA208" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="AB208" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="AC208" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="AD208" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE208" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="AF208" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG208" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="AH208" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI208" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ208" t="s">
         <v>95</v>
       </c>
     </row>
@@ -30436,141 +30424,135 @@
         <v>119</v>
       </c>
       <c r="O283" t="s">
-        <v>761</v>
+        <v>159</v>
       </c>
       <c r="P283" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>169</v>
+      </c>
+      <c r="R283" t="s">
+        <v>108</v>
+      </c>
+      <c r="S283" t="s">
+        <v>155</v>
+      </c>
+      <c r="T283" t="s">
         <v>117</v>
       </c>
-      <c r="Q283" t="s">
-        <v>159</v>
-      </c>
-      <c r="R283" t="s">
-        <v>87</v>
-      </c>
-      <c r="S283" t="s">
-        <v>169</v>
-      </c>
-      <c r="T283" t="s">
-        <v>108</v>
-      </c>
       <c r="U283" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="V283" t="s">
+        <v>119</v>
+      </c>
+      <c r="W283" t="s">
+        <v>154</v>
+      </c>
+      <c r="X283" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ283" t="s">
         <v>117</v>
       </c>
-      <c r="W283" t="s">
-        <v>118</v>
-      </c>
-      <c r="X283" t="s">
+      <c r="AK283" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS283" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT283" t="s">
         <v>119</v>
       </c>
-      <c r="Y283" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z283" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA283" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB283" t="s">
+      <c r="AU283" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV283" t="s">
         <v>97</v>
       </c>
-      <c r="AC283" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD283" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE283" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF283" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG283" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH283" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI283" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ283" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK283" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL283" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM283" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN283" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO283" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP283" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ283" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR283" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS283" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT283" t="s">
+      <c r="AW283" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>765</v>
+      </c>
+      <c r="AZ283" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA283" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB283" t="s">
         <v>95</v>
       </c>
-      <c r="AU283" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV283" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW283" t="s">
-        <v>289</v>
-      </c>
-      <c r="AX283" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY283" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ283" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA283" t="s">
-        <v>765</v>
-      </c>
-      <c r="BB283" t="s">
-        <v>89</v>
-      </c>
       <c r="BC283" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="BD283" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BE283" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="BF283" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG283" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH283" t="s">
         <v>97</v>
       </c>
     </row>
@@ -45321,99 +45303,93 @@
         <v>119</v>
       </c>
       <c r="U437" t="s">
-        <v>761</v>
+        <v>219</v>
       </c>
       <c r="V437" t="s">
         <v>117</v>
       </c>
       <c r="W437" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="X437" t="s">
         <v>117</v>
       </c>
       <c r="Y437" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="Z437" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AA437" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB437" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC437" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD437" t="s">
         <v>110</v>
       </c>
-      <c r="AB437" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC437" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD437" t="s">
-        <v>87</v>
-      </c>
       <c r="AE437" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="AF437" t="s">
         <v>110</v>
       </c>
       <c r="AG437" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="AH437" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI437" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ437" t="s">
         <v>110</v>
       </c>
-      <c r="AI437" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ437" t="s">
-        <v>97</v>
-      </c>
       <c r="AK437" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="AL437" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="AM437" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="AN437" t="s">
         <v>87</v>
       </c>
       <c r="AO437" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="AP437" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="AQ437" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="AR437" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AS437" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AT437" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="AU437" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="AV437" t="s">
         <v>92</v>
       </c>
       <c r="AW437" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="AX437" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY437" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ437" t="s">
         <v>110</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065821D-DCB6-48E1-B5B1-8C2A2E6DBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E3A68-09B3-4E61-B769-B6BC978D285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15356" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15354" uniqueCount="814">
   <si>
     <t>Name</t>
   </si>
@@ -2306,9 +2306,6 @@
   </si>
   <si>
     <t>Petal Blizzard</t>
-  </si>
-  <si>
-    <t>Fire Blast</t>
   </si>
   <si>
     <t>Aqua Cutter</t>
@@ -2855,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="99" workbookViewId="0">
-      <selection activeCell="U437" sqref="U437"/>
+    <sheetView tabSelected="1" topLeftCell="L327" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Q334" sqref="Q334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3109,40 +3106,40 @@
         <v>81</v>
       </c>
       <c r="CE1" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="CJ1" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="CN1" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="CO1" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.35">
@@ -4069,7 +4066,7 @@
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -4527,7 +4524,7 @@
         <v>102</v>
       </c>
       <c r="BI14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BJ14" t="s">
         <v>89</v>
@@ -7609,7 +7606,7 @@
         <v>83</v>
       </c>
       <c r="AE49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF49" t="s">
         <v>89</v>
@@ -12016,7 +12013,7 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AL103" t="s">
         <v>89</v>
@@ -17999,7 +17996,7 @@
         <v>106</v>
       </c>
       <c r="AY162" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AZ162" t="s">
         <v>129</v>
@@ -18397,7 +18394,7 @@
         <v>106</v>
       </c>
       <c r="AA166" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AB166" t="s">
         <v>127</v>
@@ -18559,7 +18556,7 @@
     </row>
     <row r="169" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -18979,7 +18976,7 @@
         <v>87</v>
       </c>
       <c r="BE172" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="BF172" t="s">
         <v>89</v>
@@ -19113,7 +19110,7 @@
         <v>102</v>
       </c>
       <c r="AQ173" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AR173" t="s">
         <v>106</v>
@@ -19217,7 +19214,7 @@
         <v>117</v>
       </c>
       <c r="AK174" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AL174" t="s">
         <v>106</v>
@@ -20339,7 +20336,7 @@
         <v>129</v>
       </c>
       <c r="AG183" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH183" t="s">
         <v>129</v>
@@ -21084,7 +21081,7 @@
         <v>97</v>
       </c>
       <c r="AU188" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AV188" t="s">
         <v>106</v>
@@ -21119,7 +21116,7 @@
         <v>102</v>
       </c>
       <c r="K189" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L189" t="s">
         <v>89</v>
@@ -21239,7 +21236,7 @@
         <v>102</v>
       </c>
       <c r="AY189" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AZ189" t="s">
         <v>92</v>
@@ -21703,7 +21700,7 @@
         <v>95</v>
       </c>
       <c r="AG193" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AH193" t="s">
         <v>92</v>
@@ -21750,7 +21747,7 @@
         <v>95</v>
       </c>
       <c r="O194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P194" t="s">
         <v>117</v>
@@ -21810,7 +21807,7 @@
         <v>95</v>
       </c>
       <c r="AI194" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AJ194" t="s">
         <v>92</v>
@@ -21899,7 +21896,7 @@
         <v>116</v>
       </c>
       <c r="AC195" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AD195" t="s">
         <v>102</v>
@@ -21917,7 +21914,7 @@
         <v>102</v>
       </c>
       <c r="AI195" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AJ195" t="s">
         <v>92</v>
@@ -21949,7 +21946,7 @@
         <v>85</v>
       </c>
       <c r="I196" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J196" t="s">
         <v>122</v>
@@ -22157,7 +22154,7 @@
         <v>122</v>
       </c>
       <c r="K198" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L198" t="s">
         <v>122</v>
@@ -24312,7 +24309,7 @@
     </row>
     <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B221" t="s">
         <v>106</v>
@@ -24549,7 +24546,7 @@
         <v>87</v>
       </c>
       <c r="S224" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T224" t="s">
         <v>83</v>
@@ -25405,7 +25402,7 @@
         <v>110</v>
       </c>
       <c r="AI232" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AJ232" t="s">
         <v>87</v>
@@ -25856,7 +25853,7 @@
         <v>87</v>
       </c>
       <c r="M237" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N237" t="s">
         <v>87</v>
@@ -25912,7 +25909,7 @@
         <v>87</v>
       </c>
       <c r="M238" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N238" t="s">
         <v>87</v>
@@ -25990,7 +25987,7 @@
         <v>116</v>
       </c>
       <c r="AM238" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AN238" t="s">
         <v>87</v>
@@ -26106,7 +26103,7 @@
         <v>110</v>
       </c>
       <c r="Q239" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R239" t="s">
         <v>117</v>
@@ -26190,7 +26187,7 @@
         <v>102</v>
       </c>
       <c r="AS239" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AT239" t="s">
         <v>89</v>
@@ -27086,7 +27083,7 @@
         <v>85</v>
       </c>
       <c r="I249" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J249" t="s">
         <v>122</v>
@@ -27175,123 +27172,117 @@
         <v>92</v>
       </c>
       <c r="O250" t="s">
-        <v>761</v>
+        <v>88</v>
       </c>
       <c r="P250" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>112</v>
+      </c>
+      <c r="R250" t="s">
+        <v>95</v>
+      </c>
+      <c r="S250" t="s">
+        <v>155</v>
+      </c>
+      <c r="T250" t="s">
         <v>117</v>
       </c>
-      <c r="Q250" t="s">
-        <v>88</v>
-      </c>
-      <c r="R250" t="s">
-        <v>89</v>
-      </c>
-      <c r="S250" t="s">
-        <v>112</v>
-      </c>
-      <c r="T250" t="s">
+      <c r="U250" t="s">
+        <v>273</v>
+      </c>
+      <c r="V250" t="s">
+        <v>102</v>
+      </c>
+      <c r="W250" t="s">
+        <v>203</v>
+      </c>
+      <c r="X250" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH250" t="s">
         <v>95</v>
       </c>
-      <c r="U250" t="s">
-        <v>155</v>
-      </c>
-      <c r="V250" t="s">
-        <v>117</v>
-      </c>
-      <c r="W250" t="s">
-        <v>273</v>
-      </c>
-      <c r="X250" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y250" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z250" t="s">
+      <c r="AI250" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL250" t="s">
         <v>127</v>
       </c>
-      <c r="AA250" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB250" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC250" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD250" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE250" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF250" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG250" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH250" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI250" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ250" t="s">
+      <c r="AM250" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR250" t="s">
         <v>95</v>
       </c>
-      <c r="AK250" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL250" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM250" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN250" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO250" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP250" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ250" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR250" t="s">
-        <v>89</v>
-      </c>
       <c r="AS250" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="AT250" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AU250" t="s">
-        <v>146</v>
+        <v>768</v>
       </c>
       <c r="AV250" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AW250" t="s">
-        <v>769</v>
+        <v>180</v>
       </c>
       <c r="AX250" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AY250" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="AZ250" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA250" t="s">
-        <v>223</v>
-      </c>
-      <c r="BB250" t="s">
         <v>95</v>
       </c>
     </row>
@@ -27491,7 +27482,7 @@
         <v>95</v>
       </c>
       <c r="BA252" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BB252" t="s">
         <v>87</v>
@@ -27621,7 +27612,7 @@
         <v>95</v>
       </c>
       <c r="S254" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T254" t="s">
         <v>89</v>
@@ -27674,7 +27665,7 @@
         <v>106</v>
       </c>
       <c r="U255" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V255" t="s">
         <v>117</v>
@@ -28114,7 +28105,7 @@
         <v>102</v>
       </c>
       <c r="BC259" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BD259" t="s">
         <v>89</v>
@@ -28132,13 +28123,13 @@
         <v>95</v>
       </c>
       <c r="BI259" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="BJ259" t="s">
         <v>89</v>
       </c>
       <c r="BK259" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BL259" t="s">
         <v>89</v>
@@ -28921,7 +28912,7 @@
     </row>
     <row r="268" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B268" t="s">
         <v>110</v>
@@ -29581,7 +29572,7 @@
         <v>102</v>
       </c>
       <c r="K274" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L274" t="s">
         <v>83</v>
@@ -29806,7 +29797,7 @@
         <v>119</v>
       </c>
       <c r="O277" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P277" t="s">
         <v>117</v>
@@ -30532,7 +30523,7 @@
         <v>102</v>
       </c>
       <c r="AY283" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AZ283" t="s">
         <v>89</v>
@@ -30713,7 +30704,7 @@
         <v>83</v>
       </c>
       <c r="O285" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="P285" t="s">
         <v>97</v>
@@ -30766,7 +30757,7 @@
         <v>92</v>
       </c>
       <c r="K286" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L286" t="s">
         <v>108</v>
@@ -33618,7 +33609,7 @@
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B317" t="s">
         <v>129</v>
@@ -34444,13 +34435,13 @@
         <v>102</v>
       </c>
       <c r="AI325" t="s">
+        <v>786</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK325" t="s">
         <v>787</v>
-      </c>
-      <c r="AJ325" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK325" t="s">
-        <v>788</v>
       </c>
       <c r="AL325" t="s">
         <v>87</v>
@@ -34744,7 +34735,7 @@
         <v>102</v>
       </c>
       <c r="AI328" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AJ328" t="s">
         <v>89</v>
@@ -35446,7 +35437,7 @@
         <v>127</v>
       </c>
       <c r="M337" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N337" t="s">
         <v>97</v>
@@ -37102,7 +37093,7 @@
         <v>87</v>
       </c>
       <c r="S352" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="T352" t="s">
         <v>119</v>
@@ -37666,7 +37657,7 @@
         <v>102</v>
       </c>
       <c r="K358" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L358" t="s">
         <v>97</v>
@@ -37728,7 +37719,7 @@
         <v>102</v>
       </c>
       <c r="K359" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L359" t="s">
         <v>97</v>
@@ -37790,7 +37781,7 @@
         <v>102</v>
       </c>
       <c r="K360" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L360" t="s">
         <v>97</v>
@@ -37852,7 +37843,7 @@
         <v>102</v>
       </c>
       <c r="K361" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L361" t="s">
         <v>97</v>
@@ -38126,7 +38117,7 @@
         <v>87</v>
       </c>
       <c r="BC363" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BD363" t="s">
         <v>129</v>
@@ -38283,7 +38274,7 @@
         <v>84</v>
       </c>
       <c r="U365" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V365" t="s">
         <v>87</v>
@@ -39950,7 +39941,7 @@
     </row>
     <row r="381" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B381" t="s">
         <v>106</v>
@@ -40302,7 +40293,7 @@
         <v>87</v>
       </c>
       <c r="K386" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L386" t="s">
         <v>100</v>
@@ -40926,7 +40917,7 @@
     </row>
     <row r="392" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B392" t="s">
         <v>117</v>
@@ -41007,7 +40998,7 @@
         <v>119</v>
       </c>
       <c r="AG392" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AH392" t="s">
         <v>102</v>
@@ -41075,7 +41066,7 @@
         <v>117</v>
       </c>
       <c r="Y393" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Z393" t="s">
         <v>117</v>
@@ -41358,7 +41349,7 @@
         <v>85</v>
       </c>
       <c r="I395" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J395" t="s">
         <v>117</v>
@@ -42103,7 +42094,7 @@
         <v>117</v>
       </c>
       <c r="M400" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N400" t="s">
         <v>117</v>
@@ -43200,7 +43191,7 @@
         <v>87</v>
       </c>
       <c r="Q413" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R413" t="s">
         <v>83</v>
@@ -45045,7 +45036,7 @@
         <v>102</v>
       </c>
       <c r="K434" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L434" t="s">
         <v>84</v>
@@ -45955,7 +45946,7 @@
         <v>102</v>
       </c>
       <c r="AY442" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AZ442" t="s">
         <v>92</v>
@@ -46183,7 +46174,7 @@
         <v>89</v>
       </c>
       <c r="M445" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N445" t="s">
         <v>100</v>
@@ -46245,7 +46236,7 @@
         <v>148</v>
       </c>
       <c r="I446" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J446" t="s">
         <v>87</v>
@@ -47310,7 +47301,7 @@
         <v>106</v>
       </c>
       <c r="Q455" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R455" t="s">
         <v>92</v>
@@ -48620,7 +48611,7 @@
         <v>95</v>
       </c>
       <c r="U474" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V474" t="s">
         <v>119</v>
@@ -48736,7 +48727,7 @@
         <v>102</v>
       </c>
       <c r="AM475" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AN475" t="s">
         <v>110</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E3A68-09B3-4E61-B769-B6BC978D285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E07FC-D036-4C1B-899A-417ACCC398BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15354" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15348" uniqueCount="814">
   <si>
     <t>Name</t>
   </si>
@@ -2852,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L327" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q334" sqref="Q334"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4034,33 +4034,27 @@
         <v>119</v>
       </c>
       <c r="BU9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="BV9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="BW9" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="BX9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BY9" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="BZ9" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="CA9" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="CB9" t="s">
-        <v>89</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>191</v>
-      </c>
-      <c r="CD9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4674,12 +4668,6 @@
       <c r="AL16" t="s">
         <v>89</v>
       </c>
-      <c r="AM16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -5138,27 +5126,21 @@
         <v>83</v>
       </c>
       <c r="AG21" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AH21" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AI21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="AL21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN21" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E07FC-D036-4C1B-899A-417ACCC398BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD02BD0-8F8F-4B45-B11F-BDE36FF69587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15348" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30696" uniqueCount="814">
   <si>
     <t>Name</t>
   </si>
@@ -2852,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="K209" zoomScale="99" workbookViewId="0">
+      <selection activeCell="U227" sqref="U227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24733,7 +24733,7 @@
         <v>100</v>
       </c>
       <c r="U226" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="V226" t="s">
         <v>87</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8236F955-8EDF-499C-A7FA-6CC46037C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE83D72-04F3-49C6-915B-4B65E32F5A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3174,10 +3174,10 @@
         <v>84</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
         <v>85</v>
@@ -3250,6 +3250,12 @@
       <c r="B3" t="s">
         <v>102</v>
       </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>115</v>
+      </c>
       <c r="H3" t="s">
         <v>85</v>
       </c>
@@ -3357,6 +3363,12 @@
       <c r="B4" t="s">
         <v>106</v>
       </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
       <c r="H4" t="s">
         <v>85</v>
       </c>
@@ -3425,6 +3437,12 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
       <c r="H5" t="s">
         <v>85</v>
       </c>
@@ -3529,6 +3547,12 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
       <c r="H6" t="s">
         <v>85</v>
       </c>
@@ -3717,6 +3741,12 @@
       <c r="B7" t="s">
         <v>108</v>
       </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
       <c r="H7" t="s">
         <v>85</v>
       </c>
@@ -3788,6 +3818,12 @@
       <c r="D8" t="s">
         <v>108</v>
       </c>
+      <c r="E8">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
@@ -3865,6 +3901,12 @@
       <c r="B9" t="s">
         <v>173</v>
       </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
       <c r="H9" t="s">
         <v>85</v>
       </c>
@@ -4095,6 +4137,12 @@
       <c r="C10" t="s">
         <v>127</v>
       </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>85</v>
+      </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
@@ -4139,6 +4187,12 @@
       <c r="D11" t="s">
         <v>100</v>
       </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>165</v>
+      </c>
       <c r="H11" t="s">
         <v>85</v>
       </c>
@@ -4261,6 +4315,12 @@
       <c r="C12" t="s">
         <v>100</v>
       </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
       <c r="H12" t="s">
         <v>85</v>
       </c>
@@ -4338,6 +4398,12 @@
       <c r="C13" t="s">
         <v>106</v>
       </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
       <c r="H13" t="s">
         <v>85</v>
       </c>
@@ -4385,6 +4451,12 @@
       <c r="B14" t="s">
         <v>127</v>
       </c>
+      <c r="E14">
+        <v>95</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
@@ -4561,6 +4633,12 @@
       <c r="C15" t="s">
         <v>173</v>
       </c>
+      <c r="E15">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
       <c r="H15" t="s">
         <v>85</v>
       </c>
@@ -4602,6 +4680,12 @@
       <c r="B16" t="s">
         <v>117</v>
       </c>
+      <c r="E16">
+        <v>110</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
       <c r="H16" t="s">
         <v>85</v>
       </c>
@@ -4706,6 +4790,12 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
+      <c r="E17">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>95</v>
+      </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
@@ -4792,6 +4882,12 @@
       <c r="C18" t="s">
         <v>116</v>
       </c>
+      <c r="E18">
+        <v>140</v>
+      </c>
+      <c r="F18">
+        <v>112</v>
+      </c>
       <c r="H18" t="s">
         <v>85</v>
       </c>
@@ -4914,6 +5010,12 @@
       <c r="C19" t="s">
         <v>84</v>
       </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
       <c r="H19" t="s">
         <v>85</v>
       </c>
@@ -4982,6 +5084,12 @@
       <c r="C20" t="s">
         <v>84</v>
       </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
       <c r="H20" t="s">
         <v>85</v>
       </c>
@@ -5074,6 +5182,12 @@
       <c r="C21" t="s">
         <v>127</v>
       </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
       <c r="H21" t="s">
         <v>85</v>
       </c>
@@ -5181,6 +5295,12 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
+      <c r="E22">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
       <c r="H22" t="s">
         <v>85</v>
       </c>
@@ -5279,6 +5399,12 @@
       <c r="C23" t="s">
         <v>110</v>
       </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>125</v>
+      </c>
       <c r="H23" t="s">
         <v>85</v>
       </c>
@@ -5355,6 +5481,12 @@
       </c>
       <c r="B24" t="s">
         <v>108</v>
+      </c>
+      <c r="E24">
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>99</v>
       </c>
       <c r="H24" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE83D72-04F3-49C6-915B-4B65E32F5A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534104DF-6BC9-4710-8231-0027BFD9DD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="819">
   <si>
     <t>Name</t>
   </si>
@@ -2477,6 +2477,9 @@
   </si>
   <si>
     <t>Strong Jaw</t>
+  </si>
+  <si>
+    <t>RUBL</t>
   </si>
 </sst>
 </file>
@@ -2864,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5547,6 +5550,12 @@
       <c r="C25" t="s">
         <v>116</v>
       </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>95</v>
+      </c>
       <c r="H25" t="s">
         <v>85</v>
       </c>
@@ -5603,6 +5612,12 @@
       <c r="C26" t="s">
         <v>116</v>
       </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>125</v>
+      </c>
       <c r="H26" t="s">
         <v>85</v>
       </c>
@@ -5629,6 +5644,12 @@
       <c r="D27" t="s">
         <v>108</v>
       </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
       <c r="H27" t="s">
         <v>85</v>
       </c>
@@ -5787,6 +5808,12 @@
       <c r="C28" t="s">
         <v>84</v>
       </c>
+      <c r="E28">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>99</v>
+      </c>
       <c r="H28" t="s">
         <v>85</v>
       </c>
@@ -5870,6 +5897,12 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
+      <c r="E29">
+        <v>117</v>
+      </c>
+      <c r="F29">
+        <v>44</v>
+      </c>
       <c r="H29" t="s">
         <v>85</v>
       </c>
@@ -5962,6 +5995,12 @@
       <c r="C30" t="s">
         <v>95</v>
       </c>
+      <c r="E30">
+        <v>127</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
       <c r="G30" t="s">
         <v>817</v>
       </c>
@@ -6045,6 +6084,12 @@
       <c r="B31" t="s">
         <v>110</v>
       </c>
+      <c r="E31">
+        <v>125</v>
+      </c>
+      <c r="F31">
+        <v>125</v>
+      </c>
       <c r="H31" t="s">
         <v>85</v>
       </c>
@@ -6167,8 +6212,14 @@
       <c r="C32" t="s">
         <v>108</v>
       </c>
+      <c r="E32">
+        <v>149</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>818</v>
       </c>
       <c r="L32" t="s">
         <v>86</v>
@@ -6268,6 +6319,12 @@
       <c r="B33" t="s">
         <v>97</v>
       </c>
+      <c r="E33">
+        <v>165</v>
+      </c>
+      <c r="F33">
+        <v>93</v>
+      </c>
       <c r="H33" t="s">
         <v>85</v>
       </c>
@@ -6366,6 +6423,12 @@
       <c r="C34" t="s">
         <v>129</v>
       </c>
+      <c r="E34">
+        <v>105</v>
+      </c>
+      <c r="F34">
+        <v>54</v>
+      </c>
       <c r="H34" t="s">
         <v>85</v>
       </c>
@@ -6509,6 +6572,12 @@
       <c r="B35" t="s">
         <v>129</v>
       </c>
+      <c r="E35">
+        <v>123</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
       <c r="H35" t="s">
         <v>85</v>
       </c>
@@ -6595,6 +6664,12 @@
       <c r="C36" t="s">
         <v>97</v>
       </c>
+      <c r="E36">
+        <v>112</v>
+      </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
       <c r="H36" t="s">
         <v>85</v>
       </c>
@@ -6657,6 +6732,12 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
+      <c r="E37">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
       <c r="H37" t="s">
         <v>85</v>
       </c>
@@ -6716,6 +6797,12 @@
       <c r="B38" t="s">
         <v>129</v>
       </c>
+      <c r="E38">
+        <v>92</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
       <c r="H38" t="s">
         <v>85</v>
       </c>
@@ -6793,6 +6880,12 @@
       <c r="C39" t="s">
         <v>92</v>
       </c>
+      <c r="E39">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>47</v>
+      </c>
       <c r="H39" t="s">
         <v>85</v>
       </c>
@@ -6897,6 +6990,12 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
+      <c r="E40">
+        <v>130</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -7070,6 +7169,12 @@
       <c r="C41" t="s">
         <v>116</v>
       </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
       <c r="H41" t="s">
         <v>85</v>
       </c>
@@ -7114,6 +7219,12 @@
       <c r="C42" t="s">
         <v>127</v>
       </c>
+      <c r="E42">
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <v>45</v>
+      </c>
       <c r="H42" t="s">
         <v>85</v>
       </c>
@@ -7173,6 +7284,12 @@
       <c r="B43" t="s">
         <v>110</v>
       </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
       <c r="H43" t="s">
         <v>85</v>
       </c>
@@ -7241,6 +7358,12 @@
       <c r="B44" t="s">
         <v>119</v>
       </c>
+      <c r="E44">
+        <v>64</v>
+      </c>
+      <c r="F44">
+        <v>103</v>
+      </c>
       <c r="H44" t="s">
         <v>85</v>
       </c>
@@ -7264,6 +7387,12 @@
       <c r="B45" t="s">
         <v>83</v>
       </c>
+      <c r="E45">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <v>90</v>
+      </c>
       <c r="H45" t="s">
         <v>85</v>
       </c>
@@ -7329,6 +7458,12 @@
       <c r="C46" t="s">
         <v>87</v>
       </c>
+      <c r="E46">
+        <v>125</v>
+      </c>
+      <c r="F46">
+        <v>55</v>
+      </c>
       <c r="H46" t="s">
         <v>85</v>
       </c>
@@ -7430,6 +7565,12 @@
       <c r="C47" t="s">
         <v>129</v>
       </c>
+      <c r="E47">
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <v>55</v>
+      </c>
       <c r="H47" t="s">
         <v>85</v>
       </c>
@@ -7510,6 +7651,12 @@
       <c r="B48" t="s">
         <v>129</v>
       </c>
+      <c r="E48">
+        <v>83</v>
+      </c>
+      <c r="F48">
+        <v>85</v>
+      </c>
       <c r="H48" t="s">
         <v>85</v>
       </c>
@@ -7680,6 +7827,12 @@
       <c r="B49" t="s">
         <v>173</v>
       </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>75</v>
+      </c>
       <c r="H49" t="s">
         <v>85</v>
       </c>
@@ -7762,6 +7915,12 @@
       </c>
       <c r="B50" t="s">
         <v>119</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>90</v>
       </c>
       <c r="H50" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534104DF-6BC9-4710-8231-0027BFD9DD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4760F2-338C-4568-914F-F434696A6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7969,6 +7969,12 @@
       <c r="D51" t="s">
         <v>95</v>
       </c>
+      <c r="E51">
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
       <c r="H51" t="s">
         <v>85</v>
       </c>
@@ -8031,6 +8037,12 @@
       <c r="B52" t="s">
         <v>173</v>
       </c>
+      <c r="E52">
+        <v>110</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
       <c r="H52" t="s">
         <v>85</v>
       </c>
@@ -8153,6 +8165,12 @@
       <c r="C53" t="s">
         <v>97</v>
       </c>
+      <c r="E53">
+        <v>115</v>
+      </c>
+      <c r="F53">
+        <v>80</v>
+      </c>
       <c r="H53" t="s">
         <v>85</v>
       </c>
@@ -8179,6 +8197,12 @@
       <c r="C54" t="s">
         <v>116</v>
       </c>
+      <c r="E54">
+        <v>123</v>
+      </c>
+      <c r="F54">
+        <v>57</v>
+      </c>
       <c r="H54" t="s">
         <v>85</v>
       </c>
@@ -8256,6 +8280,12 @@
       <c r="C55" t="s">
         <v>116</v>
       </c>
+      <c r="E55">
+        <v>83</v>
+      </c>
+      <c r="F55">
+        <v>112</v>
+      </c>
       <c r="H55" t="s">
         <v>85</v>
       </c>
@@ -8330,6 +8360,12 @@
       <c r="C56" t="s">
         <v>87</v>
       </c>
+      <c r="E56">
+        <v>130</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
       <c r="H56" t="s">
         <v>85</v>
       </c>
@@ -8428,6 +8464,12 @@
       <c r="C57" t="s">
         <v>110</v>
       </c>
+      <c r="E57">
+        <v>89</v>
+      </c>
+      <c r="F57">
+        <v>79</v>
+      </c>
       <c r="H57" t="s">
         <v>85</v>
       </c>
@@ -8520,6 +8562,12 @@
       <c r="C58" t="s">
         <v>102</v>
       </c>
+      <c r="E58">
+        <v>127</v>
+      </c>
+      <c r="F58">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
         <v>85</v>
       </c>
@@ -8588,6 +8636,12 @@
       <c r="C59" t="s">
         <v>110</v>
       </c>
+      <c r="E59">
+        <v>105</v>
+      </c>
+      <c r="F59">
+        <v>70</v>
+      </c>
       <c r="H59" t="s">
         <v>85</v>
       </c>
@@ -8656,6 +8710,12 @@
       <c r="C60" t="s">
         <v>116</v>
       </c>
+      <c r="E60">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>90</v>
+      </c>
       <c r="H60" t="s">
         <v>85</v>
       </c>
@@ -8715,6 +8775,12 @@
       <c r="C61" t="s">
         <v>102</v>
       </c>
+      <c r="E61">
+        <v>115</v>
+      </c>
+      <c r="F61">
+        <v>115</v>
+      </c>
       <c r="H61" t="s">
         <v>85</v>
       </c>
@@ -8843,6 +8909,12 @@
       <c r="C62" t="s">
         <v>83</v>
       </c>
+      <c r="E62">
+        <v>80</v>
+      </c>
+      <c r="F62">
+        <v>80</v>
+      </c>
       <c r="H62" t="s">
         <v>85</v>
       </c>
@@ -8875,6 +8947,12 @@
       <c r="C63" t="s">
         <v>89</v>
       </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <v>145</v>
+      </c>
       <c r="H63" t="s">
         <v>85</v>
       </c>
@@ -8949,6 +9027,12 @@
       <c r="C64" t="s">
         <v>108</v>
       </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
       <c r="H64" t="s">
         <v>85</v>
       </c>
@@ -9005,6 +9089,12 @@
       <c r="B65" t="s">
         <v>83</v>
       </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>90</v>
+      </c>
       <c r="H65" t="s">
         <v>85</v>
       </c>
@@ -9061,6 +9151,12 @@
       <c r="C66" t="s">
         <v>95</v>
       </c>
+      <c r="E66">
+        <v>108</v>
+      </c>
+      <c r="F66">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
         <v>85</v>
       </c>
@@ -9150,6 +9246,12 @@
       <c r="B67" t="s">
         <v>173</v>
       </c>
+      <c r="E67">
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <v>70</v>
+      </c>
       <c r="H67" t="s">
         <v>85</v>
       </c>
@@ -9233,6 +9335,12 @@
       <c r="C68" t="s">
         <v>83</v>
       </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
       <c r="H68" t="s">
         <v>85</v>
       </c>
@@ -9310,6 +9418,12 @@
       <c r="C69" t="s">
         <v>106</v>
       </c>
+      <c r="E69">
+        <v>115</v>
+      </c>
+      <c r="F69">
+        <v>90</v>
+      </c>
       <c r="H69" t="s">
         <v>85</v>
       </c>
@@ -9368,6 +9482,12 @@
       </c>
       <c r="B70" t="s">
         <v>84</v>
+      </c>
+      <c r="E70">
+        <v>113</v>
+      </c>
+      <c r="F70">
+        <v>45</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4760F2-338C-4568-914F-F434696A6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5864-9134-4FF2-9145-E83762797400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$T$1:$T$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$489</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15376" uniqueCount="819">
   <si>
     <t>Name</t>
   </si>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11613,7 +11613,7 @@
         <v>222</v>
       </c>
       <c r="M95" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N95" t="s">
         <v>236</v>
@@ -12462,7 +12462,7 @@
         <v>222</v>
       </c>
       <c r="M104" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N104" t="s">
         <v>121</v>
@@ -15337,7 +15337,7 @@
         <v>222</v>
       </c>
       <c r="M130" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N130" t="s">
         <v>133</v>
@@ -18920,7 +18920,7 @@
         <v>222</v>
       </c>
       <c r="M168" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N168" t="s">
         <v>204</v>
@@ -25355,7 +25355,7 @@
         <v>222</v>
       </c>
       <c r="M228" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N228" t="s">
         <v>120</v>
@@ -30615,7 +30615,7 @@
         <v>222</v>
       </c>
       <c r="M281" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="N281" t="s">
         <v>204</v>
@@ -32008,7 +32008,79 @@
         <v>222</v>
       </c>
       <c r="M292" t="s">
-        <v>119</v>
+        <v>222</v>
+      </c>
+      <c r="N292" t="s">
+        <v>166</v>
+      </c>
+      <c r="O292" t="s">
+        <v>83</v>
+      </c>
+      <c r="P292" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>102</v>
+      </c>
+      <c r="R292" t="s">
+        <v>136</v>
+      </c>
+      <c r="S292" t="s">
+        <v>129</v>
+      </c>
+      <c r="T292" t="s">
+        <v>154</v>
+      </c>
+      <c r="U292" t="s">
+        <v>102</v>
+      </c>
+      <c r="V292" t="s">
+        <v>239</v>
+      </c>
+      <c r="W292" t="s">
+        <v>110</v>
+      </c>
+      <c r="X292" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:77" x14ac:dyDescent="0.35">
@@ -50322,6 +50394,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D489" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5864-9134-4FF2-9145-E83762797400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596FF4A-F6D7-406B-B814-293741DE8048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15376" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15374" uniqueCount="819">
   <si>
     <t>Name</t>
   </si>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5163,15 +5163,9 @@
         <v>89</v>
       </c>
       <c r="AH20" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="AI20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9563,6 +9557,12 @@
       <c r="C71" t="s">
         <v>117</v>
       </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>145</v>
+      </c>
       <c r="H71" t="s">
         <v>85</v>
       </c>
@@ -9625,6 +9625,12 @@
       <c r="D72" t="s">
         <v>100</v>
       </c>
+      <c r="E72">
+        <v>84</v>
+      </c>
+      <c r="F72">
+        <v>109</v>
+      </c>
       <c r="H72" t="s">
         <v>85</v>
       </c>
@@ -9789,6 +9795,12 @@
       <c r="C73" t="s">
         <v>116</v>
       </c>
+      <c r="E73">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>92</v>
+      </c>
       <c r="H73" t="s">
         <v>85</v>
       </c>
@@ -9833,6 +9845,12 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
+      <c r="E74">
+        <v>60</v>
+      </c>
+      <c r="F74">
+        <v>87</v>
+      </c>
       <c r="H74" t="s">
         <v>85</v>
       </c>
@@ -9865,6 +9883,12 @@
       <c r="C75" t="s">
         <v>87</v>
       </c>
+      <c r="E75">
+        <v>107</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
       <c r="H75" t="s">
         <v>85</v>
       </c>
@@ -9996,6 +10020,12 @@
       <c r="B76" t="s">
         <v>110</v>
       </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>95</v>
+      </c>
       <c r="H76" t="s">
         <v>85</v>
       </c>
@@ -10043,6 +10073,12 @@
       <c r="B77" t="s">
         <v>173</v>
       </c>
+      <c r="E77">
+        <v>95</v>
+      </c>
+      <c r="F77">
+        <v>65</v>
+      </c>
       <c r="H77" t="s">
         <v>85</v>
       </c>
@@ -10180,6 +10216,12 @@
       <c r="B78" t="s">
         <v>129</v>
       </c>
+      <c r="E78">
+        <v>73</v>
+      </c>
+      <c r="F78">
+        <v>120</v>
+      </c>
       <c r="H78" t="s">
         <v>85</v>
       </c>
@@ -10278,6 +10320,12 @@
       <c r="C79" t="s">
         <v>110</v>
       </c>
+      <c r="E79">
+        <v>70</v>
+      </c>
+      <c r="F79">
+        <v>70</v>
+      </c>
       <c r="H79" t="s">
         <v>85</v>
       </c>
@@ -10364,6 +10412,12 @@
       <c r="C80" t="s">
         <v>84</v>
       </c>
+      <c r="E80">
+        <v>95</v>
+      </c>
+      <c r="F80">
+        <v>85</v>
+      </c>
       <c r="H80" t="s">
         <v>85</v>
       </c>
@@ -10417,6 +10471,12 @@
       <c r="C81" t="s">
         <v>117</v>
       </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
       <c r="H81" t="s">
         <v>85</v>
       </c>
@@ -10491,6 +10551,12 @@
       <c r="C82" t="s">
         <v>87</v>
       </c>
+      <c r="E82">
+        <v>90</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
       <c r="H82" t="s">
         <v>85</v>
       </c>
@@ -10559,6 +10625,12 @@
       <c r="B83" t="s">
         <v>97</v>
       </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83">
+        <v>95</v>
+      </c>
       <c r="H83" t="s">
         <v>85</v>
       </c>
@@ -10618,6 +10690,12 @@
       <c r="B84" t="s">
         <v>108</v>
       </c>
+      <c r="E84">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>82</v>
+      </c>
       <c r="H84" t="s">
         <v>85</v>
       </c>
@@ -10689,6 +10767,12 @@
       <c r="B85" t="s">
         <v>92</v>
       </c>
+      <c r="E85">
+        <v>130</v>
+      </c>
+      <c r="F85">
+        <v>80</v>
+      </c>
       <c r="H85" t="s">
         <v>85</v>
       </c>
@@ -10835,6 +10919,12 @@
       <c r="C86" t="s">
         <v>95</v>
       </c>
+      <c r="E86">
+        <v>55</v>
+      </c>
+      <c r="F86">
+        <v>65</v>
+      </c>
       <c r="H86" t="s">
         <v>85</v>
       </c>
@@ -10912,6 +11002,12 @@
       <c r="B87" t="s">
         <v>97</v>
       </c>
+      <c r="E87">
+        <v>55</v>
+      </c>
+      <c r="F87">
+        <v>65</v>
+      </c>
       <c r="H87" t="s">
         <v>85</v>
       </c>
@@ -11040,6 +11136,12 @@
       <c r="C88" t="s">
         <v>84</v>
       </c>
+      <c r="E88">
+        <v>132</v>
+      </c>
+      <c r="F88">
+        <v>62</v>
+      </c>
       <c r="H88" t="s">
         <v>85</v>
       </c>
@@ -11162,6 +11264,12 @@
       <c r="C89" t="s">
         <v>83</v>
       </c>
+      <c r="E89">
+        <v>81</v>
+      </c>
+      <c r="F89">
+        <v>81</v>
+      </c>
       <c r="H89" t="s">
         <v>85</v>
       </c>
@@ -11224,6 +11332,12 @@
       <c r="C90" t="s">
         <v>129</v>
       </c>
+      <c r="E90">
+        <v>85</v>
+      </c>
+      <c r="F90">
+        <v>85</v>
+      </c>
       <c r="H90" t="s">
         <v>85</v>
       </c>
@@ -11274,6 +11388,12 @@
       <c r="C91" t="s">
         <v>102</v>
       </c>
+      <c r="E91">
+        <v>120</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
       <c r="H91" t="s">
         <v>85</v>
       </c>
@@ -11357,6 +11477,12 @@
       <c r="B92" t="s">
         <v>110</v>
       </c>
+      <c r="E92">
+        <v>70</v>
+      </c>
+      <c r="F92">
+        <v>75</v>
+      </c>
       <c r="H92" t="s">
         <v>85</v>
       </c>
@@ -11437,6 +11563,12 @@
       <c r="C93" t="s">
         <v>116</v>
       </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <v>70</v>
+      </c>
       <c r="H93" t="s">
         <v>85</v>
       </c>
@@ -11529,6 +11661,12 @@
       <c r="C94" t="s">
         <v>95</v>
       </c>
+      <c r="E94">
+        <v>105</v>
+      </c>
+      <c r="F94">
+        <v>65</v>
+      </c>
       <c r="H94" t="s">
         <v>85</v>
       </c>
@@ -11606,6 +11744,12 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+      <c r="F95">
+        <v>95</v>
+      </c>
       <c r="H95" t="s">
         <v>85</v>
       </c>
@@ -11653,6 +11797,12 @@
       <c r="B96" t="s">
         <v>97</v>
       </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96">
+        <v>145</v>
+      </c>
       <c r="H96" t="s">
         <v>85</v>
       </c>
@@ -11829,6 +11979,12 @@
       <c r="C97" t="s">
         <v>173</v>
       </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="F97">
+        <v>85</v>
+      </c>
       <c r="H97" t="s">
         <v>85</v>
       </c>
@@ -11936,6 +12092,12 @@
       <c r="B98" t="s">
         <v>108</v>
       </c>
+      <c r="E98">
+        <v>80</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
       <c r="H98" t="s">
         <v>85</v>
       </c>
@@ -11995,6 +12157,12 @@
       <c r="B99" t="s">
         <v>117</v>
       </c>
+      <c r="E99">
+        <v>140</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
       <c r="H99" t="s">
         <v>85</v>
       </c>
@@ -12113,6 +12281,12 @@
       </c>
       <c r="C100" t="s">
         <v>97</v>
+      </c>
+      <c r="E100">
+        <v>107</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
       </c>
       <c r="H100" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596FF4A-F6D7-406B-B814-293741DE8048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD5B9F-675C-4A9D-8A2E-B4D3F84B3CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15374" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15374" uniqueCount="820">
   <si>
     <t>Name</t>
   </si>
@@ -2480,6 +2480,9 @@
   </si>
   <si>
     <t>RUBL</t>
+  </si>
+  <si>
+    <t>UU</t>
   </si>
 </sst>
 </file>
@@ -2867,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12386,6 +12389,12 @@
       <c r="C101" t="s">
         <v>87</v>
       </c>
+      <c r="E101">
+        <v>112</v>
+      </c>
+      <c r="F101">
+        <v>95</v>
+      </c>
       <c r="H101" t="s">
         <v>85</v>
       </c>
@@ -12469,6 +12478,12 @@
       <c r="C102" t="s">
         <v>108</v>
       </c>
+      <c r="E102">
+        <v>58</v>
+      </c>
+      <c r="F102">
+        <v>81</v>
+      </c>
       <c r="H102" t="s">
         <v>85</v>
       </c>
@@ -12522,6 +12537,12 @@
       <c r="B103" t="s">
         <v>173</v>
       </c>
+      <c r="E103">
+        <v>65</v>
+      </c>
+      <c r="F103">
+        <v>55</v>
+      </c>
       <c r="H103" t="s">
         <v>85</v>
       </c>
@@ -12626,6 +12647,12 @@
       <c r="C104" t="s">
         <v>116</v>
       </c>
+      <c r="E104">
+        <v>55</v>
+      </c>
+      <c r="F104">
+        <v>65</v>
+      </c>
       <c r="H104" t="s">
         <v>85</v>
       </c>
@@ -12709,6 +12736,12 @@
       <c r="C105" t="s">
         <v>110</v>
       </c>
+      <c r="E105">
+        <v>69</v>
+      </c>
+      <c r="F105">
+        <v>114</v>
+      </c>
       <c r="H105" t="s">
         <v>85</v>
       </c>
@@ -12792,6 +12825,12 @@
       <c r="B106" t="s">
         <v>110</v>
       </c>
+      <c r="E106">
+        <v>70</v>
+      </c>
+      <c r="F106">
+        <v>70</v>
+      </c>
       <c r="H106" t="s">
         <v>85</v>
       </c>
@@ -12998,6 +13037,12 @@
       <c r="C107" t="s">
         <v>84</v>
       </c>
+      <c r="E107">
+        <v>70</v>
+      </c>
+      <c r="F107">
+        <v>70</v>
+      </c>
       <c r="H107" t="s">
         <v>85</v>
       </c>
@@ -13069,6 +13114,12 @@
       <c r="D108" t="s">
         <v>92</v>
       </c>
+      <c r="E108">
+        <v>131</v>
+      </c>
+      <c r="F108">
+        <v>86</v>
+      </c>
       <c r="H108" t="s">
         <v>85</v>
       </c>
@@ -13155,6 +13206,12 @@
       <c r="C109" t="s">
         <v>108</v>
       </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
       <c r="H109" t="s">
         <v>85</v>
       </c>
@@ -13229,6 +13286,12 @@
       <c r="C110" t="s">
         <v>89</v>
       </c>
+      <c r="E110">
+        <v>56</v>
+      </c>
+      <c r="F110">
+        <v>50</v>
+      </c>
       <c r="H110" t="s">
         <v>85</v>
       </c>
@@ -13381,6 +13444,12 @@
       <c r="C111" t="s">
         <v>100</v>
       </c>
+      <c r="E111">
+        <v>80</v>
+      </c>
+      <c r="F111">
+        <v>95</v>
+      </c>
       <c r="H111" t="s">
         <v>85</v>
       </c>
@@ -13413,6 +13482,12 @@
       <c r="C112" t="s">
         <v>116</v>
       </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+      <c r="F112">
+        <v>60</v>
+      </c>
       <c r="H112" t="s">
         <v>85</v>
       </c>
@@ -13484,6 +13559,12 @@
       <c r="B113" t="s">
         <v>89</v>
       </c>
+      <c r="E113">
+        <v>120</v>
+      </c>
+      <c r="F113">
+        <v>60</v>
+      </c>
       <c r="H113" t="s">
         <v>85</v>
       </c>
@@ -13651,8 +13732,14 @@
       <c r="C114" t="s">
         <v>100</v>
       </c>
+      <c r="E114">
+        <v>100</v>
+      </c>
+      <c r="F114">
+        <v>80</v>
+      </c>
       <c r="H114" t="s">
-        <v>85</v>
+        <v>819</v>
       </c>
       <c r="L114" t="s">
         <v>93</v>
@@ -13737,6 +13824,12 @@
       <c r="C115" t="s">
         <v>100</v>
       </c>
+      <c r="E115">
+        <v>75</v>
+      </c>
+      <c r="F115">
+        <v>97</v>
+      </c>
       <c r="H115" t="s">
         <v>85</v>
       </c>
@@ -13841,6 +13934,12 @@
       <c r="C116" t="s">
         <v>100</v>
       </c>
+      <c r="E116">
+        <v>60</v>
+      </c>
+      <c r="F116">
+        <v>135</v>
+      </c>
       <c r="H116" t="s">
         <v>85</v>
       </c>
@@ -13987,6 +14086,12 @@
       <c r="C117" t="s">
         <v>102</v>
       </c>
+      <c r="E117">
+        <v>90</v>
+      </c>
+      <c r="F117">
+        <v>60</v>
+      </c>
       <c r="H117" t="s">
         <v>85</v>
       </c>
@@ -14091,6 +14196,12 @@
       <c r="C118" t="s">
         <v>95</v>
       </c>
+      <c r="E118">
+        <v>115</v>
+      </c>
+      <c r="F118">
+        <v>48</v>
+      </c>
       <c r="H118" t="s">
         <v>85</v>
       </c>
@@ -14219,6 +14330,12 @@
       <c r="C119" t="s">
         <v>116</v>
       </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>90</v>
+      </c>
       <c r="H119" t="s">
         <v>85</v>
       </c>
@@ -14271,6 +14388,12 @@
       </c>
       <c r="B120" t="s">
         <v>100</v>
+      </c>
+      <c r="E120">
+        <v>120</v>
+      </c>
+      <c r="F120">
+        <v>60</v>
       </c>
       <c r="H120" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD5B9F-675C-4A9D-8A2E-B4D3F84B3CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393452A-4068-403B-BEAE-F62C885CDA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14580,6 +14580,12 @@
       <c r="B121" t="s">
         <v>173</v>
       </c>
+      <c r="E121">
+        <v>80</v>
+      </c>
+      <c r="F121">
+        <v>60</v>
+      </c>
       <c r="H121" t="s">
         <v>85</v>
       </c>
@@ -14633,6 +14639,12 @@
       <c r="B122" t="s">
         <v>173</v>
       </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
+        <v>85</v>
+      </c>
       <c r="H122" t="s">
         <v>85</v>
       </c>
@@ -14860,6 +14872,12 @@
       <c r="B123" t="s">
         <v>89</v>
       </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123">
+        <v>50</v>
+      </c>
       <c r="H123" t="s">
         <v>85</v>
       </c>
@@ -14958,6 +14976,12 @@
       <c r="C124" t="s">
         <v>92</v>
       </c>
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124">
+        <v>50</v>
+      </c>
       <c r="H124" t="s">
         <v>85</v>
       </c>
@@ -15056,6 +15080,12 @@
       <c r="C125" t="s">
         <v>100</v>
       </c>
+      <c r="E125">
+        <v>95</v>
+      </c>
+      <c r="F125">
+        <v>120</v>
+      </c>
       <c r="H125" t="s">
         <v>85</v>
       </c>
@@ -15148,6 +15178,12 @@
       <c r="C126" t="s">
         <v>92</v>
       </c>
+      <c r="E126">
+        <v>109</v>
+      </c>
+      <c r="F126">
+        <v>48</v>
+      </c>
       <c r="H126" t="s">
         <v>85</v>
       </c>
@@ -15237,6 +15273,12 @@
       <c r="B127" t="s">
         <v>97</v>
       </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127">
+        <v>65</v>
+      </c>
       <c r="H127" t="s">
         <v>85</v>
       </c>
@@ -15389,6 +15431,12 @@
       <c r="C128" t="s">
         <v>127</v>
       </c>
+      <c r="E128">
+        <v>50</v>
+      </c>
+      <c r="F128">
+        <v>50</v>
+      </c>
       <c r="H128" t="s">
         <v>85</v>
       </c>
@@ -15430,6 +15478,12 @@
       <c r="B129" t="s">
         <v>119</v>
       </c>
+      <c r="E129">
+        <v>115</v>
+      </c>
+      <c r="F129">
+        <v>105</v>
+      </c>
       <c r="H129" t="s">
         <v>85</v>
       </c>
@@ -15627,6 +15681,12 @@
       <c r="B130" t="s">
         <v>84</v>
       </c>
+      <c r="E130">
+        <v>80</v>
+      </c>
+      <c r="F130">
+        <v>65</v>
+      </c>
       <c r="H130" t="s">
         <v>85</v>
       </c>
@@ -15710,6 +15770,12 @@
       <c r="B131" t="s">
         <v>83</v>
       </c>
+      <c r="E131">
+        <v>50</v>
+      </c>
+      <c r="F131">
+        <v>80</v>
+      </c>
       <c r="H131" t="s">
         <v>85</v>
       </c>
@@ -15727,6 +15793,12 @@
       <c r="B132" t="s">
         <v>119</v>
       </c>
+      <c r="E132">
+        <v>123</v>
+      </c>
+      <c r="F132">
+        <v>95</v>
+      </c>
       <c r="H132" t="s">
         <v>85</v>
       </c>
@@ -15882,6 +15954,12 @@
       <c r="B133" t="s">
         <v>119</v>
       </c>
+      <c r="E133">
+        <v>50</v>
+      </c>
+      <c r="F133">
+        <v>80</v>
+      </c>
       <c r="H133" t="s">
         <v>85</v>
       </c>
@@ -15926,6 +16004,12 @@
       <c r="C134" t="s">
         <v>83</v>
       </c>
+      <c r="E134">
+        <v>50</v>
+      </c>
+      <c r="F134">
+        <v>80</v>
+      </c>
       <c r="H134" t="s">
         <v>85</v>
       </c>
@@ -15952,6 +16036,12 @@
       <c r="C135" t="s">
         <v>87</v>
       </c>
+      <c r="E135">
+        <v>123</v>
+      </c>
+      <c r="F135">
+        <v>100</v>
+      </c>
       <c r="H135" t="s">
         <v>85</v>
       </c>
@@ -16092,6 +16182,12 @@
       <c r="C136" t="s">
         <v>116</v>
       </c>
+      <c r="E136">
+        <v>75</v>
+      </c>
+      <c r="F136">
+        <v>75</v>
+      </c>
       <c r="H136" t="s">
         <v>85</v>
       </c>
@@ -16148,6 +16244,12 @@
       <c r="C137" t="s">
         <v>92</v>
       </c>
+      <c r="E137">
+        <v>86</v>
+      </c>
+      <c r="F137">
+        <v>111</v>
+      </c>
       <c r="H137" t="s">
         <v>85</v>
       </c>
@@ -16291,6 +16393,12 @@
       <c r="C138" t="s">
         <v>116</v>
       </c>
+      <c r="E138">
+        <v>115</v>
+      </c>
+      <c r="F138">
+        <v>135</v>
+      </c>
       <c r="H138" t="s">
         <v>85</v>
       </c>
@@ -16368,6 +16476,12 @@
       <c r="B139" t="s">
         <v>117</v>
       </c>
+      <c r="E139">
+        <v>115</v>
+      </c>
+      <c r="F139">
+        <v>90</v>
+      </c>
       <c r="H139" t="s">
         <v>85</v>
       </c>
@@ -16454,6 +16568,12 @@
       <c r="C140" t="s">
         <v>92</v>
       </c>
+      <c r="E140">
+        <v>135</v>
+      </c>
+      <c r="F140">
+        <v>60</v>
+      </c>
       <c r="H140" t="s">
         <v>85</v>
       </c>
@@ -16543,6 +16663,12 @@
       <c r="B141" t="s">
         <v>110</v>
       </c>
+      <c r="E141">
+        <v>65</v>
+      </c>
+      <c r="F141">
+        <v>130</v>
+      </c>
       <c r="H141" t="s">
         <v>85</v>
       </c>
@@ -16605,6 +16731,12 @@
       <c r="C142" t="s">
         <v>110</v>
       </c>
+      <c r="E142">
+        <v>95</v>
+      </c>
+      <c r="F142">
+        <v>125</v>
+      </c>
       <c r="H142" t="s">
         <v>85</v>
       </c>
@@ -16643,6 +16775,12 @@
       <c r="C143" t="s">
         <v>100</v>
       </c>
+      <c r="E143">
+        <v>105</v>
+      </c>
+      <c r="F143">
+        <v>125</v>
+      </c>
       <c r="H143" t="s">
         <v>85</v>
       </c>
@@ -16750,6 +16888,12 @@
       <c r="B144" t="s">
         <v>173</v>
       </c>
+      <c r="E144">
+        <v>91</v>
+      </c>
+      <c r="F144">
+        <v>91</v>
+      </c>
       <c r="H144" t="s">
         <v>85</v>
       </c>
@@ -16941,6 +17085,12 @@
       <c r="B145" t="s">
         <v>87</v>
       </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <v>70</v>
+      </c>
       <c r="H145" t="s">
         <v>85</v>
       </c>
@@ -17045,6 +17195,12 @@
       <c r="C146" t="s">
         <v>116</v>
       </c>
+      <c r="E146">
+        <v>90</v>
+      </c>
+      <c r="F146">
+        <v>58</v>
+      </c>
       <c r="H146" t="s">
         <v>85</v>
       </c>
@@ -17143,6 +17299,12 @@
       <c r="C147" t="s">
         <v>110</v>
       </c>
+      <c r="E147">
+        <v>90</v>
+      </c>
+      <c r="F147">
+        <v>110</v>
+      </c>
       <c r="H147" t="s">
         <v>85</v>
       </c>
@@ -17259,6 +17421,12 @@
       <c r="C148" t="s">
         <v>116</v>
       </c>
+      <c r="E148">
+        <v>90</v>
+      </c>
+      <c r="F148">
+        <v>61</v>
+      </c>
       <c r="H148" t="s">
         <v>85</v>
       </c>
@@ -17306,6 +17474,12 @@
       <c r="B149" t="s">
         <v>129</v>
       </c>
+      <c r="E149">
+        <v>105</v>
+      </c>
+      <c r="F149">
+        <v>79</v>
+      </c>
       <c r="H149" t="s">
         <v>85</v>
       </c>
@@ -17475,6 +17649,12 @@
       </c>
       <c r="C150" t="s">
         <v>108</v>
+      </c>
+      <c r="E150">
+        <v>91</v>
+      </c>
+      <c r="F150">
+        <v>70</v>
       </c>
       <c r="H150" t="s">
         <v>85</v>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srijan Badhya\Documents\Pokemon_elite_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393452A-4068-403B-BEAE-F62C885CDA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3F1A4-7438-4235-ABE1-142C4A3A63F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17754,6 +17754,12 @@
       <c r="C151" t="s">
         <v>87</v>
       </c>
+      <c r="E151">
+        <v>115</v>
+      </c>
+      <c r="F151">
+        <v>75</v>
+      </c>
       <c r="H151" t="s">
         <v>85</v>
       </c>
@@ -17804,6 +17810,12 @@
       <c r="C152" t="s">
         <v>100</v>
       </c>
+      <c r="E152">
+        <v>110</v>
+      </c>
+      <c r="F152">
+        <v>95</v>
+      </c>
       <c r="H152" t="s">
         <v>85</v>
       </c>
@@ -17857,6 +17869,12 @@
       <c r="B153" t="s">
         <v>117</v>
       </c>
+      <c r